--- a/src/Excel/Yañez_Gonzalez_Christian_Emmanuel.xlsx
+++ b/src/Excel/Yañez_Gonzalez_Christian_Emmanuel.xlsx
@@ -11,12 +11,13 @@
     <sheet name="Contadores" r:id="rId5" sheetId="3"/>
     <sheet name="Ambito" r:id="rId6" sheetId="4"/>
     <sheet name="Semtica_Etapa_1" r:id="rId7" sheetId="5"/>
+    <sheet name="Semtica_Etapa_2" r:id="rId8" sheetId="6"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="115">
   <si>
     <t>Estado</t>
   </si>
@@ -27,282 +28,267 @@
     <t>Linea</t>
   </si>
   <si>
-    <t>-97</t>
+    <t>-61</t>
+  </si>
+  <si>
+    <t>main</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>-49</t>
+  </si>
+  <si>
+    <t>(</t>
+  </si>
+  <si>
+    <t>-50</t>
+  </si>
+  <si>
+    <t>)</t>
+  </si>
+  <si>
+    <t>-53</t>
+  </si>
+  <si>
+    <t>{</t>
+  </si>
+  <si>
+    <t>-4</t>
+  </si>
+  <si>
+    <t>if</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>-19</t>
+  </si>
+  <si>
+    <t>-36</t>
+  </si>
+  <si>
+    <t>&lt;</t>
+  </si>
+  <si>
+    <t>-46</t>
+  </si>
+  <si>
+    <t>;</t>
+  </si>
+  <si>
+    <t>-2</t>
+  </si>
+  <si>
+    <t>//OK</t>
+  </si>
+  <si>
+    <t>-6</t>
+  </si>
+  <si>
+    <t>while</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>-40</t>
+  </si>
+  <si>
+    <t>==</t>
+  </si>
+  <si>
+    <t>-47</t>
+  </si>
+  <si>
+    <t>,</t>
+  </si>
+  <si>
+    <t>-68</t>
+  </si>
+  <si>
+    <t>:</t>
+  </si>
+  <si>
+    <t>-99</t>
+  </si>
+  <si>
+    <t>default</t>
+  </si>
+  <si>
+    <t>-54</t>
+  </si>
+  <si>
+    <t>}</t>
+  </si>
+  <si>
+    <t>-91</t>
+  </si>
+  <si>
+    <t>repeat</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>-94</t>
+  </si>
+  <si>
+    <t>until</t>
+  </si>
+  <si>
+    <t>-39</t>
+  </si>
+  <si>
+    <t>&gt;=</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>-24</t>
+  </si>
+  <si>
+    <t>+</t>
+  </si>
+  <si>
+    <t>//Error</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>-25</t>
+  </si>
+  <si>
+    <t>*</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>-27</t>
+  </si>
+  <si>
+    <t>/</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>Token</t>
+  </si>
+  <si>
+    <t>Descripción</t>
+  </si>
+  <si>
+    <t>Tipo</t>
+  </si>
+  <si>
+    <t>1010</t>
+  </si>
+  <si>
+    <t>Debe de ser un BOOL lo que este entre ()</t>
+  </si>
+  <si>
+    <t>Cont_entero</t>
+  </si>
+  <si>
+    <t>Semantica Etapa 2</t>
+  </si>
+  <si>
+    <t>1011</t>
+  </si>
+  <si>
+    <t>1012</t>
+  </si>
+  <si>
+    <t>Erroes</t>
+  </si>
+  <si>
+    <t>Identificadores</t>
+  </si>
+  <si>
+    <t>Comentarios</t>
+  </si>
+  <si>
+    <t>Palabras reservadas</t>
+  </si>
+  <si>
+    <t>C-Enteras</t>
+  </si>
+  <si>
+    <t>C-Texto</t>
+  </si>
+  <si>
+    <t>C-Decimal</t>
+  </si>
+  <si>
+    <t>C-Carácter</t>
+  </si>
+  <si>
+    <t>C-Exponencial</t>
+  </si>
+  <si>
+    <t>Aritmeticos</t>
+  </si>
+  <si>
+    <t>Monogamo</t>
+  </si>
+  <si>
+    <t>Logico</t>
+  </si>
+  <si>
+    <t>Relacionales</t>
+  </si>
+  <si>
+    <t>Bit</t>
+  </si>
+  <si>
+    <t>Puntuación</t>
+  </si>
+  <si>
+    <t>Agrupación</t>
+  </si>
+  <si>
+    <t>Asignación</t>
+  </si>
+  <si>
+    <t>Sintaxis</t>
+  </si>
+  <si>
+    <t>Funciones</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>Ambito</t>
+  </si>
+  <si>
+    <t>CHAR</t>
+  </si>
+  <si>
+    <t>String (CHAR[])</t>
   </si>
   <si>
     <t>INT</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>-68</t>
-  </si>
-  <si>
-    <t>:</t>
-  </si>
-  <si>
-    <t>-1</t>
-  </si>
-  <si>
-    <t>x</t>
-  </si>
-  <si>
-    <t>-46</t>
-  </si>
-  <si>
-    <t>;</t>
-  </si>
-  <si>
-    <t>-62</t>
-  </si>
-  <si>
     <t>REAL</t>
   </si>
   <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>y</t>
-  </si>
-  <si>
-    <t>-61</t>
-  </si>
-  <si>
-    <t>main</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>-49</t>
-  </si>
-  <si>
-    <t>(</t>
-  </si>
-  <si>
-    <t>-50</t>
-  </si>
-  <si>
-    <t>)</t>
-  </si>
-  <si>
-    <t>-53</t>
-  </si>
-  <si>
-    <t>{</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>-55</t>
-  </si>
-  <si>
-    <t>=</t>
-  </si>
-  <si>
-    <t>-19</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>-25</t>
-  </si>
-  <si>
-    <t>*</t>
-  </si>
-  <si>
-    <t>-20</t>
-  </si>
-  <si>
-    <t>"hola"</t>
-  </si>
-  <si>
-    <t>-24</t>
-  </si>
-  <si>
-    <t>+</t>
-  </si>
-  <si>
-    <t>-26</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>-56</t>
-  </si>
-  <si>
-    <t>+=</t>
-  </si>
-  <si>
-    <t>-27</t>
-  </si>
-  <si>
-    <t>/</t>
-  </si>
-  <si>
-    <t>258</t>
-  </si>
-  <si>
-    <t>48</t>
-  </si>
-  <si>
-    <t>-21</t>
-  </si>
-  <si>
-    <t>2.2</t>
-  </si>
-  <si>
-    <t>z</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>-59</t>
-  </si>
-  <si>
-    <t>/=</t>
-  </si>
-  <si>
-    <t>"gato"</t>
-  </si>
-  <si>
-    <t>582</t>
-  </si>
-  <si>
-    <t>-54</t>
-  </si>
-  <si>
-    <t>}</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>Token</t>
-  </si>
-  <si>
-    <t>Descripción</t>
-  </si>
-  <si>
-    <t>Tipo</t>
-  </si>
-  <si>
-    <t>1020</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No se puede desarrollar una multiplicacion de </t>
-  </si>
-  <si>
-    <t>5*"hola"</t>
-  </si>
-  <si>
-    <t>Semantica:Etapa 1</t>
-  </si>
-  <si>
-    <t>706</t>
-  </si>
-  <si>
-    <t>No esta declarada la variable</t>
-  </si>
-  <si>
-    <t>Ambito</t>
-  </si>
-  <si>
-    <t>1022</t>
-  </si>
-  <si>
-    <t>No se puede desarrollar una division de CHAR[]</t>
-  </si>
-  <si>
-    <t>z/"hola"</t>
-  </si>
-  <si>
-    <t>No se puede desarrollar una multiplicacion de CHAR[]</t>
-  </si>
-  <si>
-    <t>z*"gato"</t>
-  </si>
-  <si>
-    <t>Erroes</t>
-  </si>
-  <si>
-    <t>Identificadores</t>
-  </si>
-  <si>
-    <t>Comentarios</t>
-  </si>
-  <si>
-    <t>Palabras reservadas</t>
-  </si>
-  <si>
-    <t>C-Enteras</t>
-  </si>
-  <si>
-    <t>C-Texto</t>
-  </si>
-  <si>
-    <t>C-Decimal</t>
-  </si>
-  <si>
-    <t>C-Carácter</t>
-  </si>
-  <si>
-    <t>C-Exponencial</t>
-  </si>
-  <si>
-    <t>Aritmeticos</t>
-  </si>
-  <si>
-    <t>Monogamo</t>
-  </si>
-  <si>
-    <t>Logico</t>
-  </si>
-  <si>
-    <t>Relacionales</t>
-  </si>
-  <si>
-    <t>Bit</t>
-  </si>
-  <si>
-    <t>Puntuación</t>
-  </si>
-  <si>
-    <t>Agrupación</t>
-  </si>
-  <si>
-    <t>Asignación</t>
-  </si>
-  <si>
-    <t>Sintaxis</t>
-  </si>
-  <si>
-    <t>Funciones</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>CHAR</t>
-  </si>
-  <si>
-    <t>String (CHAR[])</t>
-  </si>
-  <si>
     <t>BOOL</t>
   </si>
   <si>
@@ -360,13 +346,22 @@
     <t>Errores</t>
   </si>
   <si>
-    <t>x -&gt;  TE1 TV3</t>
-  </si>
-  <si>
-    <t>y -&gt;  TE3 TR4</t>
-  </si>
-  <si>
-    <t>z -&gt;  TE2 TV2</t>
+    <t>Regla</t>
+  </si>
+  <si>
+    <t>Tope Pila</t>
+  </si>
+  <si>
+    <t>Valor Real</t>
+  </si>
+  <si>
+    <t>Edo</t>
+  </si>
+  <si>
+    <t>Acept</t>
+  </si>
+  <si>
+    <t>ERROR</t>
   </si>
 </sst>
 </file>
@@ -411,7 +406,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C51"/>
+  <dimension ref="A1:C72"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -496,10 +491,10 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="B8" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="C8" t="s">
         <v>14</v>
@@ -507,10 +502,10 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="B9" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C9" t="s">
         <v>14</v>
@@ -518,464 +513,695 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B10" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C10" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="B11" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="C11" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B12" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C12" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C13" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>26</v>
+        <v>6</v>
       </c>
       <c r="B15" t="s">
-        <v>27</v>
+        <v>7</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>29</v>
+        <v>5</v>
       </c>
       <c r="C16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B17" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="C17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="B18" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="C18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>34</v>
+        <v>8</v>
       </c>
       <c r="B19" t="s">
-        <v>35</v>
+        <v>9</v>
       </c>
       <c r="C19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
+        <v>27</v>
+      </c>
+      <c r="B20" t="s">
         <v>28</v>
       </c>
-      <c r="B20" t="s">
-        <v>29</v>
-      </c>
       <c r="C20" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="B21" t="s">
-        <v>31</v>
+        <v>5</v>
       </c>
       <c r="C21" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B22" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C22" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="B23" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="C23" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B24" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="C24" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="B25" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="C25" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="B26" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C26" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="B27" t="s">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="C27" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="B28" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="C28" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>34</v>
+        <v>10</v>
       </c>
       <c r="B29" t="s">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="C29" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="B30" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C30" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B31" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C31" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="B32" t="s">
-        <v>38</v>
+        <v>7</v>
       </c>
       <c r="C32" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="B33" t="s">
-        <v>31</v>
+        <v>5</v>
       </c>
       <c r="C33" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="B34" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C34" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="B35" t="s">
-        <v>35</v>
+        <v>14</v>
       </c>
       <c r="C35" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="B36" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C36" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="B37" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="C37" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="B38" t="s">
-        <v>44</v>
+        <v>21</v>
       </c>
       <c r="C38" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="B39" t="s">
+        <v>13</v>
+      </c>
+      <c r="C39" t="s">
         <v>42</v>
-      </c>
-      <c r="C39" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>45</v>
+        <v>6</v>
       </c>
       <c r="B40" t="s">
-        <v>46</v>
+        <v>7</v>
       </c>
       <c r="C40" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B41" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C41" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>8</v>
+        <v>43</v>
       </c>
       <c r="B42" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C42" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>49</v>
+        <v>15</v>
       </c>
       <c r="B43" t="s">
-        <v>50</v>
+        <v>14</v>
       </c>
       <c r="C43" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="B44" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="C44" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="B45" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="C45" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="B46" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="C46" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="B47" t="s">
-        <v>42</v>
+        <v>23</v>
       </c>
       <c r="C47" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="B48" t="s">
-        <v>52</v>
+        <v>7</v>
       </c>
       <c r="C48" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="B49" t="s">
-        <v>35</v>
+        <v>5</v>
       </c>
       <c r="C49" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="B50" t="s">
-        <v>14</v>
+        <v>48</v>
       </c>
       <c r="C50" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>53</v>
+        <v>15</v>
       </c>
       <c r="B51" t="s">
-        <v>54</v>
+        <v>14</v>
       </c>
       <c r="C51" t="s">
-        <v>55</v>
+        <v>46</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s">
+        <v>8</v>
+      </c>
+      <c r="B52" t="s">
+        <v>9</v>
+      </c>
+      <c r="C52" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s">
+        <v>27</v>
+      </c>
+      <c r="B53" t="s">
+        <v>28</v>
+      </c>
+      <c r="C53" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s">
+        <v>15</v>
+      </c>
+      <c r="B54" t="s">
+        <v>5</v>
+      </c>
+      <c r="C54" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s">
+        <v>29</v>
+      </c>
+      <c r="B55" t="s">
+        <v>30</v>
+      </c>
+      <c r="C55" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s">
+        <v>31</v>
+      </c>
+      <c r="B56" t="s">
+        <v>32</v>
+      </c>
+      <c r="C56" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s">
+        <v>29</v>
+      </c>
+      <c r="B57" t="s">
+        <v>30</v>
+      </c>
+      <c r="C57" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="s">
+        <v>33</v>
+      </c>
+      <c r="B58" t="s">
+        <v>34</v>
+      </c>
+      <c r="C58" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="s">
+        <v>18</v>
+      </c>
+      <c r="B59" t="s">
+        <v>19</v>
+      </c>
+      <c r="C59" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="s">
+        <v>20</v>
+      </c>
+      <c r="B60" t="s">
+        <v>45</v>
+      </c>
+      <c r="C60" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="s">
+        <v>35</v>
+      </c>
+      <c r="B61" t="s">
+        <v>36</v>
+      </c>
+      <c r="C61" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="s">
+        <v>10</v>
+      </c>
+      <c r="B62" t="s">
+        <v>11</v>
+      </c>
+      <c r="C62" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="s">
+        <v>33</v>
+      </c>
+      <c r="B63" t="s">
+        <v>34</v>
+      </c>
+      <c r="C63" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="s">
+        <v>38</v>
+      </c>
+      <c r="B64" t="s">
+        <v>39</v>
+      </c>
+      <c r="C64" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="s">
+        <v>6</v>
+      </c>
+      <c r="B65" t="s">
+        <v>7</v>
+      </c>
+      <c r="C65" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="s">
+        <v>15</v>
+      </c>
+      <c r="B66" t="s">
+        <v>5</v>
+      </c>
+      <c r="C66" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="s">
+        <v>50</v>
+      </c>
+      <c r="B67" t="s">
+        <v>51</v>
+      </c>
+      <c r="C67" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="s">
+        <v>15</v>
+      </c>
+      <c r="B68" t="s">
+        <v>14</v>
+      </c>
+      <c r="C68" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="s">
+        <v>8</v>
+      </c>
+      <c r="B69" t="s">
+        <v>9</v>
+      </c>
+      <c r="C69" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="s">
+        <v>18</v>
+      </c>
+      <c r="B70" t="s">
+        <v>19</v>
+      </c>
+      <c r="C70" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="s">
+        <v>20</v>
+      </c>
+      <c r="B71" t="s">
+        <v>45</v>
+      </c>
+      <c r="C71" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="s">
+        <v>33</v>
+      </c>
+      <c r="B72" t="s">
+        <v>34</v>
+      </c>
+      <c r="C72" t="s">
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -985,7 +1211,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -993,16 +1219,16 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="E1" t="s">
         <v>2</v>
@@ -1010,87 +1236,53 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D2" t="s">
         <v>59</v>
       </c>
-      <c r="B2" t="s">
-        <v>60</v>
-      </c>
-      <c r="C2" t="s">
-        <v>61</v>
-      </c>
-      <c r="D2" t="s">
-        <v>62</v>
-      </c>
       <c r="E2" t="s">
-        <v>25</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D3" t="s">
         <v>59</v>
       </c>
-      <c r="B3" t="s">
-        <v>60</v>
-      </c>
-      <c r="C3" t="s">
-        <v>61</v>
-      </c>
-      <c r="D3" t="s">
-        <v>62</v>
-      </c>
       <c r="E3" t="s">
-        <v>25</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B4" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="C4" t="s">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="D4" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="E4" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s">
-        <v>66</v>
-      </c>
-      <c r="B5" t="s">
-        <v>67</v>
-      </c>
-      <c r="C5" t="s">
-        <v>68</v>
-      </c>
-      <c r="D5" t="s">
-        <v>62</v>
-      </c>
-      <c r="E5" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s">
-        <v>66</v>
-      </c>
-      <c r="B6" t="s">
-        <v>69</v>
-      </c>
-      <c r="C6" t="s">
-        <v>70</v>
-      </c>
-      <c r="D6" t="s">
-        <v>62</v>
-      </c>
-      <c r="E6" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -1108,120 +1300,120 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F1" t="s">
+        <v>67</v>
+      </c>
+      <c r="G1" t="s">
+        <v>68</v>
+      </c>
+      <c r="H1" t="s">
+        <v>69</v>
+      </c>
+      <c r="I1" t="s">
+        <v>70</v>
+      </c>
+      <c r="J1" t="s">
         <v>71</v>
       </c>
-      <c r="B1" t="s">
+      <c r="K1" t="s">
         <v>72</v>
       </c>
-      <c r="C1" t="s">
+      <c r="L1" t="s">
         <v>73</v>
       </c>
-      <c r="D1" t="s">
+      <c r="M1" t="s">
         <v>74</v>
       </c>
-      <c r="E1" t="s">
+      <c r="N1" t="s">
         <v>75</v>
       </c>
-      <c r="F1" t="s">
+      <c r="O1" t="s">
         <v>76</v>
       </c>
-      <c r="G1" t="s">
+      <c r="P1" t="s">
         <v>77</v>
       </c>
-      <c r="H1" t="s">
+      <c r="Q1" t="s">
         <v>78</v>
       </c>
-      <c r="I1" t="s">
+      <c r="R1" t="s">
         <v>79</v>
       </c>
-      <c r="J1" t="s">
+      <c r="S1" t="s">
         <v>80</v>
-      </c>
-      <c r="K1" t="s">
-        <v>81</v>
-      </c>
-      <c r="L1" t="s">
-        <v>82</v>
-      </c>
-      <c r="M1" t="s">
-        <v>83</v>
-      </c>
-      <c r="N1" t="s">
-        <v>84</v>
-      </c>
-      <c r="O1" t="s">
-        <v>85</v>
-      </c>
-      <c r="P1" t="s">
-        <v>86</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>87</v>
-      </c>
-      <c r="R1" t="s">
-        <v>88</v>
-      </c>
-      <c r="S1" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>29</v>
+        <v>81</v>
       </c>
       <c r="B2" t="s">
-        <v>29</v>
+        <v>81</v>
       </c>
       <c r="C2" t="s">
-        <v>90</v>
+        <v>42</v>
       </c>
       <c r="D2" t="s">
-        <v>90</v>
+        <v>37</v>
       </c>
       <c r="E2" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="F2" t="s">
-        <v>25</v>
+        <v>81</v>
       </c>
       <c r="G2" t="s">
-        <v>5</v>
+        <v>81</v>
       </c>
       <c r="H2" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="I2" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="J2" t="s">
-        <v>92</v>
+        <v>24</v>
       </c>
       <c r="K2" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="L2" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="M2" t="s">
-        <v>90</v>
+        <v>24</v>
       </c>
       <c r="N2" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="O2" t="s">
-        <v>25</v>
+        <v>49</v>
       </c>
       <c r="P2" t="s">
-        <v>25</v>
+        <v>83</v>
       </c>
       <c r="Q2" t="s">
-        <v>18</v>
+        <v>81</v>
       </c>
       <c r="R2" t="s">
-        <v>29</v>
+        <v>84</v>
       </c>
       <c r="S2" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>
@@ -1239,40 +1431,40 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>65</v>
+        <v>85</v>
       </c>
       <c r="B1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C1" t="s">
+        <v>87</v>
+      </c>
+      <c r="D1" t="s">
+        <v>88</v>
+      </c>
+      <c r="E1" t="s">
+        <v>89</v>
+      </c>
+      <c r="F1" t="s">
+        <v>90</v>
+      </c>
+      <c r="G1" t="s">
+        <v>91</v>
+      </c>
+      <c r="H1" t="s">
+        <v>92</v>
+      </c>
+      <c r="I1" t="s">
         <v>93</v>
       </c>
-      <c r="C1" t="s">
+      <c r="J1" t="s">
         <v>94</v>
       </c>
-      <c r="D1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F1" t="s">
+      <c r="K1" t="s">
         <v>95</v>
       </c>
-      <c r="G1" t="s">
+      <c r="L1" t="s">
         <v>96</v>
-      </c>
-      <c r="H1" t="s">
-        <v>97</v>
-      </c>
-      <c r="I1" t="s">
-        <v>98</v>
-      </c>
-      <c r="J1" t="s">
-        <v>99</v>
-      </c>
-      <c r="K1" t="s">
-        <v>100</v>
-      </c>
-      <c r="L1" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="2">
@@ -1286,10 +1478,10 @@
         <v>0.0</v>
       </c>
       <c r="D2" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="E2" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="F2" t="n">
         <v>0.0</v>
@@ -1307,15 +1499,15 @@
         <v>0.0</v>
       </c>
       <c r="K2" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="L2" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="B3" t="n">
         <v>0.0</v>
@@ -1324,10 +1516,10 @@
         <v>0.0</v>
       </c>
       <c r="D3" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="E3" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="F3" t="n">
         <v>0.0</v>
@@ -1345,10 +1537,10 @@
         <v>0.0</v>
       </c>
       <c r="K3" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="L3" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
     </row>
   </sheetData>
@@ -1358,7 +1550,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:M4"/>
+  <dimension ref="A1:M1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1369,163 +1561,193 @@
         <v>2</v>
       </c>
       <c r="B1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D1" t="s">
+        <v>100</v>
+      </c>
+      <c r="E1" t="s">
+        <v>101</v>
+      </c>
+      <c r="F1" t="s">
+        <v>102</v>
+      </c>
+      <c r="G1" t="s">
         <v>103</v>
       </c>
+      <c r="H1" t="s">
+        <v>101</v>
+      </c>
+      <c r="I1" t="s">
+        <v>104</v>
+      </c>
+      <c r="J1" t="s">
+        <v>105</v>
+      </c>
+      <c r="K1" t="s">
+        <v>106</v>
+      </c>
+      <c r="L1" t="s">
+        <v>107</v>
+      </c>
+      <c r="M1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:F7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B1" t="s">
+        <v>110</v>
+      </c>
       <c r="C1" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="D1" t="s">
-        <v>105</v>
+        <v>2</v>
       </c>
       <c r="E1" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="F1" t="s">
-        <v>107</v>
-      </c>
-      <c r="G1" t="s">
-        <v>108</v>
-      </c>
-      <c r="H1" t="s">
-        <v>106</v>
-      </c>
-      <c r="I1" t="s">
-        <v>109</v>
-      </c>
-      <c r="J1" t="s">
-        <v>110</v>
-      </c>
-      <c r="K1" t="s">
-        <v>111</v>
-      </c>
-      <c r="L1" t="s">
-        <v>112</v>
-      </c>
-      <c r="M1" t="s">
-        <v>113</v>
+        <v>85</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="B2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0.0</v>
+        <v>1010.0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
       </c>
       <c r="D2" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
+      </c>
+      <c r="E2" t="s">
+        <v>113</v>
       </c>
       <c r="F2" t="n">
         <v>0.0</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="K2" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="L2" t="s">
-        <v>114</v>
-      </c>
-      <c r="M2" t="n">
-        <v>2.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="B3" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0.0</v>
+        <v>1011.0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C3" t="s">
+        <v>5</v>
       </c>
       <c r="D3" t="n">
         <v>3.0</v>
       </c>
-      <c r="E3" t="n">
-        <v>4.0</v>
+      <c r="E3" t="s">
+        <v>113</v>
       </c>
       <c r="F3" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="L3" t="s">
-        <v>115</v>
-      </c>
-      <c r="M3" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
+        <v>1012.0</v>
+      </c>
+      <c r="B4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="E4" t="s">
+        <v>113</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>1010.0</v>
+      </c>
+      <c r="B5" t="s">
+        <v>58</v>
+      </c>
+      <c r="C5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" t="n">
         <v>6.0</v>
       </c>
-      <c r="B4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D4" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="K4" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="L4" t="s">
-        <v>116</v>
-      </c>
-      <c r="M4" t="n">
-        <v>2.0</v>
+      <c r="E5" t="s">
+        <v>114</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>1011.0</v>
+      </c>
+      <c r="B6" t="s">
+        <v>58</v>
+      </c>
+      <c r="C6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="E6" t="s">
+        <v>114</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>1012.0</v>
+      </c>
+      <c r="B7" t="s">
+        <v>58</v>
+      </c>
+      <c r="C7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="E7" t="s">
+        <v>114</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.0</v>
       </c>
     </row>
   </sheetData>

--- a/src/Excel/Yañez_Gonzalez_Christian_Emmanuel.xlsx
+++ b/src/Excel/Yañez_Gonzalez_Christian_Emmanuel.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="123">
   <si>
     <t>Estado</t>
   </si>
@@ -67,10 +67,16 @@
     <t>-19</t>
   </si>
   <si>
-    <t>-36</t>
-  </si>
-  <si>
-    <t>&lt;</t>
+    <t>-40</t>
+  </si>
+  <si>
+    <t>==</t>
+  </si>
+  <si>
+    <t>-54</t>
+  </si>
+  <si>
+    <t>}</t>
   </si>
   <si>
     <t>-46</t>
@@ -82,7 +88,7 @@
     <t>-2</t>
   </si>
   <si>
-    <t>//OK</t>
+    <t>//Ok</t>
   </si>
   <si>
     <t>-6</t>
@@ -94,10 +100,10 @@
     <t>3</t>
   </si>
   <si>
-    <t>-40</t>
-  </si>
-  <si>
-    <t>==</t>
+    <t>-37</t>
+  </si>
+  <si>
+    <t>&lt;=</t>
   </si>
   <si>
     <t>-47</t>
@@ -118,12 +124,6 @@
     <t>default</t>
   </si>
   <si>
-    <t>-54</t>
-  </si>
-  <si>
-    <t>}</t>
-  </si>
-  <si>
     <t>-91</t>
   </si>
   <si>
@@ -139,13 +139,13 @@
     <t>until</t>
   </si>
   <si>
-    <t>-39</t>
-  </si>
-  <si>
-    <t>&gt;=</t>
-  </si>
-  <si>
-    <t>6</t>
+    <t>-89</t>
+  </si>
+  <si>
+    <t>=&gt;</t>
+  </si>
+  <si>
+    <t>7</t>
   </si>
   <si>
     <t>-24</t>
@@ -157,7 +157,7 @@
     <t>//Error</t>
   </si>
   <si>
-    <t>7</t>
+    <t>8</t>
   </si>
   <si>
     <t>-25</t>
@@ -166,18 +166,27 @@
     <t>*</t>
   </si>
   <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>-27</t>
-  </si>
-  <si>
-    <t>/</t>
-  </si>
-  <si>
     <t>9</t>
   </si>
   <si>
+    <t>-28</t>
+  </si>
+  <si>
+    <t>%</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>-20</t>
+  </si>
+  <si>
+    <t>"g"</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
     <t>Token</t>
   </si>
   <si>
@@ -205,6 +214,18 @@
     <t>1012</t>
   </si>
   <si>
+    <t>801</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No se puede desarrollar una multiplicacion de </t>
+  </si>
+  <si>
+    <t>"g"*"g"</t>
+  </si>
+  <si>
+    <t>Semantica:Etapa 1</t>
+  </si>
+  <si>
     <t>Erroes</t>
   </si>
   <si>
@@ -265,13 +286,13 @@
     <t>0</t>
   </si>
   <si>
+    <t>5</t>
+  </si>
+  <si>
     <t>14</t>
   </si>
   <si>
-    <t>22</t>
-  </si>
-  <si>
-    <t>11</t>
+    <t>42</t>
   </si>
   <si>
     <t>Ambito</t>
@@ -362,6 +383,9 @@
   </si>
   <si>
     <t>ERROR</t>
+  </si>
+  <si>
+    <t>Cont_cadena</t>
   </si>
 </sst>
 </file>
@@ -406,7 +430,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C72"/>
+  <dimension ref="A1:C98"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -535,10 +559,10 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="C12" t="s">
         <v>14</v>
@@ -546,10 +570,10 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B13" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C13" t="s">
         <v>14</v>
@@ -557,46 +581,46 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="C15" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="B16" t="s">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="C16" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="B17" t="s">
+        <v>7</v>
+      </c>
+      <c r="C17" t="s">
         <v>26</v>
-      </c>
-      <c r="C17" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="18">
@@ -604,65 +628,65 @@
         <v>15</v>
       </c>
       <c r="B18" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="C18" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="B19" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="C19" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="B20" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="C20" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="B21" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C21" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="B22" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="C22" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="B23" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="C23" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="24">
@@ -673,136 +697,136 @@
         <v>30</v>
       </c>
       <c r="C24" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="B25" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="C25" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="B26" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="C26" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="B27" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="C27" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="B28" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="C28" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="B29" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="C29" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B30" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C30" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>38</v>
+        <v>10</v>
       </c>
       <c r="B31" t="s">
-        <v>39</v>
+        <v>11</v>
       </c>
       <c r="C31" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="B32" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="C32" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B33" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="C33" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="B34" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="C34" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="B35" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="C35" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="C36" t="s">
         <v>37</v>
@@ -810,10 +834,10 @@
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="B37" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="C37" t="s">
         <v>37</v>
@@ -821,10 +845,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B38" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C38" t="s">
         <v>37</v>
@@ -832,13 +856,13 @@
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="C39" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
     <row r="40">
@@ -849,7 +873,7 @@
         <v>7</v>
       </c>
       <c r="C40" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
     <row r="41">
@@ -857,21 +881,21 @@
         <v>15</v>
       </c>
       <c r="B41" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="C41" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C42" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
     <row r="43">
@@ -882,7 +906,7 @@
         <v>14</v>
       </c>
       <c r="C43" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
     <row r="44">
@@ -893,40 +917,40 @@
         <v>9</v>
       </c>
       <c r="C44" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B45" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C45" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B46" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="C46" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="B47" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="C47" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="48">
@@ -937,7 +961,7 @@
         <v>7</v>
       </c>
       <c r="C48" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="49">
@@ -948,18 +972,18 @@
         <v>5</v>
       </c>
       <c r="C49" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B50" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C50" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="51">
@@ -970,7 +994,7 @@
         <v>14</v>
       </c>
       <c r="C51" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="52">
@@ -981,59 +1005,59 @@
         <v>9</v>
       </c>
       <c r="C52" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="B53" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="C53" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B54" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="C54" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="B55" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="C55" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="B56" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="C56" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B57" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C57" t="s">
         <v>46</v>
@@ -1041,10 +1065,10 @@
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>33</v>
+        <v>6</v>
       </c>
       <c r="B58" t="s">
-        <v>34</v>
+        <v>7</v>
       </c>
       <c r="C58" t="s">
         <v>46</v>
@@ -1052,10 +1076,10 @@
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B59" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="C59" t="s">
         <v>46</v>
@@ -1063,10 +1087,10 @@
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>20</v>
+        <v>47</v>
       </c>
       <c r="B60" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="C60" t="s">
         <v>46</v>
@@ -1074,57 +1098,57 @@
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="B61" t="s">
-        <v>36</v>
+        <v>14</v>
       </c>
       <c r="C61" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B62" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C62" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="B63" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="C63" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="B64" t="s">
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="C64" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>6</v>
+        <v>29</v>
       </c>
       <c r="B65" t="s">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="C65" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="66">
@@ -1135,73 +1159,359 @@
         <v>5</v>
       </c>
       <c r="C66" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="B67" t="s">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="C67" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B68" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C68" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="B69" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="C69" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="B70" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="C70" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="B71" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="C71" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="B72" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="C72" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="s">
+        <v>18</v>
+      </c>
+      <c r="B73" t="s">
+        <v>19</v>
+      </c>
+      <c r="C73" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="s">
+        <v>18</v>
+      </c>
+      <c r="B74" t="s">
+        <v>19</v>
+      </c>
+      <c r="C74" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="s">
+        <v>20</v>
+      </c>
+      <c r="B75" t="s">
+        <v>21</v>
+      </c>
+      <c r="C75" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="s">
+        <v>22</v>
+      </c>
+      <c r="B76" t="s">
+        <v>45</v>
+      </c>
+      <c r="C76" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="s">
+        <v>35</v>
+      </c>
+      <c r="B77" t="s">
+        <v>36</v>
+      </c>
+      <c r="C77" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="s">
+        <v>10</v>
+      </c>
+      <c r="B78" t="s">
+        <v>11</v>
+      </c>
+      <c r="C78" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="s">
+        <v>18</v>
+      </c>
+      <c r="B79" t="s">
+        <v>19</v>
+      </c>
+      <c r="C79" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="s">
+        <v>38</v>
+      </c>
+      <c r="B80" t="s">
+        <v>39</v>
+      </c>
+      <c r="C80" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="s">
+        <v>6</v>
+      </c>
+      <c r="B81" t="s">
+        <v>7</v>
+      </c>
+      <c r="C81" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="s">
+        <v>15</v>
+      </c>
+      <c r="B82" t="s">
+        <v>14</v>
+      </c>
+      <c r="C82" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="s">
+        <v>50</v>
+      </c>
+      <c r="B83" t="s">
+        <v>51</v>
+      </c>
+      <c r="C83" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="s">
+        <v>15</v>
+      </c>
+      <c r="B84" t="s">
+        <v>14</v>
+      </c>
+      <c r="C84" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="s">
+        <v>8</v>
+      </c>
+      <c r="B85" t="s">
+        <v>9</v>
+      </c>
+      <c r="C85" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="s">
+        <v>20</v>
+      </c>
+      <c r="B86" t="s">
+        <v>21</v>
+      </c>
+      <c r="C86" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="s">
+        <v>22</v>
+      </c>
+      <c r="B87" t="s">
+        <v>45</v>
+      </c>
+      <c r="C87" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="s">
+        <v>12</v>
+      </c>
+      <c r="B88" t="s">
+        <v>13</v>
+      </c>
+      <c r="C88" t="s">
         <v>52</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="s">
+        <v>6</v>
+      </c>
+      <c r="B89" t="s">
+        <v>7</v>
+      </c>
+      <c r="C89" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="s">
+        <v>53</v>
+      </c>
+      <c r="B90" t="s">
+        <v>54</v>
+      </c>
+      <c r="C90" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="s">
+        <v>47</v>
+      </c>
+      <c r="B91" t="s">
+        <v>48</v>
+      </c>
+      <c r="C91" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="s">
+        <v>53</v>
+      </c>
+      <c r="B92" t="s">
+        <v>54</v>
+      </c>
+      <c r="C92" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="s">
+        <v>8</v>
+      </c>
+      <c r="B93" t="s">
+        <v>9</v>
+      </c>
+      <c r="C93" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="s">
+        <v>10</v>
+      </c>
+      <c r="B94" t="s">
+        <v>11</v>
+      </c>
+      <c r="C94" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="s">
+        <v>18</v>
+      </c>
+      <c r="B95" t="s">
+        <v>19</v>
+      </c>
+      <c r="C95" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="s">
+        <v>20</v>
+      </c>
+      <c r="B96" t="s">
+        <v>21</v>
+      </c>
+      <c r="C96" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="s">
+        <v>22</v>
+      </c>
+      <c r="B97" t="s">
+        <v>23</v>
+      </c>
+      <c r="C97" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="s">
+        <v>18</v>
+      </c>
+      <c r="B98" t="s">
+        <v>19</v>
+      </c>
+      <c r="C98" t="s">
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -1211,7 +1521,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1219,16 +1529,16 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="E1" t="s">
         <v>2</v>
@@ -1236,16 +1546,16 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C2" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="D2" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="E2" t="s">
         <v>42</v>
@@ -1253,16 +1563,16 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B3" t="s">
         <v>60</v>
       </c>
-      <c r="B3" t="s">
-        <v>57</v>
-      </c>
       <c r="C3" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="D3" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="E3" t="s">
         <v>46</v>
@@ -1270,19 +1580,36 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
+        <v>64</v>
+      </c>
+      <c r="B4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C4" t="s">
         <v>61</v>
       </c>
-      <c r="B4" t="s">
-        <v>57</v>
-      </c>
-      <c r="C4" t="s">
-        <v>58</v>
-      </c>
       <c r="D4" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="E4" t="s">
         <v>49</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>65</v>
+      </c>
+      <c r="B5" t="s">
+        <v>66</v>
+      </c>
+      <c r="C5" t="s">
+        <v>67</v>
+      </c>
+      <c r="D5" t="s">
+        <v>68</v>
+      </c>
+      <c r="E5" t="s">
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -1300,120 +1627,120 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="B1" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="C1" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="D1" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="E1" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="F1" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="G1" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="H1" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="I1" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="J1" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="K1" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="L1" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="M1" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="N1" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="O1" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="P1" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="Q1" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="R1" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="S1" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>81</v>
+        <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="C2" t="s">
         <v>42</v>
       </c>
       <c r="D2" t="s">
+        <v>89</v>
+      </c>
+      <c r="E2" t="s">
+        <v>90</v>
+      </c>
+      <c r="F2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" t="s">
+        <v>88</v>
+      </c>
+      <c r="H2" t="s">
+        <v>88</v>
+      </c>
+      <c r="I2" t="s">
+        <v>88</v>
+      </c>
+      <c r="J2" t="s">
         <v>37</v>
       </c>
-      <c r="E2" t="s">
-        <v>82</v>
-      </c>
-      <c r="F2" t="s">
-        <v>81</v>
-      </c>
-      <c r="G2" t="s">
-        <v>81</v>
-      </c>
-      <c r="H2" t="s">
-        <v>81</v>
-      </c>
-      <c r="I2" t="s">
-        <v>81</v>
-      </c>
-      <c r="J2" t="s">
-        <v>24</v>
-      </c>
       <c r="K2" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="L2" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="M2" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="N2" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="O2" t="s">
         <v>49</v>
       </c>
       <c r="P2" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="Q2" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="R2" t="s">
-        <v>84</v>
+        <v>52</v>
       </c>
       <c r="S2" t="s">
-        <v>81</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -1431,40 +1758,40 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="B1" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="C1" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="D1" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="E1" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="F1" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="G1" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="H1" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="I1" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="J1" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="K1" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="L1" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
     </row>
     <row r="2">
@@ -1507,7 +1834,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="B3" t="n">
         <v>0.0</v>
@@ -1561,40 +1888,40 @@
         <v>2</v>
       </c>
       <c r="B1" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="C1" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="D1" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="E1" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="F1" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="G1" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="H1" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="I1" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="J1" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="K1" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="L1" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="M1" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
     </row>
   </sheetData>
@@ -1604,7 +1931,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1612,22 +1939,22 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="B1" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="C1" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="D1" t="s">
         <v>2</v>
       </c>
       <c r="E1" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="F1" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
     </row>
     <row r="2">
@@ -1635,7 +1962,7 @@
         <v>1010.0</v>
       </c>
       <c r="B2" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C2" t="s">
         <v>5</v>
@@ -1644,7 +1971,7 @@
         <v>2.0</v>
       </c>
       <c r="E2" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="F2" t="n">
         <v>0.0</v>
@@ -1655,7 +1982,7 @@
         <v>1011.0</v>
       </c>
       <c r="B3" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C3" t="s">
         <v>5</v>
@@ -1664,7 +1991,7 @@
         <v>3.0</v>
       </c>
       <c r="E3" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="F3" t="n">
         <v>0.0</v>
@@ -1675,16 +2002,16 @@
         <v>1012.0</v>
       </c>
       <c r="B4" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C4" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="D4" t="n">
         <v>4.0</v>
       </c>
       <c r="E4" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="F4" t="n">
         <v>0.0</v>
@@ -1695,16 +2022,16 @@
         <v>1010.0</v>
       </c>
       <c r="B5" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C5" t="s">
         <v>5</v>
       </c>
       <c r="D5" t="n">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c r="E5" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="F5" t="n">
         <v>0.0</v>
@@ -1715,16 +2042,16 @@
         <v>1011.0</v>
       </c>
       <c r="B6" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
       </c>
       <c r="D6" t="n">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="E6" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="F6" t="n">
         <v>0.0</v>
@@ -1735,18 +2062,38 @@
         <v>1012.0</v>
       </c>
       <c r="B7" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C7" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="D7" t="n">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="E7" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="F7" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>1010.0</v>
+      </c>
+      <c r="B8" t="s">
+        <v>122</v>
+      </c>
+      <c r="C8" t="s">
+        <v>54</v>
+      </c>
+      <c r="D8" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="E8" t="s">
+        <v>120</v>
+      </c>
+      <c r="F8" t="n">
         <v>0.0</v>
       </c>
     </row>

--- a/src/Excel/Yañez_Gonzalez_Christian_Emmanuel.xlsx
+++ b/src/Excel/Yañez_Gonzalez_Christian_Emmanuel.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="118">
   <si>
     <t>Estado</t>
   </si>
@@ -28,13 +28,76 @@
     <t>Linea</t>
   </si>
   <si>
+    <t>-97</t>
+  </si>
+  <si>
+    <t>INT</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>-68</t>
+  </si>
+  <si>
+    <t>:</t>
+  </si>
+  <si>
+    <t>-1</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>-46</t>
+  </si>
+  <si>
+    <t>;</t>
+  </si>
+  <si>
+    <t>-62</t>
+  </si>
+  <si>
+    <t>REAL</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>r</t>
+  </si>
+  <si>
+    <t>-64</t>
+  </si>
+  <si>
+    <t>EXP</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>e</t>
+  </si>
+  <si>
+    <t>-63</t>
+  </si>
+  <si>
+    <t>BOOL</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
     <t>-61</t>
   </si>
   <si>
     <t>main</t>
   </si>
   <si>
-    <t>1</t>
+    <t>5</t>
   </si>
   <si>
     <t>-49</t>
@@ -55,18 +118,60 @@
     <t>{</t>
   </si>
   <si>
-    <t>-4</t>
-  </si>
-  <si>
-    <t>if</t>
-  </si>
-  <si>
-    <t>2</t>
+    <t>6</t>
+  </si>
+  <si>
+    <t>-56</t>
+  </si>
+  <si>
+    <t>+=</t>
   </si>
   <si>
     <t>-19</t>
   </si>
   <si>
+    <t>-2</t>
+  </si>
+  <si>
+    <t>//Ok</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>-25</t>
+  </si>
+  <si>
+    <t>*</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>//Error</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>-22</t>
+  </si>
+  <si>
+    <t>'c'</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
     <t>-40</t>
   </si>
   <si>
@@ -79,112 +184,7 @@
     <t>}</t>
   </si>
   <si>
-    <t>-46</t>
-  </si>
-  <si>
-    <t>;</t>
-  </si>
-  <si>
-    <t>-2</t>
-  </si>
-  <si>
-    <t>//Ok</t>
-  </si>
-  <si>
-    <t>-6</t>
-  </si>
-  <si>
-    <t>while</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>-37</t>
-  </si>
-  <si>
-    <t>&lt;=</t>
-  </si>
-  <si>
-    <t>-47</t>
-  </si>
-  <si>
-    <t>,</t>
-  </si>
-  <si>
-    <t>-68</t>
-  </si>
-  <si>
-    <t>:</t>
-  </si>
-  <si>
-    <t>-99</t>
-  </si>
-  <si>
-    <t>default</t>
-  </si>
-  <si>
-    <t>-91</t>
-  </si>
-  <si>
-    <t>repeat</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>-94</t>
-  </si>
-  <si>
-    <t>until</t>
-  </si>
-  <si>
-    <t>-89</t>
-  </si>
-  <si>
-    <t>=&gt;</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>-24</t>
-  </si>
-  <si>
-    <t>+</t>
-  </si>
-  <si>
-    <t>//Error</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>-25</t>
-  </si>
-  <si>
-    <t>*</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>-28</t>
-  </si>
-  <si>
-    <t>%</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>-20</t>
-  </si>
-  <si>
-    <t>"g"</t>
-  </si>
-  <si>
-    <t>12</t>
+    <t>13</t>
   </si>
   <si>
     <t>Token</t>
@@ -196,36 +196,24 @@
     <t>Tipo</t>
   </si>
   <si>
-    <t>1010</t>
-  </si>
-  <si>
-    <t>Debe de ser un BOOL lo que este entre ()</t>
-  </si>
-  <si>
-    <t>Cont_entero</t>
-  </si>
-  <si>
-    <t>Semantica Etapa 2</t>
-  </si>
-  <si>
-    <t>1011</t>
-  </si>
-  <si>
-    <t>1012</t>
-  </si>
-  <si>
-    <t>801</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No se puede desarrollar una multiplicacion de </t>
-  </si>
-  <si>
-    <t>"g"*"g"</t>
+    <t>1021</t>
+  </si>
+  <si>
+    <t>No se puede igualar un: REAL a EXP</t>
+  </si>
+  <si>
+    <t>r=r</t>
   </si>
   <si>
     <t>Semantica:Etapa 1</t>
   </si>
   <si>
+    <t xml:space="preserve">No se puede desarrollar una suma de </t>
+  </si>
+  <si>
+    <t>b+a</t>
+  </si>
+  <si>
     <t>Erroes</t>
   </si>
   <si>
@@ -283,18 +271,12 @@
     <t>Funciones</t>
   </si>
   <si>
+    <t>16</t>
+  </si>
+  <si>
     <t>0</t>
   </si>
   <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>14</t>
-  </si>
-  <si>
-    <t>42</t>
-  </si>
-  <si>
     <t>Ambito</t>
   </si>
   <si>
@@ -304,18 +286,6 @@
     <t>String (CHAR[])</t>
   </si>
   <si>
-    <t>INT</t>
-  </si>
-  <si>
-    <t>REAL</t>
-  </si>
-  <si>
-    <t>BOOL</t>
-  </si>
-  <si>
-    <t>EXP</t>
-  </si>
-  <si>
     <t>REG</t>
   </si>
   <si>
@@ -367,6 +337,21 @@
     <t>Errores</t>
   </si>
   <si>
+    <t xml:space="preserve">a -&gt; </t>
+  </si>
+  <si>
+    <t>a -&gt;  TE1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">e -&gt; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">r -&gt; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">b -&gt; </t>
+  </si>
+  <si>
     <t>Regla</t>
   </si>
   <si>
@@ -379,13 +364,13 @@
     <t>Edo</t>
   </si>
   <si>
+    <t>id</t>
+  </si>
+  <si>
     <t>Acept</t>
   </si>
   <si>
     <t>ERROR</t>
-  </si>
-  <si>
-    <t>Cont_cadena</t>
   </si>
 </sst>
 </file>
@@ -430,7 +415,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C98"/>
+  <dimension ref="A1:C61"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -515,10 +500,10 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" t="s">
         <v>15</v>
-      </c>
-      <c r="B8" t="s">
-        <v>5</v>
       </c>
       <c r="C8" t="s">
         <v>14</v>
@@ -526,10 +511,10 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C9" t="s">
         <v>14</v>
@@ -537,46 +522,46 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B10" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C10" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B11" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C11" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B12" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="C12" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" t="s">
         <v>18</v>
-      </c>
-      <c r="B13" t="s">
-        <v>19</v>
-      </c>
-      <c r="C13" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="14">
@@ -587,48 +572,48 @@
         <v>21</v>
       </c>
       <c r="C14" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
+        <v>6</v>
+      </c>
+      <c r="B15" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" t="s">
         <v>22</v>
-      </c>
-      <c r="B15" t="s">
-        <v>23</v>
-      </c>
-      <c r="C15" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="B16" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C16" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B17" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C17" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="B18" t="s">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="C18" t="s">
         <v>26</v>
@@ -647,10 +632,10 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="B20" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="C20" t="s">
         <v>26</v>
@@ -658,10 +643,10 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="B21" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="C21" t="s">
         <v>26</v>
@@ -669,167 +654,167 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B22" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C22" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="B23" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="C23" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="B24" t="s">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="C24" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B25" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C25" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="B26" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="C26" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B27" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C27" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="B28" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="C28" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B29" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="C29" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="B30" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="C30" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>10</v>
+        <v>36</v>
       </c>
       <c r="B31" t="s">
-        <v>11</v>
+        <v>42</v>
       </c>
       <c r="C31" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="B32" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="C32" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="B33" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="C33" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="B34" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C34" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="C35" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>35</v>
+        <v>8</v>
       </c>
       <c r="B36" t="s">
-        <v>36</v>
+        <v>9</v>
       </c>
       <c r="C36" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
     </row>
     <row r="37">
@@ -840,73 +825,73 @@
         <v>11</v>
       </c>
       <c r="C37" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="C38" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>38</v>
+        <v>8</v>
       </c>
       <c r="B39" t="s">
-        <v>39</v>
+        <v>15</v>
       </c>
       <c r="C39" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="B40" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="C40" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="B41" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C41" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="B42" t="s">
-        <v>41</v>
+        <v>11</v>
       </c>
       <c r="C42" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="B43" t="s">
-        <v>14</v>
+        <v>38</v>
       </c>
       <c r="C43" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
     </row>
     <row r="44">
@@ -914,603 +899,196 @@
         <v>8</v>
       </c>
       <c r="B44" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C44" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="B45" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="C45" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="B46" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C46" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B47" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C47" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>6</v>
+        <v>37</v>
       </c>
       <c r="B48" t="s">
-        <v>7</v>
+        <v>46</v>
       </c>
       <c r="C48" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="B49" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C49" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="B50" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="C50" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>15</v>
+        <v>48</v>
       </c>
       <c r="B51" t="s">
-        <v>14</v>
+        <v>49</v>
       </c>
       <c r="C51" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B52" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C52" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>10</v>
+        <v>37</v>
       </c>
       <c r="B53" t="s">
-        <v>11</v>
+        <v>38</v>
       </c>
       <c r="C53" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="B54" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C54" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="B55" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="C55" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="B56" t="s">
-        <v>45</v>
+        <v>9</v>
       </c>
       <c r="C56" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>24</v>
+        <v>51</v>
       </c>
       <c r="B57" t="s">
-        <v>25</v>
+        <v>52</v>
       </c>
       <c r="C57" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B58" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="C58" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B59" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C59" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="B60" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="C60" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>15</v>
+        <v>53</v>
       </c>
       <c r="B61" t="s">
-        <v>14</v>
+        <v>54</v>
       </c>
       <c r="C61" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="s">
-        <v>8</v>
-      </c>
-      <c r="B62" t="s">
-        <v>9</v>
-      </c>
-      <c r="C62" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" t="s">
-        <v>10</v>
-      </c>
-      <c r="B63" t="s">
-        <v>11</v>
-      </c>
-      <c r="C63" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="s">
-        <v>18</v>
-      </c>
-      <c r="B64" t="s">
-        <v>19</v>
-      </c>
-      <c r="C64" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" t="s">
-        <v>29</v>
-      </c>
-      <c r="B65" t="s">
-        <v>30</v>
-      </c>
-      <c r="C65" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" t="s">
-        <v>15</v>
-      </c>
-      <c r="B66" t="s">
-        <v>5</v>
-      </c>
-      <c r="C66" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="s">
-        <v>31</v>
-      </c>
-      <c r="B67" t="s">
-        <v>32</v>
-      </c>
-      <c r="C67" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" t="s">
-        <v>10</v>
-      </c>
-      <c r="B68" t="s">
-        <v>11</v>
-      </c>
-      <c r="C68" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" t="s">
-        <v>18</v>
-      </c>
-      <c r="B69" t="s">
-        <v>19</v>
-      </c>
-      <c r="C69" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" t="s">
-        <v>33</v>
-      </c>
-      <c r="B70" t="s">
-        <v>34</v>
-      </c>
-      <c r="C70" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" t="s">
-        <v>31</v>
-      </c>
-      <c r="B71" t="s">
-        <v>32</v>
-      </c>
-      <c r="C71" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" t="s">
-        <v>10</v>
-      </c>
-      <c r="B72" t="s">
-        <v>11</v>
-      </c>
-      <c r="C72" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" t="s">
-        <v>18</v>
-      </c>
-      <c r="B73" t="s">
-        <v>19</v>
-      </c>
-      <c r="C73" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" t="s">
-        <v>18</v>
-      </c>
-      <c r="B74" t="s">
-        <v>19</v>
-      </c>
-      <c r="C74" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" t="s">
-        <v>20</v>
-      </c>
-      <c r="B75" t="s">
-        <v>21</v>
-      </c>
-      <c r="C75" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" t="s">
-        <v>22</v>
-      </c>
-      <c r="B76" t="s">
-        <v>45</v>
-      </c>
-      <c r="C76" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" t="s">
-        <v>35</v>
-      </c>
-      <c r="B77" t="s">
-        <v>36</v>
-      </c>
-      <c r="C77" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" t="s">
-        <v>10</v>
-      </c>
-      <c r="B78" t="s">
-        <v>11</v>
-      </c>
-      <c r="C78" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" t="s">
-        <v>18</v>
-      </c>
-      <c r="B79" t="s">
-        <v>19</v>
-      </c>
-      <c r="C79" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" t="s">
-        <v>38</v>
-      </c>
-      <c r="B80" t="s">
-        <v>39</v>
-      </c>
-      <c r="C80" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" t="s">
-        <v>6</v>
-      </c>
-      <c r="B81" t="s">
-        <v>7</v>
-      </c>
-      <c r="C81" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" t="s">
-        <v>15</v>
-      </c>
-      <c r="B82" t="s">
-        <v>14</v>
-      </c>
-      <c r="C82" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" t="s">
-        <v>50</v>
-      </c>
-      <c r="B83" t="s">
-        <v>51</v>
-      </c>
-      <c r="C83" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" t="s">
-        <v>15</v>
-      </c>
-      <c r="B84" t="s">
-        <v>14</v>
-      </c>
-      <c r="C84" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" t="s">
-        <v>8</v>
-      </c>
-      <c r="B85" t="s">
-        <v>9</v>
-      </c>
-      <c r="C85" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" t="s">
-        <v>20</v>
-      </c>
-      <c r="B86" t="s">
-        <v>21</v>
-      </c>
-      <c r="C86" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" t="s">
-        <v>22</v>
-      </c>
-      <c r="B87" t="s">
-        <v>45</v>
-      </c>
-      <c r="C87" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" t="s">
-        <v>12</v>
-      </c>
-      <c r="B88" t="s">
-        <v>13</v>
-      </c>
-      <c r="C88" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" t="s">
-        <v>6</v>
-      </c>
-      <c r="B89" t="s">
-        <v>7</v>
-      </c>
-      <c r="C89" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" t="s">
-        <v>53</v>
-      </c>
-      <c r="B90" t="s">
-        <v>54</v>
-      </c>
-      <c r="C90" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" t="s">
-        <v>47</v>
-      </c>
-      <c r="B91" t="s">
-        <v>48</v>
-      </c>
-      <c r="C91" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" t="s">
-        <v>53</v>
-      </c>
-      <c r="B92" t="s">
-        <v>54</v>
-      </c>
-      <c r="C92" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" t="s">
-        <v>8</v>
-      </c>
-      <c r="B93" t="s">
-        <v>9</v>
-      </c>
-      <c r="C93" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" t="s">
-        <v>10</v>
-      </c>
-      <c r="B94" t="s">
-        <v>11</v>
-      </c>
-      <c r="C94" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" t="s">
-        <v>18</v>
-      </c>
-      <c r="B95" t="s">
-        <v>19</v>
-      </c>
-      <c r="C95" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" t="s">
-        <v>20</v>
-      </c>
-      <c r="B96" t="s">
-        <v>21</v>
-      </c>
-      <c r="C96" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" t="s">
-        <v>22</v>
-      </c>
-      <c r="B97" t="s">
-        <v>23</v>
-      </c>
-      <c r="C97" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" t="s">
-        <v>18</v>
-      </c>
-      <c r="B98" t="s">
-        <v>19</v>
-      </c>
-      <c r="C98" t="s">
         <v>55</v>
       </c>
     </row>
@@ -1521,7 +1099,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1558,58 +1136,24 @@
         <v>62</v>
       </c>
       <c r="E2" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B3" t="s">
         <v>63</v>
       </c>
-      <c r="B3" t="s">
-        <v>60</v>
-      </c>
       <c r="C3" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="D3" t="s">
         <v>62</v>
       </c>
       <c r="E3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s">
-        <v>64</v>
-      </c>
-      <c r="B4" t="s">
-        <v>60</v>
-      </c>
-      <c r="C4" t="s">
-        <v>61</v>
-      </c>
-      <c r="D4" t="s">
-        <v>62</v>
-      </c>
-      <c r="E4" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s">
-        <v>65</v>
-      </c>
-      <c r="B5" t="s">
-        <v>66</v>
-      </c>
-      <c r="C5" t="s">
-        <v>67</v>
-      </c>
-      <c r="D5" t="s">
-        <v>68</v>
-      </c>
-      <c r="E5" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -1627,120 +1171,120 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E1" t="s">
         <v>69</v>
       </c>
-      <c r="B1" t="s">
+      <c r="F1" t="s">
         <v>70</v>
       </c>
-      <c r="C1" t="s">
+      <c r="G1" t="s">
         <v>71</v>
       </c>
-      <c r="D1" t="s">
+      <c r="H1" t="s">
         <v>72</v>
       </c>
-      <c r="E1" t="s">
+      <c r="I1" t="s">
         <v>73</v>
       </c>
-      <c r="F1" t="s">
+      <c r="J1" t="s">
         <v>74</v>
       </c>
-      <c r="G1" t="s">
+      <c r="K1" t="s">
         <v>75</v>
       </c>
-      <c r="H1" t="s">
+      <c r="L1" t="s">
         <v>76</v>
       </c>
-      <c r="I1" t="s">
+      <c r="M1" t="s">
         <v>77</v>
       </c>
-      <c r="J1" t="s">
+      <c r="N1" t="s">
         <v>78</v>
       </c>
-      <c r="K1" t="s">
+      <c r="O1" t="s">
         <v>79</v>
       </c>
-      <c r="L1" t="s">
+      <c r="P1" t="s">
         <v>80</v>
       </c>
-      <c r="M1" t="s">
+      <c r="Q1" t="s">
         <v>81</v>
       </c>
-      <c r="N1" t="s">
+      <c r="R1" t="s">
         <v>82</v>
       </c>
-      <c r="O1" t="s">
+      <c r="S1" t="s">
         <v>83</v>
-      </c>
-      <c r="P1" t="s">
-        <v>84</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>85</v>
-      </c>
-      <c r="R1" t="s">
-        <v>86</v>
-      </c>
-      <c r="S1" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D2" t="s">
+        <v>85</v>
+      </c>
+      <c r="E2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" t="s">
+        <v>85</v>
+      </c>
+      <c r="G2" t="s">
+        <v>85</v>
+      </c>
+      <c r="H2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" t="s">
-        <v>88</v>
-      </c>
-      <c r="C2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D2" t="s">
-        <v>89</v>
-      </c>
-      <c r="E2" t="s">
-        <v>90</v>
-      </c>
-      <c r="F2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G2" t="s">
-        <v>88</v>
-      </c>
-      <c r="H2" t="s">
-        <v>88</v>
-      </c>
       <c r="I2" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="J2" t="s">
-        <v>37</v>
+        <v>5</v>
       </c>
       <c r="K2" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="L2" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="M2" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="N2" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="O2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="P2" t="s">
-        <v>91</v>
+        <v>22</v>
       </c>
       <c r="Q2" t="s">
-        <v>88</v>
+        <v>39</v>
       </c>
       <c r="R2" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="S2" t="s">
-        <v>5</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -1758,40 +1302,40 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1" t="s">
+        <v>89</v>
+      </c>
+      <c r="I1" t="s">
+        <v>90</v>
+      </c>
+      <c r="J1" t="s">
+        <v>91</v>
+      </c>
+      <c r="K1" t="s">
         <v>92</v>
       </c>
-      <c r="B1" t="s">
+      <c r="L1" t="s">
         <v>93</v>
-      </c>
-      <c r="C1" t="s">
-        <v>94</v>
-      </c>
-      <c r="D1" t="s">
-        <v>95</v>
-      </c>
-      <c r="E1" t="s">
-        <v>96</v>
-      </c>
-      <c r="F1" t="s">
-        <v>97</v>
-      </c>
-      <c r="G1" t="s">
-        <v>98</v>
-      </c>
-      <c r="H1" t="s">
-        <v>99</v>
-      </c>
-      <c r="I1" t="s">
-        <v>100</v>
-      </c>
-      <c r="J1" t="s">
-        <v>101</v>
-      </c>
-      <c r="K1" t="s">
-        <v>102</v>
-      </c>
-      <c r="L1" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="2">
@@ -1805,16 +1349,16 @@
         <v>0.0</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="H2" t="n">
         <v>0.0</v>
@@ -1829,12 +1373,12 @@
         <v>0.0</v>
       </c>
       <c r="L2" t="n">
-        <v>0.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="B3" t="n">
         <v>0.0</v>
@@ -1843,16 +1387,16 @@
         <v>0.0</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="E3" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="F3" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="H3" t="n">
         <v>0.0</v>
@@ -1867,7 +1411,7 @@
         <v>0.0</v>
       </c>
       <c r="L3" t="n">
-        <v>0.0</v>
+        <v>4.0</v>
       </c>
     </row>
   </sheetData>
@@ -1877,7 +1421,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:M1"/>
+  <dimension ref="A1:M8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1888,40 +1432,327 @@
         <v>2</v>
       </c>
       <c r="B1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D1" t="s">
+        <v>97</v>
+      </c>
+      <c r="E1" t="s">
+        <v>98</v>
+      </c>
+      <c r="F1" t="s">
+        <v>99</v>
+      </c>
+      <c r="G1" t="s">
+        <v>100</v>
+      </c>
+      <c r="H1" t="s">
+        <v>98</v>
+      </c>
+      <c r="I1" t="s">
+        <v>101</v>
+      </c>
+      <c r="J1" t="s">
+        <v>102</v>
+      </c>
+      <c r="K1" t="s">
+        <v>103</v>
+      </c>
+      <c r="L1" t="s">
+        <v>104</v>
+      </c>
+      <c r="M1" t="s">
         <v>105</v>
       </c>
-      <c r="C1" t="s">
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L2" t="s">
         <v>106</v>
       </c>
-      <c r="D1" t="s">
+      <c r="M2" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="B3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L3" t="s">
         <v>107</v>
       </c>
-      <c r="E1" t="s">
+      <c r="M3" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="B4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L4" t="s">
         <v>108</v>
       </c>
-      <c r="F1" t="s">
+      <c r="M4" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="B5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L5" t="s">
         <v>109</v>
       </c>
-      <c r="G1" t="s">
+      <c r="M5" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="B6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L6" t="s">
+        <v>109</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="B7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L7" t="s">
+        <v>106</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="B8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L8" t="s">
         <v>110</v>
       </c>
-      <c r="H1" t="s">
-        <v>108</v>
-      </c>
-      <c r="I1" t="s">
-        <v>111</v>
-      </c>
-      <c r="J1" t="s">
-        <v>112</v>
-      </c>
-      <c r="K1" t="s">
-        <v>113</v>
-      </c>
-      <c r="L1" t="s">
-        <v>114</v>
-      </c>
-      <c r="M1" t="s">
-        <v>115</v>
+      <c r="M8" t="n">
+        <v>0.0</v>
       </c>
     </row>
   </sheetData>
@@ -1939,39 +1770,39 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="B1" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="C1" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="D1" t="s">
         <v>2</v>
       </c>
       <c r="E1" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="F1" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1010.0</v>
+        <v>1021.0</v>
       </c>
       <c r="B2" t="s">
-        <v>61</v>
+        <v>115</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D2" t="n">
-        <v>2.0</v>
+        <v>6.0</v>
       </c>
       <c r="E2" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="F2" t="n">
         <v>0.0</v>
@@ -1979,19 +1810,19 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1011.0</v>
+        <v>1021.0</v>
       </c>
       <c r="B3" t="s">
-        <v>61</v>
+        <v>115</v>
       </c>
       <c r="C3" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D3" t="n">
-        <v>3.0</v>
+        <v>7.0</v>
       </c>
       <c r="E3" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="F3" t="n">
         <v>0.0</v>
@@ -1999,19 +1830,19 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1012.0</v>
+        <v>1021.0</v>
       </c>
       <c r="B4" t="s">
-        <v>61</v>
+        <v>115</v>
       </c>
       <c r="C4" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D4" t="n">
-        <v>4.0</v>
+        <v>8.0</v>
       </c>
       <c r="E4" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="F4" t="n">
         <v>0.0</v>
@@ -2019,19 +1850,19 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1010.0</v>
+        <v>1021.0</v>
       </c>
       <c r="B5" t="s">
-        <v>61</v>
+        <v>115</v>
       </c>
       <c r="C5" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="D5" t="n">
-        <v>7.0</v>
+        <v>9.0</v>
       </c>
       <c r="E5" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="F5" t="n">
         <v>0.0</v>
@@ -2039,19 +1870,19 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1011.0</v>
+        <v>1021.0</v>
       </c>
       <c r="B6" t="s">
-        <v>61</v>
+        <v>115</v>
       </c>
       <c r="C6" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="D6" t="n">
-        <v>8.0</v>
+        <v>10.0</v>
       </c>
       <c r="E6" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="F6" t="n">
         <v>0.0</v>
@@ -2059,19 +1890,19 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>1012.0</v>
+        <v>1021.0</v>
       </c>
       <c r="B7" t="s">
-        <v>61</v>
+        <v>115</v>
       </c>
       <c r="C7" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D7" t="n">
-        <v>9.0</v>
+        <v>11.0</v>
       </c>
       <c r="E7" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="F7" t="n">
         <v>0.0</v>
@@ -2079,19 +1910,19 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>1010.0</v>
+        <v>1021.0</v>
       </c>
       <c r="B8" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="C8" t="s">
-        <v>54</v>
+        <v>23</v>
       </c>
       <c r="D8" t="n">
-        <v>11.0</v>
+        <v>12.0</v>
       </c>
       <c r="E8" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="F8" t="n">
         <v>0.0</v>

--- a/src/Excel/Yañez_Gonzalez_Christian_Emmanuel.xlsx
+++ b/src/Excel/Yañez_Gonzalez_Christian_Emmanuel.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="124">
   <si>
     <t>Estado</t>
   </si>
@@ -28,13 +28,76 @@
     <t>Linea</t>
   </si>
   <si>
+    <t>-97</t>
+  </si>
+  <si>
+    <t>INT</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>-68</t>
+  </si>
+  <si>
+    <t>:</t>
+  </si>
+  <si>
+    <t>-1</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>-46</t>
+  </si>
+  <si>
+    <t>;</t>
+  </si>
+  <si>
+    <t>-62</t>
+  </si>
+  <si>
+    <t>REAL</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>r</t>
+  </si>
+  <si>
+    <t>-64</t>
+  </si>
+  <si>
+    <t>EXP</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>e</t>
+  </si>
+  <si>
+    <t>-63</t>
+  </si>
+  <si>
+    <t>BOOL</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
     <t>-61</t>
   </si>
   <si>
     <t>main</t>
   </si>
   <si>
-    <t>1</t>
+    <t>5</t>
   </si>
   <si>
     <t>-49</t>
@@ -55,43 +118,70 @@
     <t>{</t>
   </si>
   <si>
-    <t>-4</t>
-  </si>
-  <si>
-    <t>if</t>
-  </si>
-  <si>
-    <t>2</t>
+    <t>6</t>
+  </si>
+  <si>
+    <t>-57</t>
+  </si>
+  <si>
+    <t>-=</t>
   </si>
   <si>
     <t>-19</t>
   </si>
   <si>
-    <t>-36</t>
-  </si>
-  <si>
-    <t>&lt;</t>
-  </si>
-  <si>
-    <t>-46</t>
-  </si>
-  <si>
-    <t>;</t>
-  </si>
-  <si>
     <t>-2</t>
   </si>
   <si>
-    <t>//OK</t>
-  </si>
-  <si>
-    <t>-6</t>
-  </si>
-  <si>
-    <t>while</t>
-  </si>
-  <si>
-    <t>3</t>
+    <t>//Ok</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>-58</t>
+  </si>
+  <si>
+    <t>*=</t>
+  </si>
+  <si>
+    <t>-25</t>
+  </si>
+  <si>
+    <t>*</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>-59</t>
+  </si>
+  <si>
+    <t>/=</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>//Error</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>-22</t>
+  </si>
+  <si>
+    <t>'c'</t>
+  </si>
+  <si>
+    <t>12</t>
   </si>
   <si>
     <t>-40</t>
@@ -100,82 +190,13 @@
     <t>==</t>
   </si>
   <si>
-    <t>-47</t>
-  </si>
-  <si>
-    <t>,</t>
-  </si>
-  <si>
-    <t>-68</t>
-  </si>
-  <si>
-    <t>:</t>
-  </si>
-  <si>
-    <t>-99</t>
-  </si>
-  <si>
-    <t>default</t>
-  </si>
-  <si>
     <t>-54</t>
   </si>
   <si>
     <t>}</t>
   </si>
   <si>
-    <t>-91</t>
-  </si>
-  <si>
-    <t>repeat</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>-94</t>
-  </si>
-  <si>
-    <t>until</t>
-  </si>
-  <si>
-    <t>-39</t>
-  </si>
-  <si>
-    <t>&gt;=</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>-24</t>
-  </si>
-  <si>
-    <t>+</t>
-  </si>
-  <si>
-    <t>//Error</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>-25</t>
-  </si>
-  <si>
-    <t>*</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>-27</t>
-  </si>
-  <si>
-    <t>/</t>
-  </si>
-  <si>
-    <t>9</t>
+    <t>13</t>
   </si>
   <si>
     <t>Token</t>
@@ -187,22 +208,28 @@
     <t>Tipo</t>
   </si>
   <si>
-    <t>1010</t>
-  </si>
-  <si>
-    <t>Debe de ser un BOOL lo que este entre ()</t>
-  </si>
-  <si>
-    <t>Cont_entero</t>
-  </si>
-  <si>
-    <t>Semantica Etapa 2</t>
-  </si>
-  <si>
-    <t>1011</t>
-  </si>
-  <si>
-    <t>1012</t>
+    <t>1022</t>
+  </si>
+  <si>
+    <t>No se puede igualar un: REAL a EXP</t>
+  </si>
+  <si>
+    <t>r=r</t>
+  </si>
+  <si>
+    <t>Semantica:Etapa 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No se puede desarrollar una division de </t>
+  </si>
+  <si>
+    <t>a/'c'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No se puede desarrollar una resta de </t>
+  </si>
+  <si>
+    <t>b-a</t>
   </si>
   <si>
     <t>Erroes</t>
@@ -262,18 +289,12 @@
     <t>Funciones</t>
   </si>
   <si>
+    <t>16</t>
+  </si>
+  <si>
     <t>0</t>
   </si>
   <si>
-    <t>14</t>
-  </si>
-  <si>
-    <t>22</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
     <t>Ambito</t>
   </si>
   <si>
@@ -283,18 +304,6 @@
     <t>String (CHAR[])</t>
   </si>
   <si>
-    <t>INT</t>
-  </si>
-  <si>
-    <t>REAL</t>
-  </si>
-  <si>
-    <t>BOOL</t>
-  </si>
-  <si>
-    <t>EXP</t>
-  </si>
-  <si>
     <t>REG</t>
   </si>
   <si>
@@ -346,6 +355,21 @@
     <t>Errores</t>
   </si>
   <si>
+    <t xml:space="preserve">a -&gt; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">e -&gt; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">r -&gt; </t>
+  </si>
+  <si>
+    <t>a -&gt;  TV1</t>
+  </si>
+  <si>
+    <t>b -&gt;  TV1</t>
+  </si>
+  <si>
     <t>Regla</t>
   </si>
   <si>
@@ -356,6 +380,9 @@
   </si>
   <si>
     <t>Edo</t>
+  </si>
+  <si>
+    <t>id</t>
   </si>
   <si>
     <t>Acept</t>
@@ -406,7 +433,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C72"/>
+  <dimension ref="A1:C61"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -491,10 +518,10 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" t="s">
         <v>15</v>
-      </c>
-      <c r="B8" t="s">
-        <v>5</v>
       </c>
       <c r="C8" t="s">
         <v>14</v>
@@ -502,10 +529,10 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C9" t="s">
         <v>14</v>
@@ -513,57 +540,57 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B10" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C10" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B11" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C11" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="B12" t="s">
         <v>19</v>
       </c>
       <c r="C12" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="B13" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="C13" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C14" t="s">
         <v>22</v>
-      </c>
-      <c r="B14" t="s">
-        <v>23</v>
-      </c>
-      <c r="C14" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="15">
@@ -574,227 +601,227 @@
         <v>7</v>
       </c>
       <c r="C15" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="B16" t="s">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="C16" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="B17" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="C17" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="B18" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="C18" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="B19" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="C19" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B20" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C20" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="B21" t="s">
-        <v>5</v>
+        <v>32</v>
       </c>
       <c r="C21" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="B22" t="s">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="C22" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B23" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C23" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="B24" t="s">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="C24" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
+        <v>10</v>
+      </c>
+      <c r="B25" t="s">
+        <v>11</v>
+      </c>
+      <c r="C25" t="s">
         <v>33</v>
-      </c>
-      <c r="B25" t="s">
-        <v>34</v>
-      </c>
-      <c r="C25" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="B26" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="C26" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="B27" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="C27" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="B28" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="C28" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>10</v>
+        <v>36</v>
       </c>
       <c r="B29" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C29" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="B30" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="C30" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B31" t="s">
+        <v>44</v>
+      </c>
+      <c r="C31" t="s">
         <v>39</v>
-      </c>
-      <c r="C31" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B32" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C32" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="B33" t="s">
-        <v>5</v>
+        <v>38</v>
       </c>
       <c r="C33" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>40</v>
+        <v>8</v>
       </c>
       <c r="B34" t="s">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="C34" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>15</v>
+        <v>46</v>
       </c>
       <c r="B35" t="s">
-        <v>14</v>
+        <v>47</v>
       </c>
       <c r="C35" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
     </row>
     <row r="36">
@@ -805,84 +832,84 @@
         <v>9</v>
       </c>
       <c r="C36" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="B37" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="C37" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="C38" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B39" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C39" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="B40" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="C40" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="B41" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C41" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="B42" t="s">
-        <v>44</v>
+        <v>11</v>
       </c>
       <c r="C42" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="B43" t="s">
-        <v>14</v>
+        <v>38</v>
       </c>
       <c r="C43" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
     </row>
     <row r="44">
@@ -890,318 +917,197 @@
         <v>8</v>
       </c>
       <c r="B44" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C44" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="B45" t="s">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="C45" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="B46" t="s">
-        <v>45</v>
+        <v>19</v>
       </c>
       <c r="C46" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="B47" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="C47" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>6</v>
+        <v>37</v>
       </c>
       <c r="B48" t="s">
-        <v>7</v>
+        <v>50</v>
       </c>
       <c r="C48" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="B49" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C49" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
+        <v>46</v>
+      </c>
+      <c r="B50" t="s">
         <v>47</v>
       </c>
-      <c r="B50" t="s">
-        <v>48</v>
-      </c>
       <c r="C50" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>15</v>
+        <v>52</v>
       </c>
       <c r="B51" t="s">
-        <v>14</v>
+        <v>53</v>
       </c>
       <c r="C51" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B52" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C52" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="B53" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="C53" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="B54" t="s">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="C54" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="B55" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C55" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="B56" t="s">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="C56" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>29</v>
+        <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>30</v>
+        <v>56</v>
       </c>
       <c r="C57" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="B58" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="C58" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="B59" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="C59" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="B60" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="C60" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>35</v>
+        <v>57</v>
       </c>
       <c r="B61" t="s">
-        <v>36</v>
+        <v>58</v>
       </c>
       <c r="C61" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="s">
-        <v>10</v>
-      </c>
-      <c r="B62" t="s">
-        <v>11</v>
-      </c>
-      <c r="C62" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" t="s">
-        <v>33</v>
-      </c>
-      <c r="B63" t="s">
-        <v>34</v>
-      </c>
-      <c r="C63" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="s">
-        <v>38</v>
-      </c>
-      <c r="B64" t="s">
-        <v>39</v>
-      </c>
-      <c r="C64" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" t="s">
-        <v>6</v>
-      </c>
-      <c r="B65" t="s">
-        <v>7</v>
-      </c>
-      <c r="C65" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" t="s">
-        <v>15</v>
-      </c>
-      <c r="B66" t="s">
-        <v>5</v>
-      </c>
-      <c r="C66" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="s">
-        <v>50</v>
-      </c>
-      <c r="B67" t="s">
-        <v>51</v>
-      </c>
-      <c r="C67" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" t="s">
-        <v>15</v>
-      </c>
-      <c r="B68" t="s">
-        <v>14</v>
-      </c>
-      <c r="C68" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" t="s">
-        <v>8</v>
-      </c>
-      <c r="B69" t="s">
-        <v>9</v>
-      </c>
-      <c r="C69" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" t="s">
-        <v>18</v>
-      </c>
-      <c r="B70" t="s">
-        <v>19</v>
-      </c>
-      <c r="C70" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" t="s">
-        <v>20</v>
-      </c>
-      <c r="B71" t="s">
-        <v>45</v>
-      </c>
-      <c r="C71" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" t="s">
-        <v>33</v>
-      </c>
-      <c r="B72" t="s">
-        <v>34</v>
-      </c>
-      <c r="C72" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -1219,16 +1125,16 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="B1" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="E1" t="s">
         <v>2</v>
@@ -1236,53 +1142,53 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="B2" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="C2" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="D2" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="E2" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B3" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="C3" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="D3" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="E3" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B4" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="C4" t="s">
-        <v>58</v>
+        <v>70</v>
       </c>
       <c r="D4" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="E4" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -1300,120 +1206,120 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="B1" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="C1" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="D1" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="E1" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="F1" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="G1" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="H1" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="I1" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="J1" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="K1" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="L1" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="M1" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="N1" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="O1" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="P1" t="s">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="Q1" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="R1" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="S1" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>81</v>
+        <v>18</v>
       </c>
       <c r="B2" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="C2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D2" t="s">
-        <v>37</v>
+        <v>91</v>
       </c>
       <c r="E2" t="s">
-        <v>82</v>
+        <v>18</v>
       </c>
       <c r="F2" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="G2" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="H2" t="s">
-        <v>81</v>
+        <v>5</v>
       </c>
       <c r="I2" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="J2" t="s">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="K2" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="L2" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="M2" t="s">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="N2" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="O2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="P2" t="s">
-        <v>83</v>
+        <v>22</v>
       </c>
       <c r="Q2" t="s">
-        <v>81</v>
+        <v>39</v>
       </c>
       <c r="R2" t="s">
-        <v>84</v>
+        <v>48</v>
       </c>
       <c r="S2" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
     </row>
   </sheetData>
@@ -1431,40 +1337,40 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="B1" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="C1" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="D1" t="s">
-        <v>88</v>
+        <v>4</v>
       </c>
       <c r="E1" t="s">
-        <v>89</v>
+        <v>13</v>
       </c>
       <c r="F1" t="s">
-        <v>90</v>
+        <v>21</v>
       </c>
       <c r="G1" t="s">
-        <v>91</v>
+        <v>17</v>
       </c>
       <c r="H1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="I1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="J1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="K1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="L1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
     </row>
     <row r="2">
@@ -1478,16 +1384,16 @@
         <v>0.0</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="H2" t="n">
         <v>0.0</v>
@@ -1502,12 +1408,12 @@
         <v>0.0</v>
       </c>
       <c r="L2" t="n">
-        <v>0.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B3" t="n">
         <v>0.0</v>
@@ -1516,16 +1422,16 @@
         <v>0.0</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="E3" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="F3" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="H3" t="n">
         <v>0.0</v>
@@ -1540,7 +1446,7 @@
         <v>0.0</v>
       </c>
       <c r="L3" t="n">
-        <v>0.0</v>
+        <v>4.0</v>
       </c>
     </row>
   </sheetData>
@@ -1550,7 +1456,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:M1"/>
+  <dimension ref="A1:M8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1561,40 +1467,327 @@
         <v>2</v>
       </c>
       <c r="B1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="C1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="D1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="E1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="F1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="G1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="H1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="I1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="J1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="K1" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="L1" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="M1" t="s">
-        <v>108</v>
+        <v>111</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L2" t="s">
+        <v>112</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="B3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L3" t="s">
+        <v>112</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="B4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L4" t="s">
+        <v>113</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="B5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L5" t="s">
+        <v>114</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="B6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L6" t="s">
+        <v>114</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="B7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="L7" t="s">
+        <v>115</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="B8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="L8" t="s">
+        <v>116</v>
+      </c>
+      <c r="M8" t="n">
+        <v>1.0</v>
       </c>
     </row>
   </sheetData>
@@ -1604,7 +1797,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1612,39 +1805,39 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="B1" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="C1" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="D1" t="s">
         <v>2</v>
       </c>
       <c r="E1" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="F1" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1010.0</v>
+        <v>1022.0</v>
       </c>
       <c r="B2" t="s">
-        <v>58</v>
+        <v>121</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D2" t="n">
-        <v>2.0</v>
+        <v>6.0</v>
       </c>
       <c r="E2" t="s">
-        <v>113</v>
+        <v>122</v>
       </c>
       <c r="F2" t="n">
         <v>0.0</v>
@@ -1652,19 +1845,19 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1011.0</v>
+        <v>1022.0</v>
       </c>
       <c r="B3" t="s">
-        <v>58</v>
+        <v>121</v>
       </c>
       <c r="C3" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D3" t="n">
-        <v>3.0</v>
+        <v>7.0</v>
       </c>
       <c r="E3" t="s">
-        <v>113</v>
+        <v>122</v>
       </c>
       <c r="F3" t="n">
         <v>0.0</v>
@@ -1672,19 +1865,19 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1012.0</v>
+        <v>1022.0</v>
       </c>
       <c r="B4" t="s">
-        <v>58</v>
+        <v>121</v>
       </c>
       <c r="C4" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="D4" t="n">
-        <v>4.0</v>
+        <v>8.0</v>
       </c>
       <c r="E4" t="s">
-        <v>113</v>
+        <v>122</v>
       </c>
       <c r="F4" t="n">
         <v>0.0</v>
@@ -1692,19 +1885,19 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1010.0</v>
+        <v>1022.0</v>
       </c>
       <c r="B5" t="s">
-        <v>58</v>
+        <v>121</v>
       </c>
       <c r="C5" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="D5" t="n">
-        <v>6.0</v>
+        <v>9.0</v>
       </c>
       <c r="E5" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="F5" t="n">
         <v>0.0</v>
@@ -1712,19 +1905,19 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1011.0</v>
+        <v>1022.0</v>
       </c>
       <c r="B6" t="s">
-        <v>58</v>
+        <v>121</v>
       </c>
       <c r="C6" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="D6" t="n">
-        <v>7.0</v>
+        <v>10.0</v>
       </c>
       <c r="E6" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="F6" t="n">
         <v>0.0</v>
@@ -1732,21 +1925,41 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>1012.0</v>
+        <v>1022.0</v>
       </c>
       <c r="B7" t="s">
-        <v>58</v>
+        <v>121</v>
       </c>
       <c r="C7" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D7" t="n">
-        <v>8.0</v>
+        <v>11.0</v>
       </c>
       <c r="E7" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="F7" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>1022.0</v>
+      </c>
+      <c r="B8" t="s">
+        <v>121</v>
+      </c>
+      <c r="C8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="E8" t="s">
+        <v>122</v>
+      </c>
+      <c r="F8" t="n">
         <v>0.0</v>
       </c>
     </row>

--- a/src/Excel/Yañez_Gonzalez_Christian_Emmanuel.xlsx
+++ b/src/Excel/Yañez_Gonzalez_Christian_Emmanuel.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="123">
   <si>
     <t>Estado</t>
   </si>
@@ -121,10 +121,10 @@
     <t>6</t>
   </si>
   <si>
-    <t>-56</t>
-  </si>
-  <si>
-    <t>+=</t>
+    <t>-57</t>
+  </si>
+  <si>
+    <t>-=</t>
   </si>
   <si>
     <t>-19</t>
@@ -139,6 +139,12 @@
     <t>7</t>
   </si>
   <si>
+    <t>-58</t>
+  </si>
+  <si>
+    <t>*=</t>
+  </si>
+  <si>
     <t>-25</t>
   </si>
   <si>
@@ -151,6 +157,12 @@
     <t>8</t>
   </si>
   <si>
+    <t>-59</t>
+  </si>
+  <si>
+    <t>/=</t>
+  </si>
+  <si>
     <t>9</t>
   </si>
   <si>
@@ -196,22 +208,22 @@
     <t>Tipo</t>
   </si>
   <si>
-    <t>1021</t>
-  </si>
-  <si>
-    <t>No se puede igualar un: REAL a EXP</t>
-  </si>
-  <si>
-    <t>r=r</t>
+    <t>1022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No se puede desarrollar una division de </t>
+  </si>
+  <si>
+    <t>a/'c'</t>
   </si>
   <si>
     <t>Semantica:Etapa 1</t>
   </si>
   <si>
-    <t xml:space="preserve">No se puede desarrollar una suma de </t>
-  </si>
-  <si>
-    <t>b+a</t>
+    <t xml:space="preserve">No se puede desarrollar una resta de </t>
+  </si>
+  <si>
+    <t>b-a</t>
   </si>
   <si>
     <t>Erroes</t>
@@ -337,19 +349,25 @@
     <t>Errores</t>
   </si>
   <si>
+    <t>a -&gt;  TE1</t>
+  </si>
+  <si>
+    <t>a -&gt;  TE2</t>
+  </si>
+  <si>
+    <t>e -&gt;  TX1</t>
+  </si>
+  <si>
+    <t>r -&gt;  TR1</t>
+  </si>
+  <si>
+    <t>r -&gt;  TX1</t>
+  </si>
+  <si>
     <t xml:space="preserve">a -&gt; </t>
   </si>
   <si>
-    <t>a -&gt;  TE1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">e -&gt; </t>
-  </si>
-  <si>
-    <t xml:space="preserve">r -&gt; </t>
-  </si>
-  <si>
-    <t xml:space="preserve">b -&gt; </t>
+    <t>b -&gt;  TB1</t>
   </si>
   <si>
     <t>Regla</t>
@@ -368,9 +386,6 @@
   </si>
   <si>
     <t>Acept</t>
-  </si>
-  <si>
-    <t>ERROR</t>
   </si>
 </sst>
 </file>
@@ -720,10 +735,10 @@
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="B28" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="C28" t="s">
         <v>39</v>
@@ -742,10 +757,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B30" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C30" t="s">
         <v>39</v>
@@ -756,7 +771,7 @@
         <v>36</v>
       </c>
       <c r="B31" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C31" t="s">
         <v>39</v>
@@ -792,18 +807,18 @@
         <v>19</v>
       </c>
       <c r="C34" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="B35" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="C35" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="36">
@@ -814,7 +829,7 @@
         <v>9</v>
       </c>
       <c r="C36" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="37">
@@ -825,7 +840,7 @@
         <v>11</v>
       </c>
       <c r="C37" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="38">
@@ -836,7 +851,7 @@
         <v>38</v>
       </c>
       <c r="C38" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="39">
@@ -847,7 +862,7 @@
         <v>15</v>
       </c>
       <c r="C39" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
     </row>
     <row r="40">
@@ -858,7 +873,7 @@
         <v>35</v>
       </c>
       <c r="C40" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
     </row>
     <row r="41">
@@ -869,7 +884,7 @@
         <v>9</v>
       </c>
       <c r="C41" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
     </row>
     <row r="42">
@@ -880,7 +895,7 @@
         <v>11</v>
       </c>
       <c r="C42" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
     </row>
     <row r="43">
@@ -891,7 +906,7 @@
         <v>38</v>
       </c>
       <c r="C43" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
     </row>
     <row r="44">
@@ -902,18 +917,18 @@
         <v>15</v>
       </c>
       <c r="C44" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="B45" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="C45" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
     </row>
     <row r="46">
@@ -924,7 +939,7 @@
         <v>19</v>
       </c>
       <c r="C46" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
     </row>
     <row r="47">
@@ -935,7 +950,7 @@
         <v>11</v>
       </c>
       <c r="C47" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
     </row>
     <row r="48">
@@ -943,10 +958,10 @@
         <v>37</v>
       </c>
       <c r="B48" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="C48" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
     </row>
     <row r="49">
@@ -957,29 +972,29 @@
         <v>9</v>
       </c>
       <c r="C49" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="B50" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="C50" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B51" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="C51" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
     </row>
     <row r="52">
@@ -990,7 +1005,7 @@
         <v>11</v>
       </c>
       <c r="C52" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
     </row>
     <row r="53">
@@ -1001,7 +1016,7 @@
         <v>38</v>
       </c>
       <c r="C53" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
     </row>
     <row r="54">
@@ -1012,7 +1027,7 @@
         <v>23</v>
       </c>
       <c r="C54" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
     </row>
     <row r="55">
@@ -1023,7 +1038,7 @@
         <v>35</v>
       </c>
       <c r="C55" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
     </row>
     <row r="56">
@@ -1034,18 +1049,18 @@
         <v>9</v>
       </c>
       <c r="C56" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="C57" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
     </row>
     <row r="58">
@@ -1056,7 +1071,7 @@
         <v>15</v>
       </c>
       <c r="C58" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
     </row>
     <row r="59">
@@ -1067,7 +1082,7 @@
         <v>11</v>
       </c>
       <c r="C59" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
     </row>
     <row r="60">
@@ -1078,18 +1093,18 @@
         <v>38</v>
       </c>
       <c r="C60" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B61" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="C61" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -1107,16 +1122,16 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="E1" t="s">
         <v>2</v>
@@ -1124,36 +1139,36 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B2" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="C2" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="D2" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="E2" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>59</v>
+        <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="C3" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="D3" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="E3" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -1171,61 +1186,61 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="C1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="D1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="E1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="F1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="G1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="H1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="I1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="J1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="K1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="L1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="M1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="N1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="O1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="P1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="Q1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="R1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="S1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
     </row>
     <row r="2">
@@ -1233,46 +1248,46 @@
         <v>14</v>
       </c>
       <c r="B2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="C2" t="s">
         <v>39</v>
       </c>
       <c r="D2" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="E2" t="s">
         <v>18</v>
       </c>
       <c r="F2" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="G2" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="H2" t="s">
         <v>5</v>
       </c>
       <c r="I2" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="J2" t="s">
         <v>5</v>
       </c>
       <c r="K2" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="L2" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="M2" t="s">
         <v>5</v>
       </c>
       <c r="N2" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="O2" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="P2" t="s">
         <v>22</v>
@@ -1281,10 +1296,10 @@
         <v>39</v>
       </c>
       <c r="R2" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="S2" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
     </row>
   </sheetData>
@@ -1302,13 +1317,13 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="C1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="D1" t="s">
         <v>4</v>
@@ -1323,19 +1338,19 @@
         <v>17</v>
       </c>
       <c r="H1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="I1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="J1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="K1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="L1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
     </row>
     <row r="2">
@@ -1378,7 +1393,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B3" t="n">
         <v>0.0</v>
@@ -1432,40 +1447,40 @@
         <v>2</v>
       </c>
       <c r="B1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="C1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="D1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="E1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="F1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="G1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="H1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="I1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="J1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="K1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="L1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="M1" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
     </row>
     <row r="2">
@@ -1479,7 +1494,7 @@
         <v>0.0</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="E2" t="n">
         <v>0.0</v>
@@ -1503,7 +1518,7 @@
         <v>0.0</v>
       </c>
       <c r="L2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="M2" t="n">
         <v>0.0</v>
@@ -1520,7 +1535,7 @@
         <v>0.0</v>
       </c>
       <c r="D3" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="E3" t="n">
         <v>0.0</v>
@@ -1544,7 +1559,7 @@
         <v>0.0</v>
       </c>
       <c r="L3" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="M3" t="n">
         <v>0.0</v>
@@ -1570,7 +1585,7 @@
         <v>0.0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="H4" t="n">
         <v>0.0</v>
@@ -1585,7 +1600,7 @@
         <v>0.0</v>
       </c>
       <c r="L4" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="M4" t="n">
         <v>0.0</v>
@@ -1605,7 +1620,7 @@
         <v>0.0</v>
       </c>
       <c r="E5" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="F5" t="n">
         <v>0.0</v>
@@ -1626,7 +1641,7 @@
         <v>0.0</v>
       </c>
       <c r="L5" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="M5" t="n">
         <v>0.0</v>
@@ -1652,7 +1667,7 @@
         <v>0.0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="H6" t="n">
         <v>0.0</v>
@@ -1667,7 +1682,7 @@
         <v>0.0</v>
       </c>
       <c r="L6" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="M6" t="n">
         <v>0.0</v>
@@ -1708,7 +1723,7 @@
         <v>0.0</v>
       </c>
       <c r="L7" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="M7" t="n">
         <v>0.0</v>
@@ -1731,7 +1746,7 @@
         <v>0.0</v>
       </c>
       <c r="F8" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G8" t="n">
         <v>0.0</v>
@@ -1749,7 +1764,7 @@
         <v>0.0</v>
       </c>
       <c r="L8" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="M8" t="n">
         <v>0.0</v>
@@ -1770,30 +1785,30 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="B1" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="C1" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="D1" t="s">
         <v>2</v>
       </c>
       <c r="E1" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="F1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1021.0</v>
+        <v>1022.0</v>
       </c>
       <c r="B2" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="C2" t="s">
         <v>9</v>
@@ -1802,7 +1817,7 @@
         <v>6.0</v>
       </c>
       <c r="E2" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="F2" t="n">
         <v>0.0</v>
@@ -1810,10 +1825,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1021.0</v>
+        <v>1.0</v>
       </c>
       <c r="B3" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="C3" t="s">
         <v>9</v>
@@ -1822,7 +1837,7 @@
         <v>7.0</v>
       </c>
       <c r="E3" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="F3" t="n">
         <v>0.0</v>
@@ -1830,10 +1845,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1021.0</v>
+        <v>1022.0</v>
       </c>
       <c r="B4" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="C4" t="s">
         <v>19</v>
@@ -1842,7 +1857,7 @@
         <v>8.0</v>
       </c>
       <c r="E4" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="F4" t="n">
         <v>0.0</v>
@@ -1850,10 +1865,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1021.0</v>
+        <v>1022.0</v>
       </c>
       <c r="B5" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="C5" t="s">
         <v>15</v>
@@ -1862,7 +1877,7 @@
         <v>9.0</v>
       </c>
       <c r="E5" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="F5" t="n">
         <v>0.0</v>
@@ -1870,10 +1885,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1021.0</v>
+        <v>1022.0</v>
       </c>
       <c r="B6" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="C6" t="s">
         <v>15</v>
@@ -1882,7 +1897,7 @@
         <v>10.0</v>
       </c>
       <c r="E6" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="F6" t="n">
         <v>0.0</v>
@@ -1890,10 +1905,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>1021.0</v>
+        <v>1022.0</v>
       </c>
       <c r="B7" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="C7" t="s">
         <v>9</v>
@@ -1902,7 +1917,7 @@
         <v>11.0</v>
       </c>
       <c r="E7" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="F7" t="n">
         <v>0.0</v>
@@ -1910,10 +1925,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>1021.0</v>
+        <v>1.0</v>
       </c>
       <c r="B8" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="C8" t="s">
         <v>23</v>
@@ -1922,7 +1937,7 @@
         <v>12.0</v>
       </c>
       <c r="E8" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="F8" t="n">
         <v>0.0</v>

--- a/src/Excel/Yañez_Gonzalez_Christian_Emmanuel.xlsx
+++ b/src/Excel/Yañez_Gonzalez_Christian_Emmanuel.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="89">
   <si>
     <t>Estado</t>
   </si>
@@ -28,127 +28,166 @@
     <t>Linea</t>
   </si>
   <si>
+    <t>-97</t>
+  </si>
+  <si>
+    <t>INT</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>-51</t>
+  </si>
+  <si>
+    <t>[</t>
+  </si>
+  <si>
+    <t>-19</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>-52</t>
+  </si>
+  <si>
+    <t>]</t>
+  </si>
+  <si>
+    <t>-68</t>
+  </si>
+  <si>
+    <t>:</t>
+  </si>
+  <si>
     <t>-1</t>
   </si>
   <si>
     <t>a</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>-51</t>
-  </si>
-  <si>
-    <t>[</t>
-  </si>
-  <si>
-    <t>-19</t>
+    <t>-46</t>
+  </si>
+  <si>
+    <t>;</t>
+  </si>
+  <si>
+    <t>-61</t>
+  </si>
+  <si>
+    <t>main</t>
+  </si>
+  <si>
+    <t>-49</t>
+  </si>
+  <si>
+    <t>(</t>
+  </si>
+  <si>
+    <t>-50</t>
+  </si>
+  <si>
+    <t>)</t>
+  </si>
+  <si>
+    <t>-53</t>
+  </si>
+  <si>
+    <t>{</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>-54</t>
+  </si>
+  <si>
+    <t>}</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>Token</t>
+  </si>
+  <si>
+    <t>Descripción</t>
+  </si>
+  <si>
+    <t>Tipo</t>
+  </si>
+  <si>
+    <t>1050</t>
+  </si>
+  <si>
+    <t>Fuera del rango</t>
+  </si>
+  <si>
+    <t>Semantica 2</t>
+  </si>
+  <si>
+    <t>Erroes</t>
+  </si>
+  <si>
+    <t>Identificadores</t>
+  </si>
+  <si>
+    <t>Comentarios</t>
+  </si>
+  <si>
+    <t>Palabras reservadas</t>
+  </si>
+  <si>
+    <t>C-Enteras</t>
+  </si>
+  <si>
+    <t>C-Texto</t>
+  </si>
+  <si>
+    <t>C-Decimal</t>
+  </si>
+  <si>
+    <t>C-Carácter</t>
+  </si>
+  <si>
+    <t>C-Exponencial</t>
+  </si>
+  <si>
+    <t>Aritmeticos</t>
+  </si>
+  <si>
+    <t>Monogamo</t>
+  </si>
+  <si>
+    <t>Logico</t>
+  </si>
+  <si>
+    <t>Relacionales</t>
+  </si>
+  <si>
+    <t>Bit</t>
+  </si>
+  <si>
+    <t>Puntuación</t>
+  </si>
+  <si>
+    <t>Agrupación</t>
+  </si>
+  <si>
+    <t>Asignación</t>
+  </si>
+  <si>
+    <t>Sintaxis</t>
+  </si>
+  <si>
+    <t>Funciones</t>
   </si>
   <si>
     <t>0</t>
   </si>
   <si>
-    <t>-52</t>
-  </si>
-  <si>
-    <t>]</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>-56</t>
-  </si>
-  <si>
-    <t>+=</t>
-  </si>
-  <si>
-    <t>-46</t>
-  </si>
-  <si>
-    <t>;</t>
-  </si>
-  <si>
-    <t>Token</t>
-  </si>
-  <si>
-    <t>Descripción</t>
-  </si>
-  <si>
-    <t>Tipo</t>
-  </si>
-  <si>
-    <t>628</t>
-  </si>
-  <si>
-    <t>Error de fuerza bruta</t>
-  </si>
-  <si>
-    <t>Sintaxis</t>
-  </si>
-  <si>
-    <t>Erroes</t>
-  </si>
-  <si>
-    <t>Identificadores</t>
-  </si>
-  <si>
-    <t>Comentarios</t>
-  </si>
-  <si>
-    <t>Palabras reservadas</t>
-  </si>
-  <si>
-    <t>C-Enteras</t>
-  </si>
-  <si>
-    <t>C-Texto</t>
-  </si>
-  <si>
-    <t>C-Decimal</t>
-  </si>
-  <si>
-    <t>C-Carácter</t>
-  </si>
-  <si>
-    <t>C-Exponencial</t>
-  </si>
-  <si>
-    <t>Aritmeticos</t>
-  </si>
-  <si>
-    <t>Monogamo</t>
-  </si>
-  <si>
-    <t>Logico</t>
-  </si>
-  <si>
-    <t>Relacionales</t>
-  </si>
-  <si>
-    <t>Bit</t>
-  </si>
-  <si>
-    <t>Puntuación</t>
-  </si>
-  <si>
-    <t>Agrupación</t>
-  </si>
-  <si>
-    <t>Asignación</t>
-  </si>
-  <si>
-    <t>Funciones</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>6</t>
+    <t>8</t>
   </si>
   <si>
     <t>Ambito</t>
@@ -160,9 +199,6 @@
     <t>String (CHAR[])</t>
   </si>
   <si>
-    <t>INT</t>
-  </si>
-  <si>
     <t>REAL</t>
   </si>
   <si>
@@ -223,6 +259,9 @@
     <t>Errores</t>
   </si>
   <si>
+    <t xml:space="preserve">a -&gt; </t>
+  </si>
+  <si>
     <t>Regla</t>
   </si>
   <si>
@@ -233,6 +272,18 @@
   </si>
   <si>
     <t>Edo</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>Acept</t>
+  </si>
+  <si>
+    <t>Const_entero</t>
+  </si>
+  <si>
+    <t>ERROR</t>
   </si>
 </sst>
 </file>
@@ -277,7 +328,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C14"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -340,10 +391,10 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
@@ -351,10 +402,10 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B7" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C7" t="s">
         <v>5</v>
@@ -362,10 +413,10 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="B8" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C8" t="s">
         <v>5</v>
@@ -373,68 +424,101 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="C9" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="B10" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="C10" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="B11" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="C11" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="B12" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C13" t="s">
-        <v>5</v>
+        <v>26</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="B14" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="C14" t="s">
-        <v>5</v>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>8</v>
+      </c>
+      <c r="B15" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>10</v>
+      </c>
+      <c r="B16" t="s">
+        <v>11</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>27</v>
+      </c>
+      <c r="B17" t="s">
+        <v>28</v>
+      </c>
+      <c r="C17" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -452,16 +536,16 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="B1" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="E1" t="s">
         <v>2</v>
@@ -469,19 +553,19 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="C2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="E2" t="s">
-        <v>5</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -499,61 +583,61 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="B1" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="C1" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="D1" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="E1" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="F1" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="G1" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="H1" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="I1" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="J1" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="K1" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="L1" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="M1" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="N1" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="O1" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="P1" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="Q1" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="R1" t="s">
-        <v>23</v>
+        <v>53</v>
       </c>
       <c r="S1" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
     </row>
     <row r="2">
@@ -561,58 +645,58 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E2" t="s">
         <v>9</v>
       </c>
-      <c r="D2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" t="s">
-        <v>42</v>
-      </c>
       <c r="F2" t="s">
-        <v>9</v>
+        <v>55</v>
       </c>
       <c r="G2" t="s">
-        <v>9</v>
+        <v>55</v>
       </c>
       <c r="H2" t="s">
-        <v>9</v>
+        <v>55</v>
       </c>
       <c r="I2" t="s">
-        <v>9</v>
+        <v>55</v>
       </c>
       <c r="J2" t="s">
-        <v>9</v>
+        <v>55</v>
       </c>
       <c r="K2" t="s">
-        <v>9</v>
+        <v>55</v>
       </c>
       <c r="L2" t="s">
-        <v>9</v>
+        <v>55</v>
       </c>
       <c r="M2" t="s">
-        <v>9</v>
+        <v>55</v>
       </c>
       <c r="N2" t="s">
-        <v>9</v>
+        <v>55</v>
       </c>
       <c r="O2" t="s">
         <v>5</v>
       </c>
       <c r="P2" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="Q2" t="s">
-        <v>5</v>
+        <v>55</v>
       </c>
       <c r="R2" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="S2" t="s">
-        <v>9</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -630,40 +714,40 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="B1" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="C1" t="s">
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="D1" t="s">
-        <v>47</v>
+        <v>4</v>
       </c>
       <c r="E1" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="F1" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G1" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="H1" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="I1" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="J1" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="K1" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="L1" t="s">
-        <v>55</v>
+        <v>67</v>
       </c>
     </row>
     <row r="2">
@@ -677,7 +761,7 @@
         <v>0.0</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="E2" t="n">
         <v>0.0</v>
@@ -701,12 +785,12 @@
         <v>0.0</v>
       </c>
       <c r="L2" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>56</v>
+        <v>68</v>
       </c>
       <c r="B3" t="n">
         <v>0.0</v>
@@ -715,7 +799,7 @@
         <v>0.0</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="E3" t="n">
         <v>0.0</v>
@@ -739,7 +823,7 @@
         <v>0.0</v>
       </c>
       <c r="L3" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
   </sheetData>
@@ -749,7 +833,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:M1"/>
+  <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -760,40 +844,81 @@
         <v>2</v>
       </c>
       <c r="B1" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="C1" t="s">
-        <v>58</v>
+        <v>70</v>
       </c>
       <c r="D1" t="s">
-        <v>59</v>
+        <v>71</v>
       </c>
       <c r="E1" t="s">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="F1" t="s">
-        <v>61</v>
+        <v>73</v>
       </c>
       <c r="G1" t="s">
-        <v>62</v>
+        <v>74</v>
       </c>
       <c r="H1" t="s">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="I1" t="s">
-        <v>63</v>
+        <v>75</v>
       </c>
       <c r="J1" t="s">
-        <v>64</v>
+        <v>76</v>
       </c>
       <c r="K1" t="s">
-        <v>65</v>
+        <v>77</v>
       </c>
       <c r="L1" t="s">
-        <v>66</v>
+        <v>78</v>
       </c>
       <c r="M1" t="s">
-        <v>67</v>
+        <v>79</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L2" t="s">
+        <v>80</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0.0</v>
       </c>
     </row>
   </sheetData>
@@ -803,7 +928,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -811,22 +936,82 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>68</v>
+        <v>81</v>
       </c>
       <c r="B1" t="s">
-        <v>69</v>
+        <v>82</v>
       </c>
       <c r="C1" t="s">
-        <v>70</v>
+        <v>83</v>
       </c>
       <c r="D1" t="s">
         <v>2</v>
       </c>
       <c r="E1" t="s">
-        <v>71</v>
+        <v>84</v>
       </c>
       <c r="F1" t="s">
-        <v>44</v>
+        <v>57</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1030.0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="E2" t="s">
+        <v>86</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>1040.0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>87</v>
+      </c>
+      <c r="C3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="E3" t="s">
+        <v>86</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>1050.0</v>
+      </c>
+      <c r="B4" t="s">
+        <v>87</v>
+      </c>
+      <c r="C4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="E4" t="s">
+        <v>88</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.0</v>
       </c>
     </row>
   </sheetData>

--- a/src/Excel/Yañez_Gonzalez_Christian_Emmanuel.xlsx
+++ b/src/Excel/Yañez_Gonzalez_Christian_Emmanuel.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="91">
   <si>
     <t>Estado</t>
   </si>
@@ -28,177 +28,189 @@
     <t>Linea</t>
   </si>
   <si>
-    <t>-97</t>
+    <t>-61</t>
+  </si>
+  <si>
+    <t>main</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>-49</t>
+  </si>
+  <si>
+    <t>(</t>
+  </si>
+  <si>
+    <t>-50</t>
+  </si>
+  <si>
+    <t>)</t>
+  </si>
+  <si>
+    <t>-53</t>
+  </si>
+  <si>
+    <t>{</t>
+  </si>
+  <si>
+    <t>-4</t>
+  </si>
+  <si>
+    <t>if</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>-19</t>
+  </si>
+  <si>
+    <t>-36</t>
+  </si>
+  <si>
+    <t>&lt;</t>
+  </si>
+  <si>
+    <t>-46</t>
+  </si>
+  <si>
+    <t>;</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>-20</t>
+  </si>
+  <si>
+    <t>"g"</t>
+  </si>
+  <si>
+    <t>-25</t>
+  </si>
+  <si>
+    <t>*</t>
+  </si>
+  <si>
+    <t>-54</t>
+  </si>
+  <si>
+    <t>}</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>Token</t>
+  </si>
+  <si>
+    <t>Descripción</t>
+  </si>
+  <si>
+    <t>Tipo</t>
+  </si>
+  <si>
+    <t>801</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No se puede desarrollar una multiplicacion de </t>
+  </si>
+  <si>
+    <t>"g"*"g"</t>
+  </si>
+  <si>
+    <t>Semantica:Etapa 1</t>
+  </si>
+  <si>
+    <t>1010</t>
+  </si>
+  <si>
+    <t>Debe de ser un BOOL lo que este entre ()</t>
+  </si>
+  <si>
+    <t>Cont_cadena</t>
+  </si>
+  <si>
+    <t>Semantica Etapa 2</t>
+  </si>
+  <si>
+    <t>Erroes</t>
+  </si>
+  <si>
+    <t>Identificadores</t>
+  </si>
+  <si>
+    <t>Comentarios</t>
+  </si>
+  <si>
+    <t>Palabras reservadas</t>
+  </si>
+  <si>
+    <t>C-Enteras</t>
+  </si>
+  <si>
+    <t>C-Texto</t>
+  </si>
+  <si>
+    <t>C-Decimal</t>
+  </si>
+  <si>
+    <t>C-Carácter</t>
+  </si>
+  <si>
+    <t>C-Exponencial</t>
+  </si>
+  <si>
+    <t>Aritmeticos</t>
+  </si>
+  <si>
+    <t>Monogamo</t>
+  </si>
+  <si>
+    <t>Logico</t>
+  </si>
+  <si>
+    <t>Relacionales</t>
+  </si>
+  <si>
+    <t>Bit</t>
+  </si>
+  <si>
+    <t>Puntuación</t>
+  </si>
+  <si>
+    <t>Agrupación</t>
+  </si>
+  <si>
+    <t>Asignación</t>
+  </si>
+  <si>
+    <t>Sintaxis</t>
+  </si>
+  <si>
+    <t>Funciones</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>Ambito</t>
+  </si>
+  <si>
+    <t>CHAR</t>
+  </si>
+  <si>
+    <t>String (CHAR[])</t>
   </si>
   <si>
     <t>INT</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>-51</t>
-  </si>
-  <si>
-    <t>[</t>
-  </si>
-  <si>
-    <t>-19</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>-52</t>
-  </si>
-  <si>
-    <t>]</t>
-  </si>
-  <si>
-    <t>-68</t>
-  </si>
-  <si>
-    <t>:</t>
-  </si>
-  <si>
-    <t>-1</t>
-  </si>
-  <si>
-    <t>a</t>
-  </si>
-  <si>
-    <t>-46</t>
-  </si>
-  <si>
-    <t>;</t>
-  </si>
-  <si>
-    <t>-61</t>
-  </si>
-  <si>
-    <t>main</t>
-  </si>
-  <si>
-    <t>-49</t>
-  </si>
-  <si>
-    <t>(</t>
-  </si>
-  <si>
-    <t>-50</t>
-  </si>
-  <si>
-    <t>)</t>
-  </si>
-  <si>
-    <t>-53</t>
-  </si>
-  <si>
-    <t>{</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>-54</t>
-  </si>
-  <si>
-    <t>}</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>Token</t>
-  </si>
-  <si>
-    <t>Descripción</t>
-  </si>
-  <si>
-    <t>Tipo</t>
-  </si>
-  <si>
-    <t>1050</t>
-  </si>
-  <si>
-    <t>Fuera del rango</t>
-  </si>
-  <si>
-    <t>Semantica 2</t>
-  </si>
-  <si>
-    <t>Erroes</t>
-  </si>
-  <si>
-    <t>Identificadores</t>
-  </si>
-  <si>
-    <t>Comentarios</t>
-  </si>
-  <si>
-    <t>Palabras reservadas</t>
-  </si>
-  <si>
-    <t>C-Enteras</t>
-  </si>
-  <si>
-    <t>C-Texto</t>
-  </si>
-  <si>
-    <t>C-Decimal</t>
-  </si>
-  <si>
-    <t>C-Carácter</t>
-  </si>
-  <si>
-    <t>C-Exponencial</t>
-  </si>
-  <si>
-    <t>Aritmeticos</t>
-  </si>
-  <si>
-    <t>Monogamo</t>
-  </si>
-  <si>
-    <t>Logico</t>
-  </si>
-  <si>
-    <t>Relacionales</t>
-  </si>
-  <si>
-    <t>Bit</t>
-  </si>
-  <si>
-    <t>Puntuación</t>
-  </si>
-  <si>
-    <t>Agrupación</t>
-  </si>
-  <si>
-    <t>Asignación</t>
-  </si>
-  <si>
-    <t>Sintaxis</t>
-  </si>
-  <si>
-    <t>Funciones</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>Ambito</t>
-  </si>
-  <si>
-    <t>CHAR</t>
-  </si>
-  <si>
-    <t>String (CHAR[])</t>
-  </si>
-  <si>
     <t>REAL</t>
   </si>
   <si>
@@ -259,9 +271,6 @@
     <t>Errores</t>
   </si>
   <si>
-    <t xml:space="preserve">a -&gt; </t>
-  </si>
-  <si>
     <t>Regla</t>
   </si>
   <si>
@@ -274,13 +283,10 @@
     <t>Edo</t>
   </si>
   <si>
-    <t>id</t>
+    <t>Cont_entero</t>
   </si>
   <si>
     <t>Acept</t>
-  </si>
-  <si>
-    <t>Const_entero</t>
   </si>
   <si>
     <t>ERROR</t>
@@ -328,7 +334,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -397,84 +403,84 @@
         <v>13</v>
       </c>
       <c r="C6" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" t="s">
         <v>14</v>
-      </c>
-      <c r="B7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B8" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="C8" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B9" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C9" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B10" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="C10" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="C11" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="C12" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C13" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14">
@@ -485,40 +491,62 @@
         <v>7</v>
       </c>
       <c r="C14" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="B15" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="C15" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="B16" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="C16" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17" t="s">
+        <v>22</v>
+      </c>
+      <c r="C17" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>8</v>
+      </c>
+      <c r="B18" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>25</v>
+      </c>
+      <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
         <v>27</v>
-      </c>
-      <c r="B17" t="s">
-        <v>28</v>
-      </c>
-      <c r="C17" t="s">
-        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -528,7 +556,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -536,16 +564,16 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E1" t="s">
         <v>2</v>
@@ -553,19 +581,36 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" t="s">
         <v>33</v>
       </c>
-      <c r="B2" t="s">
+      <c r="D2" t="s">
         <v>34</v>
       </c>
-      <c r="C2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
         <v>35</v>
       </c>
-      <c r="E2" t="s">
-        <v>26</v>
+      <c r="B3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E3" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -583,61 +628,61 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="E1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="F1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="G1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="H1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="I1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="J1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="K1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="L1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="M1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="N1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="O1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="P1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="Q1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="R1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="S1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
     </row>
     <row r="2">
@@ -645,58 +690,58 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>58</v>
       </c>
       <c r="C2" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="D2" t="s">
-        <v>55</v>
+        <v>14</v>
       </c>
       <c r="E2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="F2" t="s">
-        <v>55</v>
+        <v>14</v>
       </c>
       <c r="G2" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="H2" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="I2" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="J2" t="s">
-        <v>55</v>
+        <v>5</v>
       </c>
       <c r="K2" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="L2" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="M2" t="s">
-        <v>55</v>
+        <v>5</v>
       </c>
       <c r="N2" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="O2" t="s">
         <v>5</v>
       </c>
       <c r="P2" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="Q2" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="R2" t="s">
-        <v>26</v>
+        <v>5</v>
       </c>
       <c r="S2" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -714,40 +759,40 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="D1" t="s">
-        <v>4</v>
+        <v>63</v>
       </c>
       <c r="E1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="F1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="G1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="H1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="I1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="J1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="K1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="L1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
     </row>
     <row r="2">
@@ -761,7 +806,7 @@
         <v>0.0</v>
       </c>
       <c r="D2" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="E2" t="n">
         <v>0.0</v>
@@ -785,12 +830,12 @@
         <v>0.0</v>
       </c>
       <c r="L2" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B3" t="n">
         <v>0.0</v>
@@ -799,7 +844,7 @@
         <v>0.0</v>
       </c>
       <c r="D3" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="E3" t="n">
         <v>0.0</v>
@@ -823,7 +868,7 @@
         <v>0.0</v>
       </c>
       <c r="L3" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
   </sheetData>
@@ -833,7 +878,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:M2"/>
+  <dimension ref="A1:M1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -844,81 +889,40 @@
         <v>2</v>
       </c>
       <c r="B1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="C1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="D1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="E1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="F1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="G1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="H1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="I1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="J1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="K1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="L1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="M1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="B2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="L2" t="s">
-        <v>80</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0.0</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -928,7 +932,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -936,39 +940,39 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="C1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="D1" t="s">
         <v>2</v>
       </c>
       <c r="E1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="F1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1030.0</v>
+        <v>1010.0</v>
       </c>
       <c r="B2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C2" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D2" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="E2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="F2" t="n">
         <v>0.0</v>
@@ -976,41 +980,21 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1040.0</v>
+        <v>1010.0</v>
       </c>
       <c r="B3" t="s">
-        <v>87</v>
+        <v>37</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D3" t="n">
         <v>3.0</v>
       </c>
       <c r="E3" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="F3" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>1050.0</v>
-      </c>
-      <c r="B4" t="s">
-        <v>87</v>
-      </c>
-      <c r="C4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="E4" t="s">
-        <v>88</v>
-      </c>
-      <c r="F4" t="n">
         <v>0.0</v>
       </c>
     </row>

--- a/src/Excel/Yañez_Gonzalez_Christian_Emmanuel.xlsx
+++ b/src/Excel/Yañez_Gonzalez_Christian_Emmanuel.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="123">
   <si>
     <t>Estado</t>
   </si>
@@ -67,10 +67,16 @@
     <t>-19</t>
   </si>
   <si>
-    <t>-36</t>
-  </si>
-  <si>
-    <t>&lt;</t>
+    <t>-40</t>
+  </si>
+  <si>
+    <t>==</t>
+  </si>
+  <si>
+    <t>-54</t>
+  </si>
+  <si>
+    <t>}</t>
   </si>
   <si>
     <t>-46</t>
@@ -79,28 +85,106 @@
     <t>;</t>
   </si>
   <si>
+    <t>-2</t>
+  </si>
+  <si>
+    <t>//Ok</t>
+  </si>
+  <si>
+    <t>-6</t>
+  </si>
+  <si>
+    <t>while</t>
+  </si>
+  <si>
     <t>3</t>
   </si>
   <si>
+    <t>-37</t>
+  </si>
+  <si>
+    <t>&lt;=</t>
+  </si>
+  <si>
+    <t>-47</t>
+  </si>
+  <si>
+    <t>,</t>
+  </si>
+  <si>
+    <t>-68</t>
+  </si>
+  <si>
+    <t>:</t>
+  </si>
+  <si>
+    <t>-99</t>
+  </si>
+  <si>
+    <t>default</t>
+  </si>
+  <si>
+    <t>-91</t>
+  </si>
+  <si>
+    <t>repeat</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>-94</t>
+  </si>
+  <si>
+    <t>until</t>
+  </si>
+  <si>
+    <t>-89</t>
+  </si>
+  <si>
+    <t>=&gt;</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>-24</t>
+  </si>
+  <si>
+    <t>+</t>
+  </si>
+  <si>
+    <t>//Error</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>-25</t>
+  </si>
+  <si>
+    <t>*</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>-28</t>
+  </si>
+  <si>
+    <t>%</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
     <t>-20</t>
   </si>
   <si>
     <t>"g"</t>
   </si>
   <si>
-    <t>-25</t>
-  </si>
-  <si>
-    <t>*</t>
-  </si>
-  <si>
-    <t>-54</t>
-  </si>
-  <si>
-    <t>}</t>
-  </si>
-  <si>
-    <t>4</t>
+    <t>12</t>
   </si>
   <si>
     <t>Token</t>
@@ -112,6 +196,24 @@
     <t>Tipo</t>
   </si>
   <si>
+    <t>1010</t>
+  </si>
+  <si>
+    <t>Debe de ser un BOOL lo que este entre ()</t>
+  </si>
+  <si>
+    <t>Cont_entero</t>
+  </si>
+  <si>
+    <t>Semantica Etapa 2</t>
+  </si>
+  <si>
+    <t>1011</t>
+  </si>
+  <si>
+    <t>1012</t>
+  </si>
+  <si>
     <t>801</t>
   </si>
   <si>
@@ -124,172 +226,166 @@
     <t>Semantica:Etapa 1</t>
   </si>
   <si>
-    <t>1010</t>
-  </si>
-  <si>
-    <t>Debe de ser un BOOL lo que este entre ()</t>
+    <t>Erroes</t>
+  </si>
+  <si>
+    <t>Identificadores</t>
+  </si>
+  <si>
+    <t>Comentarios</t>
+  </si>
+  <si>
+    <t>Palabras reservadas</t>
+  </si>
+  <si>
+    <t>C-Enteras</t>
+  </si>
+  <si>
+    <t>C-Texto</t>
+  </si>
+  <si>
+    <t>C-Decimal</t>
+  </si>
+  <si>
+    <t>C-Carácter</t>
+  </si>
+  <si>
+    <t>C-Exponencial</t>
+  </si>
+  <si>
+    <t>Aritmeticos</t>
+  </si>
+  <si>
+    <t>Monogamo</t>
+  </si>
+  <si>
+    <t>Logico</t>
+  </si>
+  <si>
+    <t>Relacionales</t>
+  </si>
+  <si>
+    <t>Bit</t>
+  </si>
+  <si>
+    <t>Puntuación</t>
+  </si>
+  <si>
+    <t>Agrupación</t>
+  </si>
+  <si>
+    <t>Asignación</t>
+  </si>
+  <si>
+    <t>Sintaxis</t>
+  </si>
+  <si>
+    <t>Funciones</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>42</t>
+  </si>
+  <si>
+    <t>Ambito</t>
+  </si>
+  <si>
+    <t>CHAR</t>
+  </si>
+  <si>
+    <t>String (CHAR[])</t>
+  </si>
+  <si>
+    <t>INT</t>
+  </si>
+  <si>
+    <t>REAL</t>
+  </si>
+  <si>
+    <t>BOOL</t>
+  </si>
+  <si>
+    <t>EXP</t>
+  </si>
+  <si>
+    <t>REG</t>
+  </si>
+  <si>
+    <t>VOID</t>
+  </si>
+  <si>
+    <t>FILE</t>
+  </si>
+  <si>
+    <t>ERRORES</t>
+  </si>
+  <si>
+    <t>Total de ambito</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Tch</t>
+  </si>
+  <si>
+    <t>TS</t>
+  </si>
+  <si>
+    <t>TE</t>
+  </si>
+  <si>
+    <t>TR</t>
+  </si>
+  <si>
+    <t>TB</t>
+  </si>
+  <si>
+    <t>TX</t>
+  </si>
+  <si>
+    <t>TO</t>
+  </si>
+  <si>
+    <t>TF</t>
+  </si>
+  <si>
+    <t>TV</t>
+  </si>
+  <si>
+    <t>Asignacion</t>
+  </si>
+  <si>
+    <t>Errores</t>
+  </si>
+  <si>
+    <t>Regla</t>
+  </si>
+  <si>
+    <t>Tope Pila</t>
+  </si>
+  <si>
+    <t>Valor Real</t>
+  </si>
+  <si>
+    <t>Edo</t>
+  </si>
+  <si>
+    <t>Acept</t>
+  </si>
+  <si>
+    <t>ERROR</t>
   </si>
   <si>
     <t>Cont_cadena</t>
-  </si>
-  <si>
-    <t>Semantica Etapa 2</t>
-  </si>
-  <si>
-    <t>Erroes</t>
-  </si>
-  <si>
-    <t>Identificadores</t>
-  </si>
-  <si>
-    <t>Comentarios</t>
-  </si>
-  <si>
-    <t>Palabras reservadas</t>
-  </si>
-  <si>
-    <t>C-Enteras</t>
-  </si>
-  <si>
-    <t>C-Texto</t>
-  </si>
-  <si>
-    <t>C-Decimal</t>
-  </si>
-  <si>
-    <t>C-Carácter</t>
-  </si>
-  <si>
-    <t>C-Exponencial</t>
-  </si>
-  <si>
-    <t>Aritmeticos</t>
-  </si>
-  <si>
-    <t>Monogamo</t>
-  </si>
-  <si>
-    <t>Logico</t>
-  </si>
-  <si>
-    <t>Relacionales</t>
-  </si>
-  <si>
-    <t>Bit</t>
-  </si>
-  <si>
-    <t>Puntuación</t>
-  </si>
-  <si>
-    <t>Agrupación</t>
-  </si>
-  <si>
-    <t>Asignación</t>
-  </si>
-  <si>
-    <t>Sintaxis</t>
-  </si>
-  <si>
-    <t>Funciones</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>Ambito</t>
-  </si>
-  <si>
-    <t>CHAR</t>
-  </si>
-  <si>
-    <t>String (CHAR[])</t>
-  </si>
-  <si>
-    <t>INT</t>
-  </si>
-  <si>
-    <t>REAL</t>
-  </si>
-  <si>
-    <t>BOOL</t>
-  </si>
-  <si>
-    <t>EXP</t>
-  </si>
-  <si>
-    <t>REG</t>
-  </si>
-  <si>
-    <t>VOID</t>
-  </si>
-  <si>
-    <t>FILE</t>
-  </si>
-  <si>
-    <t>ERRORES</t>
-  </si>
-  <si>
-    <t>Total de ambito</t>
-  </si>
-  <si>
-    <t>Total</t>
-  </si>
-  <si>
-    <t>Tch</t>
-  </si>
-  <si>
-    <t>TS</t>
-  </si>
-  <si>
-    <t>TE</t>
-  </si>
-  <si>
-    <t>TR</t>
-  </si>
-  <si>
-    <t>TB</t>
-  </si>
-  <si>
-    <t>TX</t>
-  </si>
-  <si>
-    <t>TO</t>
-  </si>
-  <si>
-    <t>TF</t>
-  </si>
-  <si>
-    <t>TV</t>
-  </si>
-  <si>
-    <t>Asignacion</t>
-  </si>
-  <si>
-    <t>Errores</t>
-  </si>
-  <si>
-    <t>Regla</t>
-  </si>
-  <si>
-    <t>Tope Pila</t>
-  </si>
-  <si>
-    <t>Valor Real</t>
-  </si>
-  <si>
-    <t>Edo</t>
-  </si>
-  <si>
-    <t>Cont_entero</t>
-  </si>
-  <si>
-    <t>Acept</t>
-  </si>
-  <si>
-    <t>ERROR</t>
   </si>
 </sst>
 </file>
@@ -334,7 +430,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:C98"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -463,10 +559,10 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="C12" t="s">
         <v>14</v>
@@ -474,79 +570,948 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="B13" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="C13" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="B14" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="C14" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C15" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B16" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C16" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="B17" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="C17" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="B18" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C18" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
+        <v>27</v>
+      </c>
+      <c r="B19" t="s">
+        <v>28</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>15</v>
+      </c>
+      <c r="B20" t="s">
+        <v>14</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>8</v>
+      </c>
+      <c r="B21" t="s">
+        <v>9</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>10</v>
+      </c>
+      <c r="B22" t="s">
+        <v>11</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>18</v>
+      </c>
+      <c r="B23" t="s">
+        <v>19</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>29</v>
+      </c>
+      <c r="B24" t="s">
+        <v>30</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>15</v>
+      </c>
+      <c r="B25" t="s">
+        <v>5</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>31</v>
+      </c>
+      <c r="B26" t="s">
+        <v>32</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>10</v>
+      </c>
+      <c r="B27" t="s">
+        <v>11</v>
+      </c>
+      <c r="C27" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>18</v>
+      </c>
+      <c r="B28" t="s">
+        <v>19</v>
+      </c>
+      <c r="C28" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>33</v>
+      </c>
+      <c r="B29" t="s">
+        <v>34</v>
+      </c>
+      <c r="C29" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s">
+        <v>31</v>
+      </c>
+      <c r="B30" t="s">
+        <v>32</v>
+      </c>
+      <c r="C30" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
+        <v>10</v>
+      </c>
+      <c r="B31" t="s">
+        <v>11</v>
+      </c>
+      <c r="C31" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s">
+        <v>18</v>
+      </c>
+      <c r="B32" t="s">
+        <v>19</v>
+      </c>
+      <c r="C32" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s">
+        <v>18</v>
+      </c>
+      <c r="B33" t="s">
+        <v>19</v>
+      </c>
+      <c r="C33" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s">
+        <v>20</v>
+      </c>
+      <c r="B34" t="s">
+        <v>21</v>
+      </c>
+      <c r="C34" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s">
+        <v>22</v>
+      </c>
+      <c r="B35" t="s">
+        <v>23</v>
+      </c>
+      <c r="C35" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s">
+        <v>35</v>
+      </c>
+      <c r="B36" t="s">
+        <v>36</v>
+      </c>
+      <c r="C36" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s">
+        <v>10</v>
+      </c>
+      <c r="B37" t="s">
+        <v>11</v>
+      </c>
+      <c r="C37" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s">
+        <v>18</v>
+      </c>
+      <c r="B38" t="s">
+        <v>19</v>
+      </c>
+      <c r="C38" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s">
+        <v>38</v>
+      </c>
+      <c r="B39" t="s">
+        <v>39</v>
+      </c>
+      <c r="C39" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s">
+        <v>6</v>
+      </c>
+      <c r="B40" t="s">
+        <v>7</v>
+      </c>
+      <c r="C40" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s">
+        <v>15</v>
+      </c>
+      <c r="B41" t="s">
+        <v>14</v>
+      </c>
+      <c r="C41" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s">
+        <v>40</v>
+      </c>
+      <c r="B42" t="s">
+        <v>41</v>
+      </c>
+      <c r="C42" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s">
+        <v>15</v>
+      </c>
+      <c r="B43" t="s">
+        <v>14</v>
+      </c>
+      <c r="C43" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s">
+        <v>8</v>
+      </c>
+      <c r="B44" t="s">
+        <v>9</v>
+      </c>
+      <c r="C44" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s">
+        <v>20</v>
+      </c>
+      <c r="B45" t="s">
+        <v>21</v>
+      </c>
+      <c r="C45" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s">
+        <v>22</v>
+      </c>
+      <c r="B46" t="s">
+        <v>23</v>
+      </c>
+      <c r="C46" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s">
+        <v>12</v>
+      </c>
+      <c r="B47" t="s">
+        <v>13</v>
+      </c>
+      <c r="C47" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s">
+        <v>6</v>
+      </c>
+      <c r="B48" t="s">
+        <v>7</v>
+      </c>
+      <c r="C48" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s">
+        <v>15</v>
+      </c>
+      <c r="B49" t="s">
+        <v>5</v>
+      </c>
+      <c r="C49" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s">
+        <v>43</v>
+      </c>
+      <c r="B50" t="s">
+        <v>44</v>
+      </c>
+      <c r="C50" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s">
+        <v>15</v>
+      </c>
+      <c r="B51" t="s">
+        <v>14</v>
+      </c>
+      <c r="C51" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s">
+        <v>8</v>
+      </c>
+      <c r="B52" t="s">
+        <v>9</v>
+      </c>
+      <c r="C52" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s">
+        <v>10</v>
+      </c>
+      <c r="B53" t="s">
+        <v>11</v>
+      </c>
+      <c r="C53" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s">
+        <v>18</v>
+      </c>
+      <c r="B54" t="s">
+        <v>19</v>
+      </c>
+      <c r="C54" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s">
+        <v>20</v>
+      </c>
+      <c r="B55" t="s">
+        <v>21</v>
+      </c>
+      <c r="C55" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s">
+        <v>22</v>
+      </c>
+      <c r="B56" t="s">
+        <v>45</v>
+      </c>
+      <c r="C56" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s">
+        <v>24</v>
+      </c>
+      <c r="B57" t="s">
         <v>25</v>
       </c>
-      <c r="B19" t="s">
-        <v>26</v>
-      </c>
-      <c r="C19" t="s">
-        <v>27</v>
+      <c r="C57" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="s">
+        <v>6</v>
+      </c>
+      <c r="B58" t="s">
+        <v>7</v>
+      </c>
+      <c r="C58" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="s">
+        <v>15</v>
+      </c>
+      <c r="B59" t="s">
+        <v>5</v>
+      </c>
+      <c r="C59" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="s">
+        <v>47</v>
+      </c>
+      <c r="B60" t="s">
+        <v>48</v>
+      </c>
+      <c r="C60" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="s">
+        <v>15</v>
+      </c>
+      <c r="B61" t="s">
+        <v>14</v>
+      </c>
+      <c r="C61" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="s">
+        <v>8</v>
+      </c>
+      <c r="B62" t="s">
+        <v>9</v>
+      </c>
+      <c r="C62" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="s">
+        <v>10</v>
+      </c>
+      <c r="B63" t="s">
+        <v>11</v>
+      </c>
+      <c r="C63" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="s">
+        <v>18</v>
+      </c>
+      <c r="B64" t="s">
+        <v>19</v>
+      </c>
+      <c r="C64" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="s">
+        <v>29</v>
+      </c>
+      <c r="B65" t="s">
+        <v>30</v>
+      </c>
+      <c r="C65" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="s">
+        <v>15</v>
+      </c>
+      <c r="B66" t="s">
+        <v>5</v>
+      </c>
+      <c r="C66" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="s">
+        <v>31</v>
+      </c>
+      <c r="B67" t="s">
+        <v>32</v>
+      </c>
+      <c r="C67" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="s">
+        <v>10</v>
+      </c>
+      <c r="B68" t="s">
+        <v>11</v>
+      </c>
+      <c r="C68" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="s">
+        <v>18</v>
+      </c>
+      <c r="B69" t="s">
+        <v>19</v>
+      </c>
+      <c r="C69" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="s">
+        <v>33</v>
+      </c>
+      <c r="B70" t="s">
+        <v>34</v>
+      </c>
+      <c r="C70" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="s">
+        <v>31</v>
+      </c>
+      <c r="B71" t="s">
+        <v>32</v>
+      </c>
+      <c r="C71" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="s">
+        <v>10</v>
+      </c>
+      <c r="B72" t="s">
+        <v>11</v>
+      </c>
+      <c r="C72" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="s">
+        <v>18</v>
+      </c>
+      <c r="B73" t="s">
+        <v>19</v>
+      </c>
+      <c r="C73" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="s">
+        <v>18</v>
+      </c>
+      <c r="B74" t="s">
+        <v>19</v>
+      </c>
+      <c r="C74" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="s">
+        <v>20</v>
+      </c>
+      <c r="B75" t="s">
+        <v>21</v>
+      </c>
+      <c r="C75" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="s">
+        <v>22</v>
+      </c>
+      <c r="B76" t="s">
+        <v>45</v>
+      </c>
+      <c r="C76" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="s">
+        <v>35</v>
+      </c>
+      <c r="B77" t="s">
+        <v>36</v>
+      </c>
+      <c r="C77" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="s">
+        <v>10</v>
+      </c>
+      <c r="B78" t="s">
+        <v>11</v>
+      </c>
+      <c r="C78" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="s">
+        <v>18</v>
+      </c>
+      <c r="B79" t="s">
+        <v>19</v>
+      </c>
+      <c r="C79" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="s">
+        <v>38</v>
+      </c>
+      <c r="B80" t="s">
+        <v>39</v>
+      </c>
+      <c r="C80" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="s">
+        <v>6</v>
+      </c>
+      <c r="B81" t="s">
+        <v>7</v>
+      </c>
+      <c r="C81" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="s">
+        <v>15</v>
+      </c>
+      <c r="B82" t="s">
+        <v>14</v>
+      </c>
+      <c r="C82" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="s">
+        <v>50</v>
+      </c>
+      <c r="B83" t="s">
+        <v>51</v>
+      </c>
+      <c r="C83" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="s">
+        <v>15</v>
+      </c>
+      <c r="B84" t="s">
+        <v>14</v>
+      </c>
+      <c r="C84" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="s">
+        <v>8</v>
+      </c>
+      <c r="B85" t="s">
+        <v>9</v>
+      </c>
+      <c r="C85" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="s">
+        <v>20</v>
+      </c>
+      <c r="B86" t="s">
+        <v>21</v>
+      </c>
+      <c r="C86" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="s">
+        <v>22</v>
+      </c>
+      <c r="B87" t="s">
+        <v>45</v>
+      </c>
+      <c r="C87" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="s">
+        <v>12</v>
+      </c>
+      <c r="B88" t="s">
+        <v>13</v>
+      </c>
+      <c r="C88" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="s">
+        <v>6</v>
+      </c>
+      <c r="B89" t="s">
+        <v>7</v>
+      </c>
+      <c r="C89" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="s">
+        <v>53</v>
+      </c>
+      <c r="B90" t="s">
+        <v>54</v>
+      </c>
+      <c r="C90" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="s">
+        <v>47</v>
+      </c>
+      <c r="B91" t="s">
+        <v>48</v>
+      </c>
+      <c r="C91" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="s">
+        <v>53</v>
+      </c>
+      <c r="B92" t="s">
+        <v>54</v>
+      </c>
+      <c r="C92" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="s">
+        <v>8</v>
+      </c>
+      <c r="B93" t="s">
+        <v>9</v>
+      </c>
+      <c r="C93" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="s">
+        <v>10</v>
+      </c>
+      <c r="B94" t="s">
+        <v>11</v>
+      </c>
+      <c r="C94" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="s">
+        <v>18</v>
+      </c>
+      <c r="B95" t="s">
+        <v>19</v>
+      </c>
+      <c r="C95" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="s">
+        <v>20</v>
+      </c>
+      <c r="B96" t="s">
+        <v>21</v>
+      </c>
+      <c r="C96" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="s">
+        <v>22</v>
+      </c>
+      <c r="B97" t="s">
+        <v>23</v>
+      </c>
+      <c r="C97" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="s">
+        <v>18</v>
+      </c>
+      <c r="B98" t="s">
+        <v>19</v>
+      </c>
+      <c r="C98" t="s">
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -556,7 +1521,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -564,16 +1529,16 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>28</v>
+        <v>56</v>
       </c>
       <c r="B1" t="s">
-        <v>29</v>
+        <v>57</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>30</v>
+        <v>58</v>
       </c>
       <c r="E1" t="s">
         <v>2</v>
@@ -581,36 +1546,70 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>31</v>
+        <v>59</v>
       </c>
       <c r="B2" t="s">
-        <v>32</v>
+        <v>60</v>
       </c>
       <c r="C2" t="s">
-        <v>33</v>
+        <v>61</v>
       </c>
       <c r="D2" t="s">
-        <v>34</v>
+        <v>62</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>35</v>
+        <v>63</v>
       </c>
       <c r="B3" t="s">
-        <v>36</v>
+        <v>60</v>
       </c>
       <c r="C3" t="s">
-        <v>37</v>
+        <v>61</v>
       </c>
       <c r="D3" t="s">
-        <v>38</v>
+        <v>62</v>
       </c>
       <c r="E3" t="s">
-        <v>20</v>
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>64</v>
+      </c>
+      <c r="B4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C4" t="s">
+        <v>61</v>
+      </c>
+      <c r="D4" t="s">
+        <v>62</v>
+      </c>
+      <c r="E4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>65</v>
+      </c>
+      <c r="B5" t="s">
+        <v>66</v>
+      </c>
+      <c r="C5" t="s">
+        <v>67</v>
+      </c>
+      <c r="D5" t="s">
+        <v>68</v>
+      </c>
+      <c r="E5" t="s">
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -628,61 +1627,61 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>39</v>
+        <v>69</v>
       </c>
       <c r="B1" t="s">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="C1" t="s">
-        <v>41</v>
+        <v>71</v>
       </c>
       <c r="D1" t="s">
-        <v>42</v>
+        <v>72</v>
       </c>
       <c r="E1" t="s">
-        <v>43</v>
+        <v>73</v>
       </c>
       <c r="F1" t="s">
-        <v>44</v>
+        <v>74</v>
       </c>
       <c r="G1" t="s">
-        <v>45</v>
+        <v>75</v>
       </c>
       <c r="H1" t="s">
-        <v>46</v>
+        <v>76</v>
       </c>
       <c r="I1" t="s">
-        <v>47</v>
+        <v>77</v>
       </c>
       <c r="J1" t="s">
-        <v>48</v>
+        <v>78</v>
       </c>
       <c r="K1" t="s">
-        <v>49</v>
+        <v>79</v>
       </c>
       <c r="L1" t="s">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="M1" t="s">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="N1" t="s">
-        <v>52</v>
+        <v>82</v>
       </c>
       <c r="O1" t="s">
-        <v>53</v>
+        <v>83</v>
       </c>
       <c r="P1" t="s">
-        <v>54</v>
+        <v>84</v>
       </c>
       <c r="Q1" t="s">
-        <v>55</v>
+        <v>85</v>
       </c>
       <c r="R1" t="s">
-        <v>56</v>
+        <v>86</v>
       </c>
       <c r="S1" t="s">
-        <v>57</v>
+        <v>87</v>
       </c>
     </row>
     <row r="2">
@@ -690,58 +1689,58 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>58</v>
+        <v>88</v>
       </c>
       <c r="C2" t="s">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="D2" t="s">
-        <v>14</v>
+        <v>89</v>
       </c>
       <c r="E2" t="s">
-        <v>14</v>
+        <v>90</v>
       </c>
       <c r="F2" t="s">
         <v>14</v>
       </c>
       <c r="G2" t="s">
-        <v>58</v>
+        <v>88</v>
       </c>
       <c r="H2" t="s">
-        <v>58</v>
+        <v>88</v>
       </c>
       <c r="I2" t="s">
-        <v>58</v>
+        <v>88</v>
       </c>
       <c r="J2" t="s">
+        <v>37</v>
+      </c>
+      <c r="K2" t="s">
+        <v>88</v>
+      </c>
+      <c r="L2" t="s">
+        <v>88</v>
+      </c>
+      <c r="M2" t="s">
+        <v>14</v>
+      </c>
+      <c r="N2" t="s">
+        <v>88</v>
+      </c>
+      <c r="O2" t="s">
+        <v>49</v>
+      </c>
+      <c r="P2" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>88</v>
+      </c>
+      <c r="R2" t="s">
+        <v>52</v>
+      </c>
+      <c r="S2" t="s">
         <v>5</v>
-      </c>
-      <c r="K2" t="s">
-        <v>58</v>
-      </c>
-      <c r="L2" t="s">
-        <v>58</v>
-      </c>
-      <c r="M2" t="s">
-        <v>5</v>
-      </c>
-      <c r="N2" t="s">
-        <v>58</v>
-      </c>
-      <c r="O2" t="s">
-        <v>5</v>
-      </c>
-      <c r="P2" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>58</v>
-      </c>
-      <c r="R2" t="s">
-        <v>5</v>
-      </c>
-      <c r="S2" t="s">
-        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -759,40 +1758,40 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>60</v>
+        <v>92</v>
       </c>
       <c r="B1" t="s">
-        <v>61</v>
+        <v>93</v>
       </c>
       <c r="C1" t="s">
-        <v>62</v>
+        <v>94</v>
       </c>
       <c r="D1" t="s">
-        <v>63</v>
+        <v>95</v>
       </c>
       <c r="E1" t="s">
-        <v>64</v>
+        <v>96</v>
       </c>
       <c r="F1" t="s">
-        <v>65</v>
+        <v>97</v>
       </c>
       <c r="G1" t="s">
-        <v>66</v>
+        <v>98</v>
       </c>
       <c r="H1" t="s">
-        <v>67</v>
+        <v>99</v>
       </c>
       <c r="I1" t="s">
-        <v>68</v>
+        <v>100</v>
       </c>
       <c r="J1" t="s">
-        <v>69</v>
+        <v>101</v>
       </c>
       <c r="K1" t="s">
-        <v>70</v>
+        <v>102</v>
       </c>
       <c r="L1" t="s">
-        <v>71</v>
+        <v>103</v>
       </c>
     </row>
     <row r="2">
@@ -835,7 +1834,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>72</v>
+        <v>104</v>
       </c>
       <c r="B3" t="n">
         <v>0.0</v>
@@ -889,40 +1888,40 @@
         <v>2</v>
       </c>
       <c r="B1" t="s">
-        <v>73</v>
+        <v>105</v>
       </c>
       <c r="C1" t="s">
-        <v>74</v>
+        <v>106</v>
       </c>
       <c r="D1" t="s">
-        <v>75</v>
+        <v>107</v>
       </c>
       <c r="E1" t="s">
-        <v>76</v>
+        <v>108</v>
       </c>
       <c r="F1" t="s">
-        <v>77</v>
+        <v>109</v>
       </c>
       <c r="G1" t="s">
-        <v>78</v>
+        <v>110</v>
       </c>
       <c r="H1" t="s">
-        <v>76</v>
+        <v>108</v>
       </c>
       <c r="I1" t="s">
-        <v>79</v>
+        <v>111</v>
       </c>
       <c r="J1" t="s">
-        <v>80</v>
+        <v>112</v>
       </c>
       <c r="K1" t="s">
-        <v>81</v>
+        <v>113</v>
       </c>
       <c r="L1" t="s">
-        <v>82</v>
+        <v>114</v>
       </c>
       <c r="M1" t="s">
-        <v>83</v>
+        <v>115</v>
       </c>
     </row>
   </sheetData>
@@ -932,7 +1931,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -940,22 +1939,22 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>84</v>
+        <v>116</v>
       </c>
       <c r="B1" t="s">
-        <v>85</v>
+        <v>117</v>
       </c>
       <c r="C1" t="s">
-        <v>86</v>
+        <v>118</v>
       </c>
       <c r="D1" t="s">
         <v>2</v>
       </c>
       <c r="E1" t="s">
-        <v>87</v>
+        <v>119</v>
       </c>
       <c r="F1" t="s">
-        <v>60</v>
+        <v>92</v>
       </c>
     </row>
     <row r="2">
@@ -963,7 +1962,7 @@
         <v>1010.0</v>
       </c>
       <c r="B2" t="s">
-        <v>88</v>
+        <v>61</v>
       </c>
       <c r="C2" t="s">
         <v>5</v>
@@ -972,7 +1971,7 @@
         <v>2.0</v>
       </c>
       <c r="E2" t="s">
-        <v>89</v>
+        <v>120</v>
       </c>
       <c r="F2" t="n">
         <v>0.0</v>
@@ -980,21 +1979,121 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1010.0</v>
+        <v>1011.0</v>
       </c>
       <c r="B3" t="s">
-        <v>37</v>
+        <v>61</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="D3" t="n">
         <v>3.0</v>
       </c>
       <c r="E3" t="s">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="F3" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>1012.0</v>
+      </c>
+      <c r="B4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="E4" t="s">
+        <v>120</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>1010.0</v>
+      </c>
+      <c r="B5" t="s">
+        <v>61</v>
+      </c>
+      <c r="C5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="E5" t="s">
+        <v>121</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>1011.0</v>
+      </c>
+      <c r="B6" t="s">
+        <v>61</v>
+      </c>
+      <c r="C6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="E6" t="s">
+        <v>121</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>1012.0</v>
+      </c>
+      <c r="B7" t="s">
+        <v>61</v>
+      </c>
+      <c r="C7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="E7" t="s">
+        <v>121</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>1010.0</v>
+      </c>
+      <c r="B8" t="s">
+        <v>122</v>
+      </c>
+      <c r="C8" t="s">
+        <v>54</v>
+      </c>
+      <c r="D8" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="E8" t="s">
+        <v>120</v>
+      </c>
+      <c r="F8" t="n">
         <v>0.0</v>
       </c>
     </row>

--- a/src/Excel/Yañez_Gonzalez_Christian_Emmanuel.xlsx
+++ b/src/Excel/Yañez_Gonzalez_Christian_Emmanuel.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="438" uniqueCount="132">
   <si>
     <t>Estado</t>
   </si>
@@ -28,13 +28,40 @@
     <t>Linea</t>
   </si>
   <si>
+    <t>-97</t>
+  </si>
+  <si>
+    <t>INT</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>-68</t>
+  </si>
+  <si>
+    <t>:</t>
+  </si>
+  <si>
+    <t>-1</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>-46</t>
+  </si>
+  <si>
+    <t>;</t>
+  </si>
+  <si>
     <t>-61</t>
   </si>
   <si>
     <t>main</t>
   </si>
   <si>
-    <t>1</t>
+    <t>2</t>
   </si>
   <si>
     <t>-49</t>
@@ -55,16 +82,25 @@
     <t>{</t>
   </si>
   <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>-55</t>
+  </si>
+  <si>
+    <t>=</t>
+  </si>
+  <si>
+    <t>-19</t>
+  </si>
+  <si>
     <t>-4</t>
   </si>
   <si>
     <t>if</t>
   </si>
   <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>-19</t>
+    <t>4</t>
   </si>
   <si>
     <t>-40</t>
@@ -79,12 +115,6 @@
     <t>}</t>
   </si>
   <si>
-    <t>-46</t>
-  </si>
-  <si>
-    <t>;</t>
-  </si>
-  <si>
     <t>-2</t>
   </si>
   <si>
@@ -97,7 +127,7 @@
     <t>while</t>
   </si>
   <si>
-    <t>3</t>
+    <t>5</t>
   </si>
   <si>
     <t>-37</t>
@@ -112,12 +142,6 @@
     <t>,</t>
   </si>
   <si>
-    <t>-68</t>
-  </si>
-  <si>
-    <t>:</t>
-  </si>
-  <si>
     <t>-99</t>
   </si>
   <si>
@@ -130,7 +154,7 @@
     <t>repeat</t>
   </si>
   <si>
-    <t>4</t>
+    <t>6</t>
   </si>
   <si>
     <t>-94</t>
@@ -145,153 +169,153 @@
     <t>=&gt;</t>
   </si>
   <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>-24</t>
+  </si>
+  <si>
+    <t>+</t>
+  </si>
+  <si>
+    <t>//Error</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>-25</t>
+  </si>
+  <si>
+    <t>*</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>-28</t>
+  </si>
+  <si>
+    <t>%</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>-20</t>
+  </si>
+  <si>
+    <t>"g"</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>Token</t>
+  </si>
+  <si>
+    <t>Descripción</t>
+  </si>
+  <si>
+    <t>Tipo</t>
+  </si>
+  <si>
+    <t>1010</t>
+  </si>
+  <si>
+    <t>Debe de ser un BOOL lo que este entre ()</t>
+  </si>
+  <si>
+    <t>Cont_entero</t>
+  </si>
+  <si>
+    <t>Semantica Etapa 2</t>
+  </si>
+  <si>
+    <t>1011</t>
+  </si>
+  <si>
+    <t>1012</t>
+  </si>
+  <si>
+    <t>801</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No se puede desarrollar una multiplicacion de </t>
+  </si>
+  <si>
+    <t>"g"*"g"</t>
+  </si>
+  <si>
+    <t>Semantica:Etapa 1</t>
+  </si>
+  <si>
+    <t>Erroes</t>
+  </si>
+  <si>
+    <t>Identificadores</t>
+  </si>
+  <si>
+    <t>Comentarios</t>
+  </si>
+  <si>
+    <t>Palabras reservadas</t>
+  </si>
+  <si>
+    <t>C-Enteras</t>
+  </si>
+  <si>
+    <t>C-Texto</t>
+  </si>
+  <si>
+    <t>C-Decimal</t>
+  </si>
+  <si>
+    <t>C-Carácter</t>
+  </si>
+  <si>
+    <t>C-Exponencial</t>
+  </si>
+  <si>
+    <t>Aritmeticos</t>
+  </si>
+  <si>
+    <t>Monogamo</t>
+  </si>
+  <si>
+    <t>Logico</t>
+  </si>
+  <si>
+    <t>Relacionales</t>
+  </si>
+  <si>
+    <t>Bit</t>
+  </si>
+  <si>
+    <t>Puntuación</t>
+  </si>
+  <si>
+    <t>Agrupación</t>
+  </si>
+  <si>
+    <t>Asignación</t>
+  </si>
+  <si>
+    <t>Sintaxis</t>
+  </si>
+  <si>
+    <t>Funciones</t>
+  </si>
+  <si>
     <t>7</t>
   </si>
   <si>
-    <t>-24</t>
-  </si>
-  <si>
-    <t>+</t>
-  </si>
-  <si>
-    <t>//Error</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>-25</t>
-  </si>
-  <si>
-    <t>*</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>-28</t>
-  </si>
-  <si>
-    <t>%</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>-20</t>
-  </si>
-  <si>
-    <t>"g"</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>Token</t>
-  </si>
-  <si>
-    <t>Descripción</t>
-  </si>
-  <si>
-    <t>Tipo</t>
-  </si>
-  <si>
-    <t>1010</t>
-  </si>
-  <si>
-    <t>Debe de ser un BOOL lo que este entre ()</t>
-  </si>
-  <si>
-    <t>Cont_entero</t>
-  </si>
-  <si>
-    <t>Semantica Etapa 2</t>
-  </si>
-  <si>
-    <t>1011</t>
-  </si>
-  <si>
-    <t>1012</t>
-  </si>
-  <si>
-    <t>801</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No se puede desarrollar una multiplicacion de </t>
-  </si>
-  <si>
-    <t>"g"*"g"</t>
-  </si>
-  <si>
-    <t>Semantica:Etapa 1</t>
-  </si>
-  <si>
-    <t>Erroes</t>
-  </si>
-  <si>
-    <t>Identificadores</t>
-  </si>
-  <si>
-    <t>Comentarios</t>
-  </si>
-  <si>
-    <t>Palabras reservadas</t>
-  </si>
-  <si>
-    <t>C-Enteras</t>
-  </si>
-  <si>
-    <t>C-Texto</t>
-  </si>
-  <si>
-    <t>C-Decimal</t>
-  </si>
-  <si>
-    <t>C-Carácter</t>
-  </si>
-  <si>
-    <t>C-Exponencial</t>
-  </si>
-  <si>
-    <t>Aritmeticos</t>
-  </si>
-  <si>
-    <t>Monogamo</t>
-  </si>
-  <si>
-    <t>Logico</t>
-  </si>
-  <si>
-    <t>Relacionales</t>
-  </si>
-  <si>
-    <t>Bit</t>
-  </si>
-  <si>
-    <t>Puntuación</t>
-  </si>
-  <si>
-    <t>Agrupación</t>
-  </si>
-  <si>
-    <t>Asignación</t>
-  </si>
-  <si>
-    <t>Sintaxis</t>
-  </si>
-  <si>
-    <t>Funciones</t>
+    <t>15</t>
   </si>
   <si>
     <t>0</t>
   </si>
   <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>14</t>
-  </si>
-  <si>
     <t>42</t>
   </si>
   <si>
@@ -304,9 +328,6 @@
     <t>String (CHAR[])</t>
   </si>
   <si>
-    <t>INT</t>
-  </si>
-  <si>
     <t>REAL</t>
   </si>
   <si>
@@ -367,6 +388,9 @@
     <t>Errores</t>
   </si>
   <si>
+    <t xml:space="preserve">a -&gt; </t>
+  </si>
+  <si>
     <t>Regla</t>
   </si>
   <si>
@@ -377,6 +401,9 @@
   </si>
   <si>
     <t>Edo</t>
+  </si>
+  <si>
+    <t>id</t>
   </si>
   <si>
     <t>Acept</t>
@@ -430,7 +457,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C98"/>
+  <dimension ref="A1:C106"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -504,10 +531,10 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="C7" t="s">
         <v>14</v>
@@ -515,10 +542,10 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B8" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="C8" t="s">
         <v>14</v>
@@ -526,10 +553,10 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B9" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C9" t="s">
         <v>14</v>
@@ -537,68 +564,68 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="B11" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="C11" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="B12" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C12" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="B13" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="C13" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="B14" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C14" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="C15" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16">
@@ -606,65 +633,65 @@
         <v>24</v>
       </c>
       <c r="B16" t="s">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="C16" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="B17" t="s">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="C17" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="B18" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="C18" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>18</v>
+      </c>
+      <c r="C19" t="s">
         <v>27</v>
-      </c>
-      <c r="B19" t="s">
-        <v>28</v>
-      </c>
-      <c r="C19" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="C20" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="B21" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="C21" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="22">
@@ -675,29 +702,29 @@
         <v>11</v>
       </c>
       <c r="C22" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="B23" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="C23" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="B24" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C24" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
     </row>
     <row r="25">
@@ -705,307 +732,307 @@
         <v>15</v>
       </c>
       <c r="B25" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="C25" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>32</v>
+        <v>5</v>
       </c>
       <c r="C26" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>10</v>
+        <v>37</v>
       </c>
       <c r="B27" t="s">
-        <v>11</v>
+        <v>38</v>
       </c>
       <c r="C27" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="B28" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C28" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="B29" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="C29" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="B30" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="C30" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="C31" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="B32" t="s">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="C32" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="B33" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="C33" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="B34" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="C34" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B35" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C35" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="B36" t="s">
+        <v>31</v>
+      </c>
+      <c r="C36" t="s">
         <v>36</v>
-      </c>
-      <c r="C36" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="B37" t="s">
-        <v>11</v>
+        <v>42</v>
       </c>
       <c r="C37" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="B38" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="C38" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="B39" t="s">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="C39" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="B40" t="s">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="C40" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="B41" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C41" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="B42" t="s">
-        <v>41</v>
+        <v>11</v>
       </c>
       <c r="C42" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="B43" t="s">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="C43" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>8</v>
+        <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>9</v>
+        <v>44</v>
       </c>
       <c r="C44" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
+        <v>19</v>
+      </c>
+      <c r="B45" t="s">
         <v>20</v>
       </c>
-      <c r="B45" t="s">
-        <v>21</v>
-      </c>
       <c r="C45" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="B46" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="C46" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>12</v>
+        <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>13</v>
+        <v>47</v>
       </c>
       <c r="C47" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="B48" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="C48" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="B49" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="C49" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="C50" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="B51" t="s">
         <v>14</v>
       </c>
       <c r="C51" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="B52" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="C52" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
     <row r="53">
@@ -1016,40 +1043,40 @@
         <v>11</v>
       </c>
       <c r="C53" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="B54" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="C54" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="B55" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C55" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="B56" t="s">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="C56" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
     </row>
     <row r="57">
@@ -1057,65 +1084,65 @@
         <v>24</v>
       </c>
       <c r="B57" t="s">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="C57" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>6</v>
+        <v>51</v>
       </c>
       <c r="B58" t="s">
-        <v>7</v>
+        <v>52</v>
       </c>
       <c r="C58" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="B59" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="C59" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>47</v>
+        <v>17</v>
       </c>
       <c r="B60" t="s">
-        <v>48</v>
+        <v>18</v>
       </c>
       <c r="C60" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B61" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="C61" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="B62" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="C62" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
     </row>
     <row r="63">
@@ -1126,29 +1153,29 @@
         <v>11</v>
       </c>
       <c r="C63" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="B64" t="s">
-        <v>19</v>
+        <v>53</v>
       </c>
       <c r="C64" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="B65" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C65" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
     </row>
     <row r="66">
@@ -1156,307 +1183,307 @@
         <v>15</v>
       </c>
       <c r="B66" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="C66" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="B67" t="s">
-        <v>32</v>
+        <v>5</v>
       </c>
       <c r="C67" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>10</v>
+        <v>55</v>
       </c>
       <c r="B68" t="s">
-        <v>11</v>
+        <v>56</v>
       </c>
       <c r="C68" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="B69" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C69" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="B70" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="C70" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="B71" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="C71" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="B72" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="C72" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="B73" t="s">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="C73" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="B74" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="C74" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="B75" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="C75" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B76" t="s">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="C76" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="B77" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="C77" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="B78" t="s">
-        <v>11</v>
+        <v>42</v>
       </c>
       <c r="C78" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="B79" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="C79" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="B80" t="s">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="C80" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="B81" t="s">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="C81" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="B82" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C82" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="B83" t="s">
-        <v>51</v>
+        <v>11</v>
       </c>
       <c r="C83" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="B84" t="s">
-        <v>14</v>
+        <v>53</v>
       </c>
       <c r="C84" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>8</v>
+        <v>43</v>
       </c>
       <c r="B85" t="s">
-        <v>9</v>
+        <v>44</v>
       </c>
       <c r="C85" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s">
+        <v>19</v>
+      </c>
+      <c r="B86" t="s">
         <v>20</v>
       </c>
-      <c r="B86" t="s">
-        <v>21</v>
-      </c>
       <c r="C86" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="B87" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="C87" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>12</v>
+        <v>46</v>
       </c>
       <c r="B88" t="s">
-        <v>13</v>
+        <v>47</v>
       </c>
       <c r="C88" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="B89" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="C89" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>53</v>
+        <v>24</v>
       </c>
       <c r="B90" t="s">
-        <v>54</v>
+        <v>14</v>
       </c>
       <c r="C90" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="B91" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="C91" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>53</v>
+        <v>24</v>
       </c>
       <c r="B92" t="s">
-        <v>54</v>
+        <v>14</v>
       </c>
       <c r="C92" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="B93" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="C93" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
     </row>
     <row r="94">
@@ -1467,51 +1494,139 @@
         <v>11</v>
       </c>
       <c r="C94" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="B95" t="s">
-        <v>19</v>
+        <v>53</v>
       </c>
       <c r="C95" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="B96" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C96" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="B97" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="C97" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s">
+        <v>61</v>
+      </c>
+      <c r="B98" t="s">
+        <v>62</v>
+      </c>
+      <c r="C98" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="s">
+        <v>55</v>
+      </c>
+      <c r="B99" t="s">
+        <v>56</v>
+      </c>
+      <c r="C99" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="s">
+        <v>61</v>
+      </c>
+      <c r="B100" t="s">
+        <v>62</v>
+      </c>
+      <c r="C100" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="s">
+        <v>17</v>
+      </c>
+      <c r="B101" t="s">
         <v>18</v>
       </c>
-      <c r="B98" t="s">
+      <c r="C101" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="s">
         <v>19</v>
       </c>
-      <c r="C98" t="s">
-        <v>55</v>
+      <c r="B102" t="s">
+        <v>20</v>
+      </c>
+      <c r="C102" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="s">
+        <v>30</v>
+      </c>
+      <c r="B103" t="s">
+        <v>31</v>
+      </c>
+      <c r="C103" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="s">
+        <v>10</v>
+      </c>
+      <c r="B104" t="s">
+        <v>11</v>
+      </c>
+      <c r="C104" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="s">
+        <v>32</v>
+      </c>
+      <c r="B105" t="s">
+        <v>33</v>
+      </c>
+      <c r="C105" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="s">
+        <v>30</v>
+      </c>
+      <c r="B106" t="s">
+        <v>31</v>
+      </c>
+      <c r="C106" t="s">
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -1529,16 +1644,16 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="B1" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="E1" t="s">
         <v>2</v>
@@ -1546,70 +1661,70 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="B2" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="C2" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="D2" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="E2" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="B3" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="C3" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="D3" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="E3" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="B4" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="C4" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="D4" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="E4" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="B5" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="C5" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="D5" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="E5" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -1627,61 +1742,61 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="B1" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="C1" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="D1" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="E1" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="F1" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="G1" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="H1" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="I1" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="J1" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="K1" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="L1" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="M1" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="N1" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="O1" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="P1" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="Q1" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="R1" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="S1" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
     </row>
     <row r="2">
@@ -1689,55 +1804,55 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>88</v>
+        <v>14</v>
       </c>
       <c r="C2" t="s">
-        <v>42</v>
+        <v>96</v>
       </c>
       <c r="D2" t="s">
-        <v>89</v>
+        <v>36</v>
       </c>
       <c r="E2" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="F2" t="s">
         <v>14</v>
       </c>
       <c r="G2" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="H2" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="I2" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="J2" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="K2" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="L2" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="M2" t="s">
         <v>14</v>
       </c>
       <c r="N2" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="O2" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="P2" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="Q2" t="s">
-        <v>88</v>
+        <v>5</v>
       </c>
       <c r="R2" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="S2" t="s">
         <v>5</v>
@@ -1758,40 +1873,40 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="B1" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="C1" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="D1" t="s">
-        <v>95</v>
+        <v>4</v>
       </c>
       <c r="E1" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="F1" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="G1" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="H1" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="I1" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="J1" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="K1" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="L1" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
     </row>
     <row r="2">
@@ -1805,7 +1920,7 @@
         <v>0.0</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="E2" t="n">
         <v>0.0</v>
@@ -1829,12 +1944,12 @@
         <v>0.0</v>
       </c>
       <c r="L2" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="B3" t="n">
         <v>0.0</v>
@@ -1843,7 +1958,7 @@
         <v>0.0</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="E3" t="n">
         <v>0.0</v>
@@ -1867,7 +1982,7 @@
         <v>0.0</v>
       </c>
       <c r="L3" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
   </sheetData>
@@ -1877,7 +1992,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:M1"/>
+  <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1888,40 +2003,81 @@
         <v>2</v>
       </c>
       <c r="B1" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="C1" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="D1" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="E1" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="F1" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="G1" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="H1" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="I1" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="J1" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="K1" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="L1" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="M1" t="s">
-        <v>115</v>
+        <v>122</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L2" t="s">
+        <v>123</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0.0</v>
       </c>
     </row>
   </sheetData>
@@ -1931,7 +2087,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1939,39 +2095,39 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="B1" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="C1" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="D1" t="s">
         <v>2</v>
       </c>
       <c r="E1" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="F1" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1010.0</v>
+        <v>1020.0</v>
       </c>
       <c r="B2" t="s">
-        <v>61</v>
+        <v>128</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D2" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="E2" t="s">
-        <v>120</v>
+        <v>129</v>
       </c>
       <c r="F2" t="n">
         <v>0.0</v>
@@ -1979,19 +2135,19 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1011.0</v>
+        <v>1010.0</v>
       </c>
       <c r="B3" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="C3" t="s">
         <v>5</v>
       </c>
       <c r="D3" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="E3" t="s">
-        <v>120</v>
+        <v>129</v>
       </c>
       <c r="F3" t="n">
         <v>0.0</v>
@@ -1999,19 +2155,19 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1012.0</v>
+        <v>1011.0</v>
       </c>
       <c r="B4" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="C4" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="D4" t="n">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="E4" t="s">
-        <v>120</v>
+        <v>129</v>
       </c>
       <c r="F4" t="n">
         <v>0.0</v>
@@ -2019,19 +2175,19 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1010.0</v>
+        <v>1012.0</v>
       </c>
       <c r="B5" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="C5" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="D5" t="n">
-        <v>7.0</v>
+        <v>6.0</v>
       </c>
       <c r="E5" t="s">
-        <v>121</v>
+        <v>129</v>
       </c>
       <c r="F5" t="n">
         <v>0.0</v>
@@ -2039,19 +2195,19 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1011.0</v>
+        <v>1010.0</v>
       </c>
       <c r="B6" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
       </c>
       <c r="D6" t="n">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="E6" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="F6" t="n">
         <v>0.0</v>
@@ -2059,19 +2215,19 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>1012.0</v>
+        <v>1011.0</v>
       </c>
       <c r="B7" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="C7" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="D7" t="n">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="E7" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="F7" t="n">
         <v>0.0</v>
@@ -2079,21 +2235,41 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>1010.0</v>
+        <v>1012.0</v>
       </c>
       <c r="B8" t="s">
-        <v>122</v>
+        <v>69</v>
       </c>
       <c r="C8" t="s">
-        <v>54</v>
+        <v>14</v>
       </c>
       <c r="D8" t="n">
         <v>11.0</v>
       </c>
       <c r="E8" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="F8" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>1010.0</v>
+      </c>
+      <c r="B9" t="s">
+        <v>131</v>
+      </c>
+      <c r="C9" t="s">
+        <v>62</v>
+      </c>
+      <c r="D9" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="E9" t="s">
+        <v>129</v>
+      </c>
+      <c r="F9" t="n">
         <v>0.0</v>
       </c>
     </row>

--- a/src/Excel/Yañez_Gonzalez_Christian_Emmanuel.xlsx
+++ b/src/Excel/Yañez_Gonzalez_Christian_Emmanuel.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="111">
   <si>
     <t>Estado</t>
   </si>
@@ -37,19 +37,109 @@
     <t>1</t>
   </si>
   <si>
-    <t>-51</t>
-  </si>
-  <si>
-    <t>[</t>
+    <t>-68</t>
+  </si>
+  <si>
+    <t>:</t>
+  </si>
+  <si>
+    <t>-1</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>-46</t>
+  </si>
+  <si>
+    <t>;</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>func</t>
+  </si>
+  <si>
+    <t>-49</t>
+  </si>
+  <si>
+    <t>(</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>-50</t>
+  </si>
+  <si>
+    <t>)</t>
+  </si>
+  <si>
+    <t>-61</t>
+  </si>
+  <si>
+    <t>main</t>
+  </si>
+  <si>
+    <t>-53</t>
+  </si>
+  <si>
+    <t>{</t>
+  </si>
+  <si>
+    <t>-8</t>
+  </si>
+  <si>
+    <t>for</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>-59</t>
+  </si>
+  <si>
+    <t>/=</t>
   </si>
   <si>
     <t>-19</t>
   </si>
   <si>
-    <t>-52</t>
-  </si>
-  <si>
-    <t>]</t>
+    <t>-54</t>
+  </si>
+  <si>
+    <t>}</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>-2</t>
+  </si>
+  <si>
+    <t>//ERROR</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>-55</t>
+  </si>
+  <si>
+    <t>=</t>
+  </si>
+  <si>
+    <t>//OK</t>
+  </si>
+  <si>
+    <t>8</t>
   </si>
   <si>
     <t>-47</t>
@@ -58,202 +148,109 @@
     <t>,</t>
   </si>
   <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>-68</t>
-  </si>
-  <si>
-    <t>:</t>
-  </si>
-  <si>
-    <t>-1</t>
-  </si>
-  <si>
-    <t>a</t>
-  </si>
-  <si>
-    <t>b</t>
-  </si>
-  <si>
-    <t>c</t>
-  </si>
-  <si>
-    <t>-46</t>
-  </si>
-  <si>
-    <t>;</t>
-  </si>
-  <si>
-    <t>-61</t>
-  </si>
-  <si>
-    <t>main</t>
-  </si>
-  <si>
-    <t>-49</t>
-  </si>
-  <si>
-    <t>(</t>
-  </si>
-  <si>
-    <t>-50</t>
-  </si>
-  <si>
-    <t>)</t>
-  </si>
-  <si>
-    <t>-53</t>
-  </si>
-  <si>
-    <t>{</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>7</t>
+    <t>-56</t>
+  </si>
+  <si>
+    <t>+=</t>
+  </si>
+  <si>
+    <t>//Ok,Error,Ok</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>//Ok</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>Token</t>
+  </si>
+  <si>
+    <t>Descripción</t>
+  </si>
+  <si>
+    <t>Tipo</t>
+  </si>
+  <si>
+    <t>1022</t>
+  </si>
+  <si>
+    <t>Debe de ser una asignacion</t>
+  </si>
+  <si>
+    <t>Semantica Etapa 2</t>
+  </si>
+  <si>
+    <t>1020</t>
+  </si>
+  <si>
+    <t>Erroes</t>
+  </si>
+  <si>
+    <t>Identificadores</t>
+  </si>
+  <si>
+    <t>Comentarios</t>
+  </si>
+  <si>
+    <t>Palabras reservadas</t>
+  </si>
+  <si>
+    <t>C-Enteras</t>
+  </si>
+  <si>
+    <t>C-Texto</t>
+  </si>
+  <si>
+    <t>C-Decimal</t>
+  </si>
+  <si>
+    <t>C-Carácter</t>
+  </si>
+  <si>
+    <t>C-Exponencial</t>
+  </si>
+  <si>
+    <t>Aritmeticos</t>
+  </si>
+  <si>
+    <t>Monogamo</t>
+  </si>
+  <si>
+    <t>Logico</t>
+  </si>
+  <si>
+    <t>Relacionales</t>
+  </si>
+  <si>
+    <t>Bit</t>
+  </si>
+  <si>
+    <t>Puntuación</t>
+  </si>
+  <si>
+    <t>Agrupación</t>
+  </si>
+  <si>
+    <t>Asignación</t>
+  </si>
+  <si>
+    <t>Sintaxis</t>
+  </si>
+  <si>
+    <t>Funciones</t>
   </si>
   <si>
     <t>0</t>
   </si>
   <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>-25</t>
-  </si>
-  <si>
-    <t>*</t>
-  </si>
-  <si>
-    <t>-20</t>
-  </si>
-  <si>
-    <t>"g"</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>-24</t>
-  </si>
-  <si>
-    <t>+</t>
-  </si>
-  <si>
-    <t>-54</t>
-  </si>
-  <si>
-    <t>}</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>Token</t>
-  </si>
-  <si>
-    <t>Descripción</t>
-  </si>
-  <si>
-    <t>Tipo</t>
-  </si>
-  <si>
-    <t>1050</t>
-  </si>
-  <si>
-    <t>Fuera del rango</t>
-  </si>
-  <si>
-    <t>Semantica 2</t>
-  </si>
-  <si>
-    <t>801</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No se puede desarrollar una multiplicacion de </t>
-  </si>
-  <si>
-    <t>1*"g"</t>
-  </si>
-  <si>
-    <t>Semantica:Etapa 1</t>
-  </si>
-  <si>
-    <t>Erroes</t>
-  </si>
-  <si>
-    <t>Identificadores</t>
-  </si>
-  <si>
-    <t>Comentarios</t>
-  </si>
-  <si>
-    <t>Palabras reservadas</t>
-  </si>
-  <si>
-    <t>C-Enteras</t>
-  </si>
-  <si>
-    <t>C-Texto</t>
-  </si>
-  <si>
-    <t>C-Decimal</t>
-  </si>
-  <si>
-    <t>C-Carácter</t>
-  </si>
-  <si>
-    <t>C-Exponencial</t>
-  </si>
-  <si>
-    <t>Aritmeticos</t>
-  </si>
-  <si>
-    <t>Monogamo</t>
-  </si>
-  <si>
-    <t>Logico</t>
-  </si>
-  <si>
-    <t>Relacionales</t>
-  </si>
-  <si>
-    <t>Bit</t>
-  </si>
-  <si>
-    <t>Puntuación</t>
-  </si>
-  <si>
-    <t>Agrupación</t>
-  </si>
-  <si>
-    <t>Asignación</t>
-  </si>
-  <si>
-    <t>Sintaxis</t>
-  </si>
-  <si>
-    <t>Funciones</t>
-  </si>
-  <si>
-    <t>22</t>
+    <t>17</t>
+  </si>
+  <si>
+    <t>20</t>
   </si>
   <si>
     <t>Ambito</t>
@@ -325,6 +322,12 @@
     <t>Errores</t>
   </si>
   <si>
+    <t>a -&gt;  TE1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a -&gt; </t>
+  </si>
+  <si>
     <t>Regla</t>
   </si>
   <si>
@@ -343,10 +346,10 @@
     <t>Acept</t>
   </si>
   <si>
-    <t>Const_entero</t>
-  </si>
-  <si>
     <t>ERROR</t>
+  </si>
+  <si>
+    <t/>
   </si>
 </sst>
 </file>
@@ -391,7 +394,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C48"/>
+  <dimension ref="A1:C70"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -435,7 +438,7 @@
         <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
         <v>5</v>
@@ -443,10 +446,10 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C5" t="s">
         <v>5</v>
@@ -454,200 +457,200 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="B6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" t="s">
         <v>12</v>
-      </c>
-      <c r="C6" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C7" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B8" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C8" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="B9" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C9" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" t="s">
         <v>12</v>
-      </c>
-      <c r="C10" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="B11" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="C11" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="B12" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="C12" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C13" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B14" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C14" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B15" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C15" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="B16" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="C16" t="s">
-        <v>5</v>
+        <v>25</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B17" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C17" t="s">
-        <v>5</v>
+        <v>25</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B18" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C18" t="s">
-        <v>5</v>
+        <v>25</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="B19" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="C19" t="s">
-        <v>5</v>
+        <v>25</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="B20" t="s">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="C20" t="s">
-        <v>5</v>
+        <v>25</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="B21" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="C21" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
+        <v>10</v>
+      </c>
+      <c r="B22" t="s">
+        <v>11</v>
+      </c>
+      <c r="C22" t="s">
         <v>25</v>
-      </c>
-      <c r="B22" t="s">
-        <v>26</v>
-      </c>
-      <c r="C22" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="B23" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="C23" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
     </row>
     <row r="24">
@@ -658,59 +661,59 @@
         <v>30</v>
       </c>
       <c r="C24" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="B25" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="C25" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="B26" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="C26" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B27" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="C27" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="B28" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="C28" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="B29" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="C29" t="s">
         <v>32</v>
@@ -718,10 +721,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="B30" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C30" t="s">
         <v>33</v>
@@ -729,13 +732,13 @@
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="B31" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="C31" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="32">
@@ -743,185 +746,427 @@
         <v>8</v>
       </c>
       <c r="B32" t="s">
-        <v>35</v>
+        <v>9</v>
       </c>
       <c r="C32" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B33" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C33" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B34" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C34" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="B35" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C35" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B36" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C36" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="B37" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="C37" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="B38" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="C38" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>38</v>
+        <v>14</v>
       </c>
       <c r="B39" t="s">
-        <v>39</v>
+        <v>15</v>
       </c>
       <c r="C39" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>40</v>
+        <v>8</v>
       </c>
       <c r="B40" t="s">
-        <v>41</v>
+        <v>9</v>
       </c>
       <c r="C40" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>9</v>
+        <v>37</v>
       </c>
       <c r="B41" t="s">
-        <v>10</v>
+        <v>38</v>
       </c>
       <c r="C41" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="B42" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C42" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B43" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C43" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B44" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C44" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>44</v>
+        <v>17</v>
       </c>
       <c r="B45" t="s">
-        <v>45</v>
+        <v>18</v>
       </c>
       <c r="C45" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B46" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C46" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="B47" t="s">
-        <v>10</v>
+        <v>39</v>
       </c>
       <c r="C47" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
+        <v>23</v>
+      </c>
+      <c r="B48" t="s">
+        <v>24</v>
+      </c>
+      <c r="C48" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s">
+        <v>14</v>
+      </c>
+      <c r="B49" t="s">
+        <v>15</v>
+      </c>
+      <c r="C49" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s">
+        <v>8</v>
+      </c>
+      <c r="B50" t="s">
+        <v>9</v>
+      </c>
+      <c r="C50" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s">
+        <v>37</v>
+      </c>
+      <c r="B51" t="s">
+        <v>38</v>
+      </c>
+      <c r="C51" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s">
+        <v>28</v>
+      </c>
+      <c r="B52" t="s">
+        <v>5</v>
+      </c>
+      <c r="C52" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s">
+        <v>41</v>
+      </c>
+      <c r="B53" t="s">
+        <v>42</v>
+      </c>
+      <c r="C53" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s">
+        <v>8</v>
+      </c>
+      <c r="B54" t="s">
+        <v>9</v>
+      </c>
+      <c r="C54" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s">
+        <v>41</v>
+      </c>
+      <c r="B55" t="s">
+        <v>42</v>
+      </c>
+      <c r="C55" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s">
+        <v>8</v>
+      </c>
+      <c r="B56" t="s">
+        <v>9</v>
+      </c>
+      <c r="C56" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s">
+        <v>43</v>
+      </c>
+      <c r="B57" t="s">
+        <v>44</v>
+      </c>
+      <c r="C57" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="s">
+        <v>28</v>
+      </c>
+      <c r="B58" t="s">
+        <v>5</v>
+      </c>
+      <c r="C58" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="s">
+        <v>10</v>
+      </c>
+      <c r="B59" t="s">
+        <v>11</v>
+      </c>
+      <c r="C59" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="s">
+        <v>10</v>
+      </c>
+      <c r="B60" t="s">
+        <v>11</v>
+      </c>
+      <c r="C60" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="s">
+        <v>17</v>
+      </c>
+      <c r="B61" t="s">
+        <v>18</v>
+      </c>
+      <c r="C61" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="s">
+        <v>10</v>
+      </c>
+      <c r="B62" t="s">
+        <v>11</v>
+      </c>
+      <c r="C62" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="s">
+        <v>34</v>
+      </c>
+      <c r="B63" t="s">
+        <v>45</v>
+      </c>
+      <c r="C63" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="s">
+        <v>23</v>
+      </c>
+      <c r="B64" t="s">
+        <v>24</v>
+      </c>
+      <c r="C64" t="s">
         <v>46</v>
       </c>
-      <c r="B48" t="s">
+    </row>
+    <row r="65">
+      <c r="A65" t="s">
+        <v>14</v>
+      </c>
+      <c r="B65" t="s">
+        <v>15</v>
+      </c>
+      <c r="C65" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="s">
+        <v>10</v>
+      </c>
+      <c r="B66" t="s">
+        <v>11</v>
+      </c>
+      <c r="C66" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="s">
+        <v>10</v>
+      </c>
+      <c r="B67" t="s">
+        <v>11</v>
+      </c>
+      <c r="C67" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="s">
+        <v>17</v>
+      </c>
+      <c r="B68" t="s">
+        <v>18</v>
+      </c>
+      <c r="C68" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="s">
+        <v>34</v>
+      </c>
+      <c r="B69" t="s">
         <v>47</v>
       </c>
-      <c r="C48" t="s">
+      <c r="C69" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="s">
+        <v>29</v>
+      </c>
+      <c r="B70" t="s">
+        <v>30</v>
+      </c>
+      <c r="C70" t="s">
         <v>48</v>
       </c>
     </row>
@@ -932,7 +1177,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -963,47 +1208,30 @@
         <v>53</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
         <v>54</v>
       </c>
       <c r="E2" t="s">
-        <v>14</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B3" t="s">
         <v>53</v>
       </c>
       <c r="C3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
         <v>54</v>
       </c>
       <c r="E3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s">
-        <v>55</v>
-      </c>
-      <c r="B4" t="s">
-        <v>56</v>
-      </c>
-      <c r="C4" t="s">
-        <v>57</v>
-      </c>
-      <c r="D4" t="s">
-        <v>58</v>
-      </c>
-      <c r="E4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -1021,120 +1249,120 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D1" t="s">
         <v>59</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E1" t="s">
         <v>60</v>
       </c>
-      <c r="C1" t="s">
+      <c r="F1" t="s">
         <v>61</v>
       </c>
-      <c r="D1" t="s">
+      <c r="G1" t="s">
         <v>62</v>
       </c>
-      <c r="E1" t="s">
+      <c r="H1" t="s">
         <v>63</v>
       </c>
-      <c r="F1" t="s">
+      <c r="I1" t="s">
         <v>64</v>
       </c>
-      <c r="G1" t="s">
+      <c r="J1" t="s">
         <v>65</v>
       </c>
-      <c r="H1" t="s">
+      <c r="K1" t="s">
         <v>66</v>
       </c>
-      <c r="I1" t="s">
+      <c r="L1" t="s">
         <v>67</v>
       </c>
-      <c r="J1" t="s">
+      <c r="M1" t="s">
         <v>68</v>
       </c>
-      <c r="K1" t="s">
+      <c r="N1" t="s">
         <v>69</v>
       </c>
-      <c r="L1" t="s">
+      <c r="O1" t="s">
         <v>70</v>
       </c>
-      <c r="M1" t="s">
+      <c r="P1" t="s">
         <v>71</v>
       </c>
-      <c r="N1" t="s">
+      <c r="Q1" t="s">
         <v>72</v>
       </c>
-      <c r="O1" t="s">
+      <c r="R1" t="s">
         <v>73</v>
       </c>
-      <c r="P1" t="s">
+      <c r="S1" t="s">
         <v>74</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>75</v>
-      </c>
-      <c r="R1" t="s">
-        <v>76</v>
-      </c>
-      <c r="S1" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>14</v>
+        <v>75</v>
       </c>
       <c r="B2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D2" t="s">
         <v>32</v>
       </c>
-      <c r="C2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D2" t="s">
-        <v>35</v>
-      </c>
       <c r="E2" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="F2" t="s">
-        <v>5</v>
+        <v>75</v>
       </c>
       <c r="G2" t="s">
-        <v>35</v>
+        <v>75</v>
       </c>
       <c r="H2" t="s">
-        <v>35</v>
+        <v>75</v>
       </c>
       <c r="I2" t="s">
-        <v>35</v>
+        <v>75</v>
       </c>
       <c r="J2" t="s">
-        <v>13</v>
+        <v>75</v>
       </c>
       <c r="K2" t="s">
-        <v>35</v>
+        <v>75</v>
       </c>
       <c r="L2" t="s">
-        <v>35</v>
+        <v>75</v>
       </c>
       <c r="M2" t="s">
-        <v>35</v>
+        <v>75</v>
       </c>
       <c r="N2" t="s">
-        <v>35</v>
+        <v>75</v>
       </c>
       <c r="O2" t="s">
-        <v>32</v>
+        <v>76</v>
       </c>
       <c r="P2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="Q2" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="R2" t="s">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="S2" t="s">
-        <v>35</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -1144,7 +1372,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:L3"/>
+  <dimension ref="A1:L4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1152,40 +1380,40 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B1" t="s">
         <v>79</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>80</v>
-      </c>
-      <c r="C1" t="s">
-        <v>81</v>
       </c>
       <c r="D1" t="s">
         <v>4</v>
       </c>
       <c r="E1" t="s">
+        <v>81</v>
+      </c>
+      <c r="F1" t="s">
         <v>82</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>83</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>84</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>85</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>86</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>87</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>88</v>
-      </c>
-      <c r="L1" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="2">
@@ -1199,68 +1427,106 @@
         <v>0.0</v>
       </c>
       <c r="D2" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="B3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>89</v>
+      </c>
+      <c r="B4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D4" t="n">
         <v>3.0</v>
       </c>
-      <c r="E2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s">
-        <v>90</v>
-      </c>
-      <c r="B3" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D3" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="L3" t="n">
+      <c r="E4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L4" t="n">
         <v>3.0</v>
       </c>
     </row>
@@ -1271,7 +1537,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:M1"/>
+  <dimension ref="A1:M5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1282,40 +1548,204 @@
         <v>2</v>
       </c>
       <c r="B1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C1" t="s">
         <v>91</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>92</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>93</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>94</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>95</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
+        <v>93</v>
+      </c>
+      <c r="I1" t="s">
         <v>96</v>
       </c>
-      <c r="H1" t="s">
-        <v>94</v>
-      </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>97</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>98</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>99</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>100</v>
       </c>
-      <c r="M1" t="s">
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L2" t="s">
         <v>101</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="B3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L3" t="s">
+        <v>102</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="B4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L4" t="s">
+        <v>102</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="B5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L5" t="s">
+        <v>101</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0.0</v>
       </c>
     </row>
   </sheetData>
@@ -1325,7 +1755,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F19"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1333,39 +1763,39 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D1" t="s">
         <v>2</v>
       </c>
       <c r="E1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1030.0</v>
+        <v>1022.0</v>
       </c>
       <c r="B2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D2" t="n">
         <v>3.0</v>
       </c>
       <c r="E2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F2" t="n">
         <v>0.0</v>
@@ -1373,19 +1803,19 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1040.0</v>
+        <v>1080.0</v>
       </c>
       <c r="B3" t="s">
-        <v>108</v>
+        <v>38</v>
       </c>
       <c r="C3" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D3" t="n">
         <v>3.0</v>
       </c>
       <c r="E3" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F3" t="n">
         <v>0.0</v>
@@ -1393,16 +1823,16 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1050.0</v>
+        <v>1080.0</v>
       </c>
       <c r="B4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C4" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D4" t="n">
-        <v>3.0</v>
+        <v>6.0</v>
       </c>
       <c r="E4" t="s">
         <v>109</v>
@@ -1413,19 +1843,19 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1030.0</v>
+        <v>1020.0</v>
       </c>
       <c r="B5" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C5" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D5" t="n">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c r="E5" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F5" t="n">
         <v>0.0</v>
@@ -1433,19 +1863,19 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1040.0</v>
+        <v>1080.0</v>
       </c>
       <c r="B6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="E6" t="s">
         <v>108</v>
-      </c>
-      <c r="C6" t="s">
-        <v>35</v>
-      </c>
-      <c r="D6" t="n">
-        <v>6.0</v>
-      </c>
-      <c r="E6" t="s">
-        <v>107</v>
       </c>
       <c r="F6" t="n">
         <v>0.0</v>
@@ -1453,19 +1883,19 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>1050.0</v>
+        <v>1020.0</v>
       </c>
       <c r="B7" t="s">
+        <v>107</v>
+      </c>
+      <c r="C7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="E7" t="s">
         <v>108</v>
-      </c>
-      <c r="C7" t="s">
-        <v>35</v>
-      </c>
-      <c r="D7" t="n">
-        <v>6.0</v>
-      </c>
-      <c r="E7" t="s">
-        <v>107</v>
       </c>
       <c r="F7" t="n">
         <v>0.0</v>
@@ -1473,19 +1903,19 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>1030.0</v>
+        <v>1080.0</v>
       </c>
       <c r="B8" t="s">
-        <v>106</v>
+        <v>38</v>
       </c>
       <c r="C8" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D8" t="n">
-        <v>6.0</v>
+        <v>8.0</v>
       </c>
       <c r="E8" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F8" t="n">
         <v>0.0</v>
@@ -1493,19 +1923,19 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>1040.0</v>
+        <v>1080.0</v>
       </c>
       <c r="B9" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C9" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D9" t="n">
-        <v>6.0</v>
+        <v>8.0</v>
       </c>
       <c r="E9" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="F9" t="n">
         <v>0.0</v>
@@ -1513,19 +1943,19 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>1050.0</v>
+        <v>1021.0</v>
       </c>
       <c r="B10" t="s">
+        <v>107</v>
+      </c>
+      <c r="C10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="E10" t="s">
         <v>108</v>
-      </c>
-      <c r="C10" t="s">
-        <v>13</v>
-      </c>
-      <c r="D10" t="n">
-        <v>6.0</v>
-      </c>
-      <c r="E10" t="s">
-        <v>109</v>
       </c>
       <c r="F10" t="n">
         <v>0.0</v>
@@ -1533,19 +1963,19 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>1030.0</v>
+        <v>1080.0</v>
       </c>
       <c r="B11" t="s">
-        <v>106</v>
+        <v>38</v>
       </c>
       <c r="C11" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D11" t="n">
-        <v>6.0</v>
+        <v>8.0</v>
       </c>
       <c r="E11" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F11" t="n">
         <v>0.0</v>
@@ -1553,161 +1983,21 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>1040.0</v>
+        <v>1083.0</v>
       </c>
       <c r="B12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" t="s">
+        <v>110</v>
+      </c>
+      <c r="D12" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="E12" t="s">
         <v>108</v>
       </c>
-      <c r="C12" t="s">
-        <v>5</v>
-      </c>
-      <c r="D12" t="n">
-        <v>6.0</v>
-      </c>
-      <c r="E12" t="s">
-        <v>107</v>
-      </c>
       <c r="F12" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
-        <v>1050.0</v>
-      </c>
-      <c r="B13" t="s">
-        <v>106</v>
-      </c>
-      <c r="C13" t="s">
-        <v>35</v>
-      </c>
-      <c r="D13" t="n">
-        <v>6.0</v>
-      </c>
-      <c r="E13" t="s">
-        <v>107</v>
-      </c>
-      <c r="F13" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
-        <v>1030.0</v>
-      </c>
-      <c r="B14" t="s">
-        <v>106</v>
-      </c>
-      <c r="C14" t="s">
-        <v>18</v>
-      </c>
-      <c r="D14" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="E14" t="s">
-        <v>107</v>
-      </c>
-      <c r="F14" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
-        <v>1040.0</v>
-      </c>
-      <c r="B15" t="s">
-        <v>108</v>
-      </c>
-      <c r="C15" t="s">
-        <v>19</v>
-      </c>
-      <c r="D15" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="E15" t="s">
-        <v>107</v>
-      </c>
-      <c r="F15" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="n">
-        <v>1050.0</v>
-      </c>
-      <c r="B16" t="s">
-        <v>106</v>
-      </c>
-      <c r="C16" t="s">
-        <v>35</v>
-      </c>
-      <c r="D16" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="E16" t="s">
-        <v>107</v>
-      </c>
-      <c r="F16" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="n">
-        <v>1030.0</v>
-      </c>
-      <c r="B17" t="s">
-        <v>106</v>
-      </c>
-      <c r="C17" t="s">
-        <v>18</v>
-      </c>
-      <c r="D17" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="E17" t="s">
-        <v>107</v>
-      </c>
-      <c r="F17" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="n">
-        <v>1040.0</v>
-      </c>
-      <c r="B18" t="s">
-        <v>108</v>
-      </c>
-      <c r="C18" t="s">
-        <v>5</v>
-      </c>
-      <c r="D18" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="E18" t="s">
-        <v>107</v>
-      </c>
-      <c r="F18" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="n">
-        <v>1050.0</v>
-      </c>
-      <c r="B19" t="s">
-        <v>106</v>
-      </c>
-      <c r="C19" t="s">
-        <v>35</v>
-      </c>
-      <c r="D19" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="E19" t="s">
-        <v>107</v>
-      </c>
-      <c r="F19" t="n">
         <v>0.0</v>
       </c>
     </row>

--- a/src/Excel/Yañez_Gonzalez_Christian_Emmanuel.xlsx
+++ b/src/Excel/Yañez_Gonzalez_Christian_Emmanuel.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="98">
   <si>
     <t>Estado</t>
   </si>
@@ -97,15 +97,21 @@
     <t>3</t>
   </si>
   <si>
-    <t>-59</t>
-  </si>
-  <si>
-    <t>/=</t>
+    <t>-24</t>
+  </si>
+  <si>
+    <t>+</t>
   </si>
   <si>
     <t>-19</t>
   </si>
   <si>
+    <t>-36</t>
+  </si>
+  <si>
+    <t>&lt;</t>
+  </si>
+  <si>
     <t>-54</t>
   </si>
   <si>
@@ -121,48 +127,15 @@
     <t>6</t>
   </si>
   <si>
-    <t>-2</t>
-  </si>
-  <si>
-    <t>//ERROR</t>
-  </si>
-  <si>
     <t>7</t>
   </si>
   <si>
-    <t>-55</t>
-  </si>
-  <si>
-    <t>=</t>
-  </si>
-  <si>
-    <t>//OK</t>
-  </si>
-  <si>
     <t>8</t>
   </si>
   <si>
-    <t>-47</t>
-  </si>
-  <si>
-    <t>,</t>
-  </si>
-  <si>
-    <t>-56</t>
-  </si>
-  <si>
-    <t>+=</t>
-  </si>
-  <si>
-    <t>//Ok,Error,Ok</t>
-  </si>
-  <si>
     <t>9</t>
   </si>
   <si>
-    <t>//Ok</t>
-  </si>
-  <si>
     <t>10</t>
   </si>
   <si>
@@ -175,18 +148,12 @@
     <t>Tipo</t>
   </si>
   <si>
-    <t>1022</t>
-  </si>
-  <si>
-    <t>Debe de ser una asignacion</t>
+    <t>Debe de ser una condicion BOOL</t>
   </si>
   <si>
     <t>Semantica Etapa 2</t>
   </si>
   <si>
-    <t>1020</t>
-  </si>
-  <si>
     <t>Erroes</t>
   </si>
   <si>
@@ -247,7 +214,7 @@
     <t>0</t>
   </si>
   <si>
-    <t>17</t>
+    <t>16</t>
   </si>
   <si>
     <t>20</t>
@@ -322,12 +289,6 @@
     <t>Errores</t>
   </si>
   <si>
-    <t>a -&gt;  TE1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">a -&gt; </t>
-  </si>
-  <si>
     <t>Regla</t>
   </si>
   <si>
@@ -340,16 +301,16 @@
     <t>Edo</t>
   </si>
   <si>
+    <t/>
+  </si>
+  <si>
+    <t>Acept</t>
+  </si>
+  <si>
     <t>id</t>
   </si>
   <si>
-    <t>Acept</t>
-  </si>
-  <si>
     <t>ERROR</t>
-  </si>
-  <si>
-    <t/>
   </si>
 </sst>
 </file>
@@ -394,7 +355,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C70"/>
+  <dimension ref="A1:C69"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -589,10 +550,10 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B18" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C18" t="s">
         <v>25</v>
@@ -600,10 +561,10 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="B19" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="C19" t="s">
         <v>25</v>
@@ -611,10 +572,10 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B20" t="s">
-        <v>5</v>
+        <v>27</v>
       </c>
       <c r="C20" t="s">
         <v>25</v>
@@ -622,10 +583,10 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="B21" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C21" t="s">
         <v>25</v>
@@ -633,10 +594,10 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="B22" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="C22" t="s">
         <v>25</v>
@@ -644,10 +605,10 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="B23" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="C23" t="s">
         <v>25</v>
@@ -655,76 +616,76 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B24" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C24" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="B25" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C25" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="B26" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="C26" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B27" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C27" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="B28" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="C28" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="B29" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="C29" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="B30" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="C30" t="s">
         <v>33</v>
@@ -732,131 +693,131 @@
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B31" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C31" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B32" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C32" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="B33" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="C33" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="B34" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="C34" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="B35" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="C35" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B36" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C36" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>34</v>
+        <v>10</v>
       </c>
       <c r="B37" t="s">
+        <v>11</v>
+      </c>
+      <c r="C37" t="s">
         <v>35</v>
-      </c>
-      <c r="C37" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="B38" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="C38" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B39" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C39" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="B40" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="C40" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>37</v>
+        <v>10</v>
       </c>
       <c r="B41" t="s">
-        <v>38</v>
+        <v>11</v>
       </c>
       <c r="C41" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="B42" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="C42" t="s">
         <v>36</v>
@@ -864,10 +825,10 @@
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B43" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C43" t="s">
         <v>36</v>
@@ -886,10 +847,10 @@
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="B45" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="C45" t="s">
         <v>36</v>
@@ -897,10 +858,10 @@
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="B46" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="C46" t="s">
         <v>36</v>
@@ -908,10 +869,10 @@
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="B47" t="s">
-        <v>39</v>
+        <v>5</v>
       </c>
       <c r="C47" t="s">
         <v>36</v>
@@ -919,68 +880,68 @@
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="B48" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="C48" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B49" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C49" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B50" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C50" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
+        <v>23</v>
+      </c>
+      <c r="B51" t="s">
+        <v>24</v>
+      </c>
+      <c r="C51" t="s">
         <v>37</v>
-      </c>
-      <c r="B51" t="s">
-        <v>38</v>
-      </c>
-      <c r="C51" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="B52" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="C52" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>41</v>
+        <v>10</v>
       </c>
       <c r="B53" t="s">
-        <v>42</v>
+        <v>11</v>
       </c>
       <c r="C53" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="54">
@@ -991,106 +952,106 @@
         <v>9</v>
       </c>
       <c r="C54" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="B55" t="s">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="C55" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="B56" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C56" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="B57" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="C57" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="B58" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C58" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="B59" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="C59" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="B60" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C60" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="B61" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="C61" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="B62" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="C62" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>34</v>
+        <v>10</v>
       </c>
       <c r="B63" t="s">
-        <v>45</v>
+        <v>11</v>
       </c>
       <c r="C63" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="64">
@@ -1101,7 +1062,7 @@
         <v>24</v>
       </c>
       <c r="C64" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
     </row>
     <row r="65">
@@ -1112,7 +1073,7 @@
         <v>15</v>
       </c>
       <c r="C65" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
     </row>
     <row r="66">
@@ -1123,7 +1084,7 @@
         <v>11</v>
       </c>
       <c r="C66" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
     </row>
     <row r="67">
@@ -1134,7 +1095,7 @@
         <v>11</v>
       </c>
       <c r="C67" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
     </row>
     <row r="68">
@@ -1145,29 +1106,18 @@
         <v>18</v>
       </c>
       <c r="C68" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B69" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="C69" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" t="s">
-        <v>29</v>
-      </c>
-      <c r="B70" t="s">
-        <v>30</v>
-      </c>
-      <c r="C70" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -1177,7 +1127,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1185,16 +1135,16 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="B1" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="E1" t="s">
         <v>2</v>
@@ -1202,36 +1152,19 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>52</v>
+        <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="C2" t="s">
         <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="E2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s">
-        <v>55</v>
-      </c>
-      <c r="B3" t="s">
-        <v>53</v>
-      </c>
-      <c r="C3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" t="s">
-        <v>54</v>
-      </c>
-      <c r="E3" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -1249,120 +1182,120 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F1" t="s">
+        <v>50</v>
+      </c>
+      <c r="G1" t="s">
+        <v>51</v>
+      </c>
+      <c r="H1" t="s">
+        <v>52</v>
+      </c>
+      <c r="I1" t="s">
+        <v>53</v>
+      </c>
+      <c r="J1" t="s">
+        <v>54</v>
+      </c>
+      <c r="K1" t="s">
+        <v>55</v>
+      </c>
+      <c r="L1" t="s">
         <v>56</v>
       </c>
-      <c r="B1" t="s">
+      <c r="M1" t="s">
         <v>57</v>
       </c>
-      <c r="C1" t="s">
+      <c r="N1" t="s">
         <v>58</v>
       </c>
-      <c r="D1" t="s">
+      <c r="O1" t="s">
         <v>59</v>
       </c>
-      <c r="E1" t="s">
+      <c r="P1" t="s">
         <v>60</v>
       </c>
-      <c r="F1" t="s">
+      <c r="Q1" t="s">
         <v>61</v>
       </c>
-      <c r="G1" t="s">
+      <c r="R1" t="s">
         <v>62</v>
       </c>
-      <c r="H1" t="s">
+      <c r="S1" t="s">
         <v>63</v>
-      </c>
-      <c r="I1" t="s">
-        <v>64</v>
-      </c>
-      <c r="J1" t="s">
-        <v>65</v>
-      </c>
-      <c r="K1" t="s">
-        <v>66</v>
-      </c>
-      <c r="L1" t="s">
-        <v>67</v>
-      </c>
-      <c r="M1" t="s">
-        <v>68</v>
-      </c>
-      <c r="N1" t="s">
-        <v>69</v>
-      </c>
-      <c r="O1" t="s">
-        <v>70</v>
-      </c>
-      <c r="P1" t="s">
-        <v>71</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>72</v>
-      </c>
-      <c r="R1" t="s">
-        <v>73</v>
-      </c>
-      <c r="S1" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="B2" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="C2" t="s">
-        <v>31</v>
+        <v>64</v>
       </c>
       <c r="D2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E2" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="F2" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="G2" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="H2" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="I2" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="J2" t="s">
-        <v>75</v>
+        <v>33</v>
       </c>
       <c r="K2" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="L2" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="M2" t="s">
-        <v>75</v>
+        <v>25</v>
       </c>
       <c r="N2" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="O2" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="P2" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="Q2" t="s">
-        <v>31</v>
+        <v>64</v>
       </c>
       <c r="R2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="S2" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -1380,40 +1313,40 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="B1" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="C1" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="D1" t="s">
         <v>4</v>
       </c>
       <c r="E1" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="F1" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="G1" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="H1" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="I1" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="J1" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="K1" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="L1" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
     </row>
     <row r="2">
@@ -1494,7 +1427,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="B4" t="n">
         <v>0.0</v>
@@ -1537,7 +1470,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:M5"/>
+  <dimension ref="A1:M1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1548,204 +1481,40 @@
         <v>2</v>
       </c>
       <c r="B1" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="C1" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="D1" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="E1" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="F1" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="G1" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="H1" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="I1" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="J1" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="K1" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="L1" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="M1" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="B2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="L2" t="s">
-        <v>101</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>7.0</v>
-      </c>
-      <c r="B3" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="L3" t="s">
-        <v>102</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>8.0</v>
-      </c>
-      <c r="B4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="L4" t="s">
-        <v>102</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>8.0</v>
-      </c>
-      <c r="B5" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D5" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="L5" t="s">
-        <v>101</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0.0</v>
+        <v>89</v>
       </c>
     </row>
   </sheetData>
@@ -1755,7 +1524,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1763,50 +1532,50 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>103</v>
+        <v>90</v>
       </c>
       <c r="B1" t="s">
-        <v>104</v>
+        <v>91</v>
       </c>
       <c r="C1" t="s">
-        <v>105</v>
+        <v>92</v>
       </c>
       <c r="D1" t="s">
         <v>2</v>
       </c>
       <c r="E1" t="s">
-        <v>106</v>
+        <v>93</v>
       </c>
       <c r="F1" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1022.0</v>
+        <v>1083.0</v>
       </c>
       <c r="B2" t="s">
-        <v>107</v>
+        <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>94</v>
       </c>
       <c r="D2" t="n">
         <v>3.0</v>
       </c>
       <c r="E2" t="s">
-        <v>108</v>
+        <v>95</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1080.0</v>
+        <v>1081.0</v>
       </c>
       <c r="B3" t="s">
-        <v>38</v>
+        <v>96</v>
       </c>
       <c r="C3" t="s">
         <v>9</v>
@@ -1815,27 +1584,27 @@
         <v>3.0</v>
       </c>
       <c r="E3" t="s">
-        <v>108</v>
+        <v>95</v>
       </c>
       <c r="F3" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1080.0</v>
+        <v>1083.0</v>
       </c>
       <c r="B4" t="s">
-        <v>107</v>
+        <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>94</v>
       </c>
       <c r="D4" t="n">
         <v>6.0</v>
       </c>
       <c r="E4" t="s">
-        <v>109</v>
+        <v>95</v>
       </c>
       <c r="F4" t="n">
         <v>0.0</v>
@@ -1843,19 +1612,19 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1020.0</v>
+        <v>1081.0</v>
       </c>
       <c r="B5" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="C5" t="s">
         <v>9</v>
       </c>
       <c r="D5" t="n">
-        <v>7.0</v>
+        <v>6.0</v>
       </c>
       <c r="E5" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="F5" t="n">
         <v>0.0</v>
@@ -1863,19 +1632,19 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1080.0</v>
+        <v>1083.0</v>
       </c>
       <c r="B6" t="s">
-        <v>38</v>
+        <v>11</v>
       </c>
       <c r="C6" t="s">
-        <v>9</v>
+        <v>94</v>
       </c>
       <c r="D6" t="n">
         <v>7.0</v>
       </c>
       <c r="E6" t="s">
-        <v>108</v>
+        <v>95</v>
       </c>
       <c r="F6" t="n">
         <v>0.0</v>
@@ -1883,19 +1652,19 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>1020.0</v>
+        <v>1081.0</v>
       </c>
       <c r="B7" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="C7" t="s">
         <v>9</v>
       </c>
       <c r="D7" t="n">
-        <v>8.0</v>
+        <v>7.0</v>
       </c>
       <c r="E7" t="s">
-        <v>108</v>
+        <v>95</v>
       </c>
       <c r="F7" t="n">
         <v>0.0</v>
@@ -1903,19 +1672,19 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>1080.0</v>
+        <v>1083.0</v>
       </c>
       <c r="B8" t="s">
-        <v>38</v>
+        <v>11</v>
       </c>
       <c r="C8" t="s">
-        <v>9</v>
+        <v>94</v>
       </c>
       <c r="D8" t="n">
         <v>8.0</v>
       </c>
       <c r="E8" t="s">
-        <v>108</v>
+        <v>95</v>
       </c>
       <c r="F8" t="n">
         <v>0.0</v>
@@ -1923,10 +1692,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>1080.0</v>
+        <v>1081.0</v>
       </c>
       <c r="B9" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="C9" t="s">
         <v>9</v>
@@ -1935,7 +1704,7 @@
         <v>8.0</v>
       </c>
       <c r="E9" t="s">
-        <v>109</v>
+        <v>95</v>
       </c>
       <c r="F9" t="n">
         <v>0.0</v>
@@ -1943,19 +1712,19 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>1021.0</v>
+        <v>1083.0</v>
       </c>
       <c r="B10" t="s">
-        <v>107</v>
+        <v>11</v>
       </c>
       <c r="C10" t="s">
-        <v>9</v>
+        <v>94</v>
       </c>
       <c r="D10" t="n">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="E10" t="s">
-        <v>108</v>
+        <v>95</v>
       </c>
       <c r="F10" t="n">
         <v>0.0</v>
@@ -1963,41 +1732,21 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>1080.0</v>
+        <v>1083.0</v>
       </c>
       <c r="B11" t="s">
-        <v>38</v>
+        <v>11</v>
       </c>
       <c r="C11" t="s">
-        <v>9</v>
+        <v>94</v>
       </c>
       <c r="D11" t="n">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="E11" t="s">
-        <v>108</v>
+        <v>95</v>
       </c>
       <c r="F11" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
-        <v>1083.0</v>
-      </c>
-      <c r="B12" t="s">
-        <v>11</v>
-      </c>
-      <c r="C12" t="s">
-        <v>110</v>
-      </c>
-      <c r="D12" t="n">
-        <v>9.0</v>
-      </c>
-      <c r="E12" t="s">
-        <v>108</v>
-      </c>
-      <c r="F12" t="n">
         <v>0.0</v>
       </c>
     </row>

--- a/src/Excel/Yañez_Gonzalez_Christian_Emmanuel.xlsx
+++ b/src/Excel/Yañez_Gonzalez_Christian_Emmanuel.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="592" uniqueCount="124">
   <si>
     <t>Estado</t>
   </si>
@@ -88,13 +88,55 @@
     <t>{</t>
   </si>
   <si>
+    <t>-2</t>
+  </si>
+  <si>
+    <t>//Mismo que el ambito 0</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
     <t>-8</t>
   </si>
   <si>
     <t>for</t>
   </si>
   <si>
-    <t>3</t>
+    <t>4</t>
+  </si>
+  <si>
+    <t>-56</t>
+  </si>
+  <si>
+    <t>+=</t>
+  </si>
+  <si>
+    <t>-19</t>
+  </si>
+  <si>
+    <t>-36</t>
+  </si>
+  <si>
+    <t>&lt;</t>
+  </si>
+  <si>
+    <t>-30</t>
+  </si>
+  <si>
+    <t>++</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>-58</t>
+  </si>
+  <si>
+    <t>*=</t>
   </si>
   <si>
     <t>-24</t>
@@ -103,13 +145,13 @@
     <t>+</t>
   </si>
   <si>
-    <t>-19</t>
-  </si>
-  <si>
-    <t>-36</t>
-  </si>
-  <si>
-    <t>&lt;</t>
+    <t>-69</t>
+  </si>
+  <si>
+    <t>**</t>
+  </si>
+  <si>
+    <t>7</t>
   </si>
   <si>
     <t>-54</t>
@@ -118,18 +160,6 @@
     <t>}</t>
   </si>
   <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
     <t>8</t>
   </si>
   <si>
@@ -139,6 +169,30 @@
     <t>10</t>
   </si>
   <si>
+    <t>//Sin errores</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>//error en 1 y 3, vacio</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>//Error en 2</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>//Errores en los 3</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
     <t>Token</t>
   </si>
   <si>
@@ -148,12 +202,27 @@
     <t>Tipo</t>
   </si>
   <si>
+    <t>1080</t>
+  </si>
+  <si>
+    <t>Debe de ser una asignacion</t>
+  </si>
+  <si>
+    <t>Semantica Etapa 2</t>
+  </si>
+  <si>
+    <t>1082</t>
+  </si>
+  <si>
+    <t>Debe de incrementar o decrementar el valor</t>
+  </si>
+  <si>
+    <t>1081</t>
+  </si>
+  <si>
     <t>Debe de ser una condicion BOOL</t>
   </si>
   <si>
-    <t>Semantica Etapa 2</t>
-  </si>
-  <si>
     <t>Erroes</t>
   </si>
   <si>
@@ -214,10 +283,13 @@
     <t>0</t>
   </si>
   <si>
-    <t>16</t>
-  </si>
-  <si>
-    <t>20</t>
+    <t>25</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>26</t>
   </si>
   <si>
     <t>Ambito</t>
@@ -289,6 +361,9 @@
     <t>Errores</t>
   </si>
   <si>
+    <t>a -&gt;  TE1</t>
+  </si>
+  <si>
     <t>Regla</t>
   </si>
   <si>
@@ -301,16 +376,19 @@
     <t>Edo</t>
   </si>
   <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>Acept</t>
+  </si>
+  <si>
+    <t>=</t>
+  </si>
+  <si>
+    <t>ERROR</t>
+  </si>
+  <si>
     <t/>
-  </si>
-  <si>
-    <t>Acept</t>
-  </si>
-  <si>
-    <t>id</t>
-  </si>
-  <si>
-    <t>ERROR</t>
   </si>
 </sst>
 </file>
@@ -355,7 +433,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C69"/>
+  <dimension ref="A1:C123"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -539,24 +617,24 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="B17" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="C17" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B18" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C18" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="19">
@@ -567,40 +645,40 @@
         <v>9</v>
       </c>
       <c r="C19" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B20" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C20" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B21" t="s">
         <v>5</v>
       </c>
       <c r="C21" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="B22" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="C22" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="23">
@@ -611,29 +689,29 @@
         <v>9</v>
       </c>
       <c r="C23" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="B24" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="C24" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
+        <v>31</v>
+      </c>
+      <c r="B25" t="s">
+        <v>5</v>
+      </c>
+      <c r="C25" t="s">
         <v>28</v>
-      </c>
-      <c r="B25" t="s">
-        <v>12</v>
-      </c>
-      <c r="C25" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="26">
@@ -644,40 +722,40 @@
         <v>11</v>
       </c>
       <c r="C26" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="B27" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="C27" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B28" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C28" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="B29" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="C29" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
     </row>
     <row r="30">
@@ -688,18 +766,18 @@
         <v>11</v>
       </c>
       <c r="C30" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="B31" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="C31" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="32">
@@ -710,194 +788,194 @@
         <v>15</v>
       </c>
       <c r="C32" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="B33" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="C33" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="B34" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="C34" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="B35" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="C35" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="B36" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C36" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="B37" t="s">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="C37" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="B38" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C38" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="B39" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="C39" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="B40" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="C40" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="B41" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="C41" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="B42" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="C42" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="B43" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C43" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>10</v>
+        <v>38</v>
       </c>
       <c r="B44" t="s">
-        <v>11</v>
+        <v>39</v>
       </c>
       <c r="C44" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="B45" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C45" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="B46" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="C46" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="B47" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C47" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="B48" t="s">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="C48" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="B49" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="C49" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="50">
@@ -908,15 +986,15 @@
         <v>11</v>
       </c>
       <c r="C50" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="B51" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="C51" t="s">
         <v>37</v>
@@ -924,10 +1002,10 @@
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="B52" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C52" t="s">
         <v>37</v>
@@ -935,10 +1013,10 @@
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="B53" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="C53" t="s">
         <v>37</v>
@@ -946,10 +1024,10 @@
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B54" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C54" t="s">
         <v>37</v>
@@ -963,117 +1041,117 @@
         <v>27</v>
       </c>
       <c r="C55" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="B56" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="C56" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="B57" t="s">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="C57" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B58" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C58" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="B59" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="C59" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="B60" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C60" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B61" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C61" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="B62" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="C62" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="B63" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C63" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="B64" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="C64" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>14</v>
+        <v>45</v>
       </c>
       <c r="B65" t="s">
-        <v>15</v>
+        <v>46</v>
       </c>
       <c r="C65" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
     </row>
     <row r="66">
@@ -1084,40 +1162,634 @@
         <v>11</v>
       </c>
       <c r="C66" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="B67" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="C67" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B68" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C68" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
+        <v>17</v>
+      </c>
+      <c r="B69" t="s">
+        <v>18</v>
+      </c>
+      <c r="C69" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="s">
+        <v>21</v>
+      </c>
+      <c r="B70" t="s">
+        <v>22</v>
+      </c>
+      <c r="C70" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="s">
+        <v>26</v>
+      </c>
+      <c r="B71" t="s">
+        <v>27</v>
+      </c>
+      <c r="C71" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="s">
+        <v>14</v>
+      </c>
+      <c r="B72" t="s">
+        <v>15</v>
+      </c>
+      <c r="C72" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="s">
+        <v>8</v>
+      </c>
+      <c r="B73" t="s">
+        <v>9</v>
+      </c>
+      <c r="C73" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="s">
+        <v>29</v>
+      </c>
+      <c r="B74" t="s">
+        <v>30</v>
+      </c>
+      <c r="C74" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="s">
         <v>31</v>
       </c>
-      <c r="B69" t="s">
+      <c r="B75" t="s">
+        <v>5</v>
+      </c>
+      <c r="C75" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="s">
+        <v>10</v>
+      </c>
+      <c r="B76" t="s">
+        <v>11</v>
+      </c>
+      <c r="C76" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="s">
+        <v>8</v>
+      </c>
+      <c r="B77" t="s">
+        <v>9</v>
+      </c>
+      <c r="C77" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="s">
         <v>32</v>
       </c>
-      <c r="C69" t="s">
+      <c r="B78" t="s">
+        <v>33</v>
+      </c>
+      <c r="C78" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="s">
+        <v>31</v>
+      </c>
+      <c r="B79" t="s">
+        <v>5</v>
+      </c>
+      <c r="C79" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="s">
+        <v>10</v>
+      </c>
+      <c r="B80" t="s">
+        <v>11</v>
+      </c>
+      <c r="C80" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="s">
+        <v>34</v>
+      </c>
+      <c r="B81" t="s">
+        <v>35</v>
+      </c>
+      <c r="C81" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="s">
+        <v>8</v>
+      </c>
+      <c r="B82" t="s">
+        <v>9</v>
+      </c>
+      <c r="C82" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="s">
+        <v>17</v>
+      </c>
+      <c r="B83" t="s">
+        <v>18</v>
+      </c>
+      <c r="C83" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="s">
+        <v>10</v>
+      </c>
+      <c r="B84" t="s">
+        <v>11</v>
+      </c>
+      <c r="C84" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="s">
+        <v>23</v>
+      </c>
+      <c r="B85" t="s">
+        <v>50</v>
+      </c>
+      <c r="C85" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="s">
+        <v>26</v>
+      </c>
+      <c r="B86" t="s">
+        <v>27</v>
+      </c>
+      <c r="C86" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="s">
+        <v>14</v>
+      </c>
+      <c r="B87" t="s">
+        <v>15</v>
+      </c>
+      <c r="C87" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="s">
+        <v>8</v>
+      </c>
+      <c r="B88" t="s">
+        <v>9</v>
+      </c>
+      <c r="C88" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="s">
+        <v>10</v>
+      </c>
+      <c r="B89" t="s">
+        <v>11</v>
+      </c>
+      <c r="C89" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="s">
+        <v>10</v>
+      </c>
+      <c r="B90" t="s">
+        <v>11</v>
+      </c>
+      <c r="C90" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="s">
+        <v>8</v>
+      </c>
+      <c r="B91" t="s">
+        <v>9</v>
+      </c>
+      <c r="C91" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="s">
+        <v>32</v>
+      </c>
+      <c r="B92" t="s">
+        <v>33</v>
+      </c>
+      <c r="C92" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="s">
+        <v>31</v>
+      </c>
+      <c r="B93" t="s">
+        <v>5</v>
+      </c>
+      <c r="C93" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="s">
+        <v>17</v>
+      </c>
+      <c r="B94" t="s">
+        <v>18</v>
+      </c>
+      <c r="C94" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="s">
+        <v>10</v>
+      </c>
+      <c r="B95" t="s">
+        <v>11</v>
+      </c>
+      <c r="C95" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="s">
+        <v>23</v>
+      </c>
+      <c r="B96" t="s">
+        <v>52</v>
+      </c>
+      <c r="C96" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="s">
+        <v>26</v>
+      </c>
+      <c r="B97" t="s">
+        <v>27</v>
+      </c>
+      <c r="C97" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="s">
+        <v>14</v>
+      </c>
+      <c r="B98" t="s">
+        <v>15</v>
+      </c>
+      <c r="C98" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="s">
+        <v>8</v>
+      </c>
+      <c r="B99" t="s">
+        <v>9</v>
+      </c>
+      <c r="C99" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="s">
+        <v>38</v>
+      </c>
+      <c r="B100" t="s">
         <v>39</v>
+      </c>
+      <c r="C100" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="s">
+        <v>31</v>
+      </c>
+      <c r="B101" t="s">
+        <v>12</v>
+      </c>
+      <c r="C101" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="s">
+        <v>10</v>
+      </c>
+      <c r="B102" t="s">
+        <v>11</v>
+      </c>
+      <c r="C102" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="s">
+        <v>8</v>
+      </c>
+      <c r="B103" t="s">
+        <v>9</v>
+      </c>
+      <c r="C103" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="s">
+        <v>40</v>
+      </c>
+      <c r="B104" t="s">
+        <v>41</v>
+      </c>
+      <c r="C104" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="s">
+        <v>31</v>
+      </c>
+      <c r="B105" t="s">
+        <v>5</v>
+      </c>
+      <c r="C105" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="s">
+        <v>10</v>
+      </c>
+      <c r="B106" t="s">
+        <v>11</v>
+      </c>
+      <c r="C106" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="s">
+        <v>42</v>
+      </c>
+      <c r="B107" t="s">
+        <v>43</v>
+      </c>
+      <c r="C107" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="s">
+        <v>8</v>
+      </c>
+      <c r="B108" t="s">
+        <v>9</v>
+      </c>
+      <c r="C108" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="s">
+        <v>17</v>
+      </c>
+      <c r="B109" t="s">
+        <v>18</v>
+      </c>
+      <c r="C109" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="s">
+        <v>10</v>
+      </c>
+      <c r="B110" t="s">
+        <v>11</v>
+      </c>
+      <c r="C110" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="s">
+        <v>23</v>
+      </c>
+      <c r="B111" t="s">
+        <v>54</v>
+      </c>
+      <c r="C111" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="s">
+        <v>26</v>
+      </c>
+      <c r="B112" t="s">
+        <v>27</v>
+      </c>
+      <c r="C112" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="s">
+        <v>14</v>
+      </c>
+      <c r="B113" t="s">
+        <v>15</v>
+      </c>
+      <c r="C113" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="s">
+        <v>8</v>
+      </c>
+      <c r="B114" t="s">
+        <v>9</v>
+      </c>
+      <c r="C114" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="s">
+        <v>10</v>
+      </c>
+      <c r="B115" t="s">
+        <v>11</v>
+      </c>
+      <c r="C115" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="s">
+        <v>8</v>
+      </c>
+      <c r="B116" t="s">
+        <v>9</v>
+      </c>
+      <c r="C116" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="s">
+        <v>10</v>
+      </c>
+      <c r="B117" t="s">
+        <v>11</v>
+      </c>
+      <c r="C117" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="s">
+        <v>8</v>
+      </c>
+      <c r="B118" t="s">
+        <v>9</v>
+      </c>
+      <c r="C118" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="s">
+        <v>32</v>
+      </c>
+      <c r="B119" t="s">
+        <v>33</v>
+      </c>
+      <c r="C119" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="s">
+        <v>31</v>
+      </c>
+      <c r="B120" t="s">
+        <v>12</v>
+      </c>
+      <c r="C120" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="s">
+        <v>17</v>
+      </c>
+      <c r="B121" t="s">
+        <v>18</v>
+      </c>
+      <c r="C121" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="s">
+        <v>23</v>
+      </c>
+      <c r="B122" t="s">
+        <v>56</v>
+      </c>
+      <c r="C122" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="s">
+        <v>45</v>
+      </c>
+      <c r="B123" t="s">
+        <v>46</v>
+      </c>
+      <c r="C123" t="s">
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -1127,7 +1799,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1135,16 +1807,16 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>40</v>
+        <v>58</v>
       </c>
       <c r="B1" t="s">
-        <v>41</v>
+        <v>59</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>42</v>
+        <v>60</v>
       </c>
       <c r="E1" t="s">
         <v>2</v>
@@ -1152,19 +1824,206 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>61</v>
       </c>
       <c r="B2" t="s">
-        <v>43</v>
+        <v>62</v>
       </c>
       <c r="C2" t="s">
         <v>9</v>
       </c>
       <c r="D2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" t="s">
+        <v>63</v>
+      </c>
+      <c r="E3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>66</v>
+      </c>
+      <c r="B4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" t="s">
+        <v>63</v>
+      </c>
+      <c r="E4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>61</v>
+      </c>
+      <c r="B5" t="s">
+        <v>62</v>
+      </c>
+      <c r="C5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" t="s">
+        <v>63</v>
+      </c>
+      <c r="E5" t="s">
         <v>44</v>
       </c>
-      <c r="E2" t="s">
-        <v>35</v>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>66</v>
+      </c>
+      <c r="B6" t="s">
+        <v>67</v>
+      </c>
+      <c r="C6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" t="s">
+        <v>63</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>64</v>
+      </c>
+      <c r="B7" t="s">
+        <v>65</v>
+      </c>
+      <c r="C7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" t="s">
+        <v>63</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>61</v>
+      </c>
+      <c r="B8" t="s">
+        <v>62</v>
+      </c>
+      <c r="C8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" t="s">
+        <v>63</v>
+      </c>
+      <c r="E8" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>64</v>
+      </c>
+      <c r="B9" t="s">
+        <v>65</v>
+      </c>
+      <c r="C9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" t="s">
+        <v>63</v>
+      </c>
+      <c r="E9" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>66</v>
+      </c>
+      <c r="B10" t="s">
+        <v>67</v>
+      </c>
+      <c r="C10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" t="s">
+        <v>63</v>
+      </c>
+      <c r="E10" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>61</v>
+      </c>
+      <c r="B11" t="s">
+        <v>62</v>
+      </c>
+      <c r="C11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" t="s">
+        <v>63</v>
+      </c>
+      <c r="E11" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>66</v>
+      </c>
+      <c r="B12" t="s">
+        <v>67</v>
+      </c>
+      <c r="C12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" t="s">
+        <v>63</v>
+      </c>
+      <c r="E12" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>64</v>
+      </c>
+      <c r="B13" t="s">
+        <v>65</v>
+      </c>
+      <c r="C13" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" t="s">
+        <v>63</v>
+      </c>
+      <c r="E13" t="s">
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -1182,120 +2041,120 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>45</v>
+        <v>68</v>
       </c>
       <c r="B1" t="s">
-        <v>46</v>
+        <v>69</v>
       </c>
       <c r="C1" t="s">
-        <v>47</v>
+        <v>70</v>
       </c>
       <c r="D1" t="s">
-        <v>48</v>
+        <v>71</v>
       </c>
       <c r="E1" t="s">
-        <v>49</v>
+        <v>72</v>
       </c>
       <c r="F1" t="s">
-        <v>50</v>
+        <v>73</v>
       </c>
       <c r="G1" t="s">
-        <v>51</v>
+        <v>74</v>
       </c>
       <c r="H1" t="s">
-        <v>52</v>
+        <v>75</v>
       </c>
       <c r="I1" t="s">
-        <v>53</v>
+        <v>76</v>
       </c>
       <c r="J1" t="s">
-        <v>54</v>
+        <v>77</v>
       </c>
       <c r="K1" t="s">
-        <v>55</v>
+        <v>78</v>
       </c>
       <c r="L1" t="s">
-        <v>56</v>
+        <v>79</v>
       </c>
       <c r="M1" t="s">
-        <v>57</v>
+        <v>80</v>
       </c>
       <c r="N1" t="s">
-        <v>58</v>
+        <v>81</v>
       </c>
       <c r="O1" t="s">
-        <v>59</v>
+        <v>82</v>
       </c>
       <c r="P1" t="s">
-        <v>60</v>
+        <v>83</v>
       </c>
       <c r="Q1" t="s">
-        <v>61</v>
+        <v>84</v>
       </c>
       <c r="R1" t="s">
-        <v>62</v>
+        <v>85</v>
       </c>
       <c r="S1" t="s">
-        <v>63</v>
+        <v>86</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>64</v>
+        <v>87</v>
       </c>
       <c r="B2" t="s">
-        <v>38</v>
+        <v>88</v>
       </c>
       <c r="C2" t="s">
-        <v>64</v>
+        <v>36</v>
       </c>
       <c r="D2" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="E2" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="F2" t="s">
-        <v>64</v>
+        <v>87</v>
       </c>
       <c r="G2" t="s">
-        <v>64</v>
+        <v>87</v>
       </c>
       <c r="H2" t="s">
-        <v>64</v>
+        <v>87</v>
       </c>
       <c r="I2" t="s">
-        <v>64</v>
+        <v>87</v>
       </c>
       <c r="J2" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="K2" t="s">
-        <v>64</v>
+        <v>12</v>
       </c>
       <c r="L2" t="s">
-        <v>64</v>
+        <v>87</v>
       </c>
       <c r="M2" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="N2" t="s">
-        <v>64</v>
+        <v>87</v>
       </c>
       <c r="O2" t="s">
-        <v>65</v>
+        <v>89</v>
       </c>
       <c r="P2" t="s">
-        <v>66</v>
+        <v>90</v>
       </c>
       <c r="Q2" t="s">
-        <v>64</v>
+        <v>28</v>
       </c>
       <c r="R2" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="S2" t="s">
-        <v>64</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -1313,40 +2172,40 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>67</v>
+        <v>91</v>
       </c>
       <c r="B1" t="s">
-        <v>68</v>
+        <v>92</v>
       </c>
       <c r="C1" t="s">
-        <v>69</v>
+        <v>93</v>
       </c>
       <c r="D1" t="s">
         <v>4</v>
       </c>
       <c r="E1" t="s">
-        <v>70</v>
+        <v>94</v>
       </c>
       <c r="F1" t="s">
-        <v>71</v>
+        <v>95</v>
       </c>
       <c r="G1" t="s">
-        <v>72</v>
+        <v>96</v>
       </c>
       <c r="H1" t="s">
-        <v>73</v>
+        <v>97</v>
       </c>
       <c r="I1" t="s">
-        <v>74</v>
+        <v>98</v>
       </c>
       <c r="J1" t="s">
-        <v>75</v>
+        <v>99</v>
       </c>
       <c r="K1" t="s">
-        <v>76</v>
+        <v>100</v>
       </c>
       <c r="L1" t="s">
-        <v>77</v>
+        <v>101</v>
       </c>
     </row>
     <row r="2">
@@ -1427,7 +2286,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>78</v>
+        <v>102</v>
       </c>
       <c r="B4" t="n">
         <v>0.0</v>
@@ -1470,7 +2329,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:M1"/>
+  <dimension ref="A1:M5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1481,40 +2340,204 @@
         <v>2</v>
       </c>
       <c r="B1" t="s">
-        <v>79</v>
+        <v>103</v>
       </c>
       <c r="C1" t="s">
-        <v>80</v>
+        <v>104</v>
       </c>
       <c r="D1" t="s">
-        <v>81</v>
+        <v>105</v>
       </c>
       <c r="E1" t="s">
-        <v>82</v>
+        <v>106</v>
       </c>
       <c r="F1" t="s">
-        <v>83</v>
+        <v>107</v>
       </c>
       <c r="G1" t="s">
-        <v>84</v>
+        <v>108</v>
       </c>
       <c r="H1" t="s">
-        <v>82</v>
+        <v>106</v>
       </c>
       <c r="I1" t="s">
-        <v>85</v>
+        <v>109</v>
       </c>
       <c r="J1" t="s">
-        <v>86</v>
+        <v>110</v>
       </c>
       <c r="K1" t="s">
-        <v>87</v>
+        <v>111</v>
       </c>
       <c r="L1" t="s">
-        <v>88</v>
+        <v>112</v>
       </c>
       <c r="M1" t="s">
-        <v>89</v>
+        <v>113</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L2" t="s">
+        <v>114</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="B3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L3" t="s">
+        <v>114</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="B4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L4" t="s">
+        <v>114</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="B5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L5" t="s">
+        <v>114</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0.0</v>
       </c>
     </row>
   </sheetData>
@@ -1524,7 +2547,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F29"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1532,39 +2555,39 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>90</v>
+        <v>115</v>
       </c>
       <c r="B1" t="s">
-        <v>91</v>
+        <v>116</v>
       </c>
       <c r="C1" t="s">
-        <v>92</v>
+        <v>117</v>
       </c>
       <c r="D1" t="s">
         <v>2</v>
       </c>
       <c r="E1" t="s">
-        <v>93</v>
+        <v>118</v>
       </c>
       <c r="F1" t="s">
-        <v>67</v>
+        <v>91</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1083.0</v>
+        <v>1021.0</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>119</v>
       </c>
       <c r="C2" t="s">
-        <v>94</v>
+        <v>9</v>
       </c>
       <c r="D2" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="E2" t="s">
-        <v>95</v>
+        <v>120</v>
       </c>
       <c r="F2" t="n">
         <v>1.0</v>
@@ -1572,19 +2595,19 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1081.0</v>
+        <v>1080.0</v>
       </c>
       <c r="B3" t="s">
-        <v>96</v>
+        <v>121</v>
       </c>
       <c r="C3" t="s">
         <v>9</v>
       </c>
       <c r="D3" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="E3" t="s">
-        <v>95</v>
+        <v>120</v>
       </c>
       <c r="F3" t="n">
         <v>1.0</v>
@@ -1592,161 +2615,521 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1083.0</v>
+        <v>1081.0</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>119</v>
       </c>
       <c r="C4" t="s">
-        <v>94</v>
+        <v>9</v>
       </c>
       <c r="D4" t="n">
-        <v>6.0</v>
+        <v>4.0</v>
       </c>
       <c r="E4" t="s">
-        <v>95</v>
+        <v>120</v>
       </c>
       <c r="F4" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1081.0</v>
+        <v>1082.0</v>
       </c>
       <c r="B5" t="s">
-        <v>96</v>
+        <v>119</v>
       </c>
       <c r="C5" t="s">
         <v>9</v>
       </c>
       <c r="D5" t="n">
-        <v>6.0</v>
+        <v>4.0</v>
       </c>
       <c r="E5" t="s">
-        <v>97</v>
+        <v>120</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1083.0</v>
+        <v>1080.0</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>119</v>
       </c>
       <c r="C6" t="s">
-        <v>94</v>
+        <v>9</v>
       </c>
       <c r="D6" t="n">
-        <v>7.0</v>
+        <v>5.0</v>
       </c>
       <c r="E6" t="s">
-        <v>95</v>
+        <v>122</v>
       </c>
       <c r="F6" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>1081.0</v>
+        <v>1083.0</v>
       </c>
       <c r="B7" t="s">
-        <v>96</v>
+        <v>11</v>
       </c>
       <c r="C7" t="s">
-        <v>9</v>
+        <v>123</v>
       </c>
       <c r="D7" t="n">
-        <v>7.0</v>
+        <v>5.0</v>
       </c>
       <c r="E7" t="s">
-        <v>95</v>
+        <v>120</v>
       </c>
       <c r="F7" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>1083.0</v>
+        <v>1082.0</v>
       </c>
       <c r="B8" t="s">
-        <v>11</v>
+        <v>119</v>
       </c>
       <c r="C8" t="s">
-        <v>94</v>
+        <v>9</v>
       </c>
       <c r="D8" t="n">
-        <v>8.0</v>
+        <v>5.0</v>
       </c>
       <c r="E8" t="s">
-        <v>95</v>
+        <v>122</v>
       </c>
       <c r="F8" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>1081.0</v>
+        <v>1022.0</v>
       </c>
       <c r="B9" t="s">
-        <v>96</v>
+        <v>119</v>
       </c>
       <c r="C9" t="s">
         <v>9</v>
       </c>
       <c r="D9" t="n">
-        <v>8.0</v>
+        <v>6.0</v>
       </c>
       <c r="E9" t="s">
-        <v>95</v>
+        <v>120</v>
       </c>
       <c r="F9" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>1083.0</v>
+        <v>1080.0</v>
       </c>
       <c r="B10" t="s">
-        <v>11</v>
+        <v>121</v>
       </c>
       <c r="C10" t="s">
-        <v>94</v>
+        <v>9</v>
       </c>
       <c r="D10" t="n">
-        <v>9.0</v>
+        <v>6.0</v>
       </c>
       <c r="E10" t="s">
-        <v>95</v>
+        <v>120</v>
       </c>
       <c r="F10" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
+        <v>1081.0</v>
+      </c>
+      <c r="B11" t="s">
+        <v>119</v>
+      </c>
+      <c r="C11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="E11" t="s">
+        <v>122</v>
+      </c>
+      <c r="F11" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>1082.0</v>
+      </c>
+      <c r="B12" t="s">
+        <v>119</v>
+      </c>
+      <c r="C12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="E12" t="s">
+        <v>120</v>
+      </c>
+      <c r="F12" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>1080.0</v>
+      </c>
+      <c r="B13" t="s">
+        <v>119</v>
+      </c>
+      <c r="C13" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="E13" t="s">
+        <v>122</v>
+      </c>
+      <c r="F13" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>1081.0</v>
+      </c>
+      <c r="B14" t="s">
+        <v>119</v>
+      </c>
+      <c r="C14" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="E14" t="s">
+        <v>122</v>
+      </c>
+      <c r="F14" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>1082.0</v>
+      </c>
+      <c r="B15" t="s">
+        <v>119</v>
+      </c>
+      <c r="C15" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="E15" t="s">
+        <v>122</v>
+      </c>
+      <c r="F15" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>1021.0</v>
+      </c>
+      <c r="B16" t="s">
+        <v>119</v>
+      </c>
+      <c r="C16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D16" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="E16" t="s">
+        <v>120</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>1080.0</v>
+      </c>
+      <c r="B17" t="s">
+        <v>121</v>
+      </c>
+      <c r="C17" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="E17" t="s">
+        <v>120</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>1081.0</v>
+      </c>
+      <c r="B18" t="s">
+        <v>119</v>
+      </c>
+      <c r="C18" t="s">
+        <v>9</v>
+      </c>
+      <c r="D18" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="E18" t="s">
+        <v>120</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>1082.0</v>
+      </c>
+      <c r="B19" t="s">
+        <v>119</v>
+      </c>
+      <c r="C19" t="s">
+        <v>9</v>
+      </c>
+      <c r="D19" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="E19" t="s">
+        <v>120</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>1080.0</v>
+      </c>
+      <c r="B20" t="s">
+        <v>119</v>
+      </c>
+      <c r="C20" t="s">
+        <v>9</v>
+      </c>
+      <c r="D20" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="E20" t="s">
+        <v>122</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
         <v>1083.0</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B21" t="s">
         <v>11</v>
       </c>
-      <c r="C11" t="s">
-        <v>94</v>
-      </c>
-      <c r="D11" t="n">
-        <v>9.0</v>
-      </c>
-      <c r="E11" t="s">
-        <v>95</v>
-      </c>
-      <c r="F11" t="n">
+      <c r="C21" t="s">
+        <v>123</v>
+      </c>
+      <c r="D21" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="E21" t="s">
+        <v>120</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>1082.0</v>
+      </c>
+      <c r="B22" t="s">
+        <v>119</v>
+      </c>
+      <c r="C22" t="s">
+        <v>9</v>
+      </c>
+      <c r="D22" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="E22" t="s">
+        <v>122</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>1022.0</v>
+      </c>
+      <c r="B23" t="s">
+        <v>119</v>
+      </c>
+      <c r="C23" t="s">
+        <v>9</v>
+      </c>
+      <c r="D23" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="E23" t="s">
+        <v>120</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>1080.0</v>
+      </c>
+      <c r="B24" t="s">
+        <v>121</v>
+      </c>
+      <c r="C24" t="s">
+        <v>9</v>
+      </c>
+      <c r="D24" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="E24" t="s">
+        <v>120</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>1081.0</v>
+      </c>
+      <c r="B25" t="s">
+        <v>119</v>
+      </c>
+      <c r="C25" t="s">
+        <v>9</v>
+      </c>
+      <c r="D25" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="E25" t="s">
+        <v>122</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>1082.0</v>
+      </c>
+      <c r="B26" t="s">
+        <v>119</v>
+      </c>
+      <c r="C26" t="s">
+        <v>9</v>
+      </c>
+      <c r="D26" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="E26" t="s">
+        <v>120</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>1080.0</v>
+      </c>
+      <c r="B27" t="s">
+        <v>119</v>
+      </c>
+      <c r="C27" t="s">
+        <v>9</v>
+      </c>
+      <c r="D27" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="E27" t="s">
+        <v>122</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>1081.0</v>
+      </c>
+      <c r="B28" t="s">
+        <v>119</v>
+      </c>
+      <c r="C28" t="s">
+        <v>9</v>
+      </c>
+      <c r="D28" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="E28" t="s">
+        <v>122</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>1082.0</v>
+      </c>
+      <c r="B29" t="s">
+        <v>119</v>
+      </c>
+      <c r="C29" t="s">
+        <v>9</v>
+      </c>
+      <c r="D29" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="E29" t="s">
+        <v>122</v>
+      </c>
+      <c r="F29" t="n">
         <v>0.0</v>
       </c>
     </row>

--- a/src/Excel/Yañez_Gonzalez_Christian_Emmanuel.xlsx
+++ b/src/Excel/Yañez_Gonzalez_Christian_Emmanuel.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="592" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="450" uniqueCount="125">
   <si>
     <t>Estado</t>
   </si>
@@ -55,9 +55,57 @@
     <t>;</t>
   </si>
   <si>
+    <t>b</t>
+  </si>
+  <si>
     <t>2</t>
   </si>
   <si>
+    <t>-55</t>
+  </si>
+  <si>
+    <t>=</t>
+  </si>
+  <si>
+    <t>-19</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>-63</t>
+  </si>
+  <si>
+    <t>BOOL</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>-51</t>
+  </si>
+  <si>
+    <t>[</t>
+  </si>
+  <si>
+    <t>-52</t>
+  </si>
+  <si>
+    <t>]</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>-98</t>
+  </si>
+  <si>
+    <t>CHAR</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
     <t>func</t>
   </si>
   <si>
@@ -67,7 +115,7 @@
     <t>(</t>
   </si>
   <si>
-    <t>x</t>
+    <t>A</t>
   </si>
   <si>
     <t>-50</t>
@@ -76,82 +124,55 @@
     <t>)</t>
   </si>
   <si>
+    <t>5</t>
+  </si>
+  <si>
     <t>-61</t>
   </si>
   <si>
     <t>main</t>
   </si>
   <si>
+    <t>6</t>
+  </si>
+  <si>
     <t>-53</t>
   </si>
   <si>
     <t>{</t>
   </si>
   <si>
+    <t>7</t>
+  </si>
+  <si>
     <t>-2</t>
   </si>
   <si>
-    <t>//Mismo que el ambito 0</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>-8</t>
-  </si>
-  <si>
-    <t>for</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>-56</t>
-  </si>
-  <si>
-    <t>+=</t>
-  </si>
-  <si>
-    <t>-19</t>
-  </si>
-  <si>
-    <t>-36</t>
-  </si>
-  <si>
-    <t>&lt;</t>
-  </si>
-  <si>
-    <t>-30</t>
-  </si>
-  <si>
-    <t>++</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>-58</t>
-  </si>
-  <si>
-    <t>*=</t>
-  </si>
-  <si>
-    <t>-24</t>
-  </si>
-  <si>
-    <t>+</t>
-  </si>
-  <si>
-    <t>-69</t>
-  </si>
-  <si>
-    <t>**</t>
-  </si>
-  <si>
-    <t>7</t>
+    <t>//Oc</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>//ERROR</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>-17</t>
+  </si>
+  <si>
+    <t>true</t>
+  </si>
+  <si>
+    <t>//OC</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>11</t>
   </si>
   <si>
     <t>-54</t>
@@ -160,39 +181,27 @@
     <t>}</t>
   </si>
   <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>//Sin errores</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>//error en 1 y 3, vacio</t>
-  </si>
-  <si>
     <t>12</t>
   </si>
   <si>
-    <t>//Error en 2</t>
-  </si>
-  <si>
     <t>13</t>
   </si>
   <si>
-    <t>//Errores en los 3</t>
-  </si>
-  <si>
     <t>14</t>
   </si>
   <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
     <t>Token</t>
   </si>
   <si>
@@ -202,25 +211,28 @@
     <t>Tipo</t>
   </si>
   <si>
-    <t>1080</t>
-  </si>
-  <si>
-    <t>Debe de ser una asignacion</t>
+    <t>1090</t>
+  </si>
+  <si>
+    <t>No se puede asingnar a una Constante</t>
   </si>
   <si>
     <t>Semantica Etapa 2</t>
   </si>
   <si>
-    <t>1082</t>
-  </si>
-  <si>
-    <t>Debe de incrementar o decrementar el valor</t>
-  </si>
-  <si>
-    <t>1081</t>
-  </si>
-  <si>
-    <t>Debe de ser una condicion BOOL</t>
+    <t>No se puede asingnar a una Funcion</t>
+  </si>
+  <si>
+    <t>1020</t>
+  </si>
+  <si>
+    <t>No se puede igualar un: CHAR[] a INT</t>
+  </si>
+  <si>
+    <t>func=0</t>
+  </si>
+  <si>
+    <t>Semantica:Etapa 1</t>
   </si>
   <si>
     <t>Erroes</t>
@@ -280,33 +292,15 @@
     <t>Funciones</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>25</t>
-  </si>
-  <si>
-    <t>24</t>
-  </si>
-  <si>
-    <t>26</t>
-  </si>
-  <si>
     <t>Ambito</t>
   </si>
   <si>
-    <t>CHAR</t>
-  </si>
-  <si>
     <t>String (CHAR[])</t>
   </si>
   <si>
     <t>REAL</t>
   </si>
   <si>
-    <t>BOOL</t>
-  </si>
-  <si>
     <t>EXP</t>
   </si>
   <si>
@@ -361,7 +355,19 @@
     <t>Errores</t>
   </si>
   <si>
-    <t>a -&gt;  TE1</t>
+    <t xml:space="preserve">A -&gt; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">b -&gt; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">c -&gt; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">func -&gt; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">a -&gt; </t>
   </si>
   <si>
     <t>Regla</t>
@@ -382,13 +388,10 @@
     <t>Acept</t>
   </si>
   <si>
-    <t>=</t>
-  </si>
-  <si>
     <t>ERROR</t>
   </si>
   <si>
-    <t/>
+    <t>Const_entero</t>
   </si>
 </sst>
 </file>
@@ -433,7 +436,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C123"/>
+  <dimension ref="A1:C88"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -496,131 +499,131 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="C6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" t="s">
         <v>13</v>
-      </c>
-      <c r="C7" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B8" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="B9" t="s">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="C9" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="C10" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B11" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C11" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
         <v>20</v>
-      </c>
-      <c r="C12" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B13" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="C13" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="B14" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="B15" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="C15" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B16" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C16" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B17" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="C17" t="s">
         <v>28</v>
@@ -628,10 +631,10 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C18" t="s">
         <v>28</v>
@@ -639,10 +642,10 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="B19" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="C19" t="s">
         <v>28</v>
@@ -650,10 +653,10 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
+        <v>8</v>
+      </c>
+      <c r="B20" t="s">
         <v>29</v>
-      </c>
-      <c r="B20" t="s">
-        <v>30</v>
       </c>
       <c r="C20" t="s">
         <v>28</v>
@@ -661,10 +664,10 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
+        <v>30</v>
+      </c>
+      <c r="B21" t="s">
         <v>31</v>
-      </c>
-      <c r="B21" t="s">
-        <v>5</v>
       </c>
       <c r="C21" t="s">
         <v>28</v>
@@ -672,10 +675,10 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B22" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="C22" t="s">
         <v>28</v>
@@ -686,7 +689,7 @@
         <v>8</v>
       </c>
       <c r="B23" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="C23" t="s">
         <v>28</v>
@@ -694,10 +697,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B24" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C24" t="s">
         <v>28</v>
@@ -705,112 +708,112 @@
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="B25" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C25" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B26" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C26" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="B27" t="s">
+        <v>17</v>
+      </c>
+      <c r="C27" t="s">
         <v>35</v>
-      </c>
-      <c r="C27" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>8</v>
+        <v>36</v>
       </c>
       <c r="B28" t="s">
-        <v>9</v>
+        <v>37</v>
       </c>
       <c r="C28" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="B29" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="C29" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="B30" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="C30" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="B31" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="C31" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="B32" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C32" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B33" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C33" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="B34" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C34" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
     </row>
     <row r="35">
@@ -821,51 +824,51 @@
         <v>11</v>
       </c>
       <c r="C35" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>8</v>
+        <v>42</v>
       </c>
       <c r="B36" t="s">
-        <v>9</v>
+        <v>43</v>
       </c>
       <c r="C36" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="B37" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="C37" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="B38" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="C38" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B39" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C39" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
     </row>
     <row r="40">
@@ -876,172 +879,172 @@
         <v>11</v>
       </c>
       <c r="C40" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="B41" t="s">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="C41" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="B42" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="C42" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="B43" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="C43" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="B44" t="s">
-        <v>39</v>
+        <v>17</v>
       </c>
       <c r="C44" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="B45" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="C45" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B46" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C46" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>8</v>
+        <v>47</v>
       </c>
       <c r="B47" t="s">
-        <v>9</v>
+        <v>48</v>
       </c>
       <c r="C47" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="B48" t="s">
-        <v>41</v>
+        <v>11</v>
       </c>
       <c r="C48" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="B49" t="s">
-        <v>5</v>
+        <v>49</v>
       </c>
       <c r="C49" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B50" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="C50" t="s">
-        <v>37</v>
+        <v>50</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>42</v>
+        <v>14</v>
       </c>
       <c r="B51" t="s">
-        <v>43</v>
+        <v>15</v>
       </c>
       <c r="C51" t="s">
-        <v>37</v>
+        <v>50</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="B52" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="C52" t="s">
-        <v>37</v>
+        <v>50</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="B53" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="C53" t="s">
-        <v>37</v>
+        <v>50</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>10</v>
+        <v>42</v>
       </c>
       <c r="B54" t="s">
-        <v>11</v>
+        <v>45</v>
       </c>
       <c r="C54" t="s">
-        <v>37</v>
+        <v>50</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="B55" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C55" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
     </row>
     <row r="56">
@@ -1052,18 +1055,18 @@
         <v>15</v>
       </c>
       <c r="C56" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="B57" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="C57" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
     </row>
     <row r="58">
@@ -1074,18 +1077,18 @@
         <v>11</v>
       </c>
       <c r="C58" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>8</v>
+        <v>52</v>
       </c>
       <c r="B59" t="s">
-        <v>9</v>
+        <v>53</v>
       </c>
       <c r="C59" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
     </row>
     <row r="60">
@@ -1096,700 +1099,315 @@
         <v>11</v>
       </c>
       <c r="C60" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>8</v>
+        <v>36</v>
       </c>
       <c r="B61" t="s">
-        <v>9</v>
+        <v>37</v>
       </c>
       <c r="C61" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B62" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C62" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B63" t="s">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="C63" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>17</v>
+        <v>39</v>
       </c>
       <c r="B64" t="s">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="C64" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>45</v>
+        <v>8</v>
       </c>
       <c r="B65" t="s">
-        <v>46</v>
+        <v>9</v>
       </c>
       <c r="C65" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B66" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C66" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B67" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="C67" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B68" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C68" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>17</v>
+        <v>42</v>
       </c>
       <c r="B69" t="s">
-        <v>18</v>
+        <v>43</v>
       </c>
       <c r="C69" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="B70" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="C70" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="B71" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="C71" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B72" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C72" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B73" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C73" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="B74" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="C74" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="B75" t="s">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="C75" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="B76" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="C76" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="B77" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="C77" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="B78" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="C78" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="B79" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="C79" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>10</v>
+        <v>47</v>
       </c>
       <c r="B80" t="s">
-        <v>11</v>
+        <v>48</v>
       </c>
       <c r="C80" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>34</v>
+        <v>10</v>
       </c>
       <c r="B81" t="s">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="C81" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>8</v>
+        <v>42</v>
       </c>
       <c r="B82" t="s">
-        <v>9</v>
+        <v>49</v>
       </c>
       <c r="C82" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="B83" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="C83" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B84" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C84" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="B85" t="s">
-        <v>50</v>
+        <v>17</v>
       </c>
       <c r="C85" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="B86" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="C86" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>14</v>
+        <v>42</v>
       </c>
       <c r="B87" t="s">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="C87" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>8</v>
+        <v>52</v>
       </c>
       <c r="B88" t="s">
-        <v>9</v>
+        <v>53</v>
       </c>
       <c r="C88" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" t="s">
-        <v>10</v>
-      </c>
-      <c r="B89" t="s">
-        <v>11</v>
-      </c>
-      <c r="C89" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" t="s">
-        <v>10</v>
-      </c>
-      <c r="B90" t="s">
-        <v>11</v>
-      </c>
-      <c r="C90" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" t="s">
-        <v>8</v>
-      </c>
-      <c r="B91" t="s">
-        <v>9</v>
-      </c>
-      <c r="C91" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" t="s">
-        <v>32</v>
-      </c>
-      <c r="B92" t="s">
-        <v>33</v>
-      </c>
-      <c r="C92" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" t="s">
-        <v>31</v>
-      </c>
-      <c r="B93" t="s">
-        <v>5</v>
-      </c>
-      <c r="C93" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" t="s">
-        <v>17</v>
-      </c>
-      <c r="B94" t="s">
-        <v>18</v>
-      </c>
-      <c r="C94" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" t="s">
-        <v>10</v>
-      </c>
-      <c r="B95" t="s">
-        <v>11</v>
-      </c>
-      <c r="C95" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" t="s">
-        <v>23</v>
-      </c>
-      <c r="B96" t="s">
-        <v>52</v>
-      </c>
-      <c r="C96" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" t="s">
-        <v>26</v>
-      </c>
-      <c r="B97" t="s">
-        <v>27</v>
-      </c>
-      <c r="C97" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" t="s">
-        <v>14</v>
-      </c>
-      <c r="B98" t="s">
-        <v>15</v>
-      </c>
-      <c r="C98" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" t="s">
-        <v>8</v>
-      </c>
-      <c r="B99" t="s">
-        <v>9</v>
-      </c>
-      <c r="C99" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" t="s">
-        <v>38</v>
-      </c>
-      <c r="B100" t="s">
-        <v>39</v>
-      </c>
-      <c r="C100" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" t="s">
-        <v>31</v>
-      </c>
-      <c r="B101" t="s">
-        <v>12</v>
-      </c>
-      <c r="C101" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="102">
-      <c r="A102" t="s">
-        <v>10</v>
-      </c>
-      <c r="B102" t="s">
-        <v>11</v>
-      </c>
-      <c r="C102" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" t="s">
-        <v>8</v>
-      </c>
-      <c r="B103" t="s">
-        <v>9</v>
-      </c>
-      <c r="C103" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" t="s">
-        <v>40</v>
-      </c>
-      <c r="B104" t="s">
-        <v>41</v>
-      </c>
-      <c r="C104" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" t="s">
-        <v>31</v>
-      </c>
-      <c r="B105" t="s">
-        <v>5</v>
-      </c>
-      <c r="C105" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" t="s">
-        <v>10</v>
-      </c>
-      <c r="B106" t="s">
-        <v>11</v>
-      </c>
-      <c r="C106" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" t="s">
-        <v>42</v>
-      </c>
-      <c r="B107" t="s">
-        <v>43</v>
-      </c>
-      <c r="C107" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" t="s">
-        <v>8</v>
-      </c>
-      <c r="B108" t="s">
-        <v>9</v>
-      </c>
-      <c r="C108" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" t="s">
-        <v>17</v>
-      </c>
-      <c r="B109" t="s">
-        <v>18</v>
-      </c>
-      <c r="C109" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" t="s">
-        <v>10</v>
-      </c>
-      <c r="B110" t="s">
-        <v>11</v>
-      </c>
-      <c r="C110" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" t="s">
-        <v>23</v>
-      </c>
-      <c r="B111" t="s">
-        <v>54</v>
-      </c>
-      <c r="C111" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" t="s">
-        <v>26</v>
-      </c>
-      <c r="B112" t="s">
-        <v>27</v>
-      </c>
-      <c r="C112" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" t="s">
-        <v>14</v>
-      </c>
-      <c r="B113" t="s">
-        <v>15</v>
-      </c>
-      <c r="C113" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" t="s">
-        <v>8</v>
-      </c>
-      <c r="B114" t="s">
-        <v>9</v>
-      </c>
-      <c r="C114" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" t="s">
-        <v>10</v>
-      </c>
-      <c r="B115" t="s">
-        <v>11</v>
-      </c>
-      <c r="C115" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" t="s">
-        <v>8</v>
-      </c>
-      <c r="B116" t="s">
-        <v>9</v>
-      </c>
-      <c r="C116" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" t="s">
-        <v>10</v>
-      </c>
-      <c r="B117" t="s">
-        <v>11</v>
-      </c>
-      <c r="C117" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" t="s">
-        <v>8</v>
-      </c>
-      <c r="B118" t="s">
-        <v>9</v>
-      </c>
-      <c r="C118" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119" t="s">
-        <v>32</v>
-      </c>
-      <c r="B119" t="s">
-        <v>33</v>
-      </c>
-      <c r="C119" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" t="s">
-        <v>31</v>
-      </c>
-      <c r="B120" t="s">
-        <v>12</v>
-      </c>
-      <c r="C120" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121" t="s">
-        <v>17</v>
-      </c>
-      <c r="B121" t="s">
-        <v>18</v>
-      </c>
-      <c r="C121" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="122">
-      <c r="A122" t="s">
-        <v>23</v>
-      </c>
-      <c r="B122" t="s">
-        <v>56</v>
-      </c>
-      <c r="C122" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="123">
-      <c r="A123" t="s">
-        <v>45</v>
-      </c>
-      <c r="B123" t="s">
-        <v>46</v>
-      </c>
-      <c r="C123" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -1799,7 +1417,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1807,16 +1425,16 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="E1" t="s">
         <v>2</v>
@@ -1824,19 +1442,19 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B2" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D2" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="E2" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3">
@@ -1844,186 +1462,84 @@
         <v>64</v>
       </c>
       <c r="B3" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="D3" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="E3" t="s">
-        <v>36</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B4" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>70</v>
       </c>
       <c r="D4" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="E4" t="s">
-        <v>37</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B5" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D5" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>57</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B6" t="s">
         <v>67</v>
       </c>
       <c r="C6" t="s">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="D6" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="E6" t="s">
-        <v>44</v>
+        <v>59</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B7" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="C7" t="s">
-        <v>9</v>
+        <v>70</v>
       </c>
       <c r="D7" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="s">
-        <v>61</v>
-      </c>
-      <c r="B8" t="s">
-        <v>62</v>
-      </c>
-      <c r="C8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D8" t="s">
-        <v>63</v>
-      </c>
-      <c r="E8" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="s">
-        <v>64</v>
-      </c>
-      <c r="B9" t="s">
-        <v>65</v>
-      </c>
-      <c r="C9" t="s">
-        <v>9</v>
-      </c>
-      <c r="D9" t="s">
-        <v>63</v>
-      </c>
-      <c r="E9" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="s">
-        <v>66</v>
-      </c>
-      <c r="B10" t="s">
-        <v>67</v>
-      </c>
-      <c r="C10" t="s">
-        <v>9</v>
-      </c>
-      <c r="D10" t="s">
-        <v>63</v>
-      </c>
-      <c r="E10" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="s">
-        <v>61</v>
-      </c>
-      <c r="B11" t="s">
-        <v>62</v>
-      </c>
-      <c r="C11" t="s">
-        <v>9</v>
-      </c>
-      <c r="D11" t="s">
-        <v>63</v>
-      </c>
-      <c r="E11" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="s">
-        <v>66</v>
-      </c>
-      <c r="B12" t="s">
-        <v>67</v>
-      </c>
-      <c r="C12" t="s">
-        <v>9</v>
-      </c>
-      <c r="D12" t="s">
-        <v>63</v>
-      </c>
-      <c r="E12" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="s">
-        <v>64</v>
-      </c>
-      <c r="B13" t="s">
-        <v>65</v>
-      </c>
-      <c r="C13" t="s">
-        <v>9</v>
-      </c>
-      <c r="D13" t="s">
-        <v>63</v>
-      </c>
-      <c r="E13" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -2041,120 +1557,120 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="C1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="D1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="E1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="F1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="G1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="H1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="I1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="J1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="K1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="L1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="M1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="N1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="O1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="P1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="Q1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="R1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="S1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>87</v>
+        <v>13</v>
       </c>
       <c r="B2" t="s">
-        <v>88</v>
+        <v>57</v>
       </c>
       <c r="C2" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="D2" t="s">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="E2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="F2" t="s">
-        <v>87</v>
+        <v>17</v>
       </c>
       <c r="G2" t="s">
-        <v>87</v>
+        <v>17</v>
       </c>
       <c r="H2" t="s">
-        <v>87</v>
+        <v>17</v>
       </c>
       <c r="I2" t="s">
-        <v>87</v>
+        <v>17</v>
       </c>
       <c r="J2" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="K2" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="L2" t="s">
-        <v>87</v>
+        <v>17</v>
       </c>
       <c r="M2" t="s">
-        <v>37</v>
+        <v>17</v>
       </c>
       <c r="N2" t="s">
-        <v>87</v>
+        <v>17</v>
       </c>
       <c r="O2" t="s">
-        <v>89</v>
+        <v>54</v>
       </c>
       <c r="P2" t="s">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="Q2" t="s">
-        <v>28</v>
+        <v>51</v>
       </c>
       <c r="R2" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="S2" t="s">
-        <v>87</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -2175,37 +1691,37 @@
         <v>91</v>
       </c>
       <c r="B1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" t="s">
         <v>92</v>
-      </c>
-      <c r="C1" t="s">
-        <v>93</v>
       </c>
       <c r="D1" t="s">
         <v>4</v>
       </c>
       <c r="E1" t="s">
+        <v>93</v>
+      </c>
+      <c r="F1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1" t="s">
         <v>94</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>95</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>96</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>97</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>98</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>99</v>
-      </c>
-      <c r="K1" t="s">
-        <v>100</v>
-      </c>
-      <c r="L1" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="2">
@@ -2216,7 +1732,7 @@
         <v>0.0</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="D2" t="n">
         <v>2.0</v>
@@ -2225,7 +1741,7 @@
         <v>0.0</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G2" t="n">
         <v>0.0</v>
@@ -2243,7 +1759,7 @@
         <v>0.0</v>
       </c>
       <c r="L2" t="n">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="3">
@@ -2257,7 +1773,7 @@
         <v>0.0</v>
       </c>
       <c r="D3" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="E3" t="n">
         <v>0.0</v>
@@ -2281,27 +1797,27 @@
         <v>0.0</v>
       </c>
       <c r="L3" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B4" t="n">
         <v>0.0</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="D4" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="E4" t="n">
         <v>0.0</v>
       </c>
       <c r="F4" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G4" t="n">
         <v>0.0</v>
@@ -2319,7 +1835,7 @@
         <v>0.0</v>
       </c>
       <c r="L4" t="n">
-        <v>3.0</v>
+        <v>6.0</v>
       </c>
     </row>
   </sheetData>
@@ -2329,7 +1845,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:M5"/>
+  <dimension ref="A1:M10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2340,45 +1856,45 @@
         <v>2</v>
       </c>
       <c r="B1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C1" t="s">
+        <v>102</v>
+      </c>
+      <c r="D1" t="s">
         <v>103</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>104</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>105</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>106</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
+        <v>104</v>
+      </c>
+      <c r="I1" t="s">
         <v>107</v>
       </c>
-      <c r="G1" t="s">
+      <c r="J1" t="s">
         <v>108</v>
       </c>
-      <c r="H1" t="s">
-        <v>106</v>
-      </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>109</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>110</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
         <v>111</v>
-      </c>
-      <c r="L1" t="s">
-        <v>112</v>
-      </c>
-      <c r="M1" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>4.0</v>
+        <v>7.0</v>
       </c>
       <c r="B2" t="n">
         <v>0.0</v>
@@ -2387,7 +1903,7 @@
         <v>0.0</v>
       </c>
       <c r="D2" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="E2" t="n">
         <v>0.0</v>
@@ -2411,7 +1927,7 @@
         <v>0.0</v>
       </c>
       <c r="L2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="M2" t="n">
         <v>0.0</v>
@@ -2419,7 +1935,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>6.0</v>
+        <v>8.0</v>
       </c>
       <c r="B3" t="n">
         <v>0.0</v>
@@ -2428,7 +1944,7 @@
         <v>0.0</v>
       </c>
       <c r="D3" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="E3" t="n">
         <v>0.0</v>
@@ -2452,7 +1968,7 @@
         <v>0.0</v>
       </c>
       <c r="L3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="M3" t="n">
         <v>0.0</v>
@@ -2460,7 +1976,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>10.0</v>
+        <v>9.0</v>
       </c>
       <c r="B4" t="n">
         <v>0.0</v>
@@ -2469,7 +1985,7 @@
         <v>0.0</v>
       </c>
       <c r="D4" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="E4" t="n">
         <v>0.0</v>
@@ -2501,7 +2017,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>12.0</v>
+        <v>10.0</v>
       </c>
       <c r="B5" t="n">
         <v>0.0</v>
@@ -2510,34 +2026,239 @@
         <v>0.0</v>
       </c>
       <c r="D5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L5" t="s">
+        <v>115</v>
+      </c>
+      <c r="M5" t="n">
         <v>1.0</v>
       </c>
-      <c r="E5" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="L5" t="s">
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="B6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L6" t="s">
+        <v>112</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="B7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L7" t="s">
+        <v>116</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="B8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L8" t="s">
+        <v>113</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="B9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L9" t="s">
         <v>114</v>
       </c>
-      <c r="M5" t="n">
-        <v>0.0</v>
+      <c r="M9" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="B10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L10" t="s">
+        <v>115</v>
+      </c>
+      <c r="M10" t="n">
+        <v>1.0</v>
       </c>
     </row>
   </sheetData>
@@ -2547,7 +2268,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F29"/>
+  <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2555,19 +2276,19 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B1" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C1" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="D1" t="s">
         <v>2</v>
       </c>
       <c r="E1" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="F1" t="s">
         <v>91</v>
@@ -2575,19 +2296,19 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1021.0</v>
+        <v>1090.0</v>
       </c>
       <c r="B2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="D2" t="n">
-        <v>4.0</v>
+        <v>7.0</v>
       </c>
       <c r="E2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="F2" t="n">
         <v>1.0</v>
@@ -2595,19 +2316,19 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1080.0</v>
+        <v>1020.0</v>
       </c>
       <c r="B3" t="s">
         <v>121</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="D3" t="n">
-        <v>4.0</v>
+        <v>7.0</v>
       </c>
       <c r="E3" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="F3" t="n">
         <v>1.0</v>
@@ -2615,19 +2336,19 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1081.0</v>
+        <v>1090.0</v>
       </c>
       <c r="B4" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D4" t="n">
-        <v>4.0</v>
+        <v>8.0</v>
       </c>
       <c r="E4" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="F4" t="n">
         <v>1.0</v>
@@ -2635,19 +2356,19 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1082.0</v>
+        <v>1020.0</v>
       </c>
       <c r="B5" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D5" t="n">
-        <v>4.0</v>
+        <v>8.0</v>
       </c>
       <c r="E5" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="F5" t="n">
         <v>1.0</v>
@@ -2655,16 +2376,16 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1080.0</v>
+        <v>1030.0</v>
       </c>
       <c r="B6" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C6" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D6" t="n">
-        <v>5.0</v>
+        <v>9.0</v>
       </c>
       <c r="E6" t="s">
         <v>122</v>
@@ -2675,19 +2396,19 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>1083.0</v>
+        <v>1040.0</v>
       </c>
       <c r="B7" t="s">
-        <v>11</v>
+        <v>124</v>
       </c>
       <c r="C7" t="s">
-        <v>123</v>
+        <v>17</v>
       </c>
       <c r="D7" t="n">
-        <v>5.0</v>
+        <v>9.0</v>
       </c>
       <c r="E7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="F7" t="n">
         <v>1.0</v>
@@ -2695,16 +2416,16 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>1082.0</v>
+        <v>1050.0</v>
       </c>
       <c r="B8" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="C8" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D8" t="n">
-        <v>5.0</v>
+        <v>9.0</v>
       </c>
       <c r="E8" t="s">
         <v>122</v>
@@ -2715,19 +2436,19 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>1022.0</v>
+        <v>1090.0</v>
       </c>
       <c r="B9" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C9" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D9" t="n">
-        <v>6.0</v>
+        <v>9.0</v>
       </c>
       <c r="E9" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="F9" t="n">
         <v>1.0</v>
@@ -2735,19 +2456,19 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>1080.0</v>
+        <v>1020.0</v>
       </c>
       <c r="B10" t="s">
         <v>121</v>
       </c>
       <c r="C10" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D10" t="n">
-        <v>6.0</v>
+        <v>9.0</v>
       </c>
       <c r="E10" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="F10" t="n">
         <v>1.0</v>
@@ -2755,19 +2476,19 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>1081.0</v>
+        <v>1090.0</v>
       </c>
       <c r="B11" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C11" t="s">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="D11" t="n">
-        <v>6.0</v>
+        <v>10.0</v>
       </c>
       <c r="E11" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F11" t="n">
         <v>1.0</v>
@@ -2775,19 +2496,19 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>1082.0</v>
+        <v>1020.0</v>
       </c>
       <c r="B12" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C12" t="s">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="D12" t="n">
-        <v>6.0</v>
+        <v>10.0</v>
       </c>
       <c r="E12" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="F12" t="n">
         <v>1.0</v>
@@ -2795,16 +2516,16 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>1080.0</v>
+        <v>1090.0</v>
       </c>
       <c r="B13" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C13" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="D13" t="n">
-        <v>7.0</v>
+        <v>11.0</v>
       </c>
       <c r="E13" t="s">
         <v>122</v>
@@ -2815,16 +2536,16 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>1081.0</v>
+        <v>1020.0</v>
       </c>
       <c r="B14" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C14" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="D14" t="n">
-        <v>7.0</v>
+        <v>11.0</v>
       </c>
       <c r="E14" t="s">
         <v>122</v>
@@ -2835,39 +2556,39 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>1082.0</v>
+        <v>1090.0</v>
       </c>
       <c r="B15" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C15" t="s">
         <v>9</v>
       </c>
       <c r="D15" t="n">
-        <v>7.0</v>
+        <v>14.0</v>
       </c>
       <c r="E15" t="s">
         <v>122</v>
       </c>
       <c r="F15" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>1021.0</v>
+        <v>1020.0</v>
       </c>
       <c r="B16" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C16" t="s">
         <v>9</v>
       </c>
       <c r="D16" t="n">
-        <v>10.0</v>
+        <v>14.0</v>
       </c>
       <c r="E16" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="F16" t="n">
         <v>0.0</v>
@@ -2875,19 +2596,19 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>1080.0</v>
+        <v>1090.0</v>
       </c>
       <c r="B17" t="s">
         <v>121</v>
       </c>
       <c r="C17" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D17" t="n">
-        <v>10.0</v>
+        <v>15.0</v>
       </c>
       <c r="E17" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="F17" t="n">
         <v>0.0</v>
@@ -2895,19 +2616,19 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>1081.0</v>
+        <v>1020.0</v>
       </c>
       <c r="B18" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C18" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D18" t="n">
-        <v>10.0</v>
+        <v>15.0</v>
       </c>
       <c r="E18" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="F18" t="n">
         <v>0.0</v>
@@ -2915,19 +2636,19 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>1082.0</v>
+        <v>1030.0</v>
       </c>
       <c r="B19" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C19" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D19" t="n">
-        <v>10.0</v>
+        <v>16.0</v>
       </c>
       <c r="E19" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="F19" t="n">
         <v>0.0</v>
@@ -2935,16 +2656,16 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>1080.0</v>
+        <v>1040.0</v>
       </c>
       <c r="B20" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="C20" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D20" t="n">
-        <v>11.0</v>
+        <v>16.0</v>
       </c>
       <c r="E20" t="s">
         <v>122</v>
@@ -2955,19 +2676,19 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>1083.0</v>
+        <v>1050.0</v>
       </c>
       <c r="B21" t="s">
-        <v>11</v>
+        <v>124</v>
       </c>
       <c r="C21" t="s">
-        <v>123</v>
+        <v>17</v>
       </c>
       <c r="D21" t="n">
-        <v>11.0</v>
+        <v>16.0</v>
       </c>
       <c r="E21" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="F21" t="n">
         <v>0.0</v>
@@ -2975,16 +2696,16 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>1082.0</v>
+        <v>1090.0</v>
       </c>
       <c r="B22" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C22" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D22" t="n">
-        <v>11.0</v>
+        <v>16.0</v>
       </c>
       <c r="E22" t="s">
         <v>122</v>
@@ -2995,19 +2716,19 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>1022.0</v>
+        <v>1020.0</v>
       </c>
       <c r="B23" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C23" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D23" t="n">
-        <v>12.0</v>
+        <v>16.0</v>
       </c>
       <c r="E23" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="F23" t="n">
         <v>0.0</v>
@@ -3015,19 +2736,19 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>1080.0</v>
+        <v>1090.0</v>
       </c>
       <c r="B24" t="s">
         <v>121</v>
       </c>
       <c r="C24" t="s">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="D24" t="n">
-        <v>12.0</v>
+        <v>17.0</v>
       </c>
       <c r="E24" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="F24" t="n">
         <v>0.0</v>
@@ -3035,101 +2756,21 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>1081.0</v>
+        <v>1020.0</v>
       </c>
       <c r="B25" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C25" t="s">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="D25" t="n">
-        <v>12.0</v>
+        <v>17.0</v>
       </c>
       <c r="E25" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F25" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="n">
-        <v>1082.0</v>
-      </c>
-      <c r="B26" t="s">
-        <v>119</v>
-      </c>
-      <c r="C26" t="s">
-        <v>9</v>
-      </c>
-      <c r="D26" t="n">
-        <v>12.0</v>
-      </c>
-      <c r="E26" t="s">
-        <v>120</v>
-      </c>
-      <c r="F26" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="n">
-        <v>1080.0</v>
-      </c>
-      <c r="B27" t="s">
-        <v>119</v>
-      </c>
-      <c r="C27" t="s">
-        <v>9</v>
-      </c>
-      <c r="D27" t="n">
-        <v>13.0</v>
-      </c>
-      <c r="E27" t="s">
-        <v>122</v>
-      </c>
-      <c r="F27" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="n">
-        <v>1081.0</v>
-      </c>
-      <c r="B28" t="s">
-        <v>119</v>
-      </c>
-      <c r="C28" t="s">
-        <v>9</v>
-      </c>
-      <c r="D28" t="n">
-        <v>13.0</v>
-      </c>
-      <c r="E28" t="s">
-        <v>122</v>
-      </c>
-      <c r="F28" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="n">
-        <v>1082.0</v>
-      </c>
-      <c r="B29" t="s">
-        <v>119</v>
-      </c>
-      <c r="C29" t="s">
-        <v>9</v>
-      </c>
-      <c r="D29" t="n">
-        <v>13.0</v>
-      </c>
-      <c r="E29" t="s">
-        <v>122</v>
-      </c>
-      <c r="F29" t="n">
         <v>0.0</v>
       </c>
     </row>

--- a/src/Excel/Yañez_Gonzalez_Christian_Emmanuel.xlsx
+++ b/src/Excel/Yañez_Gonzalez_Christian_Emmanuel.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="450" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="590" uniqueCount="125">
   <si>
     <t>Estado</t>
   </si>
@@ -37,6 +37,21 @@
     <t>1</t>
   </si>
   <si>
+    <t>-51</t>
+  </si>
+  <si>
+    <t>[</t>
+  </si>
+  <si>
+    <t>-19</t>
+  </si>
+  <si>
+    <t>-52</t>
+  </si>
+  <si>
+    <t>]</t>
+  </si>
+  <si>
     <t>-68</t>
   </si>
   <si>
@@ -55,10 +70,115 @@
     <t>;</t>
   </si>
   <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>func</t>
+  </si>
+  <si>
+    <t>-49</t>
+  </si>
+  <si>
+    <t>(</t>
+  </si>
+  <si>
+    <t>-47</t>
+  </si>
+  <si>
+    <t>,</t>
+  </si>
+  <si>
     <t>b</t>
   </si>
   <si>
-    <t>2</t>
+    <t>c</t>
+  </si>
+  <si>
+    <t>-50</t>
+  </si>
+  <si>
+    <t>)</t>
+  </si>
+  <si>
+    <t>-61</t>
+  </si>
+  <si>
+    <t>main</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>-53</t>
+  </si>
+  <si>
+    <t>{</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>-54</t>
+  </si>
+  <si>
+    <t>}</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>-63</t>
+  </si>
+  <si>
+    <t>BOOL</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>func2</t>
+  </si>
+  <si>
+    <t>d</t>
+  </si>
+  <si>
+    <t>e</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>-66</t>
+  </si>
+  <si>
+    <t>VOID</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>func3</t>
+  </si>
+  <si>
+    <t>u</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>13</t>
   </si>
   <si>
     <t>-55</t>
@@ -67,234 +187,129 @@
     <t>=</t>
   </si>
   <si>
-    <t>-19</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>-63</t>
-  </si>
-  <si>
-    <t>BOOL</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>-51</t>
-  </si>
-  <si>
-    <t>[</t>
-  </si>
-  <si>
-    <t>-52</t>
-  </si>
-  <si>
-    <t>]</t>
-  </si>
-  <si>
-    <t>c</t>
-  </si>
-  <si>
-    <t>-98</t>
+    <t>14</t>
+  </si>
+  <si>
+    <t>f</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>Token</t>
+  </si>
+  <si>
+    <t>Descripción</t>
+  </si>
+  <si>
+    <t>Tipo</t>
+  </si>
+  <si>
+    <t>1030</t>
+  </si>
+  <si>
+    <t>Dimension fuera del rango</t>
+  </si>
+  <si>
+    <t>[ ... ]</t>
+  </si>
+  <si>
+    <t>Semantica 2</t>
+  </si>
+  <si>
+    <t>706</t>
+  </si>
+  <si>
+    <t>No esta declarada la variable</t>
+  </si>
+  <si>
+    <t>Ambito</t>
+  </si>
+  <si>
+    <t>1100</t>
+  </si>
+  <si>
+    <t>El parametro: 6 esta fuera de rango</t>
+  </si>
+  <si>
+    <t>Semantica Etapa 2</t>
+  </si>
+  <si>
+    <t>Erroes</t>
+  </si>
+  <si>
+    <t>Identificadores</t>
+  </si>
+  <si>
+    <t>Comentarios</t>
+  </si>
+  <si>
+    <t>Palabras reservadas</t>
+  </si>
+  <si>
+    <t>C-Enteras</t>
+  </si>
+  <si>
+    <t>C-Texto</t>
+  </si>
+  <si>
+    <t>C-Decimal</t>
+  </si>
+  <si>
+    <t>C-Carácter</t>
+  </si>
+  <si>
+    <t>C-Exponencial</t>
+  </si>
+  <si>
+    <t>Aritmeticos</t>
+  </si>
+  <si>
+    <t>Monogamo</t>
+  </si>
+  <si>
+    <t>Logico</t>
+  </si>
+  <si>
+    <t>Relacionales</t>
+  </si>
+  <si>
+    <t>Bit</t>
+  </si>
+  <si>
+    <t>Puntuación</t>
+  </si>
+  <si>
+    <t>Agrupación</t>
+  </si>
+  <si>
+    <t>Asignación</t>
+  </si>
+  <si>
+    <t>Sintaxis</t>
+  </si>
+  <si>
+    <t>Funciones</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>44</t>
   </si>
   <si>
     <t>CHAR</t>
   </si>
   <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>func</t>
-  </si>
-  <si>
-    <t>-49</t>
-  </si>
-  <si>
-    <t>(</t>
-  </si>
-  <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>-50</t>
-  </si>
-  <si>
-    <t>)</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>-61</t>
-  </si>
-  <si>
-    <t>main</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>-53</t>
-  </si>
-  <si>
-    <t>{</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>-2</t>
-  </si>
-  <si>
-    <t>//Oc</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>//ERROR</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>-17</t>
-  </si>
-  <si>
-    <t>true</t>
-  </si>
-  <si>
-    <t>//OC</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>-54</t>
-  </si>
-  <si>
-    <t>}</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>14</t>
-  </si>
-  <si>
-    <t>15</t>
-  </si>
-  <si>
-    <t>16</t>
-  </si>
-  <si>
-    <t>17</t>
-  </si>
-  <si>
-    <t>18</t>
-  </si>
-  <si>
-    <t>Token</t>
-  </si>
-  <si>
-    <t>Descripción</t>
-  </si>
-  <si>
-    <t>Tipo</t>
-  </si>
-  <si>
-    <t>1090</t>
-  </si>
-  <si>
-    <t>No se puede asingnar a una Constante</t>
-  </si>
-  <si>
-    <t>Semantica Etapa 2</t>
-  </si>
-  <si>
-    <t>No se puede asingnar a una Funcion</t>
-  </si>
-  <si>
-    <t>1020</t>
-  </si>
-  <si>
-    <t>No se puede igualar un: CHAR[] a INT</t>
-  </si>
-  <si>
-    <t>func=0</t>
-  </si>
-  <si>
-    <t>Semantica:Etapa 1</t>
-  </si>
-  <si>
-    <t>Erroes</t>
-  </si>
-  <si>
-    <t>Identificadores</t>
-  </si>
-  <si>
-    <t>Comentarios</t>
-  </si>
-  <si>
-    <t>Palabras reservadas</t>
-  </si>
-  <si>
-    <t>C-Enteras</t>
-  </si>
-  <si>
-    <t>C-Texto</t>
-  </si>
-  <si>
-    <t>C-Decimal</t>
-  </si>
-  <si>
-    <t>C-Carácter</t>
-  </si>
-  <si>
-    <t>C-Exponencial</t>
-  </si>
-  <si>
-    <t>Aritmeticos</t>
-  </si>
-  <si>
-    <t>Monogamo</t>
-  </si>
-  <si>
-    <t>Logico</t>
-  </si>
-  <si>
-    <t>Relacionales</t>
-  </si>
-  <si>
-    <t>Bit</t>
-  </si>
-  <si>
-    <t>Puntuación</t>
-  </si>
-  <si>
-    <t>Agrupación</t>
-  </si>
-  <si>
-    <t>Asignación</t>
-  </si>
-  <si>
-    <t>Sintaxis</t>
-  </si>
-  <si>
-    <t>Funciones</t>
-  </si>
-  <si>
-    <t>Ambito</t>
-  </si>
-  <si>
     <t>String (CHAR[])</t>
   </si>
   <si>
@@ -307,9 +322,6 @@
     <t>REG</t>
   </si>
   <si>
-    <t>VOID</t>
-  </si>
-  <si>
     <t>FILE</t>
   </si>
   <si>
@@ -353,18 +365,6 @@
   </si>
   <si>
     <t>Errores</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A -&gt; </t>
-  </si>
-  <si>
-    <t xml:space="preserve">b -&gt; </t>
-  </si>
-  <si>
-    <t xml:space="preserve">c -&gt; </t>
-  </si>
-  <si>
-    <t xml:space="preserve">func -&gt; </t>
   </si>
   <si>
     <t xml:space="preserve">a -&gt; </t>
@@ -436,7 +436,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C88"/>
+  <dimension ref="A1:C132"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -480,7 +480,7 @@
         <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C4" t="s">
         <v>5</v>
@@ -488,10 +488,10 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" t="s">
         <v>10</v>
-      </c>
-      <c r="B5" t="s">
-        <v>11</v>
       </c>
       <c r="C5" t="s">
         <v>5</v>
@@ -499,211 +499,211 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B6" t="s">
         <v>12</v>
       </c>
       <c r="C6" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" t="s">
         <v>14</v>
       </c>
-      <c r="B7" t="s">
-        <v>15</v>
-      </c>
       <c r="C7" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" t="s">
         <v>16</v>
       </c>
-      <c r="B8" t="s">
-        <v>17</v>
-      </c>
       <c r="C8" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="B9" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="C9" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C10" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B11" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="C11" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="C12" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C13" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C14" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="C15" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B16" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="C16" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="B17" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C17" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="B18" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="C18" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B19" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="C19" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="B20" t="s">
+        <v>20</v>
+      </c>
+      <c r="C20" t="s">
         <v>29</v>
-      </c>
-      <c r="C20" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B21" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="C21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="B22" t="s">
-        <v>4</v>
+        <v>31</v>
       </c>
       <c r="C22" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B23" t="s">
+        <v>18</v>
+      </c>
+      <c r="C23" t="s">
         <v>32</v>
-      </c>
-      <c r="C23" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="B24" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="C24" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
     </row>
     <row r="25">
@@ -711,186 +711,186 @@
         <v>8</v>
       </c>
       <c r="B25" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C25" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="B26" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="C26" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="B27" t="s">
         <v>17</v>
       </c>
       <c r="C27" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="B28" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="C28" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="B29" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="C29" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>33</v>
+        <v>6</v>
       </c>
       <c r="B30" t="s">
-        <v>34</v>
+        <v>7</v>
       </c>
       <c r="C30" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>39</v>
+        <v>8</v>
       </c>
       <c r="B31" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="C31" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B32" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C32" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="B33" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="C33" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
+        <v>15</v>
+      </c>
+      <c r="B34" t="s">
         <v>16</v>
       </c>
-      <c r="B34" t="s">
-        <v>13</v>
-      </c>
       <c r="C34" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="C35" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="B36" t="s">
-        <v>43</v>
+        <v>16</v>
       </c>
       <c r="C36" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="B37" t="s">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="C37" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B38" t="s">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="C38" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B39" t="s">
         <v>20</v>
       </c>
       <c r="C39" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B40" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="C40" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>42</v>
+        <v>6</v>
       </c>
       <c r="B41" t="s">
-        <v>45</v>
+        <v>7</v>
       </c>
       <c r="C41" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
     </row>
     <row r="42">
@@ -898,516 +898,1000 @@
         <v>8</v>
       </c>
       <c r="B42" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="C42" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="B43" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="C43" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B44" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C44" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="B45" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="C45" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="B46" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="C46" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="B47" t="s">
-        <v>48</v>
+        <v>23</v>
       </c>
       <c r="C47" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="B48" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="C48" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="B49" t="s">
-        <v>49</v>
+        <v>24</v>
       </c>
       <c r="C49" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="B50" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="C50" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B51" t="s">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="C51" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="B52" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C52" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B53" t="s">
-        <v>11</v>
+        <v>42</v>
       </c>
       <c r="C53" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="B54" t="s">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="C54" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="B55" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C55" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B56" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C56" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="B57" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="C57" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="B58" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="C58" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>52</v>
+        <v>13</v>
       </c>
       <c r="B59" t="s">
-        <v>53</v>
+        <v>18</v>
       </c>
       <c r="C59" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="B60" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="C60" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>36</v>
+        <v>8</v>
       </c>
       <c r="B61" t="s">
-        <v>37</v>
+        <v>5</v>
       </c>
       <c r="C61" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="B62" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="C62" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="B63" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="C63" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="B64" t="s">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="C64" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B65" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C65" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B66" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="C66" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="B67" t="s">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="C67" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
+        <v>9</v>
+      </c>
+      <c r="B68" t="s">
         <v>10</v>
       </c>
-      <c r="B68" t="s">
-        <v>11</v>
-      </c>
       <c r="C68" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="B69" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="C69" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="B70" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C70" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="B71" t="s">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="C71" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
+        <v>15</v>
+      </c>
+      <c r="B72" t="s">
         <v>16</v>
       </c>
-      <c r="B72" t="s">
-        <v>20</v>
-      </c>
       <c r="C72" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>10</v>
+        <v>46</v>
       </c>
       <c r="B73" t="s">
-        <v>11</v>
+        <v>47</v>
       </c>
       <c r="C73" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="B74" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="C74" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="B75" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C75" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="B76" t="s">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="C76" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B77" t="s">
-        <v>17</v>
+        <v>50</v>
       </c>
       <c r="C77" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B78" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C78" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="B79" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="C79" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>47</v>
+        <v>19</v>
       </c>
       <c r="B80" t="s">
+        <v>20</v>
+      </c>
+      <c r="C80" t="s">
         <v>48</v>
-      </c>
-      <c r="C80" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="B81" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="C81" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="B82" t="s">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="C82" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>8</v>
+        <v>34</v>
       </c>
       <c r="B83" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="C83" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B84" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C84" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="B85" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="C85" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="B86" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="C86" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="B87" t="s">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="C87" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s">
+        <v>30</v>
+      </c>
+      <c r="B88" t="s">
+        <v>31</v>
+      </c>
+      <c r="C88" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="s">
+        <v>13</v>
+      </c>
+      <c r="B89" t="s">
+        <v>18</v>
+      </c>
+      <c r="C89" t="s">
         <v>52</v>
       </c>
-      <c r="B88" t="s">
+    </row>
+    <row r="90">
+      <c r="A90" t="s">
+        <v>19</v>
+      </c>
+      <c r="B90" t="s">
+        <v>20</v>
+      </c>
+      <c r="C90" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="s">
+        <v>8</v>
+      </c>
+      <c r="B91" t="s">
+        <v>5</v>
+      </c>
+      <c r="C91" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="s">
+        <v>21</v>
+      </c>
+      <c r="B92" t="s">
+        <v>22</v>
+      </c>
+      <c r="C92" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="s">
+        <v>8</v>
+      </c>
+      <c r="B93" t="s">
+        <v>17</v>
+      </c>
+      <c r="C93" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="s">
+        <v>21</v>
+      </c>
+      <c r="B94" t="s">
+        <v>22</v>
+      </c>
+      <c r="C94" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="s">
+        <v>13</v>
+      </c>
+      <c r="B95" t="s">
+        <v>14</v>
+      </c>
+      <c r="C95" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="s">
+        <v>6</v>
+      </c>
+      <c r="B96" t="s">
+        <v>7</v>
+      </c>
+      <c r="C96" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="s">
+        <v>8</v>
+      </c>
+      <c r="B97" t="s">
+        <v>33</v>
+      </c>
+      <c r="C97" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="s">
+        <v>9</v>
+      </c>
+      <c r="B98" t="s">
+        <v>10</v>
+      </c>
+      <c r="C98" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="s">
+        <v>25</v>
+      </c>
+      <c r="B99" t="s">
+        <v>26</v>
+      </c>
+      <c r="C99" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="s">
+        <v>15</v>
+      </c>
+      <c r="B100" t="s">
+        <v>16</v>
+      </c>
+      <c r="C100" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="s">
+        <v>13</v>
+      </c>
+      <c r="B101" t="s">
+        <v>14</v>
+      </c>
+      <c r="C101" t="s">
         <v>53</v>
       </c>
-      <c r="C88" t="s">
-        <v>60</v>
+    </row>
+    <row r="102">
+      <c r="A102" t="s">
+        <v>54</v>
+      </c>
+      <c r="B102" t="s">
+        <v>55</v>
+      </c>
+      <c r="C102" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="s">
+        <v>13</v>
+      </c>
+      <c r="B103" t="s">
+        <v>18</v>
+      </c>
+      <c r="C103" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="s">
+        <v>19</v>
+      </c>
+      <c r="B104" t="s">
+        <v>20</v>
+      </c>
+      <c r="C104" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="s">
+        <v>8</v>
+      </c>
+      <c r="B105" t="s">
+        <v>5</v>
+      </c>
+      <c r="C105" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="s">
+        <v>21</v>
+      </c>
+      <c r="B106" t="s">
+        <v>22</v>
+      </c>
+      <c r="C106" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="s">
+        <v>8</v>
+      </c>
+      <c r="B107" t="s">
+        <v>17</v>
+      </c>
+      <c r="C107" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="s">
+        <v>21</v>
+      </c>
+      <c r="B108" t="s">
+        <v>22</v>
+      </c>
+      <c r="C108" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="s">
+        <v>8</v>
+      </c>
+      <c r="B109" t="s">
+        <v>29</v>
+      </c>
+      <c r="C109" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="s">
+        <v>25</v>
+      </c>
+      <c r="B110" t="s">
+        <v>26</v>
+      </c>
+      <c r="C110" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="s">
+        <v>15</v>
+      </c>
+      <c r="B111" t="s">
+        <v>16</v>
+      </c>
+      <c r="C111" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="s">
+        <v>13</v>
+      </c>
+      <c r="B112" t="s">
+        <v>40</v>
+      </c>
+      <c r="C112" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="s">
+        <v>19</v>
+      </c>
+      <c r="B113" t="s">
+        <v>20</v>
+      </c>
+      <c r="C113" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="s">
+        <v>8</v>
+      </c>
+      <c r="B114" t="s">
+        <v>5</v>
+      </c>
+      <c r="C114" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="s">
+        <v>21</v>
+      </c>
+      <c r="B115" t="s">
+        <v>22</v>
+      </c>
+      <c r="C115" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="s">
+        <v>8</v>
+      </c>
+      <c r="B116" t="s">
+        <v>17</v>
+      </c>
+      <c r="C116" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="s">
+        <v>21</v>
+      </c>
+      <c r="B117" t="s">
+        <v>22</v>
+      </c>
+      <c r="C117" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="s">
+        <v>8</v>
+      </c>
+      <c r="B118" t="s">
+        <v>29</v>
+      </c>
+      <c r="C118" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="s">
+        <v>21</v>
+      </c>
+      <c r="B119" t="s">
+        <v>22</v>
+      </c>
+      <c r="C119" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="s">
+        <v>13</v>
+      </c>
+      <c r="B120" t="s">
+        <v>41</v>
+      </c>
+      <c r="C120" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="s">
+        <v>21</v>
+      </c>
+      <c r="B121" t="s">
+        <v>22</v>
+      </c>
+      <c r="C121" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="s">
+        <v>13</v>
+      </c>
+      <c r="B122" t="s">
+        <v>42</v>
+      </c>
+      <c r="C122" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="s">
+        <v>21</v>
+      </c>
+      <c r="B123" t="s">
+        <v>22</v>
+      </c>
+      <c r="C123" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="s">
+        <v>13</v>
+      </c>
+      <c r="B124" t="s">
+        <v>57</v>
+      </c>
+      <c r="C124" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="s">
+        <v>25</v>
+      </c>
+      <c r="B125" t="s">
+        <v>26</v>
+      </c>
+      <c r="C125" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="s">
+        <v>15</v>
+      </c>
+      <c r="B126" t="s">
+        <v>16</v>
+      </c>
+      <c r="C126" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="s">
+        <v>13</v>
+      </c>
+      <c r="B127" t="s">
+        <v>49</v>
+      </c>
+      <c r="C127" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="s">
+        <v>19</v>
+      </c>
+      <c r="B128" t="s">
+        <v>20</v>
+      </c>
+      <c r="C128" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="s">
+        <v>8</v>
+      </c>
+      <c r="B129" t="s">
+        <v>5</v>
+      </c>
+      <c r="C129" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="s">
+        <v>25</v>
+      </c>
+      <c r="B130" t="s">
+        <v>26</v>
+      </c>
+      <c r="C130" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="s">
+        <v>15</v>
+      </c>
+      <c r="B131" t="s">
+        <v>16</v>
+      </c>
+      <c r="C131" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="s">
+        <v>34</v>
+      </c>
+      <c r="B132" t="s">
+        <v>35</v>
+      </c>
+      <c r="C132" t="s">
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -1417,7 +1901,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1425,16 +1909,16 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B1" t="s">
         <v>61</v>
-      </c>
-      <c r="B1" t="s">
-        <v>62</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E1" t="s">
         <v>2</v>
@@ -1442,104 +1926,87 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B2" t="s">
         <v>64</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>65</v>
-      </c>
-      <c r="C2" t="s">
-        <v>12</v>
       </c>
       <c r="D2" t="s">
         <v>66</v>
       </c>
       <c r="E2" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B3" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C3" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="D3" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="E3" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
+        <v>67</v>
+      </c>
+      <c r="B4" t="s">
         <v>68</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D4" t="s">
         <v>69</v>
       </c>
-      <c r="C4" t="s">
-        <v>70</v>
-      </c>
-      <c r="D4" t="s">
-        <v>71</v>
-      </c>
       <c r="E4" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B5" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C5" t="s">
-        <v>12</v>
+        <v>57</v>
       </c>
       <c r="D5" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="E5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="B6" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="C6" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="D6" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="E6" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s">
-        <v>68</v>
-      </c>
-      <c r="B7" t="s">
-        <v>69</v>
-      </c>
-      <c r="C7" t="s">
-        <v>70</v>
-      </c>
-      <c r="D7" t="s">
-        <v>71</v>
-      </c>
-      <c r="E7" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -1557,120 +2024,120 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="J1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="M1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="N1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="O1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="P1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="Q1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="R1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="S1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="B2" t="s">
-        <v>57</v>
+        <v>92</v>
       </c>
       <c r="C2" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="D2" t="s">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="E2" t="s">
-        <v>55</v>
+        <v>93</v>
       </c>
       <c r="F2" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="G2" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="H2" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="I2" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="J2" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="K2" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="L2" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="M2" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="N2" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="O2" t="s">
-        <v>54</v>
+        <v>94</v>
       </c>
       <c r="P2" t="s">
-        <v>60</v>
+        <v>95</v>
       </c>
       <c r="Q2" t="s">
-        <v>51</v>
+        <v>5</v>
       </c>
       <c r="R2" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="S2" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -1680,7 +2147,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:L4"/>
+  <dimension ref="A1:L6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1688,40 +2155,40 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>91</v>
+        <v>69</v>
       </c>
       <c r="B1" t="s">
-        <v>27</v>
+        <v>96</v>
       </c>
       <c r="C1" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="D1" t="s">
         <v>4</v>
       </c>
       <c r="E1" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="F1" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="G1" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="H1" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="I1" t="s">
-        <v>96</v>
+        <v>47</v>
       </c>
       <c r="J1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="K1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="L1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
     </row>
     <row r="2">
@@ -1732,7 +2199,7 @@
         <v>0.0</v>
       </c>
       <c r="C2" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="D2" t="n">
         <v>2.0</v>
@@ -1750,7 +2217,7 @@
         <v>0.0</v>
       </c>
       <c r="I2" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="J2" t="n">
         <v>0.0</v>
@@ -1773,69 +2240,145 @@
         <v>0.0</v>
       </c>
       <c r="D3" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
         <v>2.0</v>
       </c>
-      <c r="E3" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="L3" t="n">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s">
-        <v>100</v>
-      </c>
       <c r="B4" t="n">
         <v>0.0</v>
       </c>
       <c r="C4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D4" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="B5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D5" t="n">
         <v>1.0</v>
       </c>
-      <c r="D4" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="F4" t="n">
+      <c r="E5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="L5" t="n">
         <v>1.0</v>
       </c>
-      <c r="G4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="L4" t="n">
-        <v>6.0</v>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>104</v>
+      </c>
+      <c r="B6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D6" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I6" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>13.0</v>
       </c>
     </row>
   </sheetData>
@@ -1845,7 +2388,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:M10"/>
+  <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1856,45 +2399,45 @@
         <v>2</v>
       </c>
       <c r="B1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="C1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="D1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="E1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="F1" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="G1" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="H1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="I1" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="J1" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="K1" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="L1" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="M1" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>7.0</v>
+        <v>13.0</v>
       </c>
       <c r="B2" t="n">
         <v>0.0</v>
@@ -1927,338 +2470,10 @@
         <v>0.0</v>
       </c>
       <c r="L2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="M2" t="n">
         <v>0.0</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>8.0</v>
-      </c>
-      <c r="B3" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="L3" t="s">
-        <v>113</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>9.0</v>
-      </c>
-      <c r="B4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="L4" t="s">
-        <v>114</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>10.0</v>
-      </c>
-      <c r="B5" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="L5" t="s">
-        <v>115</v>
-      </c>
-      <c r="M5" t="n">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>11.0</v>
-      </c>
-      <c r="B6" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="C6" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="L6" t="s">
-        <v>112</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>14.0</v>
-      </c>
-      <c r="B7" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="C7" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="E7" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="L7" t="s">
-        <v>116</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>15.0</v>
-      </c>
-      <c r="B8" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="F8" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="L8" t="s">
-        <v>113</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>16.0</v>
-      </c>
-      <c r="B9" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D9" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="E9" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="F9" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="G9" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="L9" t="s">
-        <v>114</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>17.0</v>
-      </c>
-      <c r="B10" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D10" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="E10" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="F10" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="G10" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="L10" t="s">
-        <v>115</v>
-      </c>
-      <c r="M10" t="n">
-        <v>1.0</v>
       </c>
     </row>
   </sheetData>
@@ -2268,7 +2483,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F25"/>
+  <dimension ref="A1:F32"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2291,21 +2506,21 @@
         <v>120</v>
       </c>
       <c r="F1" t="s">
-        <v>91</v>
+        <v>69</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1090.0</v>
+        <v>1100.0</v>
       </c>
       <c r="B2" t="s">
         <v>121</v>
       </c>
       <c r="C2" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="D2" t="n">
-        <v>7.0</v>
+        <v>4.0</v>
       </c>
       <c r="E2" t="s">
         <v>122</v>
@@ -2316,16 +2531,16 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1020.0</v>
+        <v>1100.0</v>
       </c>
       <c r="B3" t="s">
         <v>121</v>
       </c>
       <c r="C3" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="D3" t="n">
-        <v>7.0</v>
+        <v>4.0</v>
       </c>
       <c r="E3" t="s">
         <v>122</v>
@@ -2336,19 +2551,19 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1090.0</v>
+        <v>1100.0</v>
       </c>
       <c r="B4" t="s">
         <v>121</v>
       </c>
       <c r="C4" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D4" t="n">
-        <v>8.0</v>
+        <v>4.0</v>
       </c>
       <c r="E4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F4" t="n">
         <v>1.0</v>
@@ -2356,16 +2571,16 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1020.0</v>
+        <v>1100.0</v>
       </c>
       <c r="B5" t="s">
         <v>121</v>
       </c>
       <c r="C5" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D5" t="n">
-        <v>8.0</v>
+        <v>4.0</v>
       </c>
       <c r="E5" t="s">
         <v>122</v>
@@ -2382,13 +2597,13 @@
         <v>121</v>
       </c>
       <c r="C6" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="D6" t="n">
-        <v>9.0</v>
+        <v>4.0</v>
       </c>
       <c r="E6" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F6" t="n">
         <v>1.0</v>
@@ -2396,176 +2611,176 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>1040.0</v>
+        <v>1100.0</v>
       </c>
       <c r="B7" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D7" t="n">
-        <v>9.0</v>
+        <v>8.0</v>
       </c>
       <c r="E7" t="s">
         <v>122</v>
       </c>
       <c r="F7" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>1050.0</v>
+        <v>1100.0</v>
       </c>
       <c r="B8" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C8" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D8" t="n">
-        <v>9.0</v>
+        <v>8.0</v>
       </c>
       <c r="E8" t="s">
         <v>122</v>
       </c>
       <c r="F8" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>1090.0</v>
+        <v>1100.0</v>
       </c>
       <c r="B9" t="s">
         <v>121</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="D9" t="n">
-        <v>9.0</v>
+        <v>8.0</v>
       </c>
       <c r="E9" t="s">
         <v>122</v>
       </c>
       <c r="F9" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>1020.0</v>
+        <v>1100.0</v>
       </c>
       <c r="B10" t="s">
         <v>121</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="D10" t="n">
-        <v>9.0</v>
+        <v>8.0</v>
       </c>
       <c r="E10" t="s">
         <v>122</v>
       </c>
       <c r="F10" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>1090.0</v>
+        <v>1030.0</v>
       </c>
       <c r="B11" t="s">
         <v>121</v>
       </c>
       <c r="C11" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="D11" t="n">
-        <v>10.0</v>
+        <v>8.0</v>
       </c>
       <c r="E11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F11" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>1020.0</v>
+        <v>1040.0</v>
       </c>
       <c r="B12" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="C12" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="D12" t="n">
-        <v>10.0</v>
+        <v>8.0</v>
       </c>
       <c r="E12" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F12" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>1090.0</v>
+        <v>1050.0</v>
       </c>
       <c r="B13" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="C13" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D13" t="n">
-        <v>11.0</v>
+        <v>8.0</v>
       </c>
       <c r="E13" t="s">
         <v>122</v>
       </c>
       <c r="F13" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>1020.0</v>
+        <v>1100.0</v>
       </c>
       <c r="B14" t="s">
         <v>121</v>
       </c>
       <c r="C14" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="D14" t="n">
-        <v>11.0</v>
+        <v>12.0</v>
       </c>
       <c r="E14" t="s">
         <v>122</v>
       </c>
       <c r="F14" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>1090.0</v>
+        <v>1100.0</v>
       </c>
       <c r="B15" t="s">
         <v>121</v>
       </c>
       <c r="C15" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D15" t="n">
-        <v>14.0</v>
+        <v>12.0</v>
       </c>
       <c r="E15" t="s">
         <v>122</v>
@@ -2576,16 +2791,16 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>1020.0</v>
+        <v>1100.0</v>
       </c>
       <c r="B16" t="s">
         <v>121</v>
       </c>
       <c r="C16" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D16" t="n">
-        <v>14.0</v>
+        <v>12.0</v>
       </c>
       <c r="E16" t="s">
         <v>122</v>
@@ -2596,19 +2811,19 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>1090.0</v>
+        <v>1100.0</v>
       </c>
       <c r="B17" t="s">
         <v>121</v>
       </c>
       <c r="C17" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D17" t="n">
-        <v>15.0</v>
+        <v>12.0</v>
       </c>
       <c r="E17" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F17" t="n">
         <v>0.0</v>
@@ -2616,16 +2831,16 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>1020.0</v>
+        <v>1030.0</v>
       </c>
       <c r="B18" t="s">
         <v>121</v>
       </c>
       <c r="C18" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D18" t="n">
-        <v>15.0</v>
+        <v>12.0</v>
       </c>
       <c r="E18" t="s">
         <v>122</v>
@@ -2636,16 +2851,16 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>1030.0</v>
+        <v>1040.0</v>
       </c>
       <c r="B19" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="C19" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="D19" t="n">
-        <v>16.0</v>
+        <v>12.0</v>
       </c>
       <c r="E19" t="s">
         <v>122</v>
@@ -2656,16 +2871,16 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>1040.0</v>
+        <v>1050.0</v>
       </c>
       <c r="B20" t="s">
         <v>124</v>
       </c>
       <c r="C20" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="D20" t="n">
-        <v>16.0</v>
+        <v>12.0</v>
       </c>
       <c r="E20" t="s">
         <v>122</v>
@@ -2676,16 +2891,16 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>1050.0</v>
+        <v>1100.0</v>
       </c>
       <c r="B21" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C21" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D21" t="n">
-        <v>16.0</v>
+        <v>13.0</v>
       </c>
       <c r="E21" t="s">
         <v>122</v>
@@ -2696,16 +2911,16 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>1090.0</v>
+        <v>1100.0</v>
       </c>
       <c r="B22" t="s">
         <v>121</v>
       </c>
       <c r="C22" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="D22" t="n">
-        <v>16.0</v>
+        <v>13.0</v>
       </c>
       <c r="E22" t="s">
         <v>122</v>
@@ -2716,16 +2931,16 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>1020.0</v>
+        <v>1100.0</v>
       </c>
       <c r="B23" t="s">
         <v>121</v>
       </c>
       <c r="C23" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="D23" t="n">
-        <v>16.0</v>
+        <v>13.0</v>
       </c>
       <c r="E23" t="s">
         <v>122</v>
@@ -2742,13 +2957,13 @@
         <v>121</v>
       </c>
       <c r="C24" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="D24" t="n">
-        <v>17.0</v>
+        <v>13.0</v>
       </c>
       <c r="E24" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F24" t="n">
         <v>0.0</v>
@@ -2762,15 +2977,155 @@
         <v>121</v>
       </c>
       <c r="C25" t="s">
-        <v>29</v>
+        <v>5</v>
       </c>
       <c r="D25" t="n">
-        <v>17.0</v>
+        <v>13.0</v>
       </c>
       <c r="E25" t="s">
+        <v>122</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>1100.0</v>
+      </c>
+      <c r="B26" t="s">
+        <v>121</v>
+      </c>
+      <c r="C26" t="s">
+        <v>40</v>
+      </c>
+      <c r="D26" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="E26" t="s">
+        <v>122</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>1100.0</v>
+      </c>
+      <c r="B27" t="s">
+        <v>121</v>
+      </c>
+      <c r="C27" t="s">
+        <v>40</v>
+      </c>
+      <c r="D27" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="E27" t="s">
+        <v>122</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>1100.0</v>
+      </c>
+      <c r="B28" t="s">
+        <v>121</v>
+      </c>
+      <c r="C28" t="s">
+        <v>40</v>
+      </c>
+      <c r="D28" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="E28" t="s">
+        <v>122</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>1100.0</v>
+      </c>
+      <c r="B29" t="s">
+        <v>121</v>
+      </c>
+      <c r="C29" t="s">
+        <v>40</v>
+      </c>
+      <c r="D29" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="E29" t="s">
+        <v>122</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>1100.0</v>
+      </c>
+      <c r="B30" t="s">
+        <v>121</v>
+      </c>
+      <c r="C30" t="s">
+        <v>40</v>
+      </c>
+      <c r="D30" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="E30" t="s">
+        <v>122</v>
+      </c>
+      <c r="F30" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>1100.0</v>
+      </c>
+      <c r="B31" t="s">
+        <v>121</v>
+      </c>
+      <c r="C31" t="s">
+        <v>40</v>
+      </c>
+      <c r="D31" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="E31" t="s">
         <v>123</v>
       </c>
-      <c r="F25" t="n">
+      <c r="F31" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>1100.0</v>
+      </c>
+      <c r="B32" t="s">
+        <v>121</v>
+      </c>
+      <c r="C32" t="s">
+        <v>49</v>
+      </c>
+      <c r="D32" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="E32" t="s">
+        <v>122</v>
+      </c>
+      <c r="F32" t="n">
         <v>0.0</v>
       </c>
     </row>

--- a/src/Excel/Yañez_Gonzalez_Christian_Emmanuel.xlsx
+++ b/src/Excel/Yañez_Gonzalez_Christian_Emmanuel.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="91">
   <si>
     <t>Estado</t>
   </si>
@@ -61,159 +61,147 @@
     <t>}</t>
   </si>
   <si>
+    <t>-65</t>
+  </si>
+  <si>
+    <t>REG</t>
+  </si>
+  <si>
     <t>2</t>
   </si>
   <si>
+    <t>-68</t>
+  </si>
+  <si>
+    <t>:</t>
+  </si>
+  <si>
+    <t>r</t>
+  </si>
+  <si>
+    <t>-46</t>
+  </si>
+  <si>
+    <t>;</t>
+  </si>
+  <si>
+    <t>-61</t>
+  </si>
+  <si>
+    <t>main</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>-49</t>
+  </si>
+  <si>
+    <t>(</t>
+  </si>
+  <si>
+    <t>-50</t>
+  </si>
+  <si>
+    <t>)</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>-48</t>
+  </si>
+  <si>
+    <t>.</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
     <t>b</t>
   </si>
   <si>
-    <t>-65</t>
-  </si>
-  <si>
-    <t>REG</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>-68</t>
-  </si>
-  <si>
-    <t>:</t>
-  </si>
-  <si>
-    <t>r</t>
-  </si>
-  <si>
-    <t>-46</t>
-  </si>
-  <si>
-    <t>;</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>r2</t>
-  </si>
-  <si>
-    <t>-61</t>
-  </si>
-  <si>
-    <t>main</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>-49</t>
-  </si>
-  <si>
-    <t>(</t>
-  </si>
-  <si>
-    <t>-50</t>
-  </si>
-  <si>
-    <t>)</t>
-  </si>
-  <si>
     <t>6</t>
   </si>
   <si>
-    <t>-55</t>
-  </si>
-  <si>
-    <t>=</t>
-  </si>
-  <si>
-    <t>-19</t>
+    <t>Token</t>
+  </si>
+  <si>
+    <t>Descripción</t>
+  </si>
+  <si>
+    <t>Tipo</t>
+  </si>
+  <si>
+    <t>1190</t>
+  </si>
+  <si>
+    <t>No esta declarado el item</t>
+  </si>
+  <si>
+    <t>Semantica 2</t>
+  </si>
+  <si>
+    <t>Erroes</t>
+  </si>
+  <si>
+    <t>Identificadores</t>
+  </si>
+  <si>
+    <t>Comentarios</t>
+  </si>
+  <si>
+    <t>Palabras reservadas</t>
+  </si>
+  <si>
+    <t>C-Enteras</t>
+  </si>
+  <si>
+    <t>C-Texto</t>
+  </si>
+  <si>
+    <t>C-Decimal</t>
+  </si>
+  <si>
+    <t>C-Carácter</t>
+  </si>
+  <si>
+    <t>C-Exponencial</t>
+  </si>
+  <si>
+    <t>Aritmeticos</t>
+  </si>
+  <si>
+    <t>Monogamo</t>
+  </si>
+  <si>
+    <t>Logico</t>
+  </si>
+  <si>
+    <t>Relacionales</t>
+  </si>
+  <si>
+    <t>Bit</t>
+  </si>
+  <si>
+    <t>Puntuación</t>
+  </si>
+  <si>
+    <t>Agrupación</t>
+  </si>
+  <si>
+    <t>Asignación</t>
+  </si>
+  <si>
+    <t>Sintaxis</t>
+  </si>
+  <si>
+    <t>Funciones</t>
   </si>
   <si>
     <t>0</t>
   </si>
   <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>Token</t>
-  </si>
-  <si>
-    <t>Descripción</t>
-  </si>
-  <si>
-    <t>Tipo</t>
-  </si>
-  <si>
-    <t>1170</t>
-  </si>
-  <si>
-    <t>Este valor solo puede ser asginado a un elemento</t>
-  </si>
-  <si>
-    <t>Semantica 2</t>
-  </si>
-  <si>
-    <t>Erroes</t>
-  </si>
-  <si>
-    <t>Identificadores</t>
-  </si>
-  <si>
-    <t>Comentarios</t>
-  </si>
-  <si>
-    <t>Palabras reservadas</t>
-  </si>
-  <si>
-    <t>C-Enteras</t>
-  </si>
-  <si>
-    <t>C-Texto</t>
-  </si>
-  <si>
-    <t>C-Decimal</t>
-  </si>
-  <si>
-    <t>C-Carácter</t>
-  </si>
-  <si>
-    <t>C-Exponencial</t>
-  </si>
-  <si>
-    <t>Aritmeticos</t>
-  </si>
-  <si>
-    <t>Monogamo</t>
-  </si>
-  <si>
-    <t>Logico</t>
-  </si>
-  <si>
-    <t>Relacionales</t>
-  </si>
-  <si>
-    <t>Bit</t>
-  </si>
-  <si>
-    <t>Puntuación</t>
-  </si>
-  <si>
-    <t>Agrupación</t>
-  </si>
-  <si>
-    <t>Asignación</t>
-  </si>
-  <si>
-    <t>Sintaxis</t>
-  </si>
-  <si>
-    <t>Funciones</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
     <t>8</t>
   </si>
   <si>
@@ -283,9 +271,6 @@
     <t>Errores</t>
   </si>
   <si>
-    <t xml:space="preserve">r -&gt; </t>
-  </si>
-  <si>
     <t>Regla</t>
   </si>
   <si>
@@ -302,9 +287,6 @@
   </si>
   <si>
     <t>Acept</t>
-  </si>
-  <si>
-    <t>Cont_entero</t>
   </si>
   <si>
     <t>ERROR</t>
@@ -352,7 +334,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C32"/>
+  <dimension ref="A1:C25"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -437,13 +419,13 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="B8" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="C8" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9">
@@ -451,87 +433,87 @@
         <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="C9" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="B10" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="C10" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B11" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="C11" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="B12" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C12" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C13" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="B14" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="C14" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="B15" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="C15" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="B16" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="C16" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="17">
@@ -539,175 +521,98 @@
         <v>6</v>
       </c>
       <c r="B17" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C17" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="B18" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="C18" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="B19" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="C19" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="B20" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C20" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
+        <v>6</v>
+      </c>
+      <c r="B21" t="s">
         <v>19</v>
       </c>
-      <c r="B21" t="s">
-        <v>20</v>
-      </c>
       <c r="C21" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="B22" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="C22" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="B23" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="C23" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="B24" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="C24" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="B25" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="C25" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="s">
-        <v>31</v>
-      </c>
-      <c r="B26" t="s">
-        <v>32</v>
-      </c>
-      <c r="C26" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="s">
-        <v>8</v>
-      </c>
-      <c r="B27" t="s">
-        <v>9</v>
-      </c>
-      <c r="C27" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="s">
-        <v>6</v>
-      </c>
-      <c r="B28" t="s">
-        <v>21</v>
-      </c>
-      <c r="C28" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="s">
         <v>34</v>
-      </c>
-      <c r="B29" t="s">
-        <v>35</v>
-      </c>
-      <c r="C29" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="s">
-        <v>36</v>
-      </c>
-      <c r="B30" t="s">
-        <v>37</v>
-      </c>
-      <c r="C30" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="s">
-        <v>22</v>
-      </c>
-      <c r="B31" t="s">
-        <v>23</v>
-      </c>
-      <c r="C31" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="s">
-        <v>12</v>
-      </c>
-      <c r="B32" t="s">
-        <v>13</v>
-      </c>
-      <c r="C32" t="s">
-        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -725,16 +630,16 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B1" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="E1" t="s">
         <v>2</v>
@@ -742,19 +647,19 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B2" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C2" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="D2" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="E2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -772,120 +677,120 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E1" t="s">
         <v>45</v>
       </c>
-      <c r="B1" t="s">
+      <c r="F1" t="s">
         <v>46</v>
       </c>
-      <c r="C1" t="s">
+      <c r="G1" t="s">
         <v>47</v>
       </c>
-      <c r="D1" t="s">
+      <c r="H1" t="s">
         <v>48</v>
       </c>
-      <c r="E1" t="s">
+      <c r="I1" t="s">
         <v>49</v>
       </c>
-      <c r="F1" t="s">
+      <c r="J1" t="s">
         <v>50</v>
       </c>
-      <c r="G1" t="s">
+      <c r="K1" t="s">
         <v>51</v>
       </c>
-      <c r="H1" t="s">
+      <c r="L1" t="s">
         <v>52</v>
       </c>
-      <c r="I1" t="s">
+      <c r="M1" t="s">
         <v>53</v>
       </c>
-      <c r="J1" t="s">
+      <c r="N1" t="s">
         <v>54</v>
       </c>
-      <c r="K1" t="s">
+      <c r="O1" t="s">
         <v>55</v>
       </c>
-      <c r="L1" t="s">
+      <c r="P1" t="s">
         <v>56</v>
       </c>
-      <c r="M1" t="s">
+      <c r="Q1" t="s">
         <v>57</v>
       </c>
-      <c r="N1" t="s">
+      <c r="R1" t="s">
         <v>58</v>
       </c>
-      <c r="O1" t="s">
+      <c r="S1" t="s">
         <v>59</v>
-      </c>
-      <c r="P1" t="s">
-        <v>60</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>61</v>
-      </c>
-      <c r="R1" t="s">
-        <v>62</v>
-      </c>
-      <c r="S1" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>37</v>
+        <v>60</v>
       </c>
       <c r="B2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C2" t="s">
-        <v>37</v>
+        <v>60</v>
       </c>
       <c r="D2" t="s">
-        <v>37</v>
+        <v>60</v>
       </c>
       <c r="E2" t="s">
-        <v>5</v>
+        <v>60</v>
       </c>
       <c r="F2" t="s">
-        <v>37</v>
+        <v>60</v>
       </c>
       <c r="G2" t="s">
-        <v>37</v>
+        <v>60</v>
       </c>
       <c r="H2" t="s">
-        <v>37</v>
+        <v>60</v>
       </c>
       <c r="I2" t="s">
-        <v>37</v>
+        <v>60</v>
       </c>
       <c r="J2" t="s">
-        <v>37</v>
+        <v>60</v>
       </c>
       <c r="K2" t="s">
-        <v>37</v>
+        <v>60</v>
       </c>
       <c r="L2" t="s">
-        <v>37</v>
+        <v>60</v>
       </c>
       <c r="M2" t="s">
-        <v>37</v>
+        <v>60</v>
       </c>
       <c r="N2" t="s">
-        <v>37</v>
+        <v>60</v>
       </c>
       <c r="O2" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="P2" t="s">
-        <v>65</v>
+        <v>34</v>
       </c>
       <c r="Q2" t="s">
-        <v>5</v>
+        <v>60</v>
       </c>
       <c r="R2" t="s">
-        <v>64</v>
+        <v>32</v>
       </c>
       <c r="S2" t="s">
-        <v>37</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -895,7 +800,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:L5"/>
+  <dimension ref="A1:L4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -903,40 +808,40 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B1" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C1" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="D1" t="s">
         <v>11</v>
       </c>
       <c r="E1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F1" t="s">
+        <v>66</v>
+      </c>
+      <c r="G1" t="s">
+        <v>67</v>
+      </c>
+      <c r="H1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I1" t="s">
+        <v>68</v>
+      </c>
+      <c r="J1" t="s">
         <v>69</v>
       </c>
-      <c r="F1" t="s">
+      <c r="K1" t="s">
         <v>70</v>
       </c>
-      <c r="G1" t="s">
+      <c r="L1" t="s">
         <v>71</v>
-      </c>
-      <c r="H1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I1" t="s">
-        <v>72</v>
-      </c>
-      <c r="J1" t="s">
-        <v>73</v>
-      </c>
-      <c r="K1" t="s">
-        <v>74</v>
-      </c>
-      <c r="L1" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="2">
@@ -962,7 +867,7 @@
         <v>0.0</v>
       </c>
       <c r="H2" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="I2" t="n">
         <v>0.0</v>
@@ -974,7 +879,7 @@
         <v>0.0</v>
       </c>
       <c r="L2" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="3">
@@ -1016,8 +921,8 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="n">
-        <v>2.0</v>
+      <c r="A4" t="s">
+        <v>72</v>
       </c>
       <c r="B4" t="n">
         <v>0.0</v>
@@ -1038,7 +943,7 @@
         <v>0.0</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="I4" t="n">
         <v>0.0</v>
@@ -1050,45 +955,7 @@
         <v>0.0</v>
       </c>
       <c r="L4" t="n">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s">
-        <v>76</v>
-      </c>
-      <c r="B5" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D5" t="n">
         <v>2.0</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="H5" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>4.0</v>
       </c>
     </row>
   </sheetData>
@@ -1098,7 +965,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:M2"/>
+  <dimension ref="A1:M1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1109,81 +976,40 @@
         <v>2</v>
       </c>
       <c r="B1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D1" t="s">
+        <v>75</v>
+      </c>
+      <c r="E1" t="s">
+        <v>76</v>
+      </c>
+      <c r="F1" t="s">
         <v>77</v>
       </c>
-      <c r="C1" t="s">
+      <c r="G1" t="s">
         <v>78</v>
       </c>
-      <c r="D1" t="s">
+      <c r="H1" t="s">
+        <v>76</v>
+      </c>
+      <c r="I1" t="s">
         <v>79</v>
       </c>
-      <c r="E1" t="s">
+      <c r="J1" t="s">
         <v>80</v>
       </c>
-      <c r="F1" t="s">
+      <c r="K1" t="s">
         <v>81</v>
       </c>
-      <c r="G1" t="s">
+      <c r="L1" t="s">
         <v>82</v>
       </c>
-      <c r="H1" t="s">
-        <v>80</v>
-      </c>
-      <c r="I1" t="s">
+      <c r="M1" t="s">
         <v>83</v>
-      </c>
-      <c r="J1" t="s">
-        <v>84</v>
-      </c>
-      <c r="K1" t="s">
-        <v>85</v>
-      </c>
-      <c r="L1" t="s">
-        <v>86</v>
-      </c>
-      <c r="M1" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>6.0</v>
-      </c>
-      <c r="B2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="L2" t="s">
-        <v>88</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0.0</v>
       </c>
     </row>
   </sheetData>
@@ -1193,7 +1019,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1201,22 +1027,22 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="B1" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="C1" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="D1" t="s">
         <v>2</v>
       </c>
       <c r="E1" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="F1" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
     <row r="2">
@@ -1224,16 +1050,16 @@
         <v>1130.0</v>
       </c>
       <c r="B2" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="C2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D2" t="n">
-        <v>6.0</v>
+        <v>4.0</v>
       </c>
       <c r="E2" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="F2" t="n">
         <v>0.0</v>
@@ -1241,21 +1067,61 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1170.0</v>
+        <v>1190.0</v>
       </c>
       <c r="B3" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="C3" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="D3" t="n">
-        <v>6.0</v>
+        <v>4.0</v>
       </c>
       <c r="E3" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="F3" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>1130.0</v>
+      </c>
+      <c r="B4" t="s">
+        <v>88</v>
+      </c>
+      <c r="C4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="E4" t="s">
+        <v>89</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>1190.0</v>
+      </c>
+      <c r="B5" t="s">
+        <v>88</v>
+      </c>
+      <c r="C5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D5" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="E5" t="s">
+        <v>90</v>
+      </c>
+      <c r="F5" t="n">
         <v>0.0</v>
       </c>
     </row>

--- a/src/Excel/Yañez_Gonzalez_Christian_Emmanuel.xlsx
+++ b/src/Excel/Yañez_Gonzalez_Christian_Emmanuel.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="95">
   <si>
     <t>Estado</t>
   </si>
@@ -115,6 +115,15 @@
     <t>.</t>
   </si>
   <si>
+    <t>-55</t>
+  </si>
+  <si>
+    <t>=</t>
+  </si>
+  <si>
+    <t>-19</t>
+  </si>
+  <si>
     <t>5</t>
   </si>
   <si>
@@ -269,6 +278,9 @@
   </si>
   <si>
     <t>Errores</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a -&gt; </t>
   </si>
   <si>
     <t>Regla</t>
@@ -334,7 +346,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C25"/>
+  <dimension ref="A1:C27"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -551,10 +563,10 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="B20" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="C20" t="s">
         <v>29</v>
@@ -562,24 +574,24 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="B21" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="C21" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="C22" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="23">
@@ -587,32 +599,54 @@
         <v>6</v>
       </c>
       <c r="B23" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="C23" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="B24" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="C24" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
+        <v>6</v>
+      </c>
+      <c r="B25" t="s">
+        <v>36</v>
+      </c>
+      <c r="C25" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>20</v>
+      </c>
+      <c r="B26" t="s">
+        <v>21</v>
+      </c>
+      <c r="C26" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
         <v>12</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B27" t="s">
         <v>13</v>
       </c>
-      <c r="C25" t="s">
-        <v>34</v>
+      <c r="C27" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -630,16 +664,16 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="E1" t="s">
         <v>2</v>
@@ -647,19 +681,19 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B2" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C2" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="D2" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="E2" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -677,120 +711,120 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="D1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="E1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="F1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="G1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="H1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="I1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="J1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="K1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="L1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="M1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="N1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="O1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="P1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="Q1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="R1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="S1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B2" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="C2" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="D2" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="E2" t="s">
-        <v>60</v>
+        <v>5</v>
       </c>
       <c r="F2" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="G2" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="H2" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="I2" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="J2" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="K2" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="L2" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="M2" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="N2" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="O2" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="P2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="Q2" t="s">
-        <v>60</v>
+        <v>5</v>
       </c>
       <c r="R2" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="S2" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -808,40 +842,40 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="C1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="D1" t="s">
         <v>11</v>
       </c>
       <c r="E1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="F1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="G1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="H1" t="s">
         <v>15</v>
       </c>
       <c r="I1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="J1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="K1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="L1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
     </row>
     <row r="2">
@@ -922,7 +956,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B4" t="n">
         <v>0.0</v>
@@ -965,7 +999,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:M1"/>
+  <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -976,40 +1010,81 @@
         <v>2</v>
       </c>
       <c r="B1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="D1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="E1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="F1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="G1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="H1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="I1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="J1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="K1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="L1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="M1" t="s">
-        <v>83</v>
+        <v>86</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L2" t="s">
+        <v>87</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0.0</v>
       </c>
     </row>
   </sheetData>
@@ -1019,7 +1094,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1027,22 +1102,22 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="C1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="D1" t="s">
         <v>2</v>
       </c>
       <c r="E1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="F1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
     </row>
     <row r="2">
@@ -1050,7 +1125,7 @@
         <v>1130.0</v>
       </c>
       <c r="B2" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="C2" t="s">
         <v>19</v>
@@ -1059,7 +1134,7 @@
         <v>4.0</v>
       </c>
       <c r="E2" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="F2" t="n">
         <v>0.0</v>
@@ -1070,7 +1145,7 @@
         <v>1190.0</v>
       </c>
       <c r="B3" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="C3" t="s">
         <v>7</v>
@@ -1079,7 +1154,7 @@
         <v>4.0</v>
       </c>
       <c r="E3" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="F3" t="n">
         <v>0.0</v>
@@ -1087,19 +1162,19 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1130.0</v>
+        <v>1170.0</v>
       </c>
       <c r="B4" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="C4" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="D4" t="n">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
       <c r="E4" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="F4" t="n">
         <v>0.0</v>
@@ -1107,21 +1182,61 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
+        <v>1020.0</v>
+      </c>
+      <c r="B5" t="s">
+        <v>92</v>
+      </c>
+      <c r="C5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="E5" t="s">
+        <v>93</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>1130.0</v>
+      </c>
+      <c r="B6" t="s">
+        <v>92</v>
+      </c>
+      <c r="C6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="E6" t="s">
+        <v>93</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
         <v>1190.0</v>
       </c>
-      <c r="B5" t="s">
-        <v>88</v>
-      </c>
-      <c r="C5" t="s">
-        <v>33</v>
-      </c>
-      <c r="D5" t="n">
+      <c r="B7" t="s">
+        <v>92</v>
+      </c>
+      <c r="C7" t="s">
+        <v>36</v>
+      </c>
+      <c r="D7" t="n">
         <v>5.0</v>
       </c>
-      <c r="E5" t="s">
-        <v>90</v>
-      </c>
-      <c r="F5" t="n">
+      <c r="E7" t="s">
+        <v>94</v>
+      </c>
+      <c r="F7" t="n">
         <v>0.0</v>
       </c>
     </row>

--- a/src/Excel/Yañez_Gonzalez_Christian_Emmanuel.xlsx
+++ b/src/Excel/Yañez_Gonzalez_Christian_Emmanuel.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406" uniqueCount="127">
   <si>
     <t>Estado</t>
   </si>
@@ -28,19 +28,79 @@
     <t>Linea</t>
   </si>
   <si>
+    <t>-97</t>
+  </si>
+  <si>
+    <t>INT</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>-68</t>
+  </si>
+  <si>
+    <t>:</t>
+  </si>
+  <si>
+    <t>-1</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>-46</t>
+  </si>
+  <si>
+    <t>;</t>
+  </si>
+  <si>
+    <t>-62</t>
+  </si>
+  <si>
+    <t>REAL</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>r</t>
+  </si>
+  <si>
+    <t>-64</t>
+  </si>
+  <si>
+    <t>EXP</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>e</t>
+  </si>
+  <si>
+    <t>-63</t>
+  </si>
+  <si>
+    <t>BOOL</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
     <t>-60</t>
   </si>
   <si>
     <t>reg</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>-1</t>
-  </si>
-  <si>
-    <t>a</t>
+    <t>5</t>
+  </si>
+  <si>
+    <t>r1</t>
   </si>
   <si>
     <t>-53</t>
@@ -49,10 +109,7 @@
     <t>{</t>
   </si>
   <si>
-    <t>-97</t>
-  </si>
-  <si>
-    <t>INT</t>
+    <t>X</t>
   </si>
   <si>
     <t>-54</t>
@@ -67,22 +124,10 @@
     <t>REG</t>
   </si>
   <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>-68</t>
-  </si>
-  <si>
-    <t>:</t>
-  </si>
-  <si>
-    <t>r</t>
-  </si>
-  <si>
-    <t>-46</t>
-  </si>
-  <si>
-    <t>;</t>
+    <t>6</t>
+  </si>
+  <si>
+    <t>z</t>
   </si>
   <si>
     <t>-61</t>
@@ -91,7 +136,7 @@
     <t>main</t>
   </si>
   <si>
-    <t>3</t>
+    <t>7</t>
   </si>
   <si>
     <t>-49</t>
@@ -106,7 +151,67 @@
     <t>)</t>
   </si>
   <si>
-    <t>4</t>
+    <t>8</t>
+  </si>
+  <si>
+    <t>-55</t>
+  </si>
+  <si>
+    <t>=</t>
+  </si>
+  <si>
+    <t>-19</t>
+  </si>
+  <si>
+    <t>-2</t>
+  </si>
+  <si>
+    <t>//Ok</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>-25</t>
+  </si>
+  <si>
+    <t>*</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>//Error</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>-22</t>
+  </si>
+  <si>
+    <t>'c'</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>-40</t>
+  </si>
+  <si>
+    <t>==</t>
+  </si>
+  <si>
+    <t>15</t>
   </si>
   <si>
     <t>-48</t>
@@ -115,22 +220,10 @@
     <t>.</t>
   </si>
   <si>
-    <t>-55</t>
-  </si>
-  <si>
-    <t>=</t>
-  </si>
-  <si>
-    <t>-19</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>b</t>
-  </si>
-  <si>
-    <t>6</t>
+    <t>0</t>
+  </si>
+  <si>
+    <t>16</t>
   </si>
   <si>
     <t>Token</t>
@@ -142,13 +235,16 @@
     <t>Tipo</t>
   </si>
   <si>
-    <t>1190</t>
-  </si>
-  <si>
-    <t>No esta declarado el item</t>
-  </si>
-  <si>
-    <t>Semantica 2</t>
+    <t>1020</t>
+  </si>
+  <si>
+    <t>No se puede igualar un: REAL a EXP</t>
+  </si>
+  <si>
+    <t>r=e</t>
+  </si>
+  <si>
+    <t>Semantica:Etapa 1</t>
   </si>
   <si>
     <t>Erroes</t>
@@ -208,10 +304,7 @@
     <t>Funciones</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>8</t>
+    <t>22</t>
   </si>
   <si>
     <t>Ambito</t>
@@ -223,15 +316,6 @@
     <t>String (CHAR[])</t>
   </si>
   <si>
-    <t>REAL</t>
-  </si>
-  <si>
-    <t>BOOL</t>
-  </si>
-  <si>
-    <t>EXP</t>
-  </si>
-  <si>
     <t>VOID</t>
   </si>
   <si>
@@ -283,6 +367,21 @@
     <t xml:space="preserve">a -&gt; </t>
   </si>
   <si>
+    <t>a -&gt;  TE1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">e -&gt; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">r -&gt; </t>
+  </si>
+  <si>
+    <t>b -&gt;  TB1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X -&gt; </t>
+  </si>
+  <si>
     <t>Regla</t>
   </si>
   <si>
@@ -299,9 +398,6 @@
   </si>
   <si>
     <t>Acept</t>
-  </si>
-  <si>
-    <t>ERROR</t>
   </si>
 </sst>
 </file>
@@ -346,7 +442,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C27"/>
+  <dimension ref="A1:C78"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -409,57 +505,57 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C6" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C7" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="B8" t="s">
         <v>15</v>
       </c>
       <c r="C8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C9" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" t="s">
         <v>17</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C10" t="s">
         <v>18</v>
-      </c>
-      <c r="C10" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="11">
@@ -467,54 +563,54 @@
         <v>6</v>
       </c>
       <c r="B11" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="C11" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="B12" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C12" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="C13" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="B14" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="B15" t="s">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="C15" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="16">
@@ -522,95 +618,95 @@
         <v>8</v>
       </c>
       <c r="B16" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="C16" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B17" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="C17" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="B18" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C18" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B19" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="C19" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B20" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C20" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>34</v>
+        <v>3</v>
       </c>
       <c r="B21" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C21" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="B22" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="C22" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>6</v>
+        <v>31</v>
       </c>
       <c r="B23" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="C23" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B24" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C24" t="s">
         <v>35</v>
@@ -618,10 +714,10 @@
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B25" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="C25" t="s">
         <v>35</v>
@@ -629,10 +725,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="B26" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="C26" t="s">
         <v>35</v>
@@ -640,13 +736,574 @@
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B27" t="s">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="C27" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>10</v>
+      </c>
+      <c r="B28" t="s">
+        <v>11</v>
+      </c>
+      <c r="C28" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
         <v>37</v>
+      </c>
+      <c r="B29" t="s">
+        <v>38</v>
+      </c>
+      <c r="C29" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s">
+        <v>40</v>
+      </c>
+      <c r="B30" t="s">
+        <v>41</v>
+      </c>
+      <c r="C30" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
+        <v>42</v>
+      </c>
+      <c r="B31" t="s">
+        <v>43</v>
+      </c>
+      <c r="C31" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s">
+        <v>28</v>
+      </c>
+      <c r="B32" t="s">
+        <v>29</v>
+      </c>
+      <c r="C32" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s">
+        <v>8</v>
+      </c>
+      <c r="B33" t="s">
+        <v>9</v>
+      </c>
+      <c r="C33" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s">
+        <v>45</v>
+      </c>
+      <c r="B34" t="s">
+        <v>46</v>
+      </c>
+      <c r="C34" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s">
+        <v>47</v>
+      </c>
+      <c r="B35" t="s">
+        <v>5</v>
+      </c>
+      <c r="C35" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s">
+        <v>10</v>
+      </c>
+      <c r="B36" t="s">
+        <v>11</v>
+      </c>
+      <c r="C36" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s">
+        <v>48</v>
+      </c>
+      <c r="B37" t="s">
+        <v>49</v>
+      </c>
+      <c r="C37" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s">
+        <v>8</v>
+      </c>
+      <c r="B38" t="s">
+        <v>9</v>
+      </c>
+      <c r="C38" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s">
+        <v>45</v>
+      </c>
+      <c r="B39" t="s">
+        <v>46</v>
+      </c>
+      <c r="C39" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s">
+        <v>47</v>
+      </c>
+      <c r="B40" t="s">
+        <v>5</v>
+      </c>
+      <c r="C40" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s">
+        <v>51</v>
+      </c>
+      <c r="B41" t="s">
+        <v>52</v>
+      </c>
+      <c r="C41" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s">
+        <v>47</v>
+      </c>
+      <c r="B42" t="s">
+        <v>53</v>
+      </c>
+      <c r="C42" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s">
+        <v>10</v>
+      </c>
+      <c r="B43" t="s">
+        <v>11</v>
+      </c>
+      <c r="C43" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s">
+        <v>48</v>
+      </c>
+      <c r="B44" t="s">
+        <v>49</v>
+      </c>
+      <c r="C44" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s">
+        <v>8</v>
+      </c>
+      <c r="B45" t="s">
+        <v>19</v>
+      </c>
+      <c r="C45" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s">
+        <v>45</v>
+      </c>
+      <c r="B46" t="s">
+        <v>46</v>
+      </c>
+      <c r="C46" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s">
+        <v>8</v>
+      </c>
+      <c r="B47" t="s">
+        <v>9</v>
+      </c>
+      <c r="C47" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s">
+        <v>10</v>
+      </c>
+      <c r="B48" t="s">
+        <v>11</v>
+      </c>
+      <c r="C48" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s">
+        <v>48</v>
+      </c>
+      <c r="B49" t="s">
+        <v>49</v>
+      </c>
+      <c r="C49" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s">
+        <v>8</v>
+      </c>
+      <c r="B50" t="s">
+        <v>15</v>
+      </c>
+      <c r="C50" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s">
+        <v>45</v>
+      </c>
+      <c r="B51" t="s">
+        <v>46</v>
+      </c>
+      <c r="C51" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s">
+        <v>8</v>
+      </c>
+      <c r="B52" t="s">
+        <v>9</v>
+      </c>
+      <c r="C52" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s">
+        <v>10</v>
+      </c>
+      <c r="B53" t="s">
+        <v>11</v>
+      </c>
+      <c r="C53" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s">
+        <v>48</v>
+      </c>
+      <c r="B54" t="s">
+        <v>49</v>
+      </c>
+      <c r="C54" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s">
+        <v>8</v>
+      </c>
+      <c r="B55" t="s">
+        <v>15</v>
+      </c>
+      <c r="C55" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s">
+        <v>45</v>
+      </c>
+      <c r="B56" t="s">
+        <v>46</v>
+      </c>
+      <c r="C56" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s">
+        <v>8</v>
+      </c>
+      <c r="B57" t="s">
+        <v>19</v>
+      </c>
+      <c r="C57" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="s">
+        <v>10</v>
+      </c>
+      <c r="B58" t="s">
+        <v>11</v>
+      </c>
+      <c r="C58" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="s">
+        <v>48</v>
+      </c>
+      <c r="B59" t="s">
+        <v>57</v>
+      </c>
+      <c r="C59" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="s">
+        <v>8</v>
+      </c>
+      <c r="B60" t="s">
+        <v>9</v>
+      </c>
+      <c r="C60" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="s">
+        <v>45</v>
+      </c>
+      <c r="B61" t="s">
+        <v>46</v>
+      </c>
+      <c r="C61" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="s">
+        <v>59</v>
+      </c>
+      <c r="B62" t="s">
+        <v>60</v>
+      </c>
+      <c r="C62" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="s">
+        <v>10</v>
+      </c>
+      <c r="B63" t="s">
+        <v>11</v>
+      </c>
+      <c r="C63" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="s">
+        <v>48</v>
+      </c>
+      <c r="B64" t="s">
+        <v>49</v>
+      </c>
+      <c r="C64" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="s">
+        <v>8</v>
+      </c>
+      <c r="B65" t="s">
+        <v>23</v>
+      </c>
+      <c r="C65" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="s">
+        <v>45</v>
+      </c>
+      <c r="B66" t="s">
+        <v>46</v>
+      </c>
+      <c r="C66" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="s">
+        <v>8</v>
+      </c>
+      <c r="B67" t="s">
+        <v>9</v>
+      </c>
+      <c r="C67" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="s">
+        <v>62</v>
+      </c>
+      <c r="B68" t="s">
+        <v>63</v>
+      </c>
+      <c r="C68" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="s">
+        <v>8</v>
+      </c>
+      <c r="B69" t="s">
+        <v>15</v>
+      </c>
+      <c r="C69" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="s">
+        <v>10</v>
+      </c>
+      <c r="B70" t="s">
+        <v>11</v>
+      </c>
+      <c r="C70" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="s">
+        <v>48</v>
+      </c>
+      <c r="B71" t="s">
+        <v>49</v>
+      </c>
+      <c r="C71" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="s">
+        <v>8</v>
+      </c>
+      <c r="B72" t="s">
+        <v>36</v>
+      </c>
+      <c r="C72" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="s">
+        <v>65</v>
+      </c>
+      <c r="B73" t="s">
+        <v>66</v>
+      </c>
+      <c r="C73" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="s">
+        <v>8</v>
+      </c>
+      <c r="B74" t="s">
+        <v>30</v>
+      </c>
+      <c r="C74" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="s">
+        <v>45</v>
+      </c>
+      <c r="B75" t="s">
+        <v>46</v>
+      </c>
+      <c r="C75" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="s">
+        <v>47</v>
+      </c>
+      <c r="B76" t="s">
+        <v>67</v>
+      </c>
+      <c r="C76" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="s">
+        <v>10</v>
+      </c>
+      <c r="B77" t="s">
+        <v>11</v>
+      </c>
+      <c r="C77" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="s">
+        <v>31</v>
+      </c>
+      <c r="B78" t="s">
+        <v>32</v>
+      </c>
+      <c r="C78" t="s">
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -664,16 +1321,16 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>38</v>
+        <v>69</v>
       </c>
       <c r="B1" t="s">
-        <v>39</v>
+        <v>70</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>40</v>
+        <v>71</v>
       </c>
       <c r="E1" t="s">
         <v>2</v>
@@ -681,19 +1338,19 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>41</v>
+        <v>72</v>
       </c>
       <c r="B2" t="s">
-        <v>42</v>
+        <v>73</v>
       </c>
       <c r="C2" t="s">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="D2" t="s">
-        <v>43</v>
+        <v>75</v>
       </c>
       <c r="E2" t="s">
-        <v>35</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -711,120 +1368,120 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>44</v>
+        <v>76</v>
       </c>
       <c r="B1" t="s">
-        <v>45</v>
+        <v>77</v>
       </c>
       <c r="C1" t="s">
-        <v>46</v>
+        <v>78</v>
       </c>
       <c r="D1" t="s">
-        <v>47</v>
+        <v>79</v>
       </c>
       <c r="E1" t="s">
-        <v>48</v>
+        <v>80</v>
       </c>
       <c r="F1" t="s">
-        <v>49</v>
+        <v>81</v>
       </c>
       <c r="G1" t="s">
-        <v>50</v>
+        <v>82</v>
       </c>
       <c r="H1" t="s">
-        <v>51</v>
+        <v>83</v>
       </c>
       <c r="I1" t="s">
-        <v>52</v>
+        <v>84</v>
       </c>
       <c r="J1" t="s">
-        <v>53</v>
+        <v>85</v>
       </c>
       <c r="K1" t="s">
-        <v>54</v>
+        <v>86</v>
       </c>
       <c r="L1" t="s">
-        <v>55</v>
+        <v>87</v>
       </c>
       <c r="M1" t="s">
-        <v>56</v>
+        <v>88</v>
       </c>
       <c r="N1" t="s">
-        <v>57</v>
+        <v>89</v>
       </c>
       <c r="O1" t="s">
-        <v>58</v>
+        <v>90</v>
       </c>
       <c r="P1" t="s">
-        <v>59</v>
+        <v>91</v>
       </c>
       <c r="Q1" t="s">
-        <v>60</v>
+        <v>92</v>
       </c>
       <c r="R1" t="s">
-        <v>61</v>
+        <v>93</v>
       </c>
       <c r="S1" t="s">
-        <v>62</v>
+        <v>94</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>63</v>
+        <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>64</v>
+        <v>95</v>
       </c>
       <c r="C2" t="s">
-        <v>63</v>
+        <v>39</v>
       </c>
       <c r="D2" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="E2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2" t="s">
+        <v>67</v>
+      </c>
+      <c r="G2" t="s">
+        <v>67</v>
+      </c>
+      <c r="H2" t="s">
         <v>5</v>
       </c>
-      <c r="F2" t="s">
-        <v>63</v>
-      </c>
-      <c r="G2" t="s">
-        <v>63</v>
-      </c>
-      <c r="H2" t="s">
-        <v>63</v>
-      </c>
       <c r="I2" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="J2" t="s">
-        <v>63</v>
+        <v>5</v>
       </c>
       <c r="K2" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="L2" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="M2" t="s">
-        <v>63</v>
+        <v>5</v>
       </c>
       <c r="N2" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="O2" t="s">
+        <v>61</v>
+      </c>
+      <c r="P2" t="s">
         <v>35</v>
       </c>
-      <c r="P2" t="s">
-        <v>37</v>
-      </c>
       <c r="Q2" t="s">
-        <v>5</v>
+        <v>44</v>
       </c>
       <c r="R2" t="s">
-        <v>35</v>
+        <v>58</v>
       </c>
       <c r="S2" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -842,40 +1499,40 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>65</v>
+        <v>96</v>
       </c>
       <c r="B1" t="s">
-        <v>66</v>
+        <v>97</v>
       </c>
       <c r="C1" t="s">
-        <v>67</v>
+        <v>98</v>
       </c>
       <c r="D1" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="E1" t="s">
-        <v>68</v>
+        <v>13</v>
       </c>
       <c r="F1" t="s">
-        <v>69</v>
+        <v>21</v>
       </c>
       <c r="G1" t="s">
-        <v>70</v>
+        <v>17</v>
       </c>
       <c r="H1" t="s">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="I1" t="s">
-        <v>71</v>
+        <v>99</v>
       </c>
       <c r="J1" t="s">
-        <v>72</v>
+        <v>100</v>
       </c>
       <c r="K1" t="s">
-        <v>73</v>
+        <v>101</v>
       </c>
       <c r="L1" t="s">
-        <v>74</v>
+        <v>102</v>
       </c>
     </row>
     <row r="2">
@@ -889,16 +1546,16 @@
         <v>0.0</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="H2" t="n">
         <v>1.0</v>
@@ -913,7 +1570,7 @@
         <v>0.0</v>
       </c>
       <c r="L2" t="n">
-        <v>1.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="3">
@@ -956,7 +1613,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>75</v>
+        <v>103</v>
       </c>
       <c r="B4" t="n">
         <v>0.0</v>
@@ -965,16 +1622,16 @@
         <v>0.0</v>
       </c>
       <c r="D4" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="E4" t="n">
         <v>1.0</v>
       </c>
-      <c r="E4" t="n">
-        <v>0.0</v>
-      </c>
       <c r="F4" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="H4" t="n">
         <v>1.0</v>
@@ -989,7 +1646,7 @@
         <v>0.0</v>
       </c>
       <c r="L4" t="n">
-        <v>2.0</v>
+        <v>6.0</v>
       </c>
     </row>
   </sheetData>
@@ -999,7 +1656,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:M2"/>
+  <dimension ref="A1:M9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1010,45 +1667,45 @@
         <v>2</v>
       </c>
       <c r="B1" t="s">
-        <v>76</v>
+        <v>104</v>
       </c>
       <c r="C1" t="s">
-        <v>77</v>
+        <v>105</v>
       </c>
       <c r="D1" t="s">
-        <v>78</v>
+        <v>106</v>
       </c>
       <c r="E1" t="s">
-        <v>79</v>
+        <v>107</v>
       </c>
       <c r="F1" t="s">
-        <v>80</v>
+        <v>108</v>
       </c>
       <c r="G1" t="s">
-        <v>81</v>
+        <v>109</v>
       </c>
       <c r="H1" t="s">
-        <v>79</v>
+        <v>107</v>
       </c>
       <c r="I1" t="s">
-        <v>82</v>
+        <v>110</v>
       </c>
       <c r="J1" t="s">
-        <v>83</v>
+        <v>111</v>
       </c>
       <c r="K1" t="s">
-        <v>84</v>
+        <v>112</v>
       </c>
       <c r="L1" t="s">
-        <v>85</v>
+        <v>113</v>
       </c>
       <c r="M1" t="s">
-        <v>86</v>
+        <v>114</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>4.0</v>
+        <v>8.0</v>
       </c>
       <c r="B2" t="n">
         <v>0.0</v>
@@ -1081,9 +1738,296 @@
         <v>0.0</v>
       </c>
       <c r="L2" t="s">
-        <v>87</v>
+        <v>115</v>
       </c>
       <c r="M2" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="B3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L3" t="s">
+        <v>116</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="B4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L4" t="s">
+        <v>117</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="B5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L5" t="s">
+        <v>118</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="B6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L6" t="s">
+        <v>118</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="B7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L7" t="s">
+        <v>115</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="B8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L8" t="s">
+        <v>119</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="B9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L9" t="s">
+        <v>120</v>
+      </c>
+      <c r="M9" t="n">
         <v>0.0</v>
       </c>
     </row>
@@ -1094,7 +2038,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F29"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1102,22 +2046,22 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>88</v>
+        <v>121</v>
       </c>
       <c r="B1" t="s">
-        <v>89</v>
+        <v>122</v>
       </c>
       <c r="C1" t="s">
-        <v>90</v>
+        <v>123</v>
       </c>
       <c r="D1" t="s">
         <v>2</v>
       </c>
       <c r="E1" t="s">
-        <v>91</v>
+        <v>124</v>
       </c>
       <c r="F1" t="s">
-        <v>65</v>
+        <v>96</v>
       </c>
     </row>
     <row r="2">
@@ -1125,16 +2069,16 @@
         <v>1130.0</v>
       </c>
       <c r="B2" t="s">
-        <v>92</v>
+        <v>125</v>
       </c>
       <c r="C2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D2" t="n">
-        <v>4.0</v>
+        <v>8.0</v>
       </c>
       <c r="E2" t="s">
-        <v>93</v>
+        <v>126</v>
       </c>
       <c r="F2" t="n">
         <v>0.0</v>
@@ -1142,19 +2086,19 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1190.0</v>
+        <v>1090.0</v>
       </c>
       <c r="B3" t="s">
-        <v>92</v>
+        <v>125</v>
       </c>
       <c r="C3" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D3" t="n">
-        <v>4.0</v>
+        <v>8.0</v>
       </c>
       <c r="E3" t="s">
-        <v>93</v>
+        <v>126</v>
       </c>
       <c r="F3" t="n">
         <v>0.0</v>
@@ -1162,19 +2106,19 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1170.0</v>
+        <v>1020.0</v>
       </c>
       <c r="B4" t="s">
-        <v>92</v>
+        <v>125</v>
       </c>
       <c r="C4" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D4" t="n">
-        <v>4.0</v>
+        <v>8.0</v>
       </c>
       <c r="E4" t="s">
-        <v>93</v>
+        <v>126</v>
       </c>
       <c r="F4" t="n">
         <v>0.0</v>
@@ -1182,19 +2126,19 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1020.0</v>
+        <v>1130.0</v>
       </c>
       <c r="B5" t="s">
-        <v>92</v>
+        <v>125</v>
       </c>
       <c r="C5" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D5" t="n">
-        <v>4.0</v>
+        <v>9.0</v>
       </c>
       <c r="E5" t="s">
-        <v>93</v>
+        <v>126</v>
       </c>
       <c r="F5" t="n">
         <v>0.0</v>
@@ -1202,19 +2146,19 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1130.0</v>
+        <v>1090.0</v>
       </c>
       <c r="B6" t="s">
-        <v>92</v>
+        <v>125</v>
       </c>
       <c r="C6" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D6" t="n">
-        <v>5.0</v>
+        <v>9.0</v>
       </c>
       <c r="E6" t="s">
-        <v>93</v>
+        <v>126</v>
       </c>
       <c r="F6" t="n">
         <v>0.0</v>
@@ -1222,21 +2166,461 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
+        <v>1130.0</v>
+      </c>
+      <c r="B7" t="s">
+        <v>125</v>
+      </c>
+      <c r="C7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="E7" t="s">
+        <v>126</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>1130.0</v>
+      </c>
+      <c r="B8" t="s">
+        <v>125</v>
+      </c>
+      <c r="C8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="E8" t="s">
+        <v>126</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>1090.0</v>
+      </c>
+      <c r="B9" t="s">
+        <v>125</v>
+      </c>
+      <c r="C9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="E9" t="s">
+        <v>126</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>1020.0</v>
+      </c>
+      <c r="B10" t="s">
+        <v>125</v>
+      </c>
+      <c r="C10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="E10" t="s">
+        <v>126</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>1130.0</v>
+      </c>
+      <c r="B11" t="s">
+        <v>125</v>
+      </c>
+      <c r="C11" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="E11" t="s">
+        <v>126</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>1130.0</v>
+      </c>
+      <c r="B12" t="s">
+        <v>125</v>
+      </c>
+      <c r="C12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="E12" t="s">
+        <v>126</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>1090.0</v>
+      </c>
+      <c r="B13" t="s">
+        <v>125</v>
+      </c>
+      <c r="C13" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="E13" t="s">
+        <v>126</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>1020.0</v>
+      </c>
+      <c r="B14" t="s">
+        <v>125</v>
+      </c>
+      <c r="C14" t="s">
+        <v>15</v>
+      </c>
+      <c r="D14" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="E14" t="s">
+        <v>126</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>1130.0</v>
+      </c>
+      <c r="B15" t="s">
+        <v>125</v>
+      </c>
+      <c r="C15" t="s">
+        <v>15</v>
+      </c>
+      <c r="D15" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="E15" t="s">
+        <v>126</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>1130.0</v>
+      </c>
+      <c r="B16" t="s">
+        <v>125</v>
+      </c>
+      <c r="C16" t="s">
+        <v>19</v>
+      </c>
+      <c r="D16" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="E16" t="s">
+        <v>126</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>1090.0</v>
+      </c>
+      <c r="B17" t="s">
+        <v>125</v>
+      </c>
+      <c r="C17" t="s">
+        <v>15</v>
+      </c>
+      <c r="D17" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="E17" t="s">
+        <v>126</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>1020.0</v>
+      </c>
+      <c r="B18" t="s">
+        <v>125</v>
+      </c>
+      <c r="C18" t="s">
+        <v>15</v>
+      </c>
+      <c r="D18" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="E18" t="s">
+        <v>126</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>1130.0</v>
+      </c>
+      <c r="B19" t="s">
+        <v>125</v>
+      </c>
+      <c r="C19" t="s">
+        <v>9</v>
+      </c>
+      <c r="D19" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="E19" t="s">
+        <v>126</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>1090.0</v>
+      </c>
+      <c r="B20" t="s">
+        <v>125</v>
+      </c>
+      <c r="C20" t="s">
+        <v>9</v>
+      </c>
+      <c r="D20" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="E20" t="s">
+        <v>126</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>1020.0</v>
+      </c>
+      <c r="B21" t="s">
+        <v>125</v>
+      </c>
+      <c r="C21" t="s">
+        <v>9</v>
+      </c>
+      <c r="D21" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="E21" t="s">
+        <v>126</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>1130.0</v>
+      </c>
+      <c r="B22" t="s">
+        <v>125</v>
+      </c>
+      <c r="C22" t="s">
+        <v>23</v>
+      </c>
+      <c r="D22" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="E22" t="s">
+        <v>126</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>1130.0</v>
+      </c>
+      <c r="B23" t="s">
+        <v>125</v>
+      </c>
+      <c r="C23" t="s">
+        <v>9</v>
+      </c>
+      <c r="D23" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="E23" t="s">
+        <v>126</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>1130.0</v>
+      </c>
+      <c r="B24" t="s">
+        <v>125</v>
+      </c>
+      <c r="C24" t="s">
+        <v>15</v>
+      </c>
+      <c r="D24" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="E24" t="s">
+        <v>126</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>1090.0</v>
+      </c>
+      <c r="B25" t="s">
+        <v>125</v>
+      </c>
+      <c r="C25" t="s">
+        <v>23</v>
+      </c>
+      <c r="D25" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="E25" t="s">
+        <v>126</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>1130.0</v>
+      </c>
+      <c r="B26" t="s">
+        <v>125</v>
+      </c>
+      <c r="C26" t="s">
+        <v>36</v>
+      </c>
+      <c r="D26" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="E26" t="s">
+        <v>126</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
         <v>1190.0</v>
       </c>
-      <c r="B7" t="s">
-        <v>92</v>
-      </c>
-      <c r="C7" t="s">
-        <v>36</v>
-      </c>
-      <c r="D7" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="E7" t="s">
-        <v>94</v>
-      </c>
-      <c r="F7" t="n">
+      <c r="B27" t="s">
+        <v>125</v>
+      </c>
+      <c r="C27" t="s">
+        <v>30</v>
+      </c>
+      <c r="D27" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="E27" t="s">
+        <v>126</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>1170.0</v>
+      </c>
+      <c r="B28" t="s">
+        <v>125</v>
+      </c>
+      <c r="C28" t="s">
+        <v>30</v>
+      </c>
+      <c r="D28" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="E28" t="s">
+        <v>126</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>1020.0</v>
+      </c>
+      <c r="B29" t="s">
+        <v>125</v>
+      </c>
+      <c r="C29" t="s">
+        <v>30</v>
+      </c>
+      <c r="D29" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="E29" t="s">
+        <v>126</v>
+      </c>
+      <c r="F29" t="n">
         <v>0.0</v>
       </c>
     </row>

--- a/src/Excel/Yañez_Gonzalez_Christian_Emmanuel.xlsx
+++ b/src/Excel/Yañez_Gonzalez_Christian_Emmanuel.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="125">
   <si>
     <t>Estado</t>
   </si>
@@ -91,16 +91,25 @@
     <t>b</t>
   </si>
   <si>
-    <t>-60</t>
-  </si>
-  <si>
-    <t>reg</t>
+    <t>-61</t>
+  </si>
+  <si>
+    <t>main</t>
   </si>
   <si>
     <t>5</t>
   </si>
   <si>
-    <t>r1</t>
+    <t>-49</t>
+  </si>
+  <si>
+    <t>(</t>
+  </si>
+  <si>
+    <t>-50</t>
+  </si>
+  <si>
+    <t>)</t>
   </si>
   <si>
     <t>-53</t>
@@ -109,7 +118,76 @@
     <t>{</t>
   </si>
   <si>
-    <t>X</t>
+    <t>6</t>
+  </si>
+  <si>
+    <t>-57</t>
+  </si>
+  <si>
+    <t>-=</t>
+  </si>
+  <si>
+    <t>-19</t>
+  </si>
+  <si>
+    <t>-2</t>
+  </si>
+  <si>
+    <t>//Ok</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>-58</t>
+  </si>
+  <si>
+    <t>*=</t>
+  </si>
+  <si>
+    <t>-25</t>
+  </si>
+  <si>
+    <t>*</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>-59</t>
+  </si>
+  <si>
+    <t>/=</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>//Error</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>-22</t>
+  </si>
+  <si>
+    <t>'c'</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>-40</t>
+  </si>
+  <si>
+    <t>==</t>
   </si>
   <si>
     <t>-54</t>
@@ -118,204 +196,117 @@
     <t>}</t>
   </si>
   <si>
-    <t>-65</t>
+    <t>13</t>
+  </si>
+  <si>
+    <t>Token</t>
+  </si>
+  <si>
+    <t>Descripción</t>
+  </si>
+  <si>
+    <t>Tipo</t>
+  </si>
+  <si>
+    <t>1022</t>
+  </si>
+  <si>
+    <t>No se puede igualar un: REAL a EXP</t>
+  </si>
+  <si>
+    <t>r=r</t>
+  </si>
+  <si>
+    <t>Semantica:Etapa 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No se puede desarrollar una division de </t>
+  </si>
+  <si>
+    <t>a/'c'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No se puede desarrollar una resta de </t>
+  </si>
+  <si>
+    <t>b-a</t>
+  </si>
+  <si>
+    <t>Erroes</t>
+  </si>
+  <si>
+    <t>Identificadores</t>
+  </si>
+  <si>
+    <t>Comentarios</t>
+  </si>
+  <si>
+    <t>Palabras reservadas</t>
+  </si>
+  <si>
+    <t>C-Enteras</t>
+  </si>
+  <si>
+    <t>C-Texto</t>
+  </si>
+  <si>
+    <t>C-Decimal</t>
+  </si>
+  <si>
+    <t>C-Carácter</t>
+  </si>
+  <si>
+    <t>C-Exponencial</t>
+  </si>
+  <si>
+    <t>Aritmeticos</t>
+  </si>
+  <si>
+    <t>Monogamo</t>
+  </si>
+  <si>
+    <t>Logico</t>
+  </si>
+  <si>
+    <t>Relacionales</t>
+  </si>
+  <si>
+    <t>Bit</t>
+  </si>
+  <si>
+    <t>Puntuación</t>
+  </si>
+  <si>
+    <t>Agrupación</t>
+  </si>
+  <si>
+    <t>Asignación</t>
+  </si>
+  <si>
+    <t>Sintaxis</t>
+  </si>
+  <si>
+    <t>Funciones</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>Ambito</t>
+  </si>
+  <si>
+    <t>CHAR</t>
+  </si>
+  <si>
+    <t>String (CHAR[])</t>
   </si>
   <si>
     <t>REG</t>
   </si>
   <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>z</t>
-  </si>
-  <si>
-    <t>-61</t>
-  </si>
-  <si>
-    <t>main</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>-49</t>
-  </si>
-  <si>
-    <t>(</t>
-  </si>
-  <si>
-    <t>-50</t>
-  </si>
-  <si>
-    <t>)</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>-55</t>
-  </si>
-  <si>
-    <t>=</t>
-  </si>
-  <si>
-    <t>-19</t>
-  </si>
-  <si>
-    <t>-2</t>
-  </si>
-  <si>
-    <t>//Ok</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>-25</t>
-  </si>
-  <si>
-    <t>*</t>
-  </si>
-  <si>
-    <t>50</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>//Error</t>
-  </si>
-  <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>-22</t>
-  </si>
-  <si>
-    <t>'c'</t>
-  </si>
-  <si>
-    <t>14</t>
-  </si>
-  <si>
-    <t>-40</t>
-  </si>
-  <si>
-    <t>==</t>
-  </si>
-  <si>
-    <t>15</t>
-  </si>
-  <si>
-    <t>-48</t>
-  </si>
-  <si>
-    <t>.</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>16</t>
-  </si>
-  <si>
-    <t>Token</t>
-  </si>
-  <si>
-    <t>Descripción</t>
-  </si>
-  <si>
-    <t>Tipo</t>
-  </si>
-  <si>
-    <t>1020</t>
-  </si>
-  <si>
-    <t>No se puede igualar un: REAL a EXP</t>
-  </si>
-  <si>
-    <t>r=e</t>
-  </si>
-  <si>
-    <t>Semantica:Etapa 1</t>
-  </si>
-  <si>
-    <t>Erroes</t>
-  </si>
-  <si>
-    <t>Identificadores</t>
-  </si>
-  <si>
-    <t>Comentarios</t>
-  </si>
-  <si>
-    <t>Palabras reservadas</t>
-  </si>
-  <si>
-    <t>C-Enteras</t>
-  </si>
-  <si>
-    <t>C-Texto</t>
-  </si>
-  <si>
-    <t>C-Decimal</t>
-  </si>
-  <si>
-    <t>C-Carácter</t>
-  </si>
-  <si>
-    <t>C-Exponencial</t>
-  </si>
-  <si>
-    <t>Aritmeticos</t>
-  </si>
-  <si>
-    <t>Monogamo</t>
-  </si>
-  <si>
-    <t>Logico</t>
-  </si>
-  <si>
-    <t>Relacionales</t>
-  </si>
-  <si>
-    <t>Bit</t>
-  </si>
-  <si>
-    <t>Puntuación</t>
-  </si>
-  <si>
-    <t>Agrupación</t>
-  </si>
-  <si>
-    <t>Asignación</t>
-  </si>
-  <si>
-    <t>Sintaxis</t>
-  </si>
-  <si>
-    <t>Funciones</t>
-  </si>
-  <si>
-    <t>22</t>
-  </si>
-  <si>
-    <t>Ambito</t>
-  </si>
-  <si>
-    <t>CHAR</t>
-  </si>
-  <si>
-    <t>String (CHAR[])</t>
-  </si>
-  <si>
     <t>VOID</t>
   </si>
   <si>
@@ -364,22 +355,25 @@
     <t>Errores</t>
   </si>
   <si>
-    <t xml:space="preserve">a -&gt; </t>
-  </si>
-  <si>
     <t>a -&gt;  TE1</t>
   </si>
   <si>
-    <t xml:space="preserve">e -&gt; </t>
-  </si>
-  <si>
-    <t xml:space="preserve">r -&gt; </t>
-  </si>
-  <si>
-    <t>b -&gt;  TB1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X -&gt; </t>
+    <t>a -&gt;  TE2</t>
+  </si>
+  <si>
+    <t>e -&gt;  TX1</t>
+  </si>
+  <si>
+    <t>r -&gt;  TR1</t>
+  </si>
+  <si>
+    <t>r -&gt;  TX1</t>
+  </si>
+  <si>
+    <t>a -&gt;  TV1</t>
+  </si>
+  <si>
+    <t>b -&gt;  TB1 TV1</t>
   </si>
   <si>
     <t>Regla</t>
@@ -442,7 +436,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C78"/>
+  <dimension ref="A1:C61"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -648,10 +642,10 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="B19" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C19" t="s">
         <v>26</v>
@@ -659,10 +653,10 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B20" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C20" t="s">
         <v>26</v>
@@ -670,10 +664,10 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>3</v>
+        <v>31</v>
       </c>
       <c r="B21" t="s">
-        <v>4</v>
+        <v>32</v>
       </c>
       <c r="C21" t="s">
         <v>26</v>
@@ -684,54 +678,54 @@
         <v>8</v>
       </c>
       <c r="B22" t="s">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="C22" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B23" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C23" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
+        <v>36</v>
+      </c>
+      <c r="B24" t="s">
+        <v>5</v>
+      </c>
+      <c r="C24" t="s">
         <v>33</v>
-      </c>
-      <c r="B24" t="s">
-        <v>34</v>
-      </c>
-      <c r="C24" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B25" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="C25" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>6</v>
+        <v>37</v>
       </c>
       <c r="B26" t="s">
-        <v>7</v>
+        <v>38</v>
       </c>
       <c r="C26" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="27">
@@ -739,29 +733,29 @@
         <v>8</v>
       </c>
       <c r="B27" t="s">
-        <v>36</v>
+        <v>9</v>
       </c>
       <c r="C27" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="B28" t="s">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="C28" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B29" t="s">
-        <v>38</v>
+        <v>5</v>
       </c>
       <c r="C29" t="s">
         <v>39</v>
@@ -769,10 +763,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B30" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C30" t="s">
         <v>39</v>
@@ -780,10 +774,10 @@
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="B31" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C31" t="s">
         <v>39</v>
@@ -791,10 +785,10 @@
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="B32" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="C32" t="s">
         <v>39</v>
@@ -802,508 +796,321 @@
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="B33" t="s">
-        <v>9</v>
+        <v>38</v>
       </c>
       <c r="C33" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
+        <v>8</v>
+      </c>
+      <c r="B34" t="s">
+        <v>19</v>
+      </c>
+      <c r="C34" t="s">
         <v>45</v>
-      </c>
-      <c r="B34" t="s">
-        <v>46</v>
-      </c>
-      <c r="C34" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
+        <v>46</v>
+      </c>
+      <c r="B35" t="s">
         <v>47</v>
       </c>
-      <c r="B35" t="s">
-        <v>5</v>
-      </c>
       <c r="C35" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B36" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C36" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>48</v>
+        <v>10</v>
       </c>
       <c r="B37" t="s">
-        <v>49</v>
+        <v>11</v>
       </c>
       <c r="C37" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>9</v>
+        <v>38</v>
       </c>
       <c r="C38" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>45</v>
+        <v>8</v>
       </c>
       <c r="B39" t="s">
-        <v>46</v>
+        <v>15</v>
       </c>
       <c r="C39" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="B40" t="s">
-        <v>5</v>
+        <v>35</v>
       </c>
       <c r="C40" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>51</v>
+        <v>8</v>
       </c>
       <c r="B41" t="s">
-        <v>52</v>
+        <v>9</v>
       </c>
       <c r="C41" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>47</v>
+        <v>10</v>
       </c>
       <c r="B42" t="s">
-        <v>53</v>
+        <v>11</v>
       </c>
       <c r="C42" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>10</v>
+        <v>37</v>
       </c>
       <c r="B43" t="s">
-        <v>11</v>
+        <v>38</v>
       </c>
       <c r="C43" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>48</v>
+        <v>8</v>
       </c>
       <c r="B44" t="s">
+        <v>15</v>
+      </c>
+      <c r="C44" t="s">
         <v>49</v>
-      </c>
-      <c r="C44" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>8</v>
+        <v>40</v>
       </c>
       <c r="B45" t="s">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="C45" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>45</v>
+        <v>8</v>
       </c>
       <c r="B46" t="s">
-        <v>46</v>
+        <v>19</v>
       </c>
       <c r="C46" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B47" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C47" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>10</v>
+        <v>37</v>
       </c>
       <c r="B48" t="s">
-        <v>11</v>
+        <v>50</v>
       </c>
       <c r="C48" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>48</v>
+        <v>8</v>
       </c>
       <c r="B49" t="s">
-        <v>49</v>
+        <v>9</v>
       </c>
       <c r="C49" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>8</v>
+        <v>46</v>
       </c>
       <c r="B50" t="s">
-        <v>15</v>
+        <v>47</v>
       </c>
       <c r="C50" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="B51" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="C51" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B52" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C52" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>10</v>
+        <v>37</v>
       </c>
       <c r="B53" t="s">
-        <v>11</v>
+        <v>38</v>
       </c>
       <c r="C53" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>48</v>
+        <v>8</v>
       </c>
       <c r="B54" t="s">
-        <v>49</v>
+        <v>23</v>
       </c>
       <c r="C54" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>8</v>
+        <v>34</v>
       </c>
       <c r="B55" t="s">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="C55" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>45</v>
+        <v>8</v>
       </c>
       <c r="B56" t="s">
-        <v>46</v>
+        <v>9</v>
       </c>
       <c r="C56" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>8</v>
+        <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>19</v>
+        <v>56</v>
       </c>
       <c r="C57" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B58" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C58" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>48</v>
+        <v>10</v>
       </c>
       <c r="B59" t="s">
-        <v>57</v>
+        <v>11</v>
       </c>
       <c r="C59" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="B60" t="s">
-        <v>9</v>
+        <v>38</v>
       </c>
       <c r="C60" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="B61" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="C61" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="s">
         <v>59</v>
-      </c>
-      <c r="B62" t="s">
-        <v>60</v>
-      </c>
-      <c r="C62" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" t="s">
-        <v>10</v>
-      </c>
-      <c r="B63" t="s">
-        <v>11</v>
-      </c>
-      <c r="C63" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="s">
-        <v>48</v>
-      </c>
-      <c r="B64" t="s">
-        <v>49</v>
-      </c>
-      <c r="C64" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" t="s">
-        <v>8</v>
-      </c>
-      <c r="B65" t="s">
-        <v>23</v>
-      </c>
-      <c r="C65" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" t="s">
-        <v>45</v>
-      </c>
-      <c r="B66" t="s">
-        <v>46</v>
-      </c>
-      <c r="C66" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="s">
-        <v>8</v>
-      </c>
-      <c r="B67" t="s">
-        <v>9</v>
-      </c>
-      <c r="C67" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" t="s">
-        <v>62</v>
-      </c>
-      <c r="B68" t="s">
-        <v>63</v>
-      </c>
-      <c r="C68" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" t="s">
-        <v>8</v>
-      </c>
-      <c r="B69" t="s">
-        <v>15</v>
-      </c>
-      <c r="C69" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" t="s">
-        <v>10</v>
-      </c>
-      <c r="B70" t="s">
-        <v>11</v>
-      </c>
-      <c r="C70" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" t="s">
-        <v>48</v>
-      </c>
-      <c r="B71" t="s">
-        <v>49</v>
-      </c>
-      <c r="C71" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" t="s">
-        <v>8</v>
-      </c>
-      <c r="B72" t="s">
-        <v>36</v>
-      </c>
-      <c r="C72" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" t="s">
-        <v>65</v>
-      </c>
-      <c r="B73" t="s">
-        <v>66</v>
-      </c>
-      <c r="C73" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" t="s">
-        <v>8</v>
-      </c>
-      <c r="B74" t="s">
-        <v>30</v>
-      </c>
-      <c r="C74" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" t="s">
-        <v>45</v>
-      </c>
-      <c r="B75" t="s">
-        <v>46</v>
-      </c>
-      <c r="C75" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" t="s">
-        <v>47</v>
-      </c>
-      <c r="B76" t="s">
-        <v>67</v>
-      </c>
-      <c r="C76" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" t="s">
-        <v>10</v>
-      </c>
-      <c r="B77" t="s">
-        <v>11</v>
-      </c>
-      <c r="C77" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" t="s">
-        <v>31</v>
-      </c>
-      <c r="B78" t="s">
-        <v>32</v>
-      </c>
-      <c r="C78" t="s">
-        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -1313,7 +1120,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1321,16 +1128,16 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="B1" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="E1" t="s">
         <v>2</v>
@@ -1338,19 +1145,53 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="B2" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="C2" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="D2" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="E2" t="s">
-        <v>56</v>
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D3" t="s">
+        <v>66</v>
+      </c>
+      <c r="E3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C4" t="s">
+        <v>70</v>
+      </c>
+      <c r="D4" t="s">
+        <v>66</v>
+      </c>
+      <c r="E4" t="s">
+        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -1368,120 +1209,120 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E1" t="s">
+        <v>75</v>
+      </c>
+      <c r="F1" t="s">
         <v>76</v>
       </c>
-      <c r="B1" t="s">
+      <c r="G1" t="s">
         <v>77</v>
       </c>
-      <c r="C1" t="s">
+      <c r="H1" t="s">
         <v>78</v>
       </c>
-      <c r="D1" t="s">
+      <c r="I1" t="s">
         <v>79</v>
       </c>
-      <c r="E1" t="s">
+      <c r="J1" t="s">
         <v>80</v>
       </c>
-      <c r="F1" t="s">
+      <c r="K1" t="s">
         <v>81</v>
       </c>
-      <c r="G1" t="s">
+      <c r="L1" t="s">
         <v>82</v>
       </c>
-      <c r="H1" t="s">
+      <c r="M1" t="s">
         <v>83</v>
       </c>
-      <c r="I1" t="s">
+      <c r="N1" t="s">
         <v>84</v>
       </c>
-      <c r="J1" t="s">
+      <c r="O1" t="s">
         <v>85</v>
       </c>
-      <c r="K1" t="s">
+      <c r="P1" t="s">
         <v>86</v>
       </c>
-      <c r="L1" t="s">
+      <c r="Q1" t="s">
         <v>87</v>
       </c>
-      <c r="M1" t="s">
+      <c r="R1" t="s">
         <v>88</v>
       </c>
-      <c r="N1" t="s">
+      <c r="S1" t="s">
         <v>89</v>
-      </c>
-      <c r="O1" t="s">
-        <v>90</v>
-      </c>
-      <c r="P1" t="s">
-        <v>91</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>92</v>
-      </c>
-      <c r="R1" t="s">
-        <v>93</v>
-      </c>
-      <c r="S1" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="B2" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="C2" t="s">
         <v>39</v>
       </c>
       <c r="D2" t="s">
-        <v>67</v>
+        <v>91</v>
       </c>
       <c r="E2" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="F2" t="s">
-        <v>67</v>
+        <v>91</v>
       </c>
       <c r="G2" t="s">
-        <v>67</v>
+        <v>91</v>
       </c>
       <c r="H2" t="s">
         <v>5</v>
       </c>
       <c r="I2" t="s">
-        <v>67</v>
+        <v>91</v>
       </c>
       <c r="J2" t="s">
         <v>5</v>
       </c>
       <c r="K2" t="s">
-        <v>67</v>
+        <v>91</v>
       </c>
       <c r="L2" t="s">
-        <v>67</v>
+        <v>91</v>
       </c>
       <c r="M2" t="s">
         <v>5</v>
       </c>
       <c r="N2" t="s">
-        <v>67</v>
+        <v>91</v>
       </c>
       <c r="O2" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="P2" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="Q2" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="R2" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="S2" t="s">
-        <v>67</v>
+        <v>91</v>
       </c>
     </row>
   </sheetData>
@@ -1491,7 +1332,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:L4"/>
+  <dimension ref="A1:L3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1499,13 +1340,13 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="B1" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="C1" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="D1" t="s">
         <v>4</v>
@@ -1520,19 +1361,19 @@
         <v>17</v>
       </c>
       <c r="H1" t="s">
-        <v>34</v>
+        <v>95</v>
       </c>
       <c r="I1" t="s">
+        <v>96</v>
+      </c>
+      <c r="J1" t="s">
+        <v>97</v>
+      </c>
+      <c r="K1" t="s">
+        <v>98</v>
+      </c>
+      <c r="L1" t="s">
         <v>99</v>
-      </c>
-      <c r="J1" t="s">
-        <v>100</v>
-      </c>
-      <c r="K1" t="s">
-        <v>101</v>
-      </c>
-      <c r="L1" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="2">
@@ -1558,7 +1399,7 @@
         <v>1.0</v>
       </c>
       <c r="H2" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="I2" t="n">
         <v>0.0</v>
@@ -1570,12 +1411,12 @@
         <v>0.0</v>
       </c>
       <c r="L2" t="n">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="n">
-        <v>1.0</v>
+      <c r="A3" t="s">
+        <v>100</v>
       </c>
       <c r="B3" t="n">
         <v>0.0</v>
@@ -1587,13 +1428,13 @@
         <v>1.0</v>
       </c>
       <c r="E3" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="F3" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="H3" t="n">
         <v>0.0</v>
@@ -1608,45 +1449,7 @@
         <v>0.0</v>
       </c>
       <c r="L3" t="n">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s">
-        <v>103</v>
-      </c>
-      <c r="B4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D4" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="E4" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="F4" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="G4" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="L4" t="n">
-        <v>6.0</v>
+        <v>4.0</v>
       </c>
     </row>
   </sheetData>
@@ -1656,7 +1459,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:M9"/>
+  <dimension ref="A1:M8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1667,45 +1470,45 @@
         <v>2</v>
       </c>
       <c r="B1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C1" t="s">
+        <v>102</v>
+      </c>
+      <c r="D1" t="s">
+        <v>103</v>
+      </c>
+      <c r="E1" t="s">
         <v>104</v>
       </c>
-      <c r="C1" t="s">
+      <c r="F1" t="s">
         <v>105</v>
       </c>
-      <c r="D1" t="s">
+      <c r="G1" t="s">
         <v>106</v>
       </c>
-      <c r="E1" t="s">
+      <c r="H1" t="s">
+        <v>104</v>
+      </c>
+      <c r="I1" t="s">
         <v>107</v>
       </c>
-      <c r="F1" t="s">
+      <c r="J1" t="s">
         <v>108</v>
       </c>
-      <c r="G1" t="s">
+      <c r="K1" t="s">
         <v>109</v>
       </c>
-      <c r="H1" t="s">
-        <v>107</v>
-      </c>
-      <c r="I1" t="s">
+      <c r="L1" t="s">
         <v>110</v>
       </c>
-      <c r="J1" t="s">
+      <c r="M1" t="s">
         <v>111</v>
-      </c>
-      <c r="K1" t="s">
-        <v>112</v>
-      </c>
-      <c r="L1" t="s">
-        <v>113</v>
-      </c>
-      <c r="M1" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>8.0</v>
+        <v>6.0</v>
       </c>
       <c r="B2" t="n">
         <v>0.0</v>
@@ -1714,7 +1517,7 @@
         <v>0.0</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="E2" t="n">
         <v>0.0</v>
@@ -1738,7 +1541,7 @@
         <v>0.0</v>
       </c>
       <c r="L2" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="M2" t="n">
         <v>0.0</v>
@@ -1746,7 +1549,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>9.0</v>
+        <v>7.0</v>
       </c>
       <c r="B3" t="n">
         <v>0.0</v>
@@ -1755,7 +1558,7 @@
         <v>0.0</v>
       </c>
       <c r="D3" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="E3" t="n">
         <v>0.0</v>
@@ -1779,7 +1582,7 @@
         <v>0.0</v>
       </c>
       <c r="L3" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="M3" t="n">
         <v>0.0</v>
@@ -1787,7 +1590,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>10.0</v>
+        <v>8.0</v>
       </c>
       <c r="B4" t="n">
         <v>0.0</v>
@@ -1805,7 +1608,7 @@
         <v>0.0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="H4" t="n">
         <v>0.0</v>
@@ -1820,7 +1623,7 @@
         <v>0.0</v>
       </c>
       <c r="L4" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="M4" t="n">
         <v>0.0</v>
@@ -1828,7 +1631,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>11.0</v>
+        <v>9.0</v>
       </c>
       <c r="B5" t="n">
         <v>0.0</v>
@@ -1840,7 +1643,7 @@
         <v>0.0</v>
       </c>
       <c r="E5" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="F5" t="n">
         <v>0.0</v>
@@ -1861,7 +1664,7 @@
         <v>0.0</v>
       </c>
       <c r="L5" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="M5" t="n">
         <v>0.0</v>
@@ -1869,7 +1672,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>12.0</v>
+        <v>10.0</v>
       </c>
       <c r="B6" t="n">
         <v>0.0</v>
@@ -1887,7 +1690,7 @@
         <v>0.0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="H6" t="n">
         <v>0.0</v>
@@ -1902,7 +1705,7 @@
         <v>0.0</v>
       </c>
       <c r="L6" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="M6" t="n">
         <v>1.0</v>
@@ -1910,7 +1713,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>13.0</v>
+        <v>11.0</v>
       </c>
       <c r="B7" t="n">
         <v>0.0</v>
@@ -1940,18 +1743,18 @@
         <v>0.0</v>
       </c>
       <c r="K7" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="L7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="M7" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>14.0</v>
+        <v>12.0</v>
       </c>
       <c r="B8" t="n">
         <v>0.0</v>
@@ -1981,54 +1784,13 @@
         <v>0.0</v>
       </c>
       <c r="K8" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="L8" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="M8" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>15.0</v>
-      </c>
-      <c r="B9" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D9" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="E9" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="F9" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="G9" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="L9" t="s">
-        <v>120</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
   </sheetData>
@@ -2038,7 +1800,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F29"/>
+  <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2046,22 +1808,22 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C1" t="s">
         <v>121</v>
-      </c>
-      <c r="B1" t="s">
-        <v>122</v>
-      </c>
-      <c r="C1" t="s">
-        <v>123</v>
       </c>
       <c r="D1" t="s">
         <v>2</v>
       </c>
       <c r="E1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F1" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
     </row>
     <row r="2">
@@ -2069,16 +1831,16 @@
         <v>1130.0</v>
       </c>
       <c r="B2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C2" t="s">
         <v>9</v>
       </c>
       <c r="D2" t="n">
-        <v>8.0</v>
+        <v>6.0</v>
       </c>
       <c r="E2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="F2" t="n">
         <v>0.0</v>
@@ -2089,16 +1851,16 @@
         <v>1090.0</v>
       </c>
       <c r="B3" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C3" t="s">
         <v>9</v>
       </c>
       <c r="D3" t="n">
-        <v>8.0</v>
+        <v>6.0</v>
       </c>
       <c r="E3" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="F3" t="n">
         <v>0.0</v>
@@ -2106,19 +1868,19 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1020.0</v>
+        <v>1022.0</v>
       </c>
       <c r="B4" t="s">
-        <v>125</v>
+        <v>35</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>35</v>
       </c>
       <c r="D4" t="n">
-        <v>8.0</v>
+        <v>6.0</v>
       </c>
       <c r="E4" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="F4" t="n">
         <v>0.0</v>
@@ -2129,16 +1891,16 @@
         <v>1130.0</v>
       </c>
       <c r="B5" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C5" t="s">
         <v>9</v>
       </c>
       <c r="D5" t="n">
-        <v>9.0</v>
+        <v>7.0</v>
       </c>
       <c r="E5" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="F5" t="n">
         <v>0.0</v>
@@ -2149,16 +1911,16 @@
         <v>1090.0</v>
       </c>
       <c r="B6" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C6" t="s">
         <v>9</v>
       </c>
       <c r="D6" t="n">
-        <v>9.0</v>
+        <v>7.0</v>
       </c>
       <c r="E6" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="F6" t="n">
         <v>0.0</v>
@@ -2169,16 +1931,16 @@
         <v>1130.0</v>
       </c>
       <c r="B7" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C7" t="s">
         <v>19</v>
       </c>
       <c r="D7" t="n">
-        <v>10.0</v>
+        <v>8.0</v>
       </c>
       <c r="E7" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="F7" t="n">
         <v>0.0</v>
@@ -2189,16 +1951,16 @@
         <v>1130.0</v>
       </c>
       <c r="B8" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C8" t="s">
         <v>9</v>
       </c>
       <c r="D8" t="n">
-        <v>10.0</v>
+        <v>8.0</v>
       </c>
       <c r="E8" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="F8" t="n">
         <v>0.0</v>
@@ -2209,16 +1971,16 @@
         <v>1090.0</v>
       </c>
       <c r="B9" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C9" t="s">
         <v>19</v>
       </c>
       <c r="D9" t="n">
-        <v>10.0</v>
+        <v>8.0</v>
       </c>
       <c r="E9" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="F9" t="n">
         <v>0.0</v>
@@ -2226,19 +1988,19 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>1020.0</v>
+        <v>1022.0</v>
       </c>
       <c r="B10" t="s">
-        <v>125</v>
+        <v>47</v>
       </c>
       <c r="C10" t="s">
-        <v>19</v>
+        <v>47</v>
       </c>
       <c r="D10" t="n">
-        <v>10.0</v>
+        <v>8.0</v>
       </c>
       <c r="E10" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="F10" t="n">
         <v>0.0</v>
@@ -2249,16 +2011,16 @@
         <v>1130.0</v>
       </c>
       <c r="B11" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C11" t="s">
         <v>15</v>
       </c>
       <c r="D11" t="n">
-        <v>11.0</v>
+        <v>9.0</v>
       </c>
       <c r="E11" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="F11" t="n">
         <v>0.0</v>
@@ -2269,16 +2031,16 @@
         <v>1130.0</v>
       </c>
       <c r="B12" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C12" t="s">
         <v>9</v>
       </c>
       <c r="D12" t="n">
-        <v>11.0</v>
+        <v>9.0</v>
       </c>
       <c r="E12" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="F12" t="n">
         <v>0.0</v>
@@ -2289,16 +2051,16 @@
         <v>1090.0</v>
       </c>
       <c r="B13" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C13" t="s">
         <v>15</v>
       </c>
       <c r="D13" t="n">
-        <v>11.0</v>
+        <v>9.0</v>
       </c>
       <c r="E13" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="F13" t="n">
         <v>0.0</v>
@@ -2306,19 +2068,19 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>1020.0</v>
+        <v>1022.0</v>
       </c>
       <c r="B14" t="s">
-        <v>125</v>
+        <v>35</v>
       </c>
       <c r="C14" t="s">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="D14" t="n">
-        <v>11.0</v>
+        <v>9.0</v>
       </c>
       <c r="E14" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="F14" t="n">
         <v>0.0</v>
@@ -2329,16 +2091,16 @@
         <v>1130.0</v>
       </c>
       <c r="B15" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C15" t="s">
         <v>15</v>
       </c>
       <c r="D15" t="n">
-        <v>12.0</v>
+        <v>10.0</v>
       </c>
       <c r="E15" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="F15" t="n">
         <v>0.0</v>
@@ -2349,16 +2111,16 @@
         <v>1130.0</v>
       </c>
       <c r="B16" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C16" t="s">
         <v>19</v>
       </c>
       <c r="D16" t="n">
-        <v>12.0</v>
+        <v>10.0</v>
       </c>
       <c r="E16" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="F16" t="n">
         <v>0.0</v>
@@ -2369,16 +2131,16 @@
         <v>1090.0</v>
       </c>
       <c r="B17" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C17" t="s">
         <v>15</v>
       </c>
       <c r="D17" t="n">
-        <v>12.0</v>
+        <v>10.0</v>
       </c>
       <c r="E17" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="F17" t="n">
         <v>0.0</v>
@@ -2386,19 +2148,19 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>1020.0</v>
+        <v>1022.0</v>
       </c>
       <c r="B18" t="s">
-        <v>125</v>
+        <v>41</v>
       </c>
       <c r="C18" t="s">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="D18" t="n">
-        <v>12.0</v>
+        <v>10.0</v>
       </c>
       <c r="E18" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="F18" t="n">
         <v>0.0</v>
@@ -2409,16 +2171,16 @@
         <v>1130.0</v>
       </c>
       <c r="B19" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C19" t="s">
         <v>9</v>
       </c>
       <c r="D19" t="n">
-        <v>13.0</v>
+        <v>11.0</v>
       </c>
       <c r="E19" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="F19" t="n">
         <v>0.0</v>
@@ -2429,16 +2191,16 @@
         <v>1090.0</v>
       </c>
       <c r="B20" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C20" t="s">
         <v>9</v>
       </c>
       <c r="D20" t="n">
-        <v>13.0</v>
+        <v>11.0</v>
       </c>
       <c r="E20" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="F20" t="n">
         <v>0.0</v>
@@ -2446,19 +2208,19 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>1020.0</v>
+        <v>1022.0</v>
       </c>
       <c r="B21" t="s">
-        <v>125</v>
+        <v>47</v>
       </c>
       <c r="C21" t="s">
-        <v>9</v>
+        <v>47</v>
       </c>
       <c r="D21" t="n">
-        <v>13.0</v>
+        <v>11.0</v>
       </c>
       <c r="E21" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="F21" t="n">
         <v>0.0</v>
@@ -2469,16 +2231,16 @@
         <v>1130.0</v>
       </c>
       <c r="B22" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C22" t="s">
         <v>23</v>
       </c>
       <c r="D22" t="n">
-        <v>14.0</v>
+        <v>12.0</v>
       </c>
       <c r="E22" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="F22" t="n">
         <v>0.0</v>
@@ -2489,16 +2251,16 @@
         <v>1130.0</v>
       </c>
       <c r="B23" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C23" t="s">
         <v>9</v>
       </c>
       <c r="D23" t="n">
-        <v>14.0</v>
+        <v>12.0</v>
       </c>
       <c r="E23" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="F23" t="n">
         <v>0.0</v>
@@ -2509,16 +2271,16 @@
         <v>1130.0</v>
       </c>
       <c r="B24" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C24" t="s">
         <v>15</v>
       </c>
       <c r="D24" t="n">
-        <v>14.0</v>
+        <v>12.0</v>
       </c>
       <c r="E24" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="F24" t="n">
         <v>0.0</v>
@@ -2529,98 +2291,18 @@
         <v>1090.0</v>
       </c>
       <c r="B25" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C25" t="s">
         <v>23</v>
       </c>
       <c r="D25" t="n">
-        <v>14.0</v>
+        <v>12.0</v>
       </c>
       <c r="E25" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="F25" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="n">
-        <v>1130.0</v>
-      </c>
-      <c r="B26" t="s">
-        <v>125</v>
-      </c>
-      <c r="C26" t="s">
-        <v>36</v>
-      </c>
-      <c r="D26" t="n">
-        <v>15.0</v>
-      </c>
-      <c r="E26" t="s">
-        <v>126</v>
-      </c>
-      <c r="F26" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="n">
-        <v>1190.0</v>
-      </c>
-      <c r="B27" t="s">
-        <v>125</v>
-      </c>
-      <c r="C27" t="s">
-        <v>30</v>
-      </c>
-      <c r="D27" t="n">
-        <v>15.0</v>
-      </c>
-      <c r="E27" t="s">
-        <v>126</v>
-      </c>
-      <c r="F27" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="n">
-        <v>1170.0</v>
-      </c>
-      <c r="B28" t="s">
-        <v>125</v>
-      </c>
-      <c r="C28" t="s">
-        <v>30</v>
-      </c>
-      <c r="D28" t="n">
-        <v>15.0</v>
-      </c>
-      <c r="E28" t="s">
-        <v>126</v>
-      </c>
-      <c r="F28" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="n">
-        <v>1020.0</v>
-      </c>
-      <c r="B29" t="s">
-        <v>125</v>
-      </c>
-      <c r="C29" t="s">
-        <v>30</v>
-      </c>
-      <c r="D29" t="n">
-        <v>15.0</v>
-      </c>
-      <c r="E29" t="s">
-        <v>126</v>
-      </c>
-      <c r="F29" t="n">
         <v>0.0</v>
       </c>
     </row>

--- a/src/Excel/Yañez_Gonzalez_Christian_Emmanuel.xlsx
+++ b/src/Excel/Yañez_Gonzalez_Christian_Emmanuel.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="91">
   <si>
     <t>Estado</t>
   </si>
@@ -37,31 +37,76 @@
     <t>1</t>
   </si>
   <si>
-    <t>-68</t>
-  </si>
-  <si>
-    <t>:</t>
-  </si>
-  <si>
     <t>-1</t>
   </si>
   <si>
+    <t>f</t>
+  </si>
+  <si>
+    <t>-49</t>
+  </si>
+  <si>
+    <t>(</t>
+  </si>
+  <si>
     <t>a</t>
   </si>
   <si>
-    <t>-47</t>
-  </si>
-  <si>
-    <t>,</t>
-  </si>
-  <si>
-    <t>b</t>
-  </si>
-  <si>
-    <t>c</t>
-  </si>
-  <si>
-    <t>e</t>
+    <t>-50</t>
+  </si>
+  <si>
+    <t>)</t>
+  </si>
+  <si>
+    <t>-61</t>
+  </si>
+  <si>
+    <t>main</t>
+  </si>
+  <si>
+    <t>-53</t>
+  </si>
+  <si>
+    <t>{</t>
+  </si>
+  <si>
+    <t>-92</t>
+  </si>
+  <si>
+    <t>return</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>-24</t>
+  </si>
+  <si>
+    <t>+</t>
+  </si>
+  <si>
+    <t>-19</t>
+  </si>
+  <si>
+    <t>-27</t>
+  </si>
+  <si>
+    <t>/</t>
+  </si>
+  <si>
+    <t>-21</t>
+  </si>
+  <si>
+    <t>5.5</t>
+  </si>
+  <si>
+    <t>-54</t>
+  </si>
+  <si>
+    <t>}</t>
+  </si>
+  <si>
+    <t>3</t>
   </si>
   <si>
     <t>-46</t>
@@ -70,159 +115,94 @@
     <t>;</t>
   </si>
   <si>
-    <t>-61</t>
-  </si>
-  <si>
-    <t>main</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>-49</t>
-  </si>
-  <si>
-    <t>(</t>
-  </si>
-  <si>
-    <t>-50</t>
-  </si>
-  <si>
-    <t>)</t>
-  </si>
-  <si>
-    <t>-53</t>
-  </si>
-  <si>
-    <t>{</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>-51</t>
-  </si>
-  <si>
-    <t>[</t>
-  </si>
-  <si>
-    <t>-19</t>
+    <t>4</t>
+  </si>
+  <si>
+    <t>Token</t>
+  </si>
+  <si>
+    <t>Descripción</t>
+  </si>
+  <si>
+    <t>Tipo</t>
+  </si>
+  <si>
+    <t>1140</t>
+  </si>
+  <si>
+    <t>Se esperaba un valor: INT</t>
+  </si>
+  <si>
+    <t>REAL</t>
+  </si>
+  <si>
+    <t>Semantica Etapa 2</t>
+  </si>
+  <si>
+    <t>Erroes</t>
+  </si>
+  <si>
+    <t>Identificadores</t>
+  </si>
+  <si>
+    <t>Comentarios</t>
+  </si>
+  <si>
+    <t>Palabras reservadas</t>
+  </si>
+  <si>
+    <t>C-Enteras</t>
+  </si>
+  <si>
+    <t>C-Texto</t>
+  </si>
+  <si>
+    <t>C-Decimal</t>
+  </si>
+  <si>
+    <t>C-Carácter</t>
+  </si>
+  <si>
+    <t>C-Exponencial</t>
+  </si>
+  <si>
+    <t>Aritmeticos</t>
+  </si>
+  <si>
+    <t>Monogamo</t>
+  </si>
+  <si>
+    <t>Logico</t>
+  </si>
+  <si>
+    <t>Relacionales</t>
+  </si>
+  <si>
+    <t>Bit</t>
+  </si>
+  <si>
+    <t>Puntuación</t>
+  </si>
+  <si>
+    <t>Agrupación</t>
+  </si>
+  <si>
+    <t>Asignación</t>
+  </si>
+  <si>
+    <t>Sintaxis</t>
+  </si>
+  <si>
+    <t>Funciones</t>
   </si>
   <si>
     <t>0</t>
   </si>
   <si>
-    <t>-52</t>
-  </si>
-  <si>
-    <t>]</t>
-  </si>
-  <si>
-    <t>-24</t>
-  </si>
-  <si>
-    <t>+</t>
-  </si>
-  <si>
-    <t>-54</t>
-  </si>
-  <si>
-    <t>}</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>-3</t>
-  </si>
-  <si>
-    <t>/*
-Regla 1030 Tres veces
-*/</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>Token</t>
-  </si>
-  <si>
-    <t>Descripción</t>
-  </si>
-  <si>
-    <t>Tipo</t>
-  </si>
-  <si>
-    <t>1030</t>
-  </si>
-  <si>
-    <t>Dimension fuera del rango</t>
-  </si>
-  <si>
-    <t>[ ... ]</t>
-  </si>
-  <si>
-    <t>Semantica 2</t>
-  </si>
-  <si>
-    <t>Erroes</t>
-  </si>
-  <si>
-    <t>Identificadores</t>
-  </si>
-  <si>
-    <t>Comentarios</t>
-  </si>
-  <si>
-    <t>Palabras reservadas</t>
-  </si>
-  <si>
-    <t>C-Enteras</t>
-  </si>
-  <si>
-    <t>C-Texto</t>
-  </si>
-  <si>
-    <t>C-Decimal</t>
-  </si>
-  <si>
-    <t>C-Carácter</t>
-  </si>
-  <si>
-    <t>C-Exponencial</t>
-  </si>
-  <si>
-    <t>Aritmeticos</t>
-  </si>
-  <si>
-    <t>Monogamo</t>
-  </si>
-  <si>
-    <t>Logico</t>
-  </si>
-  <si>
-    <t>Relacionales</t>
-  </si>
-  <si>
-    <t>Bit</t>
-  </si>
-  <si>
-    <t>Puntuación</t>
-  </si>
-  <si>
-    <t>Agrupación</t>
-  </si>
-  <si>
-    <t>Asignación</t>
-  </si>
-  <si>
-    <t>Sintaxis</t>
-  </si>
-  <si>
-    <t>Funciones</t>
-  </si>
-  <si>
-    <t>12</t>
+    <t>10</t>
+  </si>
+  <si>
+    <t>5</t>
   </si>
   <si>
     <t>Ambito</t>
@@ -232,9 +212,6 @@
   </si>
   <si>
     <t>String (CHAR[])</t>
-  </si>
-  <si>
-    <t>REAL</t>
   </si>
   <si>
     <t>BOOL</t>
@@ -357,7 +334,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C34"/>
+  <dimension ref="A1:C24"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -409,10 +386,10 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="C5" t="s">
         <v>5</v>
@@ -420,10 +397,10 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
@@ -431,10 +408,10 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C7" t="s">
         <v>5</v>
@@ -442,10 +419,10 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C8" t="s">
         <v>5</v>
@@ -453,10 +430,10 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C9" t="s">
         <v>5</v>
@@ -464,10 +441,10 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C10" t="s">
         <v>5</v>
@@ -497,10 +474,10 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="B13" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="C13" t="s">
         <v>19</v>
@@ -508,10 +485,10 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C14" t="s">
         <v>19</v>
@@ -519,10 +496,10 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="C15" t="s">
         <v>19</v>
@@ -530,211 +507,101 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="B16" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="C16" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B17" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C17" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="B18" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="C18" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B19" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C19" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="B20" t="s">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="C20" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="B21" t="s">
+        <v>9</v>
+      </c>
+      <c r="C21" t="s">
         <v>32</v>
-      </c>
-      <c r="C21" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="B22" t="s">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="C22" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="B23" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="C23" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B24" t="s">
+        <v>28</v>
+      </c>
+      <c r="C24" t="s">
         <v>32</v>
-      </c>
-      <c r="C24" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="s">
-        <v>27</v>
-      </c>
-      <c r="B25" t="s">
-        <v>28</v>
-      </c>
-      <c r="C25" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="s">
-        <v>8</v>
-      </c>
-      <c r="B26" t="s">
-        <v>9</v>
-      </c>
-      <c r="C26" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="s">
-        <v>31</v>
-      </c>
-      <c r="B27" t="s">
-        <v>32</v>
-      </c>
-      <c r="C27" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="s">
-        <v>27</v>
-      </c>
-      <c r="B28" t="s">
-        <v>28</v>
-      </c>
-      <c r="C28" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="s">
-        <v>8</v>
-      </c>
-      <c r="B29" t="s">
-        <v>13</v>
-      </c>
-      <c r="C29" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="s">
-        <v>33</v>
-      </c>
-      <c r="B30" t="s">
-        <v>34</v>
-      </c>
-      <c r="C30" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="s">
-        <v>29</v>
-      </c>
-      <c r="B31" t="s">
-        <v>19</v>
-      </c>
-      <c r="C31" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="s">
-        <v>31</v>
-      </c>
-      <c r="B32" t="s">
-        <v>32</v>
-      </c>
-      <c r="C32" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="s">
-        <v>35</v>
-      </c>
-      <c r="B33" t="s">
-        <v>36</v>
-      </c>
-      <c r="C33" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="s">
-        <v>38</v>
-      </c>
-      <c r="B34" t="s">
-        <v>39</v>
-      </c>
-      <c r="C34" t="s">
-        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -744,7 +611,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -752,16 +619,16 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="B1" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="E1" t="s">
         <v>2</v>
@@ -769,70 +636,19 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="B2" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="C2" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="D2" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="E2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s">
-        <v>44</v>
-      </c>
-      <c r="B3" t="s">
-        <v>45</v>
-      </c>
-      <c r="C3" t="s">
-        <v>46</v>
-      </c>
-      <c r="D3" t="s">
-        <v>47</v>
-      </c>
-      <c r="E3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s">
-        <v>44</v>
-      </c>
-      <c r="B4" t="s">
-        <v>45</v>
-      </c>
-      <c r="C4" t="s">
-        <v>46</v>
-      </c>
-      <c r="D4" t="s">
-        <v>47</v>
-      </c>
-      <c r="E4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s">
-        <v>44</v>
-      </c>
-      <c r="B5" t="s">
-        <v>45</v>
-      </c>
-      <c r="C5" t="s">
-        <v>46</v>
-      </c>
-      <c r="D5" t="s">
-        <v>47</v>
-      </c>
-      <c r="E5" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -850,120 +666,120 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G1" t="s">
+        <v>46</v>
+      </c>
+      <c r="H1" t="s">
+        <v>47</v>
+      </c>
+      <c r="I1" t="s">
         <v>48</v>
       </c>
-      <c r="B1" t="s">
+      <c r="J1" t="s">
         <v>49</v>
       </c>
-      <c r="C1" t="s">
+      <c r="K1" t="s">
         <v>50</v>
       </c>
-      <c r="D1" t="s">
+      <c r="L1" t="s">
         <v>51</v>
       </c>
-      <c r="E1" t="s">
+      <c r="M1" t="s">
         <v>52</v>
       </c>
-      <c r="F1" t="s">
+      <c r="N1" t="s">
         <v>53</v>
       </c>
-      <c r="G1" t="s">
+      <c r="O1" t="s">
         <v>54</v>
       </c>
-      <c r="H1" t="s">
+      <c r="P1" t="s">
         <v>55</v>
       </c>
-      <c r="I1" t="s">
+      <c r="Q1" t="s">
         <v>56</v>
       </c>
-      <c r="J1" t="s">
+      <c r="R1" t="s">
         <v>57</v>
       </c>
-      <c r="K1" t="s">
+      <c r="S1" t="s">
         <v>58</v>
-      </c>
-      <c r="L1" t="s">
-        <v>59</v>
-      </c>
-      <c r="M1" t="s">
-        <v>60</v>
-      </c>
-      <c r="N1" t="s">
-        <v>61</v>
-      </c>
-      <c r="O1" t="s">
-        <v>62</v>
-      </c>
-      <c r="P1" t="s">
-        <v>63</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>64</v>
-      </c>
-      <c r="R1" t="s">
-        <v>65</v>
-      </c>
-      <c r="S1" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>37</v>
+        <v>59</v>
       </c>
       <c r="B2" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
+        <v>59</v>
       </c>
       <c r="D2" t="s">
-        <v>30</v>
+        <v>59</v>
       </c>
       <c r="E2" t="s">
-        <v>26</v>
+        <v>5</v>
       </c>
       <c r="F2" t="s">
-        <v>30</v>
+        <v>59</v>
       </c>
       <c r="G2" t="s">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="H2" t="s">
-        <v>30</v>
+        <v>59</v>
       </c>
       <c r="I2" t="s">
-        <v>30</v>
+        <v>59</v>
       </c>
       <c r="J2" t="s">
         <v>19</v>
       </c>
       <c r="K2" t="s">
-        <v>30</v>
+        <v>59</v>
       </c>
       <c r="L2" t="s">
-        <v>30</v>
+        <v>59</v>
       </c>
       <c r="M2" t="s">
-        <v>30</v>
+        <v>59</v>
       </c>
       <c r="N2" t="s">
-        <v>30</v>
+        <v>59</v>
       </c>
       <c r="O2" t="s">
-        <v>37</v>
+        <v>5</v>
       </c>
       <c r="P2" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="Q2" t="s">
-        <v>30</v>
+        <v>59</v>
       </c>
       <c r="R2" t="s">
-        <v>26</v>
+        <v>61</v>
       </c>
       <c r="S2" t="s">
-        <v>30</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -973,7 +789,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:L3"/>
+  <dimension ref="A1:L4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -981,40 +797,40 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="B1" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="C1" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="D1" t="s">
         <v>4</v>
       </c>
       <c r="E1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G1" t="s">
+        <v>66</v>
+      </c>
+      <c r="H1" t="s">
+        <v>67</v>
+      </c>
+      <c r="I1" t="s">
+        <v>68</v>
+      </c>
+      <c r="J1" t="s">
+        <v>69</v>
+      </c>
+      <c r="K1" t="s">
+        <v>70</v>
+      </c>
+      <c r="L1" t="s">
         <v>71</v>
-      </c>
-      <c r="F1" t="s">
-        <v>72</v>
-      </c>
-      <c r="G1" t="s">
-        <v>73</v>
-      </c>
-      <c r="H1" t="s">
-        <v>74</v>
-      </c>
-      <c r="I1" t="s">
-        <v>75</v>
-      </c>
-      <c r="J1" t="s">
-        <v>76</v>
-      </c>
-      <c r="K1" t="s">
-        <v>77</v>
-      </c>
-      <c r="L1" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="2">
@@ -1028,7 +844,7 @@
         <v>0.0</v>
       </c>
       <c r="D2" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
       <c r="E2" t="n">
         <v>0.0</v>
@@ -1052,12 +868,12 @@
         <v>0.0</v>
       </c>
       <c r="L2" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s">
-        <v>79</v>
+      <c r="A3" t="n">
+        <v>1.0</v>
       </c>
       <c r="B3" t="n">
         <v>0.0</v>
@@ -1066,7 +882,7 @@
         <v>0.0</v>
       </c>
       <c r="D3" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
       <c r="E3" t="n">
         <v>0.0</v>
@@ -1090,7 +906,45 @@
         <v>0.0</v>
       </c>
       <c r="L3" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>72</v>
+      </c>
+      <c r="B4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>2.0</v>
       </c>
     </row>
   </sheetData>
@@ -1111,40 +965,40 @@
         <v>2</v>
       </c>
       <c r="B1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D1" t="s">
+        <v>75</v>
+      </c>
+      <c r="E1" t="s">
+        <v>76</v>
+      </c>
+      <c r="F1" t="s">
+        <v>77</v>
+      </c>
+      <c r="G1" t="s">
+        <v>78</v>
+      </c>
+      <c r="H1" t="s">
+        <v>76</v>
+      </c>
+      <c r="I1" t="s">
+        <v>79</v>
+      </c>
+      <c r="J1" t="s">
         <v>80</v>
       </c>
-      <c r="C1" t="s">
+      <c r="K1" t="s">
         <v>81</v>
       </c>
-      <c r="D1" t="s">
+      <c r="L1" t="s">
         <v>82</v>
       </c>
-      <c r="E1" t="s">
+      <c r="M1" t="s">
         <v>83</v>
-      </c>
-      <c r="F1" t="s">
-        <v>84</v>
-      </c>
-      <c r="G1" t="s">
-        <v>85</v>
-      </c>
-      <c r="H1" t="s">
-        <v>83</v>
-      </c>
-      <c r="I1" t="s">
-        <v>86</v>
-      </c>
-      <c r="J1" t="s">
-        <v>87</v>
-      </c>
-      <c r="K1" t="s">
-        <v>88</v>
-      </c>
-      <c r="L1" t="s">
-        <v>89</v>
-      </c>
-      <c r="M1" t="s">
-        <v>90</v>
       </c>
     </row>
   </sheetData>
@@ -1154,7 +1008,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1162,22 +1016,22 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="B1" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="C1" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="D1" t="s">
         <v>2</v>
       </c>
       <c r="E1" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="F1" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
     </row>
     <row r="2">
@@ -1185,159 +1039,39 @@
         <v>1130.0</v>
       </c>
       <c r="B2" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="C2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D2" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="E2" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1130.0</v>
+        <v>1140.0</v>
       </c>
       <c r="B3" t="s">
-        <v>95</v>
+        <v>31</v>
       </c>
       <c r="C3" t="s">
-        <v>14</v>
+        <v>38</v>
       </c>
       <c r="D3" t="n">
         <v>3.0</v>
       </c>
       <c r="E3" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="F3" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>1030.0</v>
-      </c>
-      <c r="B4" t="s">
-        <v>28</v>
-      </c>
-      <c r="C4" t="s">
-        <v>28</v>
-      </c>
-      <c r="D4" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="E4" t="s">
-        <v>97</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>1030.0</v>
-      </c>
-      <c r="B5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C5" t="s">
-        <v>28</v>
-      </c>
-      <c r="D5" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="E5" t="s">
-        <v>97</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>1130.0</v>
-      </c>
-      <c r="B6" t="s">
-        <v>95</v>
-      </c>
-      <c r="C6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="E6" t="s">
-        <v>96</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>1030.0</v>
-      </c>
-      <c r="B7" t="s">
-        <v>28</v>
-      </c>
-      <c r="C7" t="s">
-        <v>28</v>
-      </c>
-      <c r="D7" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="E7" t="s">
-        <v>97</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>1130.0</v>
-      </c>
-      <c r="B8" t="s">
-        <v>95</v>
-      </c>
-      <c r="C8" t="s">
-        <v>13</v>
-      </c>
-      <c r="D8" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="E8" t="s">
-        <v>96</v>
-      </c>
-      <c r="F8" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>1030.0</v>
-      </c>
-      <c r="B9" t="s">
-        <v>28</v>
-      </c>
-      <c r="C9" t="s">
-        <v>28</v>
-      </c>
-      <c r="D9" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="E9" t="s">
-        <v>97</v>
-      </c>
-      <c r="F9" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
   </sheetData>

--- a/src/Excel/Yañez_Gonzalez_Christian_Emmanuel.xlsx
+++ b/src/Excel/Yañez_Gonzalez_Christian_Emmanuel.xlsx
@@ -12,12 +12,13 @@
     <sheet name="Ambito" r:id="rId6" sheetId="4"/>
     <sheet name="Semtica_Etapa_1" r:id="rId7" sheetId="5"/>
     <sheet name="Semtica_Etapa_2" r:id="rId8" sheetId="6"/>
+    <sheet name="Semtica_Etapa_3" r:id="rId9" sheetId="7"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="134">
   <si>
     <t>Estado</t>
   </si>
@@ -28,15 +29,57 @@
     <t>Linea</t>
   </si>
   <si>
+    <t>-97</t>
+  </si>
+  <si>
+    <t>INT</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>-51</t>
+  </si>
+  <si>
+    <t>[</t>
+  </si>
+  <si>
+    <t>-19</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>-52</t>
+  </si>
+  <si>
+    <t>]</t>
+  </si>
+  <si>
+    <t>-68</t>
+  </si>
+  <si>
+    <t>:</t>
+  </si>
+  <si>
+    <t>-1</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>-46</t>
+  </si>
+  <si>
+    <t>;</t>
+  </si>
+  <si>
     <t>-61</t>
   </si>
   <si>
     <t>main</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>-49</t>
   </si>
   <si>
@@ -55,22 +98,13 @@
     <t>{</t>
   </si>
   <si>
-    <t>-4</t>
-  </si>
-  <si>
-    <t>if</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>-19</t>
-  </si>
-  <si>
-    <t>-36</t>
-  </si>
-  <si>
-    <t>&lt;</t>
+    <t>3</t>
+  </si>
+  <si>
+    <t>-71</t>
+  </si>
+  <si>
+    <t>sqrt</t>
   </si>
   <si>
     <t>-54</t>
@@ -79,7 +113,7 @@
     <t>}</t>
   </si>
   <si>
-    <t>3</t>
+    <t>4</t>
   </si>
   <si>
     <t>Token</t>
@@ -91,6 +125,15 @@
     <t>Tipo</t>
   </si>
   <si>
+    <t>1040</t>
+  </si>
+  <si>
+    <t>Se requiere un valor entero</t>
+  </si>
+  <si>
+    <t>Semantica 2</t>
+  </si>
+  <si>
     <t>Erroes</t>
   </si>
   <si>
@@ -151,7 +194,7 @@
     <t>0</t>
   </si>
   <si>
-    <t>6</t>
+    <t>10</t>
   </si>
   <si>
     <t>Ambito</t>
@@ -163,9 +206,6 @@
     <t>String (CHAR[])</t>
   </si>
   <si>
-    <t>INT</t>
-  </si>
-  <si>
     <t>REAL</t>
   </si>
   <si>
@@ -229,6 +269,9 @@
     <t>Regla</t>
   </si>
   <si>
+    <t>Funcion</t>
+  </si>
+  <si>
     <t>Tope Pila</t>
   </si>
   <si>
@@ -238,10 +281,145 @@
     <t>Edo</t>
   </si>
   <si>
-    <t>Cont_entero</t>
+    <t/>
+  </si>
+  <si>
+    <t>id</t>
   </si>
   <si>
     <t>Acept</t>
+  </si>
+  <si>
+    <t>sqrt_p1</t>
+  </si>
+  <si>
+    <t>const_entero</t>
+  </si>
+  <si>
+    <t>ERROR</t>
+  </si>
+  <si>
+    <t>Entradas</t>
+  </si>
+  <si>
+    <t>Salidas</t>
+  </si>
+  <si>
+    <t>Aceptados</t>
+  </si>
+  <si>
+    <t>sqr_p1</t>
+  </si>
+  <si>
+    <t>pow_p1</t>
+  </si>
+  <si>
+    <t>sqrtv_p1</t>
+  </si>
+  <si>
+    <t>pow_p2</t>
+  </si>
+  <si>
+    <t>sqrtv_p2</t>
+  </si>
+  <si>
+    <t>ins_p3</t>
+  </si>
+  <si>
+    <t>conv_p1</t>
+  </si>
+  <si>
+    <t>asc_p1</t>
+  </si>
+  <si>
+    <t>ins_p1</t>
+  </si>
+  <si>
+    <t>ins_p2</t>
+  </si>
+  <si>
+    <t>conv_p2</t>
+  </si>
+  <si>
+    <t>conv_p3</t>
+  </si>
+  <si>
+    <t>up_p1</t>
+  </si>
+  <si>
+    <t>low_p1</t>
+  </si>
+  <si>
+    <t>len_p1</t>
+  </si>
+  <si>
+    <t>$_p3</t>
+  </si>
+  <si>
+    <t>&lt;+_p1</t>
+  </si>
+  <si>
+    <t>&gt;+_p1</t>
+  </si>
+  <si>
+    <t>val_p1</t>
+  </si>
+  <si>
+    <t>$_p1</t>
+  </si>
+  <si>
+    <t>~_p1</t>
+  </si>
+  <si>
+    <t>&lt;+_p2</t>
+  </si>
+  <si>
+    <t>&gt;+_p2</t>
+  </si>
+  <si>
+    <t>$_p2</t>
+  </si>
+  <si>
+    <t>sqr</t>
+  </si>
+  <si>
+    <t>pow</t>
+  </si>
+  <si>
+    <t>sqrtv</t>
+  </si>
+  <si>
+    <t>&lt;+</t>
+  </si>
+  <si>
+    <t>&gt;+</t>
+  </si>
+  <si>
+    <t>ins</t>
+  </si>
+  <si>
+    <t>conv</t>
+  </si>
+  <si>
+    <t>up</t>
+  </si>
+  <si>
+    <t>low</t>
+  </si>
+  <si>
+    <t>len</t>
+  </si>
+  <si>
+    <t>asc</t>
+  </si>
+  <si>
+    <t>val</t>
+  </si>
+  <si>
+    <t>$</t>
+  </si>
+  <si>
+    <t>~</t>
   </si>
 </sst>
 </file>
@@ -286,7 +464,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -355,73 +533,172 @@
         <v>13</v>
       </c>
       <c r="C6" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="C7" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" t="s">
         <v>5</v>
-      </c>
-      <c r="C8" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B9" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C9" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B10" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="C10" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
         <v>9</v>
-      </c>
-      <c r="C11" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="B12" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>27</v>
+      </c>
+      <c r="B15" t="s">
+        <v>28</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
         <v>20</v>
+      </c>
+      <c r="B16" t="s">
+        <v>21</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>8</v>
+      </c>
+      <c r="B17" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>10</v>
+      </c>
+      <c r="B19" t="s">
+        <v>11</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>16</v>
+      </c>
+      <c r="B20" t="s">
+        <v>17</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>29</v>
+      </c>
+      <c r="B21" t="s">
+        <v>30</v>
+      </c>
+      <c r="C21" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -431,7 +708,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -439,19 +716,36 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="B1" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="E1" t="s">
         <v>2</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E2" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -469,120 +763,120 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="B1" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="C1" t="s">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="D1" t="s">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="E1" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="F1" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="G1" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="H1" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="I1" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="J1" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="K1" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="L1" t="s">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="M1" t="s">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="N1" t="s">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="O1" t="s">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="P1" t="s">
-        <v>39</v>
+        <v>53</v>
       </c>
       <c r="Q1" t="s">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="R1" t="s">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="S1" t="s">
-        <v>42</v>
+        <v>56</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>43</v>
+        <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>43</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>43</v>
+        <v>57</v>
       </c>
       <c r="D2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" t="s">
+        <v>57</v>
+      </c>
+      <c r="G2" t="s">
+        <v>57</v>
+      </c>
+      <c r="H2" t="s">
+        <v>57</v>
+      </c>
+      <c r="I2" t="s">
+        <v>57</v>
+      </c>
+      <c r="J2" t="s">
+        <v>57</v>
+      </c>
+      <c r="K2" t="s">
+        <v>57</v>
+      </c>
+      <c r="L2" t="s">
+        <v>57</v>
+      </c>
+      <c r="M2" t="s">
+        <v>57</v>
+      </c>
+      <c r="N2" t="s">
+        <v>57</v>
+      </c>
+      <c r="O2" t="s">
+        <v>9</v>
+      </c>
+      <c r="P2" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>57</v>
+      </c>
+      <c r="R2" t="s">
+        <v>26</v>
+      </c>
+      <c r="S2" t="s">
         <v>5</v>
-      </c>
-      <c r="E2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F2" t="s">
-        <v>43</v>
-      </c>
-      <c r="G2" t="s">
-        <v>43</v>
-      </c>
-      <c r="H2" t="s">
-        <v>43</v>
-      </c>
-      <c r="I2" t="s">
-        <v>43</v>
-      </c>
-      <c r="J2" t="s">
-        <v>43</v>
-      </c>
-      <c r="K2" t="s">
-        <v>43</v>
-      </c>
-      <c r="L2" t="s">
-        <v>43</v>
-      </c>
-      <c r="M2" t="s">
-        <v>5</v>
-      </c>
-      <c r="N2" t="s">
-        <v>43</v>
-      </c>
-      <c r="O2" t="s">
-        <v>43</v>
-      </c>
-      <c r="P2" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>43</v>
-      </c>
-      <c r="R2" t="s">
-        <v>5</v>
-      </c>
-      <c r="S2" t="s">
-        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -600,40 +894,40 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>45</v>
+        <v>59</v>
       </c>
       <c r="B1" t="s">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="C1" t="s">
-        <v>47</v>
+        <v>61</v>
       </c>
       <c r="D1" t="s">
-        <v>48</v>
+        <v>4</v>
       </c>
       <c r="E1" t="s">
-        <v>49</v>
+        <v>62</v>
       </c>
       <c r="F1" t="s">
-        <v>50</v>
+        <v>63</v>
       </c>
       <c r="G1" t="s">
-        <v>51</v>
+        <v>64</v>
       </c>
       <c r="H1" t="s">
-        <v>52</v>
+        <v>65</v>
       </c>
       <c r="I1" t="s">
-        <v>53</v>
+        <v>66</v>
       </c>
       <c r="J1" t="s">
-        <v>54</v>
+        <v>67</v>
       </c>
       <c r="K1" t="s">
-        <v>55</v>
+        <v>68</v>
       </c>
       <c r="L1" t="s">
-        <v>56</v>
+        <v>69</v>
       </c>
     </row>
     <row r="2">
@@ -647,7 +941,7 @@
         <v>0.0</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="E2" t="n">
         <v>0.0</v>
@@ -671,12 +965,12 @@
         <v>0.0</v>
       </c>
       <c r="L2" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>57</v>
+        <v>70</v>
       </c>
       <c r="B3" t="n">
         <v>0.0</v>
@@ -685,7 +979,7 @@
         <v>0.0</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="E3" t="n">
         <v>0.0</v>
@@ -709,7 +1003,7 @@
         <v>0.0</v>
       </c>
       <c r="L3" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
   </sheetData>
@@ -730,40 +1024,40 @@
         <v>2</v>
       </c>
       <c r="B1" t="s">
-        <v>58</v>
+        <v>71</v>
       </c>
       <c r="C1" t="s">
-        <v>59</v>
+        <v>72</v>
       </c>
       <c r="D1" t="s">
-        <v>60</v>
+        <v>73</v>
       </c>
       <c r="E1" t="s">
-        <v>61</v>
+        <v>74</v>
       </c>
       <c r="F1" t="s">
-        <v>62</v>
+        <v>75</v>
       </c>
       <c r="G1" t="s">
-        <v>63</v>
+        <v>76</v>
       </c>
       <c r="H1" t="s">
-        <v>61</v>
+        <v>74</v>
       </c>
       <c r="I1" t="s">
-        <v>64</v>
+        <v>77</v>
       </c>
       <c r="J1" t="s">
-        <v>65</v>
+        <v>78</v>
       </c>
       <c r="K1" t="s">
-        <v>66</v>
+        <v>79</v>
       </c>
       <c r="L1" t="s">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="M1" t="s">
-        <v>68</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>
@@ -773,7 +1067,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -781,41 +1075,849 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>69</v>
+        <v>82</v>
       </c>
       <c r="B1" t="s">
-        <v>70</v>
+        <v>83</v>
       </c>
       <c r="C1" t="s">
-        <v>71</v>
+        <v>84</v>
       </c>
       <c r="D1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
-        <v>72</v>
-      </c>
       <c r="F1" t="s">
-        <v>45</v>
+        <v>86</v>
+      </c>
+      <c r="G1" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1010.0</v>
+        <v>1130.0</v>
       </c>
       <c r="B2" t="s">
-        <v>73</v>
+        <v>87</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
+        <v>88</v>
+      </c>
+      <c r="D2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="F2" t="s">
+        <v>89</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>1030.0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>87</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="F3" t="s">
+        <v>89</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>2010.0</v>
+      </c>
+      <c r="B4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E4" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="F4" t="s">
+        <v>89</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>2001.0</v>
+      </c>
+      <c r="B5" t="s">
+        <v>90</v>
+      </c>
+      <c r="C5" t="s">
+        <v>90</v>
+      </c>
+      <c r="D5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="F5" t="s">
+        <v>89</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>1040.0</v>
+      </c>
+      <c r="B6" t="s">
+        <v>87</v>
+      </c>
+      <c r="C6" t="s">
+        <v>91</v>
+      </c>
+      <c r="D6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="F6" t="s">
+        <v>92</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:E41"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D1" t="s">
+        <v>95</v>
+      </c>
+      <c r="E1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.0</v>
       </c>
       <c r="D2" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="E2" t="s">
-        <v>74</v>
-      </c>
-      <c r="F2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>96</v>
+      </c>
+      <c r="B3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>97</v>
+      </c>
+      <c r="B4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>98</v>
+      </c>
+      <c r="B5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>99</v>
+      </c>
+      <c r="B6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>100</v>
+      </c>
+      <c r="B7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>101</v>
+      </c>
+      <c r="B8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>102</v>
+      </c>
+      <c r="B9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>103</v>
+      </c>
+      <c r="B10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>104</v>
+      </c>
+      <c r="B11" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>105</v>
+      </c>
+      <c r="B12" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>106</v>
+      </c>
+      <c r="B13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>107</v>
+      </c>
+      <c r="B14" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>108</v>
+      </c>
+      <c r="B15" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>109</v>
+      </c>
+      <c r="B16" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>110</v>
+      </c>
+      <c r="B17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>111</v>
+      </c>
+      <c r="B18" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>112</v>
+      </c>
+      <c r="B19" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>113</v>
+      </c>
+      <c r="B20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>114</v>
+      </c>
+      <c r="B21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>115</v>
+      </c>
+      <c r="B22" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>116</v>
+      </c>
+      <c r="B23" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>117</v>
+      </c>
+      <c r="B24" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>118</v>
+      </c>
+      <c r="B25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>119</v>
+      </c>
+      <c r="B26" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>28</v>
+      </c>
+      <c r="B27" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C27" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D27" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>120</v>
+      </c>
+      <c r="B28" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C28" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D28" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>121</v>
+      </c>
+      <c r="B29" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s">
+        <v>122</v>
+      </c>
+      <c r="B30" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C30" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D30" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E30" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
+        <v>123</v>
+      </c>
+      <c r="B31" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C31" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D31" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E31" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s">
+        <v>124</v>
+      </c>
+      <c r="B32" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C32" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D32" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s">
+        <v>125</v>
+      </c>
+      <c r="B33" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C33" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D33" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E33" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s">
+        <v>126</v>
+      </c>
+      <c r="B34" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C34" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D34" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E34" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s">
+        <v>127</v>
+      </c>
+      <c r="B35" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C35" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D35" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s">
+        <v>128</v>
+      </c>
+      <c r="B36" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C36" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D36" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E36" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s">
+        <v>129</v>
+      </c>
+      <c r="B37" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C37" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D37" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E37" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s">
+        <v>130</v>
+      </c>
+      <c r="B38" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C38" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D38" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E38" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s">
+        <v>131</v>
+      </c>
+      <c r="B39" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C39" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D39" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E39" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s">
+        <v>132</v>
+      </c>
+      <c r="B40" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C40" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D40" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E40" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s">
+        <v>133</v>
+      </c>
+      <c r="B41" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C41" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D41" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E41" t="n">
         <v>0.0</v>
       </c>
     </row>

--- a/src/Excel/Yañez_Gonzalez_Christian_Emmanuel.xlsx
+++ b/src/Excel/Yañez_Gonzalez_Christian_Emmanuel.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="490" uniqueCount="121">
   <si>
     <t>Estado</t>
   </si>
@@ -101,10 +101,58 @@
     <t>3</t>
   </si>
   <si>
-    <t>-71</t>
-  </si>
-  <si>
-    <t>sqrt</t>
+    <t>-74</t>
+  </si>
+  <si>
+    <t>sqrtv</t>
+  </si>
+  <si>
+    <t>-47</t>
+  </si>
+  <si>
+    <t>,</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>-55</t>
+  </si>
+  <si>
+    <t>=</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>-4</t>
+  </si>
+  <si>
+    <t>if</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>-36</t>
+  </si>
+  <si>
+    <t>&lt;</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>-23</t>
+  </si>
+  <si>
+    <t>10e+4</t>
+  </si>
+  <si>
+    <t>9</t>
   </si>
   <si>
     <t>-54</t>
@@ -113,7 +161,7 @@
     <t>}</t>
   </si>
   <si>
-    <t>4</t>
+    <t>10</t>
   </si>
   <si>
     <t>Token</t>
@@ -134,6 +182,18 @@
     <t>Semantica 2</t>
   </si>
   <si>
+    <t>1020</t>
+  </si>
+  <si>
+    <t>No se puede igualar un: INT a EXP</t>
+  </si>
+  <si>
+    <t>a=2</t>
+  </si>
+  <si>
+    <t>Semantica:Etapa 1</t>
+  </si>
+  <si>
     <t>Erroes</t>
   </si>
   <si>
@@ -194,7 +254,13 @@
     <t>0</t>
   </si>
   <si>
-    <t>10</t>
+    <t>14</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>30</t>
   </si>
   <si>
     <t>Ambito</t>
@@ -266,6 +332,9 @@
     <t>Errores</t>
   </si>
   <si>
+    <t xml:space="preserve">a -&gt; </t>
+  </si>
+  <si>
     <t>Regla</t>
   </si>
   <si>
@@ -290,7 +359,10 @@
     <t>Acept</t>
   </si>
   <si>
-    <t>sqrt_p1</t>
+    <t>sqrtv_p1</t>
+  </si>
+  <si>
+    <t>sqrtv_p2</t>
   </si>
   <si>
     <t>const_entero</t>
@@ -299,6 +371,9 @@
     <t>ERROR</t>
   </si>
   <si>
+    <t>Error</t>
+  </si>
+  <si>
     <t>Entradas</t>
   </si>
   <si>
@@ -306,120 +381,6 @@
   </si>
   <si>
     <t>Aceptados</t>
-  </si>
-  <si>
-    <t>sqr_p1</t>
-  </si>
-  <si>
-    <t>pow_p1</t>
-  </si>
-  <si>
-    <t>sqrtv_p1</t>
-  </si>
-  <si>
-    <t>pow_p2</t>
-  </si>
-  <si>
-    <t>sqrtv_p2</t>
-  </si>
-  <si>
-    <t>ins_p3</t>
-  </si>
-  <si>
-    <t>conv_p1</t>
-  </si>
-  <si>
-    <t>asc_p1</t>
-  </si>
-  <si>
-    <t>ins_p1</t>
-  </si>
-  <si>
-    <t>ins_p2</t>
-  </si>
-  <si>
-    <t>conv_p2</t>
-  </si>
-  <si>
-    <t>conv_p3</t>
-  </si>
-  <si>
-    <t>up_p1</t>
-  </si>
-  <si>
-    <t>low_p1</t>
-  </si>
-  <si>
-    <t>len_p1</t>
-  </si>
-  <si>
-    <t>$_p3</t>
-  </si>
-  <si>
-    <t>&lt;+_p1</t>
-  </si>
-  <si>
-    <t>&gt;+_p1</t>
-  </si>
-  <si>
-    <t>val_p1</t>
-  </si>
-  <si>
-    <t>$_p1</t>
-  </si>
-  <si>
-    <t>~_p1</t>
-  </si>
-  <si>
-    <t>&lt;+_p2</t>
-  </si>
-  <si>
-    <t>&gt;+_p2</t>
-  </si>
-  <si>
-    <t>$_p2</t>
-  </si>
-  <si>
-    <t>sqr</t>
-  </si>
-  <si>
-    <t>pow</t>
-  </si>
-  <si>
-    <t>sqrtv</t>
-  </si>
-  <si>
-    <t>&lt;+</t>
-  </si>
-  <si>
-    <t>&gt;+</t>
-  </si>
-  <si>
-    <t>ins</t>
-  </si>
-  <si>
-    <t>conv</t>
-  </si>
-  <si>
-    <t>up</t>
-  </si>
-  <si>
-    <t>low</t>
-  </si>
-  <si>
-    <t>len</t>
-  </si>
-  <si>
-    <t>asc</t>
-  </si>
-  <si>
-    <t>val</t>
-  </si>
-  <si>
-    <t>$</t>
-  </si>
-  <si>
-    <t>~</t>
   </si>
 </sst>
 </file>
@@ -464,7 +425,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:C82"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -659,10 +620,10 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="B18" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="C18" t="s">
         <v>26</v>
@@ -670,10 +631,10 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B19" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="C19" t="s">
         <v>26</v>
@@ -681,10 +642,10 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="B20" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="C20" t="s">
         <v>26</v>
@@ -692,13 +653,684 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
+        <v>10</v>
+      </c>
+      <c r="B21" t="s">
+        <v>11</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>16</v>
+      </c>
+      <c r="B22" t="s">
+        <v>17</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>27</v>
+      </c>
+      <c r="B23" t="s">
+        <v>28</v>
+      </c>
+      <c r="C23" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>20</v>
+      </c>
+      <c r="B24" t="s">
+        <v>21</v>
+      </c>
+      <c r="C24" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>14</v>
+      </c>
+      <c r="B25" t="s">
+        <v>15</v>
+      </c>
+      <c r="C25" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
         <v>29</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B26" t="s">
         <v>30</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C26" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>8</v>
+      </c>
+      <c r="B27" t="s">
+        <v>9</v>
+      </c>
+      <c r="C27" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>22</v>
+      </c>
+      <c r="B28" t="s">
+        <v>23</v>
+      </c>
+      <c r="C28" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>16</v>
+      </c>
+      <c r="B29" t="s">
+        <v>17</v>
+      </c>
+      <c r="C29" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s">
+        <v>14</v>
+      </c>
+      <c r="B30" t="s">
+        <v>15</v>
+      </c>
+      <c r="C30" t="s">
         <v>31</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
+        <v>33</v>
+      </c>
+      <c r="B31" t="s">
+        <v>34</v>
+      </c>
+      <c r="C31" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s">
+        <v>27</v>
+      </c>
+      <c r="B32" t="s">
+        <v>28</v>
+      </c>
+      <c r="C32" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s">
+        <v>20</v>
+      </c>
+      <c r="B33" t="s">
+        <v>21</v>
+      </c>
+      <c r="C33" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s">
+        <v>8</v>
+      </c>
+      <c r="B34" t="s">
+        <v>9</v>
+      </c>
+      <c r="C34" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s">
+        <v>29</v>
+      </c>
+      <c r="B35" t="s">
+        <v>30</v>
+      </c>
+      <c r="C35" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s">
+        <v>8</v>
+      </c>
+      <c r="B36" t="s">
+        <v>31</v>
+      </c>
+      <c r="C36" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s">
+        <v>22</v>
+      </c>
+      <c r="B37" t="s">
+        <v>23</v>
+      </c>
+      <c r="C37" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s">
+        <v>16</v>
+      </c>
+      <c r="B38" t="s">
+        <v>17</v>
+      </c>
+      <c r="C38" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s">
+        <v>27</v>
+      </c>
+      <c r="B39" t="s">
+        <v>28</v>
+      </c>
+      <c r="C39" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s">
+        <v>20</v>
+      </c>
+      <c r="B40" t="s">
+        <v>21</v>
+      </c>
+      <c r="C40" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s">
+        <v>8</v>
+      </c>
+      <c r="B41" t="s">
+        <v>9</v>
+      </c>
+      <c r="C41" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s">
+        <v>29</v>
+      </c>
+      <c r="B42" t="s">
+        <v>30</v>
+      </c>
+      <c r="C42" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s">
+        <v>8</v>
+      </c>
+      <c r="B43" t="s">
+        <v>31</v>
+      </c>
+      <c r="C43" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s">
+        <v>22</v>
+      </c>
+      <c r="B44" t="s">
+        <v>23</v>
+      </c>
+      <c r="C44" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s">
+        <v>16</v>
+      </c>
+      <c r="B45" t="s">
+        <v>17</v>
+      </c>
+      <c r="C45" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s">
+        <v>36</v>
+      </c>
+      <c r="B46" t="s">
+        <v>37</v>
+      </c>
+      <c r="C46" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s">
+        <v>20</v>
+      </c>
+      <c r="B47" t="s">
+        <v>21</v>
+      </c>
+      <c r="C47" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s">
+        <v>14</v>
+      </c>
+      <c r="B48" t="s">
+        <v>15</v>
+      </c>
+      <c r="C48" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s">
+        <v>6</v>
+      </c>
+      <c r="B49" t="s">
+        <v>7</v>
+      </c>
+      <c r="C49" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s">
+        <v>27</v>
+      </c>
+      <c r="B50" t="s">
+        <v>28</v>
+      </c>
+      <c r="C50" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s">
+        <v>20</v>
+      </c>
+      <c r="B51" t="s">
+        <v>21</v>
+      </c>
+      <c r="C51" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s">
+        <v>8</v>
+      </c>
+      <c r="B52" t="s">
+        <v>9</v>
+      </c>
+      <c r="C52" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s">
+        <v>29</v>
+      </c>
+      <c r="B53" t="s">
+        <v>30</v>
+      </c>
+      <c r="C53" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s">
+        <v>8</v>
+      </c>
+      <c r="B54" t="s">
+        <v>31</v>
+      </c>
+      <c r="C54" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s">
+        <v>22</v>
+      </c>
+      <c r="B55" t="s">
+        <v>23</v>
+      </c>
+      <c r="C55" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s">
+        <v>10</v>
+      </c>
+      <c r="B56" t="s">
+        <v>11</v>
+      </c>
+      <c r="C56" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s">
+        <v>39</v>
+      </c>
+      <c r="B57" t="s">
+        <v>40</v>
+      </c>
+      <c r="C57" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="s">
+        <v>8</v>
+      </c>
+      <c r="B58" t="s">
+        <v>9</v>
+      </c>
+      <c r="C58" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="s">
+        <v>22</v>
+      </c>
+      <c r="B59" t="s">
+        <v>23</v>
+      </c>
+      <c r="C59" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="s">
+        <v>36</v>
+      </c>
+      <c r="B60" t="s">
+        <v>37</v>
+      </c>
+      <c r="C60" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="s">
+        <v>20</v>
+      </c>
+      <c r="B61" t="s">
+        <v>21</v>
+      </c>
+      <c r="C61" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="s">
+        <v>27</v>
+      </c>
+      <c r="B62" t="s">
+        <v>28</v>
+      </c>
+      <c r="C62" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="s">
+        <v>20</v>
+      </c>
+      <c r="B63" t="s">
+        <v>21</v>
+      </c>
+      <c r="C63" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="s">
+        <v>14</v>
+      </c>
+      <c r="B64" t="s">
+        <v>15</v>
+      </c>
+      <c r="C64" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="s">
+        <v>29</v>
+      </c>
+      <c r="B65" t="s">
+        <v>30</v>
+      </c>
+      <c r="C65" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="s">
+        <v>14</v>
+      </c>
+      <c r="B66" t="s">
+        <v>15</v>
+      </c>
+      <c r="C66" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="s">
+        <v>22</v>
+      </c>
+      <c r="B67" t="s">
+        <v>23</v>
+      </c>
+      <c r="C67" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="s">
+        <v>39</v>
+      </c>
+      <c r="B68" t="s">
+        <v>40</v>
+      </c>
+      <c r="C68" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="s">
+        <v>42</v>
+      </c>
+      <c r="B69" t="s">
+        <v>43</v>
+      </c>
+      <c r="C69" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="s">
+        <v>22</v>
+      </c>
+      <c r="B70" t="s">
+        <v>23</v>
+      </c>
+      <c r="C70" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="s">
+        <v>36</v>
+      </c>
+      <c r="B71" t="s">
+        <v>37</v>
+      </c>
+      <c r="C71" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="s">
+        <v>20</v>
+      </c>
+      <c r="B72" t="s">
+        <v>21</v>
+      </c>
+      <c r="C72" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="s">
+        <v>27</v>
+      </c>
+      <c r="B73" t="s">
+        <v>28</v>
+      </c>
+      <c r="C73" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="s">
+        <v>20</v>
+      </c>
+      <c r="B74" t="s">
+        <v>21</v>
+      </c>
+      <c r="C74" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="s">
+        <v>8</v>
+      </c>
+      <c r="B75" t="s">
+        <v>9</v>
+      </c>
+      <c r="C75" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="s">
+        <v>29</v>
+      </c>
+      <c r="B76" t="s">
+        <v>30</v>
+      </c>
+      <c r="C76" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="s">
+        <v>8</v>
+      </c>
+      <c r="B77" t="s">
+        <v>31</v>
+      </c>
+      <c r="C77" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="s">
+        <v>22</v>
+      </c>
+      <c r="B78" t="s">
+        <v>23</v>
+      </c>
+      <c r="C78" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="s">
+        <v>39</v>
+      </c>
+      <c r="B79" t="s">
+        <v>40</v>
+      </c>
+      <c r="C79" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="s">
+        <v>8</v>
+      </c>
+      <c r="B80" t="s">
+        <v>5</v>
+      </c>
+      <c r="C80" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="s">
+        <v>22</v>
+      </c>
+      <c r="B81" t="s">
+        <v>23</v>
+      </c>
+      <c r="C81" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="s">
+        <v>45</v>
+      </c>
+      <c r="B82" t="s">
+        <v>46</v>
+      </c>
+      <c r="C82" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -708,7 +1340,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -716,16 +1348,16 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="B1" t="s">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="E1" t="s">
         <v>2</v>
@@ -733,19 +1365,53 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="B2" t="s">
-        <v>36</v>
+        <v>52</v>
       </c>
       <c r="C2" t="s">
         <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>37</v>
+        <v>53</v>
       </c>
       <c r="E2" t="s">
         <v>26</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D3" t="s">
+        <v>57</v>
+      </c>
+      <c r="E3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" t="s">
+        <v>53</v>
+      </c>
+      <c r="E4" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -763,120 +1429,120 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="B1" t="s">
-        <v>39</v>
+        <v>59</v>
       </c>
       <c r="C1" t="s">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="D1" t="s">
-        <v>41</v>
+        <v>61</v>
       </c>
       <c r="E1" t="s">
-        <v>42</v>
+        <v>62</v>
       </c>
       <c r="F1" t="s">
-        <v>43</v>
+        <v>63</v>
       </c>
       <c r="G1" t="s">
-        <v>44</v>
+        <v>64</v>
       </c>
       <c r="H1" t="s">
-        <v>45</v>
+        <v>65</v>
       </c>
       <c r="I1" t="s">
-        <v>46</v>
+        <v>66</v>
       </c>
       <c r="J1" t="s">
-        <v>47</v>
+        <v>67</v>
       </c>
       <c r="K1" t="s">
-        <v>48</v>
+        <v>68</v>
       </c>
       <c r="L1" t="s">
-        <v>49</v>
+        <v>69</v>
       </c>
       <c r="M1" t="s">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="N1" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="O1" t="s">
-        <v>52</v>
+        <v>72</v>
       </c>
       <c r="P1" t="s">
-        <v>53</v>
+        <v>73</v>
       </c>
       <c r="Q1" t="s">
-        <v>54</v>
+        <v>74</v>
       </c>
       <c r="R1" t="s">
-        <v>55</v>
+        <v>75</v>
       </c>
       <c r="S1" t="s">
-        <v>56</v>
+        <v>76</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E2" t="s">
+        <v>78</v>
+      </c>
+      <c r="F2" t="s">
+        <v>77</v>
+      </c>
+      <c r="G2" t="s">
+        <v>77</v>
+      </c>
+      <c r="H2" t="s">
+        <v>77</v>
+      </c>
+      <c r="I2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" t="s">
-        <v>57</v>
-      </c>
-      <c r="D2" t="s">
-        <v>57</v>
-      </c>
-      <c r="E2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" t="s">
-        <v>57</v>
-      </c>
-      <c r="G2" t="s">
-        <v>57</v>
-      </c>
-      <c r="H2" t="s">
-        <v>57</v>
-      </c>
-      <c r="I2" t="s">
-        <v>57</v>
-      </c>
       <c r="J2" t="s">
-        <v>57</v>
+        <v>77</v>
       </c>
       <c r="K2" t="s">
-        <v>57</v>
+        <v>77</v>
       </c>
       <c r="L2" t="s">
-        <v>57</v>
+        <v>77</v>
       </c>
       <c r="M2" t="s">
-        <v>57</v>
+        <v>26</v>
       </c>
       <c r="N2" t="s">
-        <v>57</v>
+        <v>77</v>
       </c>
       <c r="O2" t="s">
-        <v>9</v>
+        <v>79</v>
       </c>
       <c r="P2" t="s">
-        <v>58</v>
+        <v>80</v>
       </c>
       <c r="Q2" t="s">
-        <v>57</v>
+        <v>5</v>
       </c>
       <c r="R2" t="s">
         <v>26</v>
       </c>
       <c r="S2" t="s">
-        <v>5</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -894,40 +1560,40 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>59</v>
+        <v>81</v>
       </c>
       <c r="B1" t="s">
-        <v>60</v>
+        <v>82</v>
       </c>
       <c r="C1" t="s">
-        <v>61</v>
+        <v>83</v>
       </c>
       <c r="D1" t="s">
         <v>4</v>
       </c>
       <c r="E1" t="s">
-        <v>62</v>
+        <v>84</v>
       </c>
       <c r="F1" t="s">
-        <v>63</v>
+        <v>85</v>
       </c>
       <c r="G1" t="s">
-        <v>64</v>
+        <v>86</v>
       </c>
       <c r="H1" t="s">
-        <v>65</v>
+        <v>87</v>
       </c>
       <c r="I1" t="s">
-        <v>66</v>
+        <v>88</v>
       </c>
       <c r="J1" t="s">
-        <v>67</v>
+        <v>89</v>
       </c>
       <c r="K1" t="s">
-        <v>68</v>
+        <v>90</v>
       </c>
       <c r="L1" t="s">
-        <v>69</v>
+        <v>91</v>
       </c>
     </row>
     <row r="2">
@@ -970,7 +1636,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>70</v>
+        <v>92</v>
       </c>
       <c r="B3" t="n">
         <v>0.0</v>
@@ -1013,7 +1679,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:M1"/>
+  <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1024,40 +1690,81 @@
         <v>2</v>
       </c>
       <c r="B1" t="s">
-        <v>71</v>
+        <v>93</v>
       </c>
       <c r="C1" t="s">
-        <v>72</v>
+        <v>94</v>
       </c>
       <c r="D1" t="s">
-        <v>73</v>
+        <v>95</v>
       </c>
       <c r="E1" t="s">
-        <v>74</v>
+        <v>96</v>
       </c>
       <c r="F1" t="s">
-        <v>75</v>
+        <v>97</v>
       </c>
       <c r="G1" t="s">
-        <v>76</v>
+        <v>98</v>
       </c>
       <c r="H1" t="s">
-        <v>74</v>
+        <v>96</v>
       </c>
       <c r="I1" t="s">
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="J1" t="s">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="K1" t="s">
-        <v>79</v>
+        <v>101</v>
       </c>
       <c r="L1" t="s">
-        <v>80</v>
+        <v>102</v>
       </c>
       <c r="M1" t="s">
-        <v>81</v>
+        <v>103</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L2" t="s">
+        <v>104</v>
+      </c>
+      <c r="M2" t="n">
+        <v>1.0</v>
       </c>
     </row>
   </sheetData>
@@ -1067,7 +1774,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G37"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1075,25 +1782,25 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>82</v>
+        <v>105</v>
       </c>
       <c r="B1" t="s">
-        <v>83</v>
+        <v>106</v>
       </c>
       <c r="C1" t="s">
-        <v>84</v>
+        <v>107</v>
       </c>
       <c r="D1" t="s">
-        <v>85</v>
+        <v>108</v>
       </c>
       <c r="E1" t="s">
         <v>2</v>
       </c>
       <c r="F1" t="s">
-        <v>86</v>
+        <v>109</v>
       </c>
       <c r="G1" t="s">
-        <v>59</v>
+        <v>81</v>
       </c>
     </row>
     <row r="2">
@@ -1101,10 +1808,10 @@
         <v>1130.0</v>
       </c>
       <c r="B2" t="s">
-        <v>87</v>
+        <v>110</v>
       </c>
       <c r="C2" t="s">
-        <v>88</v>
+        <v>111</v>
       </c>
       <c r="D2" t="s">
         <v>15</v>
@@ -1113,7 +1820,7 @@
         <v>3.0</v>
       </c>
       <c r="F2" t="s">
-        <v>89</v>
+        <v>112</v>
       </c>
       <c r="G2" t="n">
         <v>0.0</v>
@@ -1124,7 +1831,7 @@
         <v>1030.0</v>
       </c>
       <c r="B3" t="s">
-        <v>87</v>
+        <v>110</v>
       </c>
       <c r="C3" t="s">
         <v>7</v>
@@ -1136,7 +1843,7 @@
         <v>3.0</v>
       </c>
       <c r="F3" t="s">
-        <v>89</v>
+        <v>112</v>
       </c>
       <c r="G3" t="n">
         <v>0.0</v>
@@ -1159,7 +1866,7 @@
         <v>3.0</v>
       </c>
       <c r="F4" t="s">
-        <v>89</v>
+        <v>112</v>
       </c>
       <c r="G4" t="n">
         <v>0.0</v>
@@ -1170,10 +1877,10 @@
         <v>2001.0</v>
       </c>
       <c r="B5" t="s">
-        <v>90</v>
+        <v>113</v>
       </c>
       <c r="C5" t="s">
-        <v>90</v>
+        <v>113</v>
       </c>
       <c r="D5" t="s">
         <v>9</v>
@@ -1182,7 +1889,7 @@
         <v>3.0</v>
       </c>
       <c r="F5" t="s">
-        <v>89</v>
+        <v>112</v>
       </c>
       <c r="G5" t="n">
         <v>0.0</v>
@@ -1190,24 +1897,737 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1040.0</v>
+        <v>2001.0</v>
       </c>
       <c r="B6" t="s">
-        <v>87</v>
+        <v>114</v>
       </c>
       <c r="C6" t="s">
-        <v>91</v>
+        <v>114</v>
       </c>
       <c r="D6" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="E6" t="n">
         <v>3.0</v>
       </c>
       <c r="F6" t="s">
-        <v>92</v>
+        <v>112</v>
       </c>
       <c r="G6" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>1040.0</v>
+      </c>
+      <c r="B7" t="s">
+        <v>110</v>
+      </c>
+      <c r="C7" t="s">
+        <v>115</v>
+      </c>
+      <c r="D7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="F7" t="s">
+        <v>116</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>2010.0</v>
+      </c>
+      <c r="B8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E8" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="F8" t="s">
+        <v>112</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>1130.0</v>
+      </c>
+      <c r="B9" t="s">
+        <v>110</v>
+      </c>
+      <c r="C9" t="s">
+        <v>111</v>
+      </c>
+      <c r="D9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E9" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="F9" t="s">
+        <v>112</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>2001.0</v>
+      </c>
+      <c r="B10" t="s">
+        <v>113</v>
+      </c>
+      <c r="C10" t="s">
+        <v>113</v>
+      </c>
+      <c r="D10" t="s">
+        <v>15</v>
+      </c>
+      <c r="E10" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="F10" t="s">
+        <v>112</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>2001.0</v>
+      </c>
+      <c r="B11" t="s">
+        <v>114</v>
+      </c>
+      <c r="C11" t="s">
+        <v>114</v>
+      </c>
+      <c r="D11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E11" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="F11" t="s">
+        <v>112</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>1130.0</v>
+      </c>
+      <c r="B12" t="s">
+        <v>110</v>
+      </c>
+      <c r="C12" t="s">
+        <v>111</v>
+      </c>
+      <c r="D12" t="s">
+        <v>15</v>
+      </c>
+      <c r="E12" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="F12" t="s">
+        <v>112</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>2010.0</v>
+      </c>
+      <c r="B13" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13" t="s">
+        <v>28</v>
+      </c>
+      <c r="D13" t="s">
+        <v>28</v>
+      </c>
+      <c r="E13" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="F13" t="s">
+        <v>112</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>2001.0</v>
+      </c>
+      <c r="B14" t="s">
+        <v>113</v>
+      </c>
+      <c r="C14" t="s">
+        <v>113</v>
+      </c>
+      <c r="D14" t="s">
+        <v>9</v>
+      </c>
+      <c r="E14" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="F14" t="s">
+        <v>112</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>2001.0</v>
+      </c>
+      <c r="B15" t="s">
+        <v>114</v>
+      </c>
+      <c r="C15" t="s">
+        <v>114</v>
+      </c>
+      <c r="D15" t="s">
+        <v>31</v>
+      </c>
+      <c r="E15" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="F15" t="s">
+        <v>112</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>1090.0</v>
+      </c>
+      <c r="B16" t="s">
+        <v>110</v>
+      </c>
+      <c r="C16" t="s">
+        <v>111</v>
+      </c>
+      <c r="D16" t="s">
+        <v>15</v>
+      </c>
+      <c r="E16" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="F16" t="s">
+        <v>112</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>1020.0</v>
+      </c>
+      <c r="B17" t="s">
+        <v>110</v>
+      </c>
+      <c r="C17" t="s">
+        <v>34</v>
+      </c>
+      <c r="D17" t="s">
+        <v>34</v>
+      </c>
+      <c r="E17" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="F17" t="s">
+        <v>117</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>2010.0</v>
+      </c>
+      <c r="B18" t="s">
+        <v>28</v>
+      </c>
+      <c r="C18" t="s">
+        <v>28</v>
+      </c>
+      <c r="D18" t="s">
+        <v>28</v>
+      </c>
+      <c r="E18" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="F18" t="s">
+        <v>112</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>2001.0</v>
+      </c>
+      <c r="B19" t="s">
+        <v>113</v>
+      </c>
+      <c r="C19" t="s">
+        <v>113</v>
+      </c>
+      <c r="D19" t="s">
+        <v>9</v>
+      </c>
+      <c r="E19" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="F19" t="s">
+        <v>112</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>2001.0</v>
+      </c>
+      <c r="B20" t="s">
+        <v>114</v>
+      </c>
+      <c r="C20" t="s">
+        <v>114</v>
+      </c>
+      <c r="D20" t="s">
+        <v>31</v>
+      </c>
+      <c r="E20" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="F20" t="s">
+        <v>112</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>1130.0</v>
+      </c>
+      <c r="B21" t="s">
+        <v>110</v>
+      </c>
+      <c r="C21" t="s">
+        <v>111</v>
+      </c>
+      <c r="D21" t="s">
+        <v>15</v>
+      </c>
+      <c r="E21" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="F21" t="s">
+        <v>112</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>1030.0</v>
+      </c>
+      <c r="B22" t="s">
+        <v>110</v>
+      </c>
+      <c r="C22" t="s">
+        <v>7</v>
+      </c>
+      <c r="D22" t="s">
+        <v>7</v>
+      </c>
+      <c r="E22" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="F22" t="s">
+        <v>112</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>2010.0</v>
+      </c>
+      <c r="B23" t="s">
+        <v>28</v>
+      </c>
+      <c r="C23" t="s">
+        <v>28</v>
+      </c>
+      <c r="D23" t="s">
+        <v>28</v>
+      </c>
+      <c r="E23" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="F23" t="s">
+        <v>112</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>2001.0</v>
+      </c>
+      <c r="B24" t="s">
+        <v>113</v>
+      </c>
+      <c r="C24" t="s">
+        <v>113</v>
+      </c>
+      <c r="D24" t="s">
+        <v>9</v>
+      </c>
+      <c r="E24" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="F24" t="s">
+        <v>112</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>2001.0</v>
+      </c>
+      <c r="B25" t="s">
+        <v>114</v>
+      </c>
+      <c r="C25" t="s">
+        <v>114</v>
+      </c>
+      <c r="D25" t="s">
+        <v>31</v>
+      </c>
+      <c r="E25" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="F25" t="s">
+        <v>112</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>1040.0</v>
+      </c>
+      <c r="B26" t="s">
+        <v>110</v>
+      </c>
+      <c r="C26" t="s">
+        <v>115</v>
+      </c>
+      <c r="D26" t="s">
+        <v>9</v>
+      </c>
+      <c r="E26" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="F26" t="s">
+        <v>116</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>1010.0</v>
+      </c>
+      <c r="B27" t="s">
+        <v>110</v>
+      </c>
+      <c r="C27" t="s">
+        <v>111</v>
+      </c>
+      <c r="D27" t="s">
+        <v>15</v>
+      </c>
+      <c r="E27" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="F27" t="s">
+        <v>112</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>2010.0</v>
+      </c>
+      <c r="B28" t="s">
+        <v>28</v>
+      </c>
+      <c r="C28" t="s">
+        <v>28</v>
+      </c>
+      <c r="D28" t="s">
+        <v>28</v>
+      </c>
+      <c r="E28" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="F28" t="s">
+        <v>112</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>1130.0</v>
+      </c>
+      <c r="B29" t="s">
+        <v>110</v>
+      </c>
+      <c r="C29" t="s">
+        <v>111</v>
+      </c>
+      <c r="D29" t="s">
+        <v>15</v>
+      </c>
+      <c r="E29" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="F29" t="s">
+        <v>112</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>2001.0</v>
+      </c>
+      <c r="B30" t="s">
+        <v>113</v>
+      </c>
+      <c r="C30" t="s">
+        <v>113</v>
+      </c>
+      <c r="D30" t="s">
+        <v>15</v>
+      </c>
+      <c r="E30" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="F30" t="s">
+        <v>112</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>1130.0</v>
+      </c>
+      <c r="B31" t="s">
+        <v>110</v>
+      </c>
+      <c r="C31" t="s">
+        <v>111</v>
+      </c>
+      <c r="D31" t="s">
+        <v>15</v>
+      </c>
+      <c r="E31" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="F31" t="s">
+        <v>112</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>2001.0</v>
+      </c>
+      <c r="B32" t="s">
+        <v>114</v>
+      </c>
+      <c r="C32" t="s">
+        <v>114</v>
+      </c>
+      <c r="D32" t="s">
+        <v>15</v>
+      </c>
+      <c r="E32" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="F32" t="s">
+        <v>112</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>1010.0</v>
+      </c>
+      <c r="B33" t="s">
+        <v>110</v>
+      </c>
+      <c r="C33" t="s">
+        <v>111</v>
+      </c>
+      <c r="D33" t="s">
+        <v>15</v>
+      </c>
+      <c r="E33" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="F33" t="s">
+        <v>112</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>2010.0</v>
+      </c>
+      <c r="B34" t="s">
+        <v>28</v>
+      </c>
+      <c r="C34" t="s">
+        <v>28</v>
+      </c>
+      <c r="D34" t="s">
+        <v>28</v>
+      </c>
+      <c r="E34" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="F34" t="s">
+        <v>112</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>2001.0</v>
+      </c>
+      <c r="B35" t="s">
+        <v>113</v>
+      </c>
+      <c r="C35" t="s">
+        <v>113</v>
+      </c>
+      <c r="D35" t="s">
+        <v>9</v>
+      </c>
+      <c r="E35" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="F35" t="s">
+        <v>112</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>2001.0</v>
+      </c>
+      <c r="B36" t="s">
+        <v>114</v>
+      </c>
+      <c r="C36" t="s">
+        <v>114</v>
+      </c>
+      <c r="D36" t="s">
+        <v>31</v>
+      </c>
+      <c r="E36" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="F36" t="s">
+        <v>112</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>1010.0</v>
+      </c>
+      <c r="B37" t="s">
+        <v>110</v>
+      </c>
+      <c r="C37" t="s">
+        <v>110</v>
+      </c>
+      <c r="D37" t="s">
+        <v>9</v>
+      </c>
+      <c r="E37" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="F37" t="s">
+        <v>112</v>
+      </c>
+      <c r="G37" t="n">
         <v>0.0</v>
       </c>
     </row>
@@ -1218,7 +2638,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E41"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1226,33 +2646,33 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>83</v>
+        <v>106</v>
       </c>
       <c r="B1" t="s">
-        <v>93</v>
+        <v>118</v>
       </c>
       <c r="C1" t="s">
-        <v>94</v>
+        <v>119</v>
       </c>
       <c r="D1" t="s">
-        <v>95</v>
+        <v>120</v>
       </c>
       <c r="E1" t="s">
-        <v>81</v>
+        <v>103</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>90</v>
+        <v>113</v>
       </c>
       <c r="B2" t="n">
-        <v>1.0</v>
+        <v>7.0</v>
       </c>
       <c r="C2" t="n">
         <v>0.0</v>
       </c>
       <c r="D2" t="n">
-        <v>1.0</v>
+        <v>7.0</v>
       </c>
       <c r="E2" t="n">
         <v>0.0</v>
@@ -1260,16 +2680,16 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>96</v>
+        <v>114</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0</v>
+        <v>7.0</v>
       </c>
       <c r="C3" t="n">
         <v>0.0</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0</v>
+        <v>7.0</v>
       </c>
       <c r="E3" t="n">
         <v>0.0</v>
@@ -1277,647 +2697,18 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>97</v>
+        <v>28</v>
       </c>
       <c r="B4" t="n">
         <v>0.0</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0</v>
+        <v>7.0</v>
       </c>
       <c r="D4" t="n">
         <v>0.0</v>
       </c>
       <c r="E4" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s">
-        <v>98</v>
-      </c>
-      <c r="B5" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s">
-        <v>99</v>
-      </c>
-      <c r="B6" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="C6" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s">
-        <v>100</v>
-      </c>
-      <c r="B7" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="C7" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="E7" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="s">
-        <v>101</v>
-      </c>
-      <c r="B8" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="s">
-        <v>102</v>
-      </c>
-      <c r="B9" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D9" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="E9" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="s">
-        <v>103</v>
-      </c>
-      <c r="B10" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D10" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="E10" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="s">
-        <v>104</v>
-      </c>
-      <c r="B11" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D11" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="E11" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="s">
-        <v>105</v>
-      </c>
-      <c r="B12" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D12" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="E12" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="s">
-        <v>106</v>
-      </c>
-      <c r="B13" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D13" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="E13" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="s">
-        <v>107</v>
-      </c>
-      <c r="B14" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="C14" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D14" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="E14" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="s">
-        <v>108</v>
-      </c>
-      <c r="B15" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="C15" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D15" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="E15" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="s">
-        <v>109</v>
-      </c>
-      <c r="B16" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="C16" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D16" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="E16" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="s">
-        <v>110</v>
-      </c>
-      <c r="B17" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="C17" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D17" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="E17" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="s">
-        <v>111</v>
-      </c>
-      <c r="B18" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="C18" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D18" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="E18" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="s">
-        <v>112</v>
-      </c>
-      <c r="B19" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="C19" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D19" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="E19" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="s">
-        <v>113</v>
-      </c>
-      <c r="B20" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="C20" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D20" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="E20" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="s">
-        <v>114</v>
-      </c>
-      <c r="B21" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="C21" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D21" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="E21" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="s">
-        <v>115</v>
-      </c>
-      <c r="B22" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="C22" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D22" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="E22" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="s">
-        <v>116</v>
-      </c>
-      <c r="B23" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="C23" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D23" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="E23" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="s">
-        <v>117</v>
-      </c>
-      <c r="B24" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="C24" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D24" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="E24" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="s">
-        <v>118</v>
-      </c>
-      <c r="B25" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="C25" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D25" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="E25" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="s">
-        <v>119</v>
-      </c>
-      <c r="B26" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="C26" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D26" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="E26" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="s">
-        <v>28</v>
-      </c>
-      <c r="B27" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="C27" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="D27" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="E27" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="s">
-        <v>120</v>
-      </c>
-      <c r="B28" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="C28" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D28" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="E28" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="s">
-        <v>121</v>
-      </c>
-      <c r="B29" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="C29" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D29" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="E29" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="s">
-        <v>122</v>
-      </c>
-      <c r="B30" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="C30" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D30" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="E30" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="s">
-        <v>123</v>
-      </c>
-      <c r="B31" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="C31" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D31" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="E31" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="s">
-        <v>124</v>
-      </c>
-      <c r="B32" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="C32" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D32" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="E32" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="s">
-        <v>125</v>
-      </c>
-      <c r="B33" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="C33" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D33" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="E33" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="s">
-        <v>126</v>
-      </c>
-      <c r="B34" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="C34" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D34" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="E34" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="s">
-        <v>127</v>
-      </c>
-      <c r="B35" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="C35" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D35" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="E35" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="s">
-        <v>128</v>
-      </c>
-      <c r="B36" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="C36" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D36" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="E36" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="s">
-        <v>129</v>
-      </c>
-      <c r="B37" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="C37" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D37" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="E37" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="s">
-        <v>130</v>
-      </c>
-      <c r="B38" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="C38" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D38" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="E38" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="s">
-        <v>131</v>
-      </c>
-      <c r="B39" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="C39" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D39" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="E39" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="s">
-        <v>132</v>
-      </c>
-      <c r="B40" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="C40" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D40" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="E40" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="s">
-        <v>133</v>
-      </c>
-      <c r="B41" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="C41" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D41" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="E41" t="n">
         <v>0.0</v>
       </c>
     </row>

--- a/src/Excel/Yañez_Gonzalez_Christian_Emmanuel.xlsx
+++ b/src/Excel/Yañez_Gonzalez_Christian_Emmanuel.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="77">
   <si>
     <t>Estado</t>
   </si>
@@ -56,42 +56,27 @@
     <t>{</t>
   </si>
   <si>
-    <t>-75</t>
-  </si>
-  <si>
-    <t>ins</t>
+    <t>-71</t>
+  </si>
+  <si>
+    <t>sqrt</t>
   </si>
   <si>
     <t>2</t>
   </si>
   <si>
-    <t>-20</t>
-  </si>
-  <si>
-    <t>"hgola"</t>
-  </si>
-  <si>
-    <t>-47</t>
-  </si>
-  <si>
-    <t>,</t>
-  </si>
-  <si>
-    <t>"hola"</t>
-  </si>
-  <si>
     <t>-19</t>
   </si>
   <si>
+    <t>-54</t>
+  </si>
+  <si>
+    <t>}</t>
+  </si>
+  <si>
     <t>3</t>
   </si>
   <si>
-    <t>-54</t>
-  </si>
-  <si>
-    <t>}</t>
-  </si>
-  <si>
     <t>Token</t>
   </si>
   <si>
@@ -254,13 +239,7 @@
     <t>Acept</t>
   </si>
   <si>
-    <t>ins_p1</t>
-  </si>
-  <si>
-    <t>ins_p2</t>
-  </si>
-  <si>
-    <t>ins_p3</t>
+    <t>sqrt_p1</t>
   </si>
   <si>
     <t>Entradas</t>
@@ -314,7 +293,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C14"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -402,7 +381,7 @@
         <v>15</v>
       </c>
       <c r="B8" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="C8" t="s">
         <v>14</v>
@@ -410,10 +389,10 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="C9" t="s">
         <v>14</v>
@@ -421,57 +400,13 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B10" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C10" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="s">
-        <v>17</v>
-      </c>
-      <c r="B11" t="s">
         <v>18</v>
-      </c>
-      <c r="C11" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="s">
-        <v>20</v>
-      </c>
-      <c r="B12" t="s">
-        <v>21</v>
-      </c>
-      <c r="C12" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="s">
-        <v>8</v>
-      </c>
-      <c r="B13" t="s">
-        <v>9</v>
-      </c>
-      <c r="C13" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="s">
-        <v>22</v>
-      </c>
-      <c r="B14" t="s">
-        <v>23</v>
-      </c>
-      <c r="C14" t="s">
-        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -489,16 +424,16 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="B1" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E1" t="s">
         <v>2</v>
@@ -519,114 +454,114 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1" t="s">
         <v>27</v>
       </c>
-      <c r="B1" t="s">
+      <c r="G1" t="s">
         <v>28</v>
       </c>
-      <c r="C1" t="s">
+      <c r="H1" t="s">
         <v>29</v>
       </c>
-      <c r="D1" t="s">
+      <c r="I1" t="s">
         <v>30</v>
       </c>
-      <c r="E1" t="s">
+      <c r="J1" t="s">
         <v>31</v>
       </c>
-      <c r="F1" t="s">
+      <c r="K1" t="s">
         <v>32</v>
       </c>
-      <c r="G1" t="s">
+      <c r="L1" t="s">
         <v>33</v>
       </c>
-      <c r="H1" t="s">
+      <c r="M1" t="s">
         <v>34</v>
       </c>
-      <c r="I1" t="s">
+      <c r="N1" t="s">
         <v>35</v>
       </c>
-      <c r="J1" t="s">
+      <c r="O1" t="s">
         <v>36</v>
       </c>
-      <c r="K1" t="s">
+      <c r="P1" t="s">
         <v>37</v>
       </c>
-      <c r="L1" t="s">
+      <c r="Q1" t="s">
         <v>38</v>
       </c>
-      <c r="M1" t="s">
+      <c r="R1" t="s">
         <v>39</v>
       </c>
-      <c r="N1" t="s">
+      <c r="S1" t="s">
         <v>40</v>
-      </c>
-      <c r="O1" t="s">
-        <v>41</v>
-      </c>
-      <c r="P1" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>43</v>
-      </c>
-      <c r="R1" t="s">
-        <v>44</v>
-      </c>
-      <c r="S1" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="B2" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="C2" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="D2" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="E2" t="s">
         <v>5</v>
       </c>
       <c r="F2" t="s">
-        <v>14</v>
+        <v>41</v>
       </c>
       <c r="G2" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="H2" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="I2" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="J2" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="K2" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="L2" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="M2" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="N2" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="O2" t="s">
-        <v>14</v>
+        <v>41</v>
       </c>
       <c r="P2" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="Q2" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="R2" t="s">
         <v>5</v>
@@ -650,40 +585,40 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F1" t="s">
         <v>48</v>
       </c>
-      <c r="B1" t="s">
+      <c r="G1" t="s">
         <v>49</v>
       </c>
-      <c r="C1" t="s">
+      <c r="H1" t="s">
         <v>50</v>
       </c>
-      <c r="D1" t="s">
+      <c r="I1" t="s">
         <v>51</v>
       </c>
-      <c r="E1" t="s">
+      <c r="J1" t="s">
         <v>52</v>
       </c>
-      <c r="F1" t="s">
+      <c r="K1" t="s">
         <v>53</v>
       </c>
-      <c r="G1" t="s">
+      <c r="L1" t="s">
         <v>54</v>
-      </c>
-      <c r="H1" t="s">
-        <v>55</v>
-      </c>
-      <c r="I1" t="s">
-        <v>56</v>
-      </c>
-      <c r="J1" t="s">
-        <v>57</v>
-      </c>
-      <c r="K1" t="s">
-        <v>58</v>
-      </c>
-      <c r="L1" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="2">
@@ -726,7 +661,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="B3" t="n">
         <v>0.0</v>
@@ -780,40 +715,40 @@
         <v>2</v>
       </c>
       <c r="B1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F1" t="s">
+        <v>60</v>
+      </c>
+      <c r="G1" t="s">
         <v>61</v>
       </c>
-      <c r="C1" t="s">
+      <c r="H1" t="s">
+        <v>59</v>
+      </c>
+      <c r="I1" t="s">
         <v>62</v>
       </c>
-      <c r="D1" t="s">
+      <c r="J1" t="s">
         <v>63</v>
       </c>
-      <c r="E1" t="s">
+      <c r="K1" t="s">
         <v>64</v>
       </c>
-      <c r="F1" t="s">
+      <c r="L1" t="s">
         <v>65</v>
       </c>
-      <c r="G1" t="s">
+      <c r="M1" t="s">
         <v>66</v>
-      </c>
-      <c r="H1" t="s">
-        <v>64</v>
-      </c>
-      <c r="I1" t="s">
-        <v>67</v>
-      </c>
-      <c r="J1" t="s">
-        <v>68</v>
-      </c>
-      <c r="K1" t="s">
-        <v>69</v>
-      </c>
-      <c r="L1" t="s">
-        <v>70</v>
-      </c>
-      <c r="M1" t="s">
-        <v>71</v>
       </c>
     </row>
   </sheetData>
@@ -823,7 +758,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -831,30 +766,30 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="B1" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C1" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="D1" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="E1" t="s">
         <v>2</v>
       </c>
       <c r="F1" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="G1" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2011.0</v>
+        <v>2010.0</v>
       </c>
       <c r="B2" t="s">
         <v>13</v>
@@ -869,7 +804,7 @@
         <v>2.0</v>
       </c>
       <c r="F2" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="G2" t="n">
         <v>0.0</v>
@@ -877,70 +812,24 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2003.0</v>
+        <v>2001.0</v>
       </c>
       <c r="B3" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="C3" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="D3" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="E3" t="n">
         <v>2.0</v>
       </c>
       <c r="F3" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>2003.0</v>
-      </c>
-      <c r="B4" t="s">
-        <v>79</v>
-      </c>
-      <c r="C4" t="s">
-        <v>79</v>
-      </c>
-      <c r="D4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="F4" t="s">
-        <v>77</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>2002.0</v>
-      </c>
-      <c r="B5" t="s">
-        <v>80</v>
-      </c>
-      <c r="C5" t="s">
-        <v>80</v>
-      </c>
-      <c r="D5" t="s">
-        <v>21</v>
-      </c>
-      <c r="E5" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="F5" t="s">
-        <v>77</v>
-      </c>
-      <c r="G5" t="n">
         <v>0.0</v>
       </c>
     </row>
@@ -951,7 +840,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -959,24 +848,24 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="B1" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="C1" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="D1" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="E1" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="B2" t="n">
         <v>1.0</v>
@@ -993,52 +882,18 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>78</v>
+        <v>13</v>
       </c>
       <c r="B3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C3" t="n">
         <v>1.0</v>
       </c>
-      <c r="C3" t="n">
-        <v>0.0</v>
-      </c>
       <c r="D3" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="E3" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s">
-        <v>79</v>
-      </c>
-      <c r="B4" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="C5" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="E5" t="n">
         <v>0.0</v>
       </c>
     </row>

--- a/src/Excel/Yañez_Gonzalez_Christian_Emmanuel.xlsx
+++ b/src/Excel/Yañez_Gonzalez_Christian_Emmanuel.xlsx
@@ -13,12 +13,14 @@
     <sheet name="Semtica_Etapa_1" r:id="rId7" sheetId="5"/>
     <sheet name="Semtica_Etapa_2" r:id="rId8" sheetId="6"/>
     <sheet name="Semtica_Etapa_3" r:id="rId9" sheetId="7"/>
+    <sheet name="Cl" r:id="rId10" sheetId="8"/>
+    <sheet name="Cont-CI" r:id="rId11" sheetId="9"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="107">
   <si>
     <t>Estado</t>
   </si>
@@ -56,10 +58,10 @@
     <t>{</t>
   </si>
   <si>
-    <t>-71</t>
-  </si>
-  <si>
-    <t>sqrt</t>
+    <t>-4</t>
+  </si>
+  <si>
+    <t>if</t>
   </si>
   <si>
     <t>2</t>
@@ -68,6 +70,12 @@
     <t>-19</t>
   </si>
   <si>
+    <t>-36</t>
+  </si>
+  <si>
+    <t>&lt;</t>
+  </si>
+  <si>
     <t>-54</t>
   </si>
   <si>
@@ -236,12 +244,18 @@
     <t>Edo</t>
   </si>
   <si>
+    <t/>
+  </si>
+  <si>
+    <t>Cont_entero</t>
+  </si>
+  <si>
+    <t>TB1</t>
+  </si>
+  <si>
     <t>Acept</t>
   </si>
   <si>
-    <t>sqrt_p1</t>
-  </si>
-  <si>
     <t>Entradas</t>
   </si>
   <si>
@@ -249,6 +263,84 @@
   </si>
   <si>
     <t>Aceptados</t>
+  </si>
+  <si>
+    <t>Etiqueta</t>
+  </si>
+  <si>
+    <t>Accion</t>
+  </si>
+  <si>
+    <t>Arg1</t>
+  </si>
+  <si>
+    <t>Arg2</t>
+  </si>
+  <si>
+    <t>Resultado</t>
+  </si>
+  <si>
+    <t>Ambitos</t>
+  </si>
+  <si>
+    <t>TCH</t>
+  </si>
+  <si>
+    <t>TEX</t>
+  </si>
+  <si>
+    <t>TRX</t>
+  </si>
+  <si>
+    <t>Arr</t>
+  </si>
+  <si>
+    <t>call</t>
+  </si>
+  <si>
+    <t>=</t>
+  </si>
+  <si>
+    <t>Op-Rel</t>
+  </si>
+  <si>
+    <t>Ope-Log</t>
+  </si>
+  <si>
+    <t>Oper-Arit</t>
+  </si>
+  <si>
+    <t>Op-Un</t>
+  </si>
+  <si>
+    <t>JF</t>
+  </si>
+  <si>
+    <t>JMP</t>
+  </si>
+  <si>
+    <t>valor</t>
+  </si>
+  <si>
+    <t>if-E</t>
+  </si>
+  <si>
+    <t>SW-E</t>
+  </si>
+  <si>
+    <t>For-E</t>
+  </si>
+  <si>
+    <t>Whi-E</t>
+  </si>
+  <si>
+    <t>DEF</t>
+  </si>
+  <si>
+    <t>PPAL</t>
+  </si>
+  <si>
+    <t>Totales</t>
   </si>
 </sst>
 </file>
@@ -293,7 +385,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -389,10 +481,10 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="B9" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="C9" t="s">
         <v>14</v>
@@ -400,13 +492,35 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B10" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
         <v>18</v>
+      </c>
+      <c r="B12" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -424,16 +538,16 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E1" t="s">
         <v>2</v>
@@ -454,120 +568,120 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="G1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="I1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="J1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="K1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="L1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="M1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="N1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="O1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="P1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="Q1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="R1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="S1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D2" t="s">
-        <v>41</v>
+        <v>5</v>
       </c>
       <c r="E2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G2" t="s">
+        <v>43</v>
+      </c>
+      <c r="H2" t="s">
+        <v>43</v>
+      </c>
+      <c r="I2" t="s">
+        <v>43</v>
+      </c>
+      <c r="J2" t="s">
+        <v>43</v>
+      </c>
+      <c r="K2" t="s">
+        <v>43</v>
+      </c>
+      <c r="L2" t="s">
+        <v>43</v>
+      </c>
+      <c r="M2" t="s">
         <v>5</v>
       </c>
-      <c r="F2" t="s">
-        <v>41</v>
-      </c>
-      <c r="G2" t="s">
-        <v>41</v>
-      </c>
-      <c r="H2" t="s">
-        <v>41</v>
-      </c>
-      <c r="I2" t="s">
-        <v>41</v>
-      </c>
-      <c r="J2" t="s">
-        <v>41</v>
-      </c>
-      <c r="K2" t="s">
-        <v>41</v>
-      </c>
-      <c r="L2" t="s">
-        <v>41</v>
-      </c>
-      <c r="M2" t="s">
-        <v>41</v>
-      </c>
       <c r="N2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="O2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="P2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="Q2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="R2" t="s">
         <v>5</v>
       </c>
       <c r="S2" t="s">
-        <v>5</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -585,40 +699,40 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="G1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="H1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="I1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="L1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="2">
@@ -661,7 +775,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B3" t="n">
         <v>0.0</v>
@@ -715,40 +829,40 @@
         <v>2</v>
       </c>
       <c r="B1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="G1" t="s">
+        <v>63</v>
+      </c>
+      <c r="H1" t="s">
         <v>61</v>
       </c>
-      <c r="H1" t="s">
-        <v>59</v>
-      </c>
       <c r="I1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="J1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="K1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="L1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="M1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -758,7 +872,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -766,70 +880,47 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E1" t="s">
         <v>2</v>
       </c>
       <c r="F1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="G1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2010.0</v>
+        <v>1010.0</v>
       </c>
       <c r="B2" t="s">
-        <v>13</v>
+        <v>74</v>
       </c>
       <c r="C2" t="s">
-        <v>13</v>
+        <v>75</v>
       </c>
       <c r="D2" t="s">
-        <v>13</v>
+        <v>76</v>
       </c>
       <c r="E2" t="n">
         <v>2.0</v>
       </c>
       <c r="F2" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>2001.0</v>
-      </c>
-      <c r="B3" t="s">
-        <v>73</v>
-      </c>
-      <c r="C3" t="s">
-        <v>73</v>
-      </c>
-      <c r="D3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E3" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="F3" t="s">
-        <v>72</v>
-      </c>
-      <c r="G3" t="n">
         <v>0.0</v>
       </c>
     </row>
@@ -840,7 +931,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -848,52 +939,309 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E1" t="s">
         <v>68</v>
       </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>81</v>
+      </c>
       <c r="B1" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="C1" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="D1" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="E1" t="s">
-        <v>66</v>
+        <v>85</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>73</v>
+        <v>74</v>
+      </c>
+      <c r="B2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:Y3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E1" t="s">
+        <v>87</v>
+      </c>
+      <c r="F1" t="s">
+        <v>88</v>
+      </c>
+      <c r="G1" t="s">
+        <v>62</v>
+      </c>
+      <c r="H1" t="s">
+        <v>89</v>
+      </c>
+      <c r="I1" t="s">
+        <v>65</v>
+      </c>
+      <c r="J1" t="s">
+        <v>90</v>
+      </c>
+      <c r="K1" t="s">
+        <v>91</v>
+      </c>
+      <c r="L1" t="s">
+        <v>92</v>
+      </c>
+      <c r="M1" t="s">
+        <v>93</v>
+      </c>
+      <c r="N1" t="s">
+        <v>94</v>
+      </c>
+      <c r="O1" t="s">
+        <v>95</v>
+      </c>
+      <c r="P1" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>97</v>
+      </c>
+      <c r="R1" t="s">
+        <v>98</v>
+      </c>
+      <c r="S1" t="s">
+        <v>99</v>
+      </c>
+      <c r="T1" t="s">
+        <v>100</v>
+      </c>
+      <c r="U1" t="s">
+        <v>101</v>
+      </c>
+      <c r="V1" t="s">
+        <v>102</v>
+      </c>
+      <c r="W1" t="s">
+        <v>103</v>
+      </c>
+      <c r="X1" t="s">
+        <v>104</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>0.0</v>
       </c>
       <c r="B2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G2" t="n">
         <v>1.0</v>
       </c>
-      <c r="C2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="E2" t="n">
+      <c r="H2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y2" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>13</v>
+        <v>106</v>
       </c>
       <c r="B3" t="n">
         <v>0.0</v>
       </c>
       <c r="C3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G3" t="n">
         <v>1.0</v>
       </c>
-      <c r="D3" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="E3" t="n">
+      <c r="H3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y3" t="n">
         <v>0.0</v>
       </c>
     </row>

--- a/src/Excel/Yañez_Gonzalez_Christian_Emmanuel.xlsx
+++ b/src/Excel/Yañez_Gonzalez_Christian_Emmanuel.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="387" uniqueCount="136">
   <si>
     <t>Estado</t>
   </si>
@@ -31,49 +31,106 @@
     <t>Linea</t>
   </si>
   <si>
+    <t>-97</t>
+  </si>
+  <si>
+    <t>INT</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>-68</t>
+  </si>
+  <si>
+    <t>:</t>
+  </si>
+  <si>
+    <t>-1</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>-46</t>
+  </si>
+  <si>
+    <t>;</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>func</t>
+  </si>
+  <si>
+    <t>-49</t>
+  </si>
+  <si>
+    <t>(</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>-50</t>
+  </si>
+  <si>
+    <t>)</t>
+  </si>
+  <si>
     <t>-61</t>
   </si>
   <si>
     <t>main</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>-49</t>
-  </si>
-  <si>
-    <t>(</t>
-  </si>
-  <si>
-    <t>-50</t>
-  </si>
-  <si>
-    <t>)</t>
-  </si>
-  <si>
     <t>-53</t>
   </si>
   <si>
     <t>{</t>
   </si>
   <si>
-    <t>-4</t>
-  </si>
-  <si>
-    <t>if</t>
-  </si>
-  <si>
-    <t>2</t>
+    <t>3</t>
+  </si>
+  <si>
+    <t>-55</t>
+  </si>
+  <si>
+    <t>=</t>
   </si>
   <si>
     <t>-19</t>
   </si>
   <si>
-    <t>-36</t>
-  </si>
-  <si>
-    <t>&lt;</t>
+    <t>-24</t>
+  </si>
+  <si>
+    <t>+</t>
+  </si>
+  <si>
+    <t>-25</t>
+  </si>
+  <si>
+    <t>*</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>-27</t>
+  </si>
+  <si>
+    <t>/</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>-92</t>
+  </si>
+  <si>
+    <t>return</t>
   </si>
   <si>
     <t>-54</t>
@@ -82,7 +139,13 @@
     <t>}</t>
   </si>
   <si>
-    <t>3</t>
+    <t>7</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>9</t>
   </si>
   <si>
     <t>Token</t>
@@ -157,6 +220,12 @@
     <t>6</t>
   </si>
   <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
     <t>Ambito</t>
   </si>
   <si>
@@ -166,9 +235,6 @@
     <t>String (CHAR[])</t>
   </si>
   <si>
-    <t>INT</t>
-  </si>
-  <si>
     <t>REAL</t>
   </si>
   <si>
@@ -229,6 +295,12 @@
     <t>Errores</t>
   </si>
   <si>
+    <t>a -&gt;  TE4</t>
+  </si>
+  <si>
+    <t>x -&gt;  TE1</t>
+  </si>
+  <si>
     <t>Regla</t>
   </si>
   <si>
@@ -247,10 +319,7 @@
     <t/>
   </si>
   <si>
-    <t>Cont_entero</t>
-  </si>
-  <si>
-    <t>TB1</t>
+    <t>id</t>
   </si>
   <si>
     <t>Acept</t>
@@ -280,6 +349,33 @@
     <t>Resultado</t>
   </si>
   <si>
+    <t>DEF</t>
+  </si>
+  <si>
+    <t>TE1</t>
+  </si>
+  <si>
+    <t>TE2</t>
+  </si>
+  <si>
+    <t>TE3</t>
+  </si>
+  <si>
+    <t>TE4</t>
+  </si>
+  <si>
+    <t>TE5</t>
+  </si>
+  <si>
+    <t>enddef</t>
+  </si>
+  <si>
+    <t>PPAL</t>
+  </si>
+  <si>
+    <t>endmain</t>
+  </si>
+  <si>
     <t>Ambitos</t>
   </si>
   <si>
@@ -298,9 +394,6 @@
     <t>call</t>
   </si>
   <si>
-    <t>=</t>
-  </si>
-  <si>
     <t>Op-Rel</t>
   </si>
   <si>
@@ -332,12 +425,6 @@
   </si>
   <si>
     <t>Whi-E</t>
-  </si>
-  <si>
-    <t>DEF</t>
-  </si>
-  <si>
-    <t>PPAL</t>
   </si>
   <si>
     <t>Totales</t>
@@ -385,7 +472,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C53"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -448,79 +535,530 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" t="s">
         <v>12</v>
-      </c>
-      <c r="B6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" t="s">
         <v>15</v>
       </c>
-      <c r="B8" t="s">
-        <v>5</v>
-      </c>
       <c r="C8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="B9" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="C9" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C10" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="B11" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="C11" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" t="s">
         <v>18</v>
       </c>
-      <c r="B12" t="s">
+      <c r="C14" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>21</v>
+      </c>
+      <c r="B15" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>8</v>
+      </c>
+      <c r="B16" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>24</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18" t="s">
+        <v>5</v>
+      </c>
+      <c r="C18" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>27</v>
+      </c>
+      <c r="B19" t="s">
+        <v>28</v>
+      </c>
+      <c r="C19" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>26</v>
+      </c>
+      <c r="B20" t="s">
+        <v>12</v>
+      </c>
+      <c r="C20" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>29</v>
+      </c>
+      <c r="B21" t="s">
+        <v>30</v>
+      </c>
+      <c r="C21" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>26</v>
+      </c>
+      <c r="B22" t="s">
+        <v>23</v>
+      </c>
+      <c r="C22" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>29</v>
+      </c>
+      <c r="B23" t="s">
+        <v>30</v>
+      </c>
+      <c r="C23" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>26</v>
+      </c>
+      <c r="B24" t="s">
+        <v>31</v>
+      </c>
+      <c r="C24" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>32</v>
+      </c>
+      <c r="B25" t="s">
+        <v>33</v>
+      </c>
+      <c r="C25" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>26</v>
+      </c>
+      <c r="B26" t="s">
+        <v>34</v>
+      </c>
+      <c r="C26" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>10</v>
+      </c>
+      <c r="B27" t="s">
+        <v>11</v>
+      </c>
+      <c r="C27" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>35</v>
+      </c>
+      <c r="B28" t="s">
+        <v>36</v>
+      </c>
+      <c r="C28" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>8</v>
+      </c>
+      <c r="B29" t="s">
+        <v>16</v>
+      </c>
+      <c r="C29" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" t="s">
+        <v>25</v>
+      </c>
+      <c r="C30" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
+        <v>26</v>
+      </c>
+      <c r="B31" t="s">
+        <v>5</v>
+      </c>
+      <c r="C31" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s">
+        <v>27</v>
+      </c>
+      <c r="B32" t="s">
+        <v>28</v>
+      </c>
+      <c r="C32" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s">
+        <v>26</v>
+      </c>
+      <c r="B33" t="s">
+        <v>12</v>
+      </c>
+      <c r="C33" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s">
+        <v>10</v>
+      </c>
+      <c r="B34" t="s">
+        <v>11</v>
+      </c>
+      <c r="C34" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s">
+        <v>37</v>
+      </c>
+      <c r="B35" t="s">
+        <v>38</v>
+      </c>
+      <c r="C35" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s">
+        <v>10</v>
+      </c>
+      <c r="B36" t="s">
+        <v>11</v>
+      </c>
+      <c r="C36" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s">
         <v>19</v>
       </c>
-      <c r="C12" t="s">
+      <c r="B37" t="s">
         <v>20</v>
+      </c>
+      <c r="C37" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s">
+        <v>14</v>
+      </c>
+      <c r="B38" t="s">
+        <v>15</v>
+      </c>
+      <c r="C38" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s">
+        <v>17</v>
+      </c>
+      <c r="B39" t="s">
+        <v>18</v>
+      </c>
+      <c r="C39" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s">
+        <v>21</v>
+      </c>
+      <c r="B40" t="s">
+        <v>22</v>
+      </c>
+      <c r="C40" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s">
+        <v>8</v>
+      </c>
+      <c r="B41" t="s">
+        <v>9</v>
+      </c>
+      <c r="C41" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s">
+        <v>24</v>
+      </c>
+      <c r="B42" t="s">
+        <v>25</v>
+      </c>
+      <c r="C42" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s">
+        <v>26</v>
+      </c>
+      <c r="B43" t="s">
+        <v>5</v>
+      </c>
+      <c r="C43" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s">
+        <v>27</v>
+      </c>
+      <c r="B44" t="s">
+        <v>28</v>
+      </c>
+      <c r="C44" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s">
+        <v>26</v>
+      </c>
+      <c r="B45" t="s">
+        <v>12</v>
+      </c>
+      <c r="C45" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s">
+        <v>29</v>
+      </c>
+      <c r="B46" t="s">
+        <v>30</v>
+      </c>
+      <c r="C46" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s">
+        <v>26</v>
+      </c>
+      <c r="B47" t="s">
+        <v>23</v>
+      </c>
+      <c r="C47" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s">
+        <v>29</v>
+      </c>
+      <c r="B48" t="s">
+        <v>30</v>
+      </c>
+      <c r="C48" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s">
+        <v>26</v>
+      </c>
+      <c r="B49" t="s">
+        <v>31</v>
+      </c>
+      <c r="C49" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s">
+        <v>32</v>
+      </c>
+      <c r="B50" t="s">
+        <v>33</v>
+      </c>
+      <c r="C50" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s">
+        <v>26</v>
+      </c>
+      <c r="B51" t="s">
+        <v>34</v>
+      </c>
+      <c r="C51" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s">
+        <v>10</v>
+      </c>
+      <c r="B52" t="s">
+        <v>11</v>
+      </c>
+      <c r="C52" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s">
+        <v>37</v>
+      </c>
+      <c r="B53" t="s">
+        <v>38</v>
+      </c>
+      <c r="C53" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -538,16 +1076,16 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="B1" t="s">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="E1" t="s">
         <v>2</v>
@@ -568,120 +1106,120 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="B1" t="s">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="C1" t="s">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="D1" t="s">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="E1" t="s">
-        <v>28</v>
+        <v>49</v>
       </c>
       <c r="F1" t="s">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="G1" t="s">
-        <v>30</v>
+        <v>51</v>
       </c>
       <c r="H1" t="s">
-        <v>31</v>
+        <v>52</v>
       </c>
       <c r="I1" t="s">
-        <v>32</v>
+        <v>53</v>
       </c>
       <c r="J1" t="s">
-        <v>33</v>
+        <v>54</v>
       </c>
       <c r="K1" t="s">
-        <v>34</v>
+        <v>55</v>
       </c>
       <c r="L1" t="s">
-        <v>35</v>
+        <v>56</v>
       </c>
       <c r="M1" t="s">
-        <v>36</v>
+        <v>57</v>
       </c>
       <c r="N1" t="s">
-        <v>37</v>
+        <v>58</v>
       </c>
       <c r="O1" t="s">
-        <v>38</v>
+        <v>59</v>
       </c>
       <c r="P1" t="s">
-        <v>39</v>
+        <v>60</v>
       </c>
       <c r="Q1" t="s">
-        <v>40</v>
+        <v>61</v>
       </c>
       <c r="R1" t="s">
-        <v>41</v>
+        <v>62</v>
       </c>
       <c r="S1" t="s">
-        <v>42</v>
+        <v>63</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>43</v>
+        <v>64</v>
       </c>
       <c r="B2" t="s">
-        <v>43</v>
+        <v>65</v>
       </c>
       <c r="C2" t="s">
-        <v>43</v>
+        <v>64</v>
       </c>
       <c r="D2" t="s">
-        <v>5</v>
+        <v>64</v>
       </c>
       <c r="E2" t="s">
-        <v>14</v>
+        <v>66</v>
       </c>
       <c r="F2" t="s">
-        <v>43</v>
+        <v>64</v>
       </c>
       <c r="G2" t="s">
-        <v>43</v>
+        <v>64</v>
       </c>
       <c r="H2" t="s">
-        <v>43</v>
+        <v>64</v>
       </c>
       <c r="I2" t="s">
-        <v>43</v>
+        <v>64</v>
       </c>
       <c r="J2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K2" t="s">
-        <v>43</v>
+        <v>64</v>
       </c>
       <c r="L2" t="s">
-        <v>43</v>
+        <v>64</v>
       </c>
       <c r="M2" t="s">
-        <v>5</v>
+        <v>64</v>
       </c>
       <c r="N2" t="s">
-        <v>43</v>
+        <v>64</v>
       </c>
       <c r="O2" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="P2" t="s">
-        <v>44</v>
+        <v>67</v>
       </c>
       <c r="Q2" t="s">
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="R2" t="s">
-        <v>5</v>
+        <v>39</v>
       </c>
       <c r="S2" t="s">
-        <v>43</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -691,7 +1229,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:L3"/>
+  <dimension ref="A1:L4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -699,40 +1237,40 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>45</v>
+        <v>68</v>
       </c>
       <c r="B1" t="s">
-        <v>46</v>
+        <v>69</v>
       </c>
       <c r="C1" t="s">
-        <v>47</v>
+        <v>70</v>
       </c>
       <c r="D1" t="s">
-        <v>48</v>
+        <v>4</v>
       </c>
       <c r="E1" t="s">
-        <v>49</v>
+        <v>71</v>
       </c>
       <c r="F1" t="s">
-        <v>50</v>
+        <v>72</v>
       </c>
       <c r="G1" t="s">
-        <v>51</v>
+        <v>73</v>
       </c>
       <c r="H1" t="s">
-        <v>52</v>
+        <v>74</v>
       </c>
       <c r="I1" t="s">
-        <v>53</v>
+        <v>75</v>
       </c>
       <c r="J1" t="s">
-        <v>54</v>
+        <v>76</v>
       </c>
       <c r="K1" t="s">
-        <v>55</v>
+        <v>77</v>
       </c>
       <c r="L1" t="s">
-        <v>56</v>
+        <v>78</v>
       </c>
     </row>
     <row r="2">
@@ -746,7 +1284,7 @@
         <v>0.0</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="E2" t="n">
         <v>0.0</v>
@@ -770,12 +1308,12 @@
         <v>0.0</v>
       </c>
       <c r="L2" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s">
-        <v>57</v>
+      <c r="A3" t="n">
+        <v>1.0</v>
       </c>
       <c r="B3" t="n">
         <v>0.0</v>
@@ -784,7 +1322,7 @@
         <v>0.0</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="E3" t="n">
         <v>0.0</v>
@@ -808,7 +1346,45 @@
         <v>0.0</v>
       </c>
       <c r="L3" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>79</v>
+      </c>
+      <c r="B4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D4" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>3.0</v>
       </c>
     </row>
   </sheetData>
@@ -818,7 +1394,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:M1"/>
+  <dimension ref="A1:M4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -829,40 +1405,163 @@
         <v>2</v>
       </c>
       <c r="B1" t="s">
-        <v>58</v>
+        <v>80</v>
       </c>
       <c r="C1" t="s">
-        <v>59</v>
+        <v>81</v>
       </c>
       <c r="D1" t="s">
-        <v>60</v>
+        <v>82</v>
       </c>
       <c r="E1" t="s">
-        <v>61</v>
+        <v>83</v>
       </c>
       <c r="F1" t="s">
-        <v>62</v>
+        <v>84</v>
       </c>
       <c r="G1" t="s">
-        <v>63</v>
+        <v>85</v>
       </c>
       <c r="H1" t="s">
-        <v>61</v>
+        <v>83</v>
       </c>
       <c r="I1" t="s">
-        <v>64</v>
+        <v>86</v>
       </c>
       <c r="J1" t="s">
-        <v>65</v>
+        <v>87</v>
       </c>
       <c r="K1" t="s">
-        <v>66</v>
+        <v>88</v>
       </c>
       <c r="L1" t="s">
-        <v>67</v>
+        <v>89</v>
       </c>
       <c r="M1" t="s">
-        <v>68</v>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L2" t="s">
+        <v>91</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="B3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L3" t="s">
+        <v>92</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="B4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D4" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L4" t="s">
+        <v>91</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0.0</v>
       </c>
     </row>
   </sheetData>
@@ -872,7 +1571,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -880,47 +1579,185 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>69</v>
+        <v>93</v>
       </c>
       <c r="B1" t="s">
-        <v>70</v>
+        <v>94</v>
       </c>
       <c r="C1" t="s">
-        <v>71</v>
+        <v>95</v>
       </c>
       <c r="D1" t="s">
-        <v>72</v>
+        <v>96</v>
       </c>
       <c r="E1" t="s">
         <v>2</v>
       </c>
       <c r="F1" t="s">
-        <v>73</v>
+        <v>97</v>
       </c>
       <c r="G1" t="s">
-        <v>45</v>
+        <v>68</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1010.0</v>
+        <v>1130.0</v>
       </c>
       <c r="B2" t="s">
-        <v>74</v>
+        <v>98</v>
       </c>
       <c r="C2" t="s">
-        <v>75</v>
+        <v>99</v>
       </c>
       <c r="D2" t="s">
-        <v>76</v>
+        <v>9</v>
       </c>
       <c r="E2" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="F2" t="s">
-        <v>77</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>1090.0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>98</v>
+      </c>
+      <c r="C3" t="s">
+        <v>99</v>
+      </c>
+      <c r="D3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="F3" t="s">
+        <v>100</v>
+      </c>
+      <c r="G3" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>1130.0</v>
+      </c>
+      <c r="B4" t="s">
+        <v>98</v>
+      </c>
+      <c r="C4" t="s">
+        <v>99</v>
+      </c>
+      <c r="D4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="F4" t="s">
+        <v>100</v>
+      </c>
+      <c r="G4" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>1090.0</v>
+      </c>
+      <c r="B5" t="s">
+        <v>98</v>
+      </c>
+      <c r="C5" t="s">
+        <v>99</v>
+      </c>
+      <c r="D5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="F5" t="s">
+        <v>100</v>
+      </c>
+      <c r="G5" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>1140.0</v>
+      </c>
+      <c r="B6" t="s">
+        <v>98</v>
+      </c>
+      <c r="C6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E6" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="F6" t="s">
+        <v>100</v>
+      </c>
+      <c r="G6" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>1130.0</v>
+      </c>
+      <c r="B7" t="s">
+        <v>98</v>
+      </c>
+      <c r="C7" t="s">
+        <v>99</v>
+      </c>
+      <c r="D7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="F7" t="s">
+        <v>100</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>1090.0</v>
+      </c>
+      <c r="B8" t="s">
+        <v>98</v>
+      </c>
+      <c r="C8" t="s">
+        <v>99</v>
+      </c>
+      <c r="D8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="F8" t="s">
+        <v>100</v>
+      </c>
+      <c r="G8" t="n">
         <v>0.0</v>
       </c>
     </row>
@@ -939,19 +1776,19 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>70</v>
+        <v>94</v>
       </c>
       <c r="B1" t="s">
-        <v>78</v>
+        <v>101</v>
       </c>
       <c r="C1" t="s">
-        <v>79</v>
+        <v>102</v>
       </c>
       <c r="D1" t="s">
-        <v>80</v>
+        <v>103</v>
       </c>
       <c r="E1" t="s">
-        <v>68</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>
@@ -961,7 +1798,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -969,36 +1806,308 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>81</v>
+        <v>104</v>
       </c>
       <c r="B1" t="s">
-        <v>82</v>
+        <v>105</v>
       </c>
       <c r="C1" t="s">
-        <v>83</v>
+        <v>106</v>
       </c>
       <c r="D1" t="s">
-        <v>84</v>
+        <v>107</v>
       </c>
       <c r="E1" t="s">
-        <v>85</v>
+        <v>108</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>74</v>
+        <v>109</v>
       </c>
       <c r="B2" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D2" t="s">
+        <v>98</v>
+      </c>
+      <c r="E2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>98</v>
+      </c>
+      <c r="B3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>98</v>
+      </c>
+      <c r="B4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" t="s">
+        <v>110</v>
+      </c>
+      <c r="D4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E4" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>98</v>
+      </c>
+      <c r="B5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C5" t="s">
+        <v>111</v>
+      </c>
+      <c r="D5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E5" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>98</v>
+      </c>
+      <c r="B6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" t="s">
         <v>5</v>
       </c>
-      <c r="D2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E2" t="s">
-        <v>76</v>
+      <c r="D6" t="s">
+        <v>112</v>
+      </c>
+      <c r="E6" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>98</v>
+      </c>
+      <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" t="s">
+        <v>98</v>
+      </c>
+      <c r="E7" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>98</v>
+      </c>
+      <c r="B8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>98</v>
+      </c>
+      <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" t="s">
+        <v>98</v>
+      </c>
+      <c r="E9" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>98</v>
+      </c>
+      <c r="B10" t="s">
+        <v>98</v>
+      </c>
+      <c r="C10" t="s">
+        <v>98</v>
+      </c>
+      <c r="D10" t="s">
+        <v>98</v>
+      </c>
+      <c r="E10" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>115</v>
+      </c>
+      <c r="B11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" t="s">
+        <v>98</v>
+      </c>
+      <c r="D11" t="s">
+        <v>98</v>
+      </c>
+      <c r="E11" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" t="s">
+        <v>116</v>
+      </c>
+      <c r="C12" t="s">
+        <v>98</v>
+      </c>
+      <c r="D12" t="s">
+        <v>98</v>
+      </c>
+      <c r="E12" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>98</v>
+      </c>
+      <c r="B13" t="s">
+        <v>30</v>
+      </c>
+      <c r="C13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>98</v>
+      </c>
+      <c r="B14" t="s">
+        <v>30</v>
+      </c>
+      <c r="C14" t="s">
+        <v>110</v>
+      </c>
+      <c r="D14" t="s">
+        <v>31</v>
+      </c>
+      <c r="E14" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>98</v>
+      </c>
+      <c r="B15" t="s">
+        <v>33</v>
+      </c>
+      <c r="C15" t="s">
+        <v>111</v>
+      </c>
+      <c r="D15" t="s">
+        <v>34</v>
+      </c>
+      <c r="E15" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>98</v>
+      </c>
+      <c r="B16" t="s">
+        <v>28</v>
+      </c>
+      <c r="C16" t="s">
+        <v>5</v>
+      </c>
+      <c r="D16" t="s">
+        <v>112</v>
+      </c>
+      <c r="E16" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>98</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" t="s">
+        <v>98</v>
+      </c>
+      <c r="E17" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>117</v>
+      </c>
+      <c r="B18" t="s">
+        <v>98</v>
+      </c>
+      <c r="C18" t="s">
+        <v>98</v>
+      </c>
+      <c r="D18" t="s">
+        <v>98</v>
+      </c>
+      <c r="E18" t="s">
+        <v>98</v>
       </c>
     </row>
   </sheetData>
@@ -1008,7 +2117,7 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:Y3"/>
+  <dimension ref="A1:Y4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1016,79 +2125,79 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>86</v>
+        <v>118</v>
       </c>
       <c r="B1" t="s">
-        <v>60</v>
+        <v>82</v>
       </c>
       <c r="C1" t="s">
-        <v>61</v>
+        <v>83</v>
       </c>
       <c r="D1" t="s">
-        <v>59</v>
+        <v>81</v>
       </c>
       <c r="E1" t="s">
+        <v>119</v>
+      </c>
+      <c r="F1" t="s">
+        <v>120</v>
+      </c>
+      <c r="G1" t="s">
+        <v>84</v>
+      </c>
+      <c r="H1" t="s">
+        <v>121</v>
+      </c>
+      <c r="I1" t="s">
         <v>87</v>
       </c>
-      <c r="F1" t="s">
-        <v>88</v>
-      </c>
-      <c r="G1" t="s">
-        <v>62</v>
-      </c>
-      <c r="H1" t="s">
-        <v>89</v>
-      </c>
-      <c r="I1" t="s">
-        <v>65</v>
-      </c>
       <c r="J1" t="s">
-        <v>90</v>
+        <v>122</v>
       </c>
       <c r="K1" t="s">
-        <v>91</v>
+        <v>123</v>
       </c>
       <c r="L1" t="s">
-        <v>92</v>
+        <v>25</v>
       </c>
       <c r="M1" t="s">
-        <v>93</v>
+        <v>124</v>
       </c>
       <c r="N1" t="s">
-        <v>94</v>
+        <v>125</v>
       </c>
       <c r="O1" t="s">
-        <v>95</v>
+        <v>126</v>
       </c>
       <c r="P1" t="s">
-        <v>96</v>
+        <v>127</v>
       </c>
       <c r="Q1" t="s">
-        <v>97</v>
+        <v>128</v>
       </c>
       <c r="R1" t="s">
-        <v>98</v>
+        <v>129</v>
       </c>
       <c r="S1" t="s">
-        <v>99</v>
+        <v>130</v>
       </c>
       <c r="T1" t="s">
-        <v>100</v>
+        <v>131</v>
       </c>
       <c r="U1" t="s">
-        <v>101</v>
+        <v>132</v>
       </c>
       <c r="V1" t="s">
-        <v>102</v>
+        <v>133</v>
       </c>
       <c r="W1" t="s">
-        <v>103</v>
+        <v>134</v>
       </c>
       <c r="X1" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="Y1" t="s">
-        <v>105</v>
+        <v>116</v>
       </c>
     </row>
     <row r="2">
@@ -1096,7 +2205,7 @@
         <v>0.0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0</v>
+        <v>4.0</v>
       </c>
       <c r="C2" t="n">
         <v>0.0</v>
@@ -1111,69 +2220,69 @@
         <v>0.0</v>
       </c>
       <c r="G2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X2" t="n">
         <v>1.0</v>
       </c>
-      <c r="H2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="R2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="S2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="T2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="U2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="V2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="W2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="X2" t="n">
-        <v>0.0</v>
-      </c>
       <c r="Y2" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s">
-        <v>106</v>
+      <c r="A3" t="n">
+        <v>1.0</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
       <c r="C3" t="n">
         <v>0.0</v>
@@ -1188,61 +2297,138 @@
         <v>0.0</v>
       </c>
       <c r="G3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>135</v>
+      </c>
+      <c r="B4" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X4" t="n">
         <v>1.0</v>
       </c>
-      <c r="H3" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="R3" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="S3" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="T3" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="U3" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="V3" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="W3" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="X3" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>0.0</v>
+      <c r="Y4" t="n">
+        <v>1.0</v>
       </c>
     </row>
   </sheetData>

--- a/src/Excel/Yañez_Gonzalez_Christian_Emmanuel.xlsx
+++ b/src/Excel/Yañez_Gonzalez_Christian_Emmanuel.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="387" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="127">
   <si>
     <t>Estado</t>
   </si>
@@ -73,6 +73,15 @@
     <t>x</t>
   </si>
   <si>
+    <t>-47</t>
+  </si>
+  <si>
+    <t>,</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
     <t>-50</t>
   </si>
   <si>
@@ -91,57 +100,39 @@
     <t>{</t>
   </si>
   <si>
+    <t>-92</t>
+  </si>
+  <si>
+    <t>return</t>
+  </si>
+  <si>
     <t>3</t>
   </si>
   <si>
+    <t>-19</t>
+  </si>
+  <si>
+    <t>-54</t>
+  </si>
+  <si>
+    <t>}</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
     <t>-55</t>
   </si>
   <si>
     <t>=</t>
   </si>
   <si>
-    <t>-19</t>
-  </si>
-  <si>
-    <t>-24</t>
-  </si>
-  <si>
-    <t>+</t>
-  </si>
-  <si>
-    <t>-25</t>
-  </si>
-  <si>
-    <t>*</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>-27</t>
-  </si>
-  <si>
-    <t>/</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>-92</t>
-  </si>
-  <si>
-    <t>return</t>
-  </si>
-  <si>
-    <t>-54</t>
-  </si>
-  <si>
-    <t>}</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
     <t>8</t>
   </si>
   <si>
@@ -217,13 +208,7 @@
     <t>0</t>
   </si>
   <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>10</t>
+    <t>14</t>
   </si>
   <si>
     <t>Ambito</t>
@@ -295,10 +280,7 @@
     <t>Errores</t>
   </si>
   <si>
-    <t>a -&gt;  TE4</t>
-  </si>
-  <si>
-    <t>x -&gt;  TE1</t>
+    <t xml:space="preserve">a -&gt; </t>
   </si>
   <si>
     <t>Regla</t>
@@ -319,12 +301,12 @@
     <t/>
   </si>
   <si>
+    <t>Acept</t>
+  </si>
+  <si>
     <t>id</t>
   </si>
   <si>
-    <t>Acept</t>
-  </si>
-  <si>
     <t>Entradas</t>
   </si>
   <si>
@@ -352,25 +334,16 @@
     <t>DEF</t>
   </si>
   <si>
-    <t>TE1</t>
-  </si>
-  <si>
-    <t>TE2</t>
-  </si>
-  <si>
-    <t>TE3</t>
-  </si>
-  <si>
-    <t>TE4</t>
-  </si>
-  <si>
-    <t>TE5</t>
-  </si>
-  <si>
     <t>enddef</t>
   </si>
   <si>
     <t>PPAL</t>
+  </si>
+  <si>
+    <t>Call</t>
+  </si>
+  <si>
+    <t>Tdeffunc</t>
   </si>
   <si>
     <t>endmain</t>
@@ -472,7 +445,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C53"/>
+  <dimension ref="A1:C44"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -601,10 +574,10 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" t="s">
         <v>19</v>
-      </c>
-      <c r="B12" t="s">
-        <v>20</v>
       </c>
       <c r="C12" t="s">
         <v>12</v>
@@ -612,10 +585,10 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="B13" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C13" t="s">
         <v>12</v>
@@ -623,10 +596,10 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C14" t="s">
         <v>12</v>
@@ -634,10 +607,10 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="C15" t="s">
         <v>12</v>
@@ -645,13 +618,13 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="B16" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="C16" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17">
@@ -662,7 +635,7 @@
         <v>25</v>
       </c>
       <c r="C17" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18">
@@ -670,175 +643,175 @@
         <v>26</v>
       </c>
       <c r="B18" t="s">
-        <v>5</v>
+        <v>27</v>
       </c>
       <c r="C18" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B19" t="s">
+        <v>5</v>
+      </c>
+      <c r="C19" t="s">
         <v>28</v>
-      </c>
-      <c r="C19" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B20" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="C20" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="B21" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="C21" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B22" t="s">
         <v>23</v>
       </c>
       <c r="C22" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="B23" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="C23" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="B24" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="C24" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
         <v>33</v>
-      </c>
-      <c r="C25" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="B26" t="s">
+        <v>9</v>
+      </c>
+      <c r="C26" t="s">
         <v>34</v>
-      </c>
-      <c r="C26" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="B27" t="s">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="C27" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>35</v>
+        <v>8</v>
       </c>
       <c r="B28" t="s">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="C28" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B29" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C29" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="C30" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="B31" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="C31" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B32" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="C32" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="B33" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="C33" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
     <row r="34">
@@ -849,40 +822,40 @@
         <v>11</v>
       </c>
       <c r="C34" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
+        <v>8</v>
+      </c>
+      <c r="B35" t="s">
+        <v>9</v>
+      </c>
+      <c r="C35" t="s">
         <v>37</v>
-      </c>
-      <c r="B35" t="s">
-        <v>38</v>
-      </c>
-      <c r="C35" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="C36" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="B37" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="C37" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="38">
@@ -893,172 +866,73 @@
         <v>15</v>
       </c>
       <c r="C38" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="B39" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="C39" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B40" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C40" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="B41" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="C41" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B42" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C42" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="B43" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C43" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B44" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C44" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="s">
-        <v>26</v>
-      </c>
-      <c r="B45" t="s">
-        <v>12</v>
-      </c>
-      <c r="C45" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="s">
-        <v>29</v>
-      </c>
-      <c r="B46" t="s">
-        <v>30</v>
-      </c>
-      <c r="C46" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="s">
-        <v>26</v>
-      </c>
-      <c r="B47" t="s">
-        <v>23</v>
-      </c>
-      <c r="C47" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="s">
-        <v>29</v>
-      </c>
-      <c r="B48" t="s">
-        <v>30</v>
-      </c>
-      <c r="C48" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="s">
-        <v>26</v>
-      </c>
-      <c r="B49" t="s">
-        <v>31</v>
-      </c>
-      <c r="C49" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="s">
-        <v>32</v>
-      </c>
-      <c r="B50" t="s">
-        <v>33</v>
-      </c>
-      <c r="C50" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="s">
-        <v>26</v>
-      </c>
-      <c r="B51" t="s">
-        <v>34</v>
-      </c>
-      <c r="C51" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="s">
-        <v>10</v>
-      </c>
-      <c r="B52" t="s">
-        <v>11</v>
-      </c>
-      <c r="C52" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="s">
-        <v>37</v>
-      </c>
-      <c r="B53" t="s">
         <v>38</v>
-      </c>
-      <c r="C53" t="s">
-        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -1076,16 +950,16 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="E1" t="s">
         <v>2</v>
@@ -1106,120 +980,120 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D1" t="s">
         <v>45</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E1" t="s">
         <v>46</v>
       </c>
-      <c r="C1" t="s">
+      <c r="F1" t="s">
         <v>47</v>
       </c>
-      <c r="D1" t="s">
+      <c r="G1" t="s">
         <v>48</v>
       </c>
-      <c r="E1" t="s">
+      <c r="H1" t="s">
         <v>49</v>
       </c>
-      <c r="F1" t="s">
+      <c r="I1" t="s">
         <v>50</v>
       </c>
-      <c r="G1" t="s">
+      <c r="J1" t="s">
         <v>51</v>
       </c>
-      <c r="H1" t="s">
+      <c r="K1" t="s">
         <v>52</v>
       </c>
-      <c r="I1" t="s">
+      <c r="L1" t="s">
         <v>53</v>
       </c>
-      <c r="J1" t="s">
+      <c r="M1" t="s">
         <v>54</v>
       </c>
-      <c r="K1" t="s">
+      <c r="N1" t="s">
         <v>55</v>
       </c>
-      <c r="L1" t="s">
+      <c r="O1" t="s">
         <v>56</v>
       </c>
-      <c r="M1" t="s">
+      <c r="P1" t="s">
         <v>57</v>
       </c>
-      <c r="N1" t="s">
+      <c r="Q1" t="s">
         <v>58</v>
       </c>
-      <c r="O1" t="s">
+      <c r="R1" t="s">
         <v>59</v>
       </c>
-      <c r="P1" t="s">
+      <c r="S1" t="s">
         <v>60</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>61</v>
-      </c>
-      <c r="R1" t="s">
-        <v>62</v>
-      </c>
-      <c r="S1" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B2" t="s">
-        <v>65</v>
+        <v>38</v>
       </c>
       <c r="C2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="E2" t="s">
-        <v>66</v>
+        <v>32</v>
       </c>
       <c r="F2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="G2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="H2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="I2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="J2" t="s">
-        <v>41</v>
+        <v>61</v>
       </c>
       <c r="K2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="L2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="M2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="N2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="O2" t="s">
         <v>34</v>
       </c>
       <c r="P2" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="Q2" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="R2" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="S2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -1237,40 +1111,40 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="B1" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="C1" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="D1" t="s">
         <v>4</v>
       </c>
       <c r="E1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F1" t="s">
+        <v>67</v>
+      </c>
+      <c r="G1" t="s">
+        <v>68</v>
+      </c>
+      <c r="H1" t="s">
+        <v>69</v>
+      </c>
+      <c r="I1" t="s">
+        <v>70</v>
+      </c>
+      <c r="J1" t="s">
         <v>71</v>
       </c>
-      <c r="F1" t="s">
+      <c r="K1" t="s">
         <v>72</v>
       </c>
-      <c r="G1" t="s">
+      <c r="L1" t="s">
         <v>73</v>
-      </c>
-      <c r="H1" t="s">
-        <v>74</v>
-      </c>
-      <c r="I1" t="s">
-        <v>75</v>
-      </c>
-      <c r="J1" t="s">
-        <v>76</v>
-      </c>
-      <c r="K1" t="s">
-        <v>77</v>
-      </c>
-      <c r="L1" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="2">
@@ -1322,7 +1196,7 @@
         <v>0.0</v>
       </c>
       <c r="D3" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="E3" t="n">
         <v>0.0</v>
@@ -1346,12 +1220,12 @@
         <v>0.0</v>
       </c>
       <c r="L3" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="B4" t="n">
         <v>0.0</v>
@@ -1360,7 +1234,7 @@
         <v>0.0</v>
       </c>
       <c r="D4" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="E4" t="n">
         <v>0.0</v>
@@ -1384,7 +1258,7 @@
         <v>0.0</v>
       </c>
       <c r="L4" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
     </row>
   </sheetData>
@@ -1394,7 +1268,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:M4"/>
+  <dimension ref="A1:M3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1405,45 +1279,45 @@
         <v>2</v>
       </c>
       <c r="B1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E1" t="s">
+        <v>78</v>
+      </c>
+      <c r="F1" t="s">
+        <v>79</v>
+      </c>
+      <c r="G1" t="s">
         <v>80</v>
       </c>
-      <c r="C1" t="s">
+      <c r="H1" t="s">
+        <v>78</v>
+      </c>
+      <c r="I1" t="s">
         <v>81</v>
       </c>
-      <c r="D1" t="s">
+      <c r="J1" t="s">
         <v>82</v>
       </c>
-      <c r="E1" t="s">
+      <c r="K1" t="s">
         <v>83</v>
       </c>
-      <c r="F1" t="s">
+      <c r="L1" t="s">
         <v>84</v>
       </c>
-      <c r="G1" t="s">
+      <c r="M1" t="s">
         <v>85</v>
-      </c>
-      <c r="H1" t="s">
-        <v>83</v>
-      </c>
-      <c r="I1" t="s">
-        <v>86</v>
-      </c>
-      <c r="J1" t="s">
-        <v>87</v>
-      </c>
-      <c r="K1" t="s">
-        <v>88</v>
-      </c>
-      <c r="L1" t="s">
-        <v>89</v>
-      </c>
-      <c r="M1" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>3.0</v>
+        <v>7.0</v>
       </c>
       <c r="B2" t="n">
         <v>0.0</v>
@@ -1452,7 +1326,7 @@
         <v>0.0</v>
       </c>
       <c r="D2" t="n">
-        <v>4.0</v>
+        <v>0.0</v>
       </c>
       <c r="E2" t="n">
         <v>0.0</v>
@@ -1476,7 +1350,7 @@
         <v>0.0</v>
       </c>
       <c r="L2" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="M2" t="n">
         <v>0.0</v>
@@ -1484,7 +1358,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>4.0</v>
+        <v>8.0</v>
       </c>
       <c r="B3" t="n">
         <v>0.0</v>
@@ -1493,7 +1367,7 @@
         <v>0.0</v>
       </c>
       <c r="D3" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="E3" t="n">
         <v>0.0</v>
@@ -1517,50 +1391,9 @@
         <v>0.0</v>
       </c>
       <c r="L3" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="M3" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>8.0</v>
-      </c>
-      <c r="B4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D4" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="L4" t="s">
-        <v>91</v>
-      </c>
-      <c r="M4" t="n">
         <v>0.0</v>
       </c>
     </row>
@@ -1571,7 +1404,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1579,45 +1412,45 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="B1" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="C1" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="D1" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="E1" t="s">
         <v>2</v>
       </c>
       <c r="F1" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="G1" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1130.0</v>
+        <v>1140.0</v>
       </c>
       <c r="B2" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="C2" t="s">
-        <v>99</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="E2" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="F2" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="G2" t="n">
         <v>1.0</v>
@@ -1625,25 +1458,25 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1090.0</v>
+        <v>1130.0</v>
       </c>
       <c r="B3" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="C3" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="D3" t="s">
         <v>9</v>
       </c>
       <c r="E3" t="n">
-        <v>3.0</v>
+        <v>7.0</v>
       </c>
       <c r="F3" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="G3" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="4">
@@ -1651,88 +1484,88 @@
         <v>1130.0</v>
       </c>
       <c r="B4" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="C4" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="D4" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E4" t="n">
-        <v>4.0</v>
+        <v>7.0</v>
       </c>
       <c r="F4" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="G4" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1090.0</v>
+        <v>1100.0</v>
       </c>
       <c r="B5" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="C5" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="D5" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E5" t="n">
-        <v>4.0</v>
+        <v>7.0</v>
       </c>
       <c r="F5" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="G5" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1140.0</v>
+        <v>1100.0</v>
       </c>
       <c r="B6" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="C6" t="s">
-        <v>36</v>
+        <v>94</v>
       </c>
       <c r="D6" t="s">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="E6" t="n">
-        <v>5.0</v>
+        <v>7.0</v>
       </c>
       <c r="F6" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="G6" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>1130.0</v>
+        <v>1120.0</v>
       </c>
       <c r="B7" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="C7" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="D7" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E7" t="n">
-        <v>8.0</v>
+        <v>7.0</v>
       </c>
       <c r="F7" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="G7" t="n">
         <v>0.0</v>
@@ -1743,21 +1576,228 @@
         <v>1090.0</v>
       </c>
       <c r="B8" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="C8" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="D8" t="s">
         <v>9</v>
       </c>
       <c r="E8" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="F8" t="s">
+        <v>93</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>1020.0</v>
+      </c>
+      <c r="B9" t="s">
+        <v>92</v>
+      </c>
+      <c r="C9" t="s">
+        <v>36</v>
+      </c>
+      <c r="D9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E9" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="F9" t="s">
+        <v>93</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>1130.0</v>
+      </c>
+      <c r="B10" t="s">
+        <v>92</v>
+      </c>
+      <c r="C10" t="s">
+        <v>94</v>
+      </c>
+      <c r="D10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10" t="n">
         <v>8.0</v>
       </c>
-      <c r="F8" t="s">
-        <v>100</v>
-      </c>
-      <c r="G8" t="n">
+      <c r="F10" t="s">
+        <v>93</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>1130.0</v>
+      </c>
+      <c r="B11" t="s">
+        <v>92</v>
+      </c>
+      <c r="C11" t="s">
+        <v>94</v>
+      </c>
+      <c r="D11" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="F11" t="s">
+        <v>93</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>1130.0</v>
+      </c>
+      <c r="B12" t="s">
+        <v>92</v>
+      </c>
+      <c r="C12" t="s">
+        <v>94</v>
+      </c>
+      <c r="D12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E12" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="F12" t="s">
+        <v>93</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>1100.0</v>
+      </c>
+      <c r="B13" t="s">
+        <v>92</v>
+      </c>
+      <c r="C13" t="s">
+        <v>94</v>
+      </c>
+      <c r="D13" t="s">
+        <v>13</v>
+      </c>
+      <c r="E13" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="F13" t="s">
+        <v>93</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>1100.0</v>
+      </c>
+      <c r="B14" t="s">
+        <v>92</v>
+      </c>
+      <c r="C14" t="s">
+        <v>94</v>
+      </c>
+      <c r="D14" t="s">
+        <v>13</v>
+      </c>
+      <c r="E14" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="F14" t="s">
+        <v>93</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>1120.0</v>
+      </c>
+      <c r="B15" t="s">
+        <v>92</v>
+      </c>
+      <c r="C15" t="s">
+        <v>94</v>
+      </c>
+      <c r="D15" t="s">
+        <v>13</v>
+      </c>
+      <c r="E15" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="F15" t="s">
+        <v>93</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>1090.0</v>
+      </c>
+      <c r="B16" t="s">
+        <v>92</v>
+      </c>
+      <c r="C16" t="s">
+        <v>94</v>
+      </c>
+      <c r="D16" t="s">
+        <v>9</v>
+      </c>
+      <c r="E16" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="F16" t="s">
+        <v>93</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>1020.0</v>
+      </c>
+      <c r="B17" t="s">
+        <v>92</v>
+      </c>
+      <c r="C17" t="s">
+        <v>36</v>
+      </c>
+      <c r="D17" t="s">
+        <v>36</v>
+      </c>
+      <c r="E17" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="F17" t="s">
+        <v>93</v>
+      </c>
+      <c r="G17" t="n">
         <v>0.0</v>
       </c>
     </row>
@@ -1776,19 +1816,19 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="B1" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="C1" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="D1" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="E1" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -1798,7 +1838,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E18"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1806,308 +1846,189 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="B1" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="C1" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="D1" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="E1" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="B2" t="s">
         <v>13</v>
       </c>
       <c r="C2" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="D2" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="E2" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="B3" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="C3" t="s">
-        <v>12</v>
+        <v>92</v>
       </c>
       <c r="D3" t="s">
-        <v>23</v>
+        <v>92</v>
       </c>
       <c r="E3" t="s">
-        <v>110</v>
+        <v>92</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="B4" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>110</v>
+        <v>92</v>
       </c>
       <c r="D4" t="s">
-        <v>31</v>
+        <v>92</v>
       </c>
       <c r="E4" t="s">
-        <v>111</v>
+        <v>92</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="B5" t="s">
-        <v>33</v>
+        <v>106</v>
       </c>
       <c r="C5" t="s">
-        <v>111</v>
+        <v>13</v>
       </c>
       <c r="D5" t="s">
-        <v>34</v>
+        <v>92</v>
       </c>
       <c r="E5" t="s">
-        <v>112</v>
+        <v>92</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="B6" t="s">
-        <v>28</v>
+        <v>92</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
       </c>
       <c r="D6" t="s">
-        <v>112</v>
+        <v>12</v>
       </c>
       <c r="E6" t="s">
-        <v>113</v>
+        <v>92</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="B7" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="C7" t="s">
         <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="E7" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="B8" t="s">
-        <v>28</v>
+        <v>106</v>
       </c>
       <c r="C8" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="D8" t="s">
-        <v>12</v>
+        <v>92</v>
       </c>
       <c r="E8" t="s">
-        <v>114</v>
+        <v>92</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>92</v>
       </c>
       <c r="C9" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D9" t="s">
-        <v>98</v>
+        <v>28</v>
       </c>
       <c r="E9" t="s">
-        <v>114</v>
+        <v>92</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="B10" t="s">
-        <v>98</v>
+        <v>36</v>
       </c>
       <c r="C10" t="s">
-        <v>98</v>
+        <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="E10" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="B11" t="s">
-        <v>13</v>
+        <v>92</v>
       </c>
       <c r="C11" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="D11" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="E11" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="s">
-        <v>20</v>
-      </c>
-      <c r="B12" t="s">
-        <v>116</v>
-      </c>
-      <c r="C12" t="s">
-        <v>98</v>
-      </c>
-      <c r="D12" t="s">
-        <v>98</v>
-      </c>
-      <c r="E12" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="s">
-        <v>98</v>
-      </c>
-      <c r="B13" t="s">
-        <v>30</v>
-      </c>
-      <c r="C13" t="s">
-        <v>12</v>
-      </c>
-      <c r="D13" t="s">
-        <v>23</v>
-      </c>
-      <c r="E13" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="s">
-        <v>98</v>
-      </c>
-      <c r="B14" t="s">
-        <v>30</v>
-      </c>
-      <c r="C14" t="s">
-        <v>110</v>
-      </c>
-      <c r="D14" t="s">
-        <v>31</v>
-      </c>
-      <c r="E14" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="s">
-        <v>98</v>
-      </c>
-      <c r="B15" t="s">
-        <v>33</v>
-      </c>
-      <c r="C15" t="s">
-        <v>111</v>
-      </c>
-      <c r="D15" t="s">
-        <v>34</v>
-      </c>
-      <c r="E15" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="s">
-        <v>98</v>
-      </c>
-      <c r="B16" t="s">
-        <v>28</v>
-      </c>
-      <c r="C16" t="s">
-        <v>5</v>
-      </c>
-      <c r="D16" t="s">
-        <v>112</v>
-      </c>
-      <c r="E16" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="s">
-        <v>98</v>
-      </c>
-      <c r="B17" t="s">
-        <v>25</v>
-      </c>
-      <c r="C17" t="s">
-        <v>9</v>
-      </c>
-      <c r="D17" t="s">
-        <v>98</v>
-      </c>
-      <c r="E17" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="s">
-        <v>117</v>
-      </c>
-      <c r="B18" t="s">
-        <v>98</v>
-      </c>
-      <c r="C18" t="s">
-        <v>98</v>
-      </c>
-      <c r="D18" t="s">
-        <v>98</v>
-      </c>
-      <c r="E18" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
     </row>
   </sheetData>
@@ -2125,79 +2046,79 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E1" t="s">
+        <v>110</v>
+      </c>
+      <c r="F1" t="s">
+        <v>111</v>
+      </c>
+      <c r="G1" t="s">
+        <v>79</v>
+      </c>
+      <c r="H1" t="s">
+        <v>112</v>
+      </c>
+      <c r="I1" t="s">
+        <v>82</v>
+      </c>
+      <c r="J1" t="s">
+        <v>113</v>
+      </c>
+      <c r="K1" t="s">
+        <v>114</v>
+      </c>
+      <c r="L1" t="s">
+        <v>36</v>
+      </c>
+      <c r="M1" t="s">
+        <v>115</v>
+      </c>
+      <c r="N1" t="s">
+        <v>116</v>
+      </c>
+      <c r="O1" t="s">
+        <v>117</v>
+      </c>
+      <c r="P1" t="s">
         <v>118</v>
       </c>
-      <c r="B1" t="s">
-        <v>82</v>
-      </c>
-      <c r="C1" t="s">
-        <v>83</v>
-      </c>
-      <c r="D1" t="s">
-        <v>81</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="Q1" t="s">
         <v>119</v>
       </c>
-      <c r="F1" t="s">
+      <c r="R1" t="s">
         <v>120</v>
       </c>
-      <c r="G1" t="s">
-        <v>84</v>
-      </c>
-      <c r="H1" t="s">
+      <c r="S1" t="s">
         <v>121</v>
       </c>
-      <c r="I1" t="s">
-        <v>87</v>
-      </c>
-      <c r="J1" t="s">
+      <c r="T1" t="s">
         <v>122</v>
       </c>
-      <c r="K1" t="s">
+      <c r="U1" t="s">
         <v>123</v>
       </c>
-      <c r="L1" t="s">
-        <v>25</v>
-      </c>
-      <c r="M1" t="s">
+      <c r="V1" t="s">
         <v>124</v>
       </c>
-      <c r="N1" t="s">
+      <c r="W1" t="s">
         <v>125</v>
       </c>
-      <c r="O1" t="s">
-        <v>126</v>
-      </c>
-      <c r="P1" t="s">
-        <v>127</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>128</v>
-      </c>
-      <c r="R1" t="s">
-        <v>129</v>
-      </c>
-      <c r="S1" t="s">
-        <v>130</v>
-      </c>
-      <c r="T1" t="s">
-        <v>131</v>
-      </c>
-      <c r="U1" t="s">
-        <v>132</v>
-      </c>
-      <c r="V1" t="s">
-        <v>133</v>
-      </c>
-      <c r="W1" t="s">
-        <v>134</v>
-      </c>
       <c r="X1" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="Y1" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
     </row>
     <row r="2">
@@ -2205,7 +2126,7 @@
         <v>0.0</v>
       </c>
       <c r="B2" t="n">
-        <v>4.0</v>
+        <v>0.0</v>
       </c>
       <c r="C2" t="n">
         <v>0.0</v>
@@ -2232,7 +2153,7 @@
         <v>0.0</v>
       </c>
       <c r="K2" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="L2" t="n">
         <v>0.0</v>
@@ -2282,7 +2203,7 @@
         <v>1.0</v>
       </c>
       <c r="B3" t="n">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
       <c r="C3" t="n">
         <v>0.0</v>
@@ -2356,10 +2277,10 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="B4" t="n">
-        <v>9.0</v>
+        <v>0.0</v>
       </c>
       <c r="C4" t="n">
         <v>0.0</v>
@@ -2386,7 +2307,7 @@
         <v>0.0</v>
       </c>
       <c r="K4" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="L4" t="n">
         <v>0.0</v>

--- a/src/Excel/Yañez_Gonzalez_Christian_Emmanuel.xlsx
+++ b/src/Excel/Yañez_Gonzalez_Christian_Emmanuel.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="131">
   <si>
     <t>Estado</t>
   </si>
@@ -31,322 +31,349 @@
     <t>Linea</t>
   </si>
   <si>
-    <t>-64</t>
+    <t>-67</t>
+  </si>
+  <si>
+    <t>FILE</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>-68</t>
+  </si>
+  <si>
+    <t>:</t>
+  </si>
+  <si>
+    <t>-1</t>
+  </si>
+  <si>
+    <t>f</t>
+  </si>
+  <si>
+    <t>-46</t>
+  </si>
+  <si>
+    <t>;</t>
+  </si>
+  <si>
+    <t>-98</t>
+  </si>
+  <si>
+    <t>CHAR</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>-51</t>
+  </si>
+  <si>
+    <t>[</t>
+  </si>
+  <si>
+    <t>-19</t>
+  </si>
+  <si>
+    <t>-52</t>
+  </si>
+  <si>
+    <t>]</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>-61</t>
+  </si>
+  <si>
+    <t>main</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>-49</t>
+  </si>
+  <si>
+    <t>(</t>
+  </si>
+  <si>
+    <t>-50</t>
+  </si>
+  <si>
+    <t>)</t>
+  </si>
+  <si>
+    <t>-53</t>
+  </si>
+  <si>
+    <t>{</t>
+  </si>
+  <si>
+    <t>-96</t>
+  </si>
+  <si>
+    <t>$</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>-48</t>
+  </si>
+  <si>
+    <t>.</t>
+  </si>
+  <si>
+    <t>-47</t>
+  </si>
+  <si>
+    <t>,</t>
+  </si>
+  <si>
+    <t>-20</t>
+  </si>
+  <si>
+    <t>"hola"</t>
+  </si>
+  <si>
+    <t>-54</t>
+  </si>
+  <si>
+    <t>}</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>Token</t>
+  </si>
+  <si>
+    <t>Descripción</t>
+  </si>
+  <si>
+    <t>Tipo</t>
+  </si>
+  <si>
+    <t>Erroes</t>
+  </si>
+  <si>
+    <t>Identificadores</t>
+  </si>
+  <si>
+    <t>Comentarios</t>
+  </si>
+  <si>
+    <t>Palabras reservadas</t>
+  </si>
+  <si>
+    <t>C-Enteras</t>
+  </si>
+  <si>
+    <t>C-Texto</t>
+  </si>
+  <si>
+    <t>C-Decimal</t>
+  </si>
+  <si>
+    <t>C-Carácter</t>
+  </si>
+  <si>
+    <t>C-Exponencial</t>
+  </si>
+  <si>
+    <t>Aritmeticos</t>
+  </si>
+  <si>
+    <t>Monogamo</t>
+  </si>
+  <si>
+    <t>Logico</t>
+  </si>
+  <si>
+    <t>Relacionales</t>
+  </si>
+  <si>
+    <t>Bit</t>
+  </si>
+  <si>
+    <t>Puntuación</t>
+  </si>
+  <si>
+    <t>Agrupación</t>
+  </si>
+  <si>
+    <t>Asignación</t>
+  </si>
+  <si>
+    <t>Sintaxis</t>
+  </si>
+  <si>
+    <t>Funciones</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>Ambito</t>
+  </si>
+  <si>
+    <t>String (CHAR[])</t>
+  </si>
+  <si>
+    <t>INT</t>
+  </si>
+  <si>
+    <t>REAL</t>
+  </si>
+  <si>
+    <t>BOOL</t>
   </si>
   <si>
     <t>EXP</t>
   </si>
   <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>-68</t>
-  </si>
-  <si>
-    <t>:</t>
-  </si>
-  <si>
-    <t>-1</t>
-  </si>
-  <si>
-    <t>e</t>
-  </si>
-  <si>
-    <t>-46</t>
-  </si>
-  <si>
-    <t>;</t>
-  </si>
-  <si>
-    <t>-61</t>
-  </si>
-  <si>
-    <t>main</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>-49</t>
-  </si>
-  <si>
-    <t>(</t>
-  </si>
-  <si>
-    <t>-50</t>
-  </si>
-  <si>
-    <t>)</t>
-  </si>
-  <si>
-    <t>-53</t>
-  </si>
-  <si>
-    <t>{</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>-55</t>
+    <t>REG</t>
+  </si>
+  <si>
+    <t>VOID</t>
+  </si>
+  <si>
+    <t>ERRORES</t>
+  </si>
+  <si>
+    <t>Total de ambito</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Tch</t>
+  </si>
+  <si>
+    <t>TS</t>
+  </si>
+  <si>
+    <t>TE</t>
+  </si>
+  <si>
+    <t>TR</t>
+  </si>
+  <si>
+    <t>TB</t>
+  </si>
+  <si>
+    <t>TX</t>
+  </si>
+  <si>
+    <t>TO</t>
+  </si>
+  <si>
+    <t>TF</t>
+  </si>
+  <si>
+    <t>TV</t>
+  </si>
+  <si>
+    <t>Asignacion</t>
+  </si>
+  <si>
+    <t>Errores</t>
+  </si>
+  <si>
+    <t>Regla</t>
+  </si>
+  <si>
+    <t>Funcion</t>
+  </si>
+  <si>
+    <t>Tope Pila</t>
+  </si>
+  <si>
+    <t>Valor Real</t>
+  </si>
+  <si>
+    <t>Edo</t>
+  </si>
+  <si>
+    <t>Acept</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>$_p1</t>
+  </si>
+  <si>
+    <t>$_p2</t>
+  </si>
+  <si>
+    <t>$_p3</t>
+  </si>
+  <si>
+    <t>Entradas</t>
+  </si>
+  <si>
+    <t>Salidas</t>
+  </si>
+  <si>
+    <t>Aceptados</t>
+  </si>
+  <si>
+    <t>Etiqueta</t>
+  </si>
+  <si>
+    <t>Accion</t>
+  </si>
+  <si>
+    <t>Arg1</t>
+  </si>
+  <si>
+    <t>Arg2</t>
+  </si>
+  <si>
+    <t>Resultado</t>
+  </si>
+  <si>
+    <t>PPAL</t>
+  </si>
+  <si>
+    <t>Call</t>
+  </si>
+  <si>
+    <t>TB1</t>
+  </si>
+  <si>
+    <t>endmain</t>
+  </si>
+  <si>
+    <t>Ambitos</t>
+  </si>
+  <si>
+    <t>TCH</t>
+  </si>
+  <si>
+    <t>TEX</t>
+  </si>
+  <si>
+    <t>TRX</t>
+  </si>
+  <si>
+    <t>Arr</t>
+  </si>
+  <si>
+    <t>call</t>
   </si>
   <si>
     <t>=</t>
-  </si>
-  <si>
-    <t>-73</t>
-  </si>
-  <si>
-    <t>pow</t>
-  </si>
-  <si>
-    <t>-19</t>
-  </si>
-  <si>
-    <t>-47</t>
-  </si>
-  <si>
-    <t>,</t>
-  </si>
-  <si>
-    <t>-54</t>
-  </si>
-  <si>
-    <t>}</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>Token</t>
-  </si>
-  <si>
-    <t>Descripción</t>
-  </si>
-  <si>
-    <t>Tipo</t>
-  </si>
-  <si>
-    <t>Erroes</t>
-  </si>
-  <si>
-    <t>Identificadores</t>
-  </si>
-  <si>
-    <t>Comentarios</t>
-  </si>
-  <si>
-    <t>Palabras reservadas</t>
-  </si>
-  <si>
-    <t>C-Enteras</t>
-  </si>
-  <si>
-    <t>C-Texto</t>
-  </si>
-  <si>
-    <t>C-Decimal</t>
-  </si>
-  <si>
-    <t>C-Carácter</t>
-  </si>
-  <si>
-    <t>C-Exponencial</t>
-  </si>
-  <si>
-    <t>Aritmeticos</t>
-  </si>
-  <si>
-    <t>Monogamo</t>
-  </si>
-  <si>
-    <t>Logico</t>
-  </si>
-  <si>
-    <t>Relacionales</t>
-  </si>
-  <si>
-    <t>Bit</t>
-  </si>
-  <si>
-    <t>Puntuación</t>
-  </si>
-  <si>
-    <t>Agrupación</t>
-  </si>
-  <si>
-    <t>Asignación</t>
-  </si>
-  <si>
-    <t>Sintaxis</t>
-  </si>
-  <si>
-    <t>Funciones</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>Ambito</t>
-  </si>
-  <si>
-    <t>CHAR</t>
-  </si>
-  <si>
-    <t>String (CHAR[])</t>
-  </si>
-  <si>
-    <t>INT</t>
-  </si>
-  <si>
-    <t>REAL</t>
-  </si>
-  <si>
-    <t>BOOL</t>
-  </si>
-  <si>
-    <t>REG</t>
-  </si>
-  <si>
-    <t>VOID</t>
-  </si>
-  <si>
-    <t>FILE</t>
-  </si>
-  <si>
-    <t>ERRORES</t>
-  </si>
-  <si>
-    <t>Total de ambito</t>
-  </si>
-  <si>
-    <t>Total</t>
-  </si>
-  <si>
-    <t>Tch</t>
-  </si>
-  <si>
-    <t>TS</t>
-  </si>
-  <si>
-    <t>TE</t>
-  </si>
-  <si>
-    <t>TR</t>
-  </si>
-  <si>
-    <t>TB</t>
-  </si>
-  <si>
-    <t>TX</t>
-  </si>
-  <si>
-    <t>TO</t>
-  </si>
-  <si>
-    <t>TF</t>
-  </si>
-  <si>
-    <t>TV</t>
-  </si>
-  <si>
-    <t>Asignacion</t>
-  </si>
-  <si>
-    <t>Errores</t>
-  </si>
-  <si>
-    <t xml:space="preserve">e -&gt; </t>
-  </si>
-  <si>
-    <t>Regla</t>
-  </si>
-  <si>
-    <t>Funcion</t>
-  </si>
-  <si>
-    <t>Tope Pila</t>
-  </si>
-  <si>
-    <t>Valor Real</t>
-  </si>
-  <si>
-    <t>Edo</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>id</t>
-  </si>
-  <si>
-    <t>Acept</t>
-  </si>
-  <si>
-    <t>pow_p1</t>
-  </si>
-  <si>
-    <t>pow_p2</t>
-  </si>
-  <si>
-    <t>Entradas</t>
-  </si>
-  <si>
-    <t>Salidas</t>
-  </si>
-  <si>
-    <t>Aceptados</t>
-  </si>
-  <si>
-    <t>Etiqueta</t>
-  </si>
-  <si>
-    <t>Accion</t>
-  </si>
-  <si>
-    <t>Arg1</t>
-  </si>
-  <si>
-    <t>Arg2</t>
-  </si>
-  <si>
-    <t>Resultado</t>
-  </si>
-  <si>
-    <t>PPAL</t>
-  </si>
-  <si>
-    <t>Call</t>
-  </si>
-  <si>
-    <t>TEX1</t>
-  </si>
-  <si>
-    <t>endmain</t>
-  </si>
-  <si>
-    <t>Ambitos</t>
-  </si>
-  <si>
-    <t>TCH</t>
-  </si>
-  <si>
-    <t>TEX</t>
-  </si>
-  <si>
-    <t>TRX</t>
-  </si>
-  <si>
-    <t>Arr</t>
-  </si>
-  <si>
-    <t>call</t>
   </si>
   <si>
     <t>Op-Rel</t>
@@ -430,7 +457,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:C24"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -518,7 +545,7 @@
         <v>17</v>
       </c>
       <c r="B8" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C8" t="s">
         <v>14</v>
@@ -526,10 +553,10 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" t="s">
         <v>19</v>
-      </c>
-      <c r="B9" t="s">
-        <v>20</v>
       </c>
       <c r="C9" t="s">
         <v>14</v>
@@ -537,112 +564,167 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B10" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C10" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C11" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="C12" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="C13" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B14" t="s">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
+        <v>26</v>
+      </c>
+      <c r="B15" t="s">
         <v>27</v>
       </c>
-      <c r="B15" t="s">
-        <v>28</v>
-      </c>
       <c r="C15" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B16" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="C16" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="B17" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="C17" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B18" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C18" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B19" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="C19" t="s">
-        <v>31</v>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>8</v>
+      </c>
+      <c r="B20" t="s">
+        <v>20</v>
+      </c>
+      <c r="C20" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>35</v>
+      </c>
+      <c r="B21" t="s">
+        <v>36</v>
+      </c>
+      <c r="C21" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>37</v>
+      </c>
+      <c r="B22" t="s">
+        <v>38</v>
+      </c>
+      <c r="C22" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>10</v>
+      </c>
+      <c r="B23" t="s">
+        <v>11</v>
+      </c>
+      <c r="C23" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>39</v>
+      </c>
+      <c r="B24" t="s">
+        <v>40</v>
+      </c>
+      <c r="C24" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -660,16 +742,16 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="B1" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="E1" t="s">
         <v>2</v>
@@ -690,120 +772,120 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="B1" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="C1" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="D1" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="E1" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="F1" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G1" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="H1" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="I1" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="J1" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="K1" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="L1" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="M1" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="N1" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="O1" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="P1" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="Q1" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="R1" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="S1" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>32</v>
       </c>
       <c r="C2" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="D2" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="E2" t="s">
         <v>5</v>
       </c>
       <c r="F2" t="s">
-        <v>54</v>
+        <v>5</v>
       </c>
       <c r="G2" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="H2" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="I2" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="J2" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="K2" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="L2" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="M2" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="N2" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="O2" t="s">
-        <v>14</v>
+        <v>41</v>
       </c>
       <c r="P2" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="Q2" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="R2" t="s">
-        <v>14</v>
+        <v>65</v>
       </c>
       <c r="S2" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -821,40 +903,40 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="B1" t="s">
-        <v>58</v>
+        <v>13</v>
       </c>
       <c r="C1" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="D1" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="E1" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="F1" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="G1" t="s">
+        <v>71</v>
+      </c>
+      <c r="H1" t="s">
+        <v>72</v>
+      </c>
+      <c r="I1" t="s">
+        <v>73</v>
+      </c>
+      <c r="J1" t="s">
         <v>4</v>
       </c>
-      <c r="H1" t="s">
-        <v>63</v>
-      </c>
-      <c r="I1" t="s">
-        <v>64</v>
-      </c>
-      <c r="J1" t="s">
-        <v>65</v>
-      </c>
       <c r="K1" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="L1" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
     </row>
     <row r="2">
@@ -865,7 +947,7 @@
         <v>0.0</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="D2" t="n">
         <v>0.0</v>
@@ -877,33 +959,33 @@
         <v>0.0</v>
       </c>
       <c r="G2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J2" t="n">
         <v>1.0</v>
       </c>
-      <c r="H2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0.0</v>
-      </c>
       <c r="K2" t="n">
         <v>0.0</v>
       </c>
       <c r="L2" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="B3" t="n">
         <v>0.0</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="D3" t="n">
         <v>0.0</v>
@@ -915,22 +997,22 @@
         <v>0.0</v>
       </c>
       <c r="G3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J3" t="n">
         <v>1.0</v>
       </c>
-      <c r="H3" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0.0</v>
-      </c>
       <c r="K3" t="n">
         <v>0.0</v>
       </c>
       <c r="L3" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
   </sheetData>
@@ -940,7 +1022,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:M2"/>
+  <dimension ref="A1:M1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -951,81 +1033,40 @@
         <v>2</v>
       </c>
       <c r="B1" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="C1" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="D1" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="E1" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="F1" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="G1" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="H1" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="I1" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="J1" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="K1" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="L1" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="M1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="B2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="L2" t="s">
-        <v>80</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0.0</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -1043,45 +1084,45 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="B1" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="C1" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="D1" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="E1" t="s">
         <v>2</v>
       </c>
       <c r="F1" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="G1" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1130.0</v>
+        <v>2016.0</v>
       </c>
       <c r="B2" t="s">
-        <v>86</v>
+        <v>31</v>
       </c>
       <c r="C2" t="s">
-        <v>87</v>
+        <v>31</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="E2" t="n">
         <v>4.0</v>
       </c>
       <c r="F2" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="G2" t="n">
         <v>0.0</v>
@@ -1089,22 +1130,22 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2010.0</v>
+        <v>1130.0</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>94</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>95</v>
       </c>
       <c r="D3" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="E3" t="n">
         <v>4.0</v>
       </c>
       <c r="F3" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="G3" t="n">
         <v>0.0</v>
@@ -1112,22 +1153,22 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2001.0</v>
+        <v>2008.0</v>
       </c>
       <c r="B4" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="C4" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="D4" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="E4" t="n">
         <v>4.0</v>
       </c>
       <c r="F4" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="G4" t="n">
         <v>0.0</v>
@@ -1135,22 +1176,22 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>2002.0</v>
+        <v>1130.0</v>
       </c>
       <c r="B5" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="C5" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="D5" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="E5" t="n">
         <v>4.0</v>
       </c>
       <c r="F5" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="G5" t="n">
         <v>0.0</v>
@@ -1158,22 +1199,22 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1090.0</v>
+        <v>2009.0</v>
       </c>
       <c r="B6" t="s">
-        <v>86</v>
+        <v>97</v>
       </c>
       <c r="C6" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="D6" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="E6" t="n">
         <v>4.0</v>
       </c>
       <c r="F6" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="G6" t="n">
         <v>0.0</v>
@@ -1181,22 +1222,22 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>1020.0</v>
+        <v>2006.0</v>
       </c>
       <c r="B7" t="s">
-        <v>86</v>
+        <v>98</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>98</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="E7" t="n">
         <v>4.0</v>
       </c>
       <c r="F7" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="G7" t="n">
         <v>0.0</v>
@@ -1209,7 +1250,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1217,24 +1258,24 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="B1" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="C1" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="D1" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="E1" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>89</v>
+        <v>98</v>
       </c>
       <c r="B2" t="n">
         <v>1.0</v>
@@ -1251,7 +1292,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="B3" t="n">
         <v>1.0</v>
@@ -1268,18 +1309,35 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>25</v>
+        <v>97</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="C4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D4" t="n">
         <v>1.0</v>
       </c>
-      <c r="D4" t="n">
-        <v>0.0</v>
-      </c>
       <c r="E4" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E5" t="n">
         <v>0.0</v>
       </c>
     </row>
@@ -1298,104 +1356,104 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="B1" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="C1" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="D1" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="E1" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="B2" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="D2" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="E2" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="B3" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D3" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="E3" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="B4" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="C4" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="E4" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>94</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>38</v>
       </c>
       <c r="D5" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="E5" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="B6" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="C6" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="D6" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="E6" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
     </row>
   </sheetData>
@@ -1413,79 +1471,79 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="B1" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="C1" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="D1" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="E1" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="F1" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="G1" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="H1" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="I1" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="J1" t="s">
+        <v>115</v>
+      </c>
+      <c r="K1" t="s">
+        <v>116</v>
+      </c>
+      <c r="L1" t="s">
+        <v>117</v>
+      </c>
+      <c r="M1" t="s">
+        <v>118</v>
+      </c>
+      <c r="N1" t="s">
+        <v>119</v>
+      </c>
+      <c r="O1" t="s">
+        <v>120</v>
+      </c>
+      <c r="P1" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>122</v>
+      </c>
+      <c r="R1" t="s">
+        <v>123</v>
+      </c>
+      <c r="S1" t="s">
+        <v>124</v>
+      </c>
+      <c r="T1" t="s">
+        <v>125</v>
+      </c>
+      <c r="U1" t="s">
+        <v>126</v>
+      </c>
+      <c r="V1" t="s">
+        <v>127</v>
+      </c>
+      <c r="W1" t="s">
+        <v>128</v>
+      </c>
+      <c r="X1" t="s">
+        <v>129</v>
+      </c>
+      <c r="Y1" t="s">
         <v>107</v>
-      </c>
-      <c r="K1" t="s">
-        <v>108</v>
-      </c>
-      <c r="L1" t="s">
-        <v>23</v>
-      </c>
-      <c r="M1" t="s">
-        <v>109</v>
-      </c>
-      <c r="N1" t="s">
-        <v>110</v>
-      </c>
-      <c r="O1" t="s">
-        <v>111</v>
-      </c>
-      <c r="P1" t="s">
-        <v>112</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>113</v>
-      </c>
-      <c r="R1" t="s">
-        <v>114</v>
-      </c>
-      <c r="S1" t="s">
-        <v>115</v>
-      </c>
-      <c r="T1" t="s">
-        <v>116</v>
-      </c>
-      <c r="U1" t="s">
-        <v>117</v>
-      </c>
-      <c r="V1" t="s">
-        <v>118</v>
-      </c>
-      <c r="W1" t="s">
-        <v>119</v>
-      </c>
-      <c r="X1" t="s">
-        <v>120</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="2">
@@ -1505,10 +1563,10 @@
         <v>0.0</v>
       </c>
       <c r="F2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G2" t="n">
         <v>1.0</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0.0</v>
       </c>
       <c r="H2" t="n">
         <v>0.0</v>
@@ -1523,7 +1581,7 @@
         <v>1.0</v>
       </c>
       <c r="L2" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="M2" t="n">
         <v>0.0</v>
@@ -1567,7 +1625,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="B3" t="n">
         <v>0.0</v>
@@ -1582,10 +1640,10 @@
         <v>0.0</v>
       </c>
       <c r="F3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G3" t="n">
         <v>1.0</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0.0</v>
       </c>
       <c r="H3" t="n">
         <v>0.0</v>
@@ -1600,7 +1658,7 @@
         <v>1.0</v>
       </c>
       <c r="L3" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="M3" t="n">
         <v>0.0</v>

--- a/src/Excel/Yañez_Gonzalez_Christian_Emmanuel.xlsx
+++ b/src/Excel/Yañez_Gonzalez_Christian_Emmanuel.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="117">
   <si>
     <t>Estado</t>
   </si>
@@ -31,219 +31,192 @@
     <t>Linea</t>
   </si>
   <si>
-    <t>-67</t>
+    <t>-97</t>
+  </si>
+  <si>
+    <t>INT</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>-68</t>
+  </si>
+  <si>
+    <t>:</t>
+  </si>
+  <si>
+    <t>-1</t>
+  </si>
+  <si>
+    <t>v</t>
+  </si>
+  <si>
+    <t>-46</t>
+  </si>
+  <si>
+    <t>;</t>
+  </si>
+  <si>
+    <t>-61</t>
+  </si>
+  <si>
+    <t>main</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>-49</t>
+  </si>
+  <si>
+    <t>(</t>
+  </si>
+  <si>
+    <t>-50</t>
+  </si>
+  <si>
+    <t>)</t>
+  </si>
+  <si>
+    <t>-53</t>
+  </si>
+  <si>
+    <t>{</t>
+  </si>
+  <si>
+    <t>-30</t>
+  </si>
+  <si>
+    <t>++</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>-31</t>
+  </si>
+  <si>
+    <t>--</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>-69</t>
+  </si>
+  <si>
+    <t>**</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>-54</t>
+  </si>
+  <si>
+    <t>}</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>Token</t>
+  </si>
+  <si>
+    <t>Descripción</t>
+  </si>
+  <si>
+    <t>Tipo</t>
+  </si>
+  <si>
+    <t>Erroes</t>
+  </si>
+  <si>
+    <t>Identificadores</t>
+  </si>
+  <si>
+    <t>Comentarios</t>
+  </si>
+  <si>
+    <t>Palabras reservadas</t>
+  </si>
+  <si>
+    <t>C-Enteras</t>
+  </si>
+  <si>
+    <t>C-Texto</t>
+  </si>
+  <si>
+    <t>C-Decimal</t>
+  </si>
+  <si>
+    <t>C-Carácter</t>
+  </si>
+  <si>
+    <t>C-Exponencial</t>
+  </si>
+  <si>
+    <t>Aritmeticos</t>
+  </si>
+  <si>
+    <t>Monogamo</t>
+  </si>
+  <si>
+    <t>Logico</t>
+  </si>
+  <si>
+    <t>Relacionales</t>
+  </si>
+  <si>
+    <t>Bit</t>
+  </si>
+  <si>
+    <t>Puntuación</t>
+  </si>
+  <si>
+    <t>Agrupación</t>
+  </si>
+  <si>
+    <t>Asignación</t>
+  </si>
+  <si>
+    <t>Sintaxis</t>
+  </si>
+  <si>
+    <t>Funciones</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>Ambito</t>
+  </si>
+  <si>
+    <t>CHAR</t>
+  </si>
+  <si>
+    <t>String (CHAR[])</t>
+  </si>
+  <si>
+    <t>REAL</t>
+  </si>
+  <si>
+    <t>BOOL</t>
+  </si>
+  <si>
+    <t>EXP</t>
+  </si>
+  <si>
+    <t>REG</t>
+  </si>
+  <si>
+    <t>VOID</t>
   </si>
   <si>
     <t>FILE</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>-68</t>
-  </si>
-  <si>
-    <t>:</t>
-  </si>
-  <si>
-    <t>-1</t>
-  </si>
-  <si>
-    <t>f</t>
-  </si>
-  <si>
-    <t>-46</t>
-  </si>
-  <si>
-    <t>;</t>
-  </si>
-  <si>
-    <t>-98</t>
-  </si>
-  <si>
-    <t>CHAR</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>-51</t>
-  </si>
-  <si>
-    <t>[</t>
-  </si>
-  <si>
-    <t>-19</t>
-  </si>
-  <si>
-    <t>-52</t>
-  </si>
-  <si>
-    <t>]</t>
-  </si>
-  <si>
-    <t>p</t>
-  </si>
-  <si>
-    <t>-61</t>
-  </si>
-  <si>
-    <t>main</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>-49</t>
-  </si>
-  <si>
-    <t>(</t>
-  </si>
-  <si>
-    <t>-50</t>
-  </si>
-  <si>
-    <t>)</t>
-  </si>
-  <si>
-    <t>-53</t>
-  </si>
-  <si>
-    <t>{</t>
-  </si>
-  <si>
-    <t>-96</t>
-  </si>
-  <si>
-    <t>$</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>-48</t>
-  </si>
-  <si>
-    <t>.</t>
-  </si>
-  <si>
-    <t>-47</t>
-  </si>
-  <si>
-    <t>,</t>
-  </si>
-  <si>
-    <t>-20</t>
-  </si>
-  <si>
-    <t>"hola"</t>
-  </si>
-  <si>
-    <t>-54</t>
-  </si>
-  <si>
-    <t>}</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>Token</t>
-  </si>
-  <si>
-    <t>Descripción</t>
-  </si>
-  <si>
-    <t>Tipo</t>
-  </si>
-  <si>
-    <t>Erroes</t>
-  </si>
-  <si>
-    <t>Identificadores</t>
-  </si>
-  <si>
-    <t>Comentarios</t>
-  </si>
-  <si>
-    <t>Palabras reservadas</t>
-  </si>
-  <si>
-    <t>C-Enteras</t>
-  </si>
-  <si>
-    <t>C-Texto</t>
-  </si>
-  <si>
-    <t>C-Decimal</t>
-  </si>
-  <si>
-    <t>C-Carácter</t>
-  </si>
-  <si>
-    <t>C-Exponencial</t>
-  </si>
-  <si>
-    <t>Aritmeticos</t>
-  </si>
-  <si>
-    <t>Monogamo</t>
-  </si>
-  <si>
-    <t>Logico</t>
-  </si>
-  <si>
-    <t>Relacionales</t>
-  </si>
-  <si>
-    <t>Bit</t>
-  </si>
-  <si>
-    <t>Puntuación</t>
-  </si>
-  <si>
-    <t>Agrupación</t>
-  </si>
-  <si>
-    <t>Asignación</t>
-  </si>
-  <si>
-    <t>Sintaxis</t>
-  </si>
-  <si>
-    <t>Funciones</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>Ambito</t>
-  </si>
-  <si>
-    <t>String (CHAR[])</t>
-  </si>
-  <si>
-    <t>INT</t>
-  </si>
-  <si>
-    <t>REAL</t>
-  </si>
-  <si>
-    <t>BOOL</t>
-  </si>
-  <si>
-    <t>EXP</t>
-  </si>
-  <si>
-    <t>REG</t>
-  </si>
-  <si>
-    <t>VOID</t>
-  </si>
-  <si>
     <t>ERRORES</t>
   </si>
   <si>
@@ -301,24 +274,15 @@
     <t>Edo</t>
   </si>
   <si>
+    <t/>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
     <t>Acept</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
-    <t>id</t>
-  </si>
-  <si>
-    <t>$_p1</t>
-  </si>
-  <si>
-    <t>$_p2</t>
-  </si>
-  <si>
-    <t>$_p3</t>
-  </si>
-  <si>
     <t>Entradas</t>
   </si>
   <si>
@@ -344,12 +308,6 @@
   </si>
   <si>
     <t>PPAL</t>
-  </si>
-  <si>
-    <t>Call</t>
-  </si>
-  <si>
-    <t>TB1</t>
   </si>
   <si>
     <t>endmain</t>
@@ -457,7 +415,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C24"/>
+  <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -545,7 +503,7 @@
         <v>17</v>
       </c>
       <c r="B8" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C8" t="s">
         <v>14</v>
@@ -553,10 +511,10 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B9" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C9" t="s">
         <v>14</v>
@@ -564,13 +522,13 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="C10" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11">
@@ -578,10 +536,10 @@
         <v>8</v>
       </c>
       <c r="B11" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="C11" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12">
@@ -592,139 +550,84 @@
         <v>11</v>
       </c>
       <c r="C12" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B13" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="C14" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
+        <v>10</v>
+      </c>
+      <c r="B15" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15" t="s">
         <v>26</v>
-      </c>
-      <c r="B15" t="s">
-        <v>27</v>
-      </c>
-      <c r="C15" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
+        <v>27</v>
+      </c>
+      <c r="B16" t="s">
         <v>28</v>
       </c>
-      <c r="B16" t="s">
+      <c r="C16" t="s">
         <v>29</v>
-      </c>
-      <c r="C16" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="B17" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="C17" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B18" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C18" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B19" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C19" t="s">
         <v>32</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="s">
-        <v>8</v>
-      </c>
-      <c r="B20" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="s">
-        <v>35</v>
-      </c>
-      <c r="B21" t="s">
-        <v>36</v>
-      </c>
-      <c r="C21" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="s">
-        <v>37</v>
-      </c>
-      <c r="B22" t="s">
-        <v>38</v>
-      </c>
-      <c r="C22" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="s">
-        <v>10</v>
-      </c>
-      <c r="B23" t="s">
-        <v>11</v>
-      </c>
-      <c r="C23" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="s">
-        <v>39</v>
-      </c>
-      <c r="B24" t="s">
-        <v>40</v>
-      </c>
-      <c r="C24" t="s">
-        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -742,16 +645,16 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="B1" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="E1" t="s">
         <v>2</v>
@@ -772,120 +675,120 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H1" t="s">
+        <v>43</v>
+      </c>
+      <c r="I1" t="s">
+        <v>44</v>
+      </c>
+      <c r="J1" t="s">
         <v>45</v>
       </c>
-      <c r="B1" t="s">
+      <c r="K1" t="s">
         <v>46</v>
       </c>
-      <c r="C1" t="s">
+      <c r="L1" t="s">
         <v>47</v>
       </c>
-      <c r="D1" t="s">
+      <c r="M1" t="s">
         <v>48</v>
       </c>
-      <c r="E1" t="s">
+      <c r="N1" t="s">
         <v>49</v>
       </c>
-      <c r="F1" t="s">
+      <c r="O1" t="s">
         <v>50</v>
       </c>
-      <c r="G1" t="s">
+      <c r="P1" t="s">
         <v>51</v>
       </c>
-      <c r="H1" t="s">
+      <c r="Q1" t="s">
         <v>52</v>
       </c>
-      <c r="I1" t="s">
+      <c r="R1" t="s">
         <v>53</v>
       </c>
-      <c r="J1" t="s">
+      <c r="S1" t="s">
         <v>54</v>
-      </c>
-      <c r="K1" t="s">
-        <v>55</v>
-      </c>
-      <c r="L1" t="s">
-        <v>56</v>
-      </c>
-      <c r="M1" t="s">
-        <v>57</v>
-      </c>
-      <c r="N1" t="s">
-        <v>58</v>
-      </c>
-      <c r="O1" t="s">
-        <v>59</v>
-      </c>
-      <c r="P1" t="s">
-        <v>60</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>61</v>
-      </c>
-      <c r="R1" t="s">
-        <v>62</v>
-      </c>
-      <c r="S1" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="B2" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="D2" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="E2" t="s">
-        <v>5</v>
+        <v>55</v>
       </c>
       <c r="F2" t="s">
-        <v>5</v>
+        <v>55</v>
       </c>
       <c r="G2" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="H2" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="I2" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="J2" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="K2" t="s">
-        <v>64</v>
+        <v>14</v>
       </c>
       <c r="L2" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="M2" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="N2" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="O2" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="P2" t="s">
-        <v>65</v>
+        <v>26</v>
       </c>
       <c r="Q2" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="R2" t="s">
-        <v>65</v>
+        <v>26</v>
       </c>
       <c r="S2" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -903,40 +806,40 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F1" t="s">
+        <v>60</v>
+      </c>
+      <c r="G1" t="s">
+        <v>61</v>
+      </c>
+      <c r="H1" t="s">
+        <v>62</v>
+      </c>
+      <c r="I1" t="s">
+        <v>63</v>
+      </c>
+      <c r="J1" t="s">
+        <v>64</v>
+      </c>
+      <c r="K1" t="s">
+        <v>65</v>
+      </c>
+      <c r="L1" t="s">
         <v>66</v>
-      </c>
-      <c r="B1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C1" t="s">
-        <v>67</v>
-      </c>
-      <c r="D1" t="s">
-        <v>68</v>
-      </c>
-      <c r="E1" t="s">
-        <v>69</v>
-      </c>
-      <c r="F1" t="s">
-        <v>70</v>
-      </c>
-      <c r="G1" t="s">
-        <v>71</v>
-      </c>
-      <c r="H1" t="s">
-        <v>72</v>
-      </c>
-      <c r="I1" t="s">
-        <v>73</v>
-      </c>
-      <c r="J1" t="s">
-        <v>4</v>
-      </c>
-      <c r="K1" t="s">
-        <v>74</v>
-      </c>
-      <c r="L1" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="2">
@@ -947,11 +850,11 @@
         <v>0.0</v>
       </c>
       <c r="C2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D2" t="n">
         <v>1.0</v>
       </c>
-      <c r="D2" t="n">
-        <v>0.0</v>
-      </c>
       <c r="E2" t="n">
         <v>0.0</v>
       </c>
@@ -968,28 +871,28 @@
         <v>0.0</v>
       </c>
       <c r="J2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L2" t="n">
         <v>1.0</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>2.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="B3" t="n">
         <v>0.0</v>
       </c>
       <c r="C3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D3" t="n">
         <v>1.0</v>
       </c>
-      <c r="D3" t="n">
-        <v>0.0</v>
-      </c>
       <c r="E3" t="n">
         <v>0.0</v>
       </c>
@@ -1006,13 +909,13 @@
         <v>0.0</v>
       </c>
       <c r="J3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L3" t="n">
         <v>1.0</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="L3" t="n">
-        <v>2.0</v>
       </c>
     </row>
   </sheetData>
@@ -1033,40 +936,40 @@
         <v>2</v>
       </c>
       <c r="B1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G1" t="s">
+        <v>73</v>
+      </c>
+      <c r="H1" t="s">
+        <v>71</v>
+      </c>
+      <c r="I1" t="s">
+        <v>74</v>
+      </c>
+      <c r="J1" t="s">
+        <v>75</v>
+      </c>
+      <c r="K1" t="s">
+        <v>76</v>
+      </c>
+      <c r="L1" t="s">
         <v>77</v>
       </c>
-      <c r="C1" t="s">
+      <c r="M1" t="s">
         <v>78</v>
-      </c>
-      <c r="D1" t="s">
-        <v>79</v>
-      </c>
-      <c r="E1" t="s">
-        <v>80</v>
-      </c>
-      <c r="F1" t="s">
-        <v>81</v>
-      </c>
-      <c r="G1" t="s">
-        <v>82</v>
-      </c>
-      <c r="H1" t="s">
-        <v>80</v>
-      </c>
-      <c r="I1" t="s">
-        <v>83</v>
-      </c>
-      <c r="J1" t="s">
-        <v>84</v>
-      </c>
-      <c r="K1" t="s">
-        <v>85</v>
-      </c>
-      <c r="L1" t="s">
-        <v>86</v>
-      </c>
-      <c r="M1" t="s">
-        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -1084,45 +987,45 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="B1" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="C1" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="D1" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="E1" t="s">
         <v>2</v>
       </c>
       <c r="F1" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="G1" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2016.0</v>
+        <v>1130.0</v>
       </c>
       <c r="B2" t="s">
-        <v>31</v>
+        <v>84</v>
       </c>
       <c r="C2" t="s">
-        <v>31</v>
+        <v>85</v>
       </c>
       <c r="D2" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="E2" t="n">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c r="F2" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="G2" t="n">
         <v>0.0</v>
@@ -1130,22 +1033,22 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1130.0</v>
+        <v>1180.0</v>
       </c>
       <c r="B3" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="C3" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="D3" t="s">
         <v>9</v>
       </c>
       <c r="E3" t="n">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c r="F3" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="G3" t="n">
         <v>0.0</v>
@@ -1153,13 +1056,13 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2008.0</v>
+        <v>1130.0</v>
       </c>
       <c r="B4" t="s">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="C4" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="D4" t="s">
         <v>9</v>
@@ -1168,7 +1071,7 @@
         <v>4.0</v>
       </c>
       <c r="F4" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="G4" t="n">
         <v>0.0</v>
@@ -1176,22 +1079,22 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1130.0</v>
+        <v>1180.0</v>
       </c>
       <c r="B5" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="C5" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="E5" t="n">
         <v>4.0</v>
       </c>
       <c r="F5" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="G5" t="n">
         <v>0.0</v>
@@ -1199,22 +1102,22 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>2009.0</v>
+        <v>1130.0</v>
       </c>
       <c r="B6" t="s">
-        <v>97</v>
+        <v>84</v>
       </c>
       <c r="C6" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="E6" t="n">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="F6" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="G6" t="n">
         <v>0.0</v>
@@ -1222,22 +1125,22 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>2006.0</v>
+        <v>1180.0</v>
       </c>
       <c r="B7" t="s">
-        <v>98</v>
+        <v>84</v>
       </c>
       <c r="C7" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="D7" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="E7" t="n">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="F7" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="G7" t="n">
         <v>0.0</v>
@@ -1250,7 +1153,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1258,87 +1161,19 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D1" t="s">
         <v>89</v>
       </c>
-      <c r="B1" t="s">
-        <v>99</v>
-      </c>
-      <c r="C1" t="s">
-        <v>100</v>
-      </c>
-      <c r="D1" t="s">
-        <v>101</v>
-      </c>
       <c r="E1" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s">
-        <v>98</v>
-      </c>
-      <c r="B2" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s">
-        <v>96</v>
-      </c>
-      <c r="B3" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s">
-        <v>97</v>
-      </c>
-      <c r="B4" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s">
-        <v>31</v>
-      </c>
-      <c r="B5" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="C5" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0.0</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -1356,104 +1191,104 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="B1" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="C1" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="D1" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="E1" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="C2" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="D2" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="E2" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="B3" t="s">
-        <v>108</v>
+        <v>22</v>
       </c>
       <c r="C3" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="E3" t="s">
-        <v>94</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="B4" t="s">
-        <v>94</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
         <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>84</v>
       </c>
       <c r="E4" t="s">
-        <v>94</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="B5" t="s">
-        <v>94</v>
+        <v>28</v>
       </c>
       <c r="C5" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="E5" t="s">
-        <v>109</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="B6" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="C6" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="D6" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="E6" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -1471,79 +1306,79 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D1" t="s">
+        <v>69</v>
+      </c>
+      <c r="E1" t="s">
+        <v>98</v>
+      </c>
+      <c r="F1" t="s">
+        <v>99</v>
+      </c>
+      <c r="G1" t="s">
+        <v>72</v>
+      </c>
+      <c r="H1" t="s">
+        <v>100</v>
+      </c>
+      <c r="I1" t="s">
+        <v>75</v>
+      </c>
+      <c r="J1" t="s">
+        <v>101</v>
+      </c>
+      <c r="K1" t="s">
+        <v>102</v>
+      </c>
+      <c r="L1" t="s">
+        <v>103</v>
+      </c>
+      <c r="M1" t="s">
+        <v>104</v>
+      </c>
+      <c r="N1" t="s">
+        <v>105</v>
+      </c>
+      <c r="O1" t="s">
+        <v>106</v>
+      </c>
+      <c r="P1" t="s">
+        <v>107</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>108</v>
+      </c>
+      <c r="R1" t="s">
+        <v>109</v>
+      </c>
+      <c r="S1" t="s">
+        <v>110</v>
+      </c>
+      <c r="T1" t="s">
         <v>111</v>
       </c>
-      <c r="B1" t="s">
-        <v>79</v>
-      </c>
-      <c r="C1" t="s">
-        <v>80</v>
-      </c>
-      <c r="D1" t="s">
-        <v>78</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="U1" t="s">
         <v>112</v>
       </c>
-      <c r="F1" t="s">
+      <c r="V1" t="s">
         <v>113</v>
       </c>
-      <c r="G1" t="s">
-        <v>81</v>
-      </c>
-      <c r="H1" t="s">
+      <c r="W1" t="s">
         <v>114</v>
       </c>
-      <c r="I1" t="s">
-        <v>84</v>
-      </c>
-      <c r="J1" t="s">
+      <c r="X1" t="s">
         <v>115</v>
       </c>
-      <c r="K1" t="s">
-        <v>116</v>
-      </c>
-      <c r="L1" t="s">
-        <v>117</v>
-      </c>
-      <c r="M1" t="s">
-        <v>118</v>
-      </c>
-      <c r="N1" t="s">
-        <v>119</v>
-      </c>
-      <c r="O1" t="s">
-        <v>120</v>
-      </c>
-      <c r="P1" t="s">
-        <v>121</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>122</v>
-      </c>
-      <c r="R1" t="s">
-        <v>123</v>
-      </c>
-      <c r="S1" t="s">
-        <v>124</v>
-      </c>
-      <c r="T1" t="s">
-        <v>125</v>
-      </c>
-      <c r="U1" t="s">
-        <v>126</v>
-      </c>
-      <c r="V1" t="s">
-        <v>127</v>
-      </c>
-      <c r="W1" t="s">
-        <v>128</v>
-      </c>
-      <c r="X1" t="s">
-        <v>129</v>
-      </c>
       <c r="Y1" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
     </row>
     <row r="2">
@@ -1566,7 +1401,7 @@
         <v>0.0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="H2" t="n">
         <v>0.0</v>
@@ -1578,7 +1413,7 @@
         <v>0.0</v>
       </c>
       <c r="K2" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="L2" t="n">
         <v>0.0</v>
@@ -1593,7 +1428,7 @@
         <v>0.0</v>
       </c>
       <c r="P2" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="Q2" t="n">
         <v>0.0</v>
@@ -1625,7 +1460,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>130</v>
+        <v>116</v>
       </c>
       <c r="B3" t="n">
         <v>0.0</v>
@@ -1643,7 +1478,7 @@
         <v>0.0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="H3" t="n">
         <v>0.0</v>
@@ -1655,7 +1490,7 @@
         <v>0.0</v>
       </c>
       <c r="K3" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="L3" t="n">
         <v>0.0</v>
@@ -1670,7 +1505,7 @@
         <v>0.0</v>
       </c>
       <c r="P3" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="Q3" t="n">
         <v>0.0</v>

--- a/src/Excel/Yañez_Gonzalez_Christian_Emmanuel.xlsx
+++ b/src/Excel/Yañez_Gonzalez_Christian_Emmanuel.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="132">
   <si>
     <t>Estado</t>
   </si>
@@ -31,183 +31,204 @@
     <t>Linea</t>
   </si>
   <si>
-    <t>-97</t>
+    <t>-64</t>
+  </si>
+  <si>
+    <t>EXP</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>-51</t>
+  </si>
+  <si>
+    <t>[</t>
+  </si>
+  <si>
+    <t>-19</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>-52</t>
+  </si>
+  <si>
+    <t>]</t>
+  </si>
+  <si>
+    <t>-68</t>
+  </si>
+  <si>
+    <t>:</t>
+  </si>
+  <si>
+    <t>-1</t>
+  </si>
+  <si>
+    <t>arr</t>
+  </si>
+  <si>
+    <t>-46</t>
+  </si>
+  <si>
+    <t>;</t>
+  </si>
+  <si>
+    <t>-61</t>
+  </si>
+  <si>
+    <t>main</t>
+  </si>
+  <si>
+    <t>-49</t>
+  </si>
+  <si>
+    <t>(</t>
+  </si>
+  <si>
+    <t>-50</t>
+  </si>
+  <si>
+    <t>)</t>
+  </si>
+  <si>
+    <t>-53</t>
+  </si>
+  <si>
+    <t>{</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>-55</t>
+  </si>
+  <si>
+    <t>=</t>
+  </si>
+  <si>
+    <t>-24</t>
+  </si>
+  <si>
+    <t>+</t>
+  </si>
+  <si>
+    <t>-73</t>
+  </si>
+  <si>
+    <t>pow</t>
+  </si>
+  <si>
+    <t>-47</t>
+  </si>
+  <si>
+    <t>,</t>
+  </si>
+  <si>
+    <t>-54</t>
+  </si>
+  <si>
+    <t>}</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>Token</t>
+  </si>
+  <si>
+    <t>Descripción</t>
+  </si>
+  <si>
+    <t>Tipo</t>
+  </si>
+  <si>
+    <t>Erroes</t>
+  </si>
+  <si>
+    <t>Identificadores</t>
+  </si>
+  <si>
+    <t>Comentarios</t>
+  </si>
+  <si>
+    <t>Palabras reservadas</t>
+  </si>
+  <si>
+    <t>C-Enteras</t>
+  </si>
+  <si>
+    <t>C-Texto</t>
+  </si>
+  <si>
+    <t>C-Decimal</t>
+  </si>
+  <si>
+    <t>C-Carácter</t>
+  </si>
+  <si>
+    <t>C-Exponencial</t>
+  </si>
+  <si>
+    <t>Aritmeticos</t>
+  </si>
+  <si>
+    <t>Monogamo</t>
+  </si>
+  <si>
+    <t>Logico</t>
+  </si>
+  <si>
+    <t>Relacionales</t>
+  </si>
+  <si>
+    <t>Bit</t>
+  </si>
+  <si>
+    <t>Puntuación</t>
+  </si>
+  <si>
+    <t>Agrupación</t>
+  </si>
+  <si>
+    <t>Asignación</t>
+  </si>
+  <si>
+    <t>Sintaxis</t>
+  </si>
+  <si>
+    <t>Funciones</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>Ambito</t>
+  </si>
+  <si>
+    <t>CHAR</t>
+  </si>
+  <si>
+    <t>String (CHAR[])</t>
   </si>
   <si>
     <t>INT</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>-68</t>
-  </si>
-  <si>
-    <t>:</t>
-  </si>
-  <si>
-    <t>-1</t>
-  </si>
-  <si>
-    <t>v</t>
-  </si>
-  <si>
-    <t>-46</t>
-  </si>
-  <si>
-    <t>;</t>
-  </si>
-  <si>
-    <t>-61</t>
-  </si>
-  <si>
-    <t>main</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>-49</t>
-  </si>
-  <si>
-    <t>(</t>
-  </si>
-  <si>
-    <t>-50</t>
-  </si>
-  <si>
-    <t>)</t>
-  </si>
-  <si>
-    <t>-53</t>
-  </si>
-  <si>
-    <t>{</t>
-  </si>
-  <si>
-    <t>-30</t>
-  </si>
-  <si>
-    <t>++</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>-31</t>
-  </si>
-  <si>
-    <t>--</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>-69</t>
-  </si>
-  <si>
-    <t>**</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>-54</t>
-  </si>
-  <si>
-    <t>}</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>Token</t>
-  </si>
-  <si>
-    <t>Descripción</t>
-  </si>
-  <si>
-    <t>Tipo</t>
-  </si>
-  <si>
-    <t>Erroes</t>
-  </si>
-  <si>
-    <t>Identificadores</t>
-  </si>
-  <si>
-    <t>Comentarios</t>
-  </si>
-  <si>
-    <t>Palabras reservadas</t>
-  </si>
-  <si>
-    <t>C-Enteras</t>
-  </si>
-  <si>
-    <t>C-Texto</t>
-  </si>
-  <si>
-    <t>C-Decimal</t>
-  </si>
-  <si>
-    <t>C-Carácter</t>
-  </si>
-  <si>
-    <t>C-Exponencial</t>
-  </si>
-  <si>
-    <t>Aritmeticos</t>
-  </si>
-  <si>
-    <t>Monogamo</t>
-  </si>
-  <si>
-    <t>Logico</t>
-  </si>
-  <si>
-    <t>Relacionales</t>
-  </si>
-  <si>
-    <t>Bit</t>
-  </si>
-  <si>
-    <t>Puntuación</t>
-  </si>
-  <si>
-    <t>Agrupación</t>
-  </si>
-  <si>
-    <t>Asignación</t>
-  </si>
-  <si>
-    <t>Sintaxis</t>
-  </si>
-  <si>
-    <t>Funciones</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>Ambito</t>
-  </si>
-  <si>
-    <t>CHAR</t>
-  </si>
-  <si>
-    <t>String (CHAR[])</t>
-  </si>
-  <si>
     <t>REAL</t>
   </si>
   <si>
     <t>BOOL</t>
   </si>
   <si>
-    <t>EXP</t>
-  </si>
-  <si>
     <t>REG</t>
   </si>
   <si>
@@ -259,6 +280,9 @@
     <t>Errores</t>
   </si>
   <si>
+    <t>TAr1 -&gt;  TE1 TX1</t>
+  </si>
+  <si>
     <t>Regla</t>
   </si>
   <si>
@@ -283,6 +307,18 @@
     <t>Acept</t>
   </si>
   <si>
+    <t>const_entero</t>
+  </si>
+  <si>
+    <t>pow_p1</t>
+  </si>
+  <si>
+    <t>pow_p2</t>
+  </si>
+  <si>
+    <t>TAr1</t>
+  </si>
+  <si>
     <t>Entradas</t>
   </si>
   <si>
@@ -310,6 +346,21 @@
     <t>PPAL</t>
   </si>
   <si>
+    <t>Arr</t>
+  </si>
+  <si>
+    <t>Call</t>
+  </si>
+  <si>
+    <t>TEX1</t>
+  </si>
+  <si>
+    <t>TE1</t>
+  </si>
+  <si>
+    <t>TEX2</t>
+  </si>
+  <si>
     <t>endmain</t>
   </si>
   <si>
@@ -325,13 +376,7 @@
     <t>TRX</t>
   </si>
   <si>
-    <t>Arr</t>
-  </si>
-  <si>
     <t>call</t>
-  </si>
-  <si>
-    <t>=</t>
   </si>
   <si>
     <t>Op-Rel</t>
@@ -415,7 +460,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:C29"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -484,81 +529,81 @@
         <v>13</v>
       </c>
       <c r="C6" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" t="s">
         <v>15</v>
       </c>
-      <c r="B7" t="s">
-        <v>16</v>
-      </c>
       <c r="C7" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" t="s">
         <v>17</v>
       </c>
-      <c r="B8" t="s">
-        <v>18</v>
-      </c>
       <c r="C8" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" t="s">
         <v>19</v>
       </c>
-      <c r="B9" t="s">
-        <v>20</v>
-      </c>
       <c r="C9" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" t="s">
         <v>21</v>
       </c>
-      <c r="B10" t="s">
-        <v>22</v>
-      </c>
       <c r="C10" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
         <v>9</v>
-      </c>
-      <c r="C11" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="B12" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="C13" t="s">
         <v>26</v>
@@ -566,10 +611,10 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B14" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C14" t="s">
         <v>26</v>
@@ -577,10 +622,10 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B15" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="C15" t="s">
         <v>26</v>
@@ -588,35 +633,35 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="B16" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="C16" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="B17" t="s">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="C17" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B18" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C18" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="19">
@@ -627,7 +672,117 @@
         <v>31</v>
       </c>
       <c r="C19" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>8</v>
+      </c>
+      <c r="B20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>30</v>
+      </c>
+      <c r="B21" t="s">
+        <v>31</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
         <v>32</v>
+      </c>
+      <c r="B22" t="s">
+        <v>33</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>20</v>
+      </c>
+      <c r="B23" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>8</v>
+      </c>
+      <c r="B24" t="s">
+        <v>9</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>34</v>
+      </c>
+      <c r="B25" t="s">
+        <v>35</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>8</v>
+      </c>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>22</v>
+      </c>
+      <c r="B27" t="s">
+        <v>23</v>
+      </c>
+      <c r="C27" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>16</v>
+      </c>
+      <c r="B28" t="s">
+        <v>17</v>
+      </c>
+      <c r="C28" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>36</v>
+      </c>
+      <c r="B29" t="s">
+        <v>37</v>
+      </c>
+      <c r="C29" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -645,16 +800,16 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="B1" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="E1" t="s">
         <v>2</v>
@@ -675,120 +830,120 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="B1" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="C1" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="D1" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="E1" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="F1" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="G1" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="H1" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="I1" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="J1" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="K1" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="L1" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="M1" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="N1" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="O1" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="P1" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="Q1" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="R1" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="S1" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>55</v>
+        <v>27</v>
       </c>
       <c r="B2" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>55</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
-        <v>55</v>
+        <v>27</v>
       </c>
       <c r="E2" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="F2" t="s">
-        <v>55</v>
+        <v>27</v>
       </c>
       <c r="G2" t="s">
-        <v>55</v>
+        <v>27</v>
       </c>
       <c r="H2" t="s">
-        <v>55</v>
+        <v>27</v>
       </c>
       <c r="I2" t="s">
-        <v>55</v>
+        <v>27</v>
       </c>
       <c r="J2" t="s">
-        <v>55</v>
+        <v>9</v>
       </c>
       <c r="K2" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="L2" t="s">
-        <v>55</v>
+        <v>27</v>
       </c>
       <c r="M2" t="s">
-        <v>55</v>
+        <v>27</v>
       </c>
       <c r="N2" t="s">
-        <v>55</v>
+        <v>27</v>
       </c>
       <c r="O2" t="s">
         <v>26</v>
       </c>
       <c r="P2" t="s">
-        <v>26</v>
+        <v>62</v>
       </c>
       <c r="Q2" t="s">
-        <v>55</v>
+        <v>5</v>
       </c>
       <c r="R2" t="s">
         <v>26</v>
       </c>
       <c r="S2" t="s">
-        <v>55</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -806,40 +961,40 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="B1" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="C1" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="D1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F1" t="s">
+        <v>68</v>
+      </c>
+      <c r="G1" t="s">
         <v>4</v>
       </c>
-      <c r="E1" t="s">
-        <v>59</v>
-      </c>
-      <c r="F1" t="s">
-        <v>60</v>
-      </c>
-      <c r="G1" t="s">
-        <v>61</v>
-      </c>
       <c r="H1" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="I1" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="J1" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="K1" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="L1" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
     </row>
     <row r="2">
@@ -853,7 +1008,7 @@
         <v>0.0</v>
       </c>
       <c r="D2" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="E2" t="n">
         <v>0.0</v>
@@ -862,7 +1017,7 @@
         <v>0.0</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="H2" t="n">
         <v>0.0</v>
@@ -882,7 +1037,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="B3" t="n">
         <v>0.0</v>
@@ -891,7 +1046,7 @@
         <v>0.0</v>
       </c>
       <c r="D3" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="E3" t="n">
         <v>0.0</v>
@@ -900,7 +1055,7 @@
         <v>0.0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="H3" t="n">
         <v>0.0</v>
@@ -925,7 +1080,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:M1"/>
+  <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -936,40 +1091,81 @@
         <v>2</v>
       </c>
       <c r="B1" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="C1" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="D1" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="E1" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="F1" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="G1" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="H1" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="I1" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="J1" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="K1" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="L1" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="M1" t="s">
-        <v>78</v>
+        <v>85</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L2" t="s">
+        <v>86</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0.0</v>
       </c>
     </row>
   </sheetData>
@@ -979,7 +1175,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -987,25 +1183,25 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="B1" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="C1" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="D1" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="E1" t="s">
         <v>2</v>
       </c>
       <c r="F1" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="G1" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
     </row>
     <row r="2">
@@ -1013,19 +1209,19 @@
         <v>1130.0</v>
       </c>
       <c r="B2" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="C2" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="E2" t="n">
         <v>3.0</v>
       </c>
       <c r="F2" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="G2" t="n">
         <v>0.0</v>
@@ -1033,22 +1229,22 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1180.0</v>
+        <v>1030.0</v>
       </c>
       <c r="B3" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="C3" t="s">
-        <v>85</v>
+        <v>7</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E3" t="n">
         <v>3.0</v>
       </c>
       <c r="F3" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="G3" t="n">
         <v>0.0</v>
@@ -1056,22 +1252,22 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1130.0</v>
+        <v>1040.0</v>
       </c>
       <c r="B4" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="C4" t="s">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="D4" t="s">
-        <v>9</v>
+        <v>95</v>
       </c>
       <c r="E4" t="n">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c r="F4" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="G4" t="n">
         <v>0.0</v>
@@ -1079,22 +1275,22 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1180.0</v>
+        <v>1050.0</v>
       </c>
       <c r="B5" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="C5" t="s">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="D5" t="s">
-        <v>9</v>
+        <v>95</v>
       </c>
       <c r="E5" t="n">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c r="F5" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="G5" t="n">
         <v>0.0</v>
@@ -1102,22 +1298,22 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1130.0</v>
+        <v>2010.0</v>
       </c>
       <c r="B6" t="s">
-        <v>84</v>
+        <v>33</v>
       </c>
       <c r="C6" t="s">
-        <v>85</v>
+        <v>33</v>
       </c>
       <c r="D6" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="E6" t="n">
-        <v>5.0</v>
+        <v>3.0</v>
       </c>
       <c r="F6" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="G6" t="n">
         <v>0.0</v>
@@ -1125,24 +1321,70 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>1180.0</v>
+        <v>2001.0</v>
       </c>
       <c r="B7" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="C7" t="s">
-        <v>85</v>
+        <v>96</v>
       </c>
       <c r="D7" t="s">
         <v>9</v>
       </c>
       <c r="E7" t="n">
-        <v>5.0</v>
+        <v>3.0</v>
       </c>
       <c r="F7" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="G7" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>2002.0</v>
+      </c>
+      <c r="B8" t="s">
+        <v>97</v>
+      </c>
+      <c r="C8" t="s">
+        <v>97</v>
+      </c>
+      <c r="D8" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="F8" t="s">
+        <v>94</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>1090.0</v>
+      </c>
+      <c r="B9" t="s">
+        <v>92</v>
+      </c>
+      <c r="C9" t="s">
+        <v>93</v>
+      </c>
+      <c r="D9" t="s">
+        <v>98</v>
+      </c>
+      <c r="E9" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="F9" t="s">
+        <v>94</v>
+      </c>
+      <c r="G9" t="n">
         <v>0.0</v>
       </c>
     </row>
@@ -1153,7 +1395,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1161,19 +1403,70 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="B1" t="s">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="C1" t="s">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="D1" t="s">
-        <v>89</v>
+        <v>101</v>
       </c>
       <c r="E1" t="s">
-        <v>78</v>
+        <v>85</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>97</v>
+      </c>
+      <c r="B3" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.0</v>
       </c>
     </row>
   </sheetData>
@@ -1183,7 +1476,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1191,104 +1484,172 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>90</v>
+        <v>102</v>
       </c>
       <c r="B1" t="s">
-        <v>91</v>
+        <v>103</v>
       </c>
       <c r="C1" t="s">
-        <v>92</v>
+        <v>104</v>
       </c>
       <c r="D1" t="s">
-        <v>93</v>
+        <v>105</v>
       </c>
       <c r="E1" t="s">
-        <v>94</v>
+        <v>106</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="B2" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="C2" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="D2" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="E2" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>108</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D3" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="E3" t="s">
-        <v>9</v>
+        <v>92</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>92</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="E4" t="s">
-        <v>9</v>
+        <v>98</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="B5" t="s">
-        <v>28</v>
+        <v>109</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D5" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="E5" t="s">
-        <v>9</v>
+        <v>92</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="B6" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="C6" t="s">
-        <v>84</v>
+        <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>84</v>
+        <v>26</v>
       </c>
       <c r="E6" t="s">
-        <v>84</v>
+        <v>110</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>92</v>
+      </c>
+      <c r="B7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>92</v>
+      </c>
+      <c r="B8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" t="s">
+        <v>111</v>
+      </c>
+      <c r="D8" t="s">
+        <v>110</v>
+      </c>
+      <c r="E8" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>92</v>
+      </c>
+      <c r="B9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" t="s">
+        <v>98</v>
+      </c>
+      <c r="D9" t="s">
+        <v>92</v>
+      </c>
+      <c r="E9" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>113</v>
+      </c>
+      <c r="B10" t="s">
+        <v>92</v>
+      </c>
+      <c r="C10" t="s">
+        <v>92</v>
+      </c>
+      <c r="D10" t="s">
+        <v>92</v>
+      </c>
+      <c r="E10" t="s">
+        <v>92</v>
       </c>
     </row>
   </sheetData>
@@ -1306,79 +1667,79 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>97</v>
+        <v>114</v>
       </c>
       <c r="B1" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="C1" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="D1" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="E1" t="s">
-        <v>98</v>
+        <v>115</v>
       </c>
       <c r="F1" t="s">
-        <v>99</v>
+        <v>116</v>
       </c>
       <c r="G1" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="H1" t="s">
-        <v>100</v>
+        <v>117</v>
       </c>
       <c r="I1" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="J1" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="K1" t="s">
-        <v>102</v>
+        <v>118</v>
       </c>
       <c r="L1" t="s">
-        <v>103</v>
+        <v>29</v>
       </c>
       <c r="M1" t="s">
-        <v>104</v>
+        <v>119</v>
       </c>
       <c r="N1" t="s">
-        <v>105</v>
+        <v>120</v>
       </c>
       <c r="O1" t="s">
-        <v>106</v>
+        <v>121</v>
       </c>
       <c r="P1" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>123</v>
+      </c>
+      <c r="R1" t="s">
+        <v>124</v>
+      </c>
+      <c r="S1" t="s">
+        <v>125</v>
+      </c>
+      <c r="T1" t="s">
+        <v>126</v>
+      </c>
+      <c r="U1" t="s">
+        <v>127</v>
+      </c>
+      <c r="V1" t="s">
+        <v>128</v>
+      </c>
+      <c r="W1" t="s">
+        <v>129</v>
+      </c>
+      <c r="X1" t="s">
+        <v>130</v>
+      </c>
+      <c r="Y1" t="s">
         <v>107</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>108</v>
-      </c>
-      <c r="R1" t="s">
-        <v>109</v>
-      </c>
-      <c r="S1" t="s">
-        <v>110</v>
-      </c>
-      <c r="T1" t="s">
-        <v>111</v>
-      </c>
-      <c r="U1" t="s">
-        <v>112</v>
-      </c>
-      <c r="V1" t="s">
-        <v>113</v>
-      </c>
-      <c r="W1" t="s">
-        <v>114</v>
-      </c>
-      <c r="X1" t="s">
-        <v>115</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="2">
@@ -1386,7 +1747,7 @@
         <v>0.0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="C2" t="n">
         <v>0.0</v>
@@ -1398,7 +1759,7 @@
         <v>0.0</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G2" t="n">
         <v>0.0</v>
@@ -1410,13 +1771,13 @@
         <v>0.0</v>
       </c>
       <c r="J2" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="K2" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="L2" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="M2" t="n">
         <v>0.0</v>
@@ -1425,10 +1786,10 @@
         <v>0.0</v>
       </c>
       <c r="O2" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="P2" t="n">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c r="Q2" t="n">
         <v>0.0</v>
@@ -1460,10 +1821,10 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>116</v>
+        <v>131</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="C3" t="n">
         <v>0.0</v>
@@ -1475,7 +1836,7 @@
         <v>0.0</v>
       </c>
       <c r="F3" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G3" t="n">
         <v>0.0</v>
@@ -1487,13 +1848,13 @@
         <v>0.0</v>
       </c>
       <c r="J3" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="K3" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="L3" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="M3" t="n">
         <v>0.0</v>
@@ -1502,10 +1863,10 @@
         <v>0.0</v>
       </c>
       <c r="O3" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="P3" t="n">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c r="Q3" t="n">
         <v>0.0</v>

--- a/src/Excel/Yañez_Gonzalez_Christian_Emmanuel.xlsx
+++ b/src/Excel/Yañez_Gonzalez_Christian_Emmanuel.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="134">
   <si>
     <t>Estado</t>
   </si>
@@ -31,204 +31,210 @@
     <t>Linea</t>
   </si>
   <si>
-    <t>-64</t>
+    <t>-97</t>
+  </si>
+  <si>
+    <t>INT</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>-68</t>
+  </si>
+  <si>
+    <t>:</t>
+  </si>
+  <si>
+    <t>-1</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>-46</t>
+  </si>
+  <si>
+    <t>;</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>func</t>
+  </si>
+  <si>
+    <t>-49</t>
+  </si>
+  <si>
+    <t>(</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>-50</t>
+  </si>
+  <si>
+    <t>)</t>
+  </si>
+  <si>
+    <t>-61</t>
+  </si>
+  <si>
+    <t>main</t>
+  </si>
+  <si>
+    <t>-53</t>
+  </si>
+  <si>
+    <t>{</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>-55</t>
+  </si>
+  <si>
+    <t>=</t>
+  </si>
+  <si>
+    <t>-19</t>
+  </si>
+  <si>
+    <t>-24</t>
+  </si>
+  <si>
+    <t>+</t>
+  </si>
+  <si>
+    <t>-25</t>
+  </si>
+  <si>
+    <t>*</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>-27</t>
+  </si>
+  <si>
+    <t>/</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>-92</t>
+  </si>
+  <si>
+    <t>return</t>
+  </si>
+  <si>
+    <t>-54</t>
+  </si>
+  <si>
+    <t>}</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>Token</t>
+  </si>
+  <si>
+    <t>Descripción</t>
+  </si>
+  <si>
+    <t>Tipo</t>
+  </si>
+  <si>
+    <t>Erroes</t>
+  </si>
+  <si>
+    <t>Identificadores</t>
+  </si>
+  <si>
+    <t>Comentarios</t>
+  </si>
+  <si>
+    <t>Palabras reservadas</t>
+  </si>
+  <si>
+    <t>C-Enteras</t>
+  </si>
+  <si>
+    <t>C-Texto</t>
+  </si>
+  <si>
+    <t>C-Decimal</t>
+  </si>
+  <si>
+    <t>C-Carácter</t>
+  </si>
+  <si>
+    <t>C-Exponencial</t>
+  </si>
+  <si>
+    <t>Aritmeticos</t>
+  </si>
+  <si>
+    <t>Monogamo</t>
+  </si>
+  <si>
+    <t>Logico</t>
+  </si>
+  <si>
+    <t>Relacionales</t>
+  </si>
+  <si>
+    <t>Bit</t>
+  </si>
+  <si>
+    <t>Puntuación</t>
+  </si>
+  <si>
+    <t>Agrupación</t>
+  </si>
+  <si>
+    <t>Asignación</t>
+  </si>
+  <si>
+    <t>Sintaxis</t>
+  </si>
+  <si>
+    <t>Funciones</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>Ambito</t>
+  </si>
+  <si>
+    <t>CHAR</t>
+  </si>
+  <si>
+    <t>String (CHAR[])</t>
+  </si>
+  <si>
+    <t>REAL</t>
+  </si>
+  <si>
+    <t>BOOL</t>
   </si>
   <si>
     <t>EXP</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>-51</t>
-  </si>
-  <si>
-    <t>[</t>
-  </si>
-  <si>
-    <t>-19</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>-52</t>
-  </si>
-  <si>
-    <t>]</t>
-  </si>
-  <si>
-    <t>-68</t>
-  </si>
-  <si>
-    <t>:</t>
-  </si>
-  <si>
-    <t>-1</t>
-  </si>
-  <si>
-    <t>arr</t>
-  </si>
-  <si>
-    <t>-46</t>
-  </si>
-  <si>
-    <t>;</t>
-  </si>
-  <si>
-    <t>-61</t>
-  </si>
-  <si>
-    <t>main</t>
-  </si>
-  <si>
-    <t>-49</t>
-  </si>
-  <si>
-    <t>(</t>
-  </si>
-  <si>
-    <t>-50</t>
-  </si>
-  <si>
-    <t>)</t>
-  </si>
-  <si>
-    <t>-53</t>
-  </si>
-  <si>
-    <t>{</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>-55</t>
-  </si>
-  <si>
-    <t>=</t>
-  </si>
-  <si>
-    <t>-24</t>
-  </si>
-  <si>
-    <t>+</t>
-  </si>
-  <si>
-    <t>-73</t>
-  </si>
-  <si>
-    <t>pow</t>
-  </si>
-  <si>
-    <t>-47</t>
-  </si>
-  <si>
-    <t>,</t>
-  </si>
-  <si>
-    <t>-54</t>
-  </si>
-  <si>
-    <t>}</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>Token</t>
-  </si>
-  <si>
-    <t>Descripción</t>
-  </si>
-  <si>
-    <t>Tipo</t>
-  </si>
-  <si>
-    <t>Erroes</t>
-  </si>
-  <si>
-    <t>Identificadores</t>
-  </si>
-  <si>
-    <t>Comentarios</t>
-  </si>
-  <si>
-    <t>Palabras reservadas</t>
-  </si>
-  <si>
-    <t>C-Enteras</t>
-  </si>
-  <si>
-    <t>C-Texto</t>
-  </si>
-  <si>
-    <t>C-Decimal</t>
-  </si>
-  <si>
-    <t>C-Carácter</t>
-  </si>
-  <si>
-    <t>C-Exponencial</t>
-  </si>
-  <si>
-    <t>Aritmeticos</t>
-  </si>
-  <si>
-    <t>Monogamo</t>
-  </si>
-  <si>
-    <t>Logico</t>
-  </si>
-  <si>
-    <t>Relacionales</t>
-  </si>
-  <si>
-    <t>Bit</t>
-  </si>
-  <si>
-    <t>Puntuación</t>
-  </si>
-  <si>
-    <t>Agrupación</t>
-  </si>
-  <si>
-    <t>Asignación</t>
-  </si>
-  <si>
-    <t>Sintaxis</t>
-  </si>
-  <si>
-    <t>Funciones</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>Ambito</t>
-  </si>
-  <si>
-    <t>CHAR</t>
-  </si>
-  <si>
-    <t>String (CHAR[])</t>
-  </si>
-  <si>
-    <t>INT</t>
-  </si>
-  <si>
-    <t>REAL</t>
-  </si>
-  <si>
-    <t>BOOL</t>
-  </si>
-  <si>
     <t>REG</t>
   </si>
   <si>
@@ -280,7 +286,10 @@
     <t>Errores</t>
   </si>
   <si>
-    <t>TAr1 -&gt;  TE1 TX1</t>
+    <t>a -&gt;  TE4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">x -&gt; </t>
   </si>
   <si>
     <t>Regla</t>
@@ -307,18 +316,6 @@
     <t>Acept</t>
   </si>
   <si>
-    <t>const_entero</t>
-  </si>
-  <si>
-    <t>pow_p1</t>
-  </si>
-  <si>
-    <t>pow_p2</t>
-  </si>
-  <si>
-    <t>TAr1</t>
-  </si>
-  <si>
     <t>Entradas</t>
   </si>
   <si>
@@ -343,39 +340,51 @@
     <t>Resultado</t>
   </si>
   <si>
+    <t>DEF</t>
+  </si>
+  <si>
+    <t>TE1</t>
+  </si>
+  <si>
+    <t>TE2</t>
+  </si>
+  <si>
+    <t>TE3</t>
+  </si>
+  <si>
+    <t>TE4</t>
+  </si>
+  <si>
+    <t>Call</t>
+  </si>
+  <si>
+    <t>edeffunc</t>
+  </si>
+  <si>
+    <t>enddef</t>
+  </si>
+  <si>
     <t>PPAL</t>
   </si>
   <si>
+    <t>endmain</t>
+  </si>
+  <si>
+    <t>Ambitos</t>
+  </si>
+  <si>
+    <t>TCH</t>
+  </si>
+  <si>
+    <t>TEX</t>
+  </si>
+  <si>
+    <t>TRX</t>
+  </si>
+  <si>
     <t>Arr</t>
   </si>
   <si>
-    <t>Call</t>
-  </si>
-  <si>
-    <t>TEX1</t>
-  </si>
-  <si>
-    <t>TE1</t>
-  </si>
-  <si>
-    <t>TEX2</t>
-  </si>
-  <si>
-    <t>endmain</t>
-  </si>
-  <si>
-    <t>Ambitos</t>
-  </si>
-  <si>
-    <t>TCH</t>
-  </si>
-  <si>
-    <t>TEX</t>
-  </si>
-  <si>
-    <t>TRX</t>
-  </si>
-  <si>
     <t>call</t>
   </si>
   <si>
@@ -410,9 +419,6 @@
   </si>
   <si>
     <t>Whi-E</t>
-  </si>
-  <si>
-    <t>DEF</t>
   </si>
   <si>
     <t>Totales</t>
@@ -460,7 +466,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C29"/>
+  <dimension ref="A1:C41"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -523,79 +529,79 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" t="s">
         <v>12</v>
-      </c>
-      <c r="B6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C7" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B8" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C8" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="B9" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="C9" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C10" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C11" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C12" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13">
@@ -606,183 +612,315 @@
         <v>15</v>
       </c>
       <c r="C13" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="B14" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="C14" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="B15" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="C15" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B16" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C16" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B17" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C17" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="B18" t="s">
         <v>5</v>
       </c>
       <c r="C18" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B19" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C19" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="B20" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C20" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
+        <v>29</v>
+      </c>
+      <c r="B21" t="s">
         <v>30</v>
       </c>
-      <c r="B21" t="s">
-        <v>31</v>
-      </c>
       <c r="C21" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="B22" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="C22" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="B23" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="C23" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="B24" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="C24" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B25" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C25" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="B26" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="C26" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="B27" t="s">
+        <v>11</v>
+      </c>
+      <c r="C27" t="s">
         <v>23</v>
-      </c>
-      <c r="C27" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
+        <v>8</v>
+      </c>
+      <c r="B28" t="s">
         <v>16</v>
       </c>
-      <c r="B28" t="s">
-        <v>17</v>
-      </c>
       <c r="C28" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" t="s">
+        <v>25</v>
+      </c>
+      <c r="C29" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s">
+        <v>8</v>
+      </c>
+      <c r="B30" t="s">
+        <v>9</v>
+      </c>
+      <c r="C30" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
+        <v>10</v>
+      </c>
+      <c r="B31" t="s">
+        <v>11</v>
+      </c>
+      <c r="C31" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s">
+        <v>35</v>
+      </c>
+      <c r="B32" t="s">
         <v>36</v>
       </c>
-      <c r="B29" t="s">
+      <c r="C32" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s">
+        <v>8</v>
+      </c>
+      <c r="B33" t="s">
+        <v>16</v>
+      </c>
+      <c r="C33" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s">
+        <v>10</v>
+      </c>
+      <c r="B34" t="s">
+        <v>11</v>
+      </c>
+      <c r="C34" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s">
         <v>37</v>
       </c>
-      <c r="C29" t="s">
+      <c r="B35" t="s">
         <v>38</v>
+      </c>
+      <c r="C35" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s">
+        <v>10</v>
+      </c>
+      <c r="B36" t="s">
+        <v>11</v>
+      </c>
+      <c r="C36" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s">
+        <v>19</v>
+      </c>
+      <c r="B37" t="s">
+        <v>20</v>
+      </c>
+      <c r="C37" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s">
+        <v>14</v>
+      </c>
+      <c r="B38" t="s">
+        <v>15</v>
+      </c>
+      <c r="C38" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s">
+        <v>17</v>
+      </c>
+      <c r="B39" t="s">
+        <v>18</v>
+      </c>
+      <c r="C39" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s">
+        <v>21</v>
+      </c>
+      <c r="B40" t="s">
+        <v>22</v>
+      </c>
+      <c r="C40" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s">
+        <v>37</v>
+      </c>
+      <c r="B41" t="s">
+        <v>38</v>
+      </c>
+      <c r="C41" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -800,16 +938,16 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E1" t="s">
         <v>2</v>
@@ -830,120 +968,120 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="G1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="H1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="I1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="J1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="L1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="M1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="N1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="O1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="P1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="Q1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="R1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="S1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>27</v>
+        <v>63</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="C2" t="s">
-        <v>27</v>
+        <v>63</v>
       </c>
       <c r="D2" t="s">
-        <v>27</v>
+        <v>63</v>
       </c>
       <c r="E2" t="s">
-        <v>61</v>
+        <v>34</v>
       </c>
       <c r="F2" t="s">
-        <v>27</v>
+        <v>63</v>
       </c>
       <c r="G2" t="s">
-        <v>27</v>
+        <v>63</v>
       </c>
       <c r="H2" t="s">
-        <v>27</v>
+        <v>63</v>
       </c>
       <c r="I2" t="s">
-        <v>27</v>
+        <v>63</v>
       </c>
       <c r="J2" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="K2" t="s">
-        <v>27</v>
+        <v>63</v>
       </c>
       <c r="L2" t="s">
-        <v>27</v>
+        <v>63</v>
       </c>
       <c r="M2" t="s">
-        <v>27</v>
+        <v>63</v>
       </c>
       <c r="N2" t="s">
-        <v>27</v>
+        <v>63</v>
       </c>
       <c r="O2" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="P2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="Q2" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="R2" t="s">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="S2" t="s">
-        <v>5</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -953,7 +1091,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:L3"/>
+  <dimension ref="A1:L4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -961,40 +1099,40 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D1" t="s">
-        <v>66</v>
+        <v>4</v>
       </c>
       <c r="E1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G1" t="s">
-        <v>4</v>
+        <v>70</v>
       </c>
       <c r="H1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="I1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="J1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="K1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="L1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="2">
@@ -1008,7 +1146,7 @@
         <v>0.0</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="E2" t="n">
         <v>0.0</v>
@@ -1017,37 +1155,37 @@
         <v>0.0</v>
       </c>
       <c r="G2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
         <v>1.0</v>
       </c>
-      <c r="H2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="L2" t="n">
+      <c r="B3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D3" t="n">
         <v>1.0</v>
       </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s">
-        <v>74</v>
-      </c>
-      <c r="B3" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.0</v>
-      </c>
       <c r="E3" t="n">
         <v>0.0</v>
       </c>
@@ -1055,7 +1193,7 @@
         <v>0.0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="H3" t="n">
         <v>0.0</v>
@@ -1071,6 +1209,44 @@
       </c>
       <c r="L3" t="n">
         <v>1.0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>76</v>
+      </c>
+      <c r="B4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D4" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>3.0</v>
       </c>
     </row>
   </sheetData>
@@ -1080,7 +1256,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:M2"/>
+  <dimension ref="A1:M3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1091,40 +1267,40 @@
         <v>2</v>
       </c>
       <c r="B1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="F1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="G1" t="s">
+        <v>82</v>
+      </c>
+      <c r="H1" t="s">
         <v>80</v>
       </c>
-      <c r="H1" t="s">
-        <v>78</v>
-      </c>
       <c r="I1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="J1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="K1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="L1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="M1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="2">
@@ -1138,7 +1314,7 @@
         <v>0.0</v>
       </c>
       <c r="D2" t="n">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
       <c r="E2" t="n">
         <v>0.0</v>
@@ -1147,7 +1323,7 @@
         <v>0.0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="H2" t="n">
         <v>0.0</v>
@@ -1162,9 +1338,50 @@
         <v>0.0</v>
       </c>
       <c r="L2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="M2" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="B3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L3" t="s">
+        <v>89</v>
+      </c>
+      <c r="M3" t="n">
         <v>0.0</v>
       </c>
     </row>
@@ -1183,25 +1400,25 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="C1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="D1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="E1" t="s">
         <v>2</v>
       </c>
       <c r="F1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="G1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="2">
@@ -1209,183 +1426,183 @@
         <v>1130.0</v>
       </c>
       <c r="B2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="C2" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="D2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="E2" t="n">
         <v>3.0</v>
       </c>
       <c r="F2" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1030.0</v>
+        <v>1090.0</v>
       </c>
       <c r="B3" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="C3" t="s">
-        <v>7</v>
+        <v>96</v>
       </c>
       <c r="D3" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E3" t="n">
         <v>3.0</v>
       </c>
       <c r="F3" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1040.0</v>
+        <v>1130.0</v>
       </c>
       <c r="B4" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="C4" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D4" t="s">
-        <v>95</v>
+        <v>16</v>
       </c>
       <c r="E4" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="F4" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1050.0</v>
+        <v>1130.0</v>
       </c>
       <c r="B5" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="C5" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D5" t="s">
-        <v>95</v>
+        <v>9</v>
       </c>
       <c r="E5" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="F5" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>2010.0</v>
+        <v>1090.0</v>
       </c>
       <c r="B6" t="s">
-        <v>33</v>
+        <v>95</v>
       </c>
       <c r="C6" t="s">
-        <v>33</v>
+        <v>96</v>
       </c>
       <c r="D6" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="E6" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="F6" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>2001.0</v>
+        <v>1020.0</v>
       </c>
       <c r="B7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C7" t="s">
-        <v>96</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="E7" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="F7" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>2002.0</v>
+        <v>1130.0</v>
       </c>
       <c r="B8" t="s">
+        <v>95</v>
+      </c>
+      <c r="C8" t="s">
+        <v>96</v>
+      </c>
+      <c r="D8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="F8" t="s">
         <v>97</v>
       </c>
-      <c r="C8" t="s">
-        <v>97</v>
-      </c>
-      <c r="D8" t="s">
-        <v>26</v>
-      </c>
-      <c r="E8" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="F8" t="s">
-        <v>94</v>
-      </c>
       <c r="G8" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>1090.0</v>
+        <v>1140.0</v>
       </c>
       <c r="B9" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="C9" t="s">
-        <v>93</v>
+        <v>36</v>
       </c>
       <c r="D9" t="s">
-        <v>98</v>
+        <v>36</v>
       </c>
       <c r="E9" t="n">
-        <v>3.0</v>
+        <v>6.0</v>
       </c>
       <c r="F9" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
   </sheetData>
@@ -1395,7 +1612,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1403,70 +1620,19 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C1" t="s">
         <v>99</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>100</v>
       </c>
-      <c r="D1" t="s">
-        <v>101</v>
-      </c>
       <c r="E1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s">
-        <v>96</v>
-      </c>
-      <c r="B2" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s">
-        <v>97</v>
-      </c>
-      <c r="B3" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s">
-        <v>33</v>
-      </c>
-      <c r="B4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="C4" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0.0</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -1476,7 +1642,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1484,101 +1650,101 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B1" t="s">
         <v>102</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>103</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>104</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>105</v>
-      </c>
-      <c r="E1" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B2" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="C2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="D2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="E2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B3" t="s">
-        <v>108</v>
+        <v>30</v>
       </c>
       <c r="C3" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D3" t="s">
-        <v>92</v>
+        <v>23</v>
       </c>
       <c r="E3" t="s">
-        <v>92</v>
+        <v>107</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B4" t="s">
-        <v>92</v>
+        <v>30</v>
       </c>
       <c r="C4" t="s">
-        <v>27</v>
+        <v>107</v>
       </c>
       <c r="D4" t="s">
-        <v>92</v>
+        <v>31</v>
       </c>
       <c r="E4" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C5" t="s">
+        <v>108</v>
+      </c>
+      <c r="D5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E5" t="s">
         <v>109</v>
-      </c>
-      <c r="C5" t="s">
-        <v>33</v>
-      </c>
-      <c r="D5" t="s">
-        <v>92</v>
-      </c>
-      <c r="E5" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B6" t="s">
-        <v>92</v>
+        <v>28</v>
       </c>
       <c r="C6" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D6" t="s">
-        <v>26</v>
+        <v>109</v>
       </c>
       <c r="E6" t="s">
         <v>110</v>
@@ -1586,70 +1752,121 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B7" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>9</v>
+        <v>95</v>
       </c>
       <c r="E7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B8" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>111</v>
+        <v>16</v>
       </c>
       <c r="D8" t="s">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="E8" t="s">
-        <v>112</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B9" t="s">
-        <v>29</v>
+        <v>111</v>
       </c>
       <c r="C9" t="s">
-        <v>98</v>
+        <v>36</v>
       </c>
       <c r="D9" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="E9" t="s">
-        <v>112</v>
+        <v>95</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
+        <v>95</v>
+      </c>
+      <c r="B10" t="s">
+        <v>95</v>
+      </c>
+      <c r="C10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" t="s">
+        <v>95</v>
+      </c>
+      <c r="E10" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
         <v>113</v>
       </c>
-      <c r="B10" t="s">
-        <v>92</v>
-      </c>
-      <c r="C10" t="s">
-        <v>92</v>
-      </c>
-      <c r="D10" t="s">
-        <v>92</v>
-      </c>
-      <c r="E10" t="s">
-        <v>92</v>
+      <c r="B11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" t="s">
+        <v>95</v>
+      </c>
+      <c r="D11" t="s">
+        <v>95</v>
+      </c>
+      <c r="E11" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>114</v>
+      </c>
+      <c r="B12" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" t="s">
+        <v>95</v>
+      </c>
+      <c r="D12" t="s">
+        <v>95</v>
+      </c>
+      <c r="E12" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>115</v>
+      </c>
+      <c r="B13" t="s">
+        <v>95</v>
+      </c>
+      <c r="C13" t="s">
+        <v>95</v>
+      </c>
+      <c r="D13" t="s">
+        <v>95</v>
+      </c>
+      <c r="E13" t="s">
+        <v>95</v>
       </c>
     </row>
   </sheetData>
@@ -1659,7 +1876,7 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:Y3"/>
+  <dimension ref="A1:Y4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1667,79 +1884,79 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E1" t="s">
+        <v>117</v>
+      </c>
+      <c r="F1" t="s">
+        <v>118</v>
+      </c>
+      <c r="G1" t="s">
+        <v>81</v>
+      </c>
+      <c r="H1" t="s">
+        <v>119</v>
+      </c>
+      <c r="I1" t="s">
+        <v>84</v>
+      </c>
+      <c r="J1" t="s">
+        <v>120</v>
+      </c>
+      <c r="K1" t="s">
+        <v>121</v>
+      </c>
+      <c r="L1" t="s">
+        <v>25</v>
+      </c>
+      <c r="M1" t="s">
+        <v>122</v>
+      </c>
+      <c r="N1" t="s">
+        <v>123</v>
+      </c>
+      <c r="O1" t="s">
+        <v>124</v>
+      </c>
+      <c r="P1" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>126</v>
+      </c>
+      <c r="R1" t="s">
+        <v>127</v>
+      </c>
+      <c r="S1" t="s">
+        <v>128</v>
+      </c>
+      <c r="T1" t="s">
+        <v>129</v>
+      </c>
+      <c r="U1" t="s">
+        <v>130</v>
+      </c>
+      <c r="V1" t="s">
+        <v>131</v>
+      </c>
+      <c r="W1" t="s">
+        <v>132</v>
+      </c>
+      <c r="X1" t="s">
+        <v>106</v>
+      </c>
+      <c r="Y1" t="s">
         <v>114</v>
-      </c>
-      <c r="B1" t="s">
-        <v>77</v>
-      </c>
-      <c r="C1" t="s">
-        <v>78</v>
-      </c>
-      <c r="D1" t="s">
-        <v>76</v>
-      </c>
-      <c r="E1" t="s">
-        <v>115</v>
-      </c>
-      <c r="F1" t="s">
-        <v>116</v>
-      </c>
-      <c r="G1" t="s">
-        <v>79</v>
-      </c>
-      <c r="H1" t="s">
-        <v>117</v>
-      </c>
-      <c r="I1" t="s">
-        <v>82</v>
-      </c>
-      <c r="J1" t="s">
-        <v>108</v>
-      </c>
-      <c r="K1" t="s">
-        <v>118</v>
-      </c>
-      <c r="L1" t="s">
-        <v>29</v>
-      </c>
-      <c r="M1" t="s">
-        <v>119</v>
-      </c>
-      <c r="N1" t="s">
-        <v>120</v>
-      </c>
-      <c r="O1" t="s">
-        <v>121</v>
-      </c>
-      <c r="P1" t="s">
-        <v>122</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>123</v>
-      </c>
-      <c r="R1" t="s">
-        <v>124</v>
-      </c>
-      <c r="S1" t="s">
-        <v>125</v>
-      </c>
-      <c r="T1" t="s">
-        <v>126</v>
-      </c>
-      <c r="U1" t="s">
-        <v>127</v>
-      </c>
-      <c r="V1" t="s">
-        <v>128</v>
-      </c>
-      <c r="W1" t="s">
-        <v>129</v>
-      </c>
-      <c r="X1" t="s">
-        <v>130</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="2">
@@ -1747,84 +1964,84 @@
         <v>0.0</v>
       </c>
       <c r="B2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X2" t="n">
         <v>1.0</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="F2" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="K2" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="R2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="S2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="T2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="U2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="V2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="W2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="X2" t="n">
-        <v>0.0</v>
       </c>
       <c r="Y2" t="n">
         <v>1.0</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s">
-        <v>131</v>
+      <c r="A3" t="n">
+        <v>1.0</v>
       </c>
       <c r="B3" t="n">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
       <c r="C3" t="n">
         <v>0.0</v>
@@ -1836,7 +2053,7 @@
         <v>0.0</v>
       </c>
       <c r="F3" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="G3" t="n">
         <v>0.0</v>
@@ -1848,51 +2065,128 @@
         <v>0.0</v>
       </c>
       <c r="J3" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="K3" t="n">
         <v>1.0</v>
       </c>
       <c r="L3" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>133</v>
+      </c>
+      <c r="B4" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K4" t="n">
         <v>1.0</v>
       </c>
-      <c r="M3" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="O3" t="n">
+      <c r="L4" t="n">
         <v>2.0</v>
       </c>
-      <c r="P3" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="R3" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="S3" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="T3" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="U3" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="V3" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="W3" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="X3" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="Y3" t="n">
+      <c r="M4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O4" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X4" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="Y4" t="n">
         <v>1.0</v>
       </c>
     </row>

--- a/src/Excel/Yañez_Gonzalez_Christian_Emmanuel.xlsx
+++ b/src/Excel/Yañez_Gonzalez_Christian_Emmanuel.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="132">
   <si>
     <t>Estado</t>
   </si>
@@ -91,18 +91,39 @@
     <t>{</t>
   </si>
   <si>
+    <t>-92</t>
+  </si>
+  <si>
+    <t>return</t>
+  </si>
+  <si>
     <t>3</t>
   </si>
   <si>
+    <t>-19</t>
+  </si>
+  <si>
+    <t>-54</t>
+  </si>
+  <si>
+    <t>}</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
     <t>-55</t>
   </si>
   <si>
     <t>=</t>
   </si>
   <si>
-    <t>-19</t>
-  </si>
-  <si>
     <t>-24</t>
   </si>
   <si>
@@ -115,36 +136,12 @@
     <t>*</t>
   </si>
   <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>-27</t>
-  </si>
-  <si>
-    <t>/</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>-92</t>
-  </si>
-  <si>
-    <t>return</t>
-  </si>
-  <si>
-    <t>-54</t>
-  </si>
-  <si>
-    <t>}</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
     <t>7</t>
   </si>
   <si>
+    <t>8</t>
+  </si>
+  <si>
     <t>Token</t>
   </si>
   <si>
@@ -214,7 +211,7 @@
     <t>0</t>
   </si>
   <si>
-    <t>10</t>
+    <t>14</t>
   </si>
   <si>
     <t>Ambito</t>
@@ -286,10 +283,10 @@
     <t>Errores</t>
   </si>
   <si>
-    <t>a -&gt;  TE4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">x -&gt; </t>
+    <t>a -&gt;  TE2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a -&gt; </t>
   </si>
   <si>
     <t>Regla</t>
@@ -310,12 +307,12 @@
     <t/>
   </si>
   <si>
+    <t>Acept</t>
+  </si>
+  <si>
     <t>id</t>
   </si>
   <si>
-    <t>Acept</t>
-  </si>
-  <si>
     <t>Entradas</t>
   </si>
   <si>
@@ -343,28 +340,25 @@
     <t>DEF</t>
   </si>
   <si>
+    <t>Call</t>
+  </si>
+  <si>
+    <t>Tdeffunc</t>
+  </si>
+  <si>
+    <t>enddef</t>
+  </si>
+  <si>
+    <t>PPAL</t>
+  </si>
+  <si>
     <t>TE1</t>
   </si>
   <si>
     <t>TE2</t>
   </si>
   <si>
-    <t>TE3</t>
-  </si>
-  <si>
-    <t>TE4</t>
-  </si>
-  <si>
-    <t>Call</t>
-  </si>
-  <si>
-    <t>edeffunc</t>
-  </si>
-  <si>
-    <t>enddef</t>
-  </si>
-  <si>
-    <t>PPAL</t>
+    <t>Tdefa</t>
   </si>
   <si>
     <t>endmain</t>
@@ -466,7 +460,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C41"/>
+  <dimension ref="A1:C42"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -639,101 +633,101 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="B16" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="C16" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B17" t="s">
+        <v>5</v>
+      </c>
+      <c r="C17" t="s">
         <v>25</v>
-      </c>
-      <c r="C17" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B18" t="s">
-        <v>5</v>
+        <v>28</v>
       </c>
       <c r="C18" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="B19" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="C19" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C20" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="B21" t="s">
+        <v>15</v>
+      </c>
+      <c r="C21" t="s">
         <v>30</v>
-      </c>
-      <c r="C21" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="B22" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C22" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="B23" t="s">
+        <v>22</v>
+      </c>
+      <c r="C23" t="s">
         <v>30</v>
-      </c>
-      <c r="C23" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="B24" t="s">
+        <v>9</v>
+      </c>
+      <c r="C24" t="s">
         <v>31</v>
-      </c>
-      <c r="C24" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="25">
@@ -744,37 +738,37 @@
         <v>33</v>
       </c>
       <c r="C25" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="B26" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="C26" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B27" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C27" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="C28" t="s">
         <v>31</v>
@@ -782,10 +776,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="B29" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="C29" t="s">
         <v>31</v>
@@ -793,10 +787,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>8</v>
+        <v>34</v>
       </c>
       <c r="B30" t="s">
-        <v>9</v>
+        <v>35</v>
       </c>
       <c r="C30" t="s">
         <v>31</v>
@@ -804,10 +798,10 @@
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="B31" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="C31" t="s">
         <v>31</v>
@@ -815,24 +809,24 @@
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B32" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C32" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="B33" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="C33" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="34">
@@ -843,40 +837,40 @@
         <v>11</v>
       </c>
       <c r="C34" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>37</v>
+        <v>8</v>
       </c>
       <c r="B35" t="s">
+        <v>9</v>
+      </c>
+      <c r="C35" t="s">
         <v>38</v>
-      </c>
-      <c r="C35" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="B36" t="s">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="C36" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="B37" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="C37" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="38">
@@ -887,40 +881,51 @@
         <v>15</v>
       </c>
       <c r="C38" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="B39" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="C39" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B40" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C40" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>37</v>
+        <v>10</v>
       </c>
       <c r="B41" t="s">
+        <v>11</v>
+      </c>
+      <c r="C41" t="s">
         <v>38</v>
       </c>
-      <c r="C41" t="s">
-        <v>40</v>
+    </row>
+    <row r="42">
+      <c r="A42" t="s">
+        <v>27</v>
+      </c>
+      <c r="B42" t="s">
+        <v>28</v>
+      </c>
+      <c r="C42" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -938,16 +943,16 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" t="s">
         <v>41</v>
-      </c>
-      <c r="B1" t="s">
-        <v>42</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E1" t="s">
         <v>2</v>
@@ -968,120 +973,120 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1" t="s">
         <v>44</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>45</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>46</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>47</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>48</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>49</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>50</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>51</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>52</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>53</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>54</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>55</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>56</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>57</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>58</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>59</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>60</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>61</v>
-      </c>
-      <c r="S1" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H2" t="s">
+        <v>62</v>
+      </c>
+      <c r="I2" t="s">
+        <v>62</v>
+      </c>
+      <c r="J2" t="s">
+        <v>12</v>
+      </c>
+      <c r="K2" t="s">
+        <v>62</v>
+      </c>
+      <c r="L2" t="s">
+        <v>62</v>
+      </c>
+      <c r="M2" t="s">
+        <v>62</v>
+      </c>
+      <c r="N2" t="s">
+        <v>62</v>
+      </c>
+      <c r="O2" t="s">
+        <v>29</v>
+      </c>
+      <c r="P2" t="s">
         <v>63</v>
-      </c>
-      <c r="B2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C2" t="s">
-        <v>63</v>
-      </c>
-      <c r="D2" t="s">
-        <v>63</v>
-      </c>
-      <c r="E2" t="s">
-        <v>34</v>
-      </c>
-      <c r="F2" t="s">
-        <v>63</v>
-      </c>
-      <c r="G2" t="s">
-        <v>63</v>
-      </c>
-      <c r="H2" t="s">
-        <v>63</v>
-      </c>
-      <c r="I2" t="s">
-        <v>63</v>
-      </c>
-      <c r="J2" t="s">
-        <v>31</v>
-      </c>
-      <c r="K2" t="s">
-        <v>63</v>
-      </c>
-      <c r="L2" t="s">
-        <v>63</v>
-      </c>
-      <c r="M2" t="s">
-        <v>63</v>
-      </c>
-      <c r="N2" t="s">
-        <v>63</v>
-      </c>
-      <c r="O2" t="s">
-        <v>34</v>
-      </c>
-      <c r="P2" t="s">
-        <v>64</v>
       </c>
       <c r="Q2" t="s">
         <v>12</v>
       </c>
       <c r="R2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="S2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -1099,40 +1104,40 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B1" t="s">
         <v>65</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>66</v>
-      </c>
-      <c r="C1" t="s">
-        <v>67</v>
       </c>
       <c r="D1" t="s">
         <v>4</v>
       </c>
       <c r="E1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F1" t="s">
         <v>68</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>69</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>70</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>71</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>72</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>73</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>74</v>
-      </c>
-      <c r="L1" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="2">
@@ -1213,7 +1218,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B4" t="n">
         <v>0.0</v>
@@ -1267,45 +1272,45 @@
         <v>2</v>
       </c>
       <c r="B1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C1" t="s">
         <v>77</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>78</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>79</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>80</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>81</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
+        <v>79</v>
+      </c>
+      <c r="I1" t="s">
         <v>82</v>
       </c>
-      <c r="H1" t="s">
-        <v>80</v>
-      </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>83</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>84</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>85</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>86</v>
-      </c>
-      <c r="M1" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>3.0</v>
+        <v>6.0</v>
       </c>
       <c r="B2" t="n">
         <v>0.0</v>
@@ -1314,7 +1319,7 @@
         <v>0.0</v>
       </c>
       <c r="D2" t="n">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
       <c r="E2" t="n">
         <v>0.0</v>
@@ -1338,7 +1343,7 @@
         <v>0.0</v>
       </c>
       <c r="L2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="M2" t="n">
         <v>0.0</v>
@@ -1346,7 +1351,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>4.0</v>
+        <v>7.0</v>
       </c>
       <c r="B3" t="n">
         <v>0.0</v>
@@ -1379,7 +1384,7 @@
         <v>0.0</v>
       </c>
       <c r="L3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="M3" t="n">
         <v>0.0</v>
@@ -1392,7 +1397,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1400,45 +1405,45 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B1" t="s">
         <v>90</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>91</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>92</v>
-      </c>
-      <c r="D1" t="s">
-        <v>93</v>
       </c>
       <c r="E1" t="s">
         <v>2</v>
       </c>
       <c r="F1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1130.0</v>
+        <v>1140.0</v>
       </c>
       <c r="B2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="F2" t="s">
         <v>95</v>
-      </c>
-      <c r="C2" t="s">
-        <v>96</v>
-      </c>
-      <c r="D2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="F2" t="s">
-        <v>97</v>
       </c>
       <c r="G2" t="n">
         <v>1.0</v>
@@ -1446,10 +1451,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1090.0</v>
+        <v>1130.0</v>
       </c>
       <c r="B3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C3" t="s">
         <v>96</v>
@@ -1458,13 +1463,13 @@
         <v>9</v>
       </c>
       <c r="E3" t="n">
-        <v>3.0</v>
+        <v>6.0</v>
       </c>
       <c r="F3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="G3" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="4">
@@ -1472,91 +1477,91 @@
         <v>1130.0</v>
       </c>
       <c r="B4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C4" t="s">
         <v>96</v>
       </c>
       <c r="D4" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E4" t="n">
-        <v>4.0</v>
+        <v>6.0</v>
       </c>
       <c r="F4" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="G4" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1130.0</v>
+        <v>1100.0</v>
       </c>
       <c r="B5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C5" t="s">
         <v>96</v>
       </c>
       <c r="D5" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E5" t="n">
-        <v>4.0</v>
+        <v>6.0</v>
       </c>
       <c r="F5" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="G5" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1090.0</v>
+        <v>1120.0</v>
       </c>
       <c r="B6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C6" t="s">
         <v>96</v>
       </c>
       <c r="D6" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E6" t="n">
-        <v>4.0</v>
+        <v>6.0</v>
       </c>
       <c r="F6" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="G6" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>1020.0</v>
+        <v>1090.0</v>
       </c>
       <c r="B7" t="s">
+        <v>94</v>
+      </c>
+      <c r="C7" t="s">
+        <v>96</v>
+      </c>
+      <c r="D7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="F7" t="s">
         <v>95</v>
       </c>
-      <c r="C7" t="s">
-        <v>25</v>
-      </c>
-      <c r="D7" t="s">
-        <v>25</v>
-      </c>
-      <c r="E7" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="F7" t="s">
-        <v>97</v>
-      </c>
       <c r="G7" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="8">
@@ -1564,45 +1569,160 @@
         <v>1130.0</v>
       </c>
       <c r="B8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C8" t="s">
         <v>96</v>
       </c>
       <c r="D8" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="E8" t="n">
-        <v>5.0</v>
+        <v>7.0</v>
       </c>
       <c r="F8" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="G8" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>1140.0</v>
+        <v>1130.0</v>
       </c>
       <c r="B9" t="s">
+        <v>94</v>
+      </c>
+      <c r="C9" t="s">
+        <v>96</v>
+      </c>
+      <c r="D9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="F9" t="s">
         <v>95</v>
       </c>
-      <c r="C9" t="s">
-        <v>36</v>
-      </c>
-      <c r="D9" t="s">
-        <v>36</v>
-      </c>
-      <c r="E9" t="n">
-        <v>6.0</v>
-      </c>
-      <c r="F9" t="s">
-        <v>97</v>
-      </c>
       <c r="G9" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>1130.0</v>
+      </c>
+      <c r="B10" t="s">
+        <v>94</v>
+      </c>
+      <c r="C10" t="s">
+        <v>96</v>
+      </c>
+      <c r="D10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="F10" t="s">
+        <v>95</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>1100.0</v>
+      </c>
+      <c r="B11" t="s">
+        <v>94</v>
+      </c>
+      <c r="C11" t="s">
+        <v>96</v>
+      </c>
+      <c r="D11" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="F11" t="s">
+        <v>95</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>1120.0</v>
+      </c>
+      <c r="B12" t="s">
+        <v>94</v>
+      </c>
+      <c r="C12" t="s">
+        <v>96</v>
+      </c>
+      <c r="D12" t="s">
+        <v>13</v>
+      </c>
+      <c r="E12" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="F12" t="s">
+        <v>95</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>1090.0</v>
+      </c>
+      <c r="B13" t="s">
+        <v>94</v>
+      </c>
+      <c r="C13" t="s">
+        <v>96</v>
+      </c>
+      <c r="D13" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="F13" t="s">
+        <v>95</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>1020.0</v>
+      </c>
+      <c r="B14" t="s">
+        <v>94</v>
+      </c>
+      <c r="C14" t="s">
+        <v>33</v>
+      </c>
+      <c r="D14" t="s">
+        <v>33</v>
+      </c>
+      <c r="E14" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="F14" t="s">
+        <v>95</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0.0</v>
       </c>
     </row>
   </sheetData>
@@ -1620,19 +1740,19 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C1" t="s">
         <v>98</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>99</v>
       </c>
-      <c r="D1" t="s">
-        <v>100</v>
-      </c>
       <c r="E1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
   </sheetData>
@@ -1642,7 +1762,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1650,223 +1770,257 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B1" t="s">
         <v>101</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>102</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>103</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>104</v>
-      </c>
-      <c r="E1" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B2" t="s">
         <v>13</v>
       </c>
       <c r="C2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B3" t="s">
-        <v>30</v>
+        <v>106</v>
       </c>
       <c r="C3" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>23</v>
+        <v>94</v>
       </c>
       <c r="E3" t="s">
-        <v>107</v>
+        <v>94</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B4" t="s">
-        <v>30</v>
+        <v>94</v>
       </c>
       <c r="C4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" t="s">
+        <v>94</v>
+      </c>
+      <c r="E4" t="s">
         <v>107</v>
-      </c>
-      <c r="D4" t="s">
-        <v>31</v>
-      </c>
-      <c r="E4" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>95</v>
+        <v>108</v>
       </c>
       <c r="B5" t="s">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="C5" t="s">
-        <v>108</v>
+        <v>94</v>
       </c>
       <c r="D5" t="s">
-        <v>34</v>
+        <v>94</v>
       </c>
       <c r="E5" t="s">
-        <v>109</v>
+        <v>94</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>95</v>
+        <v>109</v>
       </c>
       <c r="B6" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="C6" t="s">
-        <v>5</v>
+        <v>94</v>
       </c>
       <c r="D6" t="s">
-        <v>109</v>
+        <v>94</v>
       </c>
       <c r="E6" t="s">
-        <v>110</v>
+        <v>94</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B7" t="s">
-        <v>25</v>
+        <v>106</v>
       </c>
       <c r="C7" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E7" t="s">
-        <v>110</v>
+        <v>94</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>94</v>
       </c>
       <c r="C8" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="D8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E8" t="s">
-        <v>9</v>
+        <v>107</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B9" t="s">
-        <v>111</v>
+        <v>37</v>
       </c>
       <c r="C9" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>95</v>
+        <v>30</v>
       </c>
       <c r="E9" t="s">
-        <v>95</v>
+        <v>110</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B10" t="s">
-        <v>95</v>
+        <v>35</v>
       </c>
       <c r="C10" t="s">
-        <v>16</v>
+        <v>107</v>
       </c>
       <c r="D10" t="s">
-        <v>95</v>
+        <v>110</v>
       </c>
       <c r="E10" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>113</v>
+        <v>94</v>
       </c>
       <c r="B11" t="s">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="C11" t="s">
-        <v>95</v>
+        <v>9</v>
       </c>
       <c r="D11" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E11" t="s">
-        <v>95</v>
+        <v>111</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>114</v>
+        <v>94</v>
       </c>
       <c r="B12" t="s">
-        <v>20</v>
+        <v>106</v>
       </c>
       <c r="C12" t="s">
-        <v>95</v>
+        <v>13</v>
       </c>
       <c r="D12" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E12" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>115</v>
+        <v>94</v>
       </c>
       <c r="B13" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C13" t="s">
-        <v>95</v>
+        <v>9</v>
       </c>
       <c r="D13" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E13" t="s">
-        <v>95</v>
+        <v>112</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>94</v>
+      </c>
+      <c r="B14" t="s">
+        <v>33</v>
+      </c>
+      <c r="C14" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" t="s">
+        <v>94</v>
+      </c>
+      <c r="E14" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>113</v>
+      </c>
+      <c r="B15" t="s">
+        <v>94</v>
+      </c>
+      <c r="C15" t="s">
+        <v>94</v>
+      </c>
+      <c r="D15" t="s">
+        <v>94</v>
+      </c>
+      <c r="E15" t="s">
+        <v>94</v>
       </c>
     </row>
   </sheetData>
@@ -1884,79 +2038,79 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E1" t="s">
+        <v>115</v>
+      </c>
+      <c r="F1" t="s">
         <v>116</v>
       </c>
-      <c r="B1" t="s">
-        <v>79</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="G1" t="s">
         <v>80</v>
       </c>
-      <c r="D1" t="s">
-        <v>78</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="H1" t="s">
         <v>117</v>
       </c>
-      <c r="F1" t="s">
+      <c r="I1" t="s">
+        <v>83</v>
+      </c>
+      <c r="J1" t="s">
         <v>118</v>
       </c>
-      <c r="G1" t="s">
-        <v>81</v>
-      </c>
-      <c r="H1" t="s">
+      <c r="K1" t="s">
         <v>119</v>
       </c>
-      <c r="I1" t="s">
-        <v>84</v>
-      </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
+        <v>33</v>
+      </c>
+      <c r="M1" t="s">
         <v>120</v>
       </c>
-      <c r="K1" t="s">
+      <c r="N1" t="s">
         <v>121</v>
       </c>
-      <c r="L1" t="s">
-        <v>25</v>
-      </c>
-      <c r="M1" t="s">
+      <c r="O1" t="s">
         <v>122</v>
       </c>
-      <c r="N1" t="s">
+      <c r="P1" t="s">
         <v>123</v>
       </c>
-      <c r="O1" t="s">
+      <c r="Q1" t="s">
         <v>124</v>
       </c>
-      <c r="P1" t="s">
+      <c r="R1" t="s">
         <v>125</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="S1" t="s">
         <v>126</v>
       </c>
-      <c r="R1" t="s">
+      <c r="T1" t="s">
         <v>127</v>
       </c>
-      <c r="S1" t="s">
+      <c r="U1" t="s">
         <v>128</v>
       </c>
-      <c r="T1" t="s">
+      <c r="V1" t="s">
         <v>129</v>
       </c>
-      <c r="U1" t="s">
+      <c r="W1" t="s">
         <v>130</v>
       </c>
-      <c r="V1" t="s">
-        <v>131</v>
-      </c>
-      <c r="W1" t="s">
-        <v>132</v>
-      </c>
       <c r="X1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="Y1" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
     </row>
     <row r="2">
@@ -1964,7 +2118,7 @@
         <v>0.0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="C2" t="n">
         <v>0.0</v>
@@ -1991,10 +2145,10 @@
         <v>0.0</v>
       </c>
       <c r="K2" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="L2" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="M2" t="n">
         <v>0.0</v>
@@ -2003,7 +2157,7 @@
         <v>0.0</v>
       </c>
       <c r="O2" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="P2" t="n">
         <v>0.0</v>
@@ -2041,7 +2195,7 @@
         <v>1.0</v>
       </c>
       <c r="B3" t="n">
-        <v>4.0</v>
+        <v>0.0</v>
       </c>
       <c r="C3" t="n">
         <v>0.0</v>
@@ -2071,7 +2225,7 @@
         <v>1.0</v>
       </c>
       <c r="L3" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="M3" t="n">
         <v>0.0</v>
@@ -2080,7 +2234,7 @@
         <v>0.0</v>
       </c>
       <c r="O3" t="n">
-        <v>4.0</v>
+        <v>0.0</v>
       </c>
       <c r="P3" t="n">
         <v>0.0</v>
@@ -2115,10 +2269,10 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B4" t="n">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
       <c r="C4" t="n">
         <v>0.0</v>
@@ -2145,7 +2299,7 @@
         <v>0.0</v>
       </c>
       <c r="K4" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="L4" t="n">
         <v>2.0</v>
@@ -2157,7 +2311,7 @@
         <v>0.0</v>
       </c>
       <c r="O4" t="n">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
       <c r="P4" t="n">
         <v>0.0</v>

--- a/src/Excel/Yañez_Gonzalez_Christian_Emmanuel.xlsx
+++ b/src/Excel/Yañez_Gonzalez_Christian_Emmanuel.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="133">
   <si>
     <t>Estado</t>
   </si>
@@ -31,13 +31,22 @@
     <t>Linea</t>
   </si>
   <si>
+    <t>-2</t>
+  </si>
+  <si>
+    <t>//17</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
     <t>-97</t>
   </si>
   <si>
     <t>INT</t>
   </si>
   <si>
-    <t>1</t>
+    <t>2</t>
   </si>
   <si>
     <t>-68</t>
@@ -49,7 +58,7 @@
     <t>-1</t>
   </si>
   <si>
-    <t>a</t>
+    <t>x</t>
   </si>
   <si>
     <t>-46</t>
@@ -58,10 +67,13 @@
     <t>;</t>
   </si>
   <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>func</t>
+    <t>-61</t>
+  </si>
+  <si>
+    <t>main</t>
+  </si>
+  <si>
+    <t>3</t>
   </si>
   <si>
     <t>-49</t>
@@ -70,78 +82,75 @@
     <t>(</t>
   </si>
   <si>
-    <t>x</t>
-  </si>
-  <si>
     <t>-50</t>
   </si>
   <si>
     <t>)</t>
   </si>
   <si>
-    <t>-61</t>
-  </si>
-  <si>
-    <t>main</t>
-  </si>
-  <si>
     <t>-53</t>
   </si>
   <si>
     <t>{</t>
   </si>
   <si>
-    <t>-92</t>
-  </si>
-  <si>
-    <t>return</t>
-  </si>
-  <si>
-    <t>3</t>
+    <t>4</t>
+  </si>
+  <si>
+    <t>-55</t>
+  </si>
+  <si>
+    <t>=</t>
   </si>
   <si>
     <t>-19</t>
   </si>
   <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>-6</t>
+  </si>
+  <si>
+    <t>while</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>-36</t>
+  </si>
+  <si>
+    <t>&lt;</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>-30</t>
+  </si>
+  <si>
+    <t>++</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
     <t>-54</t>
   </si>
   <si>
     <t>}</t>
   </si>
   <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>-55</t>
-  </si>
-  <si>
-    <t>=</t>
-  </si>
-  <si>
-    <t>-24</t>
-  </si>
-  <si>
-    <t>+</t>
-  </si>
-  <si>
-    <t>-25</t>
-  </si>
-  <si>
-    <t>*</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
     <t>8</t>
   </si>
   <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
     <t>Token</t>
   </si>
   <si>
@@ -208,10 +217,7 @@
     <t>Funciones</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>14</t>
+    <t>12</t>
   </si>
   <si>
     <t>Ambito</t>
@@ -283,10 +289,7 @@
     <t>Errores</t>
   </si>
   <si>
-    <t>a -&gt;  TE2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">a -&gt; </t>
+    <t xml:space="preserve">x -&gt; </t>
   </si>
   <si>
     <t>Regla</t>
@@ -307,10 +310,16 @@
     <t/>
   </si>
   <si>
+    <t>id</t>
+  </si>
+  <si>
     <t>Acept</t>
   </si>
   <si>
-    <t>id</t>
+    <t>TB1</t>
+  </si>
+  <si>
+    <t>TB2</t>
   </si>
   <si>
     <t>Entradas</t>
@@ -337,82 +346,76 @@
     <t>Resultado</t>
   </si>
   <si>
+    <t>PPAL</t>
+  </si>
+  <si>
+    <t>Whi-E1:</t>
+  </si>
+  <si>
+    <t>JF</t>
+  </si>
+  <si>
+    <t>Whi-E2:</t>
+  </si>
+  <si>
+    <t>Whi-E3:</t>
+  </si>
+  <si>
+    <t>Whi-E4:</t>
+  </si>
+  <si>
+    <t>JMP</t>
+  </si>
+  <si>
+    <t>endmain</t>
+  </si>
+  <si>
+    <t>Ambitos</t>
+  </si>
+  <si>
+    <t>TCH</t>
+  </si>
+  <si>
+    <t>TEX</t>
+  </si>
+  <si>
+    <t>TRX</t>
+  </si>
+  <si>
+    <t>Arr</t>
+  </si>
+  <si>
+    <t>call</t>
+  </si>
+  <si>
+    <t>Op-Rel</t>
+  </si>
+  <si>
+    <t>Ope-Log</t>
+  </si>
+  <si>
+    <t>Oper-Arit</t>
+  </si>
+  <si>
+    <t>Op-Un</t>
+  </si>
+  <si>
+    <t>valor</t>
+  </si>
+  <si>
+    <t>if-E</t>
+  </si>
+  <si>
+    <t>SW-E</t>
+  </si>
+  <si>
+    <t>For-E</t>
+  </si>
+  <si>
+    <t>Whi-E</t>
+  </si>
+  <si>
     <t>DEF</t>
-  </si>
-  <si>
-    <t>Call</t>
-  </si>
-  <si>
-    <t>Tdeffunc</t>
-  </si>
-  <si>
-    <t>enddef</t>
-  </si>
-  <si>
-    <t>PPAL</t>
-  </si>
-  <si>
-    <t>TE1</t>
-  </si>
-  <si>
-    <t>TE2</t>
-  </si>
-  <si>
-    <t>Tdefa</t>
-  </si>
-  <si>
-    <t>endmain</t>
-  </si>
-  <si>
-    <t>Ambitos</t>
-  </si>
-  <si>
-    <t>TCH</t>
-  </si>
-  <si>
-    <t>TEX</t>
-  </si>
-  <si>
-    <t>TRX</t>
-  </si>
-  <si>
-    <t>Arr</t>
-  </si>
-  <si>
-    <t>call</t>
-  </si>
-  <si>
-    <t>Op-Rel</t>
-  </si>
-  <si>
-    <t>Ope-Log</t>
-  </si>
-  <si>
-    <t>Oper-Arit</t>
-  </si>
-  <si>
-    <t>Op-Un</t>
-  </si>
-  <si>
-    <t>JF</t>
-  </si>
-  <si>
-    <t>JMP</t>
-  </si>
-  <si>
-    <t>valor</t>
-  </si>
-  <si>
-    <t>if-E</t>
-  </si>
-  <si>
-    <t>SW-E</t>
-  </si>
-  <si>
-    <t>For-E</t>
-  </si>
-  <si>
-    <t>Whi-E</t>
   </si>
   <si>
     <t>Totales</t>
@@ -460,7 +463,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C42"/>
+  <dimension ref="A1:C34"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -496,238 +499,238 @@
         <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" t="s">
         <v>8</v>
-      </c>
-      <c r="B4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C5" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="C6" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C7" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B8" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C8" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="B9" t="s">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="C9" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="C10" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="C11" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="B12" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="C12" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="B13" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="C13" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C14" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="B15" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="C15" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="B16" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="C16" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="B17" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C17" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="B18" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C18" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="B19" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="C19" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B20" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C20" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="B21" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="C21" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="B22" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="C22" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B23" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C23" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B24" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C24" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
     <row r="25">
@@ -738,194 +741,106 @@
         <v>33</v>
       </c>
       <c r="C25" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="B26" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="C26" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="B27" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C27" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B28" t="s">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="C28" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="B29" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="C29" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="B30" t="s">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="C30" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="B31" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="C31" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B32" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C32" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="B33" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="C33" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>10</v>
+        <v>38</v>
       </c>
       <c r="B34" t="s">
-        <v>11</v>
+        <v>39</v>
       </c>
       <c r="C34" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="s">
-        <v>8</v>
-      </c>
-      <c r="B35" t="s">
-        <v>9</v>
-      </c>
-      <c r="C35" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="s">
-        <v>32</v>
-      </c>
-      <c r="B36" t="s">
-        <v>33</v>
-      </c>
-      <c r="C36" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="s">
-        <v>8</v>
-      </c>
-      <c r="B37" t="s">
-        <v>13</v>
-      </c>
-      <c r="C37" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="s">
-        <v>14</v>
-      </c>
-      <c r="B38" t="s">
-        <v>15</v>
-      </c>
-      <c r="C38" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="s">
-        <v>8</v>
-      </c>
-      <c r="B39" t="s">
-        <v>9</v>
-      </c>
-      <c r="C39" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="s">
-        <v>17</v>
-      </c>
-      <c r="B40" t="s">
-        <v>18</v>
-      </c>
-      <c r="C40" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="s">
-        <v>10</v>
-      </c>
-      <c r="B41" t="s">
-        <v>11</v>
-      </c>
-      <c r="C41" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="s">
-        <v>27</v>
-      </c>
-      <c r="B42" t="s">
-        <v>28</v>
-      </c>
-      <c r="C42" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -943,16 +858,16 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="E1" t="s">
         <v>2</v>
@@ -973,120 +888,120 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="C1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="D1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="E1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="F1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="G1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="H1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="I1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="J1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="K1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="L1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="M1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="N1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="O1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="P1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="Q1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="R1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="S1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>62</v>
+        <v>28</v>
       </c>
       <c r="B2" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="C2" t="s">
-        <v>62</v>
+        <v>5</v>
       </c>
       <c r="D2" t="s">
-        <v>62</v>
+        <v>8</v>
       </c>
       <c r="E2" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="F2" t="s">
-        <v>62</v>
+        <v>28</v>
       </c>
       <c r="G2" t="s">
-        <v>62</v>
+        <v>28</v>
       </c>
       <c r="H2" t="s">
-        <v>62</v>
+        <v>28</v>
       </c>
       <c r="I2" t="s">
-        <v>62</v>
+        <v>28</v>
       </c>
       <c r="J2" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="K2" t="s">
-        <v>62</v>
+        <v>5</v>
       </c>
       <c r="L2" t="s">
-        <v>62</v>
+        <v>28</v>
       </c>
       <c r="M2" t="s">
-        <v>62</v>
+        <v>8</v>
       </c>
       <c r="N2" t="s">
-        <v>62</v>
+        <v>28</v>
       </c>
       <c r="O2" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="P2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="Q2" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="R2" t="s">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="S2" t="s">
-        <v>62</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -1096,7 +1011,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:L4"/>
+  <dimension ref="A1:L3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1104,40 +1019,40 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="F1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="H1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="J1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="K1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="L1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="2">
@@ -1151,7 +1066,7 @@
         <v>0.0</v>
       </c>
       <c r="D2" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="E2" t="n">
         <v>0.0</v>
@@ -1175,12 +1090,12 @@
         <v>0.0</v>
       </c>
       <c r="L2" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="n">
-        <v>1.0</v>
+      <c r="A3" t="s">
+        <v>77</v>
       </c>
       <c r="B3" t="n">
         <v>0.0</v>
@@ -1214,44 +1129,6 @@
       </c>
       <c r="L3" t="n">
         <v>1.0</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s">
-        <v>75</v>
-      </c>
-      <c r="B4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D4" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="L4" t="n">
-        <v>3.0</v>
       </c>
     </row>
   </sheetData>
@@ -1261,7 +1138,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:M3"/>
+  <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1272,45 +1149,45 @@
         <v>2</v>
       </c>
       <c r="B1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="G1" t="s">
+        <v>83</v>
+      </c>
+      <c r="H1" t="s">
         <v>81</v>
       </c>
-      <c r="H1" t="s">
-        <v>79</v>
-      </c>
       <c r="I1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="J1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="K1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="L1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="M1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>6.0</v>
+        <v>4.0</v>
       </c>
       <c r="B2" t="n">
         <v>0.0</v>
@@ -1319,7 +1196,7 @@
         <v>0.0</v>
       </c>
       <c r="D2" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="E2" t="n">
         <v>0.0</v>
@@ -1343,50 +1220,9 @@
         <v>0.0</v>
       </c>
       <c r="L2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="M2" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>7.0</v>
-      </c>
-      <c r="B3" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="L3" t="s">
-        <v>88</v>
-      </c>
-      <c r="M3" t="n">
         <v>0.0</v>
       </c>
     </row>
@@ -1397,7 +1233,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G14"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1405,68 +1241,68 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E1" t="s">
         <v>2</v>
       </c>
       <c r="F1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="G1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1140.0</v>
+        <v>1130.0</v>
       </c>
       <c r="B2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>96</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="E2" t="n">
         <v>4.0</v>
       </c>
       <c r="F2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="G2" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1130.0</v>
+        <v>1090.0</v>
       </c>
       <c r="B3" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C3" t="s">
         <v>96</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E3" t="n">
-        <v>6.0</v>
+        <v>4.0</v>
       </c>
       <c r="F3" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="G3" t="n">
         <v>0.0</v>
@@ -1474,22 +1310,22 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1130.0</v>
+        <v>1020.0</v>
       </c>
       <c r="B4" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C4" t="s">
-        <v>96</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="E4" t="n">
-        <v>6.0</v>
+        <v>4.0</v>
       </c>
       <c r="F4" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="G4" t="n">
         <v>0.0</v>
@@ -1497,22 +1333,22 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1100.0</v>
+        <v>1130.0</v>
       </c>
       <c r="B5" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C5" t="s">
         <v>96</v>
       </c>
       <c r="D5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E5" t="n">
-        <v>6.0</v>
+        <v>5.0</v>
       </c>
       <c r="F5" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="G5" t="n">
         <v>0.0</v>
@@ -1520,22 +1356,22 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1120.0</v>
+        <v>1011.0</v>
       </c>
       <c r="B6" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C6" t="s">
         <v>96</v>
       </c>
       <c r="D6" t="s">
-        <v>13</v>
+        <v>98</v>
       </c>
       <c r="E6" t="n">
-        <v>6.0</v>
+        <v>5.0</v>
       </c>
       <c r="F6" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="G6" t="n">
         <v>0.0</v>
@@ -1543,22 +1379,22 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>1090.0</v>
+        <v>1130.0</v>
       </c>
       <c r="B7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C7" t="s">
         <v>96</v>
       </c>
       <c r="D7" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E7" t="n">
         <v>6.0</v>
       </c>
       <c r="F7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="G7" t="n">
         <v>0.0</v>
@@ -1566,22 +1402,22 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>1130.0</v>
+        <v>1011.0</v>
       </c>
       <c r="B8" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C8" t="s">
         <v>96</v>
       </c>
       <c r="D8" t="s">
-        <v>9</v>
+        <v>99</v>
       </c>
       <c r="E8" t="n">
-        <v>7.0</v>
+        <v>6.0</v>
       </c>
       <c r="F8" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="G8" t="n">
         <v>0.0</v>
@@ -1592,19 +1428,19 @@
         <v>1130.0</v>
       </c>
       <c r="B9" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C9" t="s">
         <v>96</v>
       </c>
       <c r="D9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E9" t="n">
         <v>7.0</v>
       </c>
       <c r="F9" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="G9" t="n">
         <v>0.0</v>
@@ -1612,116 +1448,24 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>1130.0</v>
+        <v>1180.0</v>
       </c>
       <c r="B10" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C10" t="s">
         <v>96</v>
       </c>
       <c r="D10" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E10" t="n">
         <v>7.0</v>
       </c>
       <c r="F10" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="G10" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>1100.0</v>
-      </c>
-      <c r="B11" t="s">
-        <v>94</v>
-      </c>
-      <c r="C11" t="s">
-        <v>96</v>
-      </c>
-      <c r="D11" t="s">
-        <v>13</v>
-      </c>
-      <c r="E11" t="n">
-        <v>7.0</v>
-      </c>
-      <c r="F11" t="s">
-        <v>95</v>
-      </c>
-      <c r="G11" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
-        <v>1120.0</v>
-      </c>
-      <c r="B12" t="s">
-        <v>94</v>
-      </c>
-      <c r="C12" t="s">
-        <v>96</v>
-      </c>
-      <c r="D12" t="s">
-        <v>13</v>
-      </c>
-      <c r="E12" t="n">
-        <v>7.0</v>
-      </c>
-      <c r="F12" t="s">
-        <v>95</v>
-      </c>
-      <c r="G12" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
-        <v>1090.0</v>
-      </c>
-      <c r="B13" t="s">
-        <v>94</v>
-      </c>
-      <c r="C13" t="s">
-        <v>96</v>
-      </c>
-      <c r="D13" t="s">
-        <v>9</v>
-      </c>
-      <c r="E13" t="n">
-        <v>7.0</v>
-      </c>
-      <c r="F13" t="s">
-        <v>95</v>
-      </c>
-      <c r="G13" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
-        <v>1020.0</v>
-      </c>
-      <c r="B14" t="s">
-        <v>94</v>
-      </c>
-      <c r="C14" t="s">
-        <v>33</v>
-      </c>
-      <c r="D14" t="s">
-        <v>33</v>
-      </c>
-      <c r="E14" t="n">
-        <v>7.0</v>
-      </c>
-      <c r="F14" t="s">
-        <v>95</v>
-      </c>
-      <c r="G14" t="n">
         <v>0.0</v>
       </c>
     </row>
@@ -1740,19 +1484,19 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="C1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="D1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="E1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
   </sheetData>
@@ -1762,7 +1506,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1770,257 +1514,223 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="C1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="D1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="E1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B2" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B3" t="s">
-        <v>106</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="D3" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E3" t="s">
-        <v>94</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>94</v>
+        <v>109</v>
       </c>
       <c r="B4" t="s">
-        <v>94</v>
+        <v>33</v>
       </c>
       <c r="C4" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="D4" t="s">
-        <v>94</v>
+        <v>34</v>
       </c>
       <c r="E4" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>108</v>
+        <v>95</v>
       </c>
       <c r="B5" t="s">
-        <v>13</v>
+        <v>110</v>
       </c>
       <c r="C5" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="D5" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E5" t="s">
-        <v>94</v>
+        <v>111</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="B6" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="C6" t="s">
-        <v>94</v>
+        <v>12</v>
       </c>
       <c r="D6" t="s">
-        <v>94</v>
+        <v>31</v>
       </c>
       <c r="E6" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B7" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="C7" t="s">
-        <v>13</v>
+        <v>99</v>
       </c>
       <c r="D7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E7" t="s">
-        <v>94</v>
+        <v>113</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B8" t="s">
-        <v>94</v>
+        <v>36</v>
       </c>
       <c r="C8" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="D8" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E8" t="s">
-        <v>107</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B9" t="s">
-        <v>37</v>
+        <v>114</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>95</v>
       </c>
       <c r="D9" t="s">
-        <v>30</v>
+        <v>95</v>
       </c>
       <c r="E9" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>94</v>
+        <v>113</v>
       </c>
       <c r="B10" t="s">
-        <v>35</v>
+        <v>95</v>
       </c>
       <c r="C10" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="D10" t="s">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="E10" t="s">
-        <v>111</v>
+        <v>95</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B11" t="s">
-        <v>33</v>
+        <v>114</v>
       </c>
       <c r="C11" t="s">
-        <v>9</v>
+        <v>95</v>
       </c>
       <c r="D11" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E11" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>94</v>
+        <v>111</v>
       </c>
       <c r="B12" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="C12" t="s">
-        <v>13</v>
+        <v>95</v>
       </c>
       <c r="D12" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E12" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>94</v>
+        <v>115</v>
       </c>
       <c r="B13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C13" t="s">
-        <v>9</v>
+        <v>95</v>
       </c>
       <c r="D13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E13" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="s">
-        <v>94</v>
-      </c>
-      <c r="B14" t="s">
-        <v>33</v>
-      </c>
-      <c r="C14" t="s">
-        <v>9</v>
-      </c>
-      <c r="D14" t="s">
-        <v>94</v>
-      </c>
-      <c r="E14" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="s">
-        <v>113</v>
-      </c>
-      <c r="B15" t="s">
-        <v>94</v>
-      </c>
-      <c r="C15" t="s">
-        <v>94</v>
-      </c>
-      <c r="D15" t="s">
-        <v>94</v>
-      </c>
-      <c r="E15" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
   </sheetData>
@@ -2030,7 +1740,7 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:Y4"/>
+  <dimension ref="A1:Y3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2038,58 +1748,58 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E1" t="s">
+        <v>117</v>
+      </c>
+      <c r="F1" t="s">
+        <v>118</v>
+      </c>
+      <c r="G1" t="s">
+        <v>82</v>
+      </c>
+      <c r="H1" t="s">
+        <v>119</v>
+      </c>
+      <c r="I1" t="s">
+        <v>85</v>
+      </c>
+      <c r="J1" t="s">
+        <v>120</v>
+      </c>
+      <c r="K1" t="s">
+        <v>121</v>
+      </c>
+      <c r="L1" t="s">
+        <v>26</v>
+      </c>
+      <c r="M1" t="s">
+        <v>122</v>
+      </c>
+      <c r="N1" t="s">
+        <v>123</v>
+      </c>
+      <c r="O1" t="s">
+        <v>124</v>
+      </c>
+      <c r="P1" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>110</v>
+      </c>
+      <c r="R1" t="s">
         <v>114</v>
-      </c>
-      <c r="B1" t="s">
-        <v>78</v>
-      </c>
-      <c r="C1" t="s">
-        <v>79</v>
-      </c>
-      <c r="D1" t="s">
-        <v>77</v>
-      </c>
-      <c r="E1" t="s">
-        <v>115</v>
-      </c>
-      <c r="F1" t="s">
-        <v>116</v>
-      </c>
-      <c r="G1" t="s">
-        <v>80</v>
-      </c>
-      <c r="H1" t="s">
-        <v>117</v>
-      </c>
-      <c r="I1" t="s">
-        <v>83</v>
-      </c>
-      <c r="J1" t="s">
-        <v>118</v>
-      </c>
-      <c r="K1" t="s">
-        <v>119</v>
-      </c>
-      <c r="L1" t="s">
-        <v>33</v>
-      </c>
-      <c r="M1" t="s">
-        <v>120</v>
-      </c>
-      <c r="N1" t="s">
-        <v>121</v>
-      </c>
-      <c r="O1" t="s">
-        <v>122</v>
-      </c>
-      <c r="P1" t="s">
-        <v>123</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>124</v>
-      </c>
-      <c r="R1" t="s">
-        <v>125</v>
       </c>
       <c r="S1" t="s">
         <v>126</v>
@@ -2107,10 +1817,10 @@
         <v>130</v>
       </c>
       <c r="X1" t="s">
-        <v>105</v>
+        <v>131</v>
       </c>
       <c r="Y1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="2">
@@ -2118,23 +1828,23 @@
         <v>0.0</v>
       </c>
       <c r="B2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G2" t="n">
         <v>2.0</v>
       </c>
-      <c r="C2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0.0</v>
-      </c>
       <c r="H2" t="n">
         <v>0.0</v>
       </c>
@@ -2145,29 +1855,29 @@
         <v>0.0</v>
       </c>
       <c r="K2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="M2" t="n">
         <v>2.0</v>
       </c>
-      <c r="L2" t="n">
+      <c r="N2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="Q2" t="n">
         <v>2.0</v>
       </c>
-      <c r="M2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="O2" t="n">
+      <c r="R2" t="n">
         <v>2.0</v>
       </c>
-      <c r="P2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="R2" t="n">
-        <v>0.0</v>
-      </c>
       <c r="S2" t="n">
         <v>0.0</v>
       </c>
@@ -2181,69 +1891,69 @@
         <v>0.0</v>
       </c>
       <c r="W2" t="n">
-        <v>0.0</v>
+        <v>4.0</v>
       </c>
       <c r="X2" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="Y2" t="n">
         <v>1.0</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="n">
+      <c r="A3" t="s">
+        <v>132</v>
+      </c>
+      <c r="B3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L3" t="n">
         <v>1.0</v>
       </c>
-      <c r="B3" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="K3" t="n">
+      <c r="M3" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P3" t="n">
         <v>1.0</v>
       </c>
-      <c r="L3" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0.0</v>
-      </c>
       <c r="Q3" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="S3" t="n">
         <v>0.0</v>
@@ -2258,89 +1968,12 @@
         <v>0.0</v>
       </c>
       <c r="W3" t="n">
-        <v>0.0</v>
+        <v>4.0</v>
       </c>
       <c r="X3" t="n">
         <v>0.0</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s">
-        <v>131</v>
-      </c>
-      <c r="B4" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="K4" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="L4" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="O4" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="P4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="R4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="S4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="T4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="U4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="V4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="W4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="X4" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="Y4" t="n">
         <v>1.0</v>
       </c>
     </row>

--- a/src/Excel/Yañez_Gonzalez_Christian_Emmanuel.xlsx
+++ b/src/Excel/Yañez_Gonzalez_Christian_Emmanuel.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="134">
   <si>
     <t>Estado</t>
   </si>
@@ -31,195 +31,192 @@
     <t>Linea</t>
   </si>
   <si>
-    <t>-2</t>
-  </si>
-  <si>
-    <t>//17</t>
+    <t>-97</t>
+  </si>
+  <si>
+    <t>INT</t>
   </si>
   <si>
     <t>1</t>
   </si>
   <si>
-    <t>-97</t>
-  </si>
-  <si>
-    <t>INT</t>
+    <t>-68</t>
+  </si>
+  <si>
+    <t>:</t>
+  </si>
+  <si>
+    <t>-1</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>-46</t>
+  </si>
+  <si>
+    <t>;</t>
+  </si>
+  <si>
+    <t>-61</t>
+  </si>
+  <si>
+    <t>main</t>
   </si>
   <si>
     <t>2</t>
   </si>
   <si>
-    <t>-68</t>
-  </si>
-  <si>
-    <t>:</t>
-  </si>
-  <si>
-    <t>-1</t>
-  </si>
-  <si>
-    <t>x</t>
-  </si>
-  <si>
-    <t>-46</t>
-  </si>
-  <si>
-    <t>;</t>
-  </si>
-  <si>
-    <t>-61</t>
-  </si>
-  <si>
-    <t>main</t>
+    <t>-49</t>
+  </si>
+  <si>
+    <t>(</t>
+  </si>
+  <si>
+    <t>-50</t>
+  </si>
+  <si>
+    <t>)</t>
+  </si>
+  <si>
+    <t>-53</t>
+  </si>
+  <si>
+    <t>{</t>
   </si>
   <si>
     <t>3</t>
   </si>
   <si>
-    <t>-49</t>
-  </si>
-  <si>
-    <t>(</t>
-  </si>
-  <si>
-    <t>-50</t>
-  </si>
-  <si>
-    <t>)</t>
-  </si>
-  <si>
-    <t>-53</t>
-  </si>
-  <si>
-    <t>{</t>
+    <t>-55</t>
+  </si>
+  <si>
+    <t>=</t>
+  </si>
+  <si>
+    <t>-19</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>-6</t>
+  </si>
+  <si>
+    <t>while</t>
   </si>
   <si>
     <t>4</t>
   </si>
   <si>
-    <t>-55</t>
-  </si>
-  <si>
-    <t>=</t>
-  </si>
-  <si>
-    <t>-19</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>-6</t>
-  </si>
-  <si>
-    <t>while</t>
+    <t>-36</t>
+  </si>
+  <si>
+    <t>&lt;</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>-8</t>
+  </si>
+  <si>
+    <t>for</t>
   </si>
   <si>
     <t>5</t>
   </si>
   <si>
-    <t>-36</t>
-  </si>
-  <si>
-    <t>&lt;</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
     <t>-30</t>
   </si>
   <si>
     <t>++</t>
   </si>
   <si>
+    <t>-24</t>
+  </si>
+  <si>
+    <t>+</t>
+  </si>
+  <si>
+    <t>-54</t>
+  </si>
+  <si>
+    <t>}</t>
+  </si>
+  <si>
     <t>7</t>
   </si>
   <si>
-    <t>-54</t>
-  </si>
-  <si>
-    <t>}</t>
+    <t>Token</t>
+  </si>
+  <si>
+    <t>Descripción</t>
+  </si>
+  <si>
+    <t>Tipo</t>
+  </si>
+  <si>
+    <t>Erroes</t>
+  </si>
+  <si>
+    <t>Identificadores</t>
+  </si>
+  <si>
+    <t>Comentarios</t>
+  </si>
+  <si>
+    <t>Palabras reservadas</t>
+  </si>
+  <si>
+    <t>C-Enteras</t>
+  </si>
+  <si>
+    <t>C-Texto</t>
+  </si>
+  <si>
+    <t>C-Decimal</t>
+  </si>
+  <si>
+    <t>C-Carácter</t>
+  </si>
+  <si>
+    <t>C-Exponencial</t>
+  </si>
+  <si>
+    <t>Aritmeticos</t>
+  </si>
+  <si>
+    <t>Monogamo</t>
+  </si>
+  <si>
+    <t>Logico</t>
+  </si>
+  <si>
+    <t>Relacionales</t>
+  </si>
+  <si>
+    <t>Bit</t>
+  </si>
+  <si>
+    <t>Puntuación</t>
+  </si>
+  <si>
+    <t>Agrupación</t>
+  </si>
+  <si>
+    <t>Asignación</t>
+  </si>
+  <si>
+    <t>Sintaxis</t>
+  </si>
+  <si>
+    <t>Funciones</t>
   </si>
   <si>
     <t>8</t>
   </si>
   <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>Token</t>
-  </si>
-  <si>
-    <t>Descripción</t>
-  </si>
-  <si>
-    <t>Tipo</t>
-  </si>
-  <si>
-    <t>Erroes</t>
-  </si>
-  <si>
-    <t>Identificadores</t>
-  </si>
-  <si>
-    <t>Comentarios</t>
-  </si>
-  <si>
-    <t>Palabras reservadas</t>
-  </si>
-  <si>
-    <t>C-Enteras</t>
-  </si>
-  <si>
-    <t>C-Texto</t>
-  </si>
-  <si>
-    <t>C-Decimal</t>
-  </si>
-  <si>
-    <t>C-Carácter</t>
-  </si>
-  <si>
-    <t>C-Exponencial</t>
-  </si>
-  <si>
-    <t>Aritmeticos</t>
-  </si>
-  <si>
-    <t>Monogamo</t>
-  </si>
-  <si>
-    <t>Logico</t>
-  </si>
-  <si>
-    <t>Relacionales</t>
-  </si>
-  <si>
-    <t>Bit</t>
-  </si>
-  <si>
-    <t>Puntuación</t>
-  </si>
-  <si>
-    <t>Agrupación</t>
-  </si>
-  <si>
-    <t>Asignación</t>
-  </si>
-  <si>
-    <t>Sintaxis</t>
-  </si>
-  <si>
-    <t>Funciones</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
     <t>Ambito</t>
   </si>
   <si>
@@ -292,6 +289,9 @@
     <t xml:space="preserve">x -&gt; </t>
   </si>
   <si>
+    <t>x -&gt;  TE1</t>
+  </si>
+  <si>
     <t>Regla</t>
   </si>
   <si>
@@ -358,10 +358,13 @@
     <t>Whi-E2:</t>
   </si>
   <si>
-    <t>Whi-E3:</t>
-  </si>
-  <si>
-    <t>Whi-E4:</t>
+    <t>For-E1:</t>
+  </si>
+  <si>
+    <t>For-E2:</t>
+  </si>
+  <si>
+    <t>TE1</t>
   </si>
   <si>
     <t>JMP</t>
@@ -463,7 +466,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C34"/>
+  <dimension ref="A1:C39"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -499,40 +502,40 @@
         <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" t="s">
         <v>11</v>
       </c>
-      <c r="B5" t="s">
-        <v>12</v>
-      </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" t="s">
         <v>13</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>14</v>
-      </c>
-      <c r="C6" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="7">
@@ -543,169 +546,169 @@
         <v>16</v>
       </c>
       <c r="C7" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" t="s">
         <v>18</v>
       </c>
-      <c r="B8" t="s">
-        <v>19</v>
-      </c>
       <c r="C8" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" t="s">
         <v>20</v>
       </c>
-      <c r="B9" t="s">
-        <v>21</v>
-      </c>
       <c r="C9" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="B11" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" t="s">
         <v>25</v>
       </c>
-      <c r="B12" t="s">
-        <v>26</v>
-      </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="B13" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="C13" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="B14" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="C15" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="B16" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="C16" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="B17" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="C17" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="B18" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C18" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="C19" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="B20" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="C20" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="B21" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="C21" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="B22" t="s">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="C22" t="s">
         <v>34</v>
@@ -713,10 +716,10 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C23" t="s">
         <v>34</v>
@@ -724,10 +727,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="B24" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="C24" t="s">
         <v>34</v>
@@ -735,10 +738,10 @@
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="B25" t="s">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="C25" t="s">
         <v>34</v>
@@ -746,10 +749,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="B26" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="C26" t="s">
         <v>34</v>
@@ -757,10 +760,10 @@
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="B27" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="C27" t="s">
         <v>34</v>
@@ -768,10 +771,10 @@
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B28" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="C28" t="s">
         <v>34</v>
@@ -779,68 +782,123 @@
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="B29" t="s">
-        <v>36</v>
+        <v>11</v>
       </c>
       <c r="C29" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="B30" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="C30" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B31" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C31" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="B32" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="C32" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>38</v>
+        <v>8</v>
       </c>
       <c r="B33" t="s">
-        <v>39</v>
+        <v>9</v>
       </c>
       <c r="C33" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
+        <v>22</v>
+      </c>
+      <c r="B34" t="s">
+        <v>23</v>
+      </c>
+      <c r="C34" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s">
+        <v>24</v>
+      </c>
+      <c r="B35" t="s">
+        <v>5</v>
+      </c>
+      <c r="C35" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s">
+        <v>37</v>
+      </c>
+      <c r="B36" t="s">
         <v>38</v>
       </c>
-      <c r="B34" t="s">
+      <c r="C36" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s">
+        <v>24</v>
+      </c>
+      <c r="B37" t="s">
+        <v>21</v>
+      </c>
+      <c r="C37" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s">
+        <v>10</v>
+      </c>
+      <c r="B38" t="s">
+        <v>11</v>
+      </c>
+      <c r="C38" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s">
         <v>39</v>
       </c>
-      <c r="C34" t="s">
-        <v>42</v>
+      <c r="B39" t="s">
+        <v>40</v>
+      </c>
+      <c r="C39" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -858,16 +916,16 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B1" t="s">
         <v>43</v>
-      </c>
-      <c r="B1" t="s">
-        <v>44</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E1" t="s">
         <v>2</v>
@@ -888,120 +946,120 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1" t="s">
         <v>46</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>47</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>48</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>49</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>50</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>51</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>52</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>53</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>54</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>55</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>56</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>57</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>58</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>59</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>60</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>61</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>62</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>63</v>
-      </c>
-      <c r="S1" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" t="s">
         <v>31</v>
       </c>
-      <c r="C2" t="s">
+      <c r="F2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J2" t="s">
         <v>5</v>
-      </c>
-      <c r="D2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F2" t="s">
-        <v>28</v>
-      </c>
-      <c r="G2" t="s">
-        <v>28</v>
-      </c>
-      <c r="H2" t="s">
-        <v>28</v>
-      </c>
-      <c r="I2" t="s">
-        <v>28</v>
-      </c>
-      <c r="J2" t="s">
-        <v>28</v>
       </c>
       <c r="K2" t="s">
         <v>5</v>
       </c>
       <c r="L2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="M2" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="N2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="O2" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="P2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="Q2" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="R2" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="S2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -1019,40 +1077,40 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B1" t="s">
         <v>66</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>67</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" t="s">
         <v>68</v>
       </c>
-      <c r="D1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>69</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>70</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>71</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>72</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>73</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>74</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>75</v>
-      </c>
-      <c r="L1" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="2">
@@ -1095,7 +1153,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B3" t="n">
         <v>0.0</v>
@@ -1138,7 +1196,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:M2"/>
+  <dimension ref="A1:M4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1149,45 +1207,45 @@
         <v>2</v>
       </c>
       <c r="B1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C1" t="s">
         <v>78</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>79</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>80</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>81</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>82</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
+        <v>80</v>
+      </c>
+      <c r="I1" t="s">
         <v>83</v>
       </c>
-      <c r="H1" t="s">
-        <v>81</v>
-      </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>84</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>85</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>86</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>87</v>
-      </c>
-      <c r="M1" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c r="B2" t="n">
         <v>0.0</v>
@@ -1220,9 +1278,91 @@
         <v>0.0</v>
       </c>
       <c r="L2" t="s">
+        <v>88</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="B3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L3" t="s">
+        <v>88</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="B4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L4" t="s">
         <v>89</v>
       </c>
-      <c r="M2" t="n">
+      <c r="M4" t="n">
         <v>0.0</v>
       </c>
     </row>
@@ -1233,7 +1373,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1259,7 +1399,7 @@
         <v>94</v>
       </c>
       <c r="G1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="2">
@@ -1273,10 +1413,10 @@
         <v>96</v>
       </c>
       <c r="D2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E2" t="n">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c r="F2" t="s">
         <v>97</v>
@@ -1296,10 +1436,10 @@
         <v>96</v>
       </c>
       <c r="D3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E3" t="n">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c r="F3" t="s">
         <v>97</v>
@@ -1316,13 +1456,13 @@
         <v>95</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E4" t="n">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c r="F4" t="s">
         <v>97</v>
@@ -1342,10 +1482,10 @@
         <v>96</v>
       </c>
       <c r="D5" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E5" t="n">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
       <c r="F5" t="s">
         <v>97</v>
@@ -1368,7 +1508,7 @@
         <v>98</v>
       </c>
       <c r="E6" t="n">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
       <c r="F6" t="s">
         <v>97</v>
@@ -1388,10 +1528,10 @@
         <v>96</v>
       </c>
       <c r="D7" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E7" t="n">
-        <v>6.0</v>
+        <v>5.0</v>
       </c>
       <c r="F7" t="s">
         <v>97</v>
@@ -1402,7 +1542,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>1011.0</v>
+        <v>1090.0</v>
       </c>
       <c r="B8" t="s">
         <v>95</v>
@@ -1411,10 +1551,10 @@
         <v>96</v>
       </c>
       <c r="D8" t="s">
-        <v>99</v>
+        <v>9</v>
       </c>
       <c r="E8" t="n">
-        <v>6.0</v>
+        <v>5.0</v>
       </c>
       <c r="F8" t="s">
         <v>97</v>
@@ -1425,19 +1565,19 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>1130.0</v>
+        <v>1020.0</v>
       </c>
       <c r="B9" t="s">
         <v>95</v>
       </c>
       <c r="C9" t="s">
-        <v>96</v>
+        <v>23</v>
       </c>
       <c r="D9" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="E9" t="n">
-        <v>7.0</v>
+        <v>5.0</v>
       </c>
       <c r="F9" t="s">
         <v>97</v>
@@ -1448,24 +1588,185 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>1180.0</v>
+        <v>1080.0</v>
       </c>
       <c r="B10" t="s">
         <v>95</v>
       </c>
       <c r="C10" t="s">
-        <v>96</v>
+        <v>23</v>
       </c>
       <c r="D10" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E10" t="n">
-        <v>7.0</v>
+        <v>5.0</v>
       </c>
       <c r="F10" t="s">
         <v>97</v>
       </c>
       <c r="G10" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>1130.0</v>
+      </c>
+      <c r="B11" t="s">
+        <v>95</v>
+      </c>
+      <c r="C11" t="s">
+        <v>96</v>
+      </c>
+      <c r="D11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E11" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="F11" t="s">
+        <v>97</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>1081.0</v>
+      </c>
+      <c r="B12" t="s">
+        <v>95</v>
+      </c>
+      <c r="C12" t="s">
+        <v>96</v>
+      </c>
+      <c r="D12" t="s">
+        <v>99</v>
+      </c>
+      <c r="E12" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="F12" t="s">
+        <v>97</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>1130.0</v>
+      </c>
+      <c r="B13" t="s">
+        <v>95</v>
+      </c>
+      <c r="C13" t="s">
+        <v>96</v>
+      </c>
+      <c r="D13" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="F13" t="s">
+        <v>97</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>1180.0</v>
+      </c>
+      <c r="B14" t="s">
+        <v>95</v>
+      </c>
+      <c r="C14" t="s">
+        <v>96</v>
+      </c>
+      <c r="D14" t="s">
+        <v>9</v>
+      </c>
+      <c r="E14" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="F14" t="s">
+        <v>97</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>1082.0</v>
+      </c>
+      <c r="B15" t="s">
+        <v>95</v>
+      </c>
+      <c r="C15" t="s">
+        <v>96</v>
+      </c>
+      <c r="D15" t="s">
+        <v>9</v>
+      </c>
+      <c r="E15" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="F15" t="s">
+        <v>97</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>1130.0</v>
+      </c>
+      <c r="B16" t="s">
+        <v>95</v>
+      </c>
+      <c r="C16" t="s">
+        <v>96</v>
+      </c>
+      <c r="D16" t="s">
+        <v>9</v>
+      </c>
+      <c r="E16" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="F16" t="s">
+        <v>97</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>1090.0</v>
+      </c>
+      <c r="B17" t="s">
+        <v>95</v>
+      </c>
+      <c r="C17" t="s">
+        <v>96</v>
+      </c>
+      <c r="D17" t="s">
+        <v>9</v>
+      </c>
+      <c r="E17" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="F17" t="s">
+        <v>97</v>
+      </c>
+      <c r="G17" t="n">
         <v>0.0</v>
       </c>
     </row>
@@ -1496,7 +1797,7 @@
         <v>102</v>
       </c>
       <c r="E1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -1506,7 +1807,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1534,7 +1835,7 @@
         <v>108</v>
       </c>
       <c r="B2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C2" t="s">
         <v>95</v>
@@ -1551,16 +1852,16 @@
         <v>95</v>
       </c>
       <c r="B3" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
         <v>95</v>
       </c>
       <c r="E3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4">
@@ -1568,13 +1869,13 @@
         <v>109</v>
       </c>
       <c r="B4" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C4" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E4" t="s">
         <v>98</v>
@@ -1599,36 +1900,36 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>112</v>
+        <v>95</v>
       </c>
       <c r="B6" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>31</v>
+        <v>95</v>
       </c>
       <c r="E6" t="s">
-        <v>99</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>95</v>
+        <v>112</v>
       </c>
       <c r="B7" t="s">
-        <v>110</v>
+        <v>30</v>
       </c>
       <c r="C7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" t="s">
+        <v>31</v>
+      </c>
+      <c r="E7" t="s">
         <v>99</v>
-      </c>
-      <c r="D7" t="s">
-        <v>95</v>
-      </c>
-      <c r="E7" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="8">
@@ -1636,16 +1937,16 @@
         <v>95</v>
       </c>
       <c r="B8" t="s">
-        <v>36</v>
+        <v>110</v>
       </c>
       <c r="C8" t="s">
-        <v>12</v>
+        <v>99</v>
       </c>
       <c r="D8" t="s">
         <v>95</v>
       </c>
       <c r="E8" t="s">
-        <v>12</v>
+        <v>113</v>
       </c>
     </row>
     <row r="9">
@@ -1653,33 +1954,33 @@
         <v>95</v>
       </c>
       <c r="B9" t="s">
+        <v>38</v>
+      </c>
+      <c r="C9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9" t="s">
         <v>114</v>
-      </c>
-      <c r="C9" t="s">
-        <v>95</v>
-      </c>
-      <c r="D9" t="s">
-        <v>95</v>
-      </c>
-      <c r="E9" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>113</v>
+        <v>95</v>
       </c>
       <c r="B10" t="s">
-        <v>95</v>
+        <v>23</v>
       </c>
       <c r="C10" t="s">
-        <v>95</v>
+        <v>9</v>
       </c>
       <c r="D10" t="s">
         <v>95</v>
       </c>
       <c r="E10" t="s">
-        <v>95</v>
+        <v>114</v>
       </c>
     </row>
     <row r="11">
@@ -1687,24 +1988,24 @@
         <v>95</v>
       </c>
       <c r="B11" t="s">
-        <v>114</v>
+        <v>36</v>
       </c>
       <c r="C11" t="s">
-        <v>95</v>
+        <v>9</v>
       </c>
       <c r="D11" t="s">
         <v>95</v>
       </c>
       <c r="E11" t="s">
-        <v>109</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>111</v>
+        <v>95</v>
       </c>
       <c r="B12" t="s">
-        <v>95</v>
+        <v>115</v>
       </c>
       <c r="C12" t="s">
         <v>95</v>
@@ -1713,23 +2014,74 @@
         <v>95</v>
       </c>
       <c r="E12" t="s">
-        <v>95</v>
+        <v>112</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
+        <v>113</v>
+      </c>
+      <c r="B13" t="s">
+        <v>95</v>
+      </c>
+      <c r="C13" t="s">
+        <v>95</v>
+      </c>
+      <c r="D13" t="s">
+        <v>95</v>
+      </c>
+      <c r="E13" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>95</v>
+      </c>
+      <c r="B14" t="s">
         <v>115</v>
       </c>
-      <c r="B13" t="s">
-        <v>95</v>
-      </c>
-      <c r="C13" t="s">
-        <v>95</v>
-      </c>
-      <c r="D13" t="s">
-        <v>95</v>
-      </c>
-      <c r="E13" t="s">
+      <c r="C14" t="s">
+        <v>95</v>
+      </c>
+      <c r="D14" t="s">
+        <v>95</v>
+      </c>
+      <c r="E14" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>111</v>
+      </c>
+      <c r="B15" t="s">
+        <v>95</v>
+      </c>
+      <c r="C15" t="s">
+        <v>95</v>
+      </c>
+      <c r="D15" t="s">
+        <v>95</v>
+      </c>
+      <c r="E15" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>116</v>
+      </c>
+      <c r="B16" t="s">
+        <v>95</v>
+      </c>
+      <c r="C16" t="s">
+        <v>95</v>
+      </c>
+      <c r="D16" t="s">
+        <v>95</v>
+      </c>
+      <c r="E16" t="s">
         <v>95</v>
       </c>
     </row>
@@ -1748,76 +2100,76 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C1" t="s">
         <v>80</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E1" t="s">
+        <v>118</v>
+      </c>
+      <c r="F1" t="s">
+        <v>119</v>
+      </c>
+      <c r="G1" t="s">
         <v>81</v>
       </c>
-      <c r="D1" t="s">
-        <v>79</v>
-      </c>
-      <c r="E1" t="s">
-        <v>117</v>
-      </c>
-      <c r="F1" t="s">
-        <v>118</v>
-      </c>
-      <c r="G1" t="s">
-        <v>82</v>
-      </c>
       <c r="H1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="I1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="K1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="L1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="M1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="N1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="O1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="P1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="Q1" t="s">
         <v>110</v>
       </c>
       <c r="R1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="S1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="T1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="U1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="V1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="W1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="X1" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="Y1" t="s">
         <v>108</v>
@@ -1828,7 +2180,7 @@
         <v>0.0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="C2" t="n">
         <v>0.0</v>
@@ -1858,7 +2210,7 @@
         <v>0.0</v>
       </c>
       <c r="L2" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="M2" t="n">
         <v>2.0</v>
@@ -1867,7 +2219,7 @@
         <v>0.0</v>
       </c>
       <c r="O2" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="P2" t="n">
         <v>1.0</v>
@@ -1876,22 +2228,22 @@
         <v>2.0</v>
       </c>
       <c r="R2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="S2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V2" t="n">
         <v>2.0</v>
       </c>
-      <c r="S2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="T2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="U2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="V2" t="n">
-        <v>0.0</v>
-      </c>
       <c r="W2" t="n">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
       <c r="X2" t="n">
         <v>0.0</v>
@@ -1902,10 +2254,10 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="C3" t="n">
         <v>0.0</v>
@@ -1935,7 +2287,7 @@
         <v>0.0</v>
       </c>
       <c r="L3" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="M3" t="n">
         <v>2.0</v>
@@ -1944,7 +2296,7 @@
         <v>0.0</v>
       </c>
       <c r="O3" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="P3" t="n">
         <v>1.0</v>
@@ -1953,22 +2305,22 @@
         <v>2.0</v>
       </c>
       <c r="R3" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="S3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V3" t="n">
         <v>2.0</v>
       </c>
-      <c r="S3" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="T3" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="U3" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="V3" t="n">
-        <v>0.0</v>
-      </c>
       <c r="W3" t="n">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
       <c r="X3" t="n">
         <v>0.0</v>

--- a/src/Excel/Yañez_Gonzalez_Christian_Emmanuel.xlsx
+++ b/src/Excel/Yañez_Gonzalez_Christian_Emmanuel.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="146">
   <si>
     <t>Estado</t>
   </si>
@@ -31,13 +31,22 @@
     <t>Linea</t>
   </si>
   <si>
+    <t>-2</t>
+  </si>
+  <si>
+    <t>//28</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
     <t>-97</t>
   </si>
   <si>
     <t>INT</t>
   </si>
   <si>
-    <t>1</t>
+    <t>2</t>
   </si>
   <si>
     <t>-68</t>
@@ -49,7 +58,19 @@
     <t>-1</t>
   </si>
   <si>
-    <t>x</t>
+    <t>a</t>
+  </si>
+  <si>
+    <t>-47</t>
+  </si>
+  <si>
+    <t>,</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>c</t>
   </si>
   <si>
     <t>-46</t>
@@ -64,7 +85,7 @@
     <t>main</t>
   </si>
   <si>
-    <t>2</t>
+    <t>3</t>
   </si>
   <si>
     <t>-49</t>
@@ -85,7 +106,55 @@
     <t>{</t>
   </si>
   <si>
-    <t>3</t>
+    <t>-4</t>
+  </si>
+  <si>
+    <t>if</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>-19</t>
+  </si>
+  <si>
+    <t>-38</t>
+  </si>
+  <si>
+    <t>&gt;</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>-56</t>
+  </si>
+  <si>
+    <t>+=</t>
+  </si>
+  <si>
+    <t>-54</t>
+  </si>
+  <si>
+    <t>}</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>-95</t>
+  </si>
+  <si>
+    <t>else</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>9</t>
   </si>
   <si>
     <t>-55</t>
@@ -94,127 +163,88 @@
     <t>=</t>
   </si>
   <si>
-    <t>-19</t>
+    <t>-24</t>
+  </si>
+  <si>
+    <t>+</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>Token</t>
+  </si>
+  <si>
+    <t>Descripción</t>
+  </si>
+  <si>
+    <t>Tipo</t>
+  </si>
+  <si>
+    <t>Erroes</t>
+  </si>
+  <si>
+    <t>Identificadores</t>
+  </si>
+  <si>
+    <t>Comentarios</t>
+  </si>
+  <si>
+    <t>Palabras reservadas</t>
+  </si>
+  <si>
+    <t>C-Enteras</t>
+  </si>
+  <si>
+    <t>C-Texto</t>
+  </si>
+  <si>
+    <t>C-Decimal</t>
+  </si>
+  <si>
+    <t>C-Carácter</t>
+  </si>
+  <si>
+    <t>C-Exponencial</t>
+  </si>
+  <si>
+    <t>Aritmeticos</t>
+  </si>
+  <si>
+    <t>Monogamo</t>
+  </si>
+  <si>
+    <t>Logico</t>
+  </si>
+  <si>
+    <t>Relacionales</t>
+  </si>
+  <si>
+    <t>Bit</t>
+  </si>
+  <si>
+    <t>Puntuación</t>
+  </si>
+  <si>
+    <t>Agrupación</t>
+  </si>
+  <si>
+    <t>Asignación</t>
+  </si>
+  <si>
+    <t>Sintaxis</t>
+  </si>
+  <si>
+    <t>Funciones</t>
   </si>
   <si>
     <t>0</t>
   </si>
   <si>
-    <t>-6</t>
-  </si>
-  <si>
-    <t>while</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>-36</t>
-  </si>
-  <si>
-    <t>&lt;</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>-8</t>
-  </si>
-  <si>
-    <t>for</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>-30</t>
-  </si>
-  <si>
-    <t>++</t>
-  </si>
-  <si>
-    <t>-24</t>
-  </si>
-  <si>
-    <t>+</t>
-  </si>
-  <si>
-    <t>-54</t>
-  </si>
-  <si>
-    <t>}</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>Token</t>
-  </si>
-  <si>
-    <t>Descripción</t>
-  </si>
-  <si>
-    <t>Tipo</t>
-  </si>
-  <si>
-    <t>Erroes</t>
-  </si>
-  <si>
-    <t>Identificadores</t>
-  </si>
-  <si>
-    <t>Comentarios</t>
-  </si>
-  <si>
-    <t>Palabras reservadas</t>
-  </si>
-  <si>
-    <t>C-Enteras</t>
-  </si>
-  <si>
-    <t>C-Texto</t>
-  </si>
-  <si>
-    <t>C-Decimal</t>
-  </si>
-  <si>
-    <t>C-Carácter</t>
-  </si>
-  <si>
-    <t>C-Exponencial</t>
-  </si>
-  <si>
-    <t>Aritmeticos</t>
-  </si>
-  <si>
-    <t>Monogamo</t>
-  </si>
-  <si>
-    <t>Logico</t>
-  </si>
-  <si>
-    <t>Relacionales</t>
-  </si>
-  <si>
-    <t>Bit</t>
-  </si>
-  <si>
-    <t>Puntuación</t>
-  </si>
-  <si>
-    <t>Agrupación</t>
-  </si>
-  <si>
-    <t>Asignación</t>
-  </si>
-  <si>
-    <t>Sintaxis</t>
-  </si>
-  <si>
-    <t>Funciones</t>
-  </si>
-  <si>
-    <t>8</t>
+    <t>14</t>
   </si>
   <si>
     <t>Ambito</t>
@@ -286,10 +316,13 @@
     <t>Errores</t>
   </si>
   <si>
-    <t xml:space="preserve">x -&gt; </t>
-  </si>
-  <si>
-    <t>x -&gt;  TE1</t>
+    <t>a -&gt;  TE1</t>
+  </si>
+  <si>
+    <t>b -&gt;  TE1</t>
+  </si>
+  <si>
+    <t>c -&gt;  TE1</t>
   </si>
   <si>
     <t>Regla</t>
@@ -310,15 +343,18 @@
     <t/>
   </si>
   <si>
+    <t>Cont_entero</t>
+  </si>
+  <si>
+    <t>TB1</t>
+  </si>
+  <si>
+    <t>Acept</t>
+  </si>
+  <si>
     <t>id</t>
   </si>
   <si>
-    <t>Acept</t>
-  </si>
-  <si>
-    <t>TB1</t>
-  </si>
-  <si>
     <t>TB2</t>
   </si>
   <si>
@@ -349,58 +385,58 @@
     <t>PPAL</t>
   </si>
   <si>
-    <t>Whi-E1:</t>
-  </si>
-  <si>
     <t>JF</t>
   </si>
   <si>
-    <t>Whi-E2:</t>
-  </si>
-  <si>
-    <t>For-E1:</t>
-  </si>
-  <si>
-    <t>For-E2:</t>
+    <t>if-E1:</t>
   </si>
   <si>
     <t>TE1</t>
   </si>
   <si>
+    <t>if-E2:</t>
+  </si>
+  <si>
+    <t>TE2</t>
+  </si>
+  <si>
+    <t>TE3</t>
+  </si>
+  <si>
+    <t>endmain</t>
+  </si>
+  <si>
+    <t>Ambitos</t>
+  </si>
+  <si>
+    <t>TCH</t>
+  </si>
+  <si>
+    <t>TEX</t>
+  </si>
+  <si>
+    <t>TRX</t>
+  </si>
+  <si>
+    <t>Arr</t>
+  </si>
+  <si>
+    <t>call</t>
+  </si>
+  <si>
+    <t>Op-Rel</t>
+  </si>
+  <si>
+    <t>Ope-Log</t>
+  </si>
+  <si>
+    <t>Oper-Arit</t>
+  </si>
+  <si>
+    <t>Op-Un</t>
+  </si>
+  <si>
     <t>JMP</t>
-  </si>
-  <si>
-    <t>endmain</t>
-  </si>
-  <si>
-    <t>Ambitos</t>
-  </si>
-  <si>
-    <t>TCH</t>
-  </si>
-  <si>
-    <t>TEX</t>
-  </si>
-  <si>
-    <t>TRX</t>
-  </si>
-  <si>
-    <t>Arr</t>
-  </si>
-  <si>
-    <t>call</t>
-  </si>
-  <si>
-    <t>Op-Rel</t>
-  </si>
-  <si>
-    <t>Ope-Log</t>
-  </si>
-  <si>
-    <t>Oper-Arit</t>
-  </si>
-  <si>
-    <t>Op-Un</t>
   </si>
   <si>
     <t>valor</t>
@@ -466,7 +502,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C39"/>
+  <dimension ref="A1:C49"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -502,92 +538,92 @@
         <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" t="s">
         <v>8</v>
-      </c>
-      <c r="B4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C5" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C6" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" t="s">
         <v>15</v>
       </c>
-      <c r="B7" t="s">
-        <v>16</v>
-      </c>
       <c r="C7" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B8" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C8" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C9" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" t="s">
         <v>8</v>
-      </c>
-      <c r="B10" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C11" t="s">
         <v>21</v>
@@ -595,10 +631,10 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C12" t="s">
         <v>21</v>
@@ -606,10 +642,10 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="B13" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
         <v>21</v>
@@ -623,92 +659,92 @@
         <v>27</v>
       </c>
       <c r="C14" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="B15" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="C15" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="C16" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B17" t="s">
+        <v>5</v>
+      </c>
+      <c r="C17" t="s">
         <v>30</v>
-      </c>
-      <c r="C17" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="B18" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C18" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="B19" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C19" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="B20" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="C20" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="B21" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="C21" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B22" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C22" t="s">
         <v>34</v>
@@ -716,10 +752,10 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="B23" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="C23" t="s">
         <v>34</v>
@@ -727,10 +763,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="B24" t="s">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="C24" t="s">
         <v>34</v>
@@ -738,10 +774,10 @@
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="B25" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="C25" t="s">
         <v>34</v>
@@ -749,156 +785,266 @@
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="B26" t="s">
-        <v>9</v>
+        <v>38</v>
       </c>
       <c r="C26" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="B27" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="C27" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B28" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C28" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="B29" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="C29" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B30" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="C30" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="B31" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="C31" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="C32" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="B33" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="C33" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B34" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="C34" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="B35" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="C35" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C36" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="B37" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="C37" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="B38" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="C38" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B39" t="s">
+        <v>38</v>
+      </c>
+      <c r="C39" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s">
         <v>40</v>
       </c>
-      <c r="C39" t="s">
+      <c r="B40" t="s">
         <v>41</v>
+      </c>
+      <c r="C40" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s">
+        <v>26</v>
+      </c>
+      <c r="B41" t="s">
+        <v>27</v>
+      </c>
+      <c r="C41" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s">
+        <v>11</v>
+      </c>
+      <c r="B42" t="s">
+        <v>16</v>
+      </c>
+      <c r="C42" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s">
+        <v>45</v>
+      </c>
+      <c r="B43" t="s">
+        <v>46</v>
+      </c>
+      <c r="C43" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s">
+        <v>11</v>
+      </c>
+      <c r="B44" t="s">
+        <v>12</v>
+      </c>
+      <c r="C44" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s">
+        <v>47</v>
+      </c>
+      <c r="B45" t="s">
+        <v>48</v>
+      </c>
+      <c r="C45" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s">
+        <v>11</v>
+      </c>
+      <c r="B46" t="s">
+        <v>15</v>
+      </c>
+      <c r="C46" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s">
+        <v>17</v>
+      </c>
+      <c r="B47" t="s">
+        <v>18</v>
+      </c>
+      <c r="C47" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s">
+        <v>37</v>
+      </c>
+      <c r="B48" t="s">
+        <v>38</v>
+      </c>
+      <c r="C48" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s">
+        <v>37</v>
+      </c>
+      <c r="B49" t="s">
+        <v>38</v>
+      </c>
+      <c r="C49" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -916,16 +1062,16 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="B1" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="E1" t="s">
         <v>2</v>
@@ -946,120 +1092,120 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="B1" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="C1" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="D1" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="E1" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="F1" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="G1" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="H1" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="I1" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="J1" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="K1" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="L1" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="M1" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="N1" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="O1" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="P1" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="Q1" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="R1" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="S1" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>25</v>
+        <v>73</v>
       </c>
       <c r="B2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="D2" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E2" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="F2" t="s">
-        <v>25</v>
+        <v>73</v>
       </c>
       <c r="G2" t="s">
-        <v>25</v>
+        <v>73</v>
       </c>
       <c r="H2" t="s">
-        <v>25</v>
+        <v>73</v>
       </c>
       <c r="I2" t="s">
-        <v>25</v>
+        <v>73</v>
       </c>
       <c r="J2" t="s">
         <v>5</v>
       </c>
       <c r="K2" t="s">
-        <v>5</v>
+        <v>73</v>
       </c>
       <c r="L2" t="s">
-        <v>25</v>
+        <v>73</v>
       </c>
       <c r="M2" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="N2" t="s">
-        <v>25</v>
+        <v>73</v>
       </c>
       <c r="O2" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="P2" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="Q2" t="s">
         <v>21</v>
       </c>
       <c r="R2" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="S2" t="s">
-        <v>25</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -1077,40 +1223,40 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="B1" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="C1" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="D1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E1" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="F1" t="s">
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="G1" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="H1" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="I1" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="J1" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="K1" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="L1" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
     </row>
     <row r="2">
@@ -1124,7 +1270,7 @@
         <v>0.0</v>
       </c>
       <c r="D2" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="E2" t="n">
         <v>0.0</v>
@@ -1148,12 +1294,12 @@
         <v>0.0</v>
       </c>
       <c r="L2" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="B3" t="n">
         <v>0.0</v>
@@ -1162,7 +1308,7 @@
         <v>0.0</v>
       </c>
       <c r="D3" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="E3" t="n">
         <v>0.0</v>
@@ -1186,7 +1332,7 @@
         <v>0.0</v>
       </c>
       <c r="L3" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
     </row>
   </sheetData>
@@ -1207,45 +1353,45 @@
         <v>2</v>
       </c>
       <c r="B1" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="C1" t="s">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="D1" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="E1" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="F1" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="G1" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="H1" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="I1" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="J1" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="K1" t="s">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="L1" t="s">
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="M1" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
       <c r="B2" t="n">
         <v>0.0</v>
@@ -1254,7 +1400,7 @@
         <v>0.0</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="E2" t="n">
         <v>0.0</v>
@@ -1278,7 +1424,7 @@
         <v>0.0</v>
       </c>
       <c r="L2" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="M2" t="n">
         <v>0.0</v>
@@ -1286,7 +1432,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>5.0</v>
+        <v>7.0</v>
       </c>
       <c r="B3" t="n">
         <v>0.0</v>
@@ -1295,7 +1441,7 @@
         <v>0.0</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="E3" t="n">
         <v>0.0</v>
@@ -1319,7 +1465,7 @@
         <v>0.0</v>
       </c>
       <c r="L3" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="M3" t="n">
         <v>0.0</v>
@@ -1327,7 +1473,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>6.0</v>
+        <v>9.0</v>
       </c>
       <c r="B4" t="n">
         <v>0.0</v>
@@ -1360,7 +1506,7 @@
         <v>0.0</v>
       </c>
       <c r="L4" t="s">
-        <v>89</v>
+        <v>100</v>
       </c>
       <c r="M4" t="n">
         <v>0.0</v>
@@ -1373,7 +1519,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1381,45 +1527,45 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>90</v>
+        <v>101</v>
       </c>
       <c r="B1" t="s">
-        <v>91</v>
+        <v>102</v>
       </c>
       <c r="C1" t="s">
-        <v>92</v>
+        <v>103</v>
       </c>
       <c r="D1" t="s">
-        <v>93</v>
+        <v>104</v>
       </c>
       <c r="E1" t="s">
         <v>2</v>
       </c>
       <c r="F1" t="s">
-        <v>94</v>
+        <v>105</v>
       </c>
       <c r="G1" t="s">
-        <v>65</v>
+        <v>75</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1130.0</v>
+        <v>1010.0</v>
       </c>
       <c r="B2" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="C2" t="s">
-        <v>96</v>
+        <v>107</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>108</v>
       </c>
       <c r="E2" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="F2" t="s">
-        <v>97</v>
+        <v>109</v>
       </c>
       <c r="G2" t="n">
         <v>0.0</v>
@@ -1427,22 +1573,22 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1090.0</v>
+        <v>1130.0</v>
       </c>
       <c r="B3" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="C3" t="s">
-        <v>96</v>
+        <v>110</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E3" t="n">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
       <c r="F3" t="s">
-        <v>97</v>
+        <v>109</v>
       </c>
       <c r="G3" t="n">
         <v>0.0</v>
@@ -1450,22 +1596,22 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1020.0</v>
+        <v>1090.0</v>
       </c>
       <c r="B4" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>110</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="E4" t="n">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
       <c r="F4" t="s">
-        <v>97</v>
+        <v>109</v>
       </c>
       <c r="G4" t="n">
         <v>0.0</v>
@@ -1473,22 +1619,22 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1130.0</v>
+        <v>1021.0</v>
       </c>
       <c r="B5" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="C5" t="s">
-        <v>96</v>
+        <v>36</v>
       </c>
       <c r="D5" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="E5" t="n">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="F5" t="s">
-        <v>97</v>
+        <v>109</v>
       </c>
       <c r="G5" t="n">
         <v>0.0</v>
@@ -1496,22 +1642,22 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1011.0</v>
+        <v>1010.0</v>
       </c>
       <c r="B6" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="C6" t="s">
-        <v>96</v>
+        <v>107</v>
       </c>
       <c r="D6" t="s">
-        <v>98</v>
+        <v>111</v>
       </c>
       <c r="E6" t="n">
-        <v>4.0</v>
+        <v>6.0</v>
       </c>
       <c r="F6" t="s">
-        <v>97</v>
+        <v>109</v>
       </c>
       <c r="G6" t="n">
         <v>0.0</v>
@@ -1522,19 +1668,19 @@
         <v>1130.0</v>
       </c>
       <c r="B7" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="C7" t="s">
-        <v>96</v>
+        <v>110</v>
       </c>
       <c r="D7" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="E7" t="n">
-        <v>5.0</v>
+        <v>7.0</v>
       </c>
       <c r="F7" t="s">
-        <v>97</v>
+        <v>109</v>
       </c>
       <c r="G7" t="n">
         <v>0.0</v>
@@ -1545,19 +1691,19 @@
         <v>1090.0</v>
       </c>
       <c r="B8" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="C8" t="s">
-        <v>96</v>
+        <v>110</v>
       </c>
       <c r="D8" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="E8" t="n">
-        <v>5.0</v>
+        <v>7.0</v>
       </c>
       <c r="F8" t="s">
-        <v>97</v>
+        <v>109</v>
       </c>
       <c r="G8" t="n">
         <v>0.0</v>
@@ -1565,22 +1711,22 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>1020.0</v>
+        <v>1021.0</v>
       </c>
       <c r="B9" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="C9" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="D9" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="E9" t="n">
-        <v>5.0</v>
+        <v>7.0</v>
       </c>
       <c r="F9" t="s">
-        <v>97</v>
+        <v>109</v>
       </c>
       <c r="G9" t="n">
         <v>0.0</v>
@@ -1588,22 +1734,22 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>1080.0</v>
+        <v>1130.0</v>
       </c>
       <c r="B10" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="C10" t="s">
-        <v>23</v>
+        <v>110</v>
       </c>
       <c r="D10" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="E10" t="n">
-        <v>5.0</v>
+        <v>9.0</v>
       </c>
       <c r="F10" t="s">
-        <v>97</v>
+        <v>109</v>
       </c>
       <c r="G10" t="n">
         <v>0.0</v>
@@ -1614,19 +1760,19 @@
         <v>1130.0</v>
       </c>
       <c r="B11" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="C11" t="s">
-        <v>96</v>
+        <v>110</v>
       </c>
       <c r="D11" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E11" t="n">
-        <v>5.0</v>
+        <v>9.0</v>
       </c>
       <c r="F11" t="s">
-        <v>97</v>
+        <v>109</v>
       </c>
       <c r="G11" t="n">
         <v>0.0</v>
@@ -1634,22 +1780,22 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>1081.0</v>
+        <v>1130.0</v>
       </c>
       <c r="B12" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="C12" t="s">
-        <v>96</v>
+        <v>110</v>
       </c>
       <c r="D12" t="s">
-        <v>99</v>
+        <v>15</v>
       </c>
       <c r="E12" t="n">
-        <v>5.0</v>
+        <v>9.0</v>
       </c>
       <c r="F12" t="s">
-        <v>97</v>
+        <v>109</v>
       </c>
       <c r="G12" t="n">
         <v>0.0</v>
@@ -1657,116 +1803,24 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>1130.0</v>
+        <v>1090.0</v>
       </c>
       <c r="B13" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="C13" t="s">
-        <v>96</v>
+        <v>110</v>
       </c>
       <c r="D13" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="E13" t="n">
-        <v>5.0</v>
+        <v>9.0</v>
       </c>
       <c r="F13" t="s">
-        <v>97</v>
+        <v>109</v>
       </c>
       <c r="G13" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
-        <v>1180.0</v>
-      </c>
-      <c r="B14" t="s">
-        <v>95</v>
-      </c>
-      <c r="C14" t="s">
-        <v>96</v>
-      </c>
-      <c r="D14" t="s">
-        <v>9</v>
-      </c>
-      <c r="E14" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="F14" t="s">
-        <v>97</v>
-      </c>
-      <c r="G14" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
-        <v>1082.0</v>
-      </c>
-      <c r="B15" t="s">
-        <v>95</v>
-      </c>
-      <c r="C15" t="s">
-        <v>96</v>
-      </c>
-      <c r="D15" t="s">
-        <v>9</v>
-      </c>
-      <c r="E15" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="F15" t="s">
-        <v>97</v>
-      </c>
-      <c r="G15" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="n">
-        <v>1130.0</v>
-      </c>
-      <c r="B16" t="s">
-        <v>95</v>
-      </c>
-      <c r="C16" t="s">
-        <v>96</v>
-      </c>
-      <c r="D16" t="s">
-        <v>9</v>
-      </c>
-      <c r="E16" t="n">
-        <v>6.0</v>
-      </c>
-      <c r="F16" t="s">
-        <v>97</v>
-      </c>
-      <c r="G16" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="n">
-        <v>1090.0</v>
-      </c>
-      <c r="B17" t="s">
-        <v>95</v>
-      </c>
-      <c r="C17" t="s">
-        <v>96</v>
-      </c>
-      <c r="D17" t="s">
-        <v>9</v>
-      </c>
-      <c r="E17" t="n">
-        <v>6.0</v>
-      </c>
-      <c r="F17" t="s">
-        <v>97</v>
-      </c>
-      <c r="G17" t="n">
         <v>0.0</v>
       </c>
     </row>
@@ -1785,19 +1839,19 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>91</v>
+        <v>102</v>
       </c>
       <c r="B1" t="s">
-        <v>100</v>
+        <v>112</v>
       </c>
       <c r="C1" t="s">
-        <v>101</v>
+        <v>113</v>
       </c>
       <c r="D1" t="s">
-        <v>102</v>
+        <v>114</v>
       </c>
       <c r="E1" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
     </row>
   </sheetData>
@@ -1807,7 +1861,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1815,274 +1869,240 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>103</v>
+        <v>115</v>
       </c>
       <c r="B1" t="s">
-        <v>104</v>
+        <v>116</v>
       </c>
       <c r="C1" t="s">
-        <v>105</v>
+        <v>117</v>
       </c>
       <c r="D1" t="s">
-        <v>106</v>
+        <v>118</v>
       </c>
       <c r="E1" t="s">
-        <v>107</v>
+        <v>119</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>108</v>
+        <v>120</v>
       </c>
       <c r="B2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="C2" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="D2" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="E2" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D3" t="s">
-        <v>95</v>
+        <v>8</v>
       </c>
       <c r="E3" t="s">
-        <v>25</v>
+        <v>108</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B4" t="s">
-        <v>30</v>
+        <v>121</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>108</v>
       </c>
       <c r="D4" t="s">
-        <v>31</v>
+        <v>106</v>
       </c>
       <c r="E4" t="s">
-        <v>98</v>
+        <v>122</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="B5" t="s">
-        <v>110</v>
+        <v>48</v>
       </c>
       <c r="C5" t="s">
-        <v>98</v>
+        <v>12</v>
       </c>
       <c r="D5" t="s">
-        <v>95</v>
+        <v>5</v>
       </c>
       <c r="E5" t="s">
-        <v>111</v>
+        <v>123</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="C6" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D6" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="E6" t="s">
-        <v>25</v>
+        <v>123</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="B7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" t="s">
         <v>30</v>
       </c>
-      <c r="C7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D7" t="s">
-        <v>31</v>
-      </c>
       <c r="E7" t="s">
-        <v>99</v>
+        <v>111</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="B8" t="s">
-        <v>110</v>
+        <v>121</v>
       </c>
       <c r="C8" t="s">
-        <v>99</v>
+        <v>111</v>
       </c>
       <c r="D8" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="E8" t="s">
-        <v>113</v>
+        <v>124</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="B9" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="C9" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>114</v>
+        <v>125</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="C10" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D10" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="E10" t="s">
-        <v>114</v>
+        <v>125</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>95</v>
+        <v>124</v>
       </c>
       <c r="B11" t="s">
-        <v>36</v>
+        <v>106</v>
       </c>
       <c r="C11" t="s">
-        <v>9</v>
+        <v>106</v>
       </c>
       <c r="D11" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="E11" t="s">
-        <v>9</v>
+        <v>106</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="B12" t="s">
-        <v>115</v>
+        <v>48</v>
       </c>
       <c r="C12" t="s">
-        <v>95</v>
+        <v>12</v>
       </c>
       <c r="D12" t="s">
-        <v>95</v>
+        <v>15</v>
       </c>
       <c r="E12" t="s">
-        <v>112</v>
+        <v>126</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="B13" t="s">
-        <v>95</v>
+        <v>46</v>
       </c>
       <c r="C13" t="s">
-        <v>95</v>
+        <v>16</v>
       </c>
       <c r="D13" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="E13" t="s">
-        <v>95</v>
+        <v>126</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>95</v>
+        <v>127</v>
       </c>
       <c r="B14" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="C14" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="D14" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="E14" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="s">
-        <v>111</v>
-      </c>
-      <c r="B15" t="s">
-        <v>95</v>
-      </c>
-      <c r="C15" t="s">
-        <v>95</v>
-      </c>
-      <c r="D15" t="s">
-        <v>95</v>
-      </c>
-      <c r="E15" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="s">
-        <v>116</v>
-      </c>
-      <c r="B16" t="s">
-        <v>95</v>
-      </c>
-      <c r="C16" t="s">
-        <v>95</v>
-      </c>
-      <c r="D16" t="s">
-        <v>95</v>
-      </c>
-      <c r="E16" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
     </row>
   </sheetData>
@@ -2100,79 +2120,79 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>117</v>
+        <v>128</v>
       </c>
       <c r="B1" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="C1" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="D1" t="s">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="E1" t="s">
-        <v>118</v>
+        <v>129</v>
       </c>
       <c r="F1" t="s">
-        <v>119</v>
+        <v>130</v>
       </c>
       <c r="G1" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="H1" t="s">
+        <v>131</v>
+      </c>
+      <c r="I1" t="s">
+        <v>94</v>
+      </c>
+      <c r="J1" t="s">
+        <v>132</v>
+      </c>
+      <c r="K1" t="s">
+        <v>133</v>
+      </c>
+      <c r="L1" t="s">
+        <v>46</v>
+      </c>
+      <c r="M1" t="s">
+        <v>134</v>
+      </c>
+      <c r="N1" t="s">
+        <v>135</v>
+      </c>
+      <c r="O1" t="s">
+        <v>136</v>
+      </c>
+      <c r="P1" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>121</v>
+      </c>
+      <c r="R1" t="s">
+        <v>138</v>
+      </c>
+      <c r="S1" t="s">
+        <v>139</v>
+      </c>
+      <c r="T1" t="s">
+        <v>140</v>
+      </c>
+      <c r="U1" t="s">
+        <v>141</v>
+      </c>
+      <c r="V1" t="s">
+        <v>142</v>
+      </c>
+      <c r="W1" t="s">
+        <v>143</v>
+      </c>
+      <c r="X1" t="s">
+        <v>144</v>
+      </c>
+      <c r="Y1" t="s">
         <v>120</v>
-      </c>
-      <c r="I1" t="s">
-        <v>84</v>
-      </c>
-      <c r="J1" t="s">
-        <v>121</v>
-      </c>
-      <c r="K1" t="s">
-        <v>122</v>
-      </c>
-      <c r="L1" t="s">
-        <v>23</v>
-      </c>
-      <c r="M1" t="s">
-        <v>123</v>
-      </c>
-      <c r="N1" t="s">
-        <v>124</v>
-      </c>
-      <c r="O1" t="s">
-        <v>125</v>
-      </c>
-      <c r="P1" t="s">
-        <v>126</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>110</v>
-      </c>
-      <c r="R1" t="s">
-        <v>115</v>
-      </c>
-      <c r="S1" t="s">
-        <v>127</v>
-      </c>
-      <c r="T1" t="s">
-        <v>128</v>
-      </c>
-      <c r="U1" t="s">
-        <v>129</v>
-      </c>
-      <c r="V1" t="s">
-        <v>130</v>
-      </c>
-      <c r="W1" t="s">
-        <v>131</v>
-      </c>
-      <c r="X1" t="s">
-        <v>132</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="2">
@@ -2180,7 +2200,7 @@
         <v>0.0</v>
       </c>
       <c r="B2" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="C2" t="n">
         <v>0.0</v>
@@ -2219,31 +2239,31 @@
         <v>0.0</v>
       </c>
       <c r="O2" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="P2" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="Q2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T2" t="n">
         <v>2.0</v>
       </c>
-      <c r="R2" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="S2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="T2" t="n">
-        <v>0.0</v>
-      </c>
       <c r="U2" t="n">
         <v>0.0</v>
       </c>
       <c r="V2" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="W2" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="X2" t="n">
         <v>0.0</v>
@@ -2254,10 +2274,10 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>133</v>
+        <v>145</v>
       </c>
       <c r="B3" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="C3" t="n">
         <v>0.0</v>
@@ -2296,31 +2316,31 @@
         <v>0.0</v>
       </c>
       <c r="O3" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="P3" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="Q3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T3" t="n">
         <v>2.0</v>
       </c>
-      <c r="R3" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="S3" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="T3" t="n">
-        <v>0.0</v>
-      </c>
       <c r="U3" t="n">
         <v>0.0</v>
       </c>
       <c r="V3" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="W3" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="X3" t="n">
         <v>0.0</v>

--- a/src/Excel/Yañez_Gonzalez_Christian_Emmanuel.xlsx
+++ b/src/Excel/Yañez_Gonzalez_Christian_Emmanuel.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="148">
   <si>
     <t>Estado</t>
   </si>
@@ -31,195 +31,231 @@
     <t>Linea</t>
   </si>
   <si>
-    <t>-98</t>
+    <t>-2</t>
+  </si>
+  <si>
+    <t>//28</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>-97</t>
+  </si>
+  <si>
+    <t>INT</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>-68</t>
+  </si>
+  <si>
+    <t>:</t>
+  </si>
+  <si>
+    <t>-1</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>-47</t>
+  </si>
+  <si>
+    <t>,</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>-46</t>
+  </si>
+  <si>
+    <t>;</t>
+  </si>
+  <si>
+    <t>-61</t>
+  </si>
+  <si>
+    <t>main</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>-49</t>
+  </si>
+  <si>
+    <t>(</t>
+  </si>
+  <si>
+    <t>-50</t>
+  </si>
+  <si>
+    <t>)</t>
+  </si>
+  <si>
+    <t>-53</t>
+  </si>
+  <si>
+    <t>{</t>
+  </si>
+  <si>
+    <t>-4</t>
+  </si>
+  <si>
+    <t>if</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>-19</t>
+  </si>
+  <si>
+    <t>-38</t>
+  </si>
+  <si>
+    <t>&gt;</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>-56</t>
+  </si>
+  <si>
+    <t>+=</t>
+  </si>
+  <si>
+    <t>-54</t>
+  </si>
+  <si>
+    <t>}</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>-95</t>
+  </si>
+  <si>
+    <t>else</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>-55</t>
+  </si>
+  <si>
+    <t>=</t>
+  </si>
+  <si>
+    <t>-24</t>
+  </si>
+  <si>
+    <t>+</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>Token</t>
+  </si>
+  <si>
+    <t>Descripción</t>
+  </si>
+  <si>
+    <t>Tipo</t>
+  </si>
+  <si>
+    <t>Erroes</t>
+  </si>
+  <si>
+    <t>Identificadores</t>
+  </si>
+  <si>
+    <t>Comentarios</t>
+  </si>
+  <si>
+    <t>Palabras reservadas</t>
+  </si>
+  <si>
+    <t>C-Enteras</t>
+  </si>
+  <si>
+    <t>C-Texto</t>
+  </si>
+  <si>
+    <t>C-Decimal</t>
+  </si>
+  <si>
+    <t>C-Carácter</t>
+  </si>
+  <si>
+    <t>C-Exponencial</t>
+  </si>
+  <si>
+    <t>Aritmeticos</t>
+  </si>
+  <si>
+    <t>Monogamo</t>
+  </si>
+  <si>
+    <t>Logico</t>
+  </si>
+  <si>
+    <t>Relacionales</t>
+  </si>
+  <si>
+    <t>Bit</t>
+  </si>
+  <si>
+    <t>Puntuación</t>
+  </si>
+  <si>
+    <t>Agrupación</t>
+  </si>
+  <si>
+    <t>Asignación</t>
+  </si>
+  <si>
+    <t>Sintaxis</t>
+  </si>
+  <si>
+    <t>Funciones</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>Ambito</t>
   </si>
   <si>
     <t>CHAR</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>-51</t>
-  </si>
-  <si>
-    <t>[</t>
-  </si>
-  <si>
-    <t>-19</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>-52</t>
-  </si>
-  <si>
-    <t>]</t>
-  </si>
-  <si>
-    <t>-68</t>
-  </si>
-  <si>
-    <t>:</t>
-  </si>
-  <si>
-    <t>-1</t>
-  </si>
-  <si>
-    <t>s</t>
-  </si>
-  <si>
-    <t>-46</t>
-  </si>
-  <si>
-    <t>;</t>
-  </si>
-  <si>
-    <t>-61</t>
-  </si>
-  <si>
-    <t>main</t>
-  </si>
-  <si>
-    <t>-49</t>
-  </si>
-  <si>
-    <t>(</t>
-  </si>
-  <si>
-    <t>-50</t>
-  </si>
-  <si>
-    <t>)</t>
-  </si>
-  <si>
-    <t>-53</t>
-  </si>
-  <si>
-    <t>{</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>-55</t>
-  </si>
-  <si>
-    <t>=</t>
-  </si>
-  <si>
-    <t>-76</t>
-  </si>
-  <si>
-    <t>conv</t>
-  </si>
-  <si>
-    <t>-47</t>
-  </si>
-  <si>
-    <t>,</t>
-  </si>
-  <si>
-    <t>-20</t>
-  </si>
-  <si>
-    <t>"jiji"</t>
-  </si>
-  <si>
-    <t>16</t>
-  </si>
-  <si>
-    <t>-54</t>
-  </si>
-  <si>
-    <t>}</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>Token</t>
-  </si>
-  <si>
-    <t>Descripción</t>
-  </si>
-  <si>
-    <t>Tipo</t>
-  </si>
-  <si>
-    <t>Erroes</t>
-  </si>
-  <si>
-    <t>Identificadores</t>
-  </si>
-  <si>
-    <t>Comentarios</t>
-  </si>
-  <si>
-    <t>Palabras reservadas</t>
-  </si>
-  <si>
-    <t>C-Enteras</t>
-  </si>
-  <si>
-    <t>C-Texto</t>
-  </si>
-  <si>
-    <t>C-Decimal</t>
-  </si>
-  <si>
-    <t>C-Carácter</t>
-  </si>
-  <si>
-    <t>C-Exponencial</t>
-  </si>
-  <si>
-    <t>Aritmeticos</t>
-  </si>
-  <si>
-    <t>Monogamo</t>
-  </si>
-  <si>
-    <t>Logico</t>
-  </si>
-  <si>
-    <t>Relacionales</t>
-  </si>
-  <si>
-    <t>Bit</t>
-  </si>
-  <si>
-    <t>Puntuación</t>
-  </si>
-  <si>
-    <t>Agrupación</t>
-  </si>
-  <si>
-    <t>Asignación</t>
-  </si>
-  <si>
-    <t>Sintaxis</t>
-  </si>
-  <si>
-    <t>Funciones</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>Ambito</t>
-  </si>
-  <si>
     <t>String (CHAR[])</t>
   </si>
   <si>
-    <t>INT</t>
-  </si>
-  <si>
     <t>REAL</t>
   </si>
   <si>
@@ -280,7 +316,13 @@
     <t>Errores</t>
   </si>
   <si>
-    <t xml:space="preserve">s -&gt; </t>
+    <t>a -&gt;  TE1</t>
+  </si>
+  <si>
+    <t>b -&gt;  TE1</t>
+  </si>
+  <si>
+    <t>c -&gt;  TE1</t>
   </si>
   <si>
     <t>Regla</t>
@@ -301,16 +343,19 @@
     <t/>
   </si>
   <si>
+    <t>Cont_entero</t>
+  </si>
+  <si>
+    <t>TB1</t>
+  </si>
+  <si>
+    <t>Acept</t>
+  </si>
+  <si>
     <t>id</t>
   </si>
   <si>
-    <t>Acept</t>
-  </si>
-  <si>
-    <t>conv_p1</t>
-  </si>
-  <si>
-    <t>conv_p2</t>
+    <t>TB2</t>
   </si>
   <si>
     <t>Entradas</t>
@@ -340,10 +385,31 @@
     <t>PPAL</t>
   </si>
   <si>
-    <t>Call</t>
-  </si>
-  <si>
-    <t>TS1</t>
+    <t>JF</t>
+  </si>
+  <si>
+    <t>if-E1:</t>
+  </si>
+  <si>
+    <t>TE1</t>
+  </si>
+  <si>
+    <t>JMP</t>
+  </si>
+  <si>
+    <t>if-E2:</t>
+  </si>
+  <si>
+    <t>if-E3:</t>
+  </si>
+  <si>
+    <t>TE2</t>
+  </si>
+  <si>
+    <t>if-E4:</t>
+  </si>
+  <si>
+    <t>TE3</t>
   </si>
   <si>
     <t>endmain</t>
@@ -377,12 +443,6 @@
   </si>
   <si>
     <t>Op-Un</t>
-  </si>
-  <si>
-    <t>JF</t>
-  </si>
-  <si>
-    <t>JMP</t>
   </si>
   <si>
     <t>valor</t>
@@ -448,7 +508,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C24"/>
+  <dimension ref="A1:C49"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -484,238 +544,513 @@
         <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" t="s">
         <v>8</v>
-      </c>
-      <c r="B4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C5" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C6" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B7" t="s">
         <v>15</v>
       </c>
       <c r="C7" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B8" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C8" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B10" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C11" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C12" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="B13" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" t="s">
         <v>27</v>
       </c>
-      <c r="B14" t="s">
-        <v>28</v>
-      </c>
       <c r="C14" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" t="s">
         <v>29</v>
       </c>
-      <c r="B15" t="s">
+      <c r="C15" t="s">
         <v>30</v>
-      </c>
-      <c r="C15" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C16" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="B17" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C17" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B18" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C18" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B19" t="s">
-        <v>34</v>
+        <v>8</v>
       </c>
       <c r="C19" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="B20" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="C20" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="B21" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="C21" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="B22" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="C22" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="B23" t="s">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="C23" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
+        <v>31</v>
+      </c>
+      <c r="B24" t="s">
+        <v>5</v>
+      </c>
+      <c r="C24" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>17</v>
+      </c>
+      <c r="B25" t="s">
+        <v>18</v>
+      </c>
+      <c r="C25" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>37</v>
+      </c>
+      <c r="B26" t="s">
+        <v>38</v>
+      </c>
+      <c r="C26" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>40</v>
+      </c>
+      <c r="B27" t="s">
+        <v>41</v>
+      </c>
+      <c r="C27" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>28</v>
+      </c>
+      <c r="B28" t="s">
+        <v>29</v>
+      </c>
+      <c r="C28" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>22</v>
+      </c>
+      <c r="B29" t="s">
+        <v>23</v>
+      </c>
+      <c r="C29" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s">
+        <v>31</v>
+      </c>
+      <c r="B30" t="s">
+        <v>21</v>
+      </c>
+      <c r="C30" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
+        <v>32</v>
+      </c>
+      <c r="B31" t="s">
+        <v>33</v>
+      </c>
+      <c r="C31" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s">
+        <v>31</v>
+      </c>
+      <c r="B32" t="s">
+        <v>30</v>
+      </c>
+      <c r="C32" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s">
+        <v>24</v>
+      </c>
+      <c r="B33" t="s">
+        <v>25</v>
+      </c>
+      <c r="C33" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s">
+        <v>26</v>
+      </c>
+      <c r="B34" t="s">
+        <v>27</v>
+      </c>
+      <c r="C34" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s">
+        <v>11</v>
+      </c>
+      <c r="B35" t="s">
+        <v>15</v>
+      </c>
+      <c r="C35" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s">
+        <v>35</v>
+      </c>
+      <c r="B36" t="s">
         <v>36</v>
       </c>
-      <c r="B24" t="s">
+      <c r="C36" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s">
+        <v>31</v>
+      </c>
+      <c r="B37" t="s">
+        <v>8</v>
+      </c>
+      <c r="C37" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s">
+        <v>17</v>
+      </c>
+      <c r="B38" t="s">
+        <v>18</v>
+      </c>
+      <c r="C38" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s">
         <v>37</v>
       </c>
-      <c r="C24" t="s">
+      <c r="B39" t="s">
         <v>38</v>
+      </c>
+      <c r="C39" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s">
+        <v>40</v>
+      </c>
+      <c r="B40" t="s">
+        <v>41</v>
+      </c>
+      <c r="C40" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s">
+        <v>26</v>
+      </c>
+      <c r="B41" t="s">
+        <v>27</v>
+      </c>
+      <c r="C41" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s">
+        <v>11</v>
+      </c>
+      <c r="B42" t="s">
+        <v>16</v>
+      </c>
+      <c r="C42" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s">
+        <v>45</v>
+      </c>
+      <c r="B43" t="s">
+        <v>46</v>
+      </c>
+      <c r="C43" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s">
+        <v>11</v>
+      </c>
+      <c r="B44" t="s">
+        <v>12</v>
+      </c>
+      <c r="C44" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s">
+        <v>47</v>
+      </c>
+      <c r="B45" t="s">
+        <v>48</v>
+      </c>
+      <c r="C45" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s">
+        <v>11</v>
+      </c>
+      <c r="B46" t="s">
+        <v>15</v>
+      </c>
+      <c r="C46" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s">
+        <v>17</v>
+      </c>
+      <c r="B47" t="s">
+        <v>18</v>
+      </c>
+      <c r="C47" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s">
+        <v>37</v>
+      </c>
+      <c r="B48" t="s">
+        <v>38</v>
+      </c>
+      <c r="C48" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s">
+        <v>37</v>
+      </c>
+      <c r="B49" t="s">
+        <v>38</v>
+      </c>
+      <c r="C49" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -733,16 +1068,16 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="B1" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="E1" t="s">
         <v>2</v>
@@ -763,120 +1098,120 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="B1" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="C1" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="D1" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="E1" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="F1" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="G1" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="H1" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="I1" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="J1" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="K1" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="L1" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="M1" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="N1" t="s">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="O1" t="s">
-        <v>56</v>
+        <v>68</v>
       </c>
       <c r="P1" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="Q1" t="s">
-        <v>58</v>
+        <v>70</v>
       </c>
       <c r="R1" t="s">
-        <v>59</v>
+        <v>71</v>
       </c>
       <c r="S1" t="s">
-        <v>60</v>
+        <v>72</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>61</v>
+        <v>73</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>43</v>
       </c>
       <c r="C2" t="s">
-        <v>61</v>
+        <v>5</v>
       </c>
       <c r="D2" t="s">
-        <v>61</v>
+        <v>8</v>
       </c>
       <c r="E2" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="F2" t="s">
+        <v>73</v>
+      </c>
+      <c r="G2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H2" t="s">
+        <v>73</v>
+      </c>
+      <c r="I2" t="s">
+        <v>73</v>
+      </c>
+      <c r="J2" t="s">
         <v>5</v>
       </c>
-      <c r="G2" t="s">
-        <v>61</v>
-      </c>
-      <c r="H2" t="s">
-        <v>61</v>
-      </c>
-      <c r="I2" t="s">
-        <v>61</v>
-      </c>
-      <c r="J2" t="s">
-        <v>61</v>
-      </c>
       <c r="K2" t="s">
-        <v>61</v>
+        <v>73</v>
       </c>
       <c r="L2" t="s">
-        <v>61</v>
+        <v>73</v>
       </c>
       <c r="M2" t="s">
-        <v>61</v>
+        <v>8</v>
       </c>
       <c r="N2" t="s">
-        <v>61</v>
+        <v>73</v>
       </c>
       <c r="O2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="P2" t="s">
-        <v>62</v>
+        <v>74</v>
       </c>
       <c r="Q2" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="R2" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="S2" t="s">
-        <v>5</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -894,40 +1229,40 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>63</v>
+        <v>75</v>
       </c>
       <c r="B1" t="s">
-        <v>4</v>
+        <v>76</v>
       </c>
       <c r="C1" t="s">
-        <v>64</v>
+        <v>77</v>
       </c>
       <c r="D1" t="s">
-        <v>65</v>
+        <v>7</v>
       </c>
       <c r="E1" t="s">
-        <v>66</v>
+        <v>78</v>
       </c>
       <c r="F1" t="s">
-        <v>67</v>
+        <v>79</v>
       </c>
       <c r="G1" t="s">
-        <v>68</v>
+        <v>80</v>
       </c>
       <c r="H1" t="s">
-        <v>69</v>
+        <v>81</v>
       </c>
       <c r="I1" t="s">
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="J1" t="s">
-        <v>71</v>
+        <v>83</v>
       </c>
       <c r="K1" t="s">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="L1" t="s">
-        <v>73</v>
+        <v>85</v>
       </c>
     </row>
     <row r="2">
@@ -938,10 +1273,10 @@
         <v>0.0</v>
       </c>
       <c r="C2" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="E2" t="n">
         <v>0.0</v>
@@ -965,21 +1300,21 @@
         <v>0.0</v>
       </c>
       <c r="L2" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="B3" t="n">
         <v>0.0</v>
       </c>
       <c r="C3" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="E3" t="n">
         <v>0.0</v>
@@ -1003,7 +1338,7 @@
         <v>0.0</v>
       </c>
       <c r="L3" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
     </row>
   </sheetData>
@@ -1013,7 +1348,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:M2"/>
+  <dimension ref="A1:M4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1024,45 +1359,45 @@
         <v>2</v>
       </c>
       <c r="B1" t="s">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="C1" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="D1" t="s">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="E1" t="s">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="F1" t="s">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="G1" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="H1" t="s">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="I1" t="s">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="J1" t="s">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="K1" t="s">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="L1" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="M1" t="s">
-        <v>85</v>
+        <v>97</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
       <c r="B2" t="n">
         <v>0.0</v>
@@ -1071,7 +1406,7 @@
         <v>0.0</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="E2" t="n">
         <v>0.0</v>
@@ -1095,9 +1430,91 @@
         <v>0.0</v>
       </c>
       <c r="L2" t="s">
-        <v>86</v>
+        <v>98</v>
       </c>
       <c r="M2" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="B3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L3" t="s">
+        <v>99</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="B4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L4" t="s">
+        <v>100</v>
+      </c>
+      <c r="M4" t="n">
         <v>0.0</v>
       </c>
     </row>
@@ -1108,7 +1525,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1116,45 +1533,45 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>87</v>
+        <v>101</v>
       </c>
       <c r="B1" t="s">
-        <v>88</v>
+        <v>102</v>
       </c>
       <c r="C1" t="s">
-        <v>89</v>
+        <v>103</v>
       </c>
       <c r="D1" t="s">
-        <v>90</v>
+        <v>104</v>
       </c>
       <c r="E1" t="s">
         <v>2</v>
       </c>
       <c r="F1" t="s">
-        <v>91</v>
+        <v>105</v>
       </c>
       <c r="G1" t="s">
-        <v>63</v>
+        <v>75</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1130.0</v>
+        <v>1010.0</v>
       </c>
       <c r="B2" t="s">
-        <v>92</v>
+        <v>106</v>
       </c>
       <c r="C2" t="s">
-        <v>93</v>
+        <v>107</v>
       </c>
       <c r="D2" t="s">
-        <v>15</v>
+        <v>108</v>
       </c>
       <c r="E2" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="F2" t="s">
-        <v>94</v>
+        <v>109</v>
       </c>
       <c r="G2" t="n">
         <v>0.0</v>
@@ -1162,22 +1579,22 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2012.0</v>
+        <v>1130.0</v>
       </c>
       <c r="B3" t="s">
-        <v>30</v>
+        <v>106</v>
       </c>
       <c r="C3" t="s">
-        <v>30</v>
+        <v>110</v>
       </c>
       <c r="D3" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="E3" t="n">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
       <c r="F3" t="s">
-        <v>94</v>
+        <v>109</v>
       </c>
       <c r="G3" t="n">
         <v>0.0</v>
@@ -1185,22 +1602,22 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2002.0</v>
+        <v>1090.0</v>
       </c>
       <c r="B4" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="C4" t="s">
-        <v>95</v>
+        <v>110</v>
       </c>
       <c r="D4" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E4" t="n">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
       <c r="F4" t="s">
-        <v>94</v>
+        <v>109</v>
       </c>
       <c r="G4" t="n">
         <v>0.0</v>
@@ -1208,22 +1625,22 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>2003.0</v>
+        <v>1021.0</v>
       </c>
       <c r="B5" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="C5" t="s">
-        <v>96</v>
+        <v>36</v>
       </c>
       <c r="D5" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E5" t="n">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
       <c r="F5" t="s">
-        <v>94</v>
+        <v>109</v>
       </c>
       <c r="G5" t="n">
         <v>0.0</v>
@@ -1231,22 +1648,22 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1090.0</v>
+        <v>1010.0</v>
       </c>
       <c r="B6" t="s">
-        <v>92</v>
+        <v>106</v>
       </c>
       <c r="C6" t="s">
-        <v>93</v>
+        <v>107</v>
       </c>
       <c r="D6" t="s">
-        <v>15</v>
+        <v>111</v>
       </c>
       <c r="E6" t="n">
-        <v>3.0</v>
+        <v>6.0</v>
       </c>
       <c r="F6" t="s">
-        <v>94</v>
+        <v>109</v>
       </c>
       <c r="G6" t="n">
         <v>0.0</v>
@@ -1254,24 +1671,162 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>1020.0</v>
+        <v>1130.0</v>
       </c>
       <c r="B7" t="s">
-        <v>92</v>
+        <v>106</v>
       </c>
       <c r="C7" t="s">
-        <v>28</v>
+        <v>110</v>
       </c>
       <c r="D7" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="E7" t="n">
-        <v>3.0</v>
+        <v>7.0</v>
       </c>
       <c r="F7" t="s">
-        <v>94</v>
+        <v>109</v>
       </c>
       <c r="G7" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>1090.0</v>
+      </c>
+      <c r="B8" t="s">
+        <v>106</v>
+      </c>
+      <c r="C8" t="s">
+        <v>110</v>
+      </c>
+      <c r="D8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="F8" t="s">
+        <v>109</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>1021.0</v>
+      </c>
+      <c r="B9" t="s">
+        <v>106</v>
+      </c>
+      <c r="C9" t="s">
+        <v>36</v>
+      </c>
+      <c r="D9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E9" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="F9" t="s">
+        <v>109</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>1130.0</v>
+      </c>
+      <c r="B10" t="s">
+        <v>106</v>
+      </c>
+      <c r="C10" t="s">
+        <v>110</v>
+      </c>
+      <c r="D10" t="s">
+        <v>16</v>
+      </c>
+      <c r="E10" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="F10" t="s">
+        <v>109</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>1130.0</v>
+      </c>
+      <c r="B11" t="s">
+        <v>106</v>
+      </c>
+      <c r="C11" t="s">
+        <v>110</v>
+      </c>
+      <c r="D11" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="F11" t="s">
+        <v>109</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>1130.0</v>
+      </c>
+      <c r="B12" t="s">
+        <v>106</v>
+      </c>
+      <c r="C12" t="s">
+        <v>110</v>
+      </c>
+      <c r="D12" t="s">
+        <v>15</v>
+      </c>
+      <c r="E12" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="F12" t="s">
+        <v>109</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>1090.0</v>
+      </c>
+      <c r="B13" t="s">
+        <v>106</v>
+      </c>
+      <c r="C13" t="s">
+        <v>110</v>
+      </c>
+      <c r="D13" t="s">
+        <v>16</v>
+      </c>
+      <c r="E13" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="F13" t="s">
+        <v>109</v>
+      </c>
+      <c r="G13" t="n">
         <v>0.0</v>
       </c>
     </row>
@@ -1282,7 +1837,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1290,70 +1845,19 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>88</v>
+        <v>102</v>
       </c>
       <c r="B1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D1" t="s">
+        <v>114</v>
+      </c>
+      <c r="E1" t="s">
         <v>97</v>
-      </c>
-      <c r="C1" t="s">
-        <v>98</v>
-      </c>
-      <c r="D1" t="s">
-        <v>99</v>
-      </c>
-      <c r="E1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s">
-        <v>95</v>
-      </c>
-      <c r="B2" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s">
-        <v>96</v>
-      </c>
-      <c r="B3" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s">
-        <v>30</v>
-      </c>
-      <c r="B4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="C4" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0.0</v>
       </c>
     </row>
   </sheetData>
@@ -1363,7 +1867,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1371,121 +1875,308 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>100</v>
+        <v>115</v>
       </c>
       <c r="B1" t="s">
-        <v>101</v>
+        <v>116</v>
       </c>
       <c r="C1" t="s">
-        <v>102</v>
+        <v>117</v>
       </c>
       <c r="D1" t="s">
-        <v>103</v>
+        <v>118</v>
       </c>
       <c r="E1" t="s">
-        <v>104</v>
+        <v>119</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>105</v>
+        <v>120</v>
       </c>
       <c r="B2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C2" t="s">
-        <v>92</v>
+        <v>106</v>
       </c>
       <c r="D2" t="s">
-        <v>92</v>
+        <v>106</v>
       </c>
       <c r="E2" t="s">
-        <v>92</v>
+        <v>106</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>92</v>
+        <v>106</v>
       </c>
       <c r="B3" t="s">
-        <v>106</v>
+        <v>33</v>
       </c>
       <c r="C3" t="s">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="D3" t="s">
-        <v>92</v>
+        <v>8</v>
       </c>
       <c r="E3" t="s">
-        <v>92</v>
+        <v>108</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>92</v>
+        <v>106</v>
       </c>
       <c r="B4" t="s">
-        <v>92</v>
+        <v>121</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>108</v>
       </c>
       <c r="D4" t="s">
-        <v>34</v>
+        <v>106</v>
       </c>
       <c r="E4" t="s">
-        <v>92</v>
+        <v>122</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>92</v>
+        <v>106</v>
       </c>
       <c r="B5" t="s">
-        <v>92</v>
+        <v>48</v>
       </c>
       <c r="C5" t="s">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="D5" t="s">
-        <v>92</v>
+        <v>5</v>
       </c>
       <c r="E5" t="s">
-        <v>107</v>
+        <v>123</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>92</v>
+        <v>106</v>
       </c>
       <c r="B6" t="s">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="C6" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D6" t="s">
-        <v>92</v>
+        <v>106</v>
       </c>
       <c r="E6" t="s">
-        <v>107</v>
+        <v>123</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B7" t="s">
-        <v>92</v>
+        <v>124</v>
       </c>
       <c r="C7" t="s">
-        <v>92</v>
+        <v>106</v>
       </c>
       <c r="D7" t="s">
-        <v>92</v>
+        <v>106</v>
       </c>
       <c r="E7" t="s">
-        <v>92</v>
+        <v>125</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>122</v>
+      </c>
+      <c r="B8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" t="s">
+        <v>30</v>
+      </c>
+      <c r="E8" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>106</v>
+      </c>
+      <c r="B9" t="s">
+        <v>121</v>
+      </c>
+      <c r="C9" t="s">
+        <v>111</v>
+      </c>
+      <c r="D9" t="s">
+        <v>106</v>
+      </c>
+      <c r="E9" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>106</v>
+      </c>
+      <c r="B10" t="s">
+        <v>48</v>
+      </c>
+      <c r="C10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>106</v>
+      </c>
+      <c r="B11" t="s">
+        <v>46</v>
+      </c>
+      <c r="C11" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" t="s">
+        <v>106</v>
+      </c>
+      <c r="E11" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>106</v>
+      </c>
+      <c r="B12" t="s">
+        <v>124</v>
+      </c>
+      <c r="C12" t="s">
+        <v>106</v>
+      </c>
+      <c r="D12" t="s">
+        <v>106</v>
+      </c>
+      <c r="E12" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>126</v>
+      </c>
+      <c r="B13" t="s">
+        <v>106</v>
+      </c>
+      <c r="C13" t="s">
+        <v>106</v>
+      </c>
+      <c r="D13" t="s">
+        <v>106</v>
+      </c>
+      <c r="E13" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>106</v>
+      </c>
+      <c r="B14" t="s">
+        <v>48</v>
+      </c>
+      <c r="C14" t="s">
+        <v>12</v>
+      </c>
+      <c r="D14" t="s">
+        <v>15</v>
+      </c>
+      <c r="E14" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>106</v>
+      </c>
+      <c r="B15" t="s">
+        <v>46</v>
+      </c>
+      <c r="C15" t="s">
+        <v>16</v>
+      </c>
+      <c r="D15" t="s">
+        <v>106</v>
+      </c>
+      <c r="E15" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>128</v>
+      </c>
+      <c r="B16" t="s">
+        <v>106</v>
+      </c>
+      <c r="C16" t="s">
+        <v>106</v>
+      </c>
+      <c r="D16" t="s">
+        <v>106</v>
+      </c>
+      <c r="E16" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>125</v>
+      </c>
+      <c r="B17" t="s">
+        <v>106</v>
+      </c>
+      <c r="C17" t="s">
+        <v>106</v>
+      </c>
+      <c r="D17" t="s">
+        <v>106</v>
+      </c>
+      <c r="E17" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>130</v>
+      </c>
+      <c r="B18" t="s">
+        <v>106</v>
+      </c>
+      <c r="C18" t="s">
+        <v>106</v>
+      </c>
+      <c r="D18" t="s">
+        <v>106</v>
+      </c>
+      <c r="E18" t="s">
+        <v>106</v>
       </c>
     </row>
   </sheetData>
@@ -1503,79 +2194,79 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>109</v>
+        <v>131</v>
       </c>
       <c r="B1" t="s">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="C1" t="s">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="D1" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="E1" t="s">
-        <v>110</v>
+        <v>132</v>
       </c>
       <c r="F1" t="s">
-        <v>111</v>
+        <v>133</v>
       </c>
       <c r="G1" t="s">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="H1" t="s">
-        <v>112</v>
+        <v>134</v>
       </c>
       <c r="I1" t="s">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="J1" t="s">
-        <v>113</v>
+        <v>135</v>
       </c>
       <c r="K1" t="s">
-        <v>114</v>
+        <v>136</v>
       </c>
       <c r="L1" t="s">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="M1" t="s">
-        <v>115</v>
+        <v>137</v>
       </c>
       <c r="N1" t="s">
-        <v>116</v>
+        <v>138</v>
       </c>
       <c r="O1" t="s">
-        <v>117</v>
+        <v>139</v>
       </c>
       <c r="P1" t="s">
-        <v>118</v>
+        <v>140</v>
       </c>
       <c r="Q1" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="R1" t="s">
+        <v>124</v>
+      </c>
+      <c r="S1" t="s">
+        <v>141</v>
+      </c>
+      <c r="T1" t="s">
+        <v>142</v>
+      </c>
+      <c r="U1" t="s">
+        <v>143</v>
+      </c>
+      <c r="V1" t="s">
+        <v>144</v>
+      </c>
+      <c r="W1" t="s">
+        <v>145</v>
+      </c>
+      <c r="X1" t="s">
+        <v>146</v>
+      </c>
+      <c r="Y1" t="s">
         <v>120</v>
-      </c>
-      <c r="S1" t="s">
-        <v>121</v>
-      </c>
-      <c r="T1" t="s">
-        <v>122</v>
-      </c>
-      <c r="U1" t="s">
-        <v>123</v>
-      </c>
-      <c r="V1" t="s">
-        <v>124</v>
-      </c>
-      <c r="W1" t="s">
-        <v>125</v>
-      </c>
-      <c r="X1" t="s">
-        <v>126</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="2">
@@ -1583,13 +2274,13 @@
         <v>0.0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="C2" t="n">
         <v>0.0</v>
       </c>
       <c r="D2" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="E2" t="n">
         <v>0.0</v>
@@ -1598,7 +2289,7 @@
         <v>0.0</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="H2" t="n">
         <v>0.0</v>
@@ -1610,34 +2301,34 @@
         <v>0.0</v>
       </c>
       <c r="K2" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="L2" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="M2" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="N2" t="n">
         <v>0.0</v>
       </c>
       <c r="O2" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="P2" t="n">
         <v>0.0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="R2" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="S2" t="n">
         <v>0.0</v>
       </c>
       <c r="T2" t="n">
-        <v>0.0</v>
+        <v>4.0</v>
       </c>
       <c r="U2" t="n">
         <v>0.0</v>
@@ -1657,16 +2348,16 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>127</v>
+        <v>147</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="C3" t="n">
         <v>0.0</v>
       </c>
       <c r="D3" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="E3" t="n">
         <v>0.0</v>
@@ -1675,7 +2366,7 @@
         <v>0.0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="H3" t="n">
         <v>0.0</v>
@@ -1687,34 +2378,34 @@
         <v>0.0</v>
       </c>
       <c r="K3" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="L3" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="M3" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="N3" t="n">
         <v>0.0</v>
       </c>
       <c r="O3" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="P3" t="n">
         <v>0.0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="S3" t="n">
         <v>0.0</v>
       </c>
       <c r="T3" t="n">
-        <v>0.0</v>
+        <v>4.0</v>
       </c>
       <c r="U3" t="n">
         <v>0.0</v>

--- a/src/Excel/Yañez_Gonzalez_Christian_Emmanuel.xlsx
+++ b/src/Excel/Yañez_Gonzalez_Christian_Emmanuel.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="457" uniqueCount="158">
   <si>
     <t>Estado</t>
   </si>
@@ -73,6 +73,9 @@
     <t>c</t>
   </si>
   <si>
+    <t>x</t>
+  </si>
+  <si>
     <t>-46</t>
   </si>
   <si>
@@ -163,234 +166,258 @@
     <t>=</t>
   </si>
   <si>
-    <t>-24</t>
+    <t>0</t>
+  </si>
+  <si>
+    <t>-6</t>
+  </si>
+  <si>
+    <t>while</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>-36</t>
+  </si>
+  <si>
+    <t>&lt;</t>
+  </si>
+  <si>
+    <t>-30</t>
+  </si>
+  <si>
+    <t>++</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>Token</t>
+  </si>
+  <si>
+    <t>Descripción</t>
+  </si>
+  <si>
+    <t>Tipo</t>
+  </si>
+  <si>
+    <t>Erroes</t>
+  </si>
+  <si>
+    <t>Identificadores</t>
+  </si>
+  <si>
+    <t>Comentarios</t>
+  </si>
+  <si>
+    <t>Palabras reservadas</t>
+  </si>
+  <si>
+    <t>C-Enteras</t>
+  </si>
+  <si>
+    <t>C-Texto</t>
+  </si>
+  <si>
+    <t>C-Decimal</t>
+  </si>
+  <si>
+    <t>C-Carácter</t>
+  </si>
+  <si>
+    <t>C-Exponencial</t>
+  </si>
+  <si>
+    <t>Aritmeticos</t>
+  </si>
+  <si>
+    <t>Monogamo</t>
+  </si>
+  <si>
+    <t>Logico</t>
+  </si>
+  <si>
+    <t>Relacionales</t>
+  </si>
+  <si>
+    <t>Bit</t>
+  </si>
+  <si>
+    <t>Puntuación</t>
+  </si>
+  <si>
+    <t>Agrupación</t>
+  </si>
+  <si>
+    <t>Asignación</t>
+  </si>
+  <si>
+    <t>Sintaxis</t>
+  </si>
+  <si>
+    <t>Funciones</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>Ambito</t>
+  </si>
+  <si>
+    <t>CHAR</t>
+  </si>
+  <si>
+    <t>String (CHAR[])</t>
+  </si>
+  <si>
+    <t>REAL</t>
+  </si>
+  <si>
+    <t>BOOL</t>
+  </si>
+  <si>
+    <t>EXP</t>
+  </si>
+  <si>
+    <t>REG</t>
+  </si>
+  <si>
+    <t>VOID</t>
+  </si>
+  <si>
+    <t>FILE</t>
+  </si>
+  <si>
+    <t>ERRORES</t>
+  </si>
+  <si>
+    <t>Total de ambito</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Tch</t>
+  </si>
+  <si>
+    <t>TS</t>
+  </si>
+  <si>
+    <t>TE</t>
+  </si>
+  <si>
+    <t>TR</t>
+  </si>
+  <si>
+    <t>TB</t>
+  </si>
+  <si>
+    <t>TX</t>
+  </si>
+  <si>
+    <t>TO</t>
+  </si>
+  <si>
+    <t>TF</t>
+  </si>
+  <si>
+    <t>TV</t>
+  </si>
+  <si>
+    <t>Asignacion</t>
+  </si>
+  <si>
+    <t>Errores</t>
+  </si>
+  <si>
+    <t>a -&gt;  TE1</t>
+  </si>
+  <si>
+    <t>b -&gt;  TE1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">x -&gt; </t>
+  </si>
+  <si>
+    <t>Regla</t>
+  </si>
+  <si>
+    <t>Funcion</t>
+  </si>
+  <si>
+    <t>Tope Pila</t>
+  </si>
+  <si>
+    <t>Valor Real</t>
+  </si>
+  <si>
+    <t>Edo</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Cont_entero</t>
+  </si>
+  <si>
+    <t>TB1</t>
+  </si>
+  <si>
+    <t>Acept</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>TB2</t>
+  </si>
+  <si>
+    <t>TB3</t>
+  </si>
+  <si>
+    <t>Entradas</t>
+  </si>
+  <si>
+    <t>Salidas</t>
+  </si>
+  <si>
+    <t>Aceptados</t>
+  </si>
+  <si>
+    <t>Etiqueta</t>
+  </si>
+  <si>
+    <t>Accion</t>
+  </si>
+  <si>
+    <t>Arg1</t>
+  </si>
+  <si>
+    <t>Arg2</t>
+  </si>
+  <si>
+    <t>Resultado</t>
+  </si>
+  <si>
+    <t>PPAL</t>
+  </si>
+  <si>
+    <t>JF</t>
+  </si>
+  <si>
+    <t>if-E1:</t>
   </si>
   <si>
     <t>+</t>
   </si>
   <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>Token</t>
-  </si>
-  <si>
-    <t>Descripción</t>
-  </si>
-  <si>
-    <t>Tipo</t>
-  </si>
-  <si>
-    <t>Erroes</t>
-  </si>
-  <si>
-    <t>Identificadores</t>
-  </si>
-  <si>
-    <t>Comentarios</t>
-  </si>
-  <si>
-    <t>Palabras reservadas</t>
-  </si>
-  <si>
-    <t>C-Enteras</t>
-  </si>
-  <si>
-    <t>C-Texto</t>
-  </si>
-  <si>
-    <t>C-Decimal</t>
-  </si>
-  <si>
-    <t>C-Carácter</t>
-  </si>
-  <si>
-    <t>C-Exponencial</t>
-  </si>
-  <si>
-    <t>Aritmeticos</t>
-  </si>
-  <si>
-    <t>Monogamo</t>
-  </si>
-  <si>
-    <t>Logico</t>
-  </si>
-  <si>
-    <t>Relacionales</t>
-  </si>
-  <si>
-    <t>Bit</t>
-  </si>
-  <si>
-    <t>Puntuación</t>
-  </si>
-  <si>
-    <t>Agrupación</t>
-  </si>
-  <si>
-    <t>Asignación</t>
-  </si>
-  <si>
-    <t>Sintaxis</t>
-  </si>
-  <si>
-    <t>Funciones</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>14</t>
-  </si>
-  <si>
-    <t>Ambito</t>
-  </si>
-  <si>
-    <t>CHAR</t>
-  </si>
-  <si>
-    <t>String (CHAR[])</t>
-  </si>
-  <si>
-    <t>REAL</t>
-  </si>
-  <si>
-    <t>BOOL</t>
-  </si>
-  <si>
-    <t>EXP</t>
-  </si>
-  <si>
-    <t>REG</t>
-  </si>
-  <si>
-    <t>VOID</t>
-  </si>
-  <si>
-    <t>FILE</t>
-  </si>
-  <si>
-    <t>ERRORES</t>
-  </si>
-  <si>
-    <t>Total de ambito</t>
-  </si>
-  <si>
-    <t>Total</t>
-  </si>
-  <si>
-    <t>Tch</t>
-  </si>
-  <si>
-    <t>TS</t>
-  </si>
-  <si>
-    <t>TE</t>
-  </si>
-  <si>
-    <t>TR</t>
-  </si>
-  <si>
-    <t>TB</t>
-  </si>
-  <si>
-    <t>TX</t>
-  </si>
-  <si>
-    <t>TO</t>
-  </si>
-  <si>
-    <t>TF</t>
-  </si>
-  <si>
-    <t>TV</t>
-  </si>
-  <si>
-    <t>Asignacion</t>
-  </si>
-  <si>
-    <t>Errores</t>
-  </si>
-  <si>
-    <t>a -&gt;  TE1</t>
-  </si>
-  <si>
-    <t>b -&gt;  TE1</t>
-  </si>
-  <si>
-    <t>c -&gt;  TE1</t>
-  </si>
-  <si>
-    <t>Regla</t>
-  </si>
-  <si>
-    <t>Funcion</t>
-  </si>
-  <si>
-    <t>Tope Pila</t>
-  </si>
-  <si>
-    <t>Valor Real</t>
-  </si>
-  <si>
-    <t>Edo</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>Cont_entero</t>
-  </si>
-  <si>
-    <t>TB1</t>
-  </si>
-  <si>
-    <t>Acept</t>
-  </si>
-  <si>
-    <t>id</t>
-  </si>
-  <si>
-    <t>TB2</t>
-  </si>
-  <si>
-    <t>Entradas</t>
-  </si>
-  <si>
-    <t>Salidas</t>
-  </si>
-  <si>
-    <t>Aceptados</t>
-  </si>
-  <si>
-    <t>Etiqueta</t>
-  </si>
-  <si>
-    <t>Accion</t>
-  </si>
-  <si>
-    <t>Arg1</t>
-  </si>
-  <si>
-    <t>Arg2</t>
-  </si>
-  <si>
-    <t>Resultado</t>
-  </si>
-  <si>
-    <t>PPAL</t>
-  </si>
-  <si>
-    <t>JF</t>
-  </si>
-  <si>
-    <t>if-E1:</t>
-  </si>
-  <si>
     <t>TE1</t>
   </si>
   <si>
@@ -409,7 +436,10 @@
     <t>if-E4:</t>
   </si>
   <si>
-    <t>TE3</t>
+    <t>Whi-E1:</t>
+  </si>
+  <si>
+    <t>Whi-E2:</t>
   </si>
   <si>
     <t>endmain</t>
@@ -508,7 +538,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C49"/>
+  <dimension ref="A1:C59"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -615,10 +645,10 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B10" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C10" t="s">
         <v>8</v>
@@ -626,318 +656,318 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C11" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C12" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B13" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C13" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B14" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C14" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B15" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C15" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
+        <v>27</v>
+      </c>
+      <c r="B16" t="s">
+        <v>28</v>
+      </c>
+      <c r="C16" t="s">
         <v>22</v>
-      </c>
-      <c r="B16" t="s">
-        <v>23</v>
-      </c>
-      <c r="C16" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
+        <v>29</v>
+      </c>
+      <c r="B17" t="s">
+        <v>30</v>
+      </c>
+      <c r="C17" t="s">
         <v>31</v>
-      </c>
-      <c r="B17" t="s">
-        <v>5</v>
-      </c>
-      <c r="C17" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="B18" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="C18" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
+        <v>32</v>
+      </c>
+      <c r="B19" t="s">
+        <v>5</v>
+      </c>
+      <c r="C19" t="s">
         <v>31</v>
-      </c>
-      <c r="B19" t="s">
-        <v>8</v>
-      </c>
-      <c r="C19" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="B20" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="C20" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="B21" t="s">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="C21" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="B22" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="C22" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="B23" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="C23" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="B24" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C24" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="B25" t="s">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="C25" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="B26" t="s">
-        <v>38</v>
+        <v>5</v>
       </c>
       <c r="C26" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="B27" t="s">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="C27" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="B28" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="C28" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="B29" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="C29" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="C30" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="B31" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="C31" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B32" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="C32" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="B33" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="C33" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C34" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="B35" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="C35" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="B36" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="C36" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="B37" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C37" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="C38" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="B39" t="s">
-        <v>38</v>
+        <v>8</v>
       </c>
       <c r="C39" t="s">
         <v>43</v>
@@ -945,10 +975,10 @@
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="B40" t="s">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="C40" t="s">
         <v>43</v>
@@ -956,21 +986,21 @@
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="B41" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="C41" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="C42" t="s">
         <v>44</v>
@@ -978,10 +1008,10 @@
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="B43" t="s">
-        <v>46</v>
+        <v>28</v>
       </c>
       <c r="C43" t="s">
         <v>44</v>
@@ -992,65 +1022,175 @@
         <v>11</v>
       </c>
       <c r="B44" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C44" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
+        <v>46</v>
+      </c>
+      <c r="B45" t="s">
         <v>47</v>
       </c>
-      <c r="B45" t="s">
-        <v>48</v>
-      </c>
       <c r="C45" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="B46" t="s">
-        <v>15</v>
+        <v>48</v>
       </c>
       <c r="C46" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B47" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C47" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="B48" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="C48" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="B49" t="s">
+        <v>24</v>
+      </c>
+      <c r="C49" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s">
+        <v>11</v>
+      </c>
+      <c r="B50" t="s">
+        <v>17</v>
+      </c>
+      <c r="C50" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s">
+        <v>52</v>
+      </c>
+      <c r="B51" t="s">
+        <v>53</v>
+      </c>
+      <c r="C51" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s">
+        <v>32</v>
+      </c>
+      <c r="B52" t="s">
+        <v>40</v>
+      </c>
+      <c r="C52" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s">
+        <v>25</v>
+      </c>
+      <c r="B53" t="s">
+        <v>26</v>
+      </c>
+      <c r="C53" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s">
+        <v>54</v>
+      </c>
+      <c r="B54" t="s">
+        <v>55</v>
+      </c>
+      <c r="C54" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s">
+        <v>11</v>
+      </c>
+      <c r="B55" t="s">
+        <v>17</v>
+      </c>
+      <c r="C55" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s">
+        <v>18</v>
+      </c>
+      <c r="B56" t="s">
+        <v>19</v>
+      </c>
+      <c r="C56" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s">
         <v>38</v>
       </c>
-      <c r="C49" t="s">
-        <v>50</v>
+      <c r="B57" t="s">
+        <v>39</v>
+      </c>
+      <c r="C57" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="s">
+        <v>18</v>
+      </c>
+      <c r="B58" t="s">
+        <v>19</v>
+      </c>
+      <c r="C58" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="s">
+        <v>38</v>
+      </c>
+      <c r="B59" t="s">
+        <v>39</v>
+      </c>
+      <c r="C59" t="s">
+        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -1068,16 +1208,16 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="B1" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="E1" t="s">
         <v>2</v>
@@ -1098,120 +1238,120 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="B1" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="C1" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="D1" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="E1" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="F1" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="G1" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="H1" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="I1" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="J1" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="K1" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="L1" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="M1" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="N1" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="O1" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="P1" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="Q1" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="R1" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="S1" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>73</v>
+        <v>48</v>
       </c>
       <c r="B2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C2" t="s">
         <v>5</v>
       </c>
       <c r="D2" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="E2" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="F2" t="s">
-        <v>73</v>
+        <v>48</v>
       </c>
       <c r="G2" t="s">
-        <v>73</v>
+        <v>48</v>
       </c>
       <c r="H2" t="s">
-        <v>73</v>
+        <v>48</v>
       </c>
       <c r="I2" t="s">
-        <v>73</v>
+        <v>48</v>
       </c>
       <c r="J2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K2" t="s">
         <v>5</v>
       </c>
-      <c r="K2" t="s">
-        <v>73</v>
-      </c>
       <c r="L2" t="s">
-        <v>73</v>
+        <v>48</v>
       </c>
       <c r="M2" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="N2" t="s">
-        <v>73</v>
+        <v>48</v>
       </c>
       <c r="O2" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="P2" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="Q2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="R2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="S2" t="s">
-        <v>73</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -1229,40 +1369,40 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="B1" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="C1" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="D1" t="s">
         <v>7</v>
       </c>
       <c r="E1" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="F1" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G1" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="H1" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="I1" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="J1" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="K1" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="L1" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
     </row>
     <row r="2">
@@ -1276,7 +1416,7 @@
         <v>0.0</v>
       </c>
       <c r="D2" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="E2" t="n">
         <v>0.0</v>
@@ -1300,12 +1440,12 @@
         <v>0.0</v>
       </c>
       <c r="L2" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="B3" t="n">
         <v>0.0</v>
@@ -1314,7 +1454,7 @@
         <v>0.0</v>
       </c>
       <c r="D3" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="E3" t="n">
         <v>0.0</v>
@@ -1338,7 +1478,7 @@
         <v>0.0</v>
       </c>
       <c r="L3" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
     </row>
   </sheetData>
@@ -1359,40 +1499,40 @@
         <v>2</v>
       </c>
       <c r="B1" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="C1" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="D1" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="E1" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="F1" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="G1" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="H1" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="I1" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="J1" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="K1" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="L1" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="M1" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
     </row>
     <row r="2">
@@ -1430,7 +1570,7 @@
         <v>0.0</v>
       </c>
       <c r="L2" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="M2" t="n">
         <v>0.0</v>
@@ -1471,7 +1611,7 @@
         <v>0.0</v>
       </c>
       <c r="L3" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="M3" t="n">
         <v>0.0</v>
@@ -1488,7 +1628,7 @@
         <v>0.0</v>
       </c>
       <c r="D4" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="E4" t="n">
         <v>0.0</v>
@@ -1512,7 +1652,7 @@
         <v>0.0</v>
       </c>
       <c r="L4" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="M4" t="n">
         <v>0.0</v>
@@ -1525,7 +1665,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1533,25 +1673,25 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="B1" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="C1" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="D1" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="E1" t="s">
         <v>2</v>
       </c>
       <c r="F1" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="G1" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
     </row>
     <row r="2">
@@ -1559,19 +1699,19 @@
         <v>1010.0</v>
       </c>
       <c r="B2" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="C2" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="D2" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="E2" t="n">
         <v>4.0</v>
       </c>
       <c r="F2" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="G2" t="n">
         <v>0.0</v>
@@ -1582,10 +1722,10 @@
         <v>1130.0</v>
       </c>
       <c r="B3" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="C3" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="D3" t="s">
         <v>12</v>
@@ -1594,7 +1734,7 @@
         <v>5.0</v>
       </c>
       <c r="F3" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="G3" t="n">
         <v>0.0</v>
@@ -1605,10 +1745,10 @@
         <v>1090.0</v>
       </c>
       <c r="B4" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="C4" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="D4" t="s">
         <v>12</v>
@@ -1617,7 +1757,7 @@
         <v>5.0</v>
       </c>
       <c r="F4" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="G4" t="n">
         <v>0.0</v>
@@ -1628,19 +1768,19 @@
         <v>1021.0</v>
       </c>
       <c r="B5" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="C5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E5" t="n">
         <v>5.0</v>
       </c>
       <c r="F5" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="G5" t="n">
         <v>0.0</v>
@@ -1651,19 +1791,19 @@
         <v>1010.0</v>
       </c>
       <c r="B6" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="C6" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="D6" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="E6" t="n">
         <v>6.0</v>
       </c>
       <c r="F6" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="G6" t="n">
         <v>0.0</v>
@@ -1674,10 +1814,10 @@
         <v>1130.0</v>
       </c>
       <c r="B7" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="C7" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="D7" t="s">
         <v>15</v>
@@ -1686,7 +1826,7 @@
         <v>7.0</v>
       </c>
       <c r="F7" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="G7" t="n">
         <v>0.0</v>
@@ -1697,10 +1837,10 @@
         <v>1090.0</v>
       </c>
       <c r="B8" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="C8" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="D8" t="s">
         <v>15</v>
@@ -1709,7 +1849,7 @@
         <v>7.0</v>
       </c>
       <c r="F8" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="G8" t="n">
         <v>0.0</v>
@@ -1720,19 +1860,19 @@
         <v>1021.0</v>
       </c>
       <c r="B9" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="C9" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D9" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E9" t="n">
         <v>7.0</v>
       </c>
       <c r="F9" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="G9" t="n">
         <v>0.0</v>
@@ -1743,19 +1883,19 @@
         <v>1130.0</v>
       </c>
       <c r="B10" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="C10" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="D10" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E10" t="n">
         <v>9.0</v>
       </c>
       <c r="F10" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="G10" t="n">
         <v>0.0</v>
@@ -1763,22 +1903,22 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>1130.0</v>
+        <v>1090.0</v>
       </c>
       <c r="B11" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="C11" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="D11" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="E11" t="n">
         <v>9.0</v>
       </c>
       <c r="F11" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="G11" t="n">
         <v>0.0</v>
@@ -1786,22 +1926,22 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>1130.0</v>
+        <v>1020.0</v>
       </c>
       <c r="B12" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="C12" t="s">
-        <v>110</v>
+        <v>47</v>
       </c>
       <c r="D12" t="s">
-        <v>15</v>
+        <v>47</v>
       </c>
       <c r="E12" t="n">
         <v>9.0</v>
       </c>
       <c r="F12" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="G12" t="n">
         <v>0.0</v>
@@ -1809,24 +1949,93 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>1090.0</v>
+        <v>1130.0</v>
       </c>
       <c r="B13" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="C13" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="D13" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E13" t="n">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="F13" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="G13" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>1011.0</v>
+      </c>
+      <c r="B14" t="s">
+        <v>113</v>
+      </c>
+      <c r="C14" t="s">
+        <v>117</v>
+      </c>
+      <c r="D14" t="s">
+        <v>119</v>
+      </c>
+      <c r="E14" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="F14" t="s">
+        <v>116</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>1130.0</v>
+      </c>
+      <c r="B15" t="s">
+        <v>113</v>
+      </c>
+      <c r="C15" t="s">
+        <v>117</v>
+      </c>
+      <c r="D15" t="s">
+        <v>17</v>
+      </c>
+      <c r="E15" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="F15" t="s">
+        <v>116</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>1180.0</v>
+      </c>
+      <c r="B16" t="s">
+        <v>113</v>
+      </c>
+      <c r="C16" t="s">
+        <v>117</v>
+      </c>
+      <c r="D16" t="s">
+        <v>17</v>
+      </c>
+      <c r="E16" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="F16" t="s">
+        <v>116</v>
+      </c>
+      <c r="G16" t="n">
         <v>0.0</v>
       </c>
     </row>
@@ -1845,19 +2054,19 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="B1" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="C1" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="D1" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="E1" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
     </row>
   </sheetData>
@@ -1867,7 +2076,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E18"/>
+  <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1875,44 +2084,44 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="B1" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="C1" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="D1" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="E1" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="B2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C2" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="D2" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="E2" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="B3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C3" t="s">
         <v>5</v>
@@ -1921,32 +2130,32 @@
         <v>8</v>
       </c>
       <c r="E3" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="B4" t="s">
-        <v>121</v>
+        <v>129</v>
       </c>
       <c r="C4" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="D4" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="E4" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="B5" t="s">
-        <v>48</v>
+        <v>131</v>
       </c>
       <c r="C5" t="s">
         <v>12</v>
@@ -1955,83 +2164,83 @@
         <v>5</v>
       </c>
       <c r="E5" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="B6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C6" t="s">
         <v>12</v>
       </c>
       <c r="D6" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="E6" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="B7" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="C7" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="D7" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="E7" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
       <c r="B8" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D8" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E8" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="B9" t="s">
-        <v>121</v>
+        <v>129</v>
       </c>
       <c r="C9" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="D9" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="E9" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="B10" t="s">
-        <v>48</v>
+        <v>131</v>
       </c>
       <c r="C10" t="s">
         <v>15</v>
@@ -2040,143 +2249,211 @@
         <v>8</v>
       </c>
       <c r="E10" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="B11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C11" t="s">
         <v>15</v>
       </c>
       <c r="D11" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="E11" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="B12" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="C12" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="D12" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="E12" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="B13" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="C13" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="D13" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="E13" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="B14" t="s">
+        <v>47</v>
+      </c>
+      <c r="C14" t="s">
+        <v>17</v>
+      </c>
+      <c r="D14" t="s">
+        <v>113</v>
+      </c>
+      <c r="E14" t="s">
         <v>48</v>
-      </c>
-      <c r="C14" t="s">
-        <v>12</v>
-      </c>
-      <c r="D14" t="s">
-        <v>15</v>
-      </c>
-      <c r="E14" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>106</v>
+        <v>138</v>
       </c>
       <c r="B15" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="C15" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D15" t="s">
-        <v>106</v>
+        <v>40</v>
       </c>
       <c r="E15" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>128</v>
+        <v>113</v>
       </c>
       <c r="B16" t="s">
-        <v>106</v>
+        <v>129</v>
       </c>
       <c r="C16" t="s">
-        <v>106</v>
+        <v>119</v>
       </c>
       <c r="D16" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="E16" t="s">
-        <v>106</v>
+        <v>139</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>125</v>
+        <v>113</v>
       </c>
       <c r="B17" t="s">
-        <v>106</v>
+        <v>55</v>
       </c>
       <c r="C17" t="s">
-        <v>106</v>
+        <v>17</v>
       </c>
       <c r="D17" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="E17" t="s">
-        <v>106</v>
+        <v>17</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>130</v>
+        <v>113</v>
       </c>
       <c r="B18" t="s">
-        <v>106</v>
+        <v>133</v>
       </c>
       <c r="C18" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="D18" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="E18" t="s">
-        <v>106</v>
+        <v>138</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>139</v>
+      </c>
+      <c r="B19" t="s">
+        <v>113</v>
+      </c>
+      <c r="C19" t="s">
+        <v>113</v>
+      </c>
+      <c r="D19" t="s">
+        <v>113</v>
+      </c>
+      <c r="E19" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>137</v>
+      </c>
+      <c r="B20" t="s">
+        <v>113</v>
+      </c>
+      <c r="C20" t="s">
+        <v>113</v>
+      </c>
+      <c r="D20" t="s">
+        <v>113</v>
+      </c>
+      <c r="E20" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>134</v>
+      </c>
+      <c r="B21" t="s">
+        <v>113</v>
+      </c>
+      <c r="C21" t="s">
+        <v>113</v>
+      </c>
+      <c r="D21" t="s">
+        <v>113</v>
+      </c>
+      <c r="E21" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>140</v>
+      </c>
+      <c r="B22" t="s">
+        <v>113</v>
+      </c>
+      <c r="C22" t="s">
+        <v>113</v>
+      </c>
+      <c r="D22" t="s">
+        <v>113</v>
+      </c>
+      <c r="E22" t="s">
+        <v>113</v>
       </c>
     </row>
   </sheetData>
@@ -2194,79 +2471,79 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>131</v>
+        <v>141</v>
       </c>
       <c r="B1" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="C1" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="D1" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="E1" t="s">
-        <v>132</v>
+        <v>142</v>
       </c>
       <c r="F1" t="s">
+        <v>143</v>
+      </c>
+      <c r="G1" t="s">
+        <v>98</v>
+      </c>
+      <c r="H1" t="s">
+        <v>144</v>
+      </c>
+      <c r="I1" t="s">
+        <v>101</v>
+      </c>
+      <c r="J1" t="s">
+        <v>145</v>
+      </c>
+      <c r="K1" t="s">
+        <v>146</v>
+      </c>
+      <c r="L1" t="s">
+        <v>47</v>
+      </c>
+      <c r="M1" t="s">
+        <v>147</v>
+      </c>
+      <c r="N1" t="s">
+        <v>148</v>
+      </c>
+      <c r="O1" t="s">
+        <v>149</v>
+      </c>
+      <c r="P1" t="s">
+        <v>150</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>129</v>
+      </c>
+      <c r="R1" t="s">
         <v>133</v>
       </c>
-      <c r="G1" t="s">
-        <v>91</v>
-      </c>
-      <c r="H1" t="s">
-        <v>134</v>
-      </c>
-      <c r="I1" t="s">
-        <v>94</v>
-      </c>
-      <c r="J1" t="s">
-        <v>135</v>
-      </c>
-      <c r="K1" t="s">
-        <v>136</v>
-      </c>
-      <c r="L1" t="s">
-        <v>46</v>
-      </c>
-      <c r="M1" t="s">
-        <v>137</v>
-      </c>
-      <c r="N1" t="s">
-        <v>138</v>
-      </c>
-      <c r="O1" t="s">
-        <v>139</v>
-      </c>
-      <c r="P1" t="s">
-        <v>140</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>121</v>
-      </c>
-      <c r="R1" t="s">
-        <v>124</v>
-      </c>
       <c r="S1" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="T1" t="s">
-        <v>142</v>
+        <v>152</v>
       </c>
       <c r="U1" t="s">
-        <v>143</v>
+        <v>153</v>
       </c>
       <c r="V1" t="s">
-        <v>144</v>
+        <v>154</v>
       </c>
       <c r="W1" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
       <c r="X1" t="s">
-        <v>146</v>
+        <v>156</v>
       </c>
       <c r="Y1" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
     </row>
     <row r="2">
@@ -2274,22 +2551,22 @@
         <v>0.0</v>
       </c>
       <c r="B2" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G2" t="n">
         <v>3.0</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="G2" t="n">
-        <v>2.0</v>
       </c>
       <c r="H2" t="n">
         <v>0.0</v>
@@ -2307,22 +2584,22 @@
         <v>3.0</v>
       </c>
       <c r="M2" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O2" t="n">
         <v>2.0</v>
       </c>
-      <c r="N2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="O2" t="n">
+      <c r="P2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="Q2" t="n">
         <v>3.0</v>
       </c>
-      <c r="P2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>2.0</v>
-      </c>
       <c r="R2" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="S2" t="n">
         <v>0.0</v>
@@ -2337,7 +2614,7 @@
         <v>0.0</v>
       </c>
       <c r="W2" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="X2" t="n">
         <v>0.0</v>
@@ -2348,25 +2625,25 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>147</v>
+        <v>157</v>
       </c>
       <c r="B3" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G3" t="n">
         <v>3.0</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="G3" t="n">
-        <v>2.0</v>
       </c>
       <c r="H3" t="n">
         <v>0.0</v>
@@ -2384,22 +2661,22 @@
         <v>3.0</v>
       </c>
       <c r="M3" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O3" t="n">
         <v>2.0</v>
       </c>
-      <c r="N3" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="O3" t="n">
+      <c r="P3" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="Q3" t="n">
         <v>3.0</v>
       </c>
-      <c r="P3" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>2.0</v>
-      </c>
       <c r="R3" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="S3" t="n">
         <v>0.0</v>
@@ -2414,7 +2691,7 @@
         <v>0.0</v>
       </c>
       <c r="W3" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="X3" t="n">
         <v>0.0</v>

--- a/src/Excel/Yañez_Gonzalez_Christian_Emmanuel.xlsx
+++ b/src/Excel/Yañez_Gonzalez_Christian_Emmanuel.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="457" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1165" uniqueCount="234">
   <si>
     <t>Estado</t>
   </si>
@@ -34,7 +34,7 @@
     <t>-2</t>
   </si>
   <si>
-    <t>//28</t>
+    <t>//final</t>
   </si>
   <si>
     <t>1</t>
@@ -67,13 +67,16 @@
     <t>,</t>
   </si>
   <si>
+    <t>x</t>
+  </si>
+  <si>
     <t>b</t>
   </si>
   <si>
     <t>c</t>
   </si>
   <si>
-    <t>x</t>
+    <t>d</t>
   </si>
   <si>
     <t>-46</t>
@@ -82,13 +85,40 @@
     <t>;</t>
   </si>
   <si>
+    <t>-64</t>
+  </si>
+  <si>
+    <t>EXP</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>-51</t>
+  </si>
+  <si>
+    <t>[</t>
+  </si>
+  <si>
+    <t>-19</t>
+  </si>
+  <si>
+    <t>-52</t>
+  </si>
+  <si>
+    <t>]</t>
+  </si>
+  <si>
+    <t>arr</t>
+  </si>
+  <si>
     <t>-61</t>
   </si>
   <si>
     <t>main</t>
   </si>
   <si>
-    <t>3</t>
+    <t>4</t>
   </si>
   <si>
     <t>-49</t>
@@ -109,16 +139,154 @@
     <t>{</t>
   </si>
   <si>
+    <t>-11</t>
+  </si>
+  <si>
+    <t>switch</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>-100</t>
+  </si>
+  <si>
+    <t>case</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
     <t>-4</t>
   </si>
   <si>
     <t>if</t>
   </si>
   <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>-19</t>
+    <t>7</t>
+  </si>
+  <si>
+    <t>-36</t>
+  </si>
+  <si>
+    <t>&lt;</t>
+  </si>
+  <si>
+    <t>-30</t>
+  </si>
+  <si>
+    <t>++</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>-95</t>
+  </si>
+  <si>
+    <t>else</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>-31</t>
+  </si>
+  <si>
+    <t>--</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>-93</t>
+  </si>
+  <si>
+    <t>break</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>-8</t>
+  </si>
+  <si>
+    <t>for</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>-55</t>
+  </si>
+  <si>
+    <t>=</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>-6</t>
+  </si>
+  <si>
+    <t>while</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>-24</t>
+  </si>
+  <si>
+    <t>+</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>-73</t>
+  </si>
+  <si>
+    <t>pow</t>
+  </si>
+  <si>
+    <t>-99</t>
+  </si>
+  <si>
+    <t>default</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>25</t>
   </si>
   <si>
     <t>-38</t>
@@ -127,7 +295,7 @@
     <t>&gt;</t>
   </si>
   <si>
-    <t>5</t>
+    <t>26</t>
   </si>
   <si>
     <t>-56</t>
@@ -142,61 +310,25 @@
     <t>}</t>
   </si>
   <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>-95</t>
-  </si>
-  <si>
-    <t>else</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>-55</t>
-  </si>
-  <si>
-    <t>=</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>-6</t>
-  </si>
-  <si>
-    <t>while</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>-36</t>
-  </si>
-  <si>
-    <t>&lt;</t>
-  </si>
-  <si>
-    <t>-30</t>
-  </si>
-  <si>
-    <t>++</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>13</t>
+    <t>27</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>31</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>33</t>
   </si>
   <si>
     <t>Token</t>
@@ -265,9 +397,6 @@
     <t>Funciones</t>
   </si>
   <si>
-    <t>16</t>
-  </si>
-  <si>
     <t>Ambito</t>
   </si>
   <si>
@@ -283,9 +412,6 @@
     <t>BOOL</t>
   </si>
   <si>
-    <t>EXP</t>
-  </si>
-  <si>
     <t>REG</t>
   </si>
   <si>
@@ -337,13 +463,22 @@
     <t>Errores</t>
   </si>
   <si>
+    <t xml:space="preserve">x -&gt; </t>
+  </si>
+  <si>
+    <t>x -&gt;  TE1</t>
+  </si>
+  <si>
+    <t>TAr1 -&gt;  TE1 TX1</t>
+  </si>
+  <si>
     <t>a -&gt;  TE1</t>
   </si>
   <si>
     <t>b -&gt;  TE1</t>
   </si>
   <si>
-    <t xml:space="preserve">x -&gt; </t>
+    <t>c -&gt;  TE1</t>
   </si>
   <si>
     <t>Regla</t>
@@ -364,82 +499,178 @@
     <t/>
   </si>
   <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>Acept</t>
+  </si>
+  <si>
     <t>Cont_entero</t>
   </si>
   <si>
+    <t>TB2</t>
+  </si>
+  <si>
+    <t>TB4</t>
+  </si>
+  <si>
+    <t>TB5</t>
+  </si>
+  <si>
+    <t>TB7</t>
+  </si>
+  <si>
+    <t>TB8</t>
+  </si>
+  <si>
+    <t>const_entero</t>
+  </si>
+  <si>
+    <t>pow_p1</t>
+  </si>
+  <si>
+    <t>pow_p2</t>
+  </si>
+  <si>
+    <t>TAr1</t>
+  </si>
+  <si>
+    <t>TB10</t>
+  </si>
+  <si>
+    <t>TB11</t>
+  </si>
+  <si>
+    <t>Entradas</t>
+  </si>
+  <si>
+    <t>Salidas</t>
+  </si>
+  <si>
+    <t>Aceptados</t>
+  </si>
+  <si>
+    <t>Etiqueta</t>
+  </si>
+  <si>
+    <t>Accion</t>
+  </si>
+  <si>
+    <t>Arg1</t>
+  </si>
+  <si>
+    <t>Arg2</t>
+  </si>
+  <si>
+    <t>Resultado</t>
+  </si>
+  <si>
+    <t>PPAL</t>
+  </si>
+  <si>
     <t>TB1</t>
   </si>
   <si>
-    <t>Acept</t>
-  </si>
-  <si>
-    <t>id</t>
-  </si>
-  <si>
-    <t>TB2</t>
+    <t>JF</t>
+  </si>
+  <si>
+    <t>sw-E2:</t>
+  </si>
+  <si>
+    <t>if-E1:</t>
+  </si>
+  <si>
+    <t>JMP</t>
+  </si>
+  <si>
+    <t>if-E2:</t>
+  </si>
+  <si>
+    <t>sw-E1:</t>
   </si>
   <si>
     <t>TB3</t>
   </si>
   <si>
-    <t>Entradas</t>
-  </si>
-  <si>
-    <t>Salidas</t>
-  </si>
-  <si>
-    <t>Aceptados</t>
-  </si>
-  <si>
-    <t>Etiqueta</t>
-  </si>
-  <si>
-    <t>Accion</t>
-  </si>
-  <si>
-    <t>Arg1</t>
-  </si>
-  <si>
-    <t>Arg2</t>
-  </si>
-  <si>
-    <t>Resultado</t>
-  </si>
-  <si>
-    <t>PPAL</t>
-  </si>
-  <si>
-    <t>JF</t>
-  </si>
-  <si>
-    <t>if-E1:</t>
-  </si>
-  <si>
-    <t>+</t>
+    <t>sw-E3:</t>
+  </si>
+  <si>
+    <t>For-E1:</t>
+  </si>
+  <si>
+    <t>For-E2:</t>
+  </si>
+  <si>
+    <t>Whi-E1:</t>
+  </si>
+  <si>
+    <t>Whi-E2:</t>
   </si>
   <si>
     <t>TE1</t>
   </si>
   <si>
-    <t>JMP</t>
-  </si>
-  <si>
-    <t>if-E2:</t>
+    <t>TB6</t>
+  </si>
+  <si>
+    <t>sw-E4:</t>
+  </si>
+  <si>
+    <t>Whi-E3:</t>
+  </si>
+  <si>
+    <t>Whi-E4:</t>
+  </si>
+  <si>
+    <t>For-E3:</t>
+  </si>
+  <si>
+    <t>For-E4:</t>
+  </si>
+  <si>
+    <t>TE2</t>
+  </si>
+  <si>
+    <t>TB9</t>
+  </si>
+  <si>
+    <t>sw-E5:</t>
+  </si>
+  <si>
+    <t>Arr</t>
+  </si>
+  <si>
+    <t>Call</t>
+  </si>
+  <si>
+    <t>TEX1</t>
+  </si>
+  <si>
+    <t>TE3</t>
+  </si>
+  <si>
+    <t>TEX2</t>
   </si>
   <si>
     <t>if-E3:</t>
   </si>
   <si>
-    <t>TE2</t>
+    <t>TE4</t>
   </si>
   <si>
     <t>if-E4:</t>
   </si>
   <si>
-    <t>Whi-E1:</t>
-  </si>
-  <si>
-    <t>Whi-E2:</t>
+    <t>if-E5:</t>
+  </si>
+  <si>
+    <t>TE5</t>
+  </si>
+  <si>
+    <t>if-E6:</t>
+  </si>
+  <si>
+    <t>TE6</t>
   </si>
   <si>
     <t>endmain</t>
@@ -455,9 +686,6 @@
   </si>
   <si>
     <t>TRX</t>
-  </si>
-  <si>
-    <t>Arr</t>
   </si>
   <si>
     <t>call</t>
@@ -538,7 +766,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C59"/>
+  <dimension ref="A1:C158"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -667,10 +895,10 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C12" t="s">
         <v>8</v>
@@ -678,222 +906,222 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C13" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C14" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B15" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C15" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B16" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C16" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B17" t="s">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="C17" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
+        <v>27</v>
+      </c>
+      <c r="B18" t="s">
+        <v>28</v>
+      </c>
+      <c r="C18" t="s">
         <v>23</v>
-      </c>
-      <c r="B18" t="s">
-        <v>24</v>
-      </c>
-      <c r="C18" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="B19" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C19" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="B20" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C20" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="C21" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="B22" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C22" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="B23" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="C23" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="B24" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="C24" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B25" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C25" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="B26" t="s">
-        <v>5</v>
+        <v>40</v>
       </c>
       <c r="C26" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="B27" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="C27" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
+        <v>37</v>
+      </c>
+      <c r="B28" t="s">
         <v>38</v>
       </c>
-      <c r="B28" t="s">
-        <v>39</v>
-      </c>
       <c r="C28" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B29" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C29" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B30" t="s">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="C30" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="B31" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="C31" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="B32" t="s">
-        <v>22</v>
+        <v>46</v>
       </c>
       <c r="C32" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
     </row>
     <row r="33">
@@ -904,183 +1132,183 @@
         <v>34</v>
       </c>
       <c r="C33" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="B34" t="s">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="C34" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>25</v>
+        <v>48</v>
       </c>
       <c r="B35" t="s">
-        <v>26</v>
+        <v>49</v>
       </c>
       <c r="C35" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B36" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C36" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="C37" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="B38" t="s">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="C38" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="B39" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C39" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>18</v>
+        <v>53</v>
       </c>
       <c r="B40" t="s">
-        <v>19</v>
+        <v>54</v>
       </c>
       <c r="C40" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>38</v>
+        <v>56</v>
       </c>
       <c r="B41" t="s">
-        <v>39</v>
+        <v>57</v>
       </c>
       <c r="C41" t="s">
-        <v>44</v>
+        <v>58</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>41</v>
+        <v>11</v>
       </c>
       <c r="B42" t="s">
-        <v>42</v>
+        <v>12</v>
       </c>
       <c r="C42" t="s">
-        <v>44</v>
+        <v>58</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>27</v>
+        <v>59</v>
       </c>
       <c r="B43" t="s">
-        <v>28</v>
+        <v>60</v>
       </c>
       <c r="C43" t="s">
-        <v>44</v>
+        <v>61</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="B44" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C44" t="s">
-        <v>45</v>
+        <v>61</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B45" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C45" t="s">
-        <v>45</v>
+        <v>62</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="B46" t="s">
-        <v>48</v>
+        <v>8</v>
       </c>
       <c r="C46" t="s">
-        <v>45</v>
+        <v>62</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="B47" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="C47" t="s">
-        <v>45</v>
+        <v>62</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>49</v>
+        <v>63</v>
       </c>
       <c r="B48" t="s">
-        <v>50</v>
+        <v>64</v>
       </c>
       <c r="C48" t="s">
-        <v>51</v>
+        <v>65</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="B49" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="C49" t="s">
-        <v>51</v>
+        <v>65</v>
       </c>
     </row>
     <row r="50">
@@ -1088,109 +1316,1198 @@
         <v>11</v>
       </c>
       <c r="B50" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C50" t="s">
-        <v>51</v>
+        <v>65</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>52</v>
+        <v>66</v>
       </c>
       <c r="B51" t="s">
-        <v>53</v>
+        <v>67</v>
       </c>
       <c r="C51" t="s">
-        <v>51</v>
+        <v>65</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="B52" t="s">
-        <v>40</v>
+        <v>68</v>
       </c>
       <c r="C52" t="s">
-        <v>51</v>
+        <v>65</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="B53" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="C53" t="s">
-        <v>51</v>
+        <v>65</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>54</v>
+        <v>11</v>
       </c>
       <c r="B54" t="s">
-        <v>55</v>
+        <v>15</v>
       </c>
       <c r="C54" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>11</v>
+        <v>48</v>
       </c>
       <c r="B55" t="s">
-        <v>17</v>
+        <v>49</v>
       </c>
       <c r="C55" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="B56" t="s">
-        <v>19</v>
+        <v>44</v>
       </c>
       <c r="C56" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="B57" t="s">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="C57" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>18</v>
+        <v>50</v>
       </c>
       <c r="B58" t="s">
-        <v>19</v>
+        <v>51</v>
       </c>
       <c r="C58" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
+        <v>11</v>
+      </c>
+      <c r="B59" t="s">
+        <v>15</v>
+      </c>
+      <c r="C59" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="s">
+        <v>35</v>
+      </c>
+      <c r="B60" t="s">
+        <v>36</v>
+      </c>
+      <c r="C60" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="s">
+        <v>69</v>
+      </c>
+      <c r="B61" t="s">
+        <v>70</v>
+      </c>
+      <c r="C61" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="s">
+        <v>33</v>
+      </c>
+      <c r="B62" t="s">
+        <v>34</v>
+      </c>
+      <c r="C62" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="s">
+        <v>11</v>
+      </c>
+      <c r="B63" t="s">
+        <v>15</v>
+      </c>
+      <c r="C63" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="s">
+        <v>48</v>
+      </c>
+      <c r="B64" t="s">
+        <v>49</v>
+      </c>
+      <c r="C64" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="s">
+        <v>26</v>
+      </c>
+      <c r="B65" t="s">
+        <v>44</v>
+      </c>
+      <c r="C65" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="s">
+        <v>35</v>
+      </c>
+      <c r="B66" t="s">
+        <v>36</v>
+      </c>
+      <c r="C66" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="s">
+        <v>11</v>
+      </c>
+      <c r="B67" t="s">
+        <v>15</v>
+      </c>
+      <c r="C67" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="s">
+        <v>66</v>
+      </c>
+      <c r="B68" t="s">
+        <v>67</v>
+      </c>
+      <c r="C68" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="s">
+        <v>26</v>
+      </c>
+      <c r="B69" t="s">
+        <v>5</v>
+      </c>
+      <c r="C69" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="s">
+        <v>73</v>
+      </c>
+      <c r="B70" t="s">
+        <v>74</v>
+      </c>
+      <c r="C70" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="s">
+        <v>26</v>
+      </c>
+      <c r="B71" t="s">
+        <v>23</v>
+      </c>
+      <c r="C71" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="s">
+        <v>59</v>
+      </c>
+      <c r="B72" t="s">
+        <v>60</v>
+      </c>
+      <c r="C72" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="s">
+        <v>19</v>
+      </c>
+      <c r="B73" t="s">
+        <v>20</v>
+      </c>
+      <c r="C73" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="s">
+        <v>42</v>
+      </c>
+      <c r="B74" t="s">
+        <v>43</v>
+      </c>
+      <c r="C74" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="s">
+        <v>26</v>
+      </c>
+      <c r="B75" t="s">
+        <v>23</v>
+      </c>
+      <c r="C75" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="s">
+        <v>9</v>
+      </c>
+      <c r="B76" t="s">
+        <v>10</v>
+      </c>
+      <c r="C76" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="s">
+        <v>69</v>
+      </c>
+      <c r="B77" t="s">
+        <v>70</v>
+      </c>
+      <c r="C77" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="s">
+        <v>33</v>
+      </c>
+      <c r="B78" t="s">
+        <v>34</v>
+      </c>
+      <c r="C78" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="s">
+        <v>11</v>
+      </c>
+      <c r="B79" t="s">
+        <v>15</v>
+      </c>
+      <c r="C79" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="s">
+        <v>48</v>
+      </c>
+      <c r="B80" t="s">
+        <v>49</v>
+      </c>
+      <c r="C80" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="s">
+        <v>26</v>
+      </c>
+      <c r="B81" t="s">
+        <v>44</v>
+      </c>
+      <c r="C81" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="s">
+        <v>35</v>
+      </c>
+      <c r="B82" t="s">
+        <v>36</v>
+      </c>
+      <c r="C82" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="s">
+        <v>63</v>
+      </c>
+      <c r="B83" t="s">
+        <v>64</v>
+      </c>
+      <c r="C83" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="s">
+        <v>33</v>
+      </c>
+      <c r="B84" t="s">
+        <v>34</v>
+      </c>
+      <c r="C84" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="s">
+        <v>11</v>
+      </c>
+      <c r="B85" t="s">
+        <v>15</v>
+      </c>
+      <c r="C85" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="s">
+        <v>66</v>
+      </c>
+      <c r="B86" t="s">
+        <v>67</v>
+      </c>
+      <c r="C86" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="s">
+        <v>26</v>
+      </c>
+      <c r="B87" t="s">
+        <v>68</v>
+      </c>
+      <c r="C87" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="s">
+        <v>19</v>
+      </c>
+      <c r="B88" t="s">
+        <v>20</v>
+      </c>
+      <c r="C88" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="s">
+        <v>11</v>
+      </c>
+      <c r="B89" t="s">
+        <v>15</v>
+      </c>
+      <c r="C89" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="s">
+        <v>48</v>
+      </c>
+      <c r="B90" t="s">
+        <v>49</v>
+      </c>
+      <c r="C90" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="s">
+        <v>26</v>
+      </c>
+      <c r="B91" t="s">
+        <v>44</v>
+      </c>
+      <c r="C91" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="s">
+        <v>19</v>
+      </c>
+      <c r="B92" t="s">
+        <v>20</v>
+      </c>
+      <c r="C92" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="s">
+        <v>50</v>
+      </c>
+      <c r="B93" t="s">
+        <v>51</v>
+      </c>
+      <c r="C93" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="s">
+        <v>11</v>
+      </c>
+      <c r="B94" t="s">
+        <v>15</v>
+      </c>
+      <c r="C94" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="s">
+        <v>35</v>
+      </c>
+      <c r="B95" t="s">
+        <v>36</v>
+      </c>
+      <c r="C95" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="s">
+        <v>11</v>
+      </c>
+      <c r="B96" t="s">
+        <v>15</v>
+      </c>
+      <c r="C96" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="s">
+        <v>66</v>
+      </c>
+      <c r="B97" t="s">
+        <v>67</v>
+      </c>
+      <c r="C97" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="s">
+        <v>26</v>
+      </c>
+      <c r="B98" t="s">
+        <v>5</v>
+      </c>
+      <c r="C98" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="s">
+        <v>73</v>
+      </c>
+      <c r="B99" t="s">
+        <v>74</v>
+      </c>
+      <c r="C99" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="s">
+        <v>26</v>
+      </c>
+      <c r="B100" t="s">
+        <v>23</v>
+      </c>
+      <c r="C100" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="s">
+        <v>59</v>
+      </c>
+      <c r="B101" t="s">
+        <v>60</v>
+      </c>
+      <c r="C101" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="s">
+        <v>19</v>
+      </c>
+      <c r="B102" t="s">
+        <v>20</v>
+      </c>
+      <c r="C102" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="s">
+        <v>42</v>
+      </c>
+      <c r="B103" t="s">
+        <v>43</v>
+      </c>
+      <c r="C103" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="s">
+        <v>26</v>
+      </c>
+      <c r="B104" t="s">
+        <v>32</v>
+      </c>
+      <c r="C104" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="s">
+        <v>9</v>
+      </c>
+      <c r="B105" t="s">
+        <v>10</v>
+      </c>
+      <c r="C105" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="s">
+        <v>11</v>
+      </c>
+      <c r="B106" t="s">
+        <v>29</v>
+      </c>
+      <c r="C106" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="s">
+        <v>24</v>
+      </c>
+      <c r="B107" t="s">
+        <v>25</v>
+      </c>
+      <c r="C107" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="s">
+        <v>26</v>
+      </c>
+      <c r="B108" t="s">
+        <v>68</v>
+      </c>
+      <c r="C108" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="s">
+        <v>27</v>
+      </c>
+      <c r="B109" t="s">
+        <v>28</v>
+      </c>
+      <c r="C109" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="s">
+        <v>66</v>
+      </c>
+      <c r="B110" t="s">
+        <v>67</v>
+      </c>
+      <c r="C110" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="s">
+        <v>26</v>
+      </c>
+      <c r="B111" t="s">
+        <v>5</v>
+      </c>
+      <c r="C111" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="s">
+        <v>73</v>
+      </c>
+      <c r="B112" t="s">
+        <v>74</v>
+      </c>
+      <c r="C112" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="s">
+        <v>26</v>
+      </c>
+      <c r="B113" t="s">
+        <v>8</v>
+      </c>
+      <c r="C113" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="s">
+        <v>73</v>
+      </c>
+      <c r="B114" t="s">
+        <v>74</v>
+      </c>
+      <c r="C114" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="s">
+        <v>83</v>
+      </c>
+      <c r="B115" t="s">
+        <v>84</v>
+      </c>
+      <c r="C115" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="s">
+        <v>33</v>
+      </c>
+      <c r="B116" t="s">
+        <v>34</v>
+      </c>
+      <c r="C116" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="s">
+        <v>26</v>
+      </c>
+      <c r="B117" t="s">
+        <v>8</v>
+      </c>
+      <c r="C117" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="s">
+        <v>13</v>
+      </c>
+      <c r="B118" t="s">
+        <v>14</v>
+      </c>
+      <c r="C118" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="s">
+        <v>26</v>
+      </c>
+      <c r="B119" t="s">
+        <v>23</v>
+      </c>
+      <c r="C119" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="s">
+        <v>35</v>
+      </c>
+      <c r="B120" t="s">
+        <v>36</v>
+      </c>
+      <c r="C120" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="s">
+        <v>85</v>
+      </c>
+      <c r="B121" t="s">
+        <v>86</v>
+      </c>
+      <c r="C121" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="s">
+        <v>9</v>
+      </c>
+      <c r="B122" t="s">
+        <v>10</v>
+      </c>
+      <c r="C122" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="s">
+        <v>45</v>
+      </c>
+      <c r="B123" t="s">
+        <v>46</v>
+      </c>
+      <c r="C123" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="s">
+        <v>33</v>
+      </c>
+      <c r="B124" t="s">
+        <v>34</v>
+      </c>
+      <c r="C124" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="s">
+        <v>26</v>
+      </c>
+      <c r="B125" t="s">
+        <v>5</v>
+      </c>
+      <c r="C125" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="s">
+        <v>89</v>
+      </c>
+      <c r="B126" t="s">
+        <v>90</v>
+      </c>
+      <c r="C126" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="s">
+        <v>26</v>
+      </c>
+      <c r="B127" t="s">
+        <v>8</v>
+      </c>
+      <c r="C127" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="s">
+        <v>35</v>
+      </c>
+      <c r="B128" t="s">
+        <v>36</v>
+      </c>
+      <c r="C128" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="s">
+        <v>37</v>
+      </c>
+      <c r="B129" t="s">
         <v>38</v>
       </c>
-      <c r="B59" t="s">
-        <v>39</v>
-      </c>
-      <c r="C59" t="s">
-        <v>58</v>
+      <c r="C129" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="s">
+        <v>11</v>
+      </c>
+      <c r="B130" t="s">
+        <v>12</v>
+      </c>
+      <c r="C130" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="s">
+        <v>92</v>
+      </c>
+      <c r="B131" t="s">
+        <v>93</v>
+      </c>
+      <c r="C131" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="s">
+        <v>26</v>
+      </c>
+      <c r="B132" t="s">
+        <v>5</v>
+      </c>
+      <c r="C132" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="s">
+        <v>19</v>
+      </c>
+      <c r="B133" t="s">
+        <v>20</v>
+      </c>
+      <c r="C133" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="s">
+        <v>94</v>
+      </c>
+      <c r="B134" t="s">
+        <v>95</v>
+      </c>
+      <c r="C134" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="s">
+        <v>53</v>
+      </c>
+      <c r="B135" t="s">
+        <v>54</v>
+      </c>
+      <c r="C135" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="s">
+        <v>45</v>
+      </c>
+      <c r="B136" t="s">
+        <v>46</v>
+      </c>
+      <c r="C136" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="s">
+        <v>33</v>
+      </c>
+      <c r="B137" t="s">
+        <v>34</v>
+      </c>
+      <c r="C137" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="s">
+        <v>26</v>
+      </c>
+      <c r="B138" t="s">
+        <v>23</v>
+      </c>
+      <c r="C138" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="s">
+        <v>89</v>
+      </c>
+      <c r="B139" t="s">
+        <v>90</v>
+      </c>
+      <c r="C139" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="s">
+        <v>26</v>
+      </c>
+      <c r="B140" t="s">
+        <v>32</v>
+      </c>
+      <c r="C140" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="s">
+        <v>35</v>
+      </c>
+      <c r="B141" t="s">
+        <v>36</v>
+      </c>
+      <c r="C141" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="s">
+        <v>37</v>
+      </c>
+      <c r="B142" t="s">
+        <v>38</v>
+      </c>
+      <c r="C142" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="s">
+        <v>11</v>
+      </c>
+      <c r="B143" t="s">
+        <v>16</v>
+      </c>
+      <c r="C143" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="s">
+        <v>92</v>
+      </c>
+      <c r="B144" t="s">
+        <v>93</v>
+      </c>
+      <c r="C144" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="s">
+        <v>26</v>
+      </c>
+      <c r="B145" t="s">
+        <v>8</v>
+      </c>
+      <c r="C145" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="s">
+        <v>19</v>
+      </c>
+      <c r="B146" t="s">
+        <v>20</v>
+      </c>
+      <c r="C146" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="s">
+        <v>94</v>
+      </c>
+      <c r="B147" t="s">
+        <v>95</v>
+      </c>
+      <c r="C147" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="s">
+        <v>53</v>
+      </c>
+      <c r="B148" t="s">
+        <v>54</v>
+      </c>
+      <c r="C148" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="s">
+        <v>37</v>
+      </c>
+      <c r="B149" t="s">
+        <v>38</v>
+      </c>
+      <c r="C149" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="s">
+        <v>11</v>
+      </c>
+      <c r="B150" t="s">
+        <v>17</v>
+      </c>
+      <c r="C150" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="s">
+        <v>66</v>
+      </c>
+      <c r="B151" t="s">
+        <v>67</v>
+      </c>
+      <c r="C151" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="s">
+        <v>11</v>
+      </c>
+      <c r="B152" t="s">
+        <v>12</v>
+      </c>
+      <c r="C152" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="s">
+        <v>73</v>
+      </c>
+      <c r="B153" t="s">
+        <v>74</v>
+      </c>
+      <c r="C153" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="s">
+        <v>11</v>
+      </c>
+      <c r="B154" t="s">
+        <v>16</v>
+      </c>
+      <c r="C154" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="s">
+        <v>19</v>
+      </c>
+      <c r="B155" t="s">
+        <v>20</v>
+      </c>
+      <c r="C155" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="s">
+        <v>94</v>
+      </c>
+      <c r="B156" t="s">
+        <v>95</v>
+      </c>
+      <c r="C156" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="s">
+        <v>94</v>
+      </c>
+      <c r="B157" t="s">
+        <v>95</v>
+      </c>
+      <c r="C157" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="s">
+        <v>94</v>
+      </c>
+      <c r="B158" t="s">
+        <v>95</v>
+      </c>
+      <c r="C158" t="s">
+        <v>102</v>
       </c>
     </row>
   </sheetData>
@@ -1208,16 +2525,16 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>59</v>
+        <v>103</v>
       </c>
       <c r="B1" t="s">
-        <v>60</v>
+        <v>104</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>61</v>
+        <v>105</v>
       </c>
       <c r="E1" t="s">
         <v>2</v>
@@ -1238,120 +2555,120 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>62</v>
+        <v>106</v>
       </c>
       <c r="B1" t="s">
-        <v>63</v>
+        <v>107</v>
       </c>
       <c r="C1" t="s">
-        <v>64</v>
+        <v>108</v>
       </c>
       <c r="D1" t="s">
-        <v>65</v>
+        <v>109</v>
       </c>
       <c r="E1" t="s">
-        <v>66</v>
+        <v>110</v>
       </c>
       <c r="F1" t="s">
-        <v>67</v>
+        <v>111</v>
       </c>
       <c r="G1" t="s">
-        <v>68</v>
+        <v>112</v>
       </c>
       <c r="H1" t="s">
-        <v>69</v>
+        <v>113</v>
       </c>
       <c r="I1" t="s">
-        <v>70</v>
+        <v>114</v>
       </c>
       <c r="J1" t="s">
-        <v>71</v>
+        <v>115</v>
       </c>
       <c r="K1" t="s">
-        <v>72</v>
+        <v>116</v>
       </c>
       <c r="L1" t="s">
-        <v>73</v>
+        <v>117</v>
       </c>
       <c r="M1" t="s">
-        <v>74</v>
+        <v>118</v>
       </c>
       <c r="N1" t="s">
-        <v>75</v>
+        <v>119</v>
       </c>
       <c r="O1" t="s">
-        <v>76</v>
+        <v>120</v>
       </c>
       <c r="P1" t="s">
-        <v>77</v>
+        <v>121</v>
       </c>
       <c r="Q1" t="s">
-        <v>78</v>
+        <v>122</v>
       </c>
       <c r="R1" t="s">
-        <v>79</v>
+        <v>123</v>
       </c>
       <c r="S1" t="s">
-        <v>80</v>
+        <v>124</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>48</v>
+        <v>68</v>
       </c>
       <c r="B2" t="s">
-        <v>45</v>
+        <v>88</v>
       </c>
       <c r="C2" t="s">
         <v>5</v>
       </c>
       <c r="D2" t="s">
-        <v>22</v>
+        <v>52</v>
       </c>
       <c r="E2" t="s">
-        <v>44</v>
+        <v>97</v>
       </c>
       <c r="F2" t="s">
-        <v>48</v>
+        <v>68</v>
       </c>
       <c r="G2" t="s">
-        <v>48</v>
+        <v>68</v>
       </c>
       <c r="H2" t="s">
-        <v>48</v>
+        <v>68</v>
       </c>
       <c r="I2" t="s">
-        <v>48</v>
+        <v>68</v>
       </c>
       <c r="J2" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="K2" t="s">
+        <v>32</v>
+      </c>
+      <c r="L2" t="s">
+        <v>68</v>
+      </c>
+      <c r="M2" t="s">
+        <v>47</v>
+      </c>
+      <c r="N2" t="s">
+        <v>68</v>
+      </c>
+      <c r="O2" t="s">
+        <v>76</v>
+      </c>
+      <c r="P2" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>52</v>
+      </c>
+      <c r="R2" t="s">
+        <v>80</v>
+      </c>
+      <c r="S2" t="s">
         <v>5</v>
-      </c>
-      <c r="L2" t="s">
-        <v>48</v>
-      </c>
-      <c r="M2" t="s">
-        <v>22</v>
-      </c>
-      <c r="N2" t="s">
-        <v>48</v>
-      </c>
-      <c r="O2" t="s">
-        <v>45</v>
-      </c>
-      <c r="P2" t="s">
-        <v>81</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>22</v>
-      </c>
-      <c r="R2" t="s">
-        <v>35</v>
-      </c>
-      <c r="S2" t="s">
-        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -1369,40 +2686,40 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>82</v>
+        <v>125</v>
       </c>
       <c r="B1" t="s">
-        <v>83</v>
+        <v>126</v>
       </c>
       <c r="C1" t="s">
-        <v>84</v>
+        <v>127</v>
       </c>
       <c r="D1" t="s">
         <v>7</v>
       </c>
       <c r="E1" t="s">
-        <v>85</v>
+        <v>128</v>
       </c>
       <c r="F1" t="s">
-        <v>86</v>
+        <v>129</v>
       </c>
       <c r="G1" t="s">
-        <v>87</v>
+        <v>22</v>
       </c>
       <c r="H1" t="s">
-        <v>88</v>
+        <v>130</v>
       </c>
       <c r="I1" t="s">
-        <v>89</v>
+        <v>131</v>
       </c>
       <c r="J1" t="s">
-        <v>90</v>
+        <v>132</v>
       </c>
       <c r="K1" t="s">
-        <v>91</v>
+        <v>133</v>
       </c>
       <c r="L1" t="s">
-        <v>92</v>
+        <v>134</v>
       </c>
     </row>
     <row r="2">
@@ -1416,7 +2733,7 @@
         <v>0.0</v>
       </c>
       <c r="D2" t="n">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="E2" t="n">
         <v>0.0</v>
@@ -1425,7 +2742,7 @@
         <v>0.0</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="H2" t="n">
         <v>0.0</v>
@@ -1440,12 +2757,12 @@
         <v>0.0</v>
       </c>
       <c r="L2" t="n">
-        <v>4.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>93</v>
+        <v>135</v>
       </c>
       <c r="B3" t="n">
         <v>0.0</v>
@@ -1454,7 +2771,7 @@
         <v>0.0</v>
       </c>
       <c r="D3" t="n">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="E3" t="n">
         <v>0.0</v>
@@ -1463,7 +2780,7 @@
         <v>0.0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="H3" t="n">
         <v>0.0</v>
@@ -1478,7 +2795,7 @@
         <v>0.0</v>
       </c>
       <c r="L3" t="n">
-        <v>4.0</v>
+        <v>6.0</v>
       </c>
     </row>
   </sheetData>
@@ -1488,7 +2805,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:M4"/>
+  <dimension ref="A1:M9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1499,45 +2816,45 @@
         <v>2</v>
       </c>
       <c r="B1" t="s">
-        <v>94</v>
+        <v>136</v>
       </c>
       <c r="C1" t="s">
-        <v>95</v>
+        <v>137</v>
       </c>
       <c r="D1" t="s">
-        <v>96</v>
+        <v>138</v>
       </c>
       <c r="E1" t="s">
-        <v>97</v>
+        <v>139</v>
       </c>
       <c r="F1" t="s">
-        <v>98</v>
+        <v>140</v>
       </c>
       <c r="G1" t="s">
-        <v>99</v>
+        <v>141</v>
       </c>
       <c r="H1" t="s">
-        <v>97</v>
+        <v>139</v>
       </c>
       <c r="I1" t="s">
-        <v>100</v>
+        <v>142</v>
       </c>
       <c r="J1" t="s">
-        <v>101</v>
+        <v>143</v>
       </c>
       <c r="K1" t="s">
-        <v>102</v>
+        <v>144</v>
       </c>
       <c r="L1" t="s">
-        <v>103</v>
+        <v>145</v>
       </c>
       <c r="M1" t="s">
-        <v>104</v>
+        <v>146</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>5.0</v>
+        <v>13.0</v>
       </c>
       <c r="B2" t="n">
         <v>0.0</v>
@@ -1546,7 +2863,7 @@
         <v>0.0</v>
       </c>
       <c r="D2" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="E2" t="n">
         <v>0.0</v>
@@ -1570,7 +2887,7 @@
         <v>0.0</v>
       </c>
       <c r="L2" t="s">
-        <v>105</v>
+        <v>147</v>
       </c>
       <c r="M2" t="n">
         <v>0.0</v>
@@ -1578,7 +2895,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>7.0</v>
+        <v>15.0</v>
       </c>
       <c r="B3" t="n">
         <v>0.0</v>
@@ -1611,7 +2928,7 @@
         <v>0.0</v>
       </c>
       <c r="L3" t="s">
-        <v>106</v>
+        <v>148</v>
       </c>
       <c r="M3" t="n">
         <v>0.0</v>
@@ -1619,7 +2936,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>9.0</v>
+        <v>19.0</v>
       </c>
       <c r="B4" t="n">
         <v>0.0</v>
@@ -1652,9 +2969,214 @@
         <v>0.0</v>
       </c>
       <c r="L4" t="s">
-        <v>107</v>
+        <v>147</v>
       </c>
       <c r="M4" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="B5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L5" t="s">
+        <v>148</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>23.0</v>
+      </c>
+      <c r="B6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L6" t="s">
+        <v>149</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>26.0</v>
+      </c>
+      <c r="B7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L7" t="s">
+        <v>150</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>28.0</v>
+      </c>
+      <c r="B8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L8" t="s">
+        <v>151</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="B9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D9" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L9" t="s">
+        <v>152</v>
+      </c>
+      <c r="M9" t="n">
         <v>0.0</v>
       </c>
     </row>
@@ -1665,7 +3187,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G16"/>
+  <dimension ref="A1:G53"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1673,45 +3195,45 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>108</v>
+        <v>153</v>
       </c>
       <c r="B1" t="s">
-        <v>109</v>
+        <v>154</v>
       </c>
       <c r="C1" t="s">
-        <v>110</v>
+        <v>155</v>
       </c>
       <c r="D1" t="s">
-        <v>111</v>
+        <v>156</v>
       </c>
       <c r="E1" t="s">
         <v>2</v>
       </c>
       <c r="F1" t="s">
-        <v>112</v>
+        <v>157</v>
       </c>
       <c r="G1" t="s">
-        <v>82</v>
+        <v>125</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1010.0</v>
+        <v>1130.0</v>
       </c>
       <c r="B2" t="s">
-        <v>113</v>
+        <v>158</v>
       </c>
       <c r="C2" t="s">
-        <v>114</v>
+        <v>159</v>
       </c>
       <c r="D2" t="s">
-        <v>115</v>
+        <v>12</v>
       </c>
       <c r="E2" t="n">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="F2" t="s">
-        <v>116</v>
+        <v>160</v>
       </c>
       <c r="G2" t="n">
         <v>0.0</v>
@@ -1719,22 +3241,22 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1130.0</v>
+        <v>1010.0</v>
       </c>
       <c r="B3" t="s">
-        <v>113</v>
+        <v>158</v>
       </c>
       <c r="C3" t="s">
-        <v>117</v>
+        <v>161</v>
       </c>
       <c r="D3" t="s">
-        <v>12</v>
+        <v>162</v>
       </c>
       <c r="E3" t="n">
-        <v>5.0</v>
+        <v>7.0</v>
       </c>
       <c r="F3" t="s">
-        <v>116</v>
+        <v>160</v>
       </c>
       <c r="G3" t="n">
         <v>0.0</v>
@@ -1742,22 +3264,22 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1090.0</v>
+        <v>1130.0</v>
       </c>
       <c r="B4" t="s">
-        <v>113</v>
+        <v>158</v>
       </c>
       <c r="C4" t="s">
-        <v>117</v>
+        <v>159</v>
       </c>
       <c r="D4" t="s">
         <v>12</v>
       </c>
       <c r="E4" t="n">
-        <v>5.0</v>
+        <v>8.0</v>
       </c>
       <c r="F4" t="s">
-        <v>116</v>
+        <v>160</v>
       </c>
       <c r="G4" t="n">
         <v>0.0</v>
@@ -1765,22 +3287,22 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1021.0</v>
+        <v>1180.0</v>
       </c>
       <c r="B5" t="s">
-        <v>113</v>
+        <v>158</v>
       </c>
       <c r="C5" t="s">
-        <v>37</v>
+        <v>159</v>
       </c>
       <c r="D5" t="s">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="E5" t="n">
-        <v>5.0</v>
+        <v>8.0</v>
       </c>
       <c r="F5" t="s">
-        <v>116</v>
+        <v>160</v>
       </c>
       <c r="G5" t="n">
         <v>0.0</v>
@@ -1788,22 +3310,22 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1010.0</v>
+        <v>1130.0</v>
       </c>
       <c r="B6" t="s">
-        <v>113</v>
+        <v>158</v>
       </c>
       <c r="C6" t="s">
-        <v>114</v>
+        <v>159</v>
       </c>
       <c r="D6" t="s">
-        <v>118</v>
+        <v>12</v>
       </c>
       <c r="E6" t="n">
-        <v>6.0</v>
+        <v>10.0</v>
       </c>
       <c r="F6" t="s">
-        <v>116</v>
+        <v>160</v>
       </c>
       <c r="G6" t="n">
         <v>0.0</v>
@@ -1811,22 +3333,22 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>1130.0</v>
+        <v>1180.0</v>
       </c>
       <c r="B7" t="s">
-        <v>113</v>
+        <v>158</v>
       </c>
       <c r="C7" t="s">
-        <v>117</v>
+        <v>159</v>
       </c>
       <c r="D7" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E7" t="n">
-        <v>7.0</v>
+        <v>10.0</v>
       </c>
       <c r="F7" t="s">
-        <v>116</v>
+        <v>160</v>
       </c>
       <c r="G7" t="n">
         <v>0.0</v>
@@ -1834,22 +3356,22 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>1090.0</v>
+        <v>1130.0</v>
       </c>
       <c r="B8" t="s">
-        <v>113</v>
+        <v>158</v>
       </c>
       <c r="C8" t="s">
-        <v>117</v>
+        <v>159</v>
       </c>
       <c r="D8" t="s">
         <v>15</v>
       </c>
       <c r="E8" t="n">
-        <v>7.0</v>
+        <v>13.0</v>
       </c>
       <c r="F8" t="s">
-        <v>116</v>
+        <v>160</v>
       </c>
       <c r="G8" t="n">
         <v>0.0</v>
@@ -1857,22 +3379,22 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>1021.0</v>
+        <v>1090.0</v>
       </c>
       <c r="B9" t="s">
-        <v>113</v>
+        <v>158</v>
       </c>
       <c r="C9" t="s">
-        <v>37</v>
+        <v>159</v>
       </c>
       <c r="D9" t="s">
-        <v>37</v>
+        <v>15</v>
       </c>
       <c r="E9" t="n">
-        <v>7.0</v>
+        <v>13.0</v>
       </c>
       <c r="F9" t="s">
-        <v>116</v>
+        <v>160</v>
       </c>
       <c r="G9" t="n">
         <v>0.0</v>
@@ -1880,22 +3402,22 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>1130.0</v>
+        <v>1020.0</v>
       </c>
       <c r="B10" t="s">
-        <v>113</v>
+        <v>158</v>
       </c>
       <c r="C10" t="s">
-        <v>117</v>
+        <v>67</v>
       </c>
       <c r="D10" t="s">
-        <v>17</v>
+        <v>67</v>
       </c>
       <c r="E10" t="n">
-        <v>9.0</v>
+        <v>13.0</v>
       </c>
       <c r="F10" t="s">
-        <v>116</v>
+        <v>160</v>
       </c>
       <c r="G10" t="n">
         <v>0.0</v>
@@ -1903,22 +3425,22 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>1090.0</v>
+        <v>1080.0</v>
       </c>
       <c r="B11" t="s">
-        <v>113</v>
+        <v>158</v>
       </c>
       <c r="C11" t="s">
-        <v>117</v>
+        <v>67</v>
       </c>
       <c r="D11" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E11" t="n">
-        <v>9.0</v>
+        <v>13.0</v>
       </c>
       <c r="F11" t="s">
-        <v>116</v>
+        <v>160</v>
       </c>
       <c r="G11" t="n">
         <v>0.0</v>
@@ -1926,22 +3448,22 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>1020.0</v>
+        <v>1130.0</v>
       </c>
       <c r="B12" t="s">
-        <v>113</v>
+        <v>158</v>
       </c>
       <c r="C12" t="s">
-        <v>47</v>
+        <v>159</v>
       </c>
       <c r="D12" t="s">
-        <v>47</v>
+        <v>15</v>
       </c>
       <c r="E12" t="n">
-        <v>9.0</v>
+        <v>13.0</v>
       </c>
       <c r="F12" t="s">
-        <v>116</v>
+        <v>160</v>
       </c>
       <c r="G12" t="n">
         <v>0.0</v>
@@ -1949,22 +3471,22 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>1130.0</v>
+        <v>1081.0</v>
       </c>
       <c r="B13" t="s">
-        <v>113</v>
+        <v>158</v>
       </c>
       <c r="C13" t="s">
-        <v>117</v>
+        <v>159</v>
       </c>
       <c r="D13" t="s">
-        <v>17</v>
+        <v>163</v>
       </c>
       <c r="E13" t="n">
-        <v>10.0</v>
+        <v>13.0</v>
       </c>
       <c r="F13" t="s">
-        <v>116</v>
+        <v>160</v>
       </c>
       <c r="G13" t="n">
         <v>0.0</v>
@@ -1972,22 +3494,22 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>1011.0</v>
+        <v>1130.0</v>
       </c>
       <c r="B14" t="s">
-        <v>113</v>
+        <v>158</v>
       </c>
       <c r="C14" t="s">
-        <v>117</v>
+        <v>159</v>
       </c>
       <c r="D14" t="s">
-        <v>119</v>
+        <v>15</v>
       </c>
       <c r="E14" t="n">
-        <v>10.0</v>
+        <v>13.0</v>
       </c>
       <c r="F14" t="s">
-        <v>116</v>
+        <v>160</v>
       </c>
       <c r="G14" t="n">
         <v>0.0</v>
@@ -1995,22 +3517,22 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>1130.0</v>
+        <v>1180.0</v>
       </c>
       <c r="B15" t="s">
-        <v>113</v>
+        <v>158</v>
       </c>
       <c r="C15" t="s">
-        <v>117</v>
+        <v>159</v>
       </c>
       <c r="D15" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E15" t="n">
-        <v>11.0</v>
+        <v>13.0</v>
       </c>
       <c r="F15" t="s">
-        <v>116</v>
+        <v>160</v>
       </c>
       <c r="G15" t="n">
         <v>0.0</v>
@@ -2018,24 +3540,875 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
+        <v>1082.0</v>
+      </c>
+      <c r="B16" t="s">
+        <v>158</v>
+      </c>
+      <c r="C16" t="s">
+        <v>159</v>
+      </c>
+      <c r="D16" t="s">
+        <v>15</v>
+      </c>
+      <c r="E16" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="F16" t="s">
+        <v>160</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>1130.0</v>
+      </c>
+      <c r="B17" t="s">
+        <v>158</v>
+      </c>
+      <c r="C17" t="s">
+        <v>159</v>
+      </c>
+      <c r="D17" t="s">
+        <v>15</v>
+      </c>
+      <c r="E17" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="F17" t="s">
+        <v>160</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>1011.0</v>
+      </c>
+      <c r="B18" t="s">
+        <v>158</v>
+      </c>
+      <c r="C18" t="s">
+        <v>159</v>
+      </c>
+      <c r="D18" t="s">
+        <v>164</v>
+      </c>
+      <c r="E18" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="F18" t="s">
+        <v>160</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>1130.0</v>
+      </c>
+      <c r="B19" t="s">
+        <v>158</v>
+      </c>
+      <c r="C19" t="s">
+        <v>159</v>
+      </c>
+      <c r="D19" t="s">
+        <v>15</v>
+      </c>
+      <c r="E19" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="F19" t="s">
+        <v>160</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>1090.0</v>
+      </c>
+      <c r="B20" t="s">
+        <v>158</v>
+      </c>
+      <c r="C20" t="s">
+        <v>159</v>
+      </c>
+      <c r="D20" t="s">
+        <v>15</v>
+      </c>
+      <c r="E20" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="F20" t="s">
+        <v>160</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>1130.0</v>
+      </c>
+      <c r="B21" t="s">
+        <v>158</v>
+      </c>
+      <c r="C21" t="s">
+        <v>159</v>
+      </c>
+      <c r="D21" t="s">
+        <v>15</v>
+      </c>
+      <c r="E21" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="F21" t="s">
+        <v>160</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>1011.0</v>
+      </c>
+      <c r="B22" t="s">
+        <v>158</v>
+      </c>
+      <c r="C22" t="s">
+        <v>159</v>
+      </c>
+      <c r="D22" t="s">
+        <v>165</v>
+      </c>
+      <c r="E22" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="F22" t="s">
+        <v>160</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>1130.0</v>
+      </c>
+      <c r="B23" t="s">
+        <v>158</v>
+      </c>
+      <c r="C23" t="s">
+        <v>159</v>
+      </c>
+      <c r="D23" t="s">
+        <v>15</v>
+      </c>
+      <c r="E23" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="F23" t="s">
+        <v>160</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>1090.0</v>
+      </c>
+      <c r="B24" t="s">
+        <v>158</v>
+      </c>
+      <c r="C24" t="s">
+        <v>159</v>
+      </c>
+      <c r="D24" t="s">
+        <v>15</v>
+      </c>
+      <c r="E24" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="F24" t="s">
+        <v>160</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>1020.0</v>
+      </c>
+      <c r="B25" t="s">
+        <v>158</v>
+      </c>
+      <c r="C25" t="s">
+        <v>67</v>
+      </c>
+      <c r="D25" t="s">
+        <v>67</v>
+      </c>
+      <c r="E25" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="F25" t="s">
+        <v>160</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>1080.0</v>
+      </c>
+      <c r="B26" t="s">
+        <v>158</v>
+      </c>
+      <c r="C26" t="s">
+        <v>67</v>
+      </c>
+      <c r="D26" t="s">
+        <v>15</v>
+      </c>
+      <c r="E26" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="F26" t="s">
+        <v>160</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>1130.0</v>
+      </c>
+      <c r="B27" t="s">
+        <v>158</v>
+      </c>
+      <c r="C27" t="s">
+        <v>159</v>
+      </c>
+      <c r="D27" t="s">
+        <v>15</v>
+      </c>
+      <c r="E27" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="F27" t="s">
+        <v>160</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>1081.0</v>
+      </c>
+      <c r="B28" t="s">
+        <v>158</v>
+      </c>
+      <c r="C28" t="s">
+        <v>159</v>
+      </c>
+      <c r="D28" t="s">
+        <v>166</v>
+      </c>
+      <c r="E28" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="F28" t="s">
+        <v>160</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>1130.0</v>
+      </c>
+      <c r="B29" t="s">
+        <v>158</v>
+      </c>
+      <c r="C29" t="s">
+        <v>159</v>
+      </c>
+      <c r="D29" t="s">
+        <v>15</v>
+      </c>
+      <c r="E29" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="F29" t="s">
+        <v>160</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
         <v>1180.0</v>
       </c>
-      <c r="B16" t="s">
-        <v>113</v>
-      </c>
-      <c r="C16" t="s">
-        <v>117</v>
-      </c>
-      <c r="D16" t="s">
+      <c r="B30" t="s">
+        <v>158</v>
+      </c>
+      <c r="C30" t="s">
+        <v>159</v>
+      </c>
+      <c r="D30" t="s">
+        <v>15</v>
+      </c>
+      <c r="E30" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="F30" t="s">
+        <v>160</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>1082.0</v>
+      </c>
+      <c r="B31" t="s">
+        <v>158</v>
+      </c>
+      <c r="C31" t="s">
+        <v>159</v>
+      </c>
+      <c r="D31" t="s">
+        <v>15</v>
+      </c>
+      <c r="E31" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="F31" t="s">
+        <v>160</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>1130.0</v>
+      </c>
+      <c r="B32" t="s">
+        <v>158</v>
+      </c>
+      <c r="C32" t="s">
+        <v>159</v>
+      </c>
+      <c r="D32" t="s">
+        <v>15</v>
+      </c>
+      <c r="E32" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="F32" t="s">
+        <v>160</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>1090.0</v>
+      </c>
+      <c r="B33" t="s">
+        <v>158</v>
+      </c>
+      <c r="C33" t="s">
+        <v>159</v>
+      </c>
+      <c r="D33" t="s">
+        <v>15</v>
+      </c>
+      <c r="E33" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="F33" t="s">
+        <v>160</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>1130.0</v>
+      </c>
+      <c r="B34" t="s">
+        <v>158</v>
+      </c>
+      <c r="C34" t="s">
+        <v>159</v>
+      </c>
+      <c r="D34" t="s">
+        <v>29</v>
+      </c>
+      <c r="E34" t="n">
+        <v>23.0</v>
+      </c>
+      <c r="F34" t="s">
+        <v>160</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>1030.0</v>
+      </c>
+      <c r="B35" t="s">
+        <v>158</v>
+      </c>
+      <c r="C35" t="s">
+        <v>25</v>
+      </c>
+      <c r="D35" t="s">
+        <v>25</v>
+      </c>
+      <c r="E35" t="n">
+        <v>23.0</v>
+      </c>
+      <c r="F35" t="s">
+        <v>160</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>1040.0</v>
+      </c>
+      <c r="B36" t="s">
+        <v>158</v>
+      </c>
+      <c r="C36" t="s">
+        <v>167</v>
+      </c>
+      <c r="D36" t="s">
+        <v>167</v>
+      </c>
+      <c r="E36" t="n">
+        <v>23.0</v>
+      </c>
+      <c r="F36" t="s">
+        <v>160</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>1050.0</v>
+      </c>
+      <c r="B37" t="s">
+        <v>158</v>
+      </c>
+      <c r="C37" t="s">
+        <v>167</v>
+      </c>
+      <c r="D37" t="s">
+        <v>167</v>
+      </c>
+      <c r="E37" t="n">
+        <v>23.0</v>
+      </c>
+      <c r="F37" t="s">
+        <v>160</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>2010.0</v>
+      </c>
+      <c r="B38" t="s">
+        <v>84</v>
+      </c>
+      <c r="C38" t="s">
+        <v>84</v>
+      </c>
+      <c r="D38" t="s">
+        <v>84</v>
+      </c>
+      <c r="E38" t="n">
+        <v>23.0</v>
+      </c>
+      <c r="F38" t="s">
+        <v>160</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>2001.0</v>
+      </c>
+      <c r="B39" t="s">
+        <v>168</v>
+      </c>
+      <c r="C39" t="s">
+        <v>168</v>
+      </c>
+      <c r="D39" t="s">
+        <v>8</v>
+      </c>
+      <c r="E39" t="n">
+        <v>23.0</v>
+      </c>
+      <c r="F39" t="s">
+        <v>160</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>2002.0</v>
+      </c>
+      <c r="B40" t="s">
+        <v>169</v>
+      </c>
+      <c r="C40" t="s">
+        <v>169</v>
+      </c>
+      <c r="D40" t="s">
+        <v>23</v>
+      </c>
+      <c r="E40" t="n">
+        <v>23.0</v>
+      </c>
+      <c r="F40" t="s">
+        <v>160</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>1090.0</v>
+      </c>
+      <c r="B41" t="s">
+        <v>158</v>
+      </c>
+      <c r="C41" t="s">
+        <v>159</v>
+      </c>
+      <c r="D41" t="s">
+        <v>170</v>
+      </c>
+      <c r="E41" t="n">
+        <v>23.0</v>
+      </c>
+      <c r="F41" t="s">
+        <v>160</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>1010.0</v>
+      </c>
+      <c r="B42" t="s">
+        <v>158</v>
+      </c>
+      <c r="C42" t="s">
+        <v>161</v>
+      </c>
+      <c r="D42" t="s">
+        <v>171</v>
+      </c>
+      <c r="E42" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="F42" t="s">
+        <v>160</v>
+      </c>
+      <c r="G42" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>1130.0</v>
+      </c>
+      <c r="B43" t="s">
+        <v>158</v>
+      </c>
+      <c r="C43" t="s">
+        <v>159</v>
+      </c>
+      <c r="D43" t="s">
+        <v>12</v>
+      </c>
+      <c r="E43" t="n">
+        <v>26.0</v>
+      </c>
+      <c r="F43" t="s">
+        <v>160</v>
+      </c>
+      <c r="G43" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>1090.0</v>
+      </c>
+      <c r="B44" t="s">
+        <v>158</v>
+      </c>
+      <c r="C44" t="s">
+        <v>159</v>
+      </c>
+      <c r="D44" t="s">
+        <v>12</v>
+      </c>
+      <c r="E44" t="n">
+        <v>26.0</v>
+      </c>
+      <c r="F44" t="s">
+        <v>160</v>
+      </c>
+      <c r="G44" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>1021.0</v>
+      </c>
+      <c r="B45" t="s">
+        <v>158</v>
+      </c>
+      <c r="C45" t="s">
+        <v>93</v>
+      </c>
+      <c r="D45" t="s">
+        <v>93</v>
+      </c>
+      <c r="E45" t="n">
+        <v>26.0</v>
+      </c>
+      <c r="F45" t="s">
+        <v>160</v>
+      </c>
+      <c r="G45" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>1010.0</v>
+      </c>
+      <c r="B46" t="s">
+        <v>158</v>
+      </c>
+      <c r="C46" t="s">
+        <v>161</v>
+      </c>
+      <c r="D46" t="s">
+        <v>172</v>
+      </c>
+      <c r="E46" t="n">
+        <v>27.0</v>
+      </c>
+      <c r="F46" t="s">
+        <v>160</v>
+      </c>
+      <c r="G46" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>1130.0</v>
+      </c>
+      <c r="B47" t="s">
+        <v>158</v>
+      </c>
+      <c r="C47" t="s">
+        <v>159</v>
+      </c>
+      <c r="D47" t="s">
+        <v>16</v>
+      </c>
+      <c r="E47" t="n">
+        <v>28.0</v>
+      </c>
+      <c r="F47" t="s">
+        <v>160</v>
+      </c>
+      <c r="G47" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>1090.0</v>
+      </c>
+      <c r="B48" t="s">
+        <v>158</v>
+      </c>
+      <c r="C48" t="s">
+        <v>159</v>
+      </c>
+      <c r="D48" t="s">
+        <v>16</v>
+      </c>
+      <c r="E48" t="n">
+        <v>28.0</v>
+      </c>
+      <c r="F48" t="s">
+        <v>160</v>
+      </c>
+      <c r="G48" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>1021.0</v>
+      </c>
+      <c r="B49" t="s">
+        <v>158</v>
+      </c>
+      <c r="C49" t="s">
+        <v>93</v>
+      </c>
+      <c r="D49" t="s">
+        <v>93</v>
+      </c>
+      <c r="E49" t="n">
+        <v>28.0</v>
+      </c>
+      <c r="F49" t="s">
+        <v>160</v>
+      </c>
+      <c r="G49" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>1130.0</v>
+      </c>
+      <c r="B50" t="s">
+        <v>158</v>
+      </c>
+      <c r="C50" t="s">
+        <v>159</v>
+      </c>
+      <c r="D50" t="s">
         <v>17</v>
       </c>
-      <c r="E16" t="n">
-        <v>11.0</v>
-      </c>
-      <c r="F16" t="s">
-        <v>116</v>
-      </c>
-      <c r="G16" t="n">
+      <c r="E50" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="F50" t="s">
+        <v>160</v>
+      </c>
+      <c r="G50" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>1130.0</v>
+      </c>
+      <c r="B51" t="s">
+        <v>158</v>
+      </c>
+      <c r="C51" t="s">
+        <v>159</v>
+      </c>
+      <c r="D51" t="s">
+        <v>12</v>
+      </c>
+      <c r="E51" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="F51" t="s">
+        <v>160</v>
+      </c>
+      <c r="G51" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>1130.0</v>
+      </c>
+      <c r="B52" t="s">
+        <v>158</v>
+      </c>
+      <c r="C52" t="s">
+        <v>159</v>
+      </c>
+      <c r="D52" t="s">
+        <v>16</v>
+      </c>
+      <c r="E52" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="F52" t="s">
+        <v>160</v>
+      </c>
+      <c r="G52" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>1090.0</v>
+      </c>
+      <c r="B53" t="s">
+        <v>158</v>
+      </c>
+      <c r="C53" t="s">
+        <v>159</v>
+      </c>
+      <c r="D53" t="s">
+        <v>17</v>
+      </c>
+      <c r="E53" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="F53" t="s">
+        <v>160</v>
+      </c>
+      <c r="G53" t="n">
         <v>0.0</v>
       </c>
     </row>
@@ -2046,7 +4419,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2054,19 +4427,70 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>109</v>
+        <v>154</v>
       </c>
       <c r="B1" t="s">
-        <v>120</v>
+        <v>173</v>
       </c>
       <c r="C1" t="s">
-        <v>121</v>
+        <v>174</v>
       </c>
       <c r="D1" t="s">
-        <v>122</v>
+        <v>175</v>
       </c>
       <c r="E1" t="s">
-        <v>104</v>
+        <v>146</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>168</v>
+      </c>
+      <c r="B2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>169</v>
+      </c>
+      <c r="B3" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>84</v>
+      </c>
+      <c r="B4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.0</v>
       </c>
     </row>
   </sheetData>
@@ -2076,7 +4500,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E22"/>
+  <dimension ref="A1:E73"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2084,376 +4508,1243 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>123</v>
+        <v>176</v>
       </c>
       <c r="B1" t="s">
-        <v>124</v>
+        <v>177</v>
       </c>
       <c r="C1" t="s">
-        <v>125</v>
+        <v>178</v>
       </c>
       <c r="D1" t="s">
-        <v>126</v>
+        <v>179</v>
       </c>
       <c r="E1" t="s">
-        <v>127</v>
+        <v>180</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>128</v>
+        <v>181</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="C2" t="s">
-        <v>113</v>
+        <v>158</v>
       </c>
       <c r="D2" t="s">
-        <v>113</v>
+        <v>158</v>
       </c>
       <c r="E2" t="s">
-        <v>113</v>
+        <v>158</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>113</v>
+        <v>158</v>
       </c>
       <c r="B3" t="s">
-        <v>34</v>
+        <v>67</v>
       </c>
       <c r="C3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" t="s">
         <v>5</v>
       </c>
-      <c r="D3" t="s">
-        <v>8</v>
-      </c>
       <c r="E3" t="s">
-        <v>115</v>
+        <v>182</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>113</v>
+        <v>158</v>
       </c>
       <c r="B4" t="s">
-        <v>129</v>
+        <v>183</v>
       </c>
       <c r="C4" t="s">
-        <v>115</v>
+        <v>182</v>
       </c>
       <c r="D4" t="s">
-        <v>113</v>
+        <v>158</v>
       </c>
       <c r="E4" t="s">
-        <v>130</v>
+        <v>184</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>113</v>
+        <v>158</v>
       </c>
       <c r="B5" t="s">
-        <v>131</v>
+        <v>49</v>
       </c>
       <c r="C5" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D5" t="s">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="E5" t="s">
-        <v>132</v>
+        <v>162</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>113</v>
+        <v>158</v>
       </c>
       <c r="B6" t="s">
-        <v>47</v>
+        <v>183</v>
       </c>
       <c r="C6" t="s">
-        <v>12</v>
+        <v>162</v>
       </c>
       <c r="D6" t="s">
-        <v>113</v>
+        <v>158</v>
       </c>
       <c r="E6" t="s">
-        <v>132</v>
+        <v>185</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>113</v>
+        <v>158</v>
       </c>
       <c r="B7" t="s">
-        <v>133</v>
+        <v>51</v>
       </c>
       <c r="C7" t="s">
-        <v>113</v>
+        <v>12</v>
       </c>
       <c r="D7" t="s">
-        <v>113</v>
+        <v>158</v>
       </c>
       <c r="E7" t="s">
-        <v>134</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>130</v>
+        <v>158</v>
       </c>
       <c r="B8" t="s">
-        <v>34</v>
+        <v>186</v>
       </c>
       <c r="C8" t="s">
-        <v>22</v>
+        <v>158</v>
       </c>
       <c r="D8" t="s">
-        <v>31</v>
+        <v>158</v>
       </c>
       <c r="E8" t="s">
-        <v>118</v>
+        <v>187</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>113</v>
+        <v>185</v>
       </c>
       <c r="B9" t="s">
-        <v>129</v>
+        <v>158</v>
       </c>
       <c r="C9" t="s">
-        <v>118</v>
+        <v>158</v>
       </c>
       <c r="D9" t="s">
-        <v>113</v>
+        <v>158</v>
       </c>
       <c r="E9" t="s">
-        <v>135</v>
+        <v>158</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>113</v>
+        <v>158</v>
       </c>
       <c r="B10" t="s">
-        <v>131</v>
+        <v>57</v>
       </c>
       <c r="C10" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D10" t="s">
-        <v>8</v>
+        <v>158</v>
       </c>
       <c r="E10" t="s">
-        <v>136</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>113</v>
+        <v>187</v>
       </c>
       <c r="B11" t="s">
-        <v>47</v>
+        <v>158</v>
       </c>
       <c r="C11" t="s">
-        <v>15</v>
+        <v>158</v>
       </c>
       <c r="D11" t="s">
-        <v>113</v>
+        <v>158</v>
       </c>
       <c r="E11" t="s">
-        <v>136</v>
+        <v>158</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>113</v>
+        <v>158</v>
       </c>
       <c r="B12" t="s">
-        <v>133</v>
+        <v>186</v>
       </c>
       <c r="C12" t="s">
-        <v>113</v>
+        <v>158</v>
       </c>
       <c r="D12" t="s">
-        <v>113</v>
+        <v>158</v>
       </c>
       <c r="E12" t="s">
-        <v>137</v>
+        <v>188</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>135</v>
+        <v>184</v>
       </c>
       <c r="B13" t="s">
-        <v>113</v>
+        <v>158</v>
       </c>
       <c r="C13" t="s">
-        <v>113</v>
+        <v>158</v>
       </c>
       <c r="D13" t="s">
-        <v>113</v>
+        <v>158</v>
       </c>
       <c r="E13" t="s">
-        <v>113</v>
+        <v>158</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>113</v>
+        <v>158</v>
       </c>
       <c r="B14" t="s">
-        <v>47</v>
+        <v>67</v>
       </c>
       <c r="C14" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D14" t="s">
-        <v>113</v>
+        <v>8</v>
       </c>
       <c r="E14" t="s">
-        <v>48</v>
+        <v>189</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>138</v>
+        <v>158</v>
       </c>
       <c r="B15" t="s">
-        <v>53</v>
+        <v>183</v>
       </c>
       <c r="C15" t="s">
-        <v>17</v>
+        <v>189</v>
       </c>
       <c r="D15" t="s">
-        <v>40</v>
+        <v>158</v>
       </c>
       <c r="E15" t="s">
-        <v>119</v>
+        <v>190</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>113</v>
+        <v>158</v>
       </c>
       <c r="B16" t="s">
-        <v>129</v>
+        <v>67</v>
       </c>
       <c r="C16" t="s">
-        <v>119</v>
+        <v>15</v>
       </c>
       <c r="D16" t="s">
-        <v>113</v>
+        <v>158</v>
       </c>
       <c r="E16" t="s">
-        <v>139</v>
+        <v>68</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>113</v>
+        <v>191</v>
       </c>
       <c r="B17" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="C17" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D17" t="s">
-        <v>113</v>
+        <v>44</v>
       </c>
       <c r="E17" t="s">
-        <v>17</v>
+        <v>163</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>113</v>
+        <v>158</v>
       </c>
       <c r="B18" t="s">
-        <v>133</v>
+        <v>183</v>
       </c>
       <c r="C18" t="s">
-        <v>113</v>
+        <v>163</v>
       </c>
       <c r="D18" t="s">
-        <v>113</v>
+        <v>158</v>
       </c>
       <c r="E18" t="s">
-        <v>138</v>
+        <v>192</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>139</v>
+        <v>193</v>
       </c>
       <c r="B19" t="s">
-        <v>113</v>
+        <v>49</v>
       </c>
       <c r="C19" t="s">
-        <v>113</v>
+        <v>15</v>
       </c>
       <c r="D19" t="s">
-        <v>113</v>
+        <v>44</v>
       </c>
       <c r="E19" t="s">
-        <v>113</v>
+        <v>164</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>137</v>
+        <v>158</v>
       </c>
       <c r="B20" t="s">
-        <v>113</v>
+        <v>183</v>
       </c>
       <c r="C20" t="s">
-        <v>113</v>
+        <v>164</v>
       </c>
       <c r="D20" t="s">
-        <v>113</v>
+        <v>158</v>
       </c>
       <c r="E20" t="s">
-        <v>113</v>
+        <v>194</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>134</v>
+        <v>158</v>
       </c>
       <c r="B21" t="s">
-        <v>113</v>
+        <v>74</v>
       </c>
       <c r="C21" t="s">
-        <v>113</v>
+        <v>5</v>
       </c>
       <c r="D21" t="s">
-        <v>113</v>
+        <v>23</v>
       </c>
       <c r="E21" t="s">
-        <v>113</v>
+        <v>195</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>140</v>
+        <v>158</v>
       </c>
       <c r="B22" t="s">
-        <v>113</v>
+        <v>67</v>
       </c>
       <c r="C22" t="s">
-        <v>113</v>
+        <v>15</v>
       </c>
       <c r="D22" t="s">
-        <v>113</v>
+        <v>158</v>
       </c>
       <c r="E22" t="s">
-        <v>113</v>
+        <v>195</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>158</v>
+      </c>
+      <c r="B23" t="s">
+        <v>186</v>
+      </c>
+      <c r="C23" t="s">
+        <v>158</v>
+      </c>
+      <c r="D23" t="s">
+        <v>158</v>
+      </c>
+      <c r="E23" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>194</v>
+      </c>
+      <c r="B24" t="s">
+        <v>158</v>
+      </c>
+      <c r="C24" t="s">
+        <v>158</v>
+      </c>
+      <c r="D24" t="s">
+        <v>158</v>
+      </c>
+      <c r="E24" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>158</v>
+      </c>
+      <c r="B25" t="s">
+        <v>51</v>
+      </c>
+      <c r="C25" t="s">
+        <v>15</v>
+      </c>
+      <c r="D25" t="s">
+        <v>158</v>
+      </c>
+      <c r="E25" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>158</v>
+      </c>
+      <c r="B26" t="s">
+        <v>186</v>
+      </c>
+      <c r="C26" t="s">
+        <v>158</v>
+      </c>
+      <c r="D26" t="s">
+        <v>158</v>
+      </c>
+      <c r="E26" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>192</v>
+      </c>
+      <c r="B27" t="s">
+        <v>158</v>
+      </c>
+      <c r="C27" t="s">
+        <v>158</v>
+      </c>
+      <c r="D27" t="s">
+        <v>158</v>
+      </c>
+      <c r="E27" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>158</v>
+      </c>
+      <c r="B28" t="s">
+        <v>186</v>
+      </c>
+      <c r="C28" t="s">
+        <v>158</v>
+      </c>
+      <c r="D28" t="s">
+        <v>158</v>
+      </c>
+      <c r="E28" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>190</v>
+      </c>
+      <c r="B29" t="s">
+        <v>158</v>
+      </c>
+      <c r="C29" t="s">
+        <v>158</v>
+      </c>
+      <c r="D29" t="s">
+        <v>158</v>
+      </c>
+      <c r="E29" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s">
+        <v>158</v>
+      </c>
+      <c r="B30" t="s">
+        <v>67</v>
+      </c>
+      <c r="C30" t="s">
+        <v>12</v>
+      </c>
+      <c r="D30" t="s">
+        <v>23</v>
+      </c>
+      <c r="E30" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
+        <v>158</v>
+      </c>
+      <c r="B31" t="s">
+        <v>183</v>
+      </c>
+      <c r="C31" t="s">
+        <v>196</v>
+      </c>
+      <c r="D31" t="s">
+        <v>158</v>
+      </c>
+      <c r="E31" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s">
+        <v>198</v>
+      </c>
+      <c r="B32" t="s">
+        <v>49</v>
+      </c>
+      <c r="C32" t="s">
+        <v>15</v>
+      </c>
+      <c r="D32" t="s">
+        <v>44</v>
+      </c>
+      <c r="E32" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s">
+        <v>158</v>
+      </c>
+      <c r="B33" t="s">
+        <v>183</v>
+      </c>
+      <c r="C33" t="s">
+        <v>165</v>
+      </c>
+      <c r="D33" t="s">
+        <v>158</v>
+      </c>
+      <c r="E33" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s">
+        <v>158</v>
+      </c>
+      <c r="B34" t="s">
+        <v>67</v>
+      </c>
+      <c r="C34" t="s">
+        <v>15</v>
+      </c>
+      <c r="D34" t="s">
+        <v>158</v>
+      </c>
+      <c r="E34" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s">
+        <v>200</v>
+      </c>
+      <c r="B35" t="s">
+        <v>49</v>
+      </c>
+      <c r="C35" t="s">
+        <v>15</v>
+      </c>
+      <c r="D35" t="s">
+        <v>44</v>
+      </c>
+      <c r="E35" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s">
+        <v>158</v>
+      </c>
+      <c r="B36" t="s">
+        <v>183</v>
+      </c>
+      <c r="C36" t="s">
+        <v>166</v>
+      </c>
+      <c r="D36" t="s">
+        <v>158</v>
+      </c>
+      <c r="E36" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s">
+        <v>158</v>
+      </c>
+      <c r="B37" t="s">
+        <v>74</v>
+      </c>
+      <c r="C37" t="s">
+        <v>5</v>
+      </c>
+      <c r="D37" t="s">
+        <v>23</v>
+      </c>
+      <c r="E37" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s">
+        <v>158</v>
+      </c>
+      <c r="B38" t="s">
+        <v>67</v>
+      </c>
+      <c r="C38" t="s">
+        <v>15</v>
+      </c>
+      <c r="D38" t="s">
+        <v>158</v>
+      </c>
+      <c r="E38" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s">
+        <v>158</v>
+      </c>
+      <c r="B39" t="s">
+        <v>51</v>
+      </c>
+      <c r="C39" t="s">
+        <v>15</v>
+      </c>
+      <c r="D39" t="s">
+        <v>158</v>
+      </c>
+      <c r="E39" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s">
+        <v>158</v>
+      </c>
+      <c r="B40" t="s">
+        <v>51</v>
+      </c>
+      <c r="C40" t="s">
+        <v>15</v>
+      </c>
+      <c r="D40" t="s">
+        <v>158</v>
+      </c>
+      <c r="E40" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s">
+        <v>158</v>
+      </c>
+      <c r="B41" t="s">
+        <v>186</v>
+      </c>
+      <c r="C41" t="s">
+        <v>158</v>
+      </c>
+      <c r="D41" t="s">
+        <v>158</v>
+      </c>
+      <c r="E41" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s">
+        <v>201</v>
+      </c>
+      <c r="B42" t="s">
+        <v>158</v>
+      </c>
+      <c r="C42" t="s">
+        <v>158</v>
+      </c>
+      <c r="D42" t="s">
+        <v>158</v>
+      </c>
+      <c r="E42" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s">
+        <v>158</v>
+      </c>
+      <c r="B43" t="s">
+        <v>186</v>
+      </c>
+      <c r="C43" t="s">
+        <v>158</v>
+      </c>
+      <c r="D43" t="s">
+        <v>158</v>
+      </c>
+      <c r="E43" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s">
+        <v>199</v>
+      </c>
+      <c r="B44" t="s">
+        <v>158</v>
+      </c>
+      <c r="C44" t="s">
+        <v>158</v>
+      </c>
+      <c r="D44" t="s">
+        <v>158</v>
+      </c>
+      <c r="E44" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s">
+        <v>158</v>
+      </c>
+      <c r="B45" t="s">
+        <v>186</v>
+      </c>
+      <c r="C45" t="s">
+        <v>158</v>
+      </c>
+      <c r="D45" t="s">
+        <v>158</v>
+      </c>
+      <c r="E45" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s">
+        <v>197</v>
+      </c>
+      <c r="B46" t="s">
+        <v>158</v>
+      </c>
+      <c r="C46" t="s">
+        <v>158</v>
+      </c>
+      <c r="D46" t="s">
+        <v>158</v>
+      </c>
+      <c r="E46" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s">
+        <v>158</v>
+      </c>
+      <c r="B47" t="s">
+        <v>67</v>
+      </c>
+      <c r="C47" t="s">
+        <v>12</v>
+      </c>
+      <c r="D47" t="s">
+        <v>32</v>
+      </c>
+      <c r="E47" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s">
+        <v>158</v>
+      </c>
+      <c r="B48" t="s">
+        <v>183</v>
+      </c>
+      <c r="C48" t="s">
+        <v>203</v>
+      </c>
+      <c r="D48" t="s">
+        <v>158</v>
+      </c>
+      <c r="E48" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s">
+        <v>158</v>
+      </c>
+      <c r="B49" t="s">
+        <v>205</v>
+      </c>
+      <c r="C49" t="s">
+        <v>29</v>
+      </c>
+      <c r="D49" t="s">
+        <v>158</v>
+      </c>
+      <c r="E49" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s">
+        <v>158</v>
+      </c>
+      <c r="B50" t="s">
+        <v>158</v>
+      </c>
+      <c r="C50" t="s">
+        <v>68</v>
+      </c>
+      <c r="D50" t="s">
+        <v>158</v>
+      </c>
+      <c r="E50" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s">
+        <v>158</v>
+      </c>
+      <c r="B51" t="s">
+        <v>206</v>
+      </c>
+      <c r="C51" t="s">
+        <v>84</v>
+      </c>
+      <c r="D51" t="s">
+        <v>158</v>
+      </c>
+      <c r="E51" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s">
+        <v>158</v>
+      </c>
+      <c r="B52" t="s">
+        <v>158</v>
+      </c>
+      <c r="C52" t="s">
+        <v>8</v>
+      </c>
+      <c r="D52" t="s">
+        <v>23</v>
+      </c>
+      <c r="E52" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s">
+        <v>158</v>
+      </c>
+      <c r="B53" t="s">
+        <v>74</v>
+      </c>
+      <c r="C53" t="s">
+        <v>5</v>
+      </c>
+      <c r="D53" t="s">
+        <v>8</v>
+      </c>
+      <c r="E53" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s">
+        <v>158</v>
+      </c>
+      <c r="B54" t="s">
+        <v>74</v>
+      </c>
+      <c r="C54" t="s">
+        <v>208</v>
+      </c>
+      <c r="D54" t="s">
+        <v>207</v>
+      </c>
+      <c r="E54" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s">
+        <v>158</v>
+      </c>
+      <c r="B55" t="s">
+        <v>67</v>
+      </c>
+      <c r="C55" t="s">
+        <v>170</v>
+      </c>
+      <c r="D55" t="s">
+        <v>158</v>
+      </c>
+      <c r="E55" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s">
+        <v>158</v>
+      </c>
+      <c r="B56" t="s">
+        <v>186</v>
+      </c>
+      <c r="C56" t="s">
+        <v>158</v>
+      </c>
+      <c r="D56" t="s">
+        <v>158</v>
+      </c>
+      <c r="E56" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s">
+        <v>204</v>
+      </c>
+      <c r="B57" t="s">
+        <v>90</v>
+      </c>
+      <c r="C57" t="s">
+        <v>5</v>
+      </c>
+      <c r="D57" t="s">
+        <v>8</v>
+      </c>
+      <c r="E57" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="s">
+        <v>158</v>
+      </c>
+      <c r="B58" t="s">
+        <v>183</v>
+      </c>
+      <c r="C58" t="s">
+        <v>171</v>
+      </c>
+      <c r="D58" t="s">
+        <v>158</v>
+      </c>
+      <c r="E58" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="s">
+        <v>158</v>
+      </c>
+      <c r="B59" t="s">
+        <v>74</v>
+      </c>
+      <c r="C59" t="s">
+        <v>12</v>
+      </c>
+      <c r="D59" t="s">
+        <v>5</v>
+      </c>
+      <c r="E59" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="s">
+        <v>158</v>
+      </c>
+      <c r="B60" t="s">
+        <v>67</v>
+      </c>
+      <c r="C60" t="s">
+        <v>12</v>
+      </c>
+      <c r="D60" t="s">
+        <v>158</v>
+      </c>
+      <c r="E60" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="s">
+        <v>158</v>
+      </c>
+      <c r="B61" t="s">
+        <v>186</v>
+      </c>
+      <c r="C61" t="s">
+        <v>158</v>
+      </c>
+      <c r="D61" t="s">
+        <v>158</v>
+      </c>
+      <c r="E61" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="s">
+        <v>210</v>
+      </c>
+      <c r="B62" t="s">
+        <v>90</v>
+      </c>
+      <c r="C62" t="s">
+        <v>23</v>
+      </c>
+      <c r="D62" t="s">
+        <v>32</v>
+      </c>
+      <c r="E62" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="s">
+        <v>158</v>
+      </c>
+      <c r="B63" t="s">
+        <v>183</v>
+      </c>
+      <c r="C63" t="s">
+        <v>172</v>
+      </c>
+      <c r="D63" t="s">
+        <v>158</v>
+      </c>
+      <c r="E63" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="s">
+        <v>158</v>
+      </c>
+      <c r="B64" t="s">
+        <v>74</v>
+      </c>
+      <c r="C64" t="s">
+        <v>16</v>
+      </c>
+      <c r="D64" t="s">
+        <v>8</v>
+      </c>
+      <c r="E64" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="s">
+        <v>158</v>
+      </c>
+      <c r="B65" t="s">
+        <v>67</v>
+      </c>
+      <c r="C65" t="s">
+        <v>16</v>
+      </c>
+      <c r="D65" t="s">
+        <v>158</v>
+      </c>
+      <c r="E65" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="s">
+        <v>158</v>
+      </c>
+      <c r="B66" t="s">
+        <v>186</v>
+      </c>
+      <c r="C66" t="s">
+        <v>158</v>
+      </c>
+      <c r="D66" t="s">
+        <v>158</v>
+      </c>
+      <c r="E66" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="s">
+        <v>213</v>
+      </c>
+      <c r="B67" t="s">
+        <v>158</v>
+      </c>
+      <c r="C67" t="s">
+        <v>158</v>
+      </c>
+      <c r="D67" t="s">
+        <v>158</v>
+      </c>
+      <c r="E67" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="s">
+        <v>158</v>
+      </c>
+      <c r="B68" t="s">
+        <v>74</v>
+      </c>
+      <c r="C68" t="s">
+        <v>12</v>
+      </c>
+      <c r="D68" t="s">
+        <v>16</v>
+      </c>
+      <c r="E68" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="s">
+        <v>158</v>
+      </c>
+      <c r="B69" t="s">
+        <v>67</v>
+      </c>
+      <c r="C69" t="s">
+        <v>17</v>
+      </c>
+      <c r="D69" t="s">
+        <v>158</v>
+      </c>
+      <c r="E69" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="s">
+        <v>215</v>
+      </c>
+      <c r="B70" t="s">
+        <v>158</v>
+      </c>
+      <c r="C70" t="s">
+        <v>158</v>
+      </c>
+      <c r="D70" t="s">
+        <v>158</v>
+      </c>
+      <c r="E70" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="s">
+        <v>212</v>
+      </c>
+      <c r="B71" t="s">
+        <v>158</v>
+      </c>
+      <c r="C71" t="s">
+        <v>158</v>
+      </c>
+      <c r="D71" t="s">
+        <v>158</v>
+      </c>
+      <c r="E71" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="s">
+        <v>188</v>
+      </c>
+      <c r="B72" t="s">
+        <v>158</v>
+      </c>
+      <c r="C72" t="s">
+        <v>158</v>
+      </c>
+      <c r="D72" t="s">
+        <v>158</v>
+      </c>
+      <c r="E72" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="s">
+        <v>217</v>
+      </c>
+      <c r="B73" t="s">
+        <v>158</v>
+      </c>
+      <c r="C73" t="s">
+        <v>158</v>
+      </c>
+      <c r="D73" t="s">
+        <v>158</v>
+      </c>
+      <c r="E73" t="s">
+        <v>158</v>
       </c>
     </row>
   </sheetData>
@@ -2471,79 +5762,79 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>141</v>
+        <v>218</v>
       </c>
       <c r="B1" t="s">
-        <v>96</v>
+        <v>138</v>
       </c>
       <c r="C1" t="s">
-        <v>97</v>
+        <v>139</v>
       </c>
       <c r="D1" t="s">
-        <v>95</v>
+        <v>137</v>
       </c>
       <c r="E1" t="s">
-        <v>142</v>
+        <v>219</v>
       </c>
       <c r="F1" t="s">
+        <v>220</v>
+      </c>
+      <c r="G1" t="s">
+        <v>140</v>
+      </c>
+      <c r="H1" t="s">
+        <v>221</v>
+      </c>
+      <c r="I1" t="s">
         <v>143</v>
       </c>
-      <c r="G1" t="s">
-        <v>98</v>
-      </c>
-      <c r="H1" t="s">
-        <v>144</v>
-      </c>
-      <c r="I1" t="s">
-        <v>101</v>
-      </c>
       <c r="J1" t="s">
-        <v>145</v>
+        <v>205</v>
       </c>
       <c r="K1" t="s">
-        <v>146</v>
+        <v>222</v>
       </c>
       <c r="L1" t="s">
-        <v>47</v>
+        <v>67</v>
       </c>
       <c r="M1" t="s">
-        <v>147</v>
+        <v>223</v>
       </c>
       <c r="N1" t="s">
-        <v>148</v>
+        <v>224</v>
       </c>
       <c r="O1" t="s">
-        <v>149</v>
+        <v>225</v>
       </c>
       <c r="P1" t="s">
-        <v>150</v>
+        <v>226</v>
       </c>
       <c r="Q1" t="s">
-        <v>129</v>
+        <v>183</v>
       </c>
       <c r="R1" t="s">
-        <v>133</v>
+        <v>186</v>
       </c>
       <c r="S1" t="s">
-        <v>151</v>
+        <v>227</v>
       </c>
       <c r="T1" t="s">
-        <v>152</v>
+        <v>228</v>
       </c>
       <c r="U1" t="s">
-        <v>153</v>
+        <v>229</v>
       </c>
       <c r="V1" t="s">
-        <v>154</v>
+        <v>230</v>
       </c>
       <c r="W1" t="s">
-        <v>155</v>
+        <v>231</v>
       </c>
       <c r="X1" t="s">
-        <v>156</v>
+        <v>232</v>
       </c>
       <c r="Y1" t="s">
-        <v>128</v>
+        <v>181</v>
       </c>
     </row>
     <row r="2">
@@ -2551,22 +5842,22 @@
         <v>0.0</v>
       </c>
       <c r="B2" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F2" t="n">
         <v>2.0</v>
       </c>
-      <c r="C2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0.0</v>
-      </c>
       <c r="G2" t="n">
-        <v>3.0</v>
+        <v>11.0</v>
       </c>
       <c r="H2" t="n">
         <v>0.0</v>
@@ -2575,46 +5866,46 @@
         <v>0.0</v>
       </c>
       <c r="J2" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="K2" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="L2" t="n">
-        <v>3.0</v>
+        <v>12.0</v>
       </c>
       <c r="M2" t="n">
-        <v>3.0</v>
+        <v>7.0</v>
       </c>
       <c r="N2" t="n">
         <v>0.0</v>
       </c>
       <c r="O2" t="n">
-        <v>2.0</v>
+        <v>7.0</v>
       </c>
       <c r="P2" t="n">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
       <c r="Q2" t="n">
-        <v>3.0</v>
+        <v>11.0</v>
       </c>
       <c r="R2" t="n">
-        <v>3.0</v>
+        <v>9.0</v>
       </c>
       <c r="S2" t="n">
         <v>0.0</v>
       </c>
       <c r="T2" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="U2" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="V2" t="n">
         <v>4.0</v>
       </c>
-      <c r="U2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="V2" t="n">
-        <v>0.0</v>
-      </c>
       <c r="W2" t="n">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="X2" t="n">
         <v>0.0</v>
@@ -2625,25 +5916,25 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>157</v>
+        <v>233</v>
       </c>
       <c r="B3" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F3" t="n">
         <v>2.0</v>
       </c>
-      <c r="C3" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0.0</v>
-      </c>
       <c r="G3" t="n">
-        <v>3.0</v>
+        <v>11.0</v>
       </c>
       <c r="H3" t="n">
         <v>0.0</v>
@@ -2652,46 +5943,46 @@
         <v>0.0</v>
       </c>
       <c r="J3" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="K3" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="L3" t="n">
-        <v>3.0</v>
+        <v>12.0</v>
       </c>
       <c r="M3" t="n">
-        <v>3.0</v>
+        <v>7.0</v>
       </c>
       <c r="N3" t="n">
         <v>0.0</v>
       </c>
       <c r="O3" t="n">
-        <v>2.0</v>
+        <v>7.0</v>
       </c>
       <c r="P3" t="n">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
       <c r="Q3" t="n">
-        <v>3.0</v>
+        <v>11.0</v>
       </c>
       <c r="R3" t="n">
-        <v>3.0</v>
+        <v>9.0</v>
       </c>
       <c r="S3" t="n">
         <v>0.0</v>
       </c>
       <c r="T3" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="U3" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="V3" t="n">
         <v>4.0</v>
       </c>
-      <c r="U3" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="V3" t="n">
-        <v>0.0</v>
-      </c>
       <c r="W3" t="n">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="X3" t="n">
         <v>0.0</v>

--- a/src/Excel/Yañez_Gonzalez_Christian_Emmanuel.xlsx
+++ b/src/Excel/Yañez_Gonzalez_Christian_Emmanuel.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="747" uniqueCount="178">
   <si>
     <t>Estado</t>
   </si>
@@ -31,13 +31,85 @@
     <t>Linea</t>
   </si>
   <si>
+    <t>-66</t>
+  </si>
+  <si>
+    <t>VOID</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>-1</t>
+  </si>
+  <si>
+    <t>mat</t>
+  </si>
+  <si>
+    <t>-49</t>
+  </si>
+  <si>
+    <t>(</t>
+  </si>
+  <si>
     <t>-97</t>
   </si>
   <si>
     <t>INT</t>
   </si>
   <si>
-    <t>1</t>
+    <t>x</t>
+  </si>
+  <si>
+    <t>-50</t>
+  </si>
+  <si>
+    <t>)</t>
+  </si>
+  <si>
+    <t>-61</t>
+  </si>
+  <si>
+    <t>main</t>
+  </si>
+  <si>
+    <t>-53</t>
+  </si>
+  <si>
+    <t>{</t>
+  </si>
+  <si>
+    <t>-54</t>
+  </si>
+  <si>
+    <t>}</t>
+  </si>
+  <si>
+    <t>-46</t>
+  </si>
+  <si>
+    <t>;</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>sor</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>fac</t>
+  </si>
+  <si>
+    <t>-92</t>
+  </si>
+  <si>
+    <t>return</t>
+  </si>
+  <si>
+    <t>4</t>
   </si>
   <si>
     <t>-68</t>
@@ -46,43 +118,79 @@
     <t>:</t>
   </si>
   <si>
-    <t>-1</t>
-  </si>
-  <si>
-    <t>a</t>
-  </si>
-  <si>
-    <t>-46</t>
-  </si>
-  <si>
-    <t>;</t>
-  </si>
-  <si>
-    <t>-61</t>
-  </si>
-  <si>
-    <t>main</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>-49</t>
-  </si>
-  <si>
-    <t>(</t>
-  </si>
-  <si>
-    <t>-50</t>
-  </si>
-  <si>
-    <t>)</t>
-  </si>
-  <si>
-    <t>-53</t>
-  </si>
-  <si>
-    <t>{</t>
+    <t>-47</t>
+  </si>
+  <si>
+    <t>,</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>-6</t>
+  </si>
+  <si>
+    <t>while</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>-40</t>
+  </si>
+  <si>
+    <t>==</t>
+  </si>
+  <si>
+    <t>-19</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>-43</t>
+  </si>
+  <si>
+    <t>&gt;&gt;</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>-20</t>
+  </si>
+  <si>
+    <t>"menu"</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>"1--Sorteo\n"</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>"2-3 matrices\n"</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>"4 Factor\n"</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>-55</t>
+  </si>
+  <si>
+    <t>=</t>
   </si>
   <si>
     <t>-4</t>
@@ -91,10 +199,19 @@
     <t>if</t>
   </si>
   <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>-19</t>
+    <t>12</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>-95</t>
+  </si>
+  <si>
+    <t>else</t>
+  </si>
+  <si>
+    <t>14</t>
   </si>
   <si>
     <t>-36</t>
@@ -109,22 +226,34 @@
     <t>||</t>
   </si>
   <si>
-    <t>-30</t>
-  </si>
-  <si>
-    <t>++</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>-54</t>
-  </si>
-  <si>
-    <t>}</t>
-  </si>
-  <si>
-    <t>5</t>
+    <t>15</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>"int"</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>"Factor"</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>22</t>
   </si>
   <si>
     <t>Token</t>
@@ -193,10 +322,7 @@
     <t>Funciones</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>10</t>
+    <t>44</t>
   </si>
   <si>
     <t>Ambito</t>
@@ -220,9 +346,6 @@
     <t>REG</t>
   </si>
   <si>
-    <t>VOID</t>
-  </si>
-  <si>
     <t>FILE</t>
   </si>
   <si>
@@ -268,6 +391,12 @@
     <t>Errores</t>
   </si>
   <si>
+    <t xml:space="preserve">x -&gt; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">y -&gt; </t>
+  </si>
+  <si>
     <t>Regla</t>
   </si>
   <si>
@@ -286,55 +415,94 @@
     <t/>
   </si>
   <si>
-    <t>Cont_entero</t>
+    <t>Acept</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>TB1</t>
+  </si>
+  <si>
+    <t>TB2</t>
+  </si>
+  <si>
+    <t>TB5</t>
+  </si>
+  <si>
+    <t>TB6</t>
+  </si>
+  <si>
+    <t>Entradas</t>
+  </si>
+  <si>
+    <t>Salidas</t>
+  </si>
+  <si>
+    <t>Aceptados</t>
+  </si>
+  <si>
+    <t>Etiqueta</t>
+  </si>
+  <si>
+    <t>Accion</t>
+  </si>
+  <si>
+    <t>Arg1</t>
+  </si>
+  <si>
+    <t>Arg2</t>
+  </si>
+  <si>
+    <t>Resultado</t>
+  </si>
+  <si>
+    <t>DEF</t>
+  </si>
+  <si>
+    <t>enddef</t>
+  </si>
+  <si>
+    <t>Call</t>
+  </si>
+  <si>
+    <t>Tdeffac</t>
+  </si>
+  <si>
+    <t>PPAL</t>
+  </si>
+  <si>
+    <t>Whi-E1:</t>
+  </si>
+  <si>
+    <t>JF</t>
+  </si>
+  <si>
+    <t>Whi-E2:</t>
+  </si>
+  <si>
+    <t>if-E1:</t>
+  </si>
+  <si>
+    <t>JMP</t>
+  </si>
+  <si>
+    <t>if-E2:</t>
   </si>
   <si>
     <t>TB3</t>
   </si>
   <si>
-    <t>Acept</t>
-  </si>
-  <si>
-    <t>id</t>
-  </si>
-  <si>
-    <t>Entradas</t>
-  </si>
-  <si>
-    <t>Salidas</t>
-  </si>
-  <si>
-    <t>Aceptados</t>
-  </si>
-  <si>
-    <t>Etiqueta</t>
-  </si>
-  <si>
-    <t>Accion</t>
-  </si>
-  <si>
-    <t>Arg1</t>
-  </si>
-  <si>
-    <t>Arg2</t>
-  </si>
-  <si>
-    <t>Resultado</t>
-  </si>
-  <si>
-    <t>PPAL</t>
-  </si>
-  <si>
-    <t>TB1</t>
-  </si>
-  <si>
-    <t>TB2</t>
-  </si>
-  <si>
-    <t>JF</t>
-  </si>
-  <si>
-    <t>if-E1:</t>
+    <t>TB4</t>
+  </si>
+  <si>
+    <t>if-E3:</t>
+  </si>
+  <si>
+    <t>if-E4:</t>
+  </si>
+  <si>
+    <t>if-E5:</t>
   </si>
   <si>
     <t>endmain</t>
@@ -358,9 +526,6 @@
     <t>call</t>
   </si>
   <si>
-    <t>=</t>
-  </si>
-  <si>
     <t>Op-Rel</t>
   </si>
   <si>
@@ -373,9 +538,6 @@
     <t>Op-Un</t>
   </si>
   <si>
-    <t>JMP</t>
-  </si>
-  <si>
     <t>valor</t>
   </si>
   <si>
@@ -389,9 +551,6 @@
   </si>
   <si>
     <t>Whi-E</t>
-  </si>
-  <si>
-    <t>DEF</t>
   </si>
   <si>
     <t>Totales</t>
@@ -439,7 +598,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C27"/>
+  <dimension ref="A1:C126"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -502,98 +661,98 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" t="s">
         <v>12</v>
       </c>
-      <c r="B6" t="s">
-        <v>13</v>
-      </c>
       <c r="C6" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C7" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B8" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C8" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="C10" t="s">
-        <v>23</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B11" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C11" t="s">
-        <v>23</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B12" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C12" t="s">
-        <v>23</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" t="s">
         <v>5</v>
-      </c>
-      <c r="C13" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="B14" t="s">
-        <v>26</v>
+        <v>4</v>
       </c>
       <c r="C14" t="s">
         <v>23</v>
@@ -601,10 +760,10 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
+        <v>6</v>
+      </c>
+      <c r="B15" t="s">
         <v>24</v>
-      </c>
-      <c r="B15" t="s">
-        <v>14</v>
       </c>
       <c r="C15" t="s">
         <v>23</v>
@@ -612,10 +771,10 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="B16" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="C16" t="s">
         <v>23</v>
@@ -623,10 +782,10 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="B17" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="C17" t="s">
         <v>23</v>
@@ -634,10 +793,10 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="B18" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C18" t="s">
         <v>23</v>
@@ -645,10 +804,10 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="B19" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="C19" t="s">
         <v>23</v>
@@ -656,10 +815,10 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="B20" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="C20" t="s">
         <v>23</v>
@@ -667,10 +826,10 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="B21" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="C21" t="s">
         <v>23</v>
@@ -678,10 +837,10 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B22" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C22" t="s">
         <v>23</v>
@@ -700,24 +859,24 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="B24" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="C24" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="B25" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="C25" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
     </row>
     <row r="26">
@@ -728,18 +887,1107 @@
         <v>11</v>
       </c>
       <c r="C26" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
+        <v>6</v>
+      </c>
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>8</v>
+      </c>
+      <c r="B28" t="s">
+        <v>9</v>
+      </c>
+      <c r="C28" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>10</v>
+      </c>
+      <c r="B29" t="s">
+        <v>11</v>
+      </c>
+      <c r="C29" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s">
+        <v>6</v>
+      </c>
+      <c r="B30" t="s">
+        <v>12</v>
+      </c>
+      <c r="C30" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
+        <v>13</v>
+      </c>
+      <c r="B31" t="s">
+        <v>14</v>
+      </c>
+      <c r="C31" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s">
+        <v>15</v>
+      </c>
+      <c r="B32" t="s">
+        <v>16</v>
+      </c>
+      <c r="C32" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s">
+        <v>8</v>
+      </c>
+      <c r="B33" t="s">
+        <v>9</v>
+      </c>
+      <c r="C33" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s">
+        <v>13</v>
+      </c>
+      <c r="B34" t="s">
+        <v>14</v>
+      </c>
+      <c r="C34" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s">
+        <v>17</v>
+      </c>
+      <c r="B35" t="s">
+        <v>18</v>
+      </c>
+      <c r="C35" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s">
+        <v>27</v>
+      </c>
+      <c r="B36" t="s">
+        <v>28</v>
+      </c>
+      <c r="C36" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s">
+        <v>6</v>
+      </c>
+      <c r="B37" t="s">
+        <v>12</v>
+      </c>
+      <c r="C37" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s">
+        <v>19</v>
+      </c>
+      <c r="B38" t="s">
+        <v>20</v>
+      </c>
+      <c r="C38" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s">
+        <v>21</v>
+      </c>
+      <c r="B39" t="s">
+        <v>22</v>
+      </c>
+      <c r="C39" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s">
+        <v>10</v>
+      </c>
+      <c r="B40" t="s">
+        <v>11</v>
+      </c>
+      <c r="C40" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s">
+        <v>30</v>
+      </c>
+      <c r="B41" t="s">
+        <v>31</v>
+      </c>
+      <c r="C41" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s">
+        <v>6</v>
+      </c>
+      <c r="B42" t="s">
+        <v>12</v>
+      </c>
+      <c r="C42" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s">
         <v>32</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B43" t="s">
         <v>33</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C43" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s">
+        <v>6</v>
+      </c>
+      <c r="B44" t="s">
         <v>34</v>
+      </c>
+      <c r="C44" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s">
+        <v>21</v>
+      </c>
+      <c r="B45" t="s">
+        <v>22</v>
+      </c>
+      <c r="C45" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s">
+        <v>15</v>
+      </c>
+      <c r="B46" t="s">
+        <v>16</v>
+      </c>
+      <c r="C46" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s">
+        <v>8</v>
+      </c>
+      <c r="B47" t="s">
+        <v>9</v>
+      </c>
+      <c r="C47" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s">
+        <v>13</v>
+      </c>
+      <c r="B48" t="s">
+        <v>14</v>
+      </c>
+      <c r="C48" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s">
+        <v>17</v>
+      </c>
+      <c r="B49" t="s">
+        <v>18</v>
+      </c>
+      <c r="C49" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s">
+        <v>36</v>
+      </c>
+      <c r="B50" t="s">
+        <v>37</v>
+      </c>
+      <c r="C50" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s">
+        <v>8</v>
+      </c>
+      <c r="B51" t="s">
+        <v>9</v>
+      </c>
+      <c r="C51" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s">
+        <v>6</v>
+      </c>
+      <c r="B52" t="s">
+        <v>12</v>
+      </c>
+      <c r="C52" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s">
+        <v>39</v>
+      </c>
+      <c r="B53" t="s">
+        <v>40</v>
+      </c>
+      <c r="C53" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s">
+        <v>41</v>
+      </c>
+      <c r="B54" t="s">
+        <v>42</v>
+      </c>
+      <c r="C54" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s">
+        <v>13</v>
+      </c>
+      <c r="B55" t="s">
+        <v>14</v>
+      </c>
+      <c r="C55" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s">
+        <v>17</v>
+      </c>
+      <c r="B56" t="s">
+        <v>18</v>
+      </c>
+      <c r="C56" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s">
+        <v>43</v>
+      </c>
+      <c r="B57" t="s">
+        <v>44</v>
+      </c>
+      <c r="C57" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="s">
+        <v>46</v>
+      </c>
+      <c r="B58" t="s">
+        <v>47</v>
+      </c>
+      <c r="C58" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="s">
+        <v>21</v>
+      </c>
+      <c r="B59" t="s">
+        <v>22</v>
+      </c>
+      <c r="C59" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="s">
+        <v>43</v>
+      </c>
+      <c r="B60" t="s">
+        <v>44</v>
+      </c>
+      <c r="C60" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="s">
+        <v>46</v>
+      </c>
+      <c r="B61" t="s">
+        <v>49</v>
+      </c>
+      <c r="C61" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="s">
+        <v>21</v>
+      </c>
+      <c r="B62" t="s">
+        <v>22</v>
+      </c>
+      <c r="C62" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="s">
+        <v>43</v>
+      </c>
+      <c r="B63" t="s">
+        <v>44</v>
+      </c>
+      <c r="C63" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="s">
+        <v>46</v>
+      </c>
+      <c r="B64" t="s">
+        <v>51</v>
+      </c>
+      <c r="C64" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="s">
+        <v>21</v>
+      </c>
+      <c r="B65" t="s">
+        <v>22</v>
+      </c>
+      <c r="C65" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="s">
+        <v>43</v>
+      </c>
+      <c r="B66" t="s">
+        <v>44</v>
+      </c>
+      <c r="C66" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="s">
+        <v>46</v>
+      </c>
+      <c r="B67" t="s">
+        <v>53</v>
+      </c>
+      <c r="C67" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="s">
+        <v>21</v>
+      </c>
+      <c r="B68" t="s">
+        <v>22</v>
+      </c>
+      <c r="C68" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="s">
+        <v>6</v>
+      </c>
+      <c r="B69" t="s">
+        <v>12</v>
+      </c>
+      <c r="C69" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="s">
+        <v>55</v>
+      </c>
+      <c r="B70" t="s">
+        <v>56</v>
+      </c>
+      <c r="C70" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="s">
+        <v>41</v>
+      </c>
+      <c r="B71" t="s">
+        <v>35</v>
+      </c>
+      <c r="C71" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="s">
+        <v>21</v>
+      </c>
+      <c r="B72" t="s">
+        <v>22</v>
+      </c>
+      <c r="C72" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="s">
+        <v>57</v>
+      </c>
+      <c r="B73" t="s">
+        <v>58</v>
+      </c>
+      <c r="C73" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="s">
+        <v>8</v>
+      </c>
+      <c r="B74" t="s">
+        <v>9</v>
+      </c>
+      <c r="C74" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="s">
+        <v>6</v>
+      </c>
+      <c r="B75" t="s">
+        <v>12</v>
+      </c>
+      <c r="C75" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="s">
+        <v>39</v>
+      </c>
+      <c r="B76" t="s">
+        <v>40</v>
+      </c>
+      <c r="C76" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="s">
+        <v>41</v>
+      </c>
+      <c r="B77" t="s">
+        <v>5</v>
+      </c>
+      <c r="C77" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="s">
+        <v>13</v>
+      </c>
+      <c r="B78" t="s">
+        <v>14</v>
+      </c>
+      <c r="C78" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="s">
+        <v>43</v>
+      </c>
+      <c r="B79" t="s">
+        <v>44</v>
+      </c>
+      <c r="C79" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="s">
+        <v>6</v>
+      </c>
+      <c r="B80" t="s">
+        <v>24</v>
+      </c>
+      <c r="C80" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="s">
+        <v>8</v>
+      </c>
+      <c r="B81" t="s">
+        <v>9</v>
+      </c>
+      <c r="C81" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="s">
+        <v>13</v>
+      </c>
+      <c r="B82" t="s">
+        <v>14</v>
+      </c>
+      <c r="C82" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="s">
+        <v>61</v>
+      </c>
+      <c r="B83" t="s">
+        <v>62</v>
+      </c>
+      <c r="C83" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="s">
+        <v>57</v>
+      </c>
+      <c r="B84" t="s">
+        <v>58</v>
+      </c>
+      <c r="C84" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="s">
+        <v>8</v>
+      </c>
+      <c r="B85" t="s">
+        <v>9</v>
+      </c>
+      <c r="C85" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="s">
+        <v>8</v>
+      </c>
+      <c r="B86" t="s">
+        <v>9</v>
+      </c>
+      <c r="C86" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="s">
+        <v>6</v>
+      </c>
+      <c r="B87" t="s">
+        <v>12</v>
+      </c>
+      <c r="C87" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="s">
+        <v>64</v>
+      </c>
+      <c r="B88" t="s">
+        <v>65</v>
+      </c>
+      <c r="C88" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="s">
+        <v>41</v>
+      </c>
+      <c r="B89" t="s">
+        <v>23</v>
+      </c>
+      <c r="C89" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="s">
+        <v>13</v>
+      </c>
+      <c r="B90" t="s">
+        <v>14</v>
+      </c>
+      <c r="C90" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="s">
+        <v>66</v>
+      </c>
+      <c r="B91" t="s">
+        <v>67</v>
+      </c>
+      <c r="C91" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="s">
+        <v>8</v>
+      </c>
+      <c r="B92" t="s">
+        <v>9</v>
+      </c>
+      <c r="C92" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="s">
+        <v>6</v>
+      </c>
+      <c r="B93" t="s">
+        <v>12</v>
+      </c>
+      <c r="C93" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="s">
+        <v>64</v>
+      </c>
+      <c r="B94" t="s">
+        <v>65</v>
+      </c>
+      <c r="C94" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="s">
+        <v>41</v>
+      </c>
+      <c r="B95" t="s">
+        <v>35</v>
+      </c>
+      <c r="C95" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="s">
+        <v>13</v>
+      </c>
+      <c r="B96" t="s">
+        <v>14</v>
+      </c>
+      <c r="C96" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="s">
+        <v>13</v>
+      </c>
+      <c r="B97" t="s">
+        <v>14</v>
+      </c>
+      <c r="C97" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="s">
+        <v>6</v>
+      </c>
+      <c r="B98" t="s">
+        <v>7</v>
+      </c>
+      <c r="C98" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="s">
+        <v>8</v>
+      </c>
+      <c r="B99" t="s">
+        <v>9</v>
+      </c>
+      <c r="C99" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="s">
+        <v>13</v>
+      </c>
+      <c r="B100" t="s">
+        <v>14</v>
+      </c>
+      <c r="C100" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="s">
+        <v>61</v>
+      </c>
+      <c r="B101" t="s">
+        <v>62</v>
+      </c>
+      <c r="C101" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="s">
+        <v>57</v>
+      </c>
+      <c r="B102" t="s">
+        <v>58</v>
+      </c>
+      <c r="C102" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="s">
+        <v>8</v>
+      </c>
+      <c r="B103" t="s">
+        <v>9</v>
+      </c>
+      <c r="C103" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="s">
+        <v>6</v>
+      </c>
+      <c r="B104" t="s">
+        <v>12</v>
+      </c>
+      <c r="C104" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="s">
+        <v>39</v>
+      </c>
+      <c r="B105" t="s">
+        <v>40</v>
+      </c>
+      <c r="C105" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="s">
+        <v>41</v>
+      </c>
+      <c r="B106" t="s">
+        <v>29</v>
+      </c>
+      <c r="C106" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="s">
+        <v>13</v>
+      </c>
+      <c r="B107" t="s">
+        <v>14</v>
+      </c>
+      <c r="C107" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="s">
+        <v>17</v>
+      </c>
+      <c r="B108" t="s">
+        <v>18</v>
+      </c>
+      <c r="C108" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="s">
+        <v>43</v>
+      </c>
+      <c r="B109" t="s">
+        <v>44</v>
+      </c>
+      <c r="C109" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="s">
+        <v>46</v>
+      </c>
+      <c r="B110" t="s">
+        <v>71</v>
+      </c>
+      <c r="C110" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="s">
+        <v>21</v>
+      </c>
+      <c r="B111" t="s">
+        <v>22</v>
+      </c>
+      <c r="C111" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="s">
+        <v>6</v>
+      </c>
+      <c r="B112" t="s">
+        <v>34</v>
+      </c>
+      <c r="C112" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="s">
+        <v>55</v>
+      </c>
+      <c r="B113" t="s">
+        <v>56</v>
+      </c>
+      <c r="C113" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="s">
+        <v>41</v>
+      </c>
+      <c r="B114" t="s">
+        <v>35</v>
+      </c>
+      <c r="C114" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="s">
+        <v>21</v>
+      </c>
+      <c r="B115" t="s">
+        <v>22</v>
+      </c>
+      <c r="C115" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="s">
+        <v>43</v>
+      </c>
+      <c r="B116" t="s">
+        <v>44</v>
+      </c>
+      <c r="C116" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="s">
+        <v>46</v>
+      </c>
+      <c r="B117" t="s">
+        <v>74</v>
+      </c>
+      <c r="C117" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="s">
+        <v>32</v>
+      </c>
+      <c r="B118" t="s">
+        <v>33</v>
+      </c>
+      <c r="C118" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="s">
+        <v>6</v>
+      </c>
+      <c r="B119" t="s">
+        <v>26</v>
+      </c>
+      <c r="C119" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="s">
+        <v>8</v>
+      </c>
+      <c r="B120" t="s">
+        <v>9</v>
+      </c>
+      <c r="C120" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="s">
+        <v>6</v>
+      </c>
+      <c r="B121" t="s">
+        <v>34</v>
+      </c>
+      <c r="C121" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="s">
+        <v>13</v>
+      </c>
+      <c r="B122" t="s">
+        <v>14</v>
+      </c>
+      <c r="C122" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="s">
+        <v>21</v>
+      </c>
+      <c r="B123" t="s">
+        <v>22</v>
+      </c>
+      <c r="C123" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="s">
+        <v>19</v>
+      </c>
+      <c r="B124" t="s">
+        <v>20</v>
+      </c>
+      <c r="C124" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="s">
+        <v>19</v>
+      </c>
+      <c r="B125" t="s">
+        <v>20</v>
+      </c>
+      <c r="C125" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="s">
+        <v>19</v>
+      </c>
+      <c r="B126" t="s">
+        <v>20</v>
+      </c>
+      <c r="C126" t="s">
+        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -757,16 +2005,16 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>35</v>
+        <v>78</v>
       </c>
       <c r="B1" t="s">
-        <v>36</v>
+        <v>79</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>37</v>
+        <v>80</v>
       </c>
       <c r="E1" t="s">
         <v>2</v>
@@ -787,120 +2035,120 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="B1" t="s">
-        <v>39</v>
+        <v>82</v>
       </c>
       <c r="C1" t="s">
-        <v>40</v>
+        <v>83</v>
       </c>
       <c r="D1" t="s">
-        <v>41</v>
+        <v>84</v>
       </c>
       <c r="E1" t="s">
-        <v>42</v>
+        <v>85</v>
       </c>
       <c r="F1" t="s">
-        <v>43</v>
+        <v>86</v>
       </c>
       <c r="G1" t="s">
-        <v>44</v>
+        <v>87</v>
       </c>
       <c r="H1" t="s">
-        <v>45</v>
+        <v>88</v>
       </c>
       <c r="I1" t="s">
-        <v>46</v>
+        <v>89</v>
       </c>
       <c r="J1" t="s">
-        <v>47</v>
+        <v>90</v>
       </c>
       <c r="K1" t="s">
-        <v>48</v>
+        <v>91</v>
       </c>
       <c r="L1" t="s">
-        <v>49</v>
+        <v>92</v>
       </c>
       <c r="M1" t="s">
-        <v>50</v>
+        <v>93</v>
       </c>
       <c r="N1" t="s">
-        <v>51</v>
+        <v>94</v>
       </c>
       <c r="O1" t="s">
-        <v>52</v>
+        <v>95</v>
       </c>
       <c r="P1" t="s">
-        <v>53</v>
+        <v>96</v>
       </c>
       <c r="Q1" t="s">
-        <v>54</v>
+        <v>97</v>
       </c>
       <c r="R1" t="s">
-        <v>55</v>
+        <v>98</v>
       </c>
       <c r="S1" t="s">
-        <v>56</v>
+        <v>99</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="B2" t="s">
-        <v>14</v>
+        <v>75</v>
       </c>
       <c r="C2" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="D2" t="s">
-        <v>5</v>
+        <v>29</v>
       </c>
       <c r="E2" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="F2" t="s">
-        <v>57</v>
+        <v>38</v>
       </c>
       <c r="G2" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="H2" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="I2" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="J2" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="K2" t="s">
-        <v>5</v>
+        <v>42</v>
       </c>
       <c r="L2" t="s">
         <v>5</v>
       </c>
       <c r="M2" t="s">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="N2" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="O2" t="s">
-        <v>14</v>
+        <v>63</v>
       </c>
       <c r="P2" t="s">
-        <v>58</v>
+        <v>100</v>
       </c>
       <c r="Q2" t="s">
-        <v>57</v>
+        <v>23</v>
       </c>
       <c r="R2" t="s">
-        <v>23</v>
+        <v>68</v>
       </c>
       <c r="S2" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -910,7 +2158,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:L3"/>
+  <dimension ref="A1:L6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -918,40 +2166,40 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>59</v>
+        <v>101</v>
       </c>
       <c r="B1" t="s">
-        <v>60</v>
+        <v>102</v>
       </c>
       <c r="C1" t="s">
-        <v>61</v>
+        <v>103</v>
       </c>
       <c r="D1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" t="s">
+        <v>104</v>
+      </c>
+      <c r="F1" t="s">
+        <v>105</v>
+      </c>
+      <c r="G1" t="s">
+        <v>106</v>
+      </c>
+      <c r="H1" t="s">
+        <v>107</v>
+      </c>
+      <c r="I1" t="s">
         <v>4</v>
       </c>
-      <c r="E1" t="s">
-        <v>62</v>
-      </c>
-      <c r="F1" t="s">
-        <v>63</v>
-      </c>
-      <c r="G1" t="s">
-        <v>64</v>
-      </c>
-      <c r="H1" t="s">
-        <v>65</v>
-      </c>
-      <c r="I1" t="s">
-        <v>66</v>
-      </c>
       <c r="J1" t="s">
-        <v>67</v>
+        <v>108</v>
       </c>
       <c r="K1" t="s">
-        <v>68</v>
+        <v>109</v>
       </c>
       <c r="L1" t="s">
-        <v>69</v>
+        <v>110</v>
       </c>
     </row>
     <row r="2">
@@ -965,36 +2213,36 @@
         <v>0.0</v>
       </c>
       <c r="D2" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
         <v>1.0</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s">
-        <v>70</v>
       </c>
       <c r="B3" t="n">
         <v>0.0</v>
@@ -1028,6 +2276,120 @@
       </c>
       <c r="L3" t="n">
         <v>1.0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="B4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="B5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>111</v>
+      </c>
+      <c r="B6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D6" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I6" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>8.0</v>
       </c>
     </row>
   </sheetData>
@@ -1037,7 +2399,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:M1"/>
+  <dimension ref="A1:M3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1048,40 +2410,122 @@
         <v>2</v>
       </c>
       <c r="B1" t="s">
-        <v>71</v>
+        <v>112</v>
       </c>
       <c r="C1" t="s">
-        <v>72</v>
+        <v>113</v>
       </c>
       <c r="D1" t="s">
-        <v>73</v>
+        <v>114</v>
       </c>
       <c r="E1" t="s">
-        <v>74</v>
+        <v>115</v>
       </c>
       <c r="F1" t="s">
-        <v>75</v>
+        <v>116</v>
       </c>
       <c r="G1" t="s">
-        <v>76</v>
+        <v>117</v>
       </c>
       <c r="H1" t="s">
-        <v>74</v>
+        <v>115</v>
       </c>
       <c r="I1" t="s">
-        <v>77</v>
+        <v>118</v>
       </c>
       <c r="J1" t="s">
-        <v>78</v>
+        <v>119</v>
       </c>
       <c r="K1" t="s">
-        <v>79</v>
+        <v>120</v>
       </c>
       <c r="L1" t="s">
-        <v>80</v>
+        <v>121</v>
       </c>
       <c r="M1" t="s">
-        <v>81</v>
+        <v>122</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L2" t="s">
+        <v>123</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="B3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L3" t="s">
+        <v>124</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0.0</v>
       </c>
     </row>
   </sheetData>
@@ -1091,7 +2535,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1099,93 +2543,599 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>82</v>
+        <v>125</v>
       </c>
       <c r="B1" t="s">
-        <v>83</v>
+        <v>126</v>
       </c>
       <c r="C1" t="s">
-        <v>84</v>
+        <v>127</v>
       </c>
       <c r="D1" t="s">
-        <v>85</v>
+        <v>128</v>
       </c>
       <c r="E1" t="s">
         <v>2</v>
       </c>
       <c r="F1" t="s">
-        <v>86</v>
+        <v>129</v>
       </c>
       <c r="G1" t="s">
-        <v>59</v>
+        <v>101</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1010.0</v>
+        <v>1150.0</v>
       </c>
       <c r="B2" t="s">
-        <v>87</v>
+        <v>130</v>
       </c>
       <c r="C2" t="s">
-        <v>88</v>
+        <v>22</v>
       </c>
       <c r="D2" t="s">
-        <v>89</v>
+        <v>22</v>
       </c>
       <c r="E2" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="F2" t="s">
-        <v>90</v>
+        <v>131</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1130.0</v>
+        <v>1150.0</v>
       </c>
       <c r="B3" t="s">
-        <v>87</v>
+        <v>130</v>
       </c>
       <c r="C3" t="s">
-        <v>91</v>
+        <v>22</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="E3" t="n">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
       <c r="F3" t="s">
-        <v>90</v>
+        <v>131</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1180.0</v>
+        <v>1130.0</v>
       </c>
       <c r="B4" t="s">
-        <v>87</v>
+        <v>130</v>
       </c>
       <c r="C4" t="s">
-        <v>91</v>
+        <v>132</v>
       </c>
       <c r="D4" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E4" t="n">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c r="F4" t="s">
-        <v>90</v>
+        <v>131</v>
       </c>
       <c r="G4" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>1140.0</v>
+      </c>
+      <c r="B5" t="s">
+        <v>130</v>
+      </c>
+      <c r="C5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E5" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="F5" t="s">
+        <v>131</v>
+      </c>
+      <c r="G5" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>1130.0</v>
+      </c>
+      <c r="B6" t="s">
+        <v>130</v>
+      </c>
+      <c r="C6" t="s">
+        <v>132</v>
+      </c>
+      <c r="D6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="F6" t="s">
+        <v>131</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>1011.0</v>
+      </c>
+      <c r="B7" t="s">
+        <v>130</v>
+      </c>
+      <c r="C7" t="s">
+        <v>132</v>
+      </c>
+      <c r="D7" t="s">
+        <v>133</v>
+      </c>
+      <c r="E7" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="F7" t="s">
+        <v>131</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>1130.0</v>
+      </c>
+      <c r="B8" t="s">
+        <v>130</v>
+      </c>
+      <c r="C8" t="s">
+        <v>132</v>
+      </c>
+      <c r="D8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="F8" t="s">
+        <v>131</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>1090.0</v>
+      </c>
+      <c r="B9" t="s">
+        <v>130</v>
+      </c>
+      <c r="C9" t="s">
+        <v>132</v>
+      </c>
+      <c r="D9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="F9" t="s">
+        <v>131</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>1020.0</v>
+      </c>
+      <c r="B10" t="s">
+        <v>130</v>
+      </c>
+      <c r="C10" t="s">
+        <v>56</v>
+      </c>
+      <c r="D10" t="s">
+        <v>56</v>
+      </c>
+      <c r="E10" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="F10" t="s">
+        <v>131</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>1130.0</v>
+      </c>
+      <c r="B11" t="s">
+        <v>130</v>
+      </c>
+      <c r="C11" t="s">
+        <v>132</v>
+      </c>
+      <c r="D11" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="F11" t="s">
+        <v>131</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>1010.0</v>
+      </c>
+      <c r="B12" t="s">
+        <v>130</v>
+      </c>
+      <c r="C12" t="s">
+        <v>132</v>
+      </c>
+      <c r="D12" t="s">
+        <v>134</v>
+      </c>
+      <c r="E12" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="F12" t="s">
+        <v>131</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>1130.0</v>
+      </c>
+      <c r="B13" t="s">
+        <v>130</v>
+      </c>
+      <c r="C13" t="s">
+        <v>132</v>
+      </c>
+      <c r="D13" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="F13" t="s">
+        <v>131</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>1130.0</v>
+      </c>
+      <c r="B14" t="s">
+        <v>130</v>
+      </c>
+      <c r="C14" t="s">
+        <v>132</v>
+      </c>
+      <c r="D14" t="s">
+        <v>12</v>
+      </c>
+      <c r="E14" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="F14" t="s">
+        <v>131</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>1130.0</v>
+      </c>
+      <c r="B15" t="s">
+        <v>130</v>
+      </c>
+      <c r="C15" t="s">
+        <v>132</v>
+      </c>
+      <c r="D15" t="s">
+        <v>12</v>
+      </c>
+      <c r="E15" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="F15" t="s">
+        <v>131</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>1010.0</v>
+      </c>
+      <c r="B16" t="s">
+        <v>130</v>
+      </c>
+      <c r="C16" t="s">
+        <v>132</v>
+      </c>
+      <c r="D16" t="s">
+        <v>135</v>
+      </c>
+      <c r="E16" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="F16" t="s">
+        <v>131</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>1130.0</v>
+      </c>
+      <c r="B17" t="s">
+        <v>130</v>
+      </c>
+      <c r="C17" t="s">
+        <v>132</v>
+      </c>
+      <c r="D17" t="s">
+        <v>7</v>
+      </c>
+      <c r="E17" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="F17" t="s">
+        <v>131</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>1130.0</v>
+      </c>
+      <c r="B18" t="s">
+        <v>130</v>
+      </c>
+      <c r="C18" t="s">
+        <v>132</v>
+      </c>
+      <c r="D18" t="s">
+        <v>12</v>
+      </c>
+      <c r="E18" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="F18" t="s">
+        <v>131</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>1010.0</v>
+      </c>
+      <c r="B19" t="s">
+        <v>130</v>
+      </c>
+      <c r="C19" t="s">
+        <v>132</v>
+      </c>
+      <c r="D19" t="s">
+        <v>136</v>
+      </c>
+      <c r="E19" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="F19" t="s">
+        <v>131</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>1130.0</v>
+      </c>
+      <c r="B20" t="s">
+        <v>130</v>
+      </c>
+      <c r="C20" t="s">
+        <v>132</v>
+      </c>
+      <c r="D20" t="s">
+        <v>34</v>
+      </c>
+      <c r="E20" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="F20" t="s">
+        <v>131</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>1090.0</v>
+      </c>
+      <c r="B21" t="s">
+        <v>130</v>
+      </c>
+      <c r="C21" t="s">
+        <v>132</v>
+      </c>
+      <c r="D21" t="s">
+        <v>34</v>
+      </c>
+      <c r="E21" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="F21" t="s">
+        <v>131</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>1020.0</v>
+      </c>
+      <c r="B22" t="s">
+        <v>130</v>
+      </c>
+      <c r="C22" t="s">
+        <v>56</v>
+      </c>
+      <c r="D22" t="s">
+        <v>56</v>
+      </c>
+      <c r="E22" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="F22" t="s">
+        <v>131</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>1130.0</v>
+      </c>
+      <c r="B23" t="s">
+        <v>130</v>
+      </c>
+      <c r="C23" t="s">
+        <v>132</v>
+      </c>
+      <c r="D23" t="s">
+        <v>26</v>
+      </c>
+      <c r="E23" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="F23" t="s">
+        <v>131</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>1120.0</v>
+      </c>
+      <c r="B24" t="s">
+        <v>130</v>
+      </c>
+      <c r="C24" t="s">
+        <v>132</v>
+      </c>
+      <c r="D24" t="s">
+        <v>26</v>
+      </c>
+      <c r="E24" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="F24" t="s">
+        <v>131</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>1130.0</v>
+      </c>
+      <c r="B25" t="s">
+        <v>130</v>
+      </c>
+      <c r="C25" t="s">
+        <v>132</v>
+      </c>
+      <c r="D25" t="s">
+        <v>34</v>
+      </c>
+      <c r="E25" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="F25" t="s">
+        <v>131</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>1100.0</v>
+      </c>
+      <c r="B26" t="s">
+        <v>130</v>
+      </c>
+      <c r="C26" t="s">
+        <v>132</v>
+      </c>
+      <c r="D26" t="s">
+        <v>26</v>
+      </c>
+      <c r="E26" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="F26" t="s">
+        <v>131</v>
+      </c>
+      <c r="G26" t="n">
         <v>0.0</v>
       </c>
     </row>
@@ -1204,19 +3154,19 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>83</v>
+        <v>126</v>
       </c>
       <c r="B1" t="s">
-        <v>92</v>
+        <v>137</v>
       </c>
       <c r="C1" t="s">
-        <v>93</v>
+        <v>138</v>
       </c>
       <c r="D1" t="s">
-        <v>94</v>
+        <v>139</v>
       </c>
       <c r="E1" t="s">
-        <v>81</v>
+        <v>122</v>
       </c>
     </row>
   </sheetData>
@@ -1226,7 +3176,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:E32"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1234,155 +3184,546 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>95</v>
+        <v>140</v>
       </c>
       <c r="B1" t="s">
-        <v>96</v>
+        <v>141</v>
       </c>
       <c r="C1" t="s">
-        <v>97</v>
+        <v>142</v>
       </c>
       <c r="D1" t="s">
-        <v>98</v>
+        <v>143</v>
       </c>
       <c r="E1" t="s">
-        <v>99</v>
+        <v>144</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>100</v>
+        <v>145</v>
       </c>
       <c r="B2" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>87</v>
+        <v>130</v>
       </c>
       <c r="D2" t="s">
-        <v>87</v>
+        <v>130</v>
       </c>
       <c r="E2" t="s">
-        <v>87</v>
+        <v>130</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>87</v>
+        <v>146</v>
       </c>
       <c r="B3" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>5</v>
+        <v>130</v>
       </c>
       <c r="D3" t="s">
-        <v>14</v>
+        <v>130</v>
       </c>
       <c r="E3" t="s">
-        <v>101</v>
+        <v>130</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>87</v>
+        <v>145</v>
       </c>
       <c r="B4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>130</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>130</v>
       </c>
       <c r="E4" t="s">
-        <v>102</v>
+        <v>130</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>87</v>
+        <v>146</v>
       </c>
       <c r="B5" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>101</v>
+        <v>130</v>
       </c>
       <c r="D5" t="s">
-        <v>102</v>
+        <v>130</v>
       </c>
       <c r="E5" t="s">
-        <v>89</v>
+        <v>130</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>87</v>
+        <v>145</v>
       </c>
       <c r="B6" t="s">
-        <v>103</v>
+        <v>26</v>
       </c>
       <c r="C6" t="s">
-        <v>89</v>
+        <v>130</v>
       </c>
       <c r="D6" t="s">
-        <v>87</v>
+        <v>130</v>
       </c>
       <c r="E6" t="s">
-        <v>104</v>
+        <v>130</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>87</v>
+        <v>130</v>
       </c>
       <c r="B7" t="s">
-        <v>30</v>
+        <v>147</v>
       </c>
       <c r="C7" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="D7" t="s">
-        <v>87</v>
+        <v>130</v>
       </c>
       <c r="E7" t="s">
-        <v>9</v>
+        <v>130</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>104</v>
+        <v>130</v>
       </c>
       <c r="B8" t="s">
-        <v>87</v>
+        <v>130</v>
       </c>
       <c r="C8" t="s">
-        <v>87</v>
+        <v>12</v>
       </c>
       <c r="D8" t="s">
-        <v>87</v>
+        <v>130</v>
       </c>
       <c r="E8" t="s">
-        <v>87</v>
+        <v>148</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>105</v>
+        <v>146</v>
       </c>
       <c r="B9" t="s">
-        <v>87</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>87</v>
+        <v>130</v>
       </c>
       <c r="D9" t="s">
-        <v>87</v>
+        <v>130</v>
       </c>
       <c r="E9" t="s">
-        <v>87</v>
+        <v>130</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>149</v>
+      </c>
+      <c r="B10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" t="s">
+        <v>130</v>
+      </c>
+      <c r="D10" t="s">
+        <v>130</v>
+      </c>
+      <c r="E10" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>150</v>
+      </c>
+      <c r="B11" t="s">
+        <v>40</v>
+      </c>
+      <c r="C11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" t="s">
+        <v>42</v>
+      </c>
+      <c r="E11" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>130</v>
+      </c>
+      <c r="B12" t="s">
+        <v>151</v>
+      </c>
+      <c r="C12" t="s">
+        <v>133</v>
+      </c>
+      <c r="D12" t="s">
+        <v>130</v>
+      </c>
+      <c r="E12" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>130</v>
+      </c>
+      <c r="B13" t="s">
+        <v>56</v>
+      </c>
+      <c r="C13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D13" t="s">
+        <v>130</v>
+      </c>
+      <c r="E13" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>130</v>
+      </c>
+      <c r="B14" t="s">
+        <v>40</v>
+      </c>
+      <c r="C14" t="s">
+        <v>12</v>
+      </c>
+      <c r="D14" t="s">
+        <v>5</v>
+      </c>
+      <c r="E14" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>130</v>
+      </c>
+      <c r="B15" t="s">
+        <v>151</v>
+      </c>
+      <c r="C15" t="s">
+        <v>134</v>
+      </c>
+      <c r="D15" t="s">
+        <v>130</v>
+      </c>
+      <c r="E15" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>130</v>
+      </c>
+      <c r="B16" t="s">
+        <v>154</v>
+      </c>
+      <c r="C16" t="s">
+        <v>130</v>
+      </c>
+      <c r="D16" t="s">
+        <v>130</v>
+      </c>
+      <c r="E16" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>153</v>
+      </c>
+      <c r="B17" t="s">
+        <v>65</v>
+      </c>
+      <c r="C17" t="s">
+        <v>12</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>130</v>
+      </c>
+      <c r="B18" t="s">
+        <v>65</v>
+      </c>
+      <c r="C18" t="s">
+        <v>12</v>
+      </c>
+      <c r="D18" t="s">
+        <v>35</v>
+      </c>
+      <c r="E18" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>130</v>
+      </c>
+      <c r="B19" t="s">
+        <v>67</v>
+      </c>
+      <c r="C19" t="s">
+        <v>156</v>
+      </c>
+      <c r="D19" t="s">
+        <v>157</v>
+      </c>
+      <c r="E19" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>130</v>
+      </c>
+      <c r="B20" t="s">
+        <v>151</v>
+      </c>
+      <c r="C20" t="s">
+        <v>135</v>
+      </c>
+      <c r="D20" t="s">
+        <v>130</v>
+      </c>
+      <c r="E20" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>130</v>
+      </c>
+      <c r="B21" t="s">
+        <v>154</v>
+      </c>
+      <c r="C21" t="s">
+        <v>130</v>
+      </c>
+      <c r="D21" t="s">
+        <v>130</v>
+      </c>
+      <c r="E21" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>158</v>
+      </c>
+      <c r="B22" t="s">
+        <v>40</v>
+      </c>
+      <c r="C22" t="s">
+        <v>12</v>
+      </c>
+      <c r="D22" t="s">
+        <v>29</v>
+      </c>
+      <c r="E22" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>130</v>
+      </c>
+      <c r="B23" t="s">
+        <v>151</v>
+      </c>
+      <c r="C23" t="s">
+        <v>136</v>
+      </c>
+      <c r="D23" t="s">
+        <v>130</v>
+      </c>
+      <c r="E23" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>130</v>
+      </c>
+      <c r="B24" t="s">
+        <v>56</v>
+      </c>
+      <c r="C24" t="s">
+        <v>34</v>
+      </c>
+      <c r="D24" t="s">
+        <v>130</v>
+      </c>
+      <c r="E24" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>130</v>
+      </c>
+      <c r="B25" t="s">
+        <v>147</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>130</v>
+      </c>
+      <c r="E25" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>130</v>
+      </c>
+      <c r="B26" t="s">
+        <v>130</v>
+      </c>
+      <c r="C26" t="s">
+        <v>34</v>
+      </c>
+      <c r="D26" t="s">
+        <v>130</v>
+      </c>
+      <c r="E26" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>160</v>
+      </c>
+      <c r="B27" t="s">
+        <v>130</v>
+      </c>
+      <c r="C27" t="s">
+        <v>130</v>
+      </c>
+      <c r="D27" t="s">
+        <v>130</v>
+      </c>
+      <c r="E27" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>159</v>
+      </c>
+      <c r="B28" t="s">
+        <v>130</v>
+      </c>
+      <c r="C28" t="s">
+        <v>130</v>
+      </c>
+      <c r="D28" t="s">
+        <v>130</v>
+      </c>
+      <c r="E28" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>155</v>
+      </c>
+      <c r="B29" t="s">
+        <v>130</v>
+      </c>
+      <c r="C29" t="s">
+        <v>130</v>
+      </c>
+      <c r="D29" t="s">
+        <v>130</v>
+      </c>
+      <c r="E29" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s">
+        <v>130</v>
+      </c>
+      <c r="B30" t="s">
+        <v>154</v>
+      </c>
+      <c r="C30" t="s">
+        <v>130</v>
+      </c>
+      <c r="D30" t="s">
+        <v>130</v>
+      </c>
+      <c r="E30" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
+        <v>152</v>
+      </c>
+      <c r="B31" t="s">
+        <v>130</v>
+      </c>
+      <c r="C31" t="s">
+        <v>130</v>
+      </c>
+      <c r="D31" t="s">
+        <v>130</v>
+      </c>
+      <c r="E31" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s">
+        <v>161</v>
+      </c>
+      <c r="B32" t="s">
+        <v>130</v>
+      </c>
+      <c r="C32" t="s">
+        <v>130</v>
+      </c>
+      <c r="D32" t="s">
+        <v>130</v>
+      </c>
+      <c r="E32" t="s">
+        <v>130</v>
       </c>
     </row>
   </sheetData>
@@ -1392,7 +3733,7 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:Y3"/>
+  <dimension ref="A1:Y6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1400,79 +3741,79 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>106</v>
+        <v>162</v>
       </c>
       <c r="B1" t="s">
-        <v>73</v>
+        <v>114</v>
       </c>
       <c r="C1" t="s">
-        <v>74</v>
+        <v>115</v>
       </c>
       <c r="D1" t="s">
-        <v>72</v>
+        <v>113</v>
       </c>
       <c r="E1" t="s">
-        <v>107</v>
+        <v>163</v>
       </c>
       <c r="F1" t="s">
-        <v>108</v>
+        <v>164</v>
       </c>
       <c r="G1" t="s">
-        <v>75</v>
+        <v>116</v>
       </c>
       <c r="H1" t="s">
-        <v>109</v>
+        <v>165</v>
       </c>
       <c r="I1" t="s">
-        <v>78</v>
+        <v>119</v>
       </c>
       <c r="J1" t="s">
-        <v>110</v>
+        <v>166</v>
       </c>
       <c r="K1" t="s">
-        <v>111</v>
+        <v>167</v>
       </c>
       <c r="L1" t="s">
-        <v>112</v>
+        <v>56</v>
       </c>
       <c r="M1" t="s">
-        <v>113</v>
+        <v>168</v>
       </c>
       <c r="N1" t="s">
-        <v>114</v>
+        <v>169</v>
       </c>
       <c r="O1" t="s">
-        <v>115</v>
+        <v>170</v>
       </c>
       <c r="P1" t="s">
-        <v>116</v>
+        <v>171</v>
       </c>
       <c r="Q1" t="s">
-        <v>103</v>
+        <v>151</v>
       </c>
       <c r="R1" t="s">
-        <v>117</v>
+        <v>154</v>
       </c>
       <c r="S1" t="s">
-        <v>118</v>
+        <v>172</v>
       </c>
       <c r="T1" t="s">
-        <v>119</v>
+        <v>173</v>
       </c>
       <c r="U1" t="s">
-        <v>120</v>
+        <v>174</v>
       </c>
       <c r="V1" t="s">
-        <v>121</v>
+        <v>175</v>
       </c>
       <c r="W1" t="s">
-        <v>122</v>
+        <v>176</v>
       </c>
       <c r="X1" t="s">
-        <v>123</v>
+        <v>145</v>
       </c>
       <c r="Y1" t="s">
-        <v>100</v>
+        <v>149</v>
       </c>
     </row>
     <row r="2">
@@ -1495,7 +3836,7 @@
         <v>0.0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.0</v>
+        <v>6.0</v>
       </c>
       <c r="H2" t="n">
         <v>0.0</v>
@@ -1507,13 +3848,13 @@
         <v>0.0</v>
       </c>
       <c r="K2" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="L2" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="M2" t="n">
-        <v>2.0</v>
+        <v>5.0</v>
       </c>
       <c r="N2" t="n">
         <v>1.0</v>
@@ -1522,19 +3863,19 @@
         <v>0.0</v>
       </c>
       <c r="P2" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
       <c r="R2" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="S2" t="n">
         <v>0.0</v>
       </c>
       <c r="T2" t="n">
-        <v>1.0</v>
+        <v>5.0</v>
       </c>
       <c r="U2" t="n">
         <v>0.0</v>
@@ -1543,18 +3884,18 @@
         <v>0.0</v>
       </c>
       <c r="W2" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="X2" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="Y2" t="n">
         <v>1.0</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s">
-        <v>124</v>
+      <c r="A3" t="n">
+        <v>1.0</v>
       </c>
       <c r="B3" t="n">
         <v>0.0</v>
@@ -1572,60 +3913,291 @@
         <v>0.0</v>
       </c>
       <c r="G3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="B4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
         <v>3.0</v>
       </c>
-      <c r="H3" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="M3" t="n">
+      <c r="B5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>177</v>
+      </c>
+      <c r="B6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K6" t="n">
         <v>2.0</v>
       </c>
-      <c r="N3" t="n">
+      <c r="L6" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="N6" t="n">
         <v>1.0</v>
       </c>
-      <c r="O3" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="P3" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="R3" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="S3" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="T3" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="U3" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="V3" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="W3" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="X3" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="Y3" t="n">
+      <c r="O6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="R6" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="S6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T6" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="U6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W6" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="X6" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="Y6" t="n">
         <v>1.0</v>
       </c>
     </row>
